--- a/clientes/files/TODITICO_CATÁLOGO.xlsx
+++ b/clientes/files/TODITICO_CATÁLOGO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy\Documents\Catálogos Proformas\Este\400\Clientes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy\Documents\Catálogos Proformas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1D5DFB-4981-45D9-B6DE-975951B25207}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42636F3-92F6-4AAD-972E-1D59CA61DF2D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="526">
   <si>
     <t>DESCRIPCION</t>
   </si>
@@ -926,9 +926,6 @@
     <t>CREMALLERAS DE PUERTAS C/U</t>
   </si>
   <si>
-    <t>CUBO DE RUEDAS</t>
-  </si>
-  <si>
     <t>CULEBRA CUENTAMILLAS</t>
   </si>
   <si>
@@ -1575,6 +1572,87 @@
   </si>
   <si>
     <t>BATERIAS 40 Ah</t>
+  </si>
+  <si>
+    <t>CUBOS DE RUEDAS PAREJA</t>
+  </si>
+  <si>
+    <t>SENSOR DE POSICION DE ARBOL DE LEVAS</t>
+  </si>
+  <si>
+    <t>PASTILLAS DE FRENO</t>
+  </si>
+  <si>
+    <t>BUJIAS ATOS, I10, PICANTO 1RA C/U</t>
+  </si>
+  <si>
+    <t>VALVULAS DE ADMISION Y DE ESCAPE ATOS, I10, PICANTO 1RA C/U</t>
+  </si>
+  <si>
+    <t>CORREA AGREGADOS ATOS 4pk878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TANQUE AUXILIAR DE RADIADOR ATOS </t>
+  </si>
+  <si>
+    <t>TAPA DE TANQUE AUXILIAR DE RADIADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABLE DE EMBRAGUE </t>
+  </si>
+  <si>
+    <t>BOTAS DE CREMALLERA PAREJA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABLE DE EMERGENCIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERMOSTATO </t>
+  </si>
+  <si>
+    <t>PARRILLAS DELANTERAS PICANTO 2DA PAREJA</t>
+  </si>
+  <si>
+    <t>SENSOR DE POSICION DE ARBOL DE LEVAS PICANTO 1RA</t>
+  </si>
+  <si>
+    <t>BUJIAS PICANTO 1RA, ATOS, I10 C/U</t>
+  </si>
+  <si>
+    <t>VALVULAS DE ADMISION Y DE ESCAPE PICANTO 1RA, ATOS, I10 C/U</t>
+  </si>
+  <si>
+    <t>MANGUERA DE RADIADOR SUPERIOR PICANTO 1RA(08-11)</t>
+  </si>
+  <si>
+    <t>MANGUERA DE RADIADOR INFERIOR PICANTO 1RA(08-11)</t>
+  </si>
+  <si>
+    <t>MANGUERA DE FRENO PICANTO 1RA</t>
+  </si>
+  <si>
+    <t>MANGUERA DE FRENO DELANTERA PICANTO 2DA</t>
+  </si>
+  <si>
+    <t>MANGUERA DE FRENO TRASERA PICANTO 2DA</t>
+  </si>
+  <si>
+    <t>CABLE DE EMERGENCIA PICANTO 1RA</t>
+  </si>
+  <si>
+    <t>CABLE DE EMERGENCIA PICANTO 2DA</t>
+  </si>
+  <si>
+    <t>FILTRO DE AIRE ACONDICIONADO PICANTO 1RA</t>
+  </si>
+  <si>
+    <t>TAMBORA PICANTO 2DA</t>
+  </si>
+  <si>
+    <t>ACEITE MOTOR SINTÉTICO 10W40 5L</t>
+  </si>
+  <si>
+    <t>ACEITE DE CAJA AUTOMÁTICA DEXRON III 5L</t>
   </si>
 </sst>
 </file>
@@ -1585,7 +1663,7 @@
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1630,6 +1708,10 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1711,6 +1793,9 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1748,13 +1833,16 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1763,13 +1851,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2048,13 +2130,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B276"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="88.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2075,7 +2158,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B3" s="2">
         <v>12</v>
@@ -2291,7 +2374,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B30" s="2">
         <v>80</v>
@@ -2315,7 +2398,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B33" s="2">
         <v>50</v>
@@ -2323,7 +2406,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B34" s="2">
         <v>12</v>
@@ -2379,7 +2462,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B41" s="2">
         <v>1</v>
@@ -2387,7 +2470,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B42" s="2">
         <v>1</v>
@@ -2395,7 +2478,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B43" s="2">
         <v>1</v>
@@ -2403,7 +2486,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B44" s="2">
         <v>10</v>
@@ -2435,7 +2518,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B48" s="2">
         <v>10</v>
@@ -2443,7 +2526,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B49" s="2">
         <v>10</v>
@@ -2651,7 +2734,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B75" s="2">
         <v>15</v>
@@ -2659,7 +2742,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B76" s="2">
         <v>30</v>
@@ -2723,7 +2806,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B84" s="2">
         <v>70</v>
@@ -2755,7 +2838,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B88" s="2">
         <v>25</v>
@@ -2819,7 +2902,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B96" s="2">
         <v>10</v>
@@ -2875,7 +2958,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>283</v>
+        <v>499</v>
       </c>
       <c r="B103" s="2">
         <v>100</v>
@@ -2883,7 +2966,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B104" s="2">
         <v>25</v>
@@ -2891,7 +2974,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B105" s="2">
         <v>450</v>
@@ -2899,7 +2982,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B106" s="2">
         <v>180</v>
@@ -2907,7 +2990,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B107" s="2">
         <v>10</v>
@@ -2915,7 +2998,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B108" s="2">
         <v>30</v>
@@ -2923,7 +3006,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B109" s="2">
         <v>30</v>
@@ -2931,7 +3014,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B110" s="2">
         <v>60</v>
@@ -2939,7 +3022,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B111" s="2">
         <v>120</v>
@@ -2947,7 +3030,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B112" s="2">
         <v>25</v>
@@ -2955,7 +3038,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B113" s="2">
         <v>80</v>
@@ -2963,7 +3046,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B114" s="2">
         <v>250</v>
@@ -2979,7 +3062,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B116" s="2">
         <v>20</v>
@@ -2987,7 +3070,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B117" s="2">
         <v>15</v>
@@ -2995,7 +3078,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B118" s="2">
         <v>50</v>
@@ -3003,7 +3086,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B119" s="2">
         <v>60</v>
@@ -3011,7 +3094,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B120" s="2">
         <v>100</v>
@@ -3019,7 +3102,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B121" s="2">
         <v>15</v>
@@ -3027,7 +3110,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B122" s="2">
         <v>50</v>
@@ -3035,7 +3118,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B123" s="2">
         <v>70</v>
@@ -3043,7 +3126,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B124" s="2">
         <v>10</v>
@@ -3051,7 +3134,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B125" s="2">
         <v>10</v>
@@ -3059,7 +3142,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B126" s="2">
         <v>10</v>
@@ -3067,7 +3150,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B127" s="2">
         <v>30</v>
@@ -3075,7 +3158,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B128" s="2">
         <v>90</v>
@@ -3083,7 +3166,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B129" s="2">
         <v>50</v>
@@ -3091,7 +3174,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B130" s="2">
         <v>10</v>
@@ -3099,7 +3182,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B131" s="2">
         <v>30</v>
@@ -3107,7 +3190,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B132" s="2">
         <v>120</v>
@@ -3115,7 +3198,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B133" s="2">
         <v>15</v>
@@ -3123,7 +3206,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B134" s="2">
         <v>70</v>
@@ -3131,7 +3214,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B135" s="2">
         <v>20</v>
@@ -3139,7 +3222,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B136" s="2">
         <v>5</v>
@@ -3147,7 +3230,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B137" s="2">
         <v>100</v>
@@ -3155,7 +3238,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B138" s="2">
         <v>60</v>
@@ -3163,7 +3246,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B139" s="2">
         <v>30</v>
@@ -3171,7 +3254,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B140" s="2">
         <v>100</v>
@@ -3179,7 +3262,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B141" s="2">
         <v>30</v>
@@ -3187,7 +3270,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B142" s="2">
         <v>10</v>
@@ -3195,7 +3278,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B143" s="2">
         <v>15</v>
@@ -3203,7 +3286,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B144" s="2">
         <v>30</v>
@@ -3211,7 +3294,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B145" s="2">
         <v>10</v>
@@ -3219,7 +3302,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B146" s="2">
         <v>10</v>
@@ -3227,7 +3310,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B147" s="2">
         <v>10</v>
@@ -3235,7 +3318,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B148" s="2">
         <v>20</v>
@@ -3243,7 +3326,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B149" s="2">
         <v>2</v>
@@ -3251,7 +3334,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B150" s="2">
         <v>20</v>
@@ -3259,7 +3342,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B151" s="2">
         <v>50</v>
@@ -3267,7 +3350,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B152" s="2">
         <v>40</v>
@@ -3275,7 +3358,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B153" s="2">
         <v>90</v>
@@ -3283,7 +3366,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B154" s="2">
         <v>12</v>
@@ -3291,7 +3374,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B155" s="2">
         <v>15</v>
@@ -3299,7 +3382,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B156" s="2">
         <v>550</v>
@@ -3307,7 +3390,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B157" s="2">
         <v>6</v>
@@ -3315,7 +3398,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B158" s="2">
         <v>10</v>
@@ -3323,7 +3406,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B159" s="2">
         <v>20</v>
@@ -3331,7 +3414,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B160" s="2">
         <v>15</v>
@@ -3339,7 +3422,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B161" s="2">
         <v>5</v>
@@ -3347,7 +3430,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B162" s="2">
         <v>15</v>
@@ -3355,7 +3438,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B163" s="2">
         <v>70</v>
@@ -3363,7 +3446,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B164" s="2">
         <v>10</v>
@@ -3371,7 +3454,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B165" s="2">
         <v>10</v>
@@ -3379,7 +3462,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B166" s="2">
         <v>20</v>
@@ -3387,7 +3470,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B167" s="2">
         <v>10</v>
@@ -3395,7 +3478,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B168" s="2">
         <v>10</v>
@@ -3403,7 +3486,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B169" s="2">
         <v>10</v>
@@ -3411,7 +3494,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B170" s="2">
         <v>50</v>
@@ -3419,7 +3502,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B171" s="2">
         <v>30</v>
@@ -3427,7 +3510,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B172" s="2">
         <v>7</v>
@@ -3435,7 +3518,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B173" s="2">
         <v>280</v>
@@ -3443,7 +3526,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B174" s="2">
         <v>150</v>
@@ -3451,7 +3534,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B175" s="2">
         <v>80</v>
@@ -3459,7 +3542,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B176" s="2">
         <v>30</v>
@@ -3467,7 +3550,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B177" s="2">
         <v>150</v>
@@ -3475,7 +3558,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B178" s="2">
         <v>10</v>
@@ -3483,7 +3566,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B179" s="2">
         <v>10</v>
@@ -3491,7 +3574,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B180" s="2">
         <v>20</v>
@@ -3499,7 +3582,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B181" s="2">
         <v>100</v>
@@ -3507,7 +3590,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B182" s="2">
         <v>120</v>
@@ -3515,7 +3598,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B183" s="2">
         <v>300</v>
@@ -3523,7 +3606,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B184" s="2">
         <v>160</v>
@@ -3531,7 +3614,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B185" s="2">
         <v>110</v>
@@ -3539,7 +3622,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B186" s="2">
         <v>160</v>
@@ -3547,7 +3630,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B187" s="2">
         <v>30</v>
@@ -3555,7 +3638,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B188" s="2">
         <v>170</v>
@@ -3563,7 +3646,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B189" s="2">
         <v>80</v>
@@ -3571,7 +3654,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B190" s="2">
         <v>220</v>
@@ -3579,7 +3662,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B191" s="2">
         <v>90</v>
@@ -3587,7 +3670,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B192" s="2">
         <v>25</v>
@@ -3595,7 +3678,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B193" s="2">
         <v>70</v>
@@ -3603,7 +3686,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B194" s="2">
         <v>25</v>
@@ -3611,7 +3694,7 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B195" s="2">
         <v>10</v>
@@ -3619,7 +3702,7 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B196" s="2">
         <v>30</v>
@@ -3627,7 +3710,7 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B197" s="2">
         <v>30</v>
@@ -3635,7 +3718,7 @@
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B198" s="2">
         <v>60</v>
@@ -3643,7 +3726,7 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B199" s="2">
         <v>40</v>
@@ -3651,7 +3734,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B200" s="2">
         <v>30</v>
@@ -3659,7 +3742,7 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B201" s="2">
         <v>20</v>
@@ -3667,7 +3750,7 @@
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B202" s="2">
         <v>20</v>
@@ -3675,7 +3758,7 @@
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B203" s="2">
         <v>150</v>
@@ -3683,7 +3766,7 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B204" s="2">
         <v>350</v>
@@ -3691,7 +3774,7 @@
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B205" s="2">
         <v>20</v>
@@ -3699,7 +3782,7 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B206" s="2">
         <v>20</v>
@@ -3707,7 +3790,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B207" s="2">
         <v>15</v>
@@ -3715,7 +3798,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B208" s="2">
         <v>30</v>
@@ -3723,7 +3806,7 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B209" s="2">
         <v>15</v>
@@ -3731,7 +3814,7 @@
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B210" s="2">
         <v>70</v>
@@ -3739,7 +3822,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B211" s="2">
         <v>40</v>
@@ -3747,7 +3830,7 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B212" s="2">
         <v>100</v>
@@ -3755,7 +3838,7 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B213" s="2">
         <v>70</v>
@@ -3763,7 +3846,7 @@
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B214" s="2">
         <v>15</v>
@@ -3771,7 +3854,7 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B215" s="2">
         <v>130</v>
@@ -3779,7 +3862,7 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B216" s="2">
         <v>200</v>
@@ -3787,7 +3870,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B217" s="2">
         <v>30</v>
@@ -3795,7 +3878,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B218" s="2">
         <v>15</v>
@@ -3803,7 +3886,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B219" s="2">
         <v>65</v>
@@ -3811,7 +3894,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B220" s="2">
         <v>95</v>
@@ -3819,7 +3902,7 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B221" s="2">
         <v>10</v>
@@ -3827,7 +3910,7 @@
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B222" s="2">
         <v>20</v>
@@ -3835,7 +3918,7 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B223" s="2">
         <v>10</v>
@@ -3843,7 +3926,7 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B224" s="2">
         <v>10</v>
@@ -3851,7 +3934,7 @@
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B225" s="2">
         <v>10</v>
@@ -3859,7 +3942,7 @@
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B226" s="2">
         <v>10</v>
@@ -3867,7 +3950,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B227" s="2">
         <v>15</v>
@@ -3875,7 +3958,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B228" s="2">
         <v>15</v>
@@ -3883,7 +3966,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B229" s="2">
         <v>15</v>
@@ -3891,7 +3974,7 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B230" s="2">
         <v>15</v>
@@ -3899,7 +3982,7 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B231" s="2">
         <v>6</v>
@@ -3907,7 +3990,7 @@
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B232" s="2">
         <v>10</v>
@@ -3915,7 +3998,7 @@
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B233" s="2">
         <v>150</v>
@@ -3923,7 +4006,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B234" s="2">
         <v>180</v>
@@ -3931,7 +4014,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B235" s="2">
         <v>90</v>
@@ -3939,7 +4022,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B236" s="2">
         <v>30</v>
@@ -3947,7 +4030,7 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B237" s="2">
         <v>25</v>
@@ -3955,7 +4038,7 @@
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B238" s="2">
         <v>4</v>
@@ -3963,7 +4046,7 @@
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B239" s="2">
         <v>75</v>
@@ -3971,7 +4054,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B240" s="2">
         <v>25</v>
@@ -3979,7 +4062,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B241" s="2">
         <v>70</v>
@@ -3987,7 +4070,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B242" s="2">
         <v>15</v>
@@ -3995,7 +4078,7 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B243" s="2">
         <v>250</v>
@@ -4003,7 +4086,7 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B244" s="2">
         <v>550</v>
@@ -4011,7 +4094,7 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B245" s="2">
         <v>25</v>
@@ -4019,7 +4102,7 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B246" s="2">
         <v>10</v>
@@ -4027,7 +4110,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B247" s="2">
         <v>10</v>
@@ -4035,7 +4118,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B248" s="2">
         <v>15</v>
@@ -4043,7 +4126,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B249" s="2">
         <v>7</v>
@@ -4051,7 +4134,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B250" s="2">
         <v>50</v>
@@ -4059,7 +4142,7 @@
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B251" s="2">
         <v>5</v>
@@ -4067,7 +4150,7 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B252" s="2">
         <v>5</v>
@@ -4075,7 +4158,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B253" s="2">
         <v>5</v>
@@ -4083,7 +4166,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B254" s="2">
         <v>7</v>
@@ -4091,7 +4174,7 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B255" s="2">
         <v>20</v>
@@ -4099,7 +4182,7 @@
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B256" s="2">
         <v>10</v>
@@ -4107,7 +4190,7 @@
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B257" s="2">
         <v>15</v>
@@ -4115,7 +4198,7 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B258" s="2">
         <v>5</v>
@@ -4123,7 +4206,7 @@
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B259" s="2">
         <v>7</v>
@@ -4131,7 +4214,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B260" s="2">
         <v>10</v>
@@ -4139,7 +4222,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B261" s="2">
         <v>2</v>
@@ -4147,7 +4230,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B262" s="2">
         <v>5</v>
@@ -4155,7 +4238,7 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B263" s="2">
         <v>3</v>
@@ -4163,7 +4246,7 @@
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B264" s="2">
         <v>4</v>
@@ -4171,7 +4254,7 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B265" s="2">
         <v>3</v>
@@ -4179,7 +4262,7 @@
     </row>
     <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B266" s="2">
         <v>2</v>
@@ -4187,7 +4270,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B267" s="2">
         <v>20</v>
@@ -4195,7 +4278,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B268" s="2">
         <v>25</v>
@@ -4203,7 +4286,7 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B269" s="2">
         <v>45</v>
@@ -4211,7 +4294,7 @@
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B270" s="2">
         <v>15</v>
@@ -4219,7 +4302,7 @@
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B271" s="2">
         <v>60</v>
@@ -4227,7 +4310,7 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B272" s="2">
         <v>100</v>
@@ -4235,7 +4318,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B273" s="2">
         <v>35</v>
@@ -4243,7 +4326,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B274" s="2">
         <v>10</v>
@@ -4251,7 +4334,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B275" s="2">
         <v>10</v>
@@ -4259,26 +4342,23 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B276" s="2">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:B276">
-    <sortCondition ref="A3:A276"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15"/>
@@ -4353,7 +4433,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B9" s="5">
         <v>80</v>
@@ -4393,7 +4473,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B14" s="5">
         <v>1</v>
@@ -4401,7 +4481,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B15" s="5">
         <v>1</v>
@@ -4409,7 +4489,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -4417,183 +4497,183 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="7" t="s">
-        <v>13</v>
+        <v>508</v>
       </c>
       <c r="B17" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="7" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B18" s="5">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="7" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B19" s="5">
-        <v>10</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="B21" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B22" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="5">
-        <v>35</v>
-      </c>
-    </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="10" t="s">
-        <v>47</v>
+      <c r="A23" s="7" t="s">
+        <v>507</v>
       </c>
       <c r="B23" s="5">
-        <v>140</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="8" t="s">
-        <v>149</v>
+      <c r="A24" s="7" t="s">
+        <v>509</v>
       </c>
       <c r="B24" s="5">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="B28" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B30" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>495</v>
-      </c>
-      <c r="B26" s="31">
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>494</v>
+      </c>
+      <c r="B31" s="12">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="6" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B32" s="5">
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="12" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B33" s="5">
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="6" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B34" s="5">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="11" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B35" s="5">
         <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="5">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>494</v>
-      </c>
-      <c r="B32" s="31">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B33" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="5">
-        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="14" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="B36" s="5">
-        <v>15</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="B37" s="5">
-        <v>80</v>
+      <c r="A37" t="s">
+        <v>493</v>
+      </c>
+      <c r="B37" s="12">
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="7" t="s">
-        <v>4</v>
+      <c r="A38" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="B38" s="5">
-        <v>120</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="9" t="s">
-        <v>19</v>
+      <c r="A39" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="B39" s="5">
         <v>10</v>
@@ -4601,175 +4681,263 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B41" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B42" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B45" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="5">
+    <row r="46" spans="1:2">
+      <c r="A46" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="5">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="9" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B47" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B43" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B44" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B45" s="5">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B46" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47" s="5">
-        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B50" s="5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B53" s="5">
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="11" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="B54" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B55" s="5">
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="9" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B56" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>493</v>
-      </c>
-      <c r="B51" s="31">
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>492</v>
+      </c>
+      <c r="B57" s="12">
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="10" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B58" s="5">
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="15" t="s">
+    <row r="59" spans="1:2">
+      <c r="A59" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B59" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="15" t="s">
+    <row r="60" spans="1:2">
+      <c r="A60" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B60" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="15" t="s">
+    <row r="61" spans="1:2">
+      <c r="A61" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B61" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="18" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B62" s="5">
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="9" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="B63" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="B64" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B65" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="19" t="s">
+    <row r="66" spans="1:2">
+      <c r="A66" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="B66" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B67" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>466</v>
-      </c>
-      <c r="B59" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="7" t="s">
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>465</v>
+      </c>
+      <c r="B68" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="B69" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="B70" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B71" s="5">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B60">
-    <sortCondition ref="A2:A60"/>
+  <sortState ref="A3:B71">
+    <sortCondition ref="A3:A71"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4777,10 +4945,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B156"/>
+  <dimension ref="A1:B169"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15"/>
@@ -4790,15 +4958,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="5">
@@ -4806,7 +4974,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="5">
@@ -4814,7 +4982,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>145</v>
       </c>
       <c r="B4" s="5">
@@ -4822,7 +4990,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>158</v>
       </c>
       <c r="B5" s="5">
@@ -4830,7 +4998,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="5">
@@ -4838,7 +5006,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="22" t="s">
         <v>188</v>
       </c>
       <c r="B7" s="5">
@@ -4846,7 +5014,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>102</v>
       </c>
       <c r="B8" s="5">
@@ -4854,7 +5022,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="24" t="s">
         <v>197</v>
       </c>
       <c r="B9" s="5">
@@ -4862,7 +5030,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>159</v>
       </c>
       <c r="B10" s="5">
@@ -4870,7 +5038,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>160</v>
       </c>
       <c r="B11" s="5">
@@ -4878,7 +5046,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="5">
@@ -4886,15 +5054,15 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="15" t="s">
-        <v>499</v>
+      <c r="A13" s="16" t="s">
+        <v>498</v>
       </c>
       <c r="B13" s="5">
         <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>194</v>
       </c>
       <c r="B14" s="5">
@@ -4902,7 +5070,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>103</v>
       </c>
       <c r="B15" s="5">
@@ -4910,23 +5078,23 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="16" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="5">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="5">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="24" t="s">
         <v>144</v>
       </c>
       <c r="B18" s="5">
@@ -4934,7 +5102,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>161</v>
       </c>
       <c r="B19" s="5">
@@ -4942,7 +5110,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="16" t="s">
         <v>42</v>
       </c>
       <c r="B20" s="5">
@@ -4950,7 +5118,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="16" t="s">
         <v>43</v>
       </c>
       <c r="B21" s="5">
@@ -4958,7 +5126,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>44</v>
       </c>
       <c r="B22" s="5">
@@ -4966,7 +5134,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="16" t="s">
         <v>189</v>
       </c>
       <c r="B23" s="5">
@@ -4974,7 +5142,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="23" t="s">
         <v>38</v>
       </c>
       <c r="B24" s="5">
@@ -4982,16 +5150,16 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="15" t="s">
-        <v>470</v>
+      <c r="A25" s="16" t="s">
+        <v>469</v>
       </c>
       <c r="B25" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="15" t="s">
-        <v>471</v>
+      <c r="A26" s="16" t="s">
+        <v>470</v>
       </c>
       <c r="B26" s="5">
         <v>1</v>
@@ -4999,14 +5167,14 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="16" t="s">
         <v>105</v>
       </c>
       <c r="B28" s="5">
@@ -5014,7 +5182,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="16" t="s">
         <v>104</v>
       </c>
       <c r="B29" s="5">
@@ -5022,7 +5190,7 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="16" t="s">
         <v>106</v>
       </c>
       <c r="B30" s="5">
@@ -5030,7 +5198,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="16" t="s">
         <v>162</v>
       </c>
       <c r="B31" s="5">
@@ -5038,7 +5206,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="16" t="s">
         <v>163</v>
       </c>
       <c r="B32" s="5">
@@ -5046,7 +5214,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="16" t="s">
         <v>107</v>
       </c>
       <c r="B33" s="5">
@@ -5054,992 +5222,1096 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="16" t="s">
+        <v>513</v>
+      </c>
+      <c r="B34" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="25" t="s">
         <v>164</v>
-      </c>
-      <c r="B34" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="22" t="s">
-        <v>165</v>
       </c>
       <c r="B35" s="5">
         <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="B36" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="16" t="s">
+        <v>521</v>
+      </c>
+      <c r="B37" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B38" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B39" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="15" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B40" s="5">
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="15" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B41" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="21" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B42" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="15" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B43" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="15" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B44" s="5">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="24" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B45" s="5">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="15" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="B43" s="5">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="5">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="5">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="15" t="s">
-        <v>51</v>
       </c>
       <c r="B46" s="5">
         <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B50" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="15" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B51" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="15" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B52" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="15" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B53" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="15" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B54" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="15" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B55" s="5">
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="15" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B56" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="15" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B57" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="15" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B58" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="15" t="s">
+    <row r="59" spans="1:2">
+      <c r="A59" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B59" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="15" t="s">
+    <row r="60" spans="1:2">
+      <c r="A60" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B60" s="5">
         <v>160</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="15" t="s">
+    <row r="61" spans="1:2">
+      <c r="A61" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B61" s="5">
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="15" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="B59" s="5">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60" s="5">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B61" s="5">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="15" t="s">
-        <v>61</v>
       </c>
       <c r="B62" s="5">
         <v>250</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="15" t="s">
-        <v>62</v>
+      <c r="A63" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="B63" s="5">
         <v>250</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B64" s="5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B67" s="5">
         <v>250</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="15" t="s">
+    <row r="68" spans="1:2">
+      <c r="A68" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B68" s="5">
         <v>150</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="15" t="s">
+    <row r="69" spans="1:2">
+      <c r="A69" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B69" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="15" t="s">
+    <row r="70" spans="1:2">
+      <c r="A70" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B70" s="5">
         <v>220</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="15" t="s">
+    <row r="71" spans="1:2">
+      <c r="A71" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B71" s="5">
         <v>220</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="15" t="s">
+    <row r="72" spans="1:2">
+      <c r="A72" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B72" s="5">
         <v>220</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="15" t="s">
+    <row r="73" spans="1:2">
+      <c r="A73" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B73" s="5">
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="24" t="s">
+    <row r="74" spans="1:2">
+      <c r="A74" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B74" s="5">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="15" t="s">
+    <row r="75" spans="1:2">
+      <c r="A75" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B75" s="5">
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="15" t="s">
+    <row r="76" spans="1:2">
+      <c r="A76" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B73" s="5">
+      <c r="B76" s="5">
         <v>140</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="15" t="s">
+    <row r="77" spans="1:2">
+      <c r="A77" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B77" s="5">
         <v>180</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="32" t="s">
-        <v>497</v>
-      </c>
-      <c r="B75" s="31">
+    <row r="78" spans="1:2">
+      <c r="A78" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="B78" s="12">
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="15" t="s">
+    <row r="79" spans="1:2">
+      <c r="A79" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B76" s="5">
+      <c r="B79" s="5">
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="15" t="s">
+    <row r="80" spans="1:2">
+      <c r="A80" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="B77" s="5">
+      <c r="B80" s="5">
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="15" t="s">
+    <row r="81" spans="1:2">
+      <c r="A81" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B81" s="5">
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="15" t="s">
+    <row r="82" spans="1:2">
+      <c r="A82" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B79" s="5">
+      <c r="B82" s="5">
         <v>150</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="22" t="s">
+    <row r="83" spans="1:2">
+      <c r="A83" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="B80" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="15" t="s">
+      <c r="B83" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="B81" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="15" t="s">
+      <c r="B84" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="B85" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B82" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="15" t="s">
+      <c r="B86" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B83" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="15" t="s">
+      <c r="B87" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B84" s="5">
+      <c r="B88" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="15" t="s">
+    <row r="89" spans="1:2">
+      <c r="A89" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="B85" s="5">
+      <c r="B89" s="5">
         <v>80</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="15" t="s">
-        <v>491</v>
-      </c>
-      <c r="B86" s="5">
+    <row r="90" spans="1:2">
+      <c r="A90" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="B90" s="5">
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="15" t="s">
+    <row r="91" spans="1:2">
+      <c r="A91" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B87" s="5">
+      <c r="B91" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="15" t="s">
+    <row r="92" spans="1:2">
+      <c r="A92" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B88" s="5">
+      <c r="B92" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="25" t="s">
+    <row r="93" spans="1:2">
+      <c r="A93" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="B89" s="5">
+      <c r="B93" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="15" t="s">
+    <row r="94" spans="1:2">
+      <c r="A94" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B90" s="5">
+      <c r="B94" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="15" t="s">
+    <row r="95" spans="1:2">
+      <c r="A95" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B91" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="26" t="s">
+      <c r="B95" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B92" s="5">
+      <c r="B96" s="5">
         <v>60</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="15" t="s">
+    <row r="97" spans="1:2">
+      <c r="A97" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="B93" s="5">
+      <c r="B97" s="5">
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="B94" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="B95" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B96" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B97" s="5">
-        <v>15</v>
-      </c>
-    </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="15" t="s">
-        <v>115</v>
+      <c r="A98" s="16" t="s">
+        <v>518</v>
       </c>
       <c r="B98" s="5">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="15" t="s">
-        <v>117</v>
+      <c r="A99" s="16" t="s">
+        <v>517</v>
       </c>
       <c r="B99" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="15" t="s">
+      <c r="A100" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="B100" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="16" t="s">
+        <v>516</v>
+      </c>
+      <c r="B101" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B102" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="16" t="s">
+        <v>515</v>
+      </c>
+      <c r="B103" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B104" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B105" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B106" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B107" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B108" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="B100" s="5">
+      <c r="B109" s="5">
         <v>250</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="23" t="s">
+    <row r="110" spans="1:2">
+      <c r="A110" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="B101" s="5">
+      <c r="B110" s="5">
         <v>140</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="15" t="s">
+    <row r="111" spans="1:2">
+      <c r="A111" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="B102" s="5">
+      <c r="B111" s="5">
         <v>150</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="15" t="s">
+    <row r="112" spans="1:2">
+      <c r="A112" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B103" s="5">
+      <c r="B112" s="5">
         <v>150</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="15" t="s">
+    <row r="113" spans="1:2">
+      <c r="A113" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B104" s="5">
+      <c r="B113" s="5">
         <v>140</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="15" t="s">
+    <row r="114" spans="1:2">
+      <c r="A114" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B105" s="5">
+      <c r="B114" s="5">
         <v>120</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="15" t="s">
+    <row r="115" spans="1:2">
+      <c r="A115" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B106" s="5">
+      <c r="B115" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="15" t="s">
+    <row r="116" spans="1:2">
+      <c r="A116" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B107" s="5">
+      <c r="B116" s="5">
         <v>230</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="15" t="s">
+    <row r="117" spans="1:2">
+      <c r="A117" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B108" s="5">
+      <c r="B117" s="5">
         <v>350</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="27" t="s">
+    <row r="118" spans="1:2">
+      <c r="A118" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B109" s="5">
+      <c r="B118" s="5">
         <v>180</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="15" t="s">
+    <row r="119" spans="1:2">
+      <c r="A119" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="B119" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="B110" s="5">
+      <c r="B120" s="5">
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="15" t="s">
+    <row r="121" spans="1:2">
+      <c r="A121" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="B111" s="5">
+      <c r="B121" s="5">
         <v>35</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="15" t="s">
+    <row r="122" spans="1:2">
+      <c r="A122" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B112" s="5">
+      <c r="B122" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="24" t="s">
+    <row r="123" spans="1:2">
+      <c r="A123" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="B113" s="5">
+      <c r="B123" s="5">
         <v>70</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="28" t="s">
+    <row r="124" spans="1:2">
+      <c r="A124" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="B114" s="5">
+      <c r="B124" s="5">
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="15" t="s">
+    <row r="125" spans="1:2">
+      <c r="A125" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="B115" s="5">
+      <c r="B125" s="5">
         <v>45</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="15" t="s">
+    <row r="126" spans="1:2">
+      <c r="A126" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B116" s="5">
+      <c r="B126" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="15" t="s">
+    <row r="127" spans="1:2">
+      <c r="A127" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="B117" s="5">
+      <c r="B127" s="5">
         <v>45</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="32" t="s">
-        <v>496</v>
-      </c>
-      <c r="B118" s="31">
+    <row r="128" spans="1:2">
+      <c r="A128" s="26" t="s">
+        <v>495</v>
+      </c>
+      <c r="B128" s="12">
         <v>150</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="15" t="s">
+    <row r="129" spans="1:2">
+      <c r="A129" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B119" s="5">
+      <c r="B129" s="5">
         <v>160</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="15" t="s">
+    <row r="130" spans="1:2">
+      <c r="A130" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="B120" s="5">
+      <c r="B130" s="5">
         <v>150</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="15" t="s">
+    <row r="131" spans="1:2">
+      <c r="A131" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B121" s="5">
+      <c r="B131" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="15" t="s">
+    <row r="132" spans="1:2">
+      <c r="A132" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="B122" s="5">
+      <c r="B132" s="5">
         <v>140</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="15" t="s">
+    <row r="133" spans="1:2">
+      <c r="A133" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B123" s="5">
+      <c r="B133" s="5">
         <v>130</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="15" t="s">
+    <row r="134" spans="1:2">
+      <c r="A134" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B124" s="5">
+      <c r="B134" s="5">
         <v>80</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="15" t="s">
+    <row r="135" spans="1:2">
+      <c r="A135" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B125" s="5">
+      <c r="B135" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="15" t="s">
+    <row r="136" spans="1:2">
+      <c r="A136" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B126" s="5">
+      <c r="B136" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="15" t="s">
+    <row r="137" spans="1:2">
+      <c r="A137" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B127" s="5">
+      <c r="B137" s="5">
         <v>120</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="15" t="s">
+    <row r="138" spans="1:2">
+      <c r="A138" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B128" s="5">
+      <c r="B138" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="15" t="s">
+    <row r="139" spans="1:2">
+      <c r="A139" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B129" s="5">
+      <c r="B139" s="5">
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="15" t="s">
+    <row r="140" spans="1:2">
+      <c r="A140" s="16" t="s">
         <v>126</v>
-      </c>
-      <c r="B130" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="B131" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="B132" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B133" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="B134" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B135" s="5">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="B136" s="5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="B137" s="5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B138" s="5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="B139" s="5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="15" t="s">
-        <v>131</v>
       </c>
       <c r="B140" s="5">
         <v>180</v>
       </c>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="15" t="s">
+      <c r="A141" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B141" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="B142" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B143" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="B144" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B145" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B146" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B147" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B148" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B149" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B150" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="B141" s="5">
+      <c r="B151" s="5">
         <v>180</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="25" t="s">
+    <row r="152" spans="1:2">
+      <c r="A152" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="B142" s="5">
+      <c r="B152" s="5">
         <v>35</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="15" t="s">
+    <row r="153" spans="1:2">
+      <c r="A153" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="B143" s="5">
+      <c r="B153" s="5">
         <v>35</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="15" t="s">
+    <row r="154" spans="1:2">
+      <c r="A154" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B144" s="5">
+      <c r="B154" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="15" t="s">
+    <row r="155" spans="1:2">
+      <c r="A155" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B145" s="5">
+      <c r="B155" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="15" t="s">
+    <row r="156" spans="1:2">
+      <c r="A156" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B146" s="5">
+      <c r="B156" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="15" t="s">
+    <row r="157" spans="1:2">
+      <c r="A157" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="B157" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B147" s="5">
+      <c r="B158" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="15" t="s">
+    <row r="159" spans="1:2">
+      <c r="A159" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B148" s="5">
+      <c r="B159" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="15" t="s">
+    <row r="160" spans="1:2">
+      <c r="A160" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B149" s="5">
+      <c r="B160" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="15" t="s">
+    <row r="161" spans="1:2">
+      <c r="A161" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="B150" s="5">
+      <c r="B161" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="15" t="s">
+    <row r="162" spans="1:2">
+      <c r="A162" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="B151" s="5">
+      <c r="B162" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="29" t="s">
+    <row r="163" spans="1:2">
+      <c r="A163" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="B163" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="B152" s="5">
+      <c r="B164" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
-      <c r="A153" t="s">
-        <v>466</v>
-      </c>
-      <c r="B153" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="15" t="s">
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>465</v>
+      </c>
+      <c r="B165" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="16" t="s">
+        <v>514</v>
+      </c>
+      <c r="B166" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="B154" s="5">
+      <c r="B167" s="5">
         <v>60</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="15" t="s">
+    <row r="168" spans="1:2">
+      <c r="A168" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="B155" s="5">
+      <c r="B168" s="5">
         <v>35</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="15" t="s">
+    <row r="169" spans="1:2">
+      <c r="A169" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="B156" s="5">
+      <c r="B169" s="5">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:B156">
-    <sortCondition ref="A3:A156"/>
+  <sortState ref="A3:B169">
+    <sortCondition ref="A3:A169"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6047,10 +6319,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B34"/>
+      <selection activeCell="A3" sqref="A3:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15"/>
@@ -6069,271 +6341,287 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>446</v>
-      </c>
-      <c r="B2" s="30">
+        <v>445</v>
+      </c>
+      <c r="B2" s="32">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>447</v>
-      </c>
-      <c r="B3" s="30">
+        <v>446</v>
+      </c>
+      <c r="B3" s="32">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>448</v>
-      </c>
-      <c r="B4" s="30">
+        <v>447</v>
+      </c>
+      <c r="B4" s="32">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>449</v>
-      </c>
-      <c r="B5" s="30">
+        <v>448</v>
+      </c>
+      <c r="B5" s="32">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>450</v>
-      </c>
-      <c r="B6" s="30">
+        <v>449</v>
+      </c>
+      <c r="B6" s="32">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>451</v>
-      </c>
-      <c r="B7" s="30">
-        <v>15</v>
+        <v>525</v>
+      </c>
+      <c r="B7" s="32">
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>469</v>
-      </c>
-      <c r="B8" s="30">
-        <v>12</v>
+        <v>524</v>
+      </c>
+      <c r="B8" s="32">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>452</v>
-      </c>
-      <c r="B9" s="30">
-        <v>12</v>
+        <v>450</v>
+      </c>
+      <c r="B9" s="32">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>499</v>
-      </c>
-      <c r="B10" s="30">
-        <v>80</v>
+        <v>468</v>
+      </c>
+      <c r="B10" s="32">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>194</v>
-      </c>
-      <c r="B11" s="30">
-        <v>100</v>
+        <v>451</v>
+      </c>
+      <c r="B11" s="32">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>470</v>
-      </c>
-      <c r="B12" s="30">
-        <v>1</v>
+        <v>498</v>
+      </c>
+      <c r="B12" s="32">
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>471</v>
-      </c>
-      <c r="B13" s="30">
-        <v>1</v>
+        <v>194</v>
+      </c>
+      <c r="B13" s="32">
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>465</v>
-      </c>
-      <c r="B14" s="30">
+        <v>469</v>
+      </c>
+      <c r="B14" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>498</v>
-      </c>
-      <c r="B15" s="30">
-        <v>10</v>
+        <v>470</v>
+      </c>
+      <c r="B15" s="32">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>453</v>
-      </c>
-      <c r="B16" s="30">
-        <v>10</v>
+        <v>464</v>
+      </c>
+      <c r="B16" s="32">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>467</v>
-      </c>
-      <c r="B17" s="30">
+        <v>497</v>
+      </c>
+      <c r="B17" s="32">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>305</v>
-      </c>
-      <c r="B18" s="30">
-        <v>30</v>
+        <v>452</v>
+      </c>
+      <c r="B18" s="32">
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>492</v>
-      </c>
-      <c r="B19" s="30">
-        <v>5</v>
+        <v>466</v>
+      </c>
+      <c r="B19" s="32">
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>468</v>
-      </c>
-      <c r="B20" s="30">
-        <v>70</v>
+        <v>304</v>
+      </c>
+      <c r="B20" s="32">
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>195</v>
-      </c>
-      <c r="B21" s="30">
-        <v>80</v>
+        <v>491</v>
+      </c>
+      <c r="B21" s="32">
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>491</v>
-      </c>
-      <c r="B22" s="30">
-        <v>80</v>
+        <v>467</v>
+      </c>
+      <c r="B22" s="32">
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>454</v>
-      </c>
-      <c r="B23" s="30">
-        <v>12</v>
+        <v>195</v>
+      </c>
+      <c r="B23" s="32">
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>455</v>
-      </c>
-      <c r="B24" s="30">
-        <v>10</v>
+        <v>490</v>
+      </c>
+      <c r="B24" s="32">
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>456</v>
-      </c>
-      <c r="B25" s="30">
-        <v>15</v>
+        <v>453</v>
+      </c>
+      <c r="B25" s="32">
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>457</v>
-      </c>
-      <c r="B26" s="30">
-        <v>12</v>
+        <v>454</v>
+      </c>
+      <c r="B26" s="32">
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>458</v>
-      </c>
-      <c r="B27" s="30">
-        <v>12</v>
+        <v>455</v>
+      </c>
+      <c r="B27" s="32">
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>459</v>
-      </c>
-      <c r="B28" s="30">
+        <v>456</v>
+      </c>
+      <c r="B28" s="32">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>460</v>
-      </c>
-      <c r="B29" s="30">
-        <v>20</v>
+        <v>457</v>
+      </c>
+      <c r="B29" s="32">
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>461</v>
-      </c>
-      <c r="B30" s="30">
+        <v>458</v>
+      </c>
+      <c r="B30" s="32">
         <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>462</v>
-      </c>
-      <c r="B31" s="30">
-        <v>7</v>
+        <v>459</v>
+      </c>
+      <c r="B31" s="32">
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>463</v>
-      </c>
-      <c r="B32" s="30">
+        <v>460</v>
+      </c>
+      <c r="B32" s="32">
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>464</v>
-      </c>
-      <c r="B33" s="30">
-        <v>12</v>
+        <v>461</v>
+      </c>
+      <c r="B33" s="32">
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>466</v>
-      </c>
-      <c r="B34" s="30">
+        <v>462</v>
+      </c>
+      <c r="B34" s="32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>463</v>
+      </c>
+      <c r="B35" s="32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>465</v>
+      </c>
+      <c r="B36" s="32">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:B34">
-    <sortCondition ref="A3:A34"/>
+  <sortState ref="A3:B36">
+    <sortCondition ref="A3:A36"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/clientes/files/TODITICO_CATÁLOGO.xlsx
+++ b/clientes/files/TODITICO_CATÁLOGO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy\Documents\Catálogos Proformas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy\Documents\Catálogos Proformas\Este\360 Actual\Clientes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42636F3-92F6-4AAD-972E-1D59CA61DF2D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C8E434-6DC5-486B-908D-4B0F524DE75A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DAEWOO TICO" sheetId="1" r:id="rId1"/>
@@ -1397,9 +1397,6 @@
     <t>ZAPATILLAS DE BOMBA DE FRENO (REPARACION)</t>
   </si>
   <si>
-    <t>ZAPATILLAS DE REPARACIÓN CILINDROS DE FRENO</t>
-  </si>
-  <si>
     <t>ZAPATILLAS DE REPARACIÓN DE PINZAS DE FRENO JGO</t>
   </si>
   <si>
@@ -1653,6 +1650,9 @@
   </si>
   <si>
     <t>ACEITE DE CAJA AUTOMÁTICA DEXRON III 5L</t>
+  </si>
+  <si>
+    <t>ZAPATILLAS DE REPARACIÓN CILINDROS DE FRENO (JGO PARA 1 GOMA)</t>
   </si>
 </sst>
 </file>
@@ -2130,8 +2130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B276"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
+      <selection activeCell="A275" sqref="A275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15"/>
@@ -2158,7 +2158,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B3" s="2">
         <v>12</v>
@@ -2374,7 +2374,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B30" s="2">
         <v>80</v>
@@ -2398,7 +2398,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B33" s="2">
         <v>50</v>
@@ -2406,7 +2406,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B34" s="2">
         <v>12</v>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B41" s="2">
         <v>1</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B42" s="2">
         <v>1</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B43" s="2">
         <v>1</v>
@@ -2486,7 +2486,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B44" s="2">
         <v>10</v>
@@ -2518,7 +2518,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B48" s="2">
         <v>10</v>
@@ -2526,7 +2526,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B49" s="2">
         <v>10</v>
@@ -2734,7 +2734,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B75" s="2">
         <v>15</v>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B76" s="2">
         <v>30</v>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B84" s="2">
         <v>70</v>
@@ -2838,7 +2838,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B88" s="2">
         <v>25</v>
@@ -2902,7 +2902,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B96" s="2">
         <v>10</v>
@@ -2958,7 +2958,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B103" s="2">
         <v>100</v>
@@ -3046,7 +3046,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B114" s="2">
         <v>250</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B121" s="2">
         <v>15</v>
@@ -3302,7 +3302,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B146" s="2">
         <v>10</v>
@@ -3310,7 +3310,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B147" s="2">
         <v>10</v>
@@ -3406,7 +3406,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B159" s="2">
         <v>20</v>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B161" s="2">
         <v>5</v>
@@ -3534,7 +3534,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B175" s="2">
         <v>80</v>
@@ -3726,7 +3726,7 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B199" s="2">
         <v>40</v>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B230" s="2">
         <v>15</v>
@@ -3982,7 +3982,7 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B231" s="2">
         <v>6</v>
@@ -4086,7 +4086,7 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B244" s="2">
         <v>550</v>
@@ -4182,7 +4182,7 @@
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B256" s="2">
         <v>10</v>
@@ -4254,7 +4254,7 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B265" s="2">
         <v>3</v>
@@ -4334,7 +4334,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
-        <v>440</v>
+        <v>525</v>
       </c>
       <c r="B275" s="2">
         <v>10</v>
@@ -4342,7 +4342,7 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B276" s="2">
         <v>15</v>
@@ -4433,7 +4433,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B9" s="5">
         <v>80</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B14" s="5">
         <v>1</v>
@@ -4481,7 +4481,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B15" s="5">
         <v>1</v>
@@ -4489,7 +4489,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -4497,7 +4497,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B17" s="5">
         <v>15</v>
@@ -4529,7 +4529,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B21" s="5">
         <v>7</v>
@@ -4545,7 +4545,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B23" s="5">
         <v>25</v>
@@ -4553,7 +4553,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B24" s="5">
         <v>50</v>
@@ -4585,7 +4585,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B28" s="5">
         <v>15</v>
@@ -4609,7 +4609,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B31" s="12">
         <v>100</v>
@@ -4657,7 +4657,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B37" s="12">
         <v>40</v>
@@ -4793,7 +4793,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B54" s="5">
         <v>40</v>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B57" s="12">
         <v>150</v>
@@ -4865,7 +4865,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B63" s="5">
         <v>40</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B64" s="5">
         <v>20</v>
@@ -4889,7 +4889,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B66" s="5">
         <v>5</v>
@@ -4905,7 +4905,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B68" s="2">
         <v>10</v>
@@ -4913,7 +4913,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B69" s="5">
         <v>15</v>
@@ -4921,7 +4921,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B70" s="5">
         <v>10</v>
@@ -5055,7 +5055,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="16" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B13" s="5">
         <v>80</v>
@@ -5151,7 +5151,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="16" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B25" s="5">
         <v>1</v>
@@ -5159,7 +5159,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="16" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B26" s="5">
         <v>1</v>
@@ -5167,7 +5167,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
@@ -5223,7 +5223,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="16" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B34" s="5">
         <v>7</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="16" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B36" s="5">
         <v>80</v>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="16" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B37" s="5">
         <v>90</v>
@@ -5575,7 +5575,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="26" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B78" s="12">
         <v>50</v>
@@ -5631,7 +5631,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="16" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B85" s="5">
         <v>15</v>
@@ -5671,7 +5671,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="16" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B90" s="5">
         <v>80</v>
@@ -5735,7 +5735,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B98" s="5">
         <v>20</v>
@@ -5743,7 +5743,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="16" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B99" s="5">
         <v>15</v>
@@ -5751,7 +5751,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="16" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B100" s="5">
         <v>15</v>
@@ -5759,7 +5759,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="16" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B101" s="5">
         <v>25</v>
@@ -5775,7 +5775,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="16" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B103" s="5">
         <v>15</v>
@@ -5903,7 +5903,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="16" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B119" s="5">
         <v>180</v>
@@ -5975,7 +5975,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="26" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B128" s="12">
         <v>150</v>
@@ -6207,7 +6207,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="16" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B157" s="5">
         <v>40</v>
@@ -6255,7 +6255,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="16" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B163" s="5">
         <v>70</v>
@@ -6271,7 +6271,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B165" s="2">
         <v>10</v>
@@ -6279,7 +6279,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="16" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B166" s="5">
         <v>10</v>
@@ -6321,8 +6321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15"/>
@@ -6341,7 +6341,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B2" s="32">
         <v>12</v>
@@ -6349,7 +6349,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B3" s="32">
         <v>50</v>
@@ -6357,7 +6357,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B4" s="32">
         <v>12</v>
@@ -6365,7 +6365,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B5" s="32">
         <v>50</v>
@@ -6373,7 +6373,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B6" s="32">
         <v>50</v>
@@ -6381,7 +6381,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B7" s="32">
         <v>70</v>
@@ -6389,7 +6389,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B8" s="32">
         <v>50</v>
@@ -6397,7 +6397,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B9" s="32">
         <v>15</v>
@@ -6405,7 +6405,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B10" s="32">
         <v>12</v>
@@ -6413,7 +6413,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B11" s="32">
         <v>12</v>
@@ -6421,7 +6421,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B12" s="32">
         <v>80</v>
@@ -6437,7 +6437,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B14" s="32">
         <v>1</v>
@@ -6445,7 +6445,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B15" s="32">
         <v>1</v>
@@ -6453,7 +6453,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B16" s="32">
         <v>1</v>
@@ -6461,7 +6461,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B17" s="32">
         <v>10</v>
@@ -6469,7 +6469,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B18" s="32">
         <v>10</v>
@@ -6477,7 +6477,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B19" s="32">
         <v>10</v>
@@ -6493,7 +6493,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B21" s="32">
         <v>5</v>
@@ -6501,7 +6501,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B22" s="32">
         <v>70</v>
@@ -6517,7 +6517,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B24" s="32">
         <v>80</v>
@@ -6525,7 +6525,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B25" s="32">
         <v>12</v>
@@ -6533,7 +6533,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B26" s="32">
         <v>10</v>
@@ -6541,7 +6541,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B27" s="32">
         <v>15</v>
@@ -6549,7 +6549,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B28" s="32">
         <v>12</v>
@@ -6557,7 +6557,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B29" s="32">
         <v>12</v>
@@ -6565,7 +6565,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B30" s="32">
         <v>12</v>
@@ -6573,7 +6573,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B31" s="32">
         <v>20</v>
@@ -6581,7 +6581,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B32" s="32">
         <v>12</v>
@@ -6589,7 +6589,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B33" s="32">
         <v>7</v>
@@ -6597,7 +6597,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B34" s="32">
         <v>12</v>
@@ -6605,7 +6605,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B35" s="32">
         <v>12</v>
@@ -6613,7 +6613,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B36" s="32">
         <v>10</v>

--- a/clientes/files/TODITICO_CATÁLOGO.xlsx
+++ b/clientes/files/TODITICO_CATÁLOGO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy\Documents\Catálogos Proformas\Este\360 Actual\Clientes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C8E434-6DC5-486B-908D-4B0F524DE75A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44A55A4-FE89-4FFF-AAEB-C69BA59D620A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1652,7 +1652,7 @@
     <t>ACEITE DE CAJA AUTOMÁTICA DEXRON III 5L</t>
   </si>
   <si>
-    <t>ZAPATILLAS DE REPARACIÓN CILINDROS DE FRENO (JGO PARA 1 GOMA)</t>
+    <t>ZAPATILLAS DE REPARACIÓN CILINDROS DE FRENO (JGO PARA UN CILINDRO)</t>
   </si>
 </sst>
 </file>
@@ -4337,7 +4337,7 @@
         <v>525</v>
       </c>
       <c r="B275" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="276" spans="1:2">

--- a/clientes/files/TODITICO_CATÁLOGO.xlsx
+++ b/clientes/files/TODITICO_CATÁLOGO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy\Documents\Catálogos Proformas\Este\360 Actual\Clientes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44A55A4-FE89-4FFF-AAEB-C69BA59D620A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E40709-5BB6-4E1A-86D0-5D91131E86E5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DAEWOO TICO" sheetId="1" r:id="rId1"/>
@@ -580,9 +580,6 @@
     <t>FILTRO ACEITE PICANTO 2DA</t>
   </si>
   <si>
-    <t>KIT DE JUNTAS DEL MOTOR PICANTO 2DA</t>
-  </si>
-  <si>
     <t xml:space="preserve">MANGUERA DE RADIADOR INFERIOR PICANTO 2DA              </t>
   </si>
   <si>
@@ -1653,6 +1650,9 @@
   </si>
   <si>
     <t>ZAPATILLAS DE REPARACIÓN CILINDROS DE FRENO (JGO PARA UN CILINDRO)</t>
+  </si>
+  <si>
+    <t>KIT DE JUNTAS DEL MOTOR PICANTO 2DA Y 3RA</t>
   </si>
 </sst>
 </file>
@@ -1760,7 +1760,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1852,6 +1852,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2130,7 +2133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
+    <sheetView topLeftCell="A263" workbookViewId="0">
       <selection activeCell="A275" sqref="A275"/>
     </sheetView>
   </sheetViews>
@@ -2150,7 +2153,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B2" s="2">
         <v>10</v>
@@ -2158,7 +2161,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B3" s="2">
         <v>12</v>
@@ -2166,7 +2169,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B4" s="2">
         <v>15</v>
@@ -2174,7 +2177,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B5" s="2">
         <v>10</v>
@@ -2182,7 +2185,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B6" s="2">
         <v>100</v>
@@ -2190,7 +2193,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B7" s="2">
         <v>120</v>
@@ -2198,7 +2201,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B8" s="2">
         <v>100</v>
@@ -2206,7 +2209,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B9" s="2">
         <v>160</v>
@@ -2214,7 +2217,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B10" s="2">
         <v>35</v>
@@ -2222,7 +2225,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B11" s="2">
         <v>150</v>
@@ -2230,7 +2233,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B12" s="2">
         <v>110</v>
@@ -2238,7 +2241,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B13" s="2">
         <v>15</v>
@@ -2246,7 +2249,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B14" s="2">
         <v>40</v>
@@ -2254,7 +2257,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B15" s="2">
         <v>30</v>
@@ -2262,7 +2265,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
@@ -2270,7 +2273,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B17" s="2">
         <v>15</v>
@@ -2278,7 +2281,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B18" s="2">
         <v>120</v>
@@ -2286,7 +2289,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B19" s="2">
         <v>50</v>
@@ -2294,7 +2297,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B20" s="2">
         <v>10</v>
@@ -2302,7 +2305,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B21" s="2">
         <v>90</v>
@@ -2310,7 +2313,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B22" s="2">
         <v>35</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B23" s="2">
         <v>10</v>
@@ -2326,7 +2329,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B24" s="2">
         <v>150</v>
@@ -2334,7 +2337,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B25" s="2">
         <v>120</v>
@@ -2342,7 +2345,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B26" s="2">
         <v>170</v>
@@ -2350,7 +2353,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B27" s="2">
         <v>30</v>
@@ -2358,7 +2361,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B28" s="2">
         <v>60</v>
@@ -2366,7 +2369,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B29" s="2">
         <v>30</v>
@@ -2374,7 +2377,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B30" s="2">
         <v>80</v>
@@ -2382,7 +2385,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B31" s="2">
         <v>100</v>
@@ -2390,7 +2393,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B32" s="2">
         <v>25</v>
@@ -2398,7 +2401,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B33" s="2">
         <v>50</v>
@@ -2406,7 +2409,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B34" s="2">
         <v>12</v>
@@ -2414,7 +2417,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B35" s="2">
         <v>40</v>
@@ -2422,7 +2425,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B36" s="2">
         <v>80</v>
@@ -2430,7 +2433,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B37" s="2">
         <v>45</v>
@@ -2438,7 +2441,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B38" s="2">
         <v>60</v>
@@ -2446,7 +2449,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B39" s="2">
         <v>45</v>
@@ -2454,7 +2457,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B40" s="2">
         <v>20</v>
@@ -2462,7 +2465,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B41" s="2">
         <v>1</v>
@@ -2470,7 +2473,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B42" s="2">
         <v>1</v>
@@ -2478,7 +2481,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B43" s="2">
         <v>1</v>
@@ -2486,7 +2489,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B44" s="2">
         <v>10</v>
@@ -2494,7 +2497,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B45" s="2">
         <v>100</v>
@@ -2502,7 +2505,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B46" s="2">
         <v>15</v>
@@ -2510,7 +2513,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B47" s="2">
         <v>10</v>
@@ -2518,7 +2521,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B48" s="2">
         <v>10</v>
@@ -2526,7 +2529,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B49" s="2">
         <v>10</v>
@@ -2534,7 +2537,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B50" s="2">
         <v>60</v>
@@ -2542,7 +2545,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B51" s="2">
         <v>40</v>
@@ -2550,7 +2553,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B52" s="2">
         <v>20</v>
@@ -2558,7 +2561,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B53" s="2">
         <v>15</v>
@@ -2566,7 +2569,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B54" s="2">
         <v>20</v>
@@ -2574,7 +2577,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B55" s="2">
         <v>15</v>
@@ -2582,7 +2585,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B56" s="2">
         <v>10</v>
@@ -2590,7 +2593,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B57" s="2">
         <v>5</v>
@@ -2598,7 +2601,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B58" s="2">
         <v>15</v>
@@ -2606,7 +2609,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B59" s="2">
         <v>10</v>
@@ -2614,7 +2617,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B60" s="2">
         <v>2</v>
@@ -2622,7 +2625,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B61" s="2">
         <v>15</v>
@@ -2630,7 +2633,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B62" s="2">
         <v>15</v>
@@ -2638,7 +2641,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B63" s="2">
         <v>10</v>
@@ -2646,7 +2649,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B64" s="2">
         <v>10</v>
@@ -2654,7 +2657,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B65" s="2">
         <v>7</v>
@@ -2662,7 +2665,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B66" s="2">
         <v>10</v>
@@ -2670,7 +2673,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B67" s="2">
         <v>15</v>
@@ -2678,7 +2681,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B68" s="2">
         <v>20</v>
@@ -2686,7 +2689,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B69" s="2">
         <v>25</v>
@@ -2694,7 +2697,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B70" s="2">
         <v>20</v>
@@ -2702,7 +2705,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B71" s="2">
         <v>45</v>
@@ -2710,7 +2713,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B72" s="2">
         <v>25</v>
@@ -2718,7 +2721,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B73" s="2">
         <v>25</v>
@@ -2726,7 +2729,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B74" s="2">
         <v>10</v>
@@ -2734,7 +2737,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B75" s="2">
         <v>15</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B76" s="2">
         <v>30</v>
@@ -2750,7 +2753,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B77" s="2">
         <v>50</v>
@@ -2758,7 +2761,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B78" s="2">
         <v>70</v>
@@ -2766,7 +2769,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B79" s="2">
         <v>100</v>
@@ -2774,7 +2777,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B80" s="2">
         <v>350</v>
@@ -2782,7 +2785,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B81" s="2">
         <v>10</v>
@@ -2790,7 +2793,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B82" s="2">
         <v>300</v>
@@ -2798,7 +2801,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B83" s="2">
         <v>50</v>
@@ -2806,7 +2809,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B84" s="2">
         <v>70</v>
@@ -2814,7 +2817,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B85" s="2">
         <v>50</v>
@@ -2822,7 +2825,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B86" s="2">
         <v>80</v>
@@ -2830,7 +2833,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B87" s="2">
         <v>25</v>
@@ -2838,7 +2841,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B88" s="2">
         <v>25</v>
@@ -2846,7 +2849,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B89" s="2">
         <v>25</v>
@@ -2854,7 +2857,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B90" s="2">
         <v>35</v>
@@ -2862,7 +2865,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B91" s="2">
         <v>70</v>
@@ -2870,7 +2873,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B92" s="2">
         <v>50</v>
@@ -2878,7 +2881,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B93" s="2">
         <v>120</v>
@@ -2886,7 +2889,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B94" s="2">
         <v>30</v>
@@ -2894,7 +2897,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B95" s="2">
         <v>60</v>
@@ -2902,7 +2905,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B96" s="2">
         <v>10</v>
@@ -2910,7 +2913,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B97" s="2">
         <v>20</v>
@@ -2918,7 +2921,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B98" s="2">
         <v>15</v>
@@ -2926,7 +2929,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B99" s="2">
         <v>20</v>
@@ -2934,7 +2937,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B100" s="2">
         <v>60</v>
@@ -2942,7 +2945,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B101" s="2">
         <v>150</v>
@@ -2950,7 +2953,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B102" s="2">
         <v>40</v>
@@ -2958,7 +2961,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B103" s="2">
         <v>100</v>
@@ -2966,7 +2969,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B104" s="2">
         <v>25</v>
@@ -2974,7 +2977,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B105" s="2">
         <v>450</v>
@@ -2982,7 +2985,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B106" s="2">
         <v>180</v>
@@ -2990,7 +2993,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B107" s="2">
         <v>10</v>
@@ -2998,7 +3001,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B108" s="2">
         <v>30</v>
@@ -3006,7 +3009,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B109" s="2">
         <v>30</v>
@@ -3014,7 +3017,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B110" s="2">
         <v>60</v>
@@ -3022,7 +3025,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B111" s="2">
         <v>120</v>
@@ -3030,7 +3033,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B112" s="2">
         <v>25</v>
@@ -3038,7 +3041,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B113" s="2">
         <v>80</v>
@@ -3046,7 +3049,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B114" s="2">
         <v>250</v>
@@ -3062,7 +3065,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B116" s="2">
         <v>20</v>
@@ -3070,7 +3073,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B117" s="2">
         <v>15</v>
@@ -3078,7 +3081,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B118" s="2">
         <v>50</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B119" s="2">
         <v>60</v>
@@ -3094,7 +3097,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B120" s="2">
         <v>100</v>
@@ -3102,7 +3105,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B121" s="2">
         <v>15</v>
@@ -3110,7 +3113,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B122" s="2">
         <v>50</v>
@@ -3118,7 +3121,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B123" s="2">
         <v>70</v>
@@ -3126,7 +3129,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B124" s="2">
         <v>10</v>
@@ -3134,7 +3137,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B125" s="2">
         <v>10</v>
@@ -3142,7 +3145,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B126" s="2">
         <v>10</v>
@@ -3150,7 +3153,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B127" s="2">
         <v>30</v>
@@ -3158,7 +3161,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B128" s="2">
         <v>90</v>
@@ -3166,7 +3169,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B129" s="2">
         <v>50</v>
@@ -3174,7 +3177,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B130" s="2">
         <v>10</v>
@@ -3182,7 +3185,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B131" s="2">
         <v>30</v>
@@ -3190,7 +3193,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B132" s="2">
         <v>120</v>
@@ -3198,7 +3201,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B133" s="2">
         <v>15</v>
@@ -3206,7 +3209,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B134" s="2">
         <v>70</v>
@@ -3214,7 +3217,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B135" s="2">
         <v>20</v>
@@ -3222,7 +3225,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B136" s="2">
         <v>5</v>
@@ -3230,7 +3233,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B137" s="2">
         <v>100</v>
@@ -3238,7 +3241,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B138" s="2">
         <v>60</v>
@@ -3246,7 +3249,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B139" s="2">
         <v>30</v>
@@ -3254,7 +3257,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B140" s="2">
         <v>100</v>
@@ -3262,7 +3265,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B141" s="2">
         <v>30</v>
@@ -3270,7 +3273,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B142" s="2">
         <v>10</v>
@@ -3278,7 +3281,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B143" s="2">
         <v>15</v>
@@ -3286,7 +3289,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B144" s="2">
         <v>30</v>
@@ -3294,7 +3297,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B145" s="2">
         <v>10</v>
@@ -3302,7 +3305,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B146" s="2">
         <v>10</v>
@@ -3310,7 +3313,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B147" s="2">
         <v>10</v>
@@ -3318,7 +3321,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B148" s="2">
         <v>20</v>
@@ -3326,7 +3329,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B149" s="2">
         <v>2</v>
@@ -3334,7 +3337,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B150" s="2">
         <v>20</v>
@@ -3342,7 +3345,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B151" s="2">
         <v>50</v>
@@ -3350,7 +3353,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B152" s="2">
         <v>40</v>
@@ -3358,7 +3361,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B153" s="2">
         <v>90</v>
@@ -3366,7 +3369,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B154" s="2">
         <v>12</v>
@@ -3374,7 +3377,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B155" s="2">
         <v>15</v>
@@ -3382,7 +3385,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B156" s="2">
         <v>550</v>
@@ -3390,7 +3393,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B157" s="2">
         <v>6</v>
@@ -3398,7 +3401,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B158" s="2">
         <v>10</v>
@@ -3406,7 +3409,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B159" s="2">
         <v>20</v>
@@ -3414,7 +3417,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B160" s="2">
         <v>15</v>
@@ -3422,7 +3425,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B161" s="2">
         <v>5</v>
@@ -3430,7 +3433,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B162" s="2">
         <v>15</v>
@@ -3438,7 +3441,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B163" s="2">
         <v>70</v>
@@ -3446,7 +3449,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B164" s="2">
         <v>10</v>
@@ -3454,7 +3457,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B165" s="2">
         <v>10</v>
@@ -3462,7 +3465,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B166" s="2">
         <v>20</v>
@@ -3470,7 +3473,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B167" s="2">
         <v>10</v>
@@ -3478,7 +3481,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B168" s="2">
         <v>10</v>
@@ -3486,7 +3489,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B169" s="2">
         <v>10</v>
@@ -3494,7 +3497,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B170" s="2">
         <v>50</v>
@@ -3502,7 +3505,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B171" s="2">
         <v>30</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B172" s="2">
         <v>7</v>
@@ -3518,7 +3521,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B173" s="2">
         <v>280</v>
@@ -3526,7 +3529,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B174" s="2">
         <v>150</v>
@@ -3534,7 +3537,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B175" s="2">
         <v>80</v>
@@ -3542,7 +3545,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B176" s="2">
         <v>30</v>
@@ -3550,7 +3553,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B177" s="2">
         <v>150</v>
@@ -3558,7 +3561,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B178" s="2">
         <v>10</v>
@@ -3566,7 +3569,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B179" s="2">
         <v>10</v>
@@ -3574,7 +3577,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B180" s="2">
         <v>20</v>
@@ -3582,7 +3585,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B181" s="2">
         <v>100</v>
@@ -3590,7 +3593,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B182" s="2">
         <v>120</v>
@@ -3598,7 +3601,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B183" s="2">
         <v>300</v>
@@ -3606,7 +3609,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B184" s="2">
         <v>160</v>
@@ -3614,7 +3617,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B185" s="2">
         <v>110</v>
@@ -3622,7 +3625,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B186" s="2">
         <v>160</v>
@@ -3630,7 +3633,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B187" s="2">
         <v>30</v>
@@ -3638,7 +3641,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B188" s="2">
         <v>170</v>
@@ -3646,7 +3649,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B189" s="2">
         <v>80</v>
@@ -3654,7 +3657,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B190" s="2">
         <v>220</v>
@@ -3662,7 +3665,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B191" s="2">
         <v>90</v>
@@ -3670,7 +3673,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B192" s="2">
         <v>25</v>
@@ -3678,7 +3681,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B193" s="2">
         <v>70</v>
@@ -3686,7 +3689,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B194" s="2">
         <v>25</v>
@@ -3694,7 +3697,7 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B195" s="2">
         <v>10</v>
@@ -3702,7 +3705,7 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B196" s="2">
         <v>30</v>
@@ -3710,7 +3713,7 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B197" s="2">
         <v>30</v>
@@ -3718,7 +3721,7 @@
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B198" s="2">
         <v>60</v>
@@ -3726,7 +3729,7 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B199" s="2">
         <v>40</v>
@@ -3734,7 +3737,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B200" s="2">
         <v>30</v>
@@ -3742,7 +3745,7 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B201" s="2">
         <v>20</v>
@@ -3750,7 +3753,7 @@
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B202" s="2">
         <v>20</v>
@@ -3758,7 +3761,7 @@
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B203" s="2">
         <v>150</v>
@@ -3766,7 +3769,7 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B204" s="2">
         <v>350</v>
@@ -3774,7 +3777,7 @@
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B205" s="2">
         <v>20</v>
@@ -3782,7 +3785,7 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B206" s="2">
         <v>20</v>
@@ -3790,7 +3793,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B207" s="2">
         <v>15</v>
@@ -3798,7 +3801,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B208" s="2">
         <v>30</v>
@@ -3806,7 +3809,7 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B209" s="2">
         <v>15</v>
@@ -3814,7 +3817,7 @@
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B210" s="2">
         <v>70</v>
@@ -3822,7 +3825,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B211" s="2">
         <v>40</v>
@@ -3830,7 +3833,7 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B212" s="2">
         <v>100</v>
@@ -3838,7 +3841,7 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B213" s="2">
         <v>70</v>
@@ -3846,7 +3849,7 @@
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B214" s="2">
         <v>15</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B215" s="2">
         <v>130</v>
@@ -3862,7 +3865,7 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B216" s="2">
         <v>200</v>
@@ -3870,7 +3873,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B217" s="2">
         <v>30</v>
@@ -3878,7 +3881,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B218" s="2">
         <v>15</v>
@@ -3886,7 +3889,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B219" s="2">
         <v>65</v>
@@ -3894,7 +3897,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B220" s="2">
         <v>95</v>
@@ -3902,7 +3905,7 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B221" s="2">
         <v>10</v>
@@ -3910,7 +3913,7 @@
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B222" s="2">
         <v>20</v>
@@ -3918,7 +3921,7 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B223" s="2">
         <v>10</v>
@@ -3926,7 +3929,7 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B224" s="2">
         <v>10</v>
@@ -3934,7 +3937,7 @@
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B225" s="2">
         <v>10</v>
@@ -3942,7 +3945,7 @@
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B226" s="2">
         <v>10</v>
@@ -3950,7 +3953,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B227" s="2">
         <v>15</v>
@@ -3958,7 +3961,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B228" s="2">
         <v>15</v>
@@ -3966,7 +3969,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B229" s="2">
         <v>15</v>
@@ -3974,7 +3977,7 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B230" s="2">
         <v>15</v>
@@ -3982,7 +3985,7 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B231" s="2">
         <v>6</v>
@@ -3990,7 +3993,7 @@
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B232" s="2">
         <v>10</v>
@@ -3998,7 +4001,7 @@
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B233" s="2">
         <v>150</v>
@@ -4006,7 +4009,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B234" s="2">
         <v>180</v>
@@ -4014,7 +4017,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B235" s="2">
         <v>90</v>
@@ -4022,7 +4025,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B236" s="2">
         <v>30</v>
@@ -4030,7 +4033,7 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B237" s="2">
         <v>25</v>
@@ -4038,7 +4041,7 @@
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B238" s="2">
         <v>4</v>
@@ -4046,7 +4049,7 @@
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B239" s="2">
         <v>75</v>
@@ -4054,7 +4057,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B240" s="2">
         <v>25</v>
@@ -4062,7 +4065,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B241" s="2">
         <v>70</v>
@@ -4070,7 +4073,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B242" s="2">
         <v>15</v>
@@ -4078,7 +4081,7 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B243" s="2">
         <v>250</v>
@@ -4086,7 +4089,7 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B244" s="2">
         <v>550</v>
@@ -4094,7 +4097,7 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B245" s="2">
         <v>25</v>
@@ -4102,7 +4105,7 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B246" s="2">
         <v>10</v>
@@ -4110,7 +4113,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B247" s="2">
         <v>10</v>
@@ -4118,7 +4121,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B248" s="2">
         <v>15</v>
@@ -4126,7 +4129,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B249" s="2">
         <v>7</v>
@@ -4134,7 +4137,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B250" s="2">
         <v>50</v>
@@ -4142,7 +4145,7 @@
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B251" s="2">
         <v>5</v>
@@ -4150,7 +4153,7 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B252" s="2">
         <v>5</v>
@@ -4158,7 +4161,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B253" s="2">
         <v>5</v>
@@ -4166,7 +4169,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B254" s="2">
         <v>7</v>
@@ -4174,7 +4177,7 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B255" s="2">
         <v>20</v>
@@ -4182,7 +4185,7 @@
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B256" s="2">
         <v>10</v>
@@ -4190,7 +4193,7 @@
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B257" s="2">
         <v>15</v>
@@ -4198,7 +4201,7 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B258" s="2">
         <v>5</v>
@@ -4206,7 +4209,7 @@
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B259" s="2">
         <v>7</v>
@@ -4214,7 +4217,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B260" s="2">
         <v>10</v>
@@ -4222,7 +4225,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B261" s="2">
         <v>2</v>
@@ -4230,7 +4233,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B262" s="2">
         <v>5</v>
@@ -4238,7 +4241,7 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B263" s="2">
         <v>3</v>
@@ -4246,7 +4249,7 @@
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B264" s="2">
         <v>4</v>
@@ -4254,7 +4257,7 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B265" s="2">
         <v>3</v>
@@ -4262,7 +4265,7 @@
     </row>
     <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B266" s="2">
         <v>2</v>
@@ -4270,7 +4273,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B267" s="2">
         <v>20</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B268" s="2">
         <v>25</v>
@@ -4286,7 +4289,7 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B269" s="2">
         <v>45</v>
@@ -4294,7 +4297,7 @@
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B270" s="2">
         <v>15</v>
@@ -4302,7 +4305,7 @@
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B271" s="2">
         <v>60</v>
@@ -4310,7 +4313,7 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B272" s="2">
         <v>100</v>
@@ -4318,7 +4321,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B273" s="2">
         <v>35</v>
@@ -4326,7 +4329,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B274" s="2">
         <v>10</v>
@@ -4334,7 +4337,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B275" s="2">
         <v>5</v>
@@ -4342,7 +4345,7 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B276" s="2">
         <v>15</v>
@@ -4393,7 +4396,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B4" s="5">
         <v>120</v>
@@ -4433,7 +4436,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B9" s="5">
         <v>80</v>
@@ -4441,7 +4444,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="5">
         <v>100</v>
@@ -4473,7 +4476,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B14" s="5">
         <v>1</v>
@@ -4481,7 +4484,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B15" s="5">
         <v>1</v>
@@ -4489,7 +4492,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -4497,7 +4500,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B17" s="5">
         <v>15</v>
@@ -4529,7 +4532,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B21" s="5">
         <v>7</v>
@@ -4545,7 +4548,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B23" s="5">
         <v>25</v>
@@ -4553,7 +4556,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B24" s="5">
         <v>50</v>
@@ -4585,7 +4588,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B28" s="5">
         <v>15</v>
@@ -4609,7 +4612,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B31" s="12">
         <v>100</v>
@@ -4657,7 +4660,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B37" s="12">
         <v>40</v>
@@ -4697,7 +4700,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B42" s="5">
         <v>80</v>
@@ -4793,7 +4796,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B54" s="5">
         <v>40</v>
@@ -4817,7 +4820,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B57" s="12">
         <v>150</v>
@@ -4849,7 +4852,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B61" s="5">
         <v>5</v>
@@ -4865,7 +4868,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B63" s="5">
         <v>40</v>
@@ -4873,7 +4876,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B64" s="5">
         <v>20</v>
@@ -4889,7 +4892,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B66" s="5">
         <v>5</v>
@@ -4905,7 +4908,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B68" s="2">
         <v>10</v>
@@ -4913,7 +4916,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B69" s="5">
         <v>15</v>
@@ -4921,7 +4924,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B70" s="5">
         <v>10</v>
@@ -4947,8 +4950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B169"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B169"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15"/>
@@ -5007,7 +5010,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B7" s="5">
         <v>180</v>
@@ -5023,7 +5026,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B9" s="5">
         <v>120</v>
@@ -5055,7 +5058,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="16" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B13" s="5">
         <v>80</v>
@@ -5063,7 +5066,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B14" s="5">
         <v>100</v>
@@ -5135,7 +5138,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B23" s="5">
         <v>80</v>
@@ -5151,7 +5154,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="16" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B25" s="5">
         <v>1</v>
@@ -5159,7 +5162,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="16" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B26" s="5">
         <v>1</v>
@@ -5167,7 +5170,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
@@ -5223,7 +5226,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="16" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B34" s="5">
         <v>7</v>
@@ -5239,7 +5242,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="16" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B36" s="5">
         <v>80</v>
@@ -5247,7 +5250,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="16" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B37" s="5">
         <v>90</v>
@@ -5575,7 +5578,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="26" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B78" s="12">
         <v>50</v>
@@ -5631,7 +5634,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="16" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B85" s="5">
         <v>15</v>
@@ -5663,7 +5666,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B89" s="5">
         <v>80</v>
@@ -5671,7 +5674,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="16" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B90" s="5">
         <v>80</v>
@@ -5695,7 +5698,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B93" s="5">
         <v>20</v>
@@ -5726,8 +5729,8 @@
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="16" t="s">
-        <v>171</v>
+      <c r="A97" s="33" t="s">
+        <v>525</v>
       </c>
       <c r="B97" s="5">
         <v>60</v>
@@ -5735,7 +5738,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="16" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B98" s="5">
         <v>20</v>
@@ -5743,7 +5746,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="16" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B99" s="5">
         <v>15</v>
@@ -5751,7 +5754,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B100" s="5">
         <v>15</v>
@@ -5759,7 +5762,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="16" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B101" s="5">
         <v>25</v>
@@ -5767,7 +5770,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B102" s="5">
         <v>10</v>
@@ -5775,7 +5778,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="16" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B103" s="5">
         <v>15</v>
@@ -5783,7 +5786,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B104" s="5">
         <v>15</v>
@@ -5823,7 +5826,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B109" s="5">
         <v>250</v>
@@ -5903,7 +5906,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="16" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B119" s="5">
         <v>180</v>
@@ -5911,7 +5914,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B120" s="5">
         <v>35</v>
@@ -5919,7 +5922,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B121" s="5">
         <v>35</v>
@@ -5935,7 +5938,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B123" s="5">
         <v>70</v>
@@ -5943,7 +5946,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B124" s="5">
         <v>60</v>
@@ -5951,7 +5954,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B125" s="5">
         <v>45</v>
@@ -5967,7 +5970,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B127" s="5">
         <v>45</v>
@@ -5975,7 +5978,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="26" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B128" s="12">
         <v>150</v>
@@ -5991,7 +5994,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B130" s="5">
         <v>150</v>
@@ -6007,7 +6010,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B132" s="5">
         <v>140</v>
@@ -6079,7 +6082,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B141" s="5">
         <v>5</v>
@@ -6087,7 +6090,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B142" s="5">
         <v>7</v>
@@ -6103,7 +6106,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B144" s="5">
         <v>5</v>
@@ -6167,7 +6170,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B152" s="5">
         <v>35</v>
@@ -6175,7 +6178,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B153" s="5">
         <v>35</v>
@@ -6207,7 +6210,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="16" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B157" s="5">
         <v>40</v>
@@ -6255,7 +6258,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="16" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B163" s="5">
         <v>70</v>
@@ -6271,7 +6274,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B165" s="2">
         <v>10</v>
@@ -6279,7 +6282,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="16" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B166" s="5">
         <v>10</v>
@@ -6295,7 +6298,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B168" s="5">
         <v>35</v>
@@ -6303,7 +6306,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B169" s="5">
         <v>40</v>
@@ -6341,7 +6344,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B2" s="32">
         <v>12</v>
@@ -6349,7 +6352,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B3" s="32">
         <v>50</v>
@@ -6357,7 +6360,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B4" s="32">
         <v>12</v>
@@ -6365,7 +6368,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B5" s="32">
         <v>50</v>
@@ -6373,7 +6376,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B6" s="32">
         <v>50</v>
@@ -6381,7 +6384,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B7" s="32">
         <v>70</v>
@@ -6389,7 +6392,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B8" s="32">
         <v>50</v>
@@ -6397,7 +6400,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B9" s="32">
         <v>15</v>
@@ -6405,7 +6408,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B10" s="32">
         <v>12</v>
@@ -6413,7 +6416,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B11" s="32">
         <v>12</v>
@@ -6421,7 +6424,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B12" s="32">
         <v>80</v>
@@ -6429,7 +6432,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B13" s="32">
         <v>100</v>
@@ -6437,7 +6440,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B14" s="32">
         <v>1</v>
@@ -6445,7 +6448,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B15" s="32">
         <v>1</v>
@@ -6453,7 +6456,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B16" s="32">
         <v>1</v>
@@ -6461,7 +6464,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B17" s="32">
         <v>10</v>
@@ -6469,7 +6472,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B18" s="32">
         <v>10</v>
@@ -6477,7 +6480,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B19" s="32">
         <v>10</v>
@@ -6485,7 +6488,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B20" s="32">
         <v>30</v>
@@ -6493,7 +6496,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B21" s="32">
         <v>5</v>
@@ -6501,7 +6504,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B22" s="32">
         <v>70</v>
@@ -6509,7 +6512,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B23" s="32">
         <v>80</v>
@@ -6517,7 +6520,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B24" s="32">
         <v>80</v>
@@ -6525,7 +6528,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B25" s="32">
         <v>12</v>
@@ -6533,7 +6536,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B26" s="32">
         <v>10</v>
@@ -6541,7 +6544,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B27" s="32">
         <v>15</v>
@@ -6549,7 +6552,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B28" s="32">
         <v>12</v>
@@ -6557,7 +6560,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B29" s="32">
         <v>12</v>
@@ -6565,7 +6568,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B30" s="32">
         <v>12</v>
@@ -6573,7 +6576,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B31" s="32">
         <v>20</v>
@@ -6581,7 +6584,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B32" s="32">
         <v>12</v>
@@ -6589,7 +6592,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B33" s="32">
         <v>7</v>
@@ -6597,7 +6600,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B34" s="32">
         <v>12</v>
@@ -6605,7 +6608,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B35" s="32">
         <v>12</v>
@@ -6613,7 +6616,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B36" s="32">
         <v>10</v>

--- a/clientes/files/TODITICO_CATÁLOGO.xlsx
+++ b/clientes/files/TODITICO_CATÁLOGO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy\Documents\Catálogos Proformas\Este\360 Actual\Clientes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabajo\Catálogos Proformas\Este\345 Actual\Clientes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E40709-5BB6-4E1A-86D0-5D91131E86E5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D6F561-61BC-471E-819D-A77654688944}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DAEWOO TICO" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="541">
   <si>
     <t>DESCRIPCION</t>
   </si>
@@ -932,15 +932,6 @@
     <t>DELCO</t>
   </si>
   <si>
-    <t>DIAFRACMA DE CARBURADOR JGO</t>
-  </si>
-  <si>
-    <t>DIAFRACMA DE HIDROVACK</t>
-  </si>
-  <si>
-    <t>DIAFRACMA DE VACIO DEL CARBURADOR</t>
-  </si>
-  <si>
     <t>DISCO DE EMBRAGUE</t>
   </si>
   <si>
@@ -1653,20 +1644,83 @@
   </si>
   <si>
     <t>KIT DE JUNTAS DEL MOTOR PICANTO 2DA Y 3RA</t>
+  </si>
+  <si>
+    <t>DIAFRAGMA DE CARBURADOR JGO</t>
+  </si>
+  <si>
+    <t>DIAFRAGMA DE HIDROVACK</t>
+  </si>
+  <si>
+    <t>DIAFRAGMA DE VACIO DEL CARBURADOR (VÁLVULA DE ALTA)</t>
+  </si>
+  <si>
+    <t>ADORNO DE LAS PUERTAS EXT C/U</t>
+  </si>
+  <si>
+    <t>ADORNO DE MANILLA EXT C/U</t>
+  </si>
+  <si>
+    <t>ALERON COLA DE PATO MODERNO</t>
+  </si>
+  <si>
+    <t>ARANDELA DE CLAXON</t>
+  </si>
+  <si>
+    <t>FORRO DE TIMON</t>
+  </si>
+  <si>
+    <t>KIT DE BASE DE CARBURADOR</t>
+  </si>
+  <si>
+    <t>MICA DE FARO DEFENSA DELANTERA  SUPER TICO AMBAR</t>
+  </si>
+  <si>
+    <t>MICA DE FARO DEFENSA DELANTERA NORMAL AMBAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORNILLO DE TUBO DE ESCAPE Y RESORTE </t>
+  </si>
+  <si>
+    <t>TRIANGULO DE PUERTA POST(METAL )</t>
+  </si>
+  <si>
+    <t>VIDRIO DE FARO DIAMANTADO</t>
+  </si>
+  <si>
+    <t>VIDRIO DE FARO NORMAL</t>
+  </si>
+  <si>
+    <t>LLANTAS DE HIERRO JGO</t>
+  </si>
+  <si>
+    <t>PLASTICO EMBELLECEDOR DE CINTURON DE SEGURIDAD</t>
+  </si>
+  <si>
+    <t>PLASTICO LATERAL DEL MALETERO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="[$-280A]General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1723,8 +1777,134 @@
       <sz val="10"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1742,8 +1922,181 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1751,114 +2104,309 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
+    <xf numFmtId="167" fontId="30" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
+  <cellStyles count="46">
+    <cellStyle name="20% - Accent1" xfId="10" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="14" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="18" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="22" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="26" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="30" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="11" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="19" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="23" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="27" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="31" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="12" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="16" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="20" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="24" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="28" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="32" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="9" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="13" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="17" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="21" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="25" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="29" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="3" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="7" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="8" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Excel Built-in Normal" xfId="34" xr:uid="{688960BC-F69C-49B0-8CDB-DE122EA836A3}"/>
+    <cellStyle name="Explanatory Text 2" xfId="43" xr:uid="{BF74F976-326C-465D-A83B-19341F51278D}"/>
+    <cellStyle name="Good" xfId="2" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1 2" xfId="36" xr:uid="{35512690-E337-4424-84E2-85231B3DD88C}"/>
+    <cellStyle name="Heading 2 2" xfId="37" xr:uid="{A31B7674-2027-48CB-881D-281F8DA7106C}"/>
+    <cellStyle name="Heading 3 2" xfId="38" xr:uid="{BD8E1F66-2E87-475C-B836-F098EB1FF038}"/>
+    <cellStyle name="Heading 4 2" xfId="39" xr:uid="{C03D7A95-4AB4-46A8-9B28-E35A5D0CCB4A}"/>
+    <cellStyle name="Input" xfId="5" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell 2" xfId="40" xr:uid="{8CB1EC70-1736-4A8C-8B05-273AC47130F4}"/>
+    <cellStyle name="Millares 2" xfId="45" xr:uid="{8123F2D9-FB29-45A7-A0C8-90489F326596}"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="33" xr:uid="{2EE8B4EC-D36D-4191-B1B1-5D6B79B67CDB}"/>
+    <cellStyle name="Note 2" xfId="42" xr:uid="{05480AC8-7CE6-4493-9059-76695070FEBC}"/>
+    <cellStyle name="Output" xfId="6" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title 2" xfId="35" xr:uid="{ECA6EB64-49AC-4841-8FD4-8054B3948E49}"/>
+    <cellStyle name="Total 2" xfId="44" xr:uid="{32CEC7C7-5959-4220-8408-34D306D749D8}"/>
+    <cellStyle name="Warning Text 2" xfId="41" xr:uid="{58D3DC39-F6BA-4D4D-8C44-D27B2207069F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2131,16 +2679,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B276"/>
+  <dimension ref="A1:B291"/>
   <sheetViews>
-    <sheetView topLeftCell="A263" workbookViewId="0">
-      <selection activeCell="A275" sqref="A275"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B291"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="88.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="88.54296875" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2161,7 +2709,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B3" s="2">
         <v>12</v>
@@ -2177,463 +2725,463 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>526</v>
       </c>
       <c r="B5" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>527</v>
       </c>
       <c r="B6" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B7" s="2">
-        <v>120</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B8" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>203</v>
+        <v>528</v>
       </c>
       <c r="B9" s="2">
-        <v>160</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B10" s="2">
-        <v>35</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B11" s="2">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B12" s="2">
-        <v>110</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B13" s="2">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B14" s="2">
-        <v>40</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B15" s="2">
-        <v>30</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B16" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B17" s="2">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B18" s="2">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>213</v>
+        <v>529</v>
       </c>
       <c r="B19" s="2">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B20" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B21" s="2">
-        <v>90</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B22" s="2">
-        <v>35</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B23" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B24" s="2">
-        <v>150</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B25" s="2">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B26" s="2">
-        <v>170</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B27" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B28" s="2">
-        <v>60</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="3" t="s">
-        <v>223</v>
+      <c r="A29" t="s">
+        <v>219</v>
       </c>
       <c r="B29" s="2">
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>496</v>
+        <v>220</v>
       </c>
       <c r="B30" s="2">
-        <v>80</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="B31" s="2">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B32" s="2">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>482</v>
+      <c r="A33" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="B33" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
       <c r="B34" s="2">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="B35" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B36" s="2">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>227</v>
+        <v>479</v>
       </c>
       <c r="B37" s="2">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>228</v>
+        <v>467</v>
       </c>
       <c r="B38" s="2">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B39" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B40" s="2">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>467</v>
+        <v>227</v>
       </c>
       <c r="B41" s="2">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>468</v>
+        <v>228</v>
       </c>
       <c r="B42" s="2">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>462</v>
+        <v>229</v>
       </c>
       <c r="B43" s="2">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>495</v>
+        <v>230</v>
       </c>
       <c r="B44" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>231</v>
+        <v>464</v>
       </c>
       <c r="B45" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>232</v>
+        <v>465</v>
       </c>
       <c r="B46" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>233</v>
+        <v>459</v>
       </c>
       <c r="B47" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="3" t="s">
-        <v>440</v>
+      <c r="A48" t="s">
+        <v>492</v>
       </c>
       <c r="B48" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="3" t="s">
-        <v>441</v>
+      <c r="A49" t="s">
+        <v>231</v>
       </c>
       <c r="B49" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B50" s="2">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B51" s="2">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>236</v>
+      <c r="A52" s="3" t="s">
+        <v>437</v>
       </c>
       <c r="B52" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>237</v>
+      <c r="A53" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="B53" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B54" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B55" s="2">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B56" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B57" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B58" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B59" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B60" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B61" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B62" s="2">
         <v>15</v>
@@ -2641,7 +3189,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B63" s="2">
         <v>10</v>
@@ -2649,79 +3197,79 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B64" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B65" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B66" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B67" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B68" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B69" s="2">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B70" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B71" s="2">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B72" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B73" s="2">
         <v>25</v>
@@ -2729,335 +3277,335 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B74" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>480</v>
+        <v>255</v>
       </c>
       <c r="B75" s="2">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>481</v>
+        <v>256</v>
       </c>
       <c r="B76" s="2">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B77" s="2">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B78" s="2">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>261</v>
+        <v>477</v>
       </c>
       <c r="B79" s="2">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>262</v>
+        <v>478</v>
       </c>
       <c r="B80" s="2">
-        <v>350</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B81" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B82" s="2">
-        <v>300</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B83" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>471</v>
+        <v>262</v>
       </c>
       <c r="B84" s="2">
-        <v>70</v>
+        <v>350</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B85" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B86" s="2">
-        <v>80</v>
+        <v>300</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B87" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="B88" s="2">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B89" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B90" s="2">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B91" s="2">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>272</v>
+        <v>484</v>
       </c>
       <c r="B92" s="2">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B93" s="2">
-        <v>120</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B94" s="2">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B95" s="2">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>472</v>
+        <v>272</v>
       </c>
       <c r="B96" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B97" s="2">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B98" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B99" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>279</v>
+        <v>469</v>
       </c>
       <c r="B100" s="2">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B101" s="2">
-        <v>150</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B102" s="2">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>497</v>
+        <v>278</v>
       </c>
       <c r="B103" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B104" s="2">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B105" s="2">
-        <v>450</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B106" s="2">
-        <v>180</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>285</v>
+        <v>494</v>
       </c>
       <c r="B107" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B108" s="2">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B109" s="2">
-        <v>30</v>
+        <v>450</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B110" s="2">
-        <v>60</v>
+        <v>180</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>289</v>
+        <v>523</v>
       </c>
       <c r="B111" s="2">
-        <v>120</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>290</v>
+        <v>524</v>
       </c>
       <c r="B112" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>292</v>
+        <v>525</v>
       </c>
       <c r="B113" s="2">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>483</v>
+        <v>285</v>
       </c>
       <c r="B114" s="2">
-        <v>250</v>
+        <v>60</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>16</v>
+        <v>286</v>
       </c>
       <c r="B115" s="2">
         <v>120</v>
@@ -3065,47 +3613,47 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B116" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B117" s="2">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>294</v>
+        <v>480</v>
       </c>
       <c r="B118" s="2">
-        <v>50</v>
+        <v>250</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>295</v>
+        <v>16</v>
       </c>
       <c r="B119" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B120" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="3" t="s">
-        <v>442</v>
+      <c r="A121" t="s">
+        <v>288</v>
       </c>
       <c r="B121" s="2">
         <v>15</v>
@@ -3113,7 +3661,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B122" s="2">
         <v>50</v>
@@ -3121,63 +3669,63 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B123" s="2">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B124" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" t="s">
-        <v>300</v>
+      <c r="A125" s="3" t="s">
+        <v>439</v>
       </c>
       <c r="B125" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B126" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B127" s="2">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B128" s="2">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B129" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B130" s="2">
         <v>10</v>
@@ -3185,7 +3733,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B131" s="2">
         <v>30</v>
@@ -3193,103 +3741,103 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B132" s="2">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B133" s="2">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B134" s="2">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B135" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>311</v>
+        <v>530</v>
       </c>
       <c r="B136" s="2">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="B137" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B138" s="2">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B139" s="2">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B140" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B141" s="2">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B142" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B143" s="2">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B144" s="2">
         <v>30</v>
@@ -3297,23 +3845,23 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B145" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>485</v>
+        <v>313</v>
       </c>
       <c r="B146" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>486</v>
+        <v>314</v>
       </c>
       <c r="B147" s="2">
         <v>10</v>
@@ -3321,143 +3869,143 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B148" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B149" s="2">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B150" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>324</v>
+        <v>482</v>
       </c>
       <c r="B151" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>325</v>
+        <v>483</v>
       </c>
       <c r="B152" s="2">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B153" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B154" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B155" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B156" s="2">
-        <v>550</v>
+        <v>50</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B157" s="2">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>331</v>
+        <v>531</v>
       </c>
       <c r="B158" s="2">
-        <v>10</v>
+        <v>180</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>473</v>
+        <v>323</v>
       </c>
       <c r="B159" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B160" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>474</v>
+        <v>325</v>
       </c>
       <c r="B161" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>333</v>
+        <v>538</v>
       </c>
       <c r="B162" s="2">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B163" s="2">
-        <v>70</v>
+        <v>550</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B164" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B165" s="2">
         <v>10</v>
@@ -3465,7 +4013,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>337</v>
+        <v>470</v>
       </c>
       <c r="B166" s="2">
         <v>20</v>
@@ -3473,239 +4021,239 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B167" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>339</v>
+        <v>471</v>
       </c>
       <c r="B168" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="B169" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B170" s="2">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B171" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B172" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B173" s="2">
-        <v>280</v>
+        <v>20</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B174" s="2">
-        <v>150</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>475</v>
+        <v>336</v>
       </c>
       <c r="B175" s="2">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B176" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B177" s="2">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>348</v>
+        <v>532</v>
       </c>
       <c r="B178" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>349</v>
+        <v>533</v>
       </c>
       <c r="B179" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="B180" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="B181" s="2">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="B182" s="2">
-        <v>120</v>
+        <v>280</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="B183" s="2">
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>354</v>
+        <v>472</v>
       </c>
       <c r="B184" s="2">
-        <v>160</v>
+        <v>80</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="B185" s="2">
-        <v>110</v>
+        <v>30</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="B186" s="2">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="B187" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="B188" s="2">
-        <v>170</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="B189" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="B190" s="2">
-        <v>220</v>
+        <v>100</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="B191" s="2">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="B192" s="2">
-        <v>25</v>
+        <v>300</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="B193" s="2">
-        <v>70</v>
+        <v>160</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="B194" s="2">
-        <v>25</v>
+        <v>110</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B195" s="2">
-        <v>10</v>
+        <v>160</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="B196" s="2">
         <v>30</v>
@@ -3713,95 +4261,95 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="B197" s="2">
-        <v>30</v>
+        <v>170</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="B198" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>477</v>
+        <v>357</v>
       </c>
       <c r="B199" s="2">
-        <v>40</v>
+        <v>220</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="B200" s="2">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="B201" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="B202" s="2">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="B203" s="2">
-        <v>150</v>
+        <v>25</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="B204" s="2">
-        <v>350</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>374</v>
+        <v>539</v>
       </c>
       <c r="B205" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>375</v>
+        <v>540</v>
       </c>
       <c r="B206" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="B207" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="B208" s="2">
         <v>30</v>
@@ -3809,79 +4357,79 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="B209" s="2">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>379</v>
+        <v>474</v>
       </c>
       <c r="B210" s="2">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="B211" s="2">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="B212" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="B213" s="2">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="B214" s="2">
-        <v>15</v>
+        <v>150</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="B215" s="2">
-        <v>130</v>
+        <v>350</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="B216" s="2">
-        <v>200</v>
+        <v>20</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="B217" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="B218" s="2">
         <v>15</v>
@@ -3889,87 +4437,87 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="B219" s="2">
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="B220" s="2">
-        <v>95</v>
+        <v>15</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="B221" s="2">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="B222" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="B223" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="B224" s="2">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="B225" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="B226" s="2">
-        <v>10</v>
+        <v>130</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="B227" s="2">
-        <v>15</v>
+        <v>200</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="B228" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="B229" s="2">
         <v>15</v>
@@ -3977,23 +4525,23 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>478</v>
+        <v>385</v>
       </c>
       <c r="B230" s="2">
-        <v>15</v>
+        <v>65</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>479</v>
+        <v>386</v>
       </c>
       <c r="B231" s="2">
-        <v>6</v>
+        <v>95</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="B232" s="2">
         <v>10</v>
@@ -4001,239 +4549,239 @@
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="B233" s="2">
-        <v>150</v>
+        <v>20</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="B234" s="2">
-        <v>180</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="B235" s="2">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="B236" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="B237" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="B238" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="B239" s="2">
-        <v>75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="B240" s="2">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>408</v>
+        <v>475</v>
       </c>
       <c r="B241" s="2">
-        <v>70</v>
+        <v>15</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>409</v>
+        <v>476</v>
       </c>
       <c r="B242" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="B243" s="2">
-        <v>250</v>
+        <v>10</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>469</v>
+        <v>397</v>
       </c>
       <c r="B244" s="2">
-        <v>550</v>
+        <v>150</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="B245" s="2">
-        <v>25</v>
+        <v>180</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="B246" s="2">
-        <v>10</v>
+        <v>90</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="B247" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="B248" s="2">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="B249" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="B250" s="2">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="B251" s="2">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="B252" s="2">
-        <v>5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="B253" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="B254" s="2">
-        <v>7</v>
+        <v>250</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>421</v>
+        <v>466</v>
       </c>
       <c r="B255" s="2">
-        <v>20</v>
+        <v>550</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>463</v>
+        <v>408</v>
       </c>
       <c r="B256" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="B257" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="B258" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="B259" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="B260" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="B261" s="2">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="B262" s="2">
         <v>5</v>
@@ -4241,117 +4789,240 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="B263" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="B264" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>476</v>
+        <v>417</v>
       </c>
       <c r="B265" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="B266" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>431</v>
+        <v>460</v>
       </c>
       <c r="B267" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="B268" s="2">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="B269" s="2">
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="B270" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="B271" s="2">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="B272" s="2">
-        <v>100</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="B273" s="2">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="B274" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
-        <v>524</v>
+        <v>426</v>
       </c>
       <c r="B275" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>439</v>
+        <v>473</v>
       </c>
       <c r="B276" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" t="s">
+        <v>534</v>
+      </c>
+      <c r="B277" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" t="s">
+        <v>427</v>
+      </c>
+      <c r="B278" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" t="s">
+        <v>535</v>
+      </c>
+      <c r="B279" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" t="s">
+        <v>428</v>
+      </c>
+      <c r="B280" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" t="s">
+        <v>429</v>
+      </c>
+      <c r="B281" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" t="s">
+        <v>430</v>
+      </c>
+      <c r="B282" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" t="s">
+        <v>431</v>
+      </c>
+      <c r="B283" s="2">
         <v>15</v>
       </c>
     </row>
+    <row r="284" spans="1:2">
+      <c r="A284" t="s">
+        <v>432</v>
+      </c>
+      <c r="B284" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" t="s">
+        <v>433</v>
+      </c>
+      <c r="B285" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" t="s">
+        <v>536</v>
+      </c>
+      <c r="B286" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" t="s">
+        <v>537</v>
+      </c>
+      <c r="B287" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" t="s">
+        <v>434</v>
+      </c>
+      <c r="B288" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" t="s">
+        <v>435</v>
+      </c>
+      <c r="B289" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" t="s">
+        <v>521</v>
+      </c>
+      <c r="B290" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" t="s">
+        <v>436</v>
+      </c>
+      <c r="B291" s="2">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A2:B291">
+    <sortCondition ref="A2:A291"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4364,7 +5035,7 @@
       <selection activeCell="A3" sqref="A3:B71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="61" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -4436,7 +5107,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B9" s="5">
         <v>80</v>
@@ -4476,7 +5147,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B14" s="5">
         <v>1</v>
@@ -4484,7 +5155,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B15" s="5">
         <v>1</v>
@@ -4492,7 +5163,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -4500,7 +5171,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B17" s="5">
         <v>15</v>
@@ -4532,7 +5203,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B21" s="5">
         <v>7</v>
@@ -4548,7 +5219,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B23" s="5">
         <v>25</v>
@@ -4556,7 +5227,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B24" s="5">
         <v>50</v>
@@ -4588,7 +5259,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B28" s="5">
         <v>15</v>
@@ -4612,7 +5283,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B31" s="12">
         <v>100</v>
@@ -4660,7 +5331,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B37" s="12">
         <v>40</v>
@@ -4796,7 +5467,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B54" s="5">
         <v>40</v>
@@ -4820,7 +5491,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B57" s="12">
         <v>150</v>
@@ -4868,7 +5539,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B63" s="5">
         <v>40</v>
@@ -4876,7 +5547,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B64" s="5">
         <v>20</v>
@@ -4892,7 +5563,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B66" s="5">
         <v>5</v>
@@ -4908,7 +5579,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B68" s="2">
         <v>10</v>
@@ -4916,7 +5587,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B69" s="5">
         <v>15</v>
@@ -4924,7 +5595,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B70" s="5">
         <v>10</v>
@@ -4950,13 +5621,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+    <sheetView topLeftCell="A83" workbookViewId="0">
       <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="73.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="73.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5058,7 +5729,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="16" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B13" s="5">
         <v>80</v>
@@ -5154,7 +5825,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="16" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B25" s="5">
         <v>1</v>
@@ -5162,7 +5833,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="16" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B26" s="5">
         <v>1</v>
@@ -5170,7 +5841,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
@@ -5226,7 +5897,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="16" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B34" s="5">
         <v>7</v>
@@ -5242,7 +5913,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="16" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B36" s="5">
         <v>80</v>
@@ -5250,7 +5921,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="16" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B37" s="5">
         <v>90</v>
@@ -5578,7 +6249,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="26" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B78" s="12">
         <v>50</v>
@@ -5634,7 +6305,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="16" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B85" s="5">
         <v>15</v>
@@ -5674,7 +6345,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="16" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B90" s="5">
         <v>80</v>
@@ -5730,7 +6401,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="33" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B97" s="5">
         <v>60</v>
@@ -5738,7 +6409,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="16" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B98" s="5">
         <v>20</v>
@@ -5746,7 +6417,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="16" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B99" s="5">
         <v>15</v>
@@ -5754,7 +6425,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="16" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B100" s="5">
         <v>15</v>
@@ -5762,7 +6433,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="16" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B101" s="5">
         <v>25</v>
@@ -5778,7 +6449,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="16" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B103" s="5">
         <v>15</v>
@@ -5906,7 +6577,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B119" s="5">
         <v>180</v>
@@ -5978,7 +6649,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="26" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B128" s="12">
         <v>150</v>
@@ -6210,7 +6881,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="16" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B157" s="5">
         <v>40</v>
@@ -6258,7 +6929,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="16" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B163" s="5">
         <v>70</v>
@@ -6274,7 +6945,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B165" s="2">
         <v>10</v>
@@ -6282,7 +6953,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B166" s="5">
         <v>10</v>
@@ -6328,10 +6999,10 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="54.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="54.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -6344,7 +7015,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B2" s="32">
         <v>12</v>
@@ -6352,7 +7023,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B3" s="32">
         <v>50</v>
@@ -6360,7 +7031,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B4" s="32">
         <v>12</v>
@@ -6368,7 +7039,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B5" s="32">
         <v>50</v>
@@ -6376,7 +7047,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B6" s="32">
         <v>50</v>
@@ -6384,7 +7055,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B7" s="32">
         <v>70</v>
@@ -6392,7 +7063,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B8" s="32">
         <v>50</v>
@@ -6400,7 +7071,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B9" s="32">
         <v>15</v>
@@ -6408,7 +7079,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B10" s="32">
         <v>12</v>
@@ -6416,7 +7087,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B11" s="32">
         <v>12</v>
@@ -6424,7 +7095,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B12" s="32">
         <v>80</v>
@@ -6440,7 +7111,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B14" s="32">
         <v>1</v>
@@ -6448,7 +7119,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B15" s="32">
         <v>1</v>
@@ -6456,7 +7127,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B16" s="32">
         <v>1</v>
@@ -6464,7 +7135,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B17" s="32">
         <v>10</v>
@@ -6472,7 +7143,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B18" s="32">
         <v>10</v>
@@ -6480,7 +7151,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B19" s="32">
         <v>10</v>
@@ -6488,7 +7159,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B20" s="32">
         <v>30</v>
@@ -6496,7 +7167,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B21" s="32">
         <v>5</v>
@@ -6504,7 +7175,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B22" s="32">
         <v>70</v>
@@ -6520,7 +7191,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B24" s="32">
         <v>80</v>
@@ -6528,7 +7199,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B25" s="32">
         <v>12</v>
@@ -6536,7 +7207,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B26" s="32">
         <v>10</v>
@@ -6544,7 +7215,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B27" s="32">
         <v>15</v>
@@ -6552,7 +7223,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B28" s="32">
         <v>12</v>
@@ -6560,7 +7231,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B29" s="32">
         <v>12</v>
@@ -6568,7 +7239,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B30" s="32">
         <v>12</v>
@@ -6576,7 +7247,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B31" s="32">
         <v>20</v>
@@ -6584,7 +7255,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B32" s="32">
         <v>12</v>
@@ -6592,7 +7263,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B33" s="32">
         <v>7</v>
@@ -6600,7 +7271,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B34" s="32">
         <v>12</v>
@@ -6608,7 +7279,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B35" s="32">
         <v>12</v>
@@ -6616,7 +7287,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B36" s="32">
         <v>10</v>

--- a/clientes/files/TODITICO_CATÁLOGO.xlsx
+++ b/clientes/files/TODITICO_CATÁLOGO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabajo\Catálogos Proformas\Este\345 Actual\Clientes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabajo\Catálogos Proformas\Este\320 Actual\Clientes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D6F561-61BC-471E-819D-A77654688944}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA63816-00AE-4E94-86D1-BDAE0E792F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DAEWOO TICO" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="543">
   <si>
     <t>DESCRIPCION</t>
   </si>
@@ -117,9 +117,6 @@
     <t>AMORTIGUADORES DELANTEROS PICANTO 1RA, I10 PAREJA</t>
   </si>
   <si>
-    <t>KIT DE JUNTAS DEL MOTOR PICANTO 1RA, ATOS 1.1, I10</t>
-  </si>
-  <si>
     <t>CUBOS DE RUEDAS DELANTEROS PAREJA PICANTO 2da</t>
   </si>
   <si>
@@ -157,9 +154,6 @@
   </si>
   <si>
     <t>BOMBA ACEITE PICANTO 2DA Y 3RA</t>
-  </si>
-  <si>
-    <t>BOMBA AGUA PICANTO 1RA</t>
   </si>
   <si>
     <t>BOMBA AGUA PICANTO 2DA Y 3RA</t>
@@ -222,12 +216,6 @@
     <t xml:space="preserve">DEFENSA DELANTERA PICANTO 3RA </t>
   </si>
   <si>
-    <t>DEFENSA DELANTERA PICANTO 3RA (GT LINE)</t>
-  </si>
-  <si>
-    <t>DEFLECTOR DE DEFENSA DELANTERA PICANTO 3RA GT LINE</t>
-  </si>
-  <si>
     <t>DEFENSA TRASERA PICANTO 1RA [08-11]</t>
   </si>
   <si>
@@ -397,9 +385,6 @@
     <t>NEBLINEROS PICANTO 3RA PAREJA</t>
   </si>
   <si>
-    <t>NEBLINEROS PICANTO 3RA GT LINE PAREJA</t>
-  </si>
-  <si>
     <t>PANTALLAS DELANTERAS ATOS  PAREJA</t>
   </si>
   <si>
@@ -413,9 +398,6 @@
   </si>
   <si>
     <t>PUNTA DE DIRECCION PICANTO 3RA C/U</t>
-  </si>
-  <si>
-    <t>REJILLAS DE DEFENSA PICANTO 3RA GT LINE PAREJA</t>
   </si>
   <si>
     <t>RETROVISORES MECANICOS PICANTO 1RA [04-07] PAREJA</t>
@@ -821,9 +803,6 @@
     <t>BUJES DE PARRILLAS DELANTERAS PAREJA</t>
   </si>
   <si>
-    <t>BUJES DE PARRILLAS TRASERAS</t>
-  </si>
-  <si>
     <t>BUJE DE VARILLA DE CAPOT</t>
   </si>
   <si>
@@ -1538,18 +1517,12 @@
     <t>GAMUZA O FRANELA</t>
   </si>
   <si>
-    <t>PUNTAS DE HOMOCINÉTICAS ATOS PAREJA</t>
-  </si>
-  <si>
     <t>ESFERICAS ATOS PAREJA</t>
   </si>
   <si>
     <t>CUBOS DE RUEDAS DELANTEROS ATOS MOTOR 1.1 PAREJA</t>
   </si>
   <si>
-    <t>PUNTAS DE HOMOCINÉTICAS PICANTO 1RA PAREJA</t>
-  </si>
-  <si>
     <t>ESFERICAS PICANTO 1RA PAREJA</t>
   </si>
   <si>
@@ -1673,24 +1646,12 @@
     <t>KIT DE BASE DE CARBURADOR</t>
   </si>
   <si>
-    <t>MICA DE FARO DEFENSA DELANTERA  SUPER TICO AMBAR</t>
-  </si>
-  <si>
     <t>MICA DE FARO DEFENSA DELANTERA NORMAL AMBAR</t>
   </si>
   <si>
     <t xml:space="preserve">TORNILLO DE TUBO DE ESCAPE Y RESORTE </t>
   </si>
   <si>
-    <t>TRIANGULO DE PUERTA POST(METAL )</t>
-  </si>
-  <si>
-    <t>VIDRIO DE FARO DIAMANTADO</t>
-  </si>
-  <si>
-    <t>VIDRIO DE FARO NORMAL</t>
-  </si>
-  <si>
     <t>LLANTAS DE HIERRO JGO</t>
   </si>
   <si>
@@ -1698,6 +1659,51 @@
   </si>
   <si>
     <t>PLASTICO LATERAL DEL MALETERO</t>
+  </si>
+  <si>
+    <t>MICA DE CIUDAD DE PANTALLA DELANTERA AMBAR</t>
+  </si>
+  <si>
+    <t>TRIANGULO DE PUERTA TRASERA (METAL )</t>
+  </si>
+  <si>
+    <t>VIDRIO DE PANTALLA DIAMANTADA</t>
+  </si>
+  <si>
+    <t>VIDRIO DE PANTALLA NORMAL</t>
+  </si>
+  <si>
+    <t>NEBLINEROS PICANTO 3RA GT LINE PAREJA [2017 - 2020]</t>
+  </si>
+  <si>
+    <t>REJILLAS DE DEFENSA PICANTO 3RA GT LINE PAREJA [2017 - 2020]</t>
+  </si>
+  <si>
+    <t>DEFENSA DELANTERA PICANTO 3RA (GT LINE) [2017 - 2020]</t>
+  </si>
+  <si>
+    <t>DEFLECTOR DE DEFENSA DELANTERA PICANTO 3RA GT LINE [2017 - 2020]</t>
+  </si>
+  <si>
+    <t>BUJES DE PARRILLAS TRASERAS C/U</t>
+  </si>
+  <si>
+    <t>BOMBA AGUA PICANTO 1RA, ATOS, I10</t>
+  </si>
+  <si>
+    <t>BOMBA AGUA ATOS, I10, PICANTO 1RA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABLE DE BUJIA ATOS, I10, PICANTO 1RA          </t>
+  </si>
+  <si>
+    <t>KIT DE JUNTAS DEL MOTOR PICANTO 1RA, I10</t>
+  </si>
+  <si>
+    <t>PUNTAS DE HOMOCINÉTICAS EXTERIORES ATOS PAREJA</t>
+  </si>
+  <si>
+    <t>PUNTAS DE HOMOCINÉTICAS EXTERIORES PICANTO 1RA PAREJA</t>
   </si>
 </sst>
 </file>
@@ -1705,10 +1711,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="[$-280A]General"/>
+    <numFmt numFmtId="166" formatCode="[$-280A]General"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -2251,7 +2257,7 @@
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
-    <xf numFmtId="167" fontId="30" fillId="3" borderId="0"/>
+    <xf numFmtId="166" fontId="30" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2262,14 +2268,14 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="3" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2297,7 +2303,7 @@
     <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2356,54 +2362,57 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
-    <cellStyle name="20% - Accent1" xfId="10" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="14" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="18" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="22" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="26" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="30" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="11" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="19" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="23" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="27" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="31" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="12" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="16" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="20" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="24" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="28" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="32" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="9" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="13" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="17" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="21" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="25" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="29" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="3" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="7" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="8" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="20% - Énfasis1" xfId="10" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="14" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="18" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="22" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="26" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="30" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="11" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="15" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="19" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="23" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="27" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="31" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="12" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="16" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="20" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="24" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="28" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="32" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="2" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="7" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="8" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="9" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="13" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="17" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="21" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="25" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="29" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="5" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Excel Built-in Normal" xfId="34" xr:uid="{688960BC-F69C-49B0-8CDB-DE122EA836A3}"/>
     <cellStyle name="Explanatory Text 2" xfId="43" xr:uid="{BF74F976-326C-465D-A83B-19341F51278D}"/>
-    <cellStyle name="Good" xfId="2" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1 2" xfId="36" xr:uid="{35512690-E337-4424-84E2-85231B3DD88C}"/>
     <cellStyle name="Heading 2 2" xfId="37" xr:uid="{A31B7674-2027-48CB-881D-281F8DA7106C}"/>
     <cellStyle name="Heading 3 2" xfId="38" xr:uid="{BD8E1F66-2E87-475C-B836-F098EB1FF038}"/>
     <cellStyle name="Heading 4 2" xfId="39" xr:uid="{C03D7A95-4AB4-46A8-9B28-E35A5D0CCB4A}"/>
-    <cellStyle name="Input" xfId="5" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="3" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Linked Cell 2" xfId="40" xr:uid="{8CB1EC70-1736-4A8C-8B05-273AC47130F4}"/>
     <cellStyle name="Millares 2" xfId="45" xr:uid="{8123F2D9-FB29-45A7-A0C8-90489F326596}"/>
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Neutral" xfId="4" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="33" xr:uid="{2EE8B4EC-D36D-4191-B1B1-5D6B79B67CDB}"/>
     <cellStyle name="Note 2" xfId="42" xr:uid="{05480AC8-7CE6-4493-9059-76695070FEBC}"/>
-    <cellStyle name="Output" xfId="6" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="6" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title 2" xfId="35" xr:uid="{ECA6EB64-49AC-4841-8FD4-8054B3948E49}"/>
     <cellStyle name="Total 2" xfId="44" xr:uid="{32CEC7C7-5959-4220-8408-34D306D749D8}"/>
     <cellStyle name="Warning Text 2" xfId="41" xr:uid="{58D3DC39-F6BA-4D4D-8C44-D27B2207069F}"/>
@@ -2681,11 +2690,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B291"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="88.54296875" customWidth="1"/>
     <col min="2" max="2" width="14.81640625" customWidth="1"/>
@@ -2701,7 +2710,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B2" s="2">
         <v>10</v>
@@ -2709,7 +2718,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="B3" s="2">
         <v>12</v>
@@ -2717,7 +2726,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B4" s="2">
         <v>15</v>
@@ -2725,7 +2734,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="B5" s="2">
         <v>20</v>
@@ -2733,15 +2742,15 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="B6" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B7" s="2">
         <v>10</v>
@@ -2749,7 +2758,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B8" s="2">
         <v>80</v>
@@ -2757,7 +2766,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="B9" s="2">
         <v>100</v>
@@ -2765,7 +2774,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B10" s="2">
         <v>120</v>
@@ -2773,7 +2782,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B11" s="2">
         <v>100</v>
@@ -2781,7 +2790,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B12" s="2">
         <v>160</v>
@@ -2789,7 +2798,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B13" s="2">
         <v>35</v>
@@ -2797,7 +2806,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B14" s="2">
         <v>150</v>
@@ -2805,7 +2814,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B15" s="2">
         <v>110</v>
@@ -2813,7 +2822,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B16" s="2">
         <v>15</v>
@@ -2821,7 +2830,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B17" s="2">
         <v>40</v>
@@ -2829,7 +2838,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B18" s="2">
         <v>30</v>
@@ -2837,7 +2846,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="B19" s="2">
         <v>5</v>
@@ -2845,7 +2854,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B20" s="2">
         <v>3</v>
@@ -2853,7 +2862,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B21" s="2">
         <v>15</v>
@@ -2861,7 +2870,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B22" s="2">
         <v>120</v>
@@ -2869,7 +2878,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B23" s="2">
         <v>50</v>
@@ -2877,7 +2886,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B24" s="2">
         <v>10</v>
@@ -2885,7 +2894,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B25" s="2">
         <v>90</v>
@@ -2893,7 +2902,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B26" s="2">
         <v>35</v>
@@ -2901,7 +2910,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B27" s="2">
         <v>10</v>
@@ -2909,7 +2918,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B28" s="2">
         <v>150</v>
@@ -2917,7 +2926,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B29" s="2">
         <v>120</v>
@@ -2925,7 +2934,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B30" s="2">
         <v>170</v>
@@ -2933,7 +2942,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B31" s="2">
         <v>30</v>
@@ -2941,7 +2950,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B32" s="2">
         <v>60</v>
@@ -2949,7 +2958,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B33" s="2">
         <v>30</v>
@@ -2957,7 +2966,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="B34" s="2">
         <v>80</v>
@@ -2965,7 +2974,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B35" s="2">
         <v>100</v>
@@ -2973,7 +2982,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B36" s="2">
         <v>25</v>
@@ -2981,7 +2990,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="B37" s="2">
         <v>50</v>
@@ -2989,7 +2998,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="B38" s="2">
         <v>12</v>
@@ -2997,7 +3006,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B39" s="2">
         <v>40</v>
@@ -3005,7 +3014,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B40" s="2">
         <v>80</v>
@@ -3013,7 +3022,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B41" s="2">
         <v>45</v>
@@ -3021,7 +3030,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B42" s="2">
         <v>60</v>
@@ -3029,7 +3038,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B43" s="2">
         <v>45</v>
@@ -3037,7 +3046,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B44" s="2">
         <v>20</v>
@@ -3045,7 +3054,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B45" s="2">
         <v>1</v>
@@ -3053,7 +3062,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B46" s="2">
         <v>1</v>
@@ -3061,7 +3070,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B47" s="2">
         <v>1</v>
@@ -3069,7 +3078,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="B48" s="2">
         <v>10</v>
@@ -3077,7 +3086,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B49" s="2">
         <v>100</v>
@@ -3085,7 +3094,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B50" s="2">
         <v>15</v>
@@ -3093,7 +3102,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B51" s="2">
         <v>10</v>
@@ -3101,7 +3110,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="3" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B52" s="2">
         <v>10</v>
@@ -3109,7 +3118,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B53" s="2">
         <v>10</v>
@@ -3117,7 +3126,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B54" s="2">
         <v>60</v>
@@ -3125,7 +3134,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B55" s="2">
         <v>40</v>
@@ -3133,7 +3142,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B56" s="2">
         <v>20</v>
@@ -3141,7 +3150,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B57" s="2">
         <v>15</v>
@@ -3149,7 +3158,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B58" s="2">
         <v>20</v>
@@ -3157,7 +3166,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B59" s="2">
         <v>15</v>
@@ -3165,7 +3174,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B60" s="2">
         <v>10</v>
@@ -3173,7 +3182,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B61" s="2">
         <v>5</v>
@@ -3181,7 +3190,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B62" s="2">
         <v>15</v>
@@ -3189,7 +3198,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B63" s="2">
         <v>10</v>
@@ -3197,7 +3206,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B64" s="2">
         <v>2</v>
@@ -3205,7 +3214,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B65" s="2">
         <v>15</v>
@@ -3213,7 +3222,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B66" s="2">
         <v>15</v>
@@ -3221,7 +3230,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B67" s="2">
         <v>10</v>
@@ -3229,7 +3238,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>248</v>
+        <v>536</v>
       </c>
       <c r="B68" s="2">
         <v>10</v>
@@ -3237,7 +3246,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B69" s="2">
         <v>7</v>
@@ -3245,7 +3254,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B70" s="2">
         <v>10</v>
@@ -3253,7 +3262,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B71" s="2">
         <v>15</v>
@@ -3261,7 +3270,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B72" s="2">
         <v>20</v>
@@ -3269,7 +3278,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B73" s="2">
         <v>25</v>
@@ -3277,7 +3286,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B74" s="2">
         <v>20</v>
@@ -3285,7 +3294,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B75" s="2">
         <v>45</v>
@@ -3293,7 +3302,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B76" s="2">
         <v>25</v>
@@ -3301,7 +3310,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B77" s="2">
         <v>25</v>
@@ -3309,7 +3318,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B78" s="2">
         <v>10</v>
@@ -3317,7 +3326,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="B79" s="2">
         <v>15</v>
@@ -3325,7 +3334,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B80" s="2">
         <v>30</v>
@@ -3333,7 +3342,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B81" s="2">
         <v>50</v>
@@ -3341,7 +3350,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B82" s="2">
         <v>70</v>
@@ -3349,7 +3358,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B83" s="2">
         <v>100</v>
@@ -3357,7 +3366,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B84" s="2">
         <v>350</v>
@@ -3365,7 +3374,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B85" s="2">
         <v>10</v>
@@ -3373,7 +3382,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B86" s="2">
         <v>300</v>
@@ -3381,7 +3390,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B87" s="2">
         <v>50</v>
@@ -3389,7 +3398,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B88" s="2">
         <v>70</v>
@@ -3397,7 +3406,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B89" s="2">
         <v>50</v>
@@ -3405,7 +3414,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B90" s="2">
         <v>80</v>
@@ -3413,7 +3422,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B91" s="2">
         <v>25</v>
@@ -3421,7 +3430,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B92" s="2">
         <v>25</v>
@@ -3429,7 +3438,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B93" s="2">
         <v>25</v>
@@ -3437,7 +3446,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B94" s="2">
         <v>35</v>
@@ -3445,7 +3454,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B95" s="2">
         <v>70</v>
@@ -3453,7 +3462,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B96" s="2">
         <v>50</v>
@@ -3461,7 +3470,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B97" s="2">
         <v>120</v>
@@ -3469,7 +3478,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B98" s="2">
         <v>30</v>
@@ -3477,7 +3486,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B99" s="2">
         <v>60</v>
@@ -3485,7 +3494,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B100" s="2">
         <v>10</v>
@@ -3493,7 +3502,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B101" s="2">
         <v>20</v>
@@ -3501,7 +3510,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B102" s="2">
         <v>15</v>
@@ -3509,7 +3518,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B103" s="2">
         <v>20</v>
@@ -3517,7 +3526,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B104" s="2">
         <v>60</v>
@@ -3525,7 +3534,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B105" s="2">
         <v>150</v>
@@ -3533,7 +3542,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B106" s="2">
         <v>40</v>
@@ -3541,7 +3550,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="B107" s="2">
         <v>100</v>
@@ -3549,7 +3558,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B108" s="2">
         <v>25</v>
@@ -3557,7 +3566,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B109" s="2">
         <v>450</v>
@@ -3565,7 +3574,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B110" s="2">
         <v>180</v>
@@ -3573,7 +3582,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="B111" s="2">
         <v>10</v>
@@ -3581,7 +3590,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="B112" s="2">
         <v>30</v>
@@ -3589,7 +3598,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="B113" s="2">
         <v>30</v>
@@ -3597,7 +3606,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B114" s="2">
         <v>60</v>
@@ -3605,7 +3614,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B115" s="2">
         <v>120</v>
@@ -3613,7 +3622,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B116" s="2">
         <v>25</v>
@@ -3621,7 +3630,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B117" s="2">
         <v>80</v>
@@ -3629,7 +3638,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B118" s="2">
         <v>250</v>
@@ -3645,7 +3654,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B120" s="2">
         <v>20</v>
@@ -3653,7 +3662,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B121" s="2">
         <v>15</v>
@@ -3661,7 +3670,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B122" s="2">
         <v>50</v>
@@ -3669,7 +3678,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B123" s="2">
         <v>60</v>
@@ -3677,7 +3686,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B124" s="2">
         <v>100</v>
@@ -3685,7 +3694,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="3" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B125" s="2">
         <v>15</v>
@@ -3693,7 +3702,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B126" s="2">
         <v>50</v>
@@ -3701,7 +3710,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B127" s="2">
         <v>70</v>
@@ -3709,7 +3718,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B128" s="2">
         <v>10</v>
@@ -3717,7 +3726,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B129" s="2">
         <v>10</v>
@@ -3725,7 +3734,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B130" s="2">
         <v>10</v>
@@ -3733,7 +3742,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B131" s="2">
         <v>30</v>
@@ -3741,7 +3750,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B132" s="2">
         <v>90</v>
@@ -3749,7 +3758,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B133" s="2">
         <v>50</v>
@@ -3757,7 +3766,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B134" s="2">
         <v>10</v>
@@ -3765,7 +3774,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B135" s="2">
         <v>30</v>
@@ -3773,7 +3782,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B136" s="2">
         <v>20</v>
@@ -3781,7 +3790,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B137" s="2">
         <v>120</v>
@@ -3789,7 +3798,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B138" s="2">
         <v>15</v>
@@ -3797,7 +3806,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B139" s="2">
         <v>70</v>
@@ -3805,7 +3814,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B140" s="2">
         <v>20</v>
@@ -3813,7 +3822,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B141" s="2">
         <v>5</v>
@@ -3821,7 +3830,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B142" s="2">
         <v>100</v>
@@ -3829,7 +3838,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B143" s="2">
         <v>60</v>
@@ -3837,7 +3846,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B144" s="2">
         <v>30</v>
@@ -3845,7 +3854,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B145" s="2">
         <v>100</v>
@@ -3853,7 +3862,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B146" s="2">
         <v>30</v>
@@ -3861,7 +3870,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B147" s="2">
         <v>10</v>
@@ -3869,7 +3878,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B148" s="2">
         <v>15</v>
@@ -3877,7 +3886,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B149" s="2">
         <v>30</v>
@@ -3885,7 +3894,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B150" s="2">
         <v>10</v>
@@ -3893,7 +3902,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B151" s="2">
         <v>10</v>
@@ -3901,7 +3910,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B152" s="2">
         <v>10</v>
@@ -3909,7 +3918,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B153" s="2">
         <v>20</v>
@@ -3917,7 +3926,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B154" s="2">
         <v>2</v>
@@ -3925,7 +3934,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B155" s="2">
         <v>20</v>
@@ -3933,7 +3942,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B156" s="2">
         <v>50</v>
@@ -3941,7 +3950,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B157" s="2">
         <v>40</v>
@@ -3949,15 +3958,15 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="B158" s="2">
-        <v>180</v>
+        <v>150</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B159" s="2">
         <v>90</v>
@@ -3965,7 +3974,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B160" s="2">
         <v>12</v>
@@ -3973,7 +3982,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B161" s="2">
         <v>15</v>
@@ -3981,7 +3990,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="B162" s="2">
         <v>400</v>
@@ -3989,7 +3998,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B163" s="2">
         <v>550</v>
@@ -3997,7 +4006,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B164" s="2">
         <v>6</v>
@@ -4005,7 +4014,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B165" s="2">
         <v>10</v>
@@ -4013,7 +4022,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B166" s="2">
         <v>20</v>
@@ -4021,7 +4030,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B167" s="2">
         <v>15</v>
@@ -4029,7 +4038,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B168" s="2">
         <v>5</v>
@@ -4037,7 +4046,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B169" s="2">
         <v>15</v>
@@ -4045,7 +4054,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B170" s="2">
         <v>70</v>
@@ -4053,7 +4062,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B171" s="2">
         <v>10</v>
@@ -4061,7 +4070,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B172" s="2">
         <v>10</v>
@@ -4069,7 +4078,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B173" s="2">
         <v>20</v>
@@ -4077,7 +4086,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B174" s="2">
         <v>10</v>
@@ -4085,7 +4094,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B175" s="2">
         <v>10</v>
@@ -4093,7 +4102,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B176" s="2">
         <v>10</v>
@@ -4101,7 +4110,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B177" s="2">
         <v>50</v>
@@ -4109,7 +4118,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B178" s="2">
         <v>5</v>
@@ -4117,7 +4126,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="B179" s="2">
         <v>5</v>
@@ -4125,7 +4134,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B180" s="2">
         <v>30</v>
@@ -4133,7 +4142,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B181" s="2">
         <v>7</v>
@@ -4141,7 +4150,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B182" s="2">
         <v>280</v>
@@ -4149,7 +4158,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B183" s="2">
         <v>150</v>
@@ -4157,7 +4166,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B184" s="2">
         <v>80</v>
@@ -4165,7 +4174,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B185" s="2">
         <v>30</v>
@@ -4173,7 +4182,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B186" s="2">
         <v>150</v>
@@ -4181,7 +4190,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B187" s="2">
         <v>10</v>
@@ -4189,7 +4198,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B188" s="2">
         <v>10</v>
@@ -4197,7 +4206,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B189" s="2">
         <v>20</v>
@@ -4205,7 +4214,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B190" s="2">
         <v>100</v>
@@ -4213,7 +4222,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B191" s="2">
         <v>120</v>
@@ -4221,7 +4230,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B192" s="2">
         <v>300</v>
@@ -4229,7 +4238,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B193" s="2">
         <v>160</v>
@@ -4237,7 +4246,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B194" s="2">
         <v>110</v>
@@ -4245,7 +4254,7 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B195" s="2">
         <v>160</v>
@@ -4253,7 +4262,7 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B196" s="2">
         <v>30</v>
@@ -4261,7 +4270,7 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B197" s="2">
         <v>170</v>
@@ -4269,7 +4278,7 @@
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B198" s="2">
         <v>80</v>
@@ -4277,7 +4286,7 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B199" s="2">
         <v>220</v>
@@ -4285,7 +4294,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B200" s="2">
         <v>90</v>
@@ -4293,7 +4302,7 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B201" s="2">
         <v>25</v>
@@ -4301,7 +4310,7 @@
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B202" s="2">
         <v>70</v>
@@ -4309,7 +4318,7 @@
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B203" s="2">
         <v>25</v>
@@ -4317,7 +4326,7 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B204" s="2">
         <v>10</v>
@@ -4325,23 +4334,23 @@
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="B205" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="B206" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B207" s="2">
         <v>30</v>
@@ -4349,7 +4358,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B208" s="2">
         <v>30</v>
@@ -4357,7 +4366,7 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B209" s="2">
         <v>60</v>
@@ -4365,7 +4374,7 @@
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B210" s="2">
         <v>40</v>
@@ -4373,7 +4382,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B211" s="2">
         <v>30</v>
@@ -4381,7 +4390,7 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B212" s="2">
         <v>20</v>
@@ -4389,7 +4398,7 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B213" s="2">
         <v>20</v>
@@ -4397,7 +4406,7 @@
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B214" s="2">
         <v>150</v>
@@ -4405,7 +4414,7 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B215" s="2">
         <v>350</v>
@@ -4413,7 +4422,7 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B216" s="2">
         <v>20</v>
@@ -4421,7 +4430,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B217" s="2">
         <v>20</v>
@@ -4429,7 +4438,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B218" s="2">
         <v>15</v>
@@ -4437,7 +4446,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B219" s="2">
         <v>30</v>
@@ -4445,7 +4454,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B220" s="2">
         <v>15</v>
@@ -4453,7 +4462,7 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B221" s="2">
         <v>70</v>
@@ -4461,7 +4470,7 @@
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B222" s="2">
         <v>40</v>
@@ -4469,7 +4478,7 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B223" s="2">
         <v>100</v>
@@ -4477,7 +4486,7 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B224" s="2">
         <v>70</v>
@@ -4485,7 +4494,7 @@
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B225" s="2">
         <v>15</v>
@@ -4493,7 +4502,7 @@
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B226" s="2">
         <v>130</v>
@@ -4501,7 +4510,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B227" s="2">
         <v>200</v>
@@ -4509,7 +4518,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B228" s="2">
         <v>30</v>
@@ -4517,7 +4526,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B229" s="2">
         <v>15</v>
@@ -4525,7 +4534,7 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B230" s="2">
         <v>65</v>
@@ -4533,7 +4542,7 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B231" s="2">
         <v>95</v>
@@ -4541,7 +4550,7 @@
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B232" s="2">
         <v>10</v>
@@ -4549,7 +4558,7 @@
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B233" s="2">
         <v>20</v>
@@ -4557,7 +4566,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B234" s="2">
         <v>10</v>
@@ -4565,7 +4574,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B235" s="2">
         <v>10</v>
@@ -4573,7 +4582,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B236" s="2">
         <v>10</v>
@@ -4581,7 +4590,7 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B237" s="2">
         <v>10</v>
@@ -4589,7 +4598,7 @@
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B238" s="2">
         <v>15</v>
@@ -4597,7 +4606,7 @@
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B239" s="2">
         <v>15</v>
@@ -4605,7 +4614,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B240" s="2">
         <v>15</v>
@@ -4613,7 +4622,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="B241" s="2">
         <v>15</v>
@@ -4621,7 +4630,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B242" s="2">
         <v>6</v>
@@ -4629,7 +4638,7 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B243" s="2">
         <v>10</v>
@@ -4637,7 +4646,7 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B244" s="2">
         <v>150</v>
@@ -4645,7 +4654,7 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B245" s="2">
         <v>180</v>
@@ -4653,7 +4662,7 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B246" s="2">
         <v>90</v>
@@ -4661,7 +4670,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B247" s="2">
         <v>30</v>
@@ -4669,7 +4678,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B248" s="2">
         <v>25</v>
@@ -4677,7 +4686,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B249" s="2">
         <v>4</v>
@@ -4685,7 +4694,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B250" s="2">
         <v>75</v>
@@ -4693,7 +4702,7 @@
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B251" s="2">
         <v>25</v>
@@ -4701,7 +4710,7 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B252" s="2">
         <v>70</v>
@@ -4709,7 +4718,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B253" s="2">
         <v>15</v>
@@ -4717,7 +4726,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B254" s="2">
         <v>250</v>
@@ -4725,7 +4734,7 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B255" s="2">
         <v>550</v>
@@ -4733,7 +4742,7 @@
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B256" s="2">
         <v>25</v>
@@ -4741,7 +4750,7 @@
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B257" s="2">
         <v>10</v>
@@ -4749,7 +4758,7 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B258" s="2">
         <v>10</v>
@@ -4757,7 +4766,7 @@
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B259" s="2">
         <v>15</v>
@@ -4765,7 +4774,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B260" s="2">
         <v>7</v>
@@ -4773,7 +4782,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B261" s="2">
         <v>50</v>
@@ -4781,7 +4790,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B262" s="2">
         <v>5</v>
@@ -4789,7 +4798,7 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B263" s="2">
         <v>5</v>
@@ -4797,7 +4806,7 @@
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B264" s="2">
         <v>5</v>
@@ -4805,7 +4814,7 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B265" s="2">
         <v>7</v>
@@ -4813,7 +4822,7 @@
     </row>
     <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B266" s="2">
         <v>20</v>
@@ -4821,7 +4830,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B267" s="2">
         <v>10</v>
@@ -4829,7 +4838,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B268" s="2">
         <v>15</v>
@@ -4837,7 +4846,7 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B269" s="2">
         <v>5</v>
@@ -4845,7 +4854,7 @@
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B270" s="2">
         <v>7</v>
@@ -4853,7 +4862,7 @@
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B271" s="2">
         <v>10</v>
@@ -4861,7 +4870,7 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B272" s="2">
         <v>2</v>
@@ -4869,7 +4878,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B273" s="2">
         <v>5</v>
@@ -4877,7 +4886,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B274" s="2">
         <v>3</v>
@@ -4885,7 +4894,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B275" s="2">
         <v>4</v>
@@ -4893,7 +4902,7 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B276" s="2">
         <v>3</v>
@@ -4901,15 +4910,15 @@
     </row>
     <row r="277" spans="1:2">
       <c r="A277" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="B277" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B278" s="2">
         <v>2</v>
@@ -4917,15 +4926,15 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B279" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B280" s="2">
         <v>20</v>
@@ -4933,7 +4942,7 @@
     </row>
     <row r="281" spans="1:2">
       <c r="A281" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="B281" s="2">
         <v>25</v>
@@ -4941,7 +4950,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B282" s="2">
         <v>45</v>
@@ -4949,7 +4958,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B283" s="2">
         <v>15</v>
@@ -4957,7 +4966,7 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B284" s="2">
         <v>60</v>
@@ -4965,7 +4974,7 @@
     </row>
     <row r="285" spans="1:2">
       <c r="A285" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B285" s="2">
         <v>100</v>
@@ -4973,23 +4982,23 @@
     </row>
     <row r="286" spans="1:2">
       <c r="A286" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B286" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B287" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B288" s="2">
         <v>35</v>
@@ -4997,7 +5006,7 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B289" s="2">
         <v>10</v>
@@ -5005,7 +5014,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="B290" s="2">
         <v>5</v>
@@ -5013,14 +5022,14 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B291" s="2">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B291">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B291">
     <sortCondition ref="A2:A291"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5029,13 +5038,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B71"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="61" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -5051,7 +5060,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B2" s="5">
         <v>200</v>
@@ -5059,7 +5068,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B3" s="5">
         <v>180</v>
@@ -5067,7 +5076,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B4" s="5">
         <v>120</v>
@@ -5075,7 +5084,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B5" s="5">
         <v>120</v>
@@ -5091,7 +5100,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B7" s="5">
         <v>40</v>
@@ -5107,7 +5116,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="7" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="B9" s="5">
         <v>80</v>
@@ -5115,7 +5124,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="9" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B10" s="5">
         <v>100</v>
@@ -5131,487 +5140,503 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="8" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B12" s="5">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="10" t="s">
-        <v>41</v>
+      <c r="A13" t="s">
+        <v>538</v>
       </c>
       <c r="B13" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="5">
         <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="B14" s="5">
-        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="B15" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>459</v>
-      </c>
-      <c r="B16" s="2">
+      <c r="A16" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B16" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="B17" s="5">
-        <v>15</v>
+      <c r="A17" t="s">
+        <v>452</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="7" t="s">
-        <v>13</v>
+        <v>494</v>
       </c>
       <c r="B18" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="7" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B19" s="5">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="7" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B20" s="5">
-        <v>10</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="7" t="s">
-        <v>497</v>
+        <v>8</v>
       </c>
       <c r="B21" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="7" t="s">
-        <v>3</v>
+        <v>488</v>
       </c>
       <c r="B22" s="5">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="7" t="s">
-        <v>502</v>
+        <v>3</v>
       </c>
       <c r="B23" s="5">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="7" t="s">
-        <v>504</v>
+      <c r="A24" s="33" t="s">
+        <v>539</v>
       </c>
       <c r="B24" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="B25" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B26" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="6" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B27" s="5">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="5">
+    <row r="28" spans="1:2">
+      <c r="A28" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="5">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="5">
+    <row r="29" spans="1:2">
+      <c r="A29" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="5">
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="B28" s="5">
+    <row r="30" spans="1:2">
+      <c r="A30" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="B30" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B29" s="5">
+    <row r="31" spans="1:2">
+      <c r="A31" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" s="5">
         <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>489</v>
-      </c>
-      <c r="B31" s="12">
-        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="6" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B32" s="5">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="B33" s="5">
-        <v>120</v>
+      <c r="A33" t="s">
+        <v>481</v>
+      </c>
+      <c r="B33" s="12">
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B36" s="5">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="B35" s="5">
+    <row r="37" spans="1:2">
+      <c r="A37" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="5">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="14" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B38" s="5">
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>488</v>
-      </c>
-      <c r="B37" s="12">
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>480</v>
+      </c>
+      <c r="B39" s="12">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B38" s="5">
+    <row r="40" spans="1:2">
+      <c r="A40" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" s="5">
         <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="5">
-        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="15" t="s">
-        <v>157</v>
+        <v>17</v>
       </c>
       <c r="B41" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B43" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="B42" s="5">
+    <row r="44" spans="1:2">
+      <c r="A44" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="B44" s="5">
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="7" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B45" s="5">
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="9" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B46" s="5">
         <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B45" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="5">
-        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" s="5">
         <v>20</v>
       </c>
-      <c r="B47" s="5">
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="9" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B50" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="17" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B51" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B50" s="5">
+    <row r="52" spans="1:2">
+      <c r="A52" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" s="5">
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B51" s="5">
+    <row r="53" spans="1:2">
+      <c r="A53" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" s="5">
         <v>180</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="18" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B54" s="5">
         <v>180</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="9" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B55" s="5">
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="B54" s="5">
+    <row r="56" spans="1:2">
+      <c r="A56" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="B56" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B55" s="5">
+    <row r="57" spans="1:2">
+      <c r="A57" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B57" s="5">
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="9" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B58" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>487</v>
-      </c>
-      <c r="B57" s="12">
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>541</v>
+      </c>
+      <c r="B59" s="12">
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B58" s="5">
+    <row r="60" spans="1:2">
+      <c r="A60" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" s="5">
         <v>130</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B59" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B60" s="5">
-        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="16" t="s">
-        <v>192</v>
+        <v>89</v>
       </c>
       <c r="B61" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="19" t="s">
-        <v>154</v>
+      <c r="A62" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="B62" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B63" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B64" s="5">
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="B63" s="5">
+    <row r="65" spans="1:2">
+      <c r="A65" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="B65" s="5">
         <v>40</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="B64" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65" s="5">
-        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="7" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="B66" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="20" t="s">
-        <v>34</v>
-      </c>
       <c r="B67" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="B68" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>460</v>
-      </c>
-      <c r="B68" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="B69" s="5">
-        <v>15</v>
-      </c>
-    </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="B70" s="5">
+      <c r="A70" t="s">
+        <v>453</v>
+      </c>
+      <c r="B70" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="B71" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="B72" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B73" s="5">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:B71">
-    <sortCondition ref="A3:A71"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B73">
+    <sortCondition ref="A3:A73"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5621,11 +5646,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B169"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="73.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -5641,7 +5666,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="5">
         <v>140</v>
@@ -5649,7 +5674,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="5">
         <v>140</v>
@@ -5657,7 +5682,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="23" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B4" s="5">
         <v>200</v>
@@ -5665,7 +5690,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="16" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B5" s="5">
         <v>250</v>
@@ -5681,7 +5706,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="22" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B7" s="5">
         <v>180</v>
@@ -5689,7 +5714,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B8" s="5">
         <v>180</v>
@@ -5697,7 +5722,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="24" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B9" s="5">
         <v>120</v>
@@ -5705,7 +5730,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="16" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B10" s="5">
         <v>35</v>
@@ -5713,7 +5738,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="16" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B11" s="5">
         <v>35</v>
@@ -5721,7 +5746,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="5">
         <v>40</v>
@@ -5729,7 +5754,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="16" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="B13" s="5">
         <v>80</v>
@@ -5737,7 +5762,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="16" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B14" s="5">
         <v>100</v>
@@ -5745,7 +5770,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B15" s="5">
         <v>25</v>
@@ -5753,7 +5778,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="5">
         <v>40</v>
@@ -5769,7 +5794,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="24" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B18" s="5">
         <v>55</v>
@@ -5777,7 +5802,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="16" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B19" s="5">
         <v>60</v>
@@ -5785,15 +5810,15 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="5">
         <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="16" t="s">
-        <v>43</v>
+      <c r="A21" t="s">
+        <v>537</v>
       </c>
       <c r="B21" s="5">
         <v>60</v>
@@ -5801,15 +5826,15 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B22" s="5">
         <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="16" t="s">
-        <v>188</v>
+      <c r="A23" t="s">
+        <v>182</v>
       </c>
       <c r="B23" s="5">
         <v>80</v>
@@ -5817,7 +5842,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="5">
         <v>45</v>
@@ -5825,7 +5850,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="16" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B25" s="5">
         <v>1</v>
@@ -5833,7 +5858,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="16" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B26" s="5">
         <v>1</v>
@@ -5841,7 +5866,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
@@ -5849,7 +5874,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B28" s="5">
         <v>80</v>
@@ -5857,7 +5882,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B29" s="5">
         <v>80</v>
@@ -5865,7 +5890,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B30" s="5">
         <v>80</v>
@@ -5873,7 +5898,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="16" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B31" s="5">
         <v>10</v>
@@ -5881,7 +5906,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="16" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B32" s="5">
         <v>10</v>
@@ -5889,7 +5914,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B33" s="5">
         <v>5</v>
@@ -5897,7 +5922,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="16" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="B34" s="5">
         <v>7</v>
@@ -5905,7 +5930,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="25" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B35" s="5">
         <v>25</v>
@@ -5913,7 +5938,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="16" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="B36" s="5">
         <v>80</v>
@@ -5921,7 +5946,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="16" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="B37" s="5">
         <v>90</v>
@@ -5929,7 +5954,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="23" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B38" s="5">
         <v>25</v>
@@ -5937,7 +5962,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B39" s="5">
         <v>100</v>
@@ -5945,7 +5970,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B40" s="5">
         <v>75</v>
@@ -5953,7 +5978,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="16" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B41" s="5">
         <v>40</v>
@@ -5961,7 +5986,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="22" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B42" s="5">
         <v>15</v>
@@ -5969,7 +5994,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="16" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B43" s="5">
         <v>30</v>
@@ -5977,7 +6002,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B44" s="5">
         <v>60</v>
@@ -5985,7 +6010,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="25" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B45" s="5">
         <v>35</v>
@@ -5993,7 +6018,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B46" s="5">
         <v>160</v>
@@ -6001,7 +6026,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B47" s="5">
         <v>160</v>
@@ -6009,7 +6034,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B48" s="5">
         <v>160</v>
@@ -6017,7 +6042,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B49" s="5">
         <v>160</v>
@@ -6025,7 +6050,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="24" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B50" s="5">
         <v>30</v>
@@ -6033,7 +6058,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B51" s="5">
         <v>15</v>
@@ -6041,7 +6066,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B52" s="5">
         <v>20</v>
@@ -6049,7 +6074,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B53" s="5">
         <v>40</v>
@@ -6057,7 +6082,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B54" s="5">
         <v>40</v>
@@ -6065,7 +6090,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B55" s="5">
         <v>150</v>
@@ -6073,7 +6098,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B56" s="5">
         <v>200</v>
@@ -6081,7 +6106,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B57" s="5">
         <v>50</v>
@@ -6089,7 +6114,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B58" s="5">
         <v>100</v>
@@ -6097,7 +6122,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B59" s="5">
         <v>100</v>
@@ -6105,7 +6130,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B60" s="5">
         <v>160</v>
@@ -6113,7 +6138,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="16" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B61" s="5">
         <v>160</v>
@@ -6121,7 +6146,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B62" s="5">
         <v>250</v>
@@ -6129,7 +6154,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B63" s="5">
         <v>250</v>
@@ -6137,7 +6162,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B64" s="5">
         <v>230</v>
@@ -6145,7 +6170,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B65" s="5">
         <v>250</v>
@@ -6153,15 +6178,15 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B66" s="5">
         <v>250</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="16" t="s">
-        <v>63</v>
+      <c r="A67" t="s">
+        <v>534</v>
       </c>
       <c r="B67" s="5">
         <v>250</v>
@@ -6169,7 +6194,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B68" s="5">
         <v>150</v>
@@ -6177,7 +6202,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B69" s="5">
         <v>200</v>
@@ -6185,7 +6210,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B70" s="5">
         <v>220</v>
@@ -6193,7 +6218,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B71" s="5">
         <v>220</v>
@@ -6201,15 +6226,15 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B72" s="5">
         <v>220</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="16" t="s">
-        <v>64</v>
+      <c r="A73" t="s">
+        <v>535</v>
       </c>
       <c r="B73" s="5">
         <v>70</v>
@@ -6217,7 +6242,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="25" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B74" s="5">
         <v>70</v>
@@ -6225,7 +6250,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B75" s="5">
         <v>140</v>
@@ -6233,7 +6258,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B76" s="5">
         <v>140</v>
@@ -6241,7 +6266,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B77" s="5">
         <v>180</v>
@@ -6249,7 +6274,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="26" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="B78" s="12">
         <v>50</v>
@@ -6257,7 +6282,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B79" s="5">
         <v>60</v>
@@ -6265,7 +6290,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="16" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B80" s="5">
         <v>60</v>
@@ -6273,7 +6298,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="16" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B81" s="5">
         <v>120</v>
@@ -6281,7 +6306,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B82" s="5">
         <v>150</v>
@@ -6289,7 +6314,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="23" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B83" s="5">
         <v>10</v>
@@ -6297,7 +6322,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="16" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B84" s="5">
         <v>10</v>
@@ -6305,7 +6330,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="16" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="B85" s="5">
         <v>15</v>
@@ -6313,7 +6338,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B86" s="5">
         <v>10</v>
@@ -6321,7 +6346,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B87" s="5">
         <v>10</v>
@@ -6329,7 +6354,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B88" s="5">
         <v>15</v>
@@ -6337,7 +6362,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="16" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B89" s="5">
         <v>80</v>
@@ -6345,7 +6370,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="16" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="B90" s="5">
         <v>80</v>
@@ -6353,7 +6378,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B91" s="5">
         <v>25</v>
@@ -6361,7 +6386,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B92" s="5">
         <v>25</v>
@@ -6369,7 +6394,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="27" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B93" s="5">
         <v>20</v>
@@ -6377,7 +6402,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B94" s="5">
         <v>20</v>
@@ -6385,7 +6410,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B95" s="5">
         <v>10</v>
@@ -6393,15 +6418,15 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="28" t="s">
-        <v>29</v>
+        <v>540</v>
       </c>
       <c r="B96" s="5">
         <v>60</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="33" t="s">
-        <v>522</v>
+      <c r="A97" t="s">
+        <v>513</v>
       </c>
       <c r="B97" s="5">
         <v>60</v>
@@ -6409,7 +6434,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="16" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="B98" s="5">
         <v>20</v>
@@ -6417,7 +6442,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="16" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="B99" s="5">
         <v>15</v>
@@ -6425,7 +6450,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="16" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="B100" s="5">
         <v>15</v>
@@ -6433,7 +6458,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="16" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="B101" s="5">
         <v>25</v>
@@ -6441,7 +6466,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="16" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B102" s="5">
         <v>10</v>
@@ -6449,7 +6474,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="16" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="B103" s="5">
         <v>15</v>
@@ -6457,7 +6482,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="16" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B104" s="5">
         <v>15</v>
@@ -6465,7 +6490,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B105" s="5">
         <v>10</v>
@@ -6473,7 +6498,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B106" s="5">
         <v>15</v>
@@ -6481,7 +6506,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="16" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B107" s="5">
         <v>15</v>
@@ -6489,7 +6514,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B108" s="5">
         <v>15</v>
@@ -6497,7 +6522,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="16" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B109" s="5">
         <v>250</v>
@@ -6505,7 +6530,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="24" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B110" s="5">
         <v>140</v>
@@ -6513,7 +6538,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B111" s="5">
         <v>150</v>
@@ -6521,15 +6546,15 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B112" s="5">
         <v>150</v>
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="16" t="s">
-        <v>120</v>
+      <c r="A113" t="s">
+        <v>532</v>
       </c>
       <c r="B113" s="5">
         <v>140</v>
@@ -6537,7 +6562,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B114" s="5">
         <v>120</v>
@@ -6545,7 +6570,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="16" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B115" s="5">
         <v>200</v>
@@ -6553,7 +6578,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="16" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B116" s="5">
         <v>230</v>
@@ -6561,7 +6586,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="16" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B117" s="5">
         <v>350</v>
@@ -6577,7 +6602,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="16" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="B119" s="5">
         <v>180</v>
@@ -6585,7 +6610,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="16" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B120" s="5">
         <v>35</v>
@@ -6593,7 +6618,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="16" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B121" s="5">
         <v>35</v>
@@ -6601,7 +6626,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B122" s="5">
         <v>40</v>
@@ -6609,7 +6634,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="25" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B123" s="5">
         <v>70</v>
@@ -6617,7 +6642,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="30" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B124" s="5">
         <v>60</v>
@@ -6625,7 +6650,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="16" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B125" s="5">
         <v>45</v>
@@ -6633,7 +6658,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="16" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B126" s="5">
         <v>25</v>
@@ -6641,15 +6666,15 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="16" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B127" s="5">
         <v>45</v>
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="26" t="s">
-        <v>490</v>
+      <c r="A128" s="34" t="s">
+        <v>542</v>
       </c>
       <c r="B128" s="12">
         <v>150</v>
@@ -6657,7 +6682,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="16" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B129" s="5">
         <v>160</v>
@@ -6665,7 +6690,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="16" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B130" s="5">
         <v>150</v>
@@ -6673,7 +6698,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B131" s="5">
         <v>200</v>
@@ -6681,7 +6706,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="16" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B132" s="5">
         <v>140</v>
@@ -6689,7 +6714,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="16" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B133" s="5">
         <v>130</v>
@@ -6697,7 +6722,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B134" s="5">
         <v>80</v>
@@ -6705,7 +6730,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B135" s="5">
         <v>100</v>
@@ -6713,7 +6738,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B136" s="5">
         <v>100</v>
@@ -6721,7 +6746,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B137" s="5">
         <v>120</v>
@@ -6729,7 +6754,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B138" s="5">
         <v>100</v>
@@ -6737,15 +6762,15 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B139" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="16" t="s">
-        <v>126</v>
+      <c r="A140" t="s">
+        <v>533</v>
       </c>
       <c r="B140" s="5">
         <v>180</v>
@@ -6753,7 +6778,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="16" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B141" s="5">
         <v>5</v>
@@ -6761,7 +6786,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="16" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B142" s="5">
         <v>7</v>
@@ -6769,7 +6794,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B143" s="5">
         <v>8</v>
@@ -6777,7 +6802,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="16" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B144" s="5">
         <v>5</v>
@@ -6785,7 +6810,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="16" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B145" s="5">
         <v>250</v>
@@ -6793,7 +6818,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="16" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B146" s="5">
         <v>200</v>
@@ -6801,7 +6826,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="16" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B147" s="5">
         <v>200</v>
@@ -6809,7 +6834,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="16" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B148" s="5">
         <v>150</v>
@@ -6817,7 +6842,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="16" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B149" s="5">
         <v>150</v>
@@ -6825,7 +6850,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="16" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B150" s="5">
         <v>180</v>
@@ -6833,7 +6858,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="16" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B151" s="5">
         <v>180</v>
@@ -6841,7 +6866,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="27" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B152" s="5">
         <v>35</v>
@@ -6849,7 +6874,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="16" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B153" s="5">
         <v>35</v>
@@ -6857,7 +6882,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B154" s="5">
         <v>30</v>
@@ -6865,7 +6890,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B155" s="5">
         <v>40</v>
@@ -6873,7 +6898,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B156" s="5">
         <v>30</v>
@@ -6881,7 +6906,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="16" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="B157" s="5">
         <v>40</v>
@@ -6889,7 +6914,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B158" s="5">
         <v>40</v>
@@ -6897,7 +6922,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B159" s="5">
         <v>40</v>
@@ -6905,7 +6930,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B160" s="5">
         <v>40</v>
@@ -6913,7 +6938,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="16" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B161" s="5">
         <v>20</v>
@@ -6921,7 +6946,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="16" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B162" s="5">
         <v>20</v>
@@ -6929,7 +6954,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="16" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="B163" s="5">
         <v>70</v>
@@ -6937,7 +6962,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="31" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B164" s="5">
         <v>30</v>
@@ -6945,7 +6970,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B165" s="2">
         <v>10</v>
@@ -6953,7 +6978,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="16" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="B166" s="5">
         <v>10</v>
@@ -6961,7 +6986,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="16" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B167" s="5">
         <v>60</v>
@@ -6969,7 +6994,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="16" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B168" s="5">
         <v>35</v>
@@ -6977,14 +7002,14 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="16" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B169" s="5">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:B169">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B169">
     <sortCondition ref="A3:A169"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6999,7 +7024,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="54.1796875" customWidth="1"/>
     <col min="2" max="2" width="11.1796875" customWidth="1"/>
@@ -7015,7 +7040,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B2" s="32">
         <v>12</v>
@@ -7023,7 +7048,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B3" s="32">
         <v>50</v>
@@ -7031,7 +7056,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B4" s="32">
         <v>12</v>
@@ -7039,7 +7064,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B5" s="32">
         <v>50</v>
@@ -7047,7 +7072,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B6" s="32">
         <v>50</v>
@@ -7055,7 +7080,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="B7" s="32">
         <v>70</v>
@@ -7063,7 +7088,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="B8" s="32">
         <v>50</v>
@@ -7071,7 +7096,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B9" s="32">
         <v>15</v>
@@ -7079,7 +7104,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B10" s="32">
         <v>12</v>
@@ -7087,7 +7112,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B11" s="32">
         <v>12</v>
@@ -7095,7 +7120,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="B12" s="32">
         <v>80</v>
@@ -7103,7 +7128,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B13" s="32">
         <v>100</v>
@@ -7111,7 +7136,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B14" s="32">
         <v>1</v>
@@ -7119,7 +7144,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B15" s="32">
         <v>1</v>
@@ -7127,7 +7152,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B16" s="32">
         <v>1</v>
@@ -7135,7 +7160,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="B17" s="32">
         <v>10</v>
@@ -7143,7 +7168,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B18" s="32">
         <v>10</v>
@@ -7151,7 +7176,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B19" s="32">
         <v>10</v>
@@ -7159,7 +7184,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B20" s="32">
         <v>30</v>
@@ -7167,7 +7192,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="B21" s="32">
         <v>5</v>
@@ -7175,7 +7200,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="B22" s="32">
         <v>70</v>
@@ -7183,7 +7208,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B23" s="32">
         <v>80</v>
@@ -7191,7 +7216,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="B24" s="32">
         <v>80</v>
@@ -7199,7 +7224,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B25" s="32">
         <v>12</v>
@@ -7207,7 +7232,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B26" s="32">
         <v>10</v>
@@ -7215,7 +7240,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B27" s="32">
         <v>15</v>
@@ -7223,7 +7248,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B28" s="32">
         <v>12</v>
@@ -7231,7 +7256,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B29" s="32">
         <v>12</v>
@@ -7239,7 +7264,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B30" s="32">
         <v>12</v>
@@ -7247,7 +7272,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B31" s="32">
         <v>20</v>
@@ -7255,7 +7280,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B32" s="32">
         <v>12</v>
@@ -7263,7 +7288,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B33" s="32">
         <v>7</v>
@@ -7271,7 +7296,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B34" s="32">
         <v>12</v>
@@ -7279,7 +7304,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B35" s="32">
         <v>12</v>
@@ -7287,14 +7312,14 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B36" s="32">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:B36">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B36">
     <sortCondition ref="A3:A36"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/clientes/files/TODITICO_CATÁLOGO.xlsx
+++ b/clientes/files/TODITICO_CATÁLOGO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabajo\Catálogos Proformas\Este\320 Actual\Clientes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA63816-00AE-4E94-86D1-BDAE0E792F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD0C86F-BABD-409C-AC68-3C16C4FE6388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DAEWOO TICO" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <t>DESCRIPCION</t>
   </si>
   <si>
-    <t>PRECIO USD</t>
-  </si>
-  <si>
     <t xml:space="preserve">BUJE ESTABILIZ.ATOS CONO                         </t>
   </si>
   <si>
@@ -1705,18 +1702,19 @@
   <si>
     <t>PUNTAS DE HOMOCINÉTICAS EXTERIORES PICANTO 1RA PAREJA</t>
   </si>
+  <si>
+    <t>PRECIO CUP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="[$-280A]General"/>
+    <numFmt numFmtId="164" formatCode="[$-280A]General"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1731,10 +1729,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1777,10 +1771,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0C0A0A"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -2218,204 +2208,195 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="46">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
-    <xf numFmtId="166" fontId="30" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="28" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="3" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="2" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="46">
-    <cellStyle name="20% - Énfasis1" xfId="10" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="14" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="18" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="22" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="26" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="30" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="11" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="15" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="19" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="23" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="27" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="31" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="12" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="16" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="20" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="24" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="28" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="32" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="2" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="7" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="8" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="9" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="13" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="17" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="21" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="25" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="29" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="5" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Excel Built-in Normal" xfId="34" xr:uid="{688960BC-F69C-49B0-8CDB-DE122EA836A3}"/>
-    <cellStyle name="Explanatory Text 2" xfId="43" xr:uid="{BF74F976-326C-465D-A83B-19341F51278D}"/>
-    <cellStyle name="Heading 1 2" xfId="36" xr:uid="{35512690-E337-4424-84E2-85231B3DD88C}"/>
-    <cellStyle name="Heading 2 2" xfId="37" xr:uid="{A31B7674-2027-48CB-881D-281F8DA7106C}"/>
-    <cellStyle name="Heading 3 2" xfId="38" xr:uid="{BD8E1F66-2E87-475C-B836-F098EB1FF038}"/>
-    <cellStyle name="Heading 4 2" xfId="39" xr:uid="{C03D7A95-4AB4-46A8-9B28-E35A5D0CCB4A}"/>
-    <cellStyle name="Incorrecto" xfId="3" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Linked Cell 2" xfId="40" xr:uid="{8CB1EC70-1736-4A8C-8B05-273AC47130F4}"/>
-    <cellStyle name="Millares 2" xfId="45" xr:uid="{8123F2D9-FB29-45A7-A0C8-90489F326596}"/>
-    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
-    <cellStyle name="Neutral" xfId="4" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="45">
+    <cellStyle name="20% - Énfasis1" xfId="9" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="13" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="17" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="21" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="25" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="29" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="10" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="14" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="18" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="22" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="26" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="30" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="11" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="15" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="19" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="23" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="27" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="31" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="1" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="6" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="7" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="8" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="12" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="16" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="20" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="24" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="28" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="4" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Excel Built-in Normal" xfId="33" xr:uid="{688960BC-F69C-49B0-8CDB-DE122EA836A3}"/>
+    <cellStyle name="Explanatory Text 2" xfId="42" xr:uid="{BF74F976-326C-465D-A83B-19341F51278D}"/>
+    <cellStyle name="Heading 1 2" xfId="35" xr:uid="{35512690-E337-4424-84E2-85231B3DD88C}"/>
+    <cellStyle name="Heading 2 2" xfId="36" xr:uid="{A31B7674-2027-48CB-881D-281F8DA7106C}"/>
+    <cellStyle name="Heading 3 2" xfId="37" xr:uid="{BD8E1F66-2E87-475C-B836-F098EB1FF038}"/>
+    <cellStyle name="Heading 4 2" xfId="38" xr:uid="{C03D7A95-4AB4-46A8-9B28-E35A5D0CCB4A}"/>
+    <cellStyle name="Incorrecto" xfId="2" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Linked Cell 2" xfId="39" xr:uid="{8CB1EC70-1736-4A8C-8B05-273AC47130F4}"/>
+    <cellStyle name="Millares 2" xfId="44" xr:uid="{8123F2D9-FB29-45A7-A0C8-90489F326596}"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="33" xr:uid="{2EE8B4EC-D36D-4191-B1B1-5D6B79B67CDB}"/>
-    <cellStyle name="Note 2" xfId="42" xr:uid="{05480AC8-7CE6-4493-9059-76695070FEBC}"/>
-    <cellStyle name="Salida" xfId="6" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title 2" xfId="35" xr:uid="{ECA6EB64-49AC-4841-8FD4-8054B3948E49}"/>
-    <cellStyle name="Total 2" xfId="44" xr:uid="{32CEC7C7-5959-4220-8408-34D306D749D8}"/>
-    <cellStyle name="Warning Text 2" xfId="41" xr:uid="{58D3DC39-F6BA-4D4D-8C44-D27B2207069F}"/>
+    <cellStyle name="Normal 2" xfId="32" xr:uid="{2EE8B4EC-D36D-4191-B1B1-5D6B79B67CDB}"/>
+    <cellStyle name="Note 2" xfId="41" xr:uid="{05480AC8-7CE6-4493-9059-76695070FEBC}"/>
+    <cellStyle name="Salida" xfId="5" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title 2" xfId="34" xr:uid="{ECA6EB64-49AC-4841-8FD4-8054B3948E49}"/>
+    <cellStyle name="Total 2" xfId="43" xr:uid="{32CEC7C7-5959-4220-8408-34D306D749D8}"/>
+    <cellStyle name="Warning Text 2" xfId="40" xr:uid="{58D3DC39-F6BA-4D4D-8C44-D27B2207069F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2690,2346 +2671,2346 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B291"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A159" sqref="A159:B291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="88.54296875" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" customWidth="1"/>
+    <col min="1" max="1" width="84" customWidth="1"/>
+    <col min="2" max="2" width="11" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="33" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B2" s="2">
-        <v>10</v>
+        <v>190</v>
+      </c>
+      <c r="B2" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>474</v>
-      </c>
-      <c r="B3" s="2">
-        <v>12</v>
+        <v>473</v>
+      </c>
+      <c r="B3" s="31">
+        <v>3840</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B4" s="2">
-        <v>15</v>
+        <v>191</v>
+      </c>
+      <c r="B4" s="31">
+        <v>4800</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>517</v>
-      </c>
-      <c r="B5" s="2">
-        <v>20</v>
+        <v>516</v>
+      </c>
+      <c r="B5" s="31">
+        <v>6400</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>518</v>
-      </c>
-      <c r="B6" s="2">
-        <v>7</v>
+        <v>517</v>
+      </c>
+      <c r="B6" s="31">
+        <v>2240</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B7" s="2">
-        <v>10</v>
+        <v>192</v>
+      </c>
+      <c r="B7" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B8" s="2">
-        <v>80</v>
+        <v>193</v>
+      </c>
+      <c r="B8" s="31">
+        <v>25600</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>519</v>
-      </c>
-      <c r="B9" s="2">
-        <v>100</v>
+        <v>518</v>
+      </c>
+      <c r="B9" s="31">
+        <v>32000</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>195</v>
-      </c>
-      <c r="B10" s="2">
-        <v>120</v>
+        <v>194</v>
+      </c>
+      <c r="B10" s="31">
+        <v>38400</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>196</v>
-      </c>
-      <c r="B11" s="2">
-        <v>100</v>
+        <v>195</v>
+      </c>
+      <c r="B11" s="31">
+        <v>32000</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>197</v>
-      </c>
-      <c r="B12" s="2">
-        <v>160</v>
+        <v>196</v>
+      </c>
+      <c r="B12" s="31">
+        <v>51200</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>200</v>
-      </c>
-      <c r="B13" s="2">
-        <v>35</v>
+        <v>199</v>
+      </c>
+      <c r="B13" s="31">
+        <v>11200</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>198</v>
-      </c>
-      <c r="B14" s="2">
-        <v>150</v>
+        <v>197</v>
+      </c>
+      <c r="B14" s="31">
+        <v>48000</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>199</v>
-      </c>
-      <c r="B15" s="2">
-        <v>110</v>
+        <v>198</v>
+      </c>
+      <c r="B15" s="31">
+        <v>35200</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>201</v>
-      </c>
-      <c r="B16" s="2">
-        <v>15</v>
+        <v>200</v>
+      </c>
+      <c r="B16" s="31">
+        <v>4800</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>202</v>
-      </c>
-      <c r="B17" s="2">
-        <v>40</v>
+        <v>201</v>
+      </c>
+      <c r="B17" s="31">
+        <v>12800</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>203</v>
-      </c>
-      <c r="B18" s="2">
-        <v>30</v>
+        <v>202</v>
+      </c>
+      <c r="B18" s="31">
+        <v>9600</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>520</v>
-      </c>
-      <c r="B19" s="2">
-        <v>5</v>
+        <v>519</v>
+      </c>
+      <c r="B19" s="31">
+        <v>1600</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>204</v>
-      </c>
-      <c r="B20" s="2">
-        <v>3</v>
+        <v>203</v>
+      </c>
+      <c r="B20" s="31">
+        <v>960</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>205</v>
-      </c>
-      <c r="B21" s="2">
-        <v>15</v>
+        <v>204</v>
+      </c>
+      <c r="B21" s="31">
+        <v>4800</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>206</v>
-      </c>
-      <c r="B22" s="2">
-        <v>120</v>
+        <v>205</v>
+      </c>
+      <c r="B22" s="31">
+        <v>38400</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>207</v>
-      </c>
-      <c r="B23" s="2">
-        <v>50</v>
+        <v>206</v>
+      </c>
+      <c r="B23" s="31">
+        <v>16000</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B24" s="2">
-        <v>10</v>
+        <v>207</v>
+      </c>
+      <c r="B24" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>209</v>
-      </c>
-      <c r="B25" s="2">
-        <v>90</v>
+        <v>208</v>
+      </c>
+      <c r="B25" s="31">
+        <v>28800</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>210</v>
-      </c>
-      <c r="B26" s="2">
-        <v>35</v>
+        <v>209</v>
+      </c>
+      <c r="B26" s="31">
+        <v>11200</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>211</v>
-      </c>
-      <c r="B27" s="2">
-        <v>10</v>
+        <v>210</v>
+      </c>
+      <c r="B27" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>212</v>
-      </c>
-      <c r="B28" s="2">
-        <v>150</v>
+        <v>211</v>
+      </c>
+      <c r="B28" s="31">
+        <v>48000</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>213</v>
-      </c>
-      <c r="B29" s="2">
-        <v>120</v>
+        <v>212</v>
+      </c>
+      <c r="B29" s="31">
+        <v>38400</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>214</v>
-      </c>
-      <c r="B30" s="2">
-        <v>170</v>
+        <v>213</v>
+      </c>
+      <c r="B30" s="31">
+        <v>54400</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>215</v>
-      </c>
-      <c r="B31" s="2">
-        <v>30</v>
+        <v>214</v>
+      </c>
+      <c r="B31" s="31">
+        <v>9600</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
+        <v>215</v>
+      </c>
+      <c r="B32" s="31">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B32" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B33" s="2">
-        <v>30</v>
+      <c r="B33" s="31">
+        <v>9600</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>484</v>
-      </c>
-      <c r="B34" s="2">
-        <v>80</v>
+        <v>483</v>
+      </c>
+      <c r="B34" s="31">
+        <v>25600</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>187</v>
-      </c>
-      <c r="B35" s="2">
-        <v>100</v>
+        <v>186</v>
+      </c>
+      <c r="B35" s="31">
+        <v>32000</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>218</v>
-      </c>
-      <c r="B36" s="2">
-        <v>25</v>
+        <v>217</v>
+      </c>
+      <c r="B36" s="31">
+        <v>8000</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>472</v>
-      </c>
-      <c r="B37" s="2">
-        <v>50</v>
+        <v>471</v>
+      </c>
+      <c r="B37" s="31">
+        <v>16000</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>460</v>
-      </c>
-      <c r="B38" s="2">
-        <v>12</v>
+        <v>459</v>
+      </c>
+      <c r="B38" s="31">
+        <v>3840</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>219</v>
-      </c>
-      <c r="B39" s="2">
-        <v>40</v>
+        <v>218</v>
+      </c>
+      <c r="B39" s="31">
+        <v>12800</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>220</v>
-      </c>
-      <c r="B40" s="2">
-        <v>80</v>
+        <v>219</v>
+      </c>
+      <c r="B40" s="31">
+        <v>25600</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>221</v>
-      </c>
-      <c r="B41" s="2">
-        <v>45</v>
+        <v>220</v>
+      </c>
+      <c r="B41" s="31">
+        <v>14400</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>222</v>
-      </c>
-      <c r="B42" s="2">
-        <v>60</v>
+        <v>221</v>
+      </c>
+      <c r="B42" s="31">
+        <v>19200</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>223</v>
-      </c>
-      <c r="B43" s="2">
-        <v>45</v>
+        <v>222</v>
+      </c>
+      <c r="B43" s="31">
+        <v>14400</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>224</v>
-      </c>
-      <c r="B44" s="2">
-        <v>20</v>
+        <v>223</v>
+      </c>
+      <c r="B44" s="31">
+        <v>6400</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>457</v>
-      </c>
-      <c r="B45" s="2">
-        <v>1</v>
+        <v>456</v>
+      </c>
+      <c r="B45" s="31">
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>458</v>
-      </c>
-      <c r="B46" s="2">
-        <v>1</v>
+        <v>457</v>
+      </c>
+      <c r="B46" s="31">
+        <v>320</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>452</v>
-      </c>
-      <c r="B47" s="2">
-        <v>1</v>
+        <v>451</v>
+      </c>
+      <c r="B47" s="31">
+        <v>320</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>483</v>
-      </c>
-      <c r="B48" s="2">
-        <v>10</v>
+        <v>482</v>
+      </c>
+      <c r="B48" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>225</v>
-      </c>
-      <c r="B49" s="2">
-        <v>100</v>
+        <v>224</v>
+      </c>
+      <c r="B49" s="31">
+        <v>32000</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>226</v>
-      </c>
-      <c r="B50" s="2">
-        <v>15</v>
+        <v>225</v>
+      </c>
+      <c r="B50" s="31">
+        <v>4800</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>227</v>
-      </c>
-      <c r="B51" s="2">
-        <v>10</v>
+        <v>226</v>
+      </c>
+      <c r="B51" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B52" s="31">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B52" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="B53" s="2">
-        <v>10</v>
+      <c r="B53" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>228</v>
-      </c>
-      <c r="B54" s="2">
-        <v>60</v>
+        <v>227</v>
+      </c>
+      <c r="B54" s="31">
+        <v>19200</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>229</v>
-      </c>
-      <c r="B55" s="2">
-        <v>40</v>
+        <v>228</v>
+      </c>
+      <c r="B55" s="31">
+        <v>12800</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>230</v>
-      </c>
-      <c r="B56" s="2">
-        <v>20</v>
+        <v>229</v>
+      </c>
+      <c r="B56" s="31">
+        <v>6400</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>231</v>
-      </c>
-      <c r="B57" s="2">
-        <v>15</v>
+        <v>230</v>
+      </c>
+      <c r="B57" s="31">
+        <v>4800</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>232</v>
-      </c>
-      <c r="B58" s="2">
-        <v>20</v>
+        <v>231</v>
+      </c>
+      <c r="B58" s="31">
+        <v>6400</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>233</v>
-      </c>
-      <c r="B59" s="2">
-        <v>15</v>
+        <v>232</v>
+      </c>
+      <c r="B59" s="31">
+        <v>4800</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>234</v>
-      </c>
-      <c r="B60" s="2">
-        <v>10</v>
+        <v>233</v>
+      </c>
+      <c r="B60" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>235</v>
-      </c>
-      <c r="B61" s="2">
-        <v>5</v>
+        <v>234</v>
+      </c>
+      <c r="B61" s="31">
+        <v>1600</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>236</v>
-      </c>
-      <c r="B62" s="2">
-        <v>15</v>
+        <v>235</v>
+      </c>
+      <c r="B62" s="31">
+        <v>4800</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>238</v>
-      </c>
-      <c r="B63" s="2">
-        <v>10</v>
+        <v>237</v>
+      </c>
+      <c r="B63" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>242</v>
-      </c>
-      <c r="B64" s="2">
-        <v>2</v>
+        <v>241</v>
+      </c>
+      <c r="B64" s="31">
+        <v>640</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>239</v>
-      </c>
-      <c r="B65" s="2">
-        <v>15</v>
+        <v>238</v>
+      </c>
+      <c r="B65" s="31">
+        <v>4800</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>240</v>
-      </c>
-      <c r="B66" s="2">
-        <v>15</v>
+        <v>239</v>
+      </c>
+      <c r="B66" s="31">
+        <v>4800</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>241</v>
-      </c>
-      <c r="B67" s="2">
-        <v>10</v>
+        <v>240</v>
+      </c>
+      <c r="B67" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>536</v>
-      </c>
-      <c r="B68" s="2">
-        <v>10</v>
+        <v>535</v>
+      </c>
+      <c r="B68" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>237</v>
-      </c>
-      <c r="B69" s="2">
-        <v>7</v>
+        <v>236</v>
+      </c>
+      <c r="B69" s="31">
+        <v>2240</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>243</v>
-      </c>
-      <c r="B70" s="2">
-        <v>10</v>
+        <v>242</v>
+      </c>
+      <c r="B70" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>244</v>
-      </c>
-      <c r="B71" s="2">
-        <v>15</v>
+        <v>243</v>
+      </c>
+      <c r="B71" s="31">
+        <v>4800</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>245</v>
-      </c>
-      <c r="B72" s="2">
-        <v>20</v>
+        <v>244</v>
+      </c>
+      <c r="B72" s="31">
+        <v>6400</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>246</v>
-      </c>
-      <c r="B73" s="2">
-        <v>25</v>
+        <v>245</v>
+      </c>
+      <c r="B73" s="31">
+        <v>8000</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>247</v>
-      </c>
-      <c r="B74" s="2">
-        <v>20</v>
+        <v>246</v>
+      </c>
+      <c r="B74" s="31">
+        <v>6400</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>248</v>
-      </c>
-      <c r="B75" s="2">
-        <v>45</v>
+        <v>247</v>
+      </c>
+      <c r="B75" s="31">
+        <v>14400</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>249</v>
-      </c>
-      <c r="B76" s="2">
-        <v>25</v>
+        <v>248</v>
+      </c>
+      <c r="B76" s="31">
+        <v>8000</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>250</v>
-      </c>
-      <c r="B77" s="2">
-        <v>25</v>
+        <v>249</v>
+      </c>
+      <c r="B77" s="31">
+        <v>8000</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>251</v>
-      </c>
-      <c r="B78" s="2">
-        <v>10</v>
+        <v>250</v>
+      </c>
+      <c r="B78" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>470</v>
-      </c>
-      <c r="B79" s="2">
-        <v>15</v>
+        <v>469</v>
+      </c>
+      <c r="B79" s="31">
+        <v>4800</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>471</v>
-      </c>
-      <c r="B80" s="2">
-        <v>30</v>
+        <v>470</v>
+      </c>
+      <c r="B80" s="31">
+        <v>9600</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>252</v>
-      </c>
-      <c r="B81" s="2">
-        <v>50</v>
+        <v>251</v>
+      </c>
+      <c r="B81" s="31">
+        <v>16000</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>253</v>
-      </c>
-      <c r="B82" s="2">
-        <v>70</v>
+        <v>252</v>
+      </c>
+      <c r="B82" s="31">
+        <v>22400</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>254</v>
-      </c>
-      <c r="B83" s="2">
-        <v>100</v>
+        <v>253</v>
+      </c>
+      <c r="B83" s="31">
+        <v>32000</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>255</v>
-      </c>
-      <c r="B84" s="2">
-        <v>350</v>
+        <v>254</v>
+      </c>
+      <c r="B84" s="31">
+        <v>112000</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>256</v>
-      </c>
-      <c r="B85" s="2">
-        <v>10</v>
+        <v>255</v>
+      </c>
+      <c r="B85" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>257</v>
-      </c>
-      <c r="B86" s="2">
-        <v>300</v>
+        <v>256</v>
+      </c>
+      <c r="B86" s="31">
+        <v>96000</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>258</v>
-      </c>
-      <c r="B87" s="2">
-        <v>50</v>
+        <v>257</v>
+      </c>
+      <c r="B87" s="31">
+        <v>16000</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>461</v>
-      </c>
-      <c r="B88" s="2">
-        <v>70</v>
+        <v>460</v>
+      </c>
+      <c r="B88" s="31">
+        <v>22400</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>259</v>
-      </c>
-      <c r="B89" s="2">
-        <v>50</v>
+        <v>258</v>
+      </c>
+      <c r="B89" s="31">
+        <v>16000</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>260</v>
-      </c>
-      <c r="B90" s="2">
-        <v>80</v>
+        <v>259</v>
+      </c>
+      <c r="B90" s="31">
+        <v>25600</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>261</v>
-      </c>
-      <c r="B91" s="2">
-        <v>25</v>
+        <v>260</v>
+      </c>
+      <c r="B91" s="31">
+        <v>8000</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>477</v>
-      </c>
-      <c r="B92" s="2">
-        <v>25</v>
+        <v>476</v>
+      </c>
+      <c r="B92" s="31">
+        <v>8000</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>262</v>
-      </c>
-      <c r="B93" s="2">
-        <v>25</v>
+        <v>261</v>
+      </c>
+      <c r="B93" s="31">
+        <v>8000</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>263</v>
-      </c>
-      <c r="B94" s="2">
-        <v>35</v>
+        <v>262</v>
+      </c>
+      <c r="B94" s="31">
+        <v>11200</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>264</v>
-      </c>
-      <c r="B95" s="2">
-        <v>70</v>
+        <v>263</v>
+      </c>
+      <c r="B95" s="31">
+        <v>22400</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>265</v>
-      </c>
-      <c r="B96" s="2">
-        <v>50</v>
+        <v>264</v>
+      </c>
+      <c r="B96" s="31">
+        <v>16000</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>266</v>
-      </c>
-      <c r="B97" s="2">
-        <v>120</v>
+        <v>265</v>
+      </c>
+      <c r="B97" s="31">
+        <v>38400</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>267</v>
-      </c>
-      <c r="B98" s="2">
-        <v>30</v>
+        <v>266</v>
+      </c>
+      <c r="B98" s="31">
+        <v>9600</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>268</v>
-      </c>
-      <c r="B99" s="2">
-        <v>60</v>
+        <v>267</v>
+      </c>
+      <c r="B99" s="31">
+        <v>19200</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>462</v>
-      </c>
-      <c r="B100" s="2">
-        <v>10</v>
+        <v>461</v>
+      </c>
+      <c r="B100" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>269</v>
-      </c>
-      <c r="B101" s="2">
-        <v>20</v>
+        <v>268</v>
+      </c>
+      <c r="B101" s="31">
+        <v>6400</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>270</v>
-      </c>
-      <c r="B102" s="2">
-        <v>15</v>
+        <v>269</v>
+      </c>
+      <c r="B102" s="31">
+        <v>4800</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>271</v>
-      </c>
-      <c r="B103" s="2">
-        <v>20</v>
+        <v>270</v>
+      </c>
+      <c r="B103" s="31">
+        <v>6400</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>272</v>
-      </c>
-      <c r="B104" s="2">
-        <v>60</v>
+        <v>271</v>
+      </c>
+      <c r="B104" s="31">
+        <v>19200</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>273</v>
-      </c>
-      <c r="B105" s="2">
-        <v>150</v>
+        <v>272</v>
+      </c>
+      <c r="B105" s="31">
+        <v>48000</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>274</v>
-      </c>
-      <c r="B106" s="2">
-        <v>40</v>
+        <v>273</v>
+      </c>
+      <c r="B106" s="31">
+        <v>12800</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>485</v>
-      </c>
-      <c r="B107" s="2">
-        <v>100</v>
+        <v>484</v>
+      </c>
+      <c r="B107" s="31">
+        <v>32000</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>275</v>
-      </c>
-      <c r="B108" s="2">
-        <v>25</v>
+        <v>274</v>
+      </c>
+      <c r="B108" s="31">
+        <v>8000</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>276</v>
-      </c>
-      <c r="B109" s="2">
-        <v>450</v>
+        <v>275</v>
+      </c>
+      <c r="B109" s="31">
+        <v>144000</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>277</v>
-      </c>
-      <c r="B110" s="2">
-        <v>180</v>
+        <v>276</v>
+      </c>
+      <c r="B110" s="31">
+        <v>57600</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>514</v>
-      </c>
-      <c r="B111" s="2">
-        <v>10</v>
+        <v>513</v>
+      </c>
+      <c r="B111" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>515</v>
-      </c>
-      <c r="B112" s="2">
-        <v>30</v>
+        <v>514</v>
+      </c>
+      <c r="B112" s="31">
+        <v>9600</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>516</v>
-      </c>
-      <c r="B113" s="2">
-        <v>30</v>
+        <v>515</v>
+      </c>
+      <c r="B113" s="31">
+        <v>9600</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>278</v>
-      </c>
-      <c r="B114" s="2">
-        <v>60</v>
+        <v>277</v>
+      </c>
+      <c r="B114" s="31">
+        <v>19200</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>279</v>
-      </c>
-      <c r="B115" s="2">
-        <v>120</v>
+        <v>278</v>
+      </c>
+      <c r="B115" s="31">
+        <v>38400</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>280</v>
-      </c>
-      <c r="B116" s="2">
-        <v>25</v>
+        <v>279</v>
+      </c>
+      <c r="B116" s="31">
+        <v>8000</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>282</v>
-      </c>
-      <c r="B117" s="2">
-        <v>80</v>
+        <v>281</v>
+      </c>
+      <c r="B117" s="31">
+        <v>25600</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>473</v>
-      </c>
-      <c r="B118" s="2">
-        <v>250</v>
+        <v>472</v>
+      </c>
+      <c r="B118" s="31">
+        <v>80000</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>16</v>
-      </c>
-      <c r="B119" s="2">
-        <v>120</v>
+        <v>15</v>
+      </c>
+      <c r="B119" s="31">
+        <v>38400</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>283</v>
-      </c>
-      <c r="B120" s="2">
-        <v>20</v>
+        <v>282</v>
+      </c>
+      <c r="B120" s="31">
+        <v>6400</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>281</v>
-      </c>
-      <c r="B121" s="2">
-        <v>15</v>
+        <v>280</v>
+      </c>
+      <c r="B121" s="31">
+        <v>4800</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>284</v>
-      </c>
-      <c r="B122" s="2">
-        <v>50</v>
+        <v>283</v>
+      </c>
+      <c r="B122" s="31">
+        <v>16000</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>285</v>
-      </c>
-      <c r="B123" s="2">
-        <v>60</v>
+        <v>284</v>
+      </c>
+      <c r="B123" s="31">
+        <v>19200</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>286</v>
-      </c>
-      <c r="B124" s="2">
-        <v>100</v>
+        <v>285</v>
+      </c>
+      <c r="B124" s="31">
+        <v>32000</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="B125" s="2">
-        <v>15</v>
+      <c r="A125" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B125" s="31">
+        <v>4800</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>287</v>
-      </c>
-      <c r="B126" s="2">
-        <v>50</v>
+        <v>286</v>
+      </c>
+      <c r="B126" s="31">
+        <v>16000</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>288</v>
-      </c>
-      <c r="B127" s="2">
-        <v>70</v>
+        <v>287</v>
+      </c>
+      <c r="B127" s="31">
+        <v>22400</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>289</v>
-      </c>
-      <c r="B128" s="2">
-        <v>10</v>
+        <v>288</v>
+      </c>
+      <c r="B128" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>290</v>
-      </c>
-      <c r="B129" s="2">
-        <v>10</v>
+        <v>289</v>
+      </c>
+      <c r="B129" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>291</v>
-      </c>
-      <c r="B130" s="2">
-        <v>10</v>
+        <v>290</v>
+      </c>
+      <c r="B130" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>295</v>
-      </c>
-      <c r="B131" s="2">
-        <v>30</v>
+        <v>294</v>
+      </c>
+      <c r="B131" s="31">
+        <v>9600</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>296</v>
-      </c>
-      <c r="B132" s="2">
-        <v>90</v>
+        <v>295</v>
+      </c>
+      <c r="B132" s="31">
+        <v>28800</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>297</v>
-      </c>
-      <c r="B133" s="2">
-        <v>50</v>
+        <v>296</v>
+      </c>
+      <c r="B133" s="31">
+        <v>16000</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>292</v>
-      </c>
-      <c r="B134" s="2">
-        <v>10</v>
+        <v>291</v>
+      </c>
+      <c r="B134" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>293</v>
-      </c>
-      <c r="B135" s="2">
-        <v>30</v>
+        <v>292</v>
+      </c>
+      <c r="B135" s="31">
+        <v>9600</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>521</v>
-      </c>
-      <c r="B136" s="2">
-        <v>20</v>
+        <v>520</v>
+      </c>
+      <c r="B136" s="31">
+        <v>6400</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>294</v>
-      </c>
-      <c r="B137" s="2">
-        <v>120</v>
+        <v>293</v>
+      </c>
+      <c r="B137" s="31">
+        <v>38400</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>298</v>
-      </c>
-      <c r="B138" s="2">
-        <v>15</v>
+        <v>297</v>
+      </c>
+      <c r="B138" s="31">
+        <v>4800</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>299</v>
-      </c>
-      <c r="B139" s="2">
-        <v>70</v>
+        <v>298</v>
+      </c>
+      <c r="B139" s="31">
+        <v>22400</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>300</v>
-      </c>
-      <c r="B140" s="2">
-        <v>20</v>
+        <v>299</v>
+      </c>
+      <c r="B140" s="31">
+        <v>6400</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>301</v>
-      </c>
-      <c r="B141" s="2">
-        <v>5</v>
+        <v>300</v>
+      </c>
+      <c r="B141" s="31">
+        <v>1600</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>302</v>
-      </c>
-      <c r="B142" s="2">
-        <v>100</v>
+        <v>301</v>
+      </c>
+      <c r="B142" s="31">
+        <v>32000</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>303</v>
-      </c>
-      <c r="B143" s="2">
-        <v>60</v>
+        <v>302</v>
+      </c>
+      <c r="B143" s="31">
+        <v>19200</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>304</v>
-      </c>
-      <c r="B144" s="2">
-        <v>30</v>
+        <v>303</v>
+      </c>
+      <c r="B144" s="31">
+        <v>9600</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>305</v>
-      </c>
-      <c r="B145" s="2">
-        <v>100</v>
+        <v>304</v>
+      </c>
+      <c r="B145" s="31">
+        <v>32000</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>306</v>
-      </c>
-      <c r="B146" s="2">
-        <v>30</v>
+        <v>305</v>
+      </c>
+      <c r="B146" s="31">
+        <v>9600</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>307</v>
-      </c>
-      <c r="B147" s="2">
-        <v>10</v>
+        <v>306</v>
+      </c>
+      <c r="B147" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>308</v>
-      </c>
-      <c r="B148" s="2">
-        <v>15</v>
+        <v>307</v>
+      </c>
+      <c r="B148" s="31">
+        <v>4800</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>309</v>
-      </c>
-      <c r="B149" s="2">
-        <v>30</v>
+        <v>308</v>
+      </c>
+      <c r="B149" s="31">
+        <v>9600</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>310</v>
-      </c>
-      <c r="B150" s="2">
-        <v>10</v>
+        <v>309</v>
+      </c>
+      <c r="B150" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>475</v>
-      </c>
-      <c r="B151" s="2">
-        <v>10</v>
+        <v>474</v>
+      </c>
+      <c r="B151" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>476</v>
-      </c>
-      <c r="B152" s="2">
-        <v>10</v>
+        <v>475</v>
+      </c>
+      <c r="B152" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>311</v>
-      </c>
-      <c r="B153" s="2">
-        <v>20</v>
+        <v>310</v>
+      </c>
+      <c r="B153" s="31">
+        <v>6400</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>313</v>
-      </c>
-      <c r="B154" s="2">
-        <v>2</v>
+        <v>312</v>
+      </c>
+      <c r="B154" s="31">
+        <v>640</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>312</v>
-      </c>
-      <c r="B155" s="2">
-        <v>20</v>
+        <v>311</v>
+      </c>
+      <c r="B155" s="31">
+        <v>6400</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>314</v>
-      </c>
-      <c r="B156" s="2">
-        <v>50</v>
+        <v>313</v>
+      </c>
+      <c r="B156" s="31">
+        <v>16000</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>315</v>
-      </c>
-      <c r="B157" s="2">
-        <v>40</v>
+        <v>314</v>
+      </c>
+      <c r="B157" s="31">
+        <v>12800</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>522</v>
-      </c>
-      <c r="B158" s="2">
-        <v>150</v>
+        <v>521</v>
+      </c>
+      <c r="B158" s="31">
+        <v>48000</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>316</v>
-      </c>
-      <c r="B159" s="2">
-        <v>90</v>
+        <v>315</v>
+      </c>
+      <c r="B159" s="31">
+        <v>28800</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>317</v>
-      </c>
-      <c r="B160" s="2">
-        <v>12</v>
+        <v>316</v>
+      </c>
+      <c r="B160" s="31">
+        <v>3840</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>318</v>
-      </c>
-      <c r="B161" s="2">
-        <v>15</v>
+        <v>317</v>
+      </c>
+      <c r="B161" s="31">
+        <v>4800</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>525</v>
-      </c>
-      <c r="B162" s="2">
-        <v>400</v>
+        <v>524</v>
+      </c>
+      <c r="B162" s="31">
+        <v>128000</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>319</v>
-      </c>
-      <c r="B163" s="2">
-        <v>550</v>
+        <v>318</v>
+      </c>
+      <c r="B163" s="31">
+        <v>176000</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>320</v>
-      </c>
-      <c r="B164" s="2">
-        <v>6</v>
+        <v>319</v>
+      </c>
+      <c r="B164" s="31">
+        <v>1920</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>321</v>
-      </c>
-      <c r="B165" s="2">
-        <v>10</v>
+        <v>320</v>
+      </c>
+      <c r="B165" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>463</v>
-      </c>
-      <c r="B166" s="2">
-        <v>20</v>
+        <v>462</v>
+      </c>
+      <c r="B166" s="31">
+        <v>6400</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>322</v>
-      </c>
-      <c r="B167" s="2">
-        <v>15</v>
+        <v>321</v>
+      </c>
+      <c r="B167" s="31">
+        <v>4800</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>464</v>
-      </c>
-      <c r="B168" s="2">
-        <v>5</v>
+        <v>463</v>
+      </c>
+      <c r="B168" s="31">
+        <v>1600</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>323</v>
-      </c>
-      <c r="B169" s="2">
-        <v>15</v>
+        <v>322</v>
+      </c>
+      <c r="B169" s="31">
+        <v>4800</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>324</v>
-      </c>
-      <c r="B170" s="2">
-        <v>70</v>
+        <v>323</v>
+      </c>
+      <c r="B170" s="31">
+        <v>22400</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>325</v>
-      </c>
-      <c r="B171" s="2">
-        <v>10</v>
+        <v>324</v>
+      </c>
+      <c r="B171" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>326</v>
-      </c>
-      <c r="B172" s="2">
-        <v>10</v>
+        <v>325</v>
+      </c>
+      <c r="B172" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>327</v>
-      </c>
-      <c r="B173" s="2">
-        <v>20</v>
+        <v>326</v>
+      </c>
+      <c r="B173" s="31">
+        <v>6400</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>328</v>
-      </c>
-      <c r="B174" s="2">
-        <v>10</v>
+        <v>327</v>
+      </c>
+      <c r="B174" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>329</v>
-      </c>
-      <c r="B175" s="2">
-        <v>10</v>
+        <v>328</v>
+      </c>
+      <c r="B175" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>330</v>
-      </c>
-      <c r="B176" s="2">
-        <v>10</v>
+        <v>329</v>
+      </c>
+      <c r="B176" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>331</v>
-      </c>
-      <c r="B177" s="2">
-        <v>50</v>
+        <v>330</v>
+      </c>
+      <c r="B177" s="31">
+        <v>16000</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>528</v>
-      </c>
-      <c r="B178" s="2">
-        <v>5</v>
+        <v>527</v>
+      </c>
+      <c r="B178" s="31">
+        <v>1600</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>523</v>
-      </c>
-      <c r="B179" s="2">
-        <v>5</v>
+        <v>522</v>
+      </c>
+      <c r="B179" s="31">
+        <v>1600</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>332</v>
-      </c>
-      <c r="B180" s="2">
-        <v>30</v>
+        <v>331</v>
+      </c>
+      <c r="B180" s="31">
+        <v>9600</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>333</v>
-      </c>
-      <c r="B181" s="2">
-        <v>7</v>
+        <v>332</v>
+      </c>
+      <c r="B181" s="31">
+        <v>2240</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>334</v>
-      </c>
-      <c r="B182" s="2">
-        <v>280</v>
+        <v>333</v>
+      </c>
+      <c r="B182" s="31">
+        <v>89600</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>335</v>
-      </c>
-      <c r="B183" s="2">
-        <v>150</v>
+        <v>334</v>
+      </c>
+      <c r="B183" s="31">
+        <v>48000</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>465</v>
-      </c>
-      <c r="B184" s="2">
-        <v>80</v>
+        <v>464</v>
+      </c>
+      <c r="B184" s="31">
+        <v>25600</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>336</v>
-      </c>
-      <c r="B185" s="2">
-        <v>30</v>
+        <v>335</v>
+      </c>
+      <c r="B185" s="31">
+        <v>9600</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>337</v>
-      </c>
-      <c r="B186" s="2">
-        <v>150</v>
+        <v>336</v>
+      </c>
+      <c r="B186" s="31">
+        <v>48000</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>338</v>
-      </c>
-      <c r="B187" s="2">
-        <v>10</v>
+        <v>337</v>
+      </c>
+      <c r="B187" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>339</v>
-      </c>
-      <c r="B188" s="2">
-        <v>10</v>
+        <v>338</v>
+      </c>
+      <c r="B188" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>340</v>
-      </c>
-      <c r="B189" s="2">
-        <v>20</v>
+        <v>339</v>
+      </c>
+      <c r="B189" s="31">
+        <v>6400</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>341</v>
-      </c>
-      <c r="B190" s="2">
-        <v>100</v>
+        <v>340</v>
+      </c>
+      <c r="B190" s="31">
+        <v>32000</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>342</v>
-      </c>
-      <c r="B191" s="2">
-        <v>120</v>
+        <v>341</v>
+      </c>
+      <c r="B191" s="31">
+        <v>38400</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>343</v>
-      </c>
-      <c r="B192" s="2">
-        <v>300</v>
+        <v>342</v>
+      </c>
+      <c r="B192" s="31">
+        <v>96000</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>344</v>
-      </c>
-      <c r="B193" s="2">
-        <v>160</v>
+        <v>343</v>
+      </c>
+      <c r="B193" s="31">
+        <v>51200</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>345</v>
-      </c>
-      <c r="B194" s="2">
-        <v>110</v>
+        <v>344</v>
+      </c>
+      <c r="B194" s="31">
+        <v>35200</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>346</v>
-      </c>
-      <c r="B195" s="2">
-        <v>160</v>
+        <v>345</v>
+      </c>
+      <c r="B195" s="31">
+        <v>51200</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>347</v>
-      </c>
-      <c r="B196" s="2">
-        <v>30</v>
+        <v>346</v>
+      </c>
+      <c r="B196" s="31">
+        <v>9600</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>348</v>
-      </c>
-      <c r="B197" s="2">
-        <v>170</v>
+        <v>347</v>
+      </c>
+      <c r="B197" s="31">
+        <v>54400</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>349</v>
-      </c>
-      <c r="B198" s="2">
-        <v>80</v>
+        <v>348</v>
+      </c>
+      <c r="B198" s="31">
+        <v>25600</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>350</v>
-      </c>
-      <c r="B199" s="2">
-        <v>220</v>
+        <v>349</v>
+      </c>
+      <c r="B199" s="31">
+        <v>70400</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>351</v>
-      </c>
-      <c r="B200" s="2">
-        <v>90</v>
+        <v>350</v>
+      </c>
+      <c r="B200" s="31">
+        <v>28800</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>352</v>
-      </c>
-      <c r="B201" s="2">
-        <v>25</v>
+        <v>351</v>
+      </c>
+      <c r="B201" s="31">
+        <v>8000</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>353</v>
-      </c>
-      <c r="B202" s="2">
-        <v>70</v>
+        <v>352</v>
+      </c>
+      <c r="B202" s="31">
+        <v>22400</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>354</v>
-      </c>
-      <c r="B203" s="2">
-        <v>25</v>
+        <v>353</v>
+      </c>
+      <c r="B203" s="31">
+        <v>8000</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>355</v>
-      </c>
-      <c r="B204" s="2">
-        <v>10</v>
+        <v>354</v>
+      </c>
+      <c r="B204" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>526</v>
-      </c>
-      <c r="B205" s="2">
-        <v>20</v>
+        <v>525</v>
+      </c>
+      <c r="B205" s="31">
+        <v>6400</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>527</v>
-      </c>
-      <c r="B206" s="2">
-        <v>20</v>
+        <v>526</v>
+      </c>
+      <c r="B206" s="31">
+        <v>6400</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>356</v>
-      </c>
-      <c r="B207" s="2">
-        <v>30</v>
+        <v>355</v>
+      </c>
+      <c r="B207" s="31">
+        <v>9600</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>357</v>
-      </c>
-      <c r="B208" s="2">
-        <v>30</v>
+        <v>356</v>
+      </c>
+      <c r="B208" s="31">
+        <v>9600</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>358</v>
-      </c>
-      <c r="B209" s="2">
-        <v>60</v>
+        <v>357</v>
+      </c>
+      <c r="B209" s="31">
+        <v>19200</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>467</v>
-      </c>
-      <c r="B210" s="2">
-        <v>40</v>
+        <v>466</v>
+      </c>
+      <c r="B210" s="31">
+        <v>12800</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>359</v>
-      </c>
-      <c r="B211" s="2">
-        <v>30</v>
+        <v>358</v>
+      </c>
+      <c r="B211" s="31">
+        <v>9600</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>360</v>
-      </c>
-      <c r="B212" s="2">
-        <v>20</v>
+        <v>359</v>
+      </c>
+      <c r="B212" s="31">
+        <v>6400</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>361</v>
-      </c>
-      <c r="B213" s="2">
-        <v>20</v>
+        <v>360</v>
+      </c>
+      <c r="B213" s="31">
+        <v>6400</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>362</v>
-      </c>
-      <c r="B214" s="2">
-        <v>150</v>
+        <v>361</v>
+      </c>
+      <c r="B214" s="31">
+        <v>48000</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>363</v>
-      </c>
-      <c r="B215" s="2">
-        <v>350</v>
+        <v>362</v>
+      </c>
+      <c r="B215" s="31">
+        <v>112000</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>364</v>
-      </c>
-      <c r="B216" s="2">
-        <v>20</v>
+        <v>363</v>
+      </c>
+      <c r="B216" s="31">
+        <v>6400</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>365</v>
-      </c>
-      <c r="B217" s="2">
-        <v>20</v>
+        <v>364</v>
+      </c>
+      <c r="B217" s="31">
+        <v>6400</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>366</v>
-      </c>
-      <c r="B218" s="2">
-        <v>15</v>
+        <v>365</v>
+      </c>
+      <c r="B218" s="31">
+        <v>4800</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>367</v>
-      </c>
-      <c r="B219" s="2">
-        <v>30</v>
+        <v>366</v>
+      </c>
+      <c r="B219" s="31">
+        <v>9600</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>368</v>
-      </c>
-      <c r="B220" s="2">
-        <v>15</v>
+        <v>367</v>
+      </c>
+      <c r="B220" s="31">
+        <v>4800</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>369</v>
-      </c>
-      <c r="B221" s="2">
-        <v>70</v>
+        <v>368</v>
+      </c>
+      <c r="B221" s="31">
+        <v>22400</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>370</v>
-      </c>
-      <c r="B222" s="2">
-        <v>40</v>
+        <v>369</v>
+      </c>
+      <c r="B222" s="31">
+        <v>12800</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>371</v>
-      </c>
-      <c r="B223" s="2">
-        <v>100</v>
+        <v>370</v>
+      </c>
+      <c r="B223" s="31">
+        <v>32000</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>372</v>
-      </c>
-      <c r="B224" s="2">
-        <v>70</v>
+        <v>371</v>
+      </c>
+      <c r="B224" s="31">
+        <v>22400</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>373</v>
-      </c>
-      <c r="B225" s="2">
-        <v>15</v>
+        <v>372</v>
+      </c>
+      <c r="B225" s="31">
+        <v>4800</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>374</v>
-      </c>
-      <c r="B226" s="2">
-        <v>130</v>
+        <v>373</v>
+      </c>
+      <c r="B226" s="31">
+        <v>41600</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>375</v>
-      </c>
-      <c r="B227" s="2">
-        <v>200</v>
+        <v>374</v>
+      </c>
+      <c r="B227" s="31">
+        <v>64000</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>376</v>
-      </c>
-      <c r="B228" s="2">
-        <v>30</v>
+        <v>375</v>
+      </c>
+      <c r="B228" s="31">
+        <v>9600</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>377</v>
-      </c>
-      <c r="B229" s="2">
-        <v>15</v>
+        <v>376</v>
+      </c>
+      <c r="B229" s="31">
+        <v>4800</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>378</v>
-      </c>
-      <c r="B230" s="2">
-        <v>65</v>
+        <v>377</v>
+      </c>
+      <c r="B230" s="31">
+        <v>20800</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>379</v>
-      </c>
-      <c r="B231" s="2">
-        <v>95</v>
+        <v>378</v>
+      </c>
+      <c r="B231" s="31">
+        <v>30400</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>380</v>
-      </c>
-      <c r="B232" s="2">
-        <v>10</v>
+        <v>379</v>
+      </c>
+      <c r="B232" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>381</v>
-      </c>
-      <c r="B233" s="2">
-        <v>20</v>
+        <v>380</v>
+      </c>
+      <c r="B233" s="31">
+        <v>6400</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>382</v>
-      </c>
-      <c r="B234" s="2">
-        <v>10</v>
+        <v>381</v>
+      </c>
+      <c r="B234" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>383</v>
-      </c>
-      <c r="B235" s="2">
-        <v>10</v>
+        <v>382</v>
+      </c>
+      <c r="B235" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>384</v>
-      </c>
-      <c r="B236" s="2">
-        <v>10</v>
+        <v>383</v>
+      </c>
+      <c r="B236" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>385</v>
-      </c>
-      <c r="B237" s="2">
-        <v>10</v>
+        <v>384</v>
+      </c>
+      <c r="B237" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>386</v>
-      </c>
-      <c r="B238" s="2">
-        <v>15</v>
+        <v>385</v>
+      </c>
+      <c r="B238" s="31">
+        <v>4800</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>387</v>
-      </c>
-      <c r="B239" s="2">
-        <v>15</v>
+        <v>386</v>
+      </c>
+      <c r="B239" s="31">
+        <v>4800</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>388</v>
-      </c>
-      <c r="B240" s="2">
-        <v>15</v>
+        <v>387</v>
+      </c>
+      <c r="B240" s="31">
+        <v>4800</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>468</v>
-      </c>
-      <c r="B241" s="2">
-        <v>15</v>
+        <v>467</v>
+      </c>
+      <c r="B241" s="31">
+        <v>4800</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>469</v>
-      </c>
-      <c r="B242" s="2">
-        <v>6</v>
+        <v>468</v>
+      </c>
+      <c r="B242" s="31">
+        <v>1920</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>389</v>
-      </c>
-      <c r="B243" s="2">
-        <v>10</v>
+        <v>388</v>
+      </c>
+      <c r="B243" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>390</v>
-      </c>
-      <c r="B244" s="2">
-        <v>150</v>
+        <v>389</v>
+      </c>
+      <c r="B244" s="31">
+        <v>48000</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>391</v>
-      </c>
-      <c r="B245" s="2">
-        <v>180</v>
+        <v>390</v>
+      </c>
+      <c r="B245" s="31">
+        <v>57600</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>392</v>
-      </c>
-      <c r="B246" s="2">
-        <v>90</v>
+        <v>391</v>
+      </c>
+      <c r="B246" s="31">
+        <v>28800</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>393</v>
-      </c>
-      <c r="B247" s="2">
-        <v>30</v>
+        <v>392</v>
+      </c>
+      <c r="B247" s="31">
+        <v>9600</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>394</v>
-      </c>
-      <c r="B248" s="2">
-        <v>25</v>
+        <v>393</v>
+      </c>
+      <c r="B248" s="31">
+        <v>8000</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>395</v>
-      </c>
-      <c r="B249" s="2">
-        <v>4</v>
+        <v>394</v>
+      </c>
+      <c r="B249" s="31">
+        <v>1280</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>396</v>
-      </c>
-      <c r="B250" s="2">
-        <v>75</v>
+        <v>395</v>
+      </c>
+      <c r="B250" s="31">
+        <v>24000</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>397</v>
-      </c>
-      <c r="B251" s="2">
-        <v>25</v>
+        <v>396</v>
+      </c>
+      <c r="B251" s="31">
+        <v>8000</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>398</v>
-      </c>
-      <c r="B252" s="2">
-        <v>70</v>
+        <v>397</v>
+      </c>
+      <c r="B252" s="31">
+        <v>22400</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>399</v>
-      </c>
-      <c r="B253" s="2">
-        <v>15</v>
+        <v>398</v>
+      </c>
+      <c r="B253" s="31">
+        <v>4800</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>400</v>
-      </c>
-      <c r="B254" s="2">
-        <v>250</v>
+        <v>399</v>
+      </c>
+      <c r="B254" s="31">
+        <v>80000</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>459</v>
-      </c>
-      <c r="B255" s="2">
-        <v>550</v>
+        <v>458</v>
+      </c>
+      <c r="B255" s="31">
+        <v>176000</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>401</v>
-      </c>
-      <c r="B256" s="2">
-        <v>25</v>
+        <v>400</v>
+      </c>
+      <c r="B256" s="31">
+        <v>8000</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>402</v>
-      </c>
-      <c r="B257" s="2">
-        <v>10</v>
+        <v>401</v>
+      </c>
+      <c r="B257" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>403</v>
-      </c>
-      <c r="B258" s="2">
-        <v>10</v>
+        <v>402</v>
+      </c>
+      <c r="B258" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>404</v>
-      </c>
-      <c r="B259" s="2">
-        <v>15</v>
+        <v>403</v>
+      </c>
+      <c r="B259" s="31">
+        <v>4800</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>405</v>
-      </c>
-      <c r="B260" s="2">
-        <v>7</v>
+        <v>404</v>
+      </c>
+      <c r="B260" s="31">
+        <v>2240</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>406</v>
-      </c>
-      <c r="B261" s="2">
-        <v>50</v>
+        <v>405</v>
+      </c>
+      <c r="B261" s="31">
+        <v>16000</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>407</v>
-      </c>
-      <c r="B262" s="2">
-        <v>5</v>
+        <v>406</v>
+      </c>
+      <c r="B262" s="31">
+        <v>1600</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>408</v>
-      </c>
-      <c r="B263" s="2">
-        <v>5</v>
+        <v>407</v>
+      </c>
+      <c r="B263" s="31">
+        <v>1600</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>409</v>
-      </c>
-      <c r="B264" s="2">
-        <v>5</v>
+        <v>408</v>
+      </c>
+      <c r="B264" s="31">
+        <v>1600</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>410</v>
-      </c>
-      <c r="B265" s="2">
-        <v>7</v>
+        <v>409</v>
+      </c>
+      <c r="B265" s="31">
+        <v>2240</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>411</v>
-      </c>
-      <c r="B266" s="2">
-        <v>20</v>
+        <v>410</v>
+      </c>
+      <c r="B266" s="31">
+        <v>6400</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>453</v>
-      </c>
-      <c r="B267" s="2">
-        <v>10</v>
+        <v>452</v>
+      </c>
+      <c r="B267" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>412</v>
-      </c>
-      <c r="B268" s="2">
-        <v>15</v>
+        <v>411</v>
+      </c>
+      <c r="B268" s="31">
+        <v>4800</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>413</v>
-      </c>
-      <c r="B269" s="2">
-        <v>5</v>
+        <v>412</v>
+      </c>
+      <c r="B269" s="31">
+        <v>1600</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>414</v>
-      </c>
-      <c r="B270" s="2">
-        <v>7</v>
+        <v>413</v>
+      </c>
+      <c r="B270" s="31">
+        <v>2240</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>415</v>
-      </c>
-      <c r="B271" s="2">
-        <v>10</v>
+        <v>414</v>
+      </c>
+      <c r="B271" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>416</v>
-      </c>
-      <c r="B272" s="2">
-        <v>2</v>
+        <v>415</v>
+      </c>
+      <c r="B272" s="31">
+        <v>640</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>417</v>
-      </c>
-      <c r="B273" s="2">
-        <v>5</v>
+        <v>416</v>
+      </c>
+      <c r="B273" s="31">
+        <v>1600</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" t="s">
-        <v>418</v>
-      </c>
-      <c r="B274" s="2">
-        <v>3</v>
+        <v>417</v>
+      </c>
+      <c r="B274" s="31">
+        <v>960</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
-        <v>419</v>
-      </c>
-      <c r="B275" s="2">
-        <v>4</v>
+        <v>418</v>
+      </c>
+      <c r="B275" s="31">
+        <v>1280</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>466</v>
-      </c>
-      <c r="B276" s="2">
-        <v>3</v>
+        <v>465</v>
+      </c>
+      <c r="B276" s="31">
+        <v>960</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" t="s">
-        <v>524</v>
-      </c>
-      <c r="B277" s="2">
-        <v>7</v>
+        <v>523</v>
+      </c>
+      <c r="B277" s="31">
+        <v>2240</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>420</v>
-      </c>
-      <c r="B278" s="2">
-        <v>2</v>
+        <v>419</v>
+      </c>
+      <c r="B278" s="31">
+        <v>640</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" t="s">
-        <v>529</v>
-      </c>
-      <c r="B279" s="2">
-        <v>10</v>
+        <v>528</v>
+      </c>
+      <c r="B279" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>421</v>
-      </c>
-      <c r="B280" s="2">
-        <v>20</v>
+        <v>420</v>
+      </c>
+      <c r="B280" s="31">
+        <v>6400</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" t="s">
-        <v>422</v>
-      </c>
-      <c r="B281" s="2">
-        <v>25</v>
+        <v>421</v>
+      </c>
+      <c r="B281" s="31">
+        <v>8000</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" t="s">
-        <v>423</v>
-      </c>
-      <c r="B282" s="2">
-        <v>45</v>
+        <v>422</v>
+      </c>
+      <c r="B282" s="31">
+        <v>14400</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>424</v>
-      </c>
-      <c r="B283" s="2">
-        <v>15</v>
+        <v>423</v>
+      </c>
+      <c r="B283" s="31">
+        <v>4800</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>425</v>
-      </c>
-      <c r="B284" s="2">
-        <v>60</v>
+        <v>424</v>
+      </c>
+      <c r="B284" s="31">
+        <v>19200</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" t="s">
-        <v>426</v>
-      </c>
-      <c r="B285" s="2">
-        <v>100</v>
+        <v>425</v>
+      </c>
+      <c r="B285" s="31">
+        <v>32000</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" t="s">
-        <v>530</v>
-      </c>
-      <c r="B286" s="2">
-        <v>15</v>
+        <v>529</v>
+      </c>
+      <c r="B286" s="31">
+        <v>4800</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
-        <v>531</v>
-      </c>
-      <c r="B287" s="2">
-        <v>15</v>
+        <v>530</v>
+      </c>
+      <c r="B287" s="31">
+        <v>4800</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" t="s">
-        <v>427</v>
-      </c>
-      <c r="B288" s="2">
-        <v>35</v>
+        <v>426</v>
+      </c>
+      <c r="B288" s="31">
+        <v>11200</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" t="s">
-        <v>428</v>
-      </c>
-      <c r="B289" s="2">
-        <v>10</v>
+        <v>427</v>
+      </c>
+      <c r="B289" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" t="s">
-        <v>512</v>
-      </c>
-      <c r="B290" s="2">
-        <v>5</v>
+        <v>511</v>
+      </c>
+      <c r="B290" s="31">
+        <v>1600</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" t="s">
-        <v>429</v>
-      </c>
-      <c r="B291" s="2">
-        <v>15</v>
+        <v>428</v>
+      </c>
+      <c r="B291" s="31">
+        <v>4800</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B291">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A291">
     <sortCondition ref="A2:A291"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5040,602 +5021,602 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="61" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="33" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="31">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="31">
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="31">
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="31">
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="31">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B4" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="7" t="s">
+      <c r="B7" s="31">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="31">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B9" s="31">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" s="31">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="8" t="s">
+      <c r="B11" s="31">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="B9" s="5">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="B10" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B12" s="5">
-        <v>55</v>
+      <c r="B12" s="31">
+        <v>17600</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>538</v>
-      </c>
-      <c r="B13" s="5">
-        <v>60</v>
+        <v>537</v>
+      </c>
+      <c r="B13" s="31">
+        <v>19200</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="5">
-        <v>80</v>
+      <c r="A14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="31">
+        <v>25600</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B15" s="31">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="B15" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="B16" s="5">
-        <v>1</v>
+      <c r="B16" s="31">
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>452</v>
-      </c>
-      <c r="B17" s="2">
+        <v>451</v>
+      </c>
+      <c r="B17" s="31">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="B18" s="31">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="31">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="7" t="s">
+      <c r="B20" s="31">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="31">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B22" s="31">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="31">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="29" t="s">
+        <v>538</v>
+      </c>
+      <c r="B24" s="31">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="B25" s="31">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="B18" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="7" t="s">
+      <c r="B26" s="31">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="5">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="B22" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="33" t="s">
-        <v>539</v>
-      </c>
-      <c r="B24" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="B25" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="B26" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="5">
-        <v>35</v>
+      <c r="B27" s="31">
+        <v>11200</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="31">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="31">
+        <v>44800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B30" s="31">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" s="31">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="5">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="B30" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B31" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="5">
-        <v>100</v>
+      <c r="B32" s="31">
+        <v>32000</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>481</v>
-      </c>
-      <c r="B33" s="12">
-        <v>100</v>
+        <v>480</v>
+      </c>
+      <c r="B33" s="31">
+        <v>32000</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="5">
-        <v>150</v>
+      <c r="A34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="31">
+        <v>48000</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B35" s="5">
-        <v>120</v>
+      <c r="A35" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" s="31">
+        <v>38400</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="31">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" s="31">
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B37" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="5">
-        <v>130</v>
+      <c r="B38" s="31">
+        <v>41600</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>480</v>
-      </c>
-      <c r="B39" s="12">
-        <v>40</v>
+        <v>479</v>
+      </c>
+      <c r="B39" s="31">
+        <v>12800</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" s="31">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="31">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="31">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43" s="31">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B44" s="31">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="31">
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="31">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B43" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="B44" s="5">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="9" t="s">
+      <c r="B47" s="31">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="31">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="9" t="s">
+      <c r="B49" s="31">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="31">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="31">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B47" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B49" s="5">
+      <c r="B52" s="31">
+        <v>44800</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" s="31">
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="9" t="s">
+      <c r="B54" s="31">
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B50" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B52" s="5">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B53" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B54" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="9" t="s">
+      <c r="B55" s="31">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B56" s="31">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" s="31">
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B55" s="5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="B56" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B57" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B58" s="5">
-        <v>50</v>
+      <c r="B58" s="31">
+        <v>16000</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>541</v>
-      </c>
-      <c r="B59" s="12">
-        <v>150</v>
+        <v>540</v>
+      </c>
+      <c r="B59" s="31">
+        <v>48000</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B60" s="5">
-        <v>130</v>
+      <c r="A60" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="31">
+        <v>41600</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" s="31">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B61" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B62" s="5">
-        <v>7</v>
+      <c r="B62" s="31">
+        <v>2240</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="B63" s="5">
-        <v>5</v>
+      <c r="A63" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B63" s="31">
+        <v>1600</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="B64" s="5">
-        <v>35</v>
+      <c r="A64" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B64" s="31">
+        <v>11200</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="B65" s="5">
-        <v>40</v>
+      <c r="A65" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="B65" s="31">
+        <v>12800</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B66" s="31">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="31">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="B66" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B67" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="B68" s="5">
-        <v>5</v>
+      <c r="B68" s="31">
+        <v>1600</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B69" s="5">
-        <v>30</v>
+      <c r="A69" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B69" s="31">
+        <v>9600</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>453</v>
-      </c>
-      <c r="B70" s="2">
+        <v>452</v>
+      </c>
+      <c r="B70" s="31">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="B71" s="31">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B72" s="31">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="B71" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="B72" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B73" s="5">
-        <v>35</v>
+      <c r="B73" s="31">
+        <v>11200</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B73">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A73">
     <sortCondition ref="A3:A73"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5646,1370 +5627,1370 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128"/>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="73.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="84" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
+      <c r="B1" s="32" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="5">
-        <v>140</v>
+      <c r="A2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="31">
+        <v>44800</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="31">
+        <v>44800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="31">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="31">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="31">
+        <v>51200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="31">
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="31">
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" s="31">
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="31">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="31">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="5">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" s="5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="5">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="5">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="B7" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="16" t="s">
+      <c r="B12" s="31">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="B13" s="31">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="31">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="B9" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="B10" s="5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="16" t="s">
+      <c r="B15" s="31">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="31">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="31">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="31">
+        <v>17600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B11" s="5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="5">
+      <c r="B19" s="31">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="16" t="s">
-        <v>484</v>
-      </c>
-      <c r="B13" s="5">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="B14" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="B18" s="5">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="B19" s="5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="5">
-        <v>80</v>
+      <c r="B20" s="31">
+        <v>25600</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>537</v>
-      </c>
-      <c r="B21" s="5">
-        <v>60</v>
+        <v>536</v>
+      </c>
+      <c r="B21" s="31">
+        <v>19200</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="5">
-        <v>60</v>
+      <c r="A22" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="31">
+        <v>19200</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>182</v>
-      </c>
-      <c r="B23" s="5">
-        <v>80</v>
+        <v>181</v>
+      </c>
+      <c r="B23" s="31">
+        <v>25600</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="5">
-        <v>45</v>
+      <c r="A24" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="31">
+        <v>14400</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="B25" s="31">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="13" t="s">
         <v>457</v>
       </c>
-      <c r="B25" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="16" t="s">
-        <v>458</v>
-      </c>
-      <c r="B26" s="5">
-        <v>1</v>
+      <c r="B26" s="31">
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>452</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1</v>
+        <v>451</v>
+      </c>
+      <c r="B27" s="31">
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="31">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="31">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="5">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" s="5">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="16" t="s">
+      <c r="B30" s="31">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="31">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" s="31">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B30" s="5">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="B31" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="16" t="s">
+      <c r="B33" s="31">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="B34" s="31">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B32" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="16" t="s">
+      <c r="B35" s="31">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="B36" s="31">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="B37" s="31">
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B38" s="31">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="31">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="31">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B41" s="31">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B42" s="31">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="31">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="16" t="s">
-        <v>499</v>
-      </c>
-      <c r="B34" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="B35" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="16" t="s">
-        <v>506</v>
-      </c>
-      <c r="B36" s="5">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="16" t="s">
-        <v>507</v>
-      </c>
-      <c r="B37" s="5">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="B38" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="5">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="B41" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="22" t="s">
+      <c r="B44" s="31">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="31">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="31">
+        <v>51200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="31">
+        <v>51200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="31">
+        <v>51200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="31">
+        <v>51200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" s="31">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="31">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="31">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="31">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="31">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="31">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="31">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" s="31">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" s="31">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" s="31">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" s="31">
+        <v>51200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B42" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="B43" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B44" s="5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="B45" s="5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="5">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="5">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="5">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="5">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="B50" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" s="5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="16" t="s">
+      <c r="B61" s="31">
+        <v>51200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62" s="31">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" s="31">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B57" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B58" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B59" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B60" s="5">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="B61" s="5">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="16" t="s">
+      <c r="B64" s="31">
+        <v>73600</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B62" s="5">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B63" s="5">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B64" s="5">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="16" t="s">
+      <c r="B65" s="31">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B65" s="5">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B66" s="5">
-        <v>250</v>
+      <c r="B66" s="31">
+        <v>80000</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>534</v>
-      </c>
-      <c r="B67" s="5">
-        <v>250</v>
+        <v>533</v>
+      </c>
+      <c r="B67" s="31">
+        <v>80000</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68" s="31">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B69" s="31">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B70" s="31">
+        <v>70400</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71" s="31">
+        <v>70400</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B68" s="5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B69" s="5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B70" s="5">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B71" s="5">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B72" s="5">
-        <v>220</v>
+      <c r="B72" s="31">
+        <v>70400</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>535</v>
-      </c>
-      <c r="B73" s="5">
+        <v>534</v>
+      </c>
+      <c r="B73" s="31">
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="B74" s="31">
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B75" s="31">
+        <v>44800</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B76" s="31">
+        <v>44800</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B77" s="31">
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="B78" s="31">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B79" s="31">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B80" s="31">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B81" s="31">
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B82" s="31">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B83" s="31">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B84" s="31">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="B85" s="31">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B86" s="31">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B87" s="31">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="13" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="B74" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B75" s="5">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B76" s="5">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B77" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="26" t="s">
-        <v>482</v>
-      </c>
-      <c r="B78" s="12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B79" s="5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B80" s="5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B81" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="B82" s="5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B83" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="B84" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="16" t="s">
-        <v>508</v>
-      </c>
-      <c r="B85" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B86" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B87" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="16" t="s">
+      <c r="B88" s="31">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B89" s="31">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="B90" s="31">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B88" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="B89" s="5">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="B90" s="5">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="16" t="s">
+      <c r="B91" s="31">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B91" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="16" t="s">
+      <c r="B92" s="31">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="B93" s="31">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B92" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="B93" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="16" t="s">
+      <c r="B94" s="31">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B94" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B95" s="5">
-        <v>10</v>
+      <c r="B95" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="28" t="s">
-        <v>540</v>
-      </c>
-      <c r="B96" s="5">
-        <v>60</v>
+      <c r="A96" s="25" t="s">
+        <v>539</v>
+      </c>
+      <c r="B96" s="31">
+        <v>19200</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>513</v>
-      </c>
-      <c r="B97" s="5">
-        <v>60</v>
+        <v>512</v>
+      </c>
+      <c r="B97" s="31">
+        <v>19200</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="16" t="s">
+      <c r="A98" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="B98" s="31">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="B99" s="31">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="B98" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="16" t="s">
-        <v>503</v>
-      </c>
-      <c r="B99" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="16" t="s">
-        <v>505</v>
-      </c>
-      <c r="B100" s="5">
-        <v>15</v>
+      <c r="B100" s="31">
+        <v>4800</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="16" t="s">
-        <v>502</v>
-      </c>
-      <c r="B101" s="5">
-        <v>25</v>
+      <c r="A101" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="B101" s="31">
+        <v>8000</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="16" t="s">
+      <c r="A102" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B102" s="31">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="B103" s="31">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="B102" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="16" t="s">
-        <v>501</v>
-      </c>
-      <c r="B103" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="16" t="s">
+      <c r="B104" s="31">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B105" s="31">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106" s="31">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" s="31">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B108" s="31">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="B104" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="16" t="s">
+      <c r="B109" s="31">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B110" s="31">
+        <v>44800</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111" s="31">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B105" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B106" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="B107" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B108" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="B109" s="5">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="B110" s="5">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="B111" s="5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B112" s="5">
-        <v>150</v>
+      <c r="B112" s="31">
+        <v>48000</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>532</v>
-      </c>
-      <c r="B113" s="5">
-        <v>140</v>
+        <v>531</v>
+      </c>
+      <c r="B113" s="31">
+        <v>44800</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B114" s="5">
-        <v>120</v>
+      <c r="A114" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114" s="31">
+        <v>38400</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="16" t="s">
+      <c r="A115" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" s="31">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B115" s="5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="16" t="s">
+      <c r="B116" s="31">
+        <v>73600</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B116" s="5">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="16" t="s">
+      <c r="B117" s="31">
+        <v>112000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B118" s="31">
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="B119" s="31">
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B120" s="31">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B121" s="31">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B122" s="31">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B123" s="31">
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="B124" s="31">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B125" s="31">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B117" s="5">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B118" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="16" t="s">
-        <v>497</v>
-      </c>
-      <c r="B119" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="B120" s="5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="B121" s="5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B122" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="B123" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="B124" s="5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="16" t="s">
+      <c r="B126" s="31">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="B125" s="5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B126" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="16" t="s">
+      <c r="B127" s="31">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>541</v>
+      </c>
+      <c r="B128" s="31">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B129" s="31">
+        <v>51200</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="B127" s="5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="34" t="s">
-        <v>542</v>
-      </c>
-      <c r="B128" s="12">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="16" t="s">
+      <c r="B130" s="31">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B129" s="5">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="16" t="s">
+      <c r="B131" s="31">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="B130" s="5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="16" t="s">
+      <c r="B132" s="31">
+        <v>44800</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B131" s="5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="B132" s="5">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="16" t="s">
+      <c r="B133" s="31">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B133" s="5">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="16" t="s">
+      <c r="B134" s="31">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B134" s="5">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="16" t="s">
+      <c r="B135" s="31">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B135" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="16" t="s">
+      <c r="B136" s="31">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B136" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="16" t="s">
+      <c r="B137" s="31">
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B137" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="16" t="s">
+      <c r="B138" s="31">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B138" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B139" s="5">
-        <v>120</v>
+      <c r="B139" s="31">
+        <v>38400</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>533</v>
-      </c>
-      <c r="B140" s="5">
-        <v>180</v>
+        <v>532</v>
+      </c>
+      <c r="B140" s="31">
+        <v>57600</v>
       </c>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="16" t="s">
+      <c r="A141" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B141" s="31">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="B141" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="B142" s="5">
-        <v>7</v>
+      <c r="B142" s="31">
+        <v>2240</v>
       </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="16" t="s">
+      <c r="A143" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B143" s="31">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B144" s="31">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B145" s="31">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B146" s="31">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B147" s="31">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B148" s="31">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B149" s="31">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B150" s="31">
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B151" s="31">
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="B152" s="31">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B153" s="31">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B143" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="B144" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="B145" s="5">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B146" s="5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="B147" s="5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B148" s="5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="B149" s="5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="B150" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="B151" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="B152" s="5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="B153" s="5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="16" t="s">
+      <c r="B154" s="31">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B154" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="16" t="s">
+      <c r="B155" s="31">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B155" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="16" t="s">
+      <c r="B156" s="31">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="B157" s="31">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B156" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="16" t="s">
-        <v>498</v>
-      </c>
-      <c r="B157" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="16" t="s">
+      <c r="B158" s="31">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B158" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="16" t="s">
+      <c r="B159" s="31">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B159" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B160" s="5">
-        <v>40</v>
+      <c r="B160" s="31">
+        <v>12800</v>
       </c>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="16" t="s">
+      <c r="A161" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B161" s="31">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="B161" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B162" s="5">
-        <v>20</v>
+      <c r="B162" s="31">
+        <v>6400</v>
       </c>
     </row>
     <row r="163" spans="1:2">
-      <c r="A163" s="16" t="s">
-        <v>509</v>
-      </c>
-      <c r="B163" s="5">
-        <v>70</v>
+      <c r="A163" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="B163" s="31">
+        <v>22400</v>
       </c>
     </row>
     <row r="164" spans="1:2">
-      <c r="A164" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="B164" s="5">
-        <v>30</v>
+      <c r="A164" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="B164" s="31">
+        <v>9600</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>453</v>
-      </c>
-      <c r="B165" s="2">
-        <v>10</v>
+        <v>452</v>
+      </c>
+      <c r="B165" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" s="16" t="s">
-        <v>500</v>
-      </c>
-      <c r="B166" s="5">
-        <v>10</v>
+      <c r="A166" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="B166" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B167" s="5">
-        <v>60</v>
+      <c r="A167" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B167" s="31">
+        <v>19200</v>
       </c>
     </row>
     <row r="168" spans="1:2">
-      <c r="A168" s="16" t="s">
+      <c r="A168" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B168" s="31">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="B168" s="5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="B169" s="5">
-        <v>40</v>
+      <c r="B169" s="31">
+        <v>12800</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B169">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A169">
     <sortCondition ref="A3:A169"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7020,308 +7001,309 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="54.1796875" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" customWidth="1"/>
+    <col min="1" max="1" width="58.08984375" customWidth="1"/>
+    <col min="2" max="2" width="11" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="30" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>433</v>
-      </c>
-      <c r="B2" s="32">
-        <v>12</v>
+        <v>432</v>
+      </c>
+      <c r="B2" s="31">
+        <v>3840</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>434</v>
-      </c>
-      <c r="B3" s="32">
-        <v>50</v>
+        <v>433</v>
+      </c>
+      <c r="B3" s="31">
+        <v>16000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>435</v>
-      </c>
-      <c r="B4" s="32">
-        <v>12</v>
+        <v>434</v>
+      </c>
+      <c r="B4" s="31">
+        <v>3840</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>436</v>
-      </c>
-      <c r="B5" s="32">
-        <v>50</v>
+        <v>435</v>
+      </c>
+      <c r="B5" s="31">
+        <v>16000</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>437</v>
-      </c>
-      <c r="B6" s="32">
-        <v>50</v>
+        <v>436</v>
+      </c>
+      <c r="B6" s="31">
+        <v>16000</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>511</v>
-      </c>
-      <c r="B7" s="32">
-        <v>70</v>
+        <v>510</v>
+      </c>
+      <c r="B7" s="31">
+        <v>22400</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>510</v>
-      </c>
-      <c r="B8" s="32">
-        <v>50</v>
+        <v>509</v>
+      </c>
+      <c r="B8" s="31">
+        <v>16000</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>438</v>
-      </c>
-      <c r="B9" s="32">
-        <v>15</v>
+        <v>437</v>
+      </c>
+      <c r="B9" s="31">
+        <v>4800</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B10" s="32">
-        <v>12</v>
+        <v>455</v>
+      </c>
+      <c r="B10" s="31">
+        <v>3840</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>439</v>
-      </c>
-      <c r="B11" s="32">
-        <v>12</v>
+        <v>438</v>
+      </c>
+      <c r="B11" s="31">
+        <v>3840</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>484</v>
-      </c>
-      <c r="B12" s="32">
-        <v>80</v>
+        <v>483</v>
+      </c>
+      <c r="B12" s="31">
+        <v>25600</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>187</v>
-      </c>
-      <c r="B13" s="32">
-        <v>100</v>
+        <v>186</v>
+      </c>
+      <c r="B13" s="31">
+        <v>32000</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>457</v>
-      </c>
-      <c r="B14" s="32">
-        <v>1</v>
+        <v>456</v>
+      </c>
+      <c r="B14" s="31">
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>458</v>
-      </c>
-      <c r="B15" s="32">
-        <v>1</v>
+        <v>457</v>
+      </c>
+      <c r="B15" s="31">
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>452</v>
-      </c>
-      <c r="B16" s="32">
-        <v>1</v>
+        <v>451</v>
+      </c>
+      <c r="B16" s="31">
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>483</v>
-      </c>
-      <c r="B17" s="32">
-        <v>10</v>
+        <v>482</v>
+      </c>
+      <c r="B17" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>440</v>
-      </c>
-      <c r="B18" s="32">
-        <v>10</v>
+        <v>439</v>
+      </c>
+      <c r="B18" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>454</v>
-      </c>
-      <c r="B19" s="32">
-        <v>10</v>
+        <v>453</v>
+      </c>
+      <c r="B19" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>293</v>
-      </c>
-      <c r="B20" s="32">
-        <v>30</v>
+        <v>292</v>
+      </c>
+      <c r="B20" s="31">
+        <v>9600</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>479</v>
-      </c>
-      <c r="B21" s="32">
-        <v>5</v>
+        <v>478</v>
+      </c>
+      <c r="B21" s="31">
+        <v>1600</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>455</v>
-      </c>
-      <c r="B22" s="32">
-        <v>70</v>
+        <v>454</v>
+      </c>
+      <c r="B22" s="31">
+        <v>22400</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>188</v>
-      </c>
-      <c r="B23" s="32">
-        <v>80</v>
+        <v>187</v>
+      </c>
+      <c r="B23" s="31">
+        <v>25600</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>478</v>
-      </c>
-      <c r="B24" s="32">
-        <v>80</v>
+        <v>477</v>
+      </c>
+      <c r="B24" s="31">
+        <v>25600</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>441</v>
-      </c>
-      <c r="B25" s="32">
-        <v>12</v>
+        <v>440</v>
+      </c>
+      <c r="B25" s="31">
+        <v>3840</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>442</v>
-      </c>
-      <c r="B26" s="32">
-        <v>10</v>
+        <v>441</v>
+      </c>
+      <c r="B26" s="31">
+        <v>3200</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>443</v>
-      </c>
-      <c r="B27" s="32">
-        <v>15</v>
+        <v>442</v>
+      </c>
+      <c r="B27" s="31">
+        <v>4800</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>444</v>
-      </c>
-      <c r="B28" s="32">
-        <v>12</v>
+        <v>443</v>
+      </c>
+      <c r="B28" s="31">
+        <v>3840</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>445</v>
-      </c>
-      <c r="B29" s="32">
-        <v>12</v>
+        <v>444</v>
+      </c>
+      <c r="B29" s="31">
+        <v>3840</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>446</v>
-      </c>
-      <c r="B30" s="32">
-        <v>12</v>
+        <v>445</v>
+      </c>
+      <c r="B30" s="31">
+        <v>3840</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>447</v>
-      </c>
-      <c r="B31" s="32">
-        <v>20</v>
+        <v>446</v>
+      </c>
+      <c r="B31" s="31">
+        <v>6400</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>448</v>
-      </c>
-      <c r="B32" s="32">
-        <v>12</v>
+        <v>447</v>
+      </c>
+      <c r="B32" s="31">
+        <v>3840</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>449</v>
-      </c>
-      <c r="B33" s="32">
-        <v>7</v>
+        <v>448</v>
+      </c>
+      <c r="B33" s="31">
+        <v>2240</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>450</v>
-      </c>
-      <c r="B34" s="32">
-        <v>12</v>
+        <v>449</v>
+      </c>
+      <c r="B34" s="31">
+        <v>3840</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>451</v>
-      </c>
-      <c r="B35" s="32">
-        <v>12</v>
+        <v>450</v>
+      </c>
+      <c r="B35" s="31">
+        <v>3840</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>453</v>
-      </c>
-      <c r="B36" s="32">
-        <v>10</v>
+        <v>452</v>
+      </c>
+      <c r="B36" s="31">
+        <v>3200</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B36">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A36">
     <sortCondition ref="A3:A36"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/clientes/files/TODITICO_CATÁLOGO.xlsx
+++ b/clientes/files/TODITICO_CATÁLOGO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabajo\Catálogos Proformas\Este\320 Actual\Clientes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD0C86F-BABD-409C-AC68-3C16C4FE6388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD42A0D-F77E-4722-AF1E-3F2639224D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DAEWOO TICO" sheetId="1" r:id="rId1"/>
@@ -2671,8 +2671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A159" sqref="A159:B291"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
@@ -5010,7 +5010,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A291">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B291">
     <sortCondition ref="A2:A291"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5021,8 +5021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
@@ -5616,8 +5616,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A73">
-    <sortCondition ref="A3:A73"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B73">
+    <sortCondition ref="A2:A73"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5627,8 +5627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B169"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
@@ -6990,8 +6990,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A169">
-    <sortCondition ref="A3:A169"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B169">
+    <sortCondition ref="A2:A169"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7001,8 +7001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
@@ -7300,8 +7300,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A36">
-    <sortCondition ref="A3:A36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B36">
+    <sortCondition ref="A2:A36"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/clientes/files/TODITICO_CATÁLOGO.xlsx
+++ b/clientes/files/TODITICO_CATÁLOGO.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabajo\Catálogos Proformas\Este\320 Actual\Clientes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD42A0D-F77E-4722-AF1E-3F2639224D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C116CE9-A640-493F-B5C9-18681AB1DB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DAEWOO TICO" sheetId="1" r:id="rId1"/>
     <sheet name="HYUNDAI ATOS" sheetId="2" r:id="rId2"/>
     <sheet name="KIA PICANTO" sheetId="3" r:id="rId3"/>
-    <sheet name="ACEITES, LUBRICANTES Y OTROS" sheetId="4" r:id="rId4"/>
+    <sheet name="RENAULT SANDERO" sheetId="5" r:id="rId4"/>
+    <sheet name="ACEITES, LUBRICANTES Y OTROS" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="618">
   <si>
     <t>DESCRIPCION</t>
   </si>
@@ -124,9 +125,6 @@
   </si>
   <si>
     <t>CUBOS DE RUEDAS  DELANTEROS  PAREJA MOTOR 1.0</t>
-  </si>
-  <si>
-    <t>TENSOR DE CORREA DE DISTRIBUCION ATOS Y PICANTO 1ra, I10.</t>
   </si>
   <si>
     <t>BIELETAS PAREJA PICANTO 1RA, I10</t>
@@ -489,6 +487,7 @@
         <sz val="11"/>
         <color rgb="FF030303"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">PAREJA  </t>
     </r>
@@ -502,6 +501,7 @@
         <sz val="11"/>
         <color rgb="FF030303"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> PAREJA</t>
     </r>
@@ -515,6 +515,7 @@
         <sz val="11"/>
         <color rgb="FF131113"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">AIRE  </t>
     </r>
@@ -615,6 +616,7 @@
         <sz val="11"/>
         <color rgb="FF030303"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>PICANTO 2DA PAREJA</t>
     </r>
@@ -1704,6 +1706,255 @@
   </si>
   <si>
     <t>PRECIO CUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIGÜEÑAL </t>
+  </si>
+  <si>
+    <t>GRASA PARA RODAMIENTOS X 500 g</t>
+  </si>
+  <si>
+    <t>TRANSMISIÓN COMPLETA DERECHA E IZQUIERDA C/U</t>
+  </si>
+  <si>
+    <t>AFORADOR ATOS</t>
+  </si>
+  <si>
+    <t>AROS STD, 0.50 ATOS, PICANTO 1RA, I10</t>
+  </si>
+  <si>
+    <t>BOMBA DE COMBUSTIBLE ELECTRICA ATOS</t>
+  </si>
+  <si>
+    <t>BOMBA DE FRENO ATOS</t>
+  </si>
+  <si>
+    <t>BOVEDA  DELANTERA IZQUIERDA ATOS</t>
+  </si>
+  <si>
+    <t>BOVEDA DELANTERA DERECHA ATOS</t>
+  </si>
+  <si>
+    <t>CABLE DE ACELERADOR ATOS</t>
+  </si>
+  <si>
+    <t>CALZO DE LA CAJA DE VELOCIDAD ATOS</t>
+  </si>
+  <si>
+    <t>CALZO DE MOTOR DELANTERO ATOS</t>
+  </si>
+  <si>
+    <t>CALZO DE MOTOR TRASERO ATOS</t>
+  </si>
+  <si>
+    <t>CONMUTADOR ATOS</t>
+  </si>
+  <si>
+    <t>CREMALLERA DE DIRECCION ATOS</t>
+  </si>
+  <si>
+    <t>ESPIRAL DELANTERO ATOS</t>
+  </si>
+  <si>
+    <t>ESPIRAL TRASERO ATOS</t>
+  </si>
+  <si>
+    <t>JUNTAS DEL MOTOR ATOS 1.1</t>
+  </si>
+  <si>
+    <t>MANILLA DE VENTANILLA ATOS</t>
+  </si>
+  <si>
+    <t>MANILLAS EXTERIORES DELANTERAS Y TRASERAS ATOS C/U</t>
+  </si>
+  <si>
+    <t>METALES APOYO STD, 0:50, 0.25 ATOS, PICANTO 1RA, I10</t>
+  </si>
+  <si>
+    <t>METALES VIELA STD, 0.50, 0.25 ATOS, PICANTO 1RA, I10</t>
+  </si>
+  <si>
+    <t>MOTOR DE TANQUE DE AGUA DE LIMPIAPARABRISAS ATOS</t>
+  </si>
+  <si>
+    <t>OBTURADORES JUEGO ATOS, PICANTO 1RA, I10</t>
+  </si>
+  <si>
+    <t>PISTONES STD, 0.50 ATOS, PICANTO 1RA, I10</t>
+  </si>
+  <si>
+    <t>PORTACARBON DE MOTOR DE ARRANQUE ATOS, PICANTO 1RA, I10</t>
+  </si>
+  <si>
+    <t>PULMON DE ACEITE ATOS</t>
+  </si>
+  <si>
+    <t>PUNTA DE HOMOCINETICA INTERIOR ATOS</t>
+  </si>
+  <si>
+    <t>SENSOR DE POSICION DE CIGÜEÑAL ATOS, PICANTO 1RA</t>
+  </si>
+  <si>
+    <t>TAMBORA ATOS</t>
+  </si>
+  <si>
+    <t>TANQUE DE AGUA DE LIMPIAPARABRISAS ATOS</t>
+  </si>
+  <si>
+    <t>TAPA DE RADIADOR ATOS, PICANTO 1RA</t>
+  </si>
+  <si>
+    <t>TENSOR DE CORREA DE DISTRIBUCION ATOS, PICANTO 1RA, I10.</t>
+  </si>
+  <si>
+    <t>AROS STD, 0.50 PICANTO 1RA, ATOS, I10</t>
+  </si>
+  <si>
+    <t>BOTA DE CREMALLERA PICANTO 1RA Y 2DA</t>
+  </si>
+  <si>
+    <t>BUJIAS PICANTO 2DA Y 3RA</t>
+  </si>
+  <si>
+    <t>CABLE DE EMBRAGUE PICANTO 2DA</t>
+  </si>
+  <si>
+    <t>DISCO DE FRENO PICANTO 1RA Y 2DA</t>
+  </si>
+  <si>
+    <t>ESFERICAS PICANTO 1RA (DE ROSCA)</t>
+  </si>
+  <si>
+    <t>ESFERICAS PICANTO 2DA</t>
+  </si>
+  <si>
+    <t>METALES APOYO STD, 0.50, 0.25 PICANTO 1RA, ATOS, I10</t>
+  </si>
+  <si>
+    <t>METALES VIELA STD, 0.50, 0.25 PICANTO 1RA, ATOS, I10</t>
+  </si>
+  <si>
+    <t>OBTURADORES JUEGO PICANTO 1RA, ATOS, I10</t>
+  </si>
+  <si>
+    <t>PISTONES STD, 0.50 PICANTO 1RA, ATOS, I10</t>
+  </si>
+  <si>
+    <t>PORTACARBON DE MOTOR DE ARRANQUE PICANTO 1RA, ATOS, I10</t>
+  </si>
+  <si>
+    <t>PUNTA DE HOMOCINETICA INTERIOR PICANTO 1RA</t>
+  </si>
+  <si>
+    <t>SENSOR DE POSICION DE CIGÜEÑAL PICANTO 1RA, ATOS</t>
+  </si>
+  <si>
+    <t>SOLENOIDE MOTOR DE ARRANQUE PICANTO 1RA, ATOS, I10</t>
+  </si>
+  <si>
+    <t>TAPA DE RADIADOR PICANTO 1RA, ATOS</t>
+  </si>
+  <si>
+    <r>
+      <t>TERMOSTATO 82°C PICANTO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2DA Y 3RA, ACCENT, I10</t>
+    </r>
+  </si>
+  <si>
+    <t>BIELETA SANDERO C/U</t>
+  </si>
+  <si>
+    <t>BOBINA DE ENCENDIDO SANDERO C/U</t>
+  </si>
+  <si>
+    <t>BOMBA DE ACEITE SANDERO</t>
+  </si>
+  <si>
+    <t>BOMBA DE AGUA SANDERO</t>
+  </si>
+  <si>
+    <t>CORREA DE DISTRIBUCION SANDERO</t>
+  </si>
+  <si>
+    <t>CORREA DE LOS AGREGADOS SANDERO</t>
+  </si>
+  <si>
+    <t>CUBO DE RUEDA DEL SANDERO C/U</t>
+  </si>
+  <si>
+    <t>ESFERICA SANDERO C/U</t>
+  </si>
+  <si>
+    <t>FILTRO DE ACEITE SANDERO</t>
+  </si>
+  <si>
+    <t>FILTRO DE AIRE SANDERO</t>
+  </si>
+  <si>
+    <t>JUNTA DE ADMISION SANDERO</t>
+  </si>
+  <si>
+    <t>JUNTA DE BLOCK SANDERO</t>
+  </si>
+  <si>
+    <t>JUNTA DE CARTER SANDERO</t>
+  </si>
+  <si>
+    <t>JUNTA DE ESCAPE SANDERO</t>
+  </si>
+  <si>
+    <t>KIT DE DISTRIBUCION SANDERO</t>
+  </si>
+  <si>
+    <t>KIT DE JUNTAS DEL MOTOR SANDERO</t>
+  </si>
+  <si>
+    <t>OBTURADORES JGO SANDERO</t>
+  </si>
+  <si>
+    <t>PARRILLAS DELANTERAS SANDERO C/U</t>
+  </si>
+  <si>
+    <t>PASTILLAS DE FRENO SANDERO</t>
+  </si>
+  <si>
+    <t>RODAMIENTO DELANTERO  CON ABS SANDERO C/U</t>
+  </si>
+  <si>
+    <t>TENSOR DE CORREA DE DISTRIBUCION SANDERO</t>
+  </si>
+  <si>
+    <t>TENSOR LOCO DE CORREA DE DISTRIBUCION SANDERO</t>
+  </si>
+  <si>
+    <t>VALVULA DE ADMISION SANDERO</t>
+  </si>
+  <si>
+    <t>VALVULA DE ESCAPE SANDERO</t>
+  </si>
+  <si>
+    <t>YOQUIS SANDERO C/U</t>
+  </si>
+  <si>
+    <t>REFRIGERANTE AL 30% 5LT</t>
   </si>
 </sst>
 </file>
@@ -1714,7 +1965,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-280A]General"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1728,50 +1979,57 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF161616"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF131113"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF030303"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF232123"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0C0A0A"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="18"/>
@@ -1898,6 +2156,19 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -2208,81 +2479,72 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0"/>
+    <xf numFmtId="164" fontId="27" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="3" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
-    <xf numFmtId="164" fontId="28" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="3" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2293,14 +2555,8 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2312,17 +2568,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2330,7 +2577,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2342,16 +2589,36 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="45"/>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="46">
     <cellStyle name="20% - Énfasis1" xfId="9" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="13" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="17" builtinId="38" customBuiltin="1"/>
@@ -2392,6 +2659,7 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="32" xr:uid="{2EE8B4EC-D36D-4191-B1B1-5D6B79B67CDB}"/>
+    <cellStyle name="Normal 3 2" xfId="45" xr:uid="{E7E464D1-A853-4382-84DA-2EB595480E76}"/>
     <cellStyle name="Note 2" xfId="41" xr:uid="{05480AC8-7CE6-4493-9059-76695070FEBC}"/>
     <cellStyle name="Salida" xfId="5" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title 2" xfId="34" xr:uid="{ECA6EB64-49AC-4841-8FD4-8054B3948E49}"/>
@@ -2669,2343 +2937,2367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B291"/>
+  <dimension ref="A1:B294"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B291"/>
+    <sheetView topLeftCell="A283" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="84" customWidth="1"/>
-    <col min="2" max="2" width="11" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>542</v>
+      <c r="B1" s="24" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B2" s="31">
+        <v>189</v>
+      </c>
+      <c r="B2" s="22">
         <v>3200</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>473</v>
-      </c>
-      <c r="B3" s="31">
+        <v>472</v>
+      </c>
+      <c r="B3" s="22">
         <v>3840</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B4" s="31">
+        <v>190</v>
+      </c>
+      <c r="B4" s="22">
         <v>4800</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>516</v>
-      </c>
-      <c r="B5" s="31">
+        <v>515</v>
+      </c>
+      <c r="B5" s="22">
         <v>6400</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>517</v>
-      </c>
-      <c r="B6" s="31">
+        <v>516</v>
+      </c>
+      <c r="B6" s="22">
         <v>2240</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B7" s="31">
+        <v>191</v>
+      </c>
+      <c r="B7" s="22">
         <v>3200</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B8" s="31">
+        <v>192</v>
+      </c>
+      <c r="B8" s="22">
         <v>25600</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>518</v>
-      </c>
-      <c r="B9" s="31">
+        <v>517</v>
+      </c>
+      <c r="B9" s="22">
         <v>32000</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>194</v>
-      </c>
-      <c r="B10" s="31">
+        <v>193</v>
+      </c>
+      <c r="B10" s="22">
         <v>38400</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>195</v>
-      </c>
-      <c r="B11" s="31">
+        <v>194</v>
+      </c>
+      <c r="B11" s="22">
         <v>32000</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>196</v>
-      </c>
-      <c r="B12" s="31">
+        <v>195</v>
+      </c>
+      <c r="B12" s="22">
         <v>51200</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B13" s="31">
+        <v>198</v>
+      </c>
+      <c r="B13" s="22">
         <v>11200</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>197</v>
-      </c>
-      <c r="B14" s="31">
+        <v>196</v>
+      </c>
+      <c r="B14" s="22">
         <v>48000</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>198</v>
-      </c>
-      <c r="B15" s="31">
+        <v>197</v>
+      </c>
+      <c r="B15" s="22">
         <v>35200</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>200</v>
-      </c>
-      <c r="B16" s="31">
+        <v>199</v>
+      </c>
+      <c r="B16" s="22">
         <v>4800</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>201</v>
-      </c>
-      <c r="B17" s="31">
+        <v>200</v>
+      </c>
+      <c r="B17" s="22">
         <v>12800</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>202</v>
-      </c>
-      <c r="B18" s="31">
+        <v>201</v>
+      </c>
+      <c r="B18" s="22">
         <v>9600</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>519</v>
-      </c>
-      <c r="B19" s="31">
+        <v>518</v>
+      </c>
+      <c r="B19" s="22">
         <v>1600</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>203</v>
-      </c>
-      <c r="B20" s="31">
+        <v>202</v>
+      </c>
+      <c r="B20" s="22">
         <v>960</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>204</v>
-      </c>
-      <c r="B21" s="31">
+        <v>203</v>
+      </c>
+      <c r="B21" s="22">
         <v>4800</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>205</v>
-      </c>
-      <c r="B22" s="31">
+        <v>204</v>
+      </c>
+      <c r="B22" s="22">
         <v>38400</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>206</v>
-      </c>
-      <c r="B23" s="31">
+        <v>205</v>
+      </c>
+      <c r="B23" s="22">
         <v>16000</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>207</v>
-      </c>
-      <c r="B24" s="31">
+        <v>206</v>
+      </c>
+      <c r="B24" s="22">
         <v>3200</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>208</v>
-      </c>
-      <c r="B25" s="31">
+        <v>207</v>
+      </c>
+      <c r="B25" s="22">
         <v>28800</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>209</v>
-      </c>
-      <c r="B26" s="31">
+        <v>208</v>
+      </c>
+      <c r="B26" s="22">
         <v>11200</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>210</v>
-      </c>
-      <c r="B27" s="31">
+        <v>209</v>
+      </c>
+      <c r="B27" s="22">
         <v>3200</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>211</v>
-      </c>
-      <c r="B28" s="31">
+        <v>210</v>
+      </c>
+      <c r="B28" s="22">
         <v>48000</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>212</v>
-      </c>
-      <c r="B29" s="31">
+        <v>211</v>
+      </c>
+      <c r="B29" s="22">
         <v>38400</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>213</v>
-      </c>
-      <c r="B30" s="31">
+        <v>212</v>
+      </c>
+      <c r="B30" s="22">
         <v>54400</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>214</v>
-      </c>
-      <c r="B31" s="31">
+        <v>213</v>
+      </c>
+      <c r="B31" s="22">
         <v>9600</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>215</v>
-      </c>
-      <c r="B32" s="31">
+        <v>214</v>
+      </c>
+      <c r="B32" s="22">
         <v>19200</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B33" s="31">
+        <v>215</v>
+      </c>
+      <c r="B33" s="22">
         <v>9600</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>483</v>
-      </c>
-      <c r="B34" s="31">
+        <v>482</v>
+      </c>
+      <c r="B34" s="22">
         <v>25600</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>186</v>
-      </c>
-      <c r="B35" s="31">
+        <v>185</v>
+      </c>
+      <c r="B35" s="22">
         <v>32000</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>217</v>
-      </c>
-      <c r="B36" s="31">
+        <v>216</v>
+      </c>
+      <c r="B36" s="22">
         <v>8000</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>471</v>
-      </c>
-      <c r="B37" s="31">
+        <v>470</v>
+      </c>
+      <c r="B37" s="22">
         <v>16000</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>459</v>
-      </c>
-      <c r="B38" s="31">
+        <v>458</v>
+      </c>
+      <c r="B38" s="22">
         <v>3840</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>218</v>
-      </c>
-      <c r="B39" s="31">
+        <v>217</v>
+      </c>
+      <c r="B39" s="22">
         <v>12800</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>219</v>
-      </c>
-      <c r="B40" s="31">
+        <v>218</v>
+      </c>
+      <c r="B40" s="22">
         <v>25600</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>220</v>
-      </c>
-      <c r="B41" s="31">
+        <v>219</v>
+      </c>
+      <c r="B41" s="22">
         <v>14400</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>221</v>
-      </c>
-      <c r="B42" s="31">
+        <v>220</v>
+      </c>
+      <c r="B42" s="22">
         <v>19200</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>222</v>
-      </c>
-      <c r="B43" s="31">
+        <v>221</v>
+      </c>
+      <c r="B43" s="22">
         <v>14400</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>223</v>
-      </c>
-      <c r="B44" s="31">
+        <v>222</v>
+      </c>
+      <c r="B44" s="22">
         <v>6400</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>456</v>
-      </c>
-      <c r="B45" s="31">
+        <v>455</v>
+      </c>
+      <c r="B45" s="22">
         <v>320</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>457</v>
-      </c>
-      <c r="B46" s="31">
+        <v>456</v>
+      </c>
+      <c r="B46" s="22">
         <v>320</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>451</v>
-      </c>
-      <c r="B47" s="31">
+        <v>450</v>
+      </c>
+      <c r="B47" s="22">
         <v>320</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>482</v>
-      </c>
-      <c r="B48" s="31">
+        <v>481</v>
+      </c>
+      <c r="B48" s="22">
         <v>3200</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>224</v>
-      </c>
-      <c r="B49" s="31">
+        <v>223</v>
+      </c>
+      <c r="B49" s="22">
         <v>32000</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>225</v>
-      </c>
-      <c r="B50" s="31">
+        <v>224</v>
+      </c>
+      <c r="B50" s="22">
         <v>4800</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>226</v>
-      </c>
-      <c r="B51" s="31">
+        <v>225</v>
+      </c>
+      <c r="B51" s="22">
         <v>3200</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="B52" s="31">
+        <v>428</v>
+      </c>
+      <c r="B52" s="22">
         <v>3200</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="B53" s="31">
+        <v>429</v>
+      </c>
+      <c r="B53" s="22">
         <v>3200</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>227</v>
-      </c>
-      <c r="B54" s="31">
+        <v>226</v>
+      </c>
+      <c r="B54" s="22">
         <v>19200</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>228</v>
-      </c>
-      <c r="B55" s="31">
+        <v>227</v>
+      </c>
+      <c r="B55" s="22">
         <v>12800</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>229</v>
-      </c>
-      <c r="B56" s="31">
+        <v>228</v>
+      </c>
+      <c r="B56" s="22">
         <v>6400</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>230</v>
-      </c>
-      <c r="B57" s="31">
+        <v>229</v>
+      </c>
+      <c r="B57" s="22">
         <v>4800</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>231</v>
-      </c>
-      <c r="B58" s="31">
+        <v>230</v>
+      </c>
+      <c r="B58" s="22">
         <v>6400</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>232</v>
-      </c>
-      <c r="B59" s="31">
+        <v>231</v>
+      </c>
+      <c r="B59" s="22">
         <v>4800</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>233</v>
-      </c>
-      <c r="B60" s="31">
+        <v>232</v>
+      </c>
+      <c r="B60" s="22">
         <v>3200</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>234</v>
-      </c>
-      <c r="B61" s="31">
+        <v>233</v>
+      </c>
+      <c r="B61" s="22">
         <v>1600</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>235</v>
-      </c>
-      <c r="B62" s="31">
+        <v>234</v>
+      </c>
+      <c r="B62" s="22">
         <v>4800</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>237</v>
-      </c>
-      <c r="B63" s="31">
+        <v>236</v>
+      </c>
+      <c r="B63" s="22">
         <v>3200</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>241</v>
-      </c>
-      <c r="B64" s="31">
+        <v>240</v>
+      </c>
+      <c r="B64" s="22">
         <v>640</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>238</v>
-      </c>
-      <c r="B65" s="31">
+        <v>237</v>
+      </c>
+      <c r="B65" s="22">
         <v>4800</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>239</v>
-      </c>
-      <c r="B66" s="31">
+        <v>238</v>
+      </c>
+      <c r="B66" s="22">
         <v>4800</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>240</v>
-      </c>
-      <c r="B67" s="31">
+        <v>239</v>
+      </c>
+      <c r="B67" s="22">
         <v>3200</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>535</v>
-      </c>
-      <c r="B68" s="31">
+        <v>534</v>
+      </c>
+      <c r="B68" s="22">
         <v>3200</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>236</v>
-      </c>
-      <c r="B69" s="31">
+        <v>235</v>
+      </c>
+      <c r="B69" s="22">
         <v>2240</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>242</v>
-      </c>
-      <c r="B70" s="31">
+        <v>241</v>
+      </c>
+      <c r="B70" s="22">
         <v>3200</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>243</v>
-      </c>
-      <c r="B71" s="31">
+        <v>242</v>
+      </c>
+      <c r="B71" s="22">
         <v>4800</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>244</v>
-      </c>
-      <c r="B72" s="31">
+        <v>243</v>
+      </c>
+      <c r="B72" s="22">
         <v>6400</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>245</v>
-      </c>
-      <c r="B73" s="31">
+        <v>244</v>
+      </c>
+      <c r="B73" s="22">
         <v>8000</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>246</v>
-      </c>
-      <c r="B74" s="31">
+        <v>245</v>
+      </c>
+      <c r="B74" s="22">
         <v>6400</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>247</v>
-      </c>
-      <c r="B75" s="31">
+        <v>246</v>
+      </c>
+      <c r="B75" s="22">
         <v>14400</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>248</v>
-      </c>
-      <c r="B76" s="31">
+        <v>247</v>
+      </c>
+      <c r="B76" s="22">
         <v>8000</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>249</v>
-      </c>
-      <c r="B77" s="31">
+        <v>248</v>
+      </c>
+      <c r="B77" s="22">
         <v>8000</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>250</v>
-      </c>
-      <c r="B78" s="31">
+        <v>249</v>
+      </c>
+      <c r="B78" s="22">
         <v>3200</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>469</v>
-      </c>
-      <c r="B79" s="31">
+        <v>468</v>
+      </c>
+      <c r="B79" s="22">
         <v>4800</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>470</v>
-      </c>
-      <c r="B80" s="31">
+        <v>469</v>
+      </c>
+      <c r="B80" s="22">
         <v>9600</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>251</v>
-      </c>
-      <c r="B81" s="31">
+        <v>250</v>
+      </c>
+      <c r="B81" s="22">
         <v>16000</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>252</v>
-      </c>
-      <c r="B82" s="31">
+        <v>251</v>
+      </c>
+      <c r="B82" s="22">
         <v>22400</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>253</v>
-      </c>
-      <c r="B83" s="31">
+        <v>252</v>
+      </c>
+      <c r="B83" s="22">
         <v>32000</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>254</v>
-      </c>
-      <c r="B84" s="31">
+        <v>253</v>
+      </c>
+      <c r="B84" s="22">
         <v>112000</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>255</v>
-      </c>
-      <c r="B85" s="31">
+        <v>254</v>
+      </c>
+      <c r="B85" s="22">
         <v>3200</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>256</v>
-      </c>
-      <c r="B86" s="31">
+        <v>255</v>
+      </c>
+      <c r="B86" s="22">
         <v>96000</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>257</v>
-      </c>
-      <c r="B87" s="31">
+        <v>256</v>
+      </c>
+      <c r="B87" s="22">
         <v>16000</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>460</v>
-      </c>
-      <c r="B88" s="31">
+        <v>459</v>
+      </c>
+      <c r="B88" s="22">
         <v>22400</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>258</v>
-      </c>
-      <c r="B89" s="31">
+        <v>257</v>
+      </c>
+      <c r="B89" s="22">
         <v>16000</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>259</v>
-      </c>
-      <c r="B90" s="31">
+        <v>258</v>
+      </c>
+      <c r="B90" s="22">
         <v>25600</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>260</v>
-      </c>
-      <c r="B91" s="31">
+        <v>259</v>
+      </c>
+      <c r="B91" s="22">
         <v>8000</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>476</v>
-      </c>
-      <c r="B92" s="31">
+        <v>475</v>
+      </c>
+      <c r="B92" s="22">
         <v>8000</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>261</v>
-      </c>
-      <c r="B93" s="31">
+        <v>260</v>
+      </c>
+      <c r="B93" s="22">
         <v>8000</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>262</v>
-      </c>
-      <c r="B94" s="31">
-        <v>11200</v>
+        <v>542</v>
+      </c>
+      <c r="B94" s="22">
+        <v>80000</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>263</v>
-      </c>
-      <c r="B95" s="31">
-        <v>22400</v>
+        <v>261</v>
+      </c>
+      <c r="B95" s="22">
+        <v>11200</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>264</v>
-      </c>
-      <c r="B96" s="31">
-        <v>16000</v>
+        <v>262</v>
+      </c>
+      <c r="B96" s="22">
+        <v>22400</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>265</v>
-      </c>
-      <c r="B97" s="31">
-        <v>38400</v>
+        <v>263</v>
+      </c>
+      <c r="B97" s="22">
+        <v>16000</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>266</v>
-      </c>
-      <c r="B98" s="31">
-        <v>9600</v>
+        <v>264</v>
+      </c>
+      <c r="B98" s="22">
+        <v>38400</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>267</v>
-      </c>
-      <c r="B99" s="31">
-        <v>19200</v>
+        <v>265</v>
+      </c>
+      <c r="B99" s="22">
+        <v>9600</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>461</v>
-      </c>
-      <c r="B100" s="31">
-        <v>3200</v>
+        <v>266</v>
+      </c>
+      <c r="B100" s="22">
+        <v>19200</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>268</v>
-      </c>
-      <c r="B101" s="31">
-        <v>6400</v>
+        <v>460</v>
+      </c>
+      <c r="B101" s="22">
+        <v>3200</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>269</v>
-      </c>
-      <c r="B102" s="31">
-        <v>4800</v>
+        <v>267</v>
+      </c>
+      <c r="B102" s="22">
+        <v>6400</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>270</v>
-      </c>
-      <c r="B103" s="31">
-        <v>6400</v>
+        <v>268</v>
+      </c>
+      <c r="B103" s="22">
+        <v>4800</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>271</v>
-      </c>
-      <c r="B104" s="31">
-        <v>19200</v>
+        <v>269</v>
+      </c>
+      <c r="B104" s="22">
+        <v>6400</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>272</v>
-      </c>
-      <c r="B105" s="31">
-        <v>48000</v>
+        <v>270</v>
+      </c>
+      <c r="B105" s="22">
+        <v>19200</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>273</v>
-      </c>
-      <c r="B106" s="31">
-        <v>12800</v>
+        <v>271</v>
+      </c>
+      <c r="B106" s="22">
+        <v>48000</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>484</v>
-      </c>
-      <c r="B107" s="31">
-        <v>32000</v>
+        <v>272</v>
+      </c>
+      <c r="B107" s="22">
+        <v>12800</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>274</v>
-      </c>
-      <c r="B108" s="31">
-        <v>8000</v>
+        <v>483</v>
+      </c>
+      <c r="B108" s="22">
+        <v>32000</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>275</v>
-      </c>
-      <c r="B109" s="31">
-        <v>144000</v>
+        <v>273</v>
+      </c>
+      <c r="B109" s="22">
+        <v>8000</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>276</v>
-      </c>
-      <c r="B110" s="31">
-        <v>57600</v>
+        <v>274</v>
+      </c>
+      <c r="B110" s="22">
+        <v>144000</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>513</v>
-      </c>
-      <c r="B111" s="31">
-        <v>3200</v>
+        <v>275</v>
+      </c>
+      <c r="B111" s="22">
+        <v>57600</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>514</v>
-      </c>
-      <c r="B112" s="31">
-        <v>9600</v>
+        <v>512</v>
+      </c>
+      <c r="B112" s="22">
+        <v>3200</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>515</v>
-      </c>
-      <c r="B113" s="31">
+        <v>513</v>
+      </c>
+      <c r="B113" s="22">
         <v>9600</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>277</v>
-      </c>
-      <c r="B114" s="31">
-        <v>19200</v>
+        <v>514</v>
+      </c>
+      <c r="B114" s="22">
+        <v>9600</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>278</v>
-      </c>
-      <c r="B115" s="31">
-        <v>38400</v>
+        <v>276</v>
+      </c>
+      <c r="B115" s="22">
+        <v>19200</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>279</v>
-      </c>
-      <c r="B116" s="31">
-        <v>8000</v>
+        <v>277</v>
+      </c>
+      <c r="B116" s="22">
+        <v>38400</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>281</v>
-      </c>
-      <c r="B117" s="31">
-        <v>25600</v>
+        <v>278</v>
+      </c>
+      <c r="B117" s="22">
+        <v>8000</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>472</v>
-      </c>
-      <c r="B118" s="31">
-        <v>80000</v>
+        <v>280</v>
+      </c>
+      <c r="B118" s="22">
+        <v>25600</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>15</v>
-      </c>
-      <c r="B119" s="31">
-        <v>38400</v>
+        <v>471</v>
+      </c>
+      <c r="B119" s="22">
+        <v>80000</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>282</v>
-      </c>
-      <c r="B120" s="31">
-        <v>6400</v>
+        <v>15</v>
+      </c>
+      <c r="B120" s="22">
+        <v>38400</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>280</v>
-      </c>
-      <c r="B121" s="31">
-        <v>4800</v>
+        <v>281</v>
+      </c>
+      <c r="B121" s="22">
+        <v>6400</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>283</v>
-      </c>
-      <c r="B122" s="31">
-        <v>16000</v>
+        <v>279</v>
+      </c>
+      <c r="B122" s="22">
+        <v>4800</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>284</v>
-      </c>
-      <c r="B123" s="31">
-        <v>19200</v>
+        <v>282</v>
+      </c>
+      <c r="B123" s="22">
+        <v>16000</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>285</v>
-      </c>
-      <c r="B124" s="31">
+        <v>283</v>
+      </c>
+      <c r="B124" s="22">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>284</v>
+      </c>
+      <c r="B125" s="22">
         <v>32000</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B125" s="31">
+    <row r="126" spans="1:2">
+      <c r="A126" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B126" s="22">
         <v>4800</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
-        <v>286</v>
-      </c>
-      <c r="B126" s="31">
-        <v>16000</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>287</v>
-      </c>
-      <c r="B127" s="31">
-        <v>22400</v>
+        <v>285</v>
+      </c>
+      <c r="B127" s="22">
+        <v>16000</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>288</v>
-      </c>
-      <c r="B128" s="31">
-        <v>3200</v>
+        <v>286</v>
+      </c>
+      <c r="B128" s="22">
+        <v>22400</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>289</v>
-      </c>
-      <c r="B129" s="31">
+        <v>287</v>
+      </c>
+      <c r="B129" s="22">
         <v>3200</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>290</v>
-      </c>
-      <c r="B130" s="31">
+        <v>288</v>
+      </c>
+      <c r="B130" s="22">
         <v>3200</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>294</v>
-      </c>
-      <c r="B131" s="31">
-        <v>9600</v>
+        <v>289</v>
+      </c>
+      <c r="B131" s="22">
+        <v>3200</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>295</v>
-      </c>
-      <c r="B132" s="31">
-        <v>28800</v>
+        <v>293</v>
+      </c>
+      <c r="B132" s="22">
+        <v>9600</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>296</v>
-      </c>
-      <c r="B133" s="31">
-        <v>16000</v>
+        <v>294</v>
+      </c>
+      <c r="B133" s="22">
+        <v>28800</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>291</v>
-      </c>
-      <c r="B134" s="31">
-        <v>3200</v>
+        <v>295</v>
+      </c>
+      <c r="B134" s="22">
+        <v>16000</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>292</v>
-      </c>
-      <c r="B135" s="31">
-        <v>9600</v>
+        <v>290</v>
+      </c>
+      <c r="B135" s="22">
+        <v>3200</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>520</v>
-      </c>
-      <c r="B136" s="31">
-        <v>6400</v>
+        <v>291</v>
+      </c>
+      <c r="B136" s="22">
+        <v>9600</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>293</v>
-      </c>
-      <c r="B137" s="31">
-        <v>38400</v>
+        <v>519</v>
+      </c>
+      <c r="B137" s="22">
+        <v>6400</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>297</v>
-      </c>
-      <c r="B138" s="31">
-        <v>4800</v>
+        <v>292</v>
+      </c>
+      <c r="B138" s="22">
+        <v>38400</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>298</v>
-      </c>
-      <c r="B139" s="31">
-        <v>22400</v>
+        <v>296</v>
+      </c>
+      <c r="B139" s="22">
+        <v>4800</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>299</v>
-      </c>
-      <c r="B140" s="31">
-        <v>6400</v>
+        <v>297</v>
+      </c>
+      <c r="B140" s="22">
+        <v>22400</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>300</v>
-      </c>
-      <c r="B141" s="31">
-        <v>1600</v>
+        <v>298</v>
+      </c>
+      <c r="B141" s="22">
+        <v>6400</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>301</v>
-      </c>
-      <c r="B142" s="31">
-        <v>32000</v>
+        <v>543</v>
+      </c>
+      <c r="B142" s="22">
+        <v>3200</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>302</v>
-      </c>
-      <c r="B143" s="31">
-        <v>19200</v>
+        <v>299</v>
+      </c>
+      <c r="B143" s="22">
+        <v>1600</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>303</v>
-      </c>
-      <c r="B144" s="31">
-        <v>9600</v>
+        <v>300</v>
+      </c>
+      <c r="B144" s="22">
+        <v>32000</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>304</v>
-      </c>
-      <c r="B145" s="31">
-        <v>32000</v>
+        <v>301</v>
+      </c>
+      <c r="B145" s="22">
+        <v>19200</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>305</v>
-      </c>
-      <c r="B146" s="31">
+        <v>302</v>
+      </c>
+      <c r="B146" s="22">
         <v>9600</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>306</v>
-      </c>
-      <c r="B147" s="31">
-        <v>3200</v>
+        <v>303</v>
+      </c>
+      <c r="B147" s="22">
+        <v>32000</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>307</v>
-      </c>
-      <c r="B148" s="31">
-        <v>4800</v>
+        <v>304</v>
+      </c>
+      <c r="B148" s="22">
+        <v>9600</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>308</v>
-      </c>
-      <c r="B149" s="31">
-        <v>9600</v>
+        <v>305</v>
+      </c>
+      <c r="B149" s="22">
+        <v>3200</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>309</v>
-      </c>
-      <c r="B150" s="31">
-        <v>3200</v>
+        <v>306</v>
+      </c>
+      <c r="B150" s="22">
+        <v>4800</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>474</v>
-      </c>
-      <c r="B151" s="31">
-        <v>3200</v>
+        <v>307</v>
+      </c>
+      <c r="B151" s="22">
+        <v>9600</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>475</v>
-      </c>
-      <c r="B152" s="31">
+        <v>308</v>
+      </c>
+      <c r="B152" s="22">
         <v>3200</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>310</v>
-      </c>
-      <c r="B153" s="31">
-        <v>6400</v>
+        <v>473</v>
+      </c>
+      <c r="B153" s="22">
+        <v>3200</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>312</v>
-      </c>
-      <c r="B154" s="31">
-        <v>640</v>
+        <v>474</v>
+      </c>
+      <c r="B154" s="22">
+        <v>3200</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>311</v>
-      </c>
-      <c r="B155" s="31">
+        <v>309</v>
+      </c>
+      <c r="B155" s="22">
         <v>6400</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>313</v>
-      </c>
-      <c r="B156" s="31">
-        <v>16000</v>
+        <v>311</v>
+      </c>
+      <c r="B156" s="22">
+        <v>640</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>314</v>
-      </c>
-      <c r="B157" s="31">
-        <v>12800</v>
+        <v>310</v>
+      </c>
+      <c r="B157" s="22">
+        <v>6400</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>521</v>
-      </c>
-      <c r="B158" s="31">
-        <v>48000</v>
+        <v>312</v>
+      </c>
+      <c r="B158" s="22">
+        <v>16000</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>315</v>
-      </c>
-      <c r="B159" s="31">
-        <v>28800</v>
+        <v>313</v>
+      </c>
+      <c r="B159" s="22">
+        <v>12800</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>316</v>
-      </c>
-      <c r="B160" s="31">
-        <v>3840</v>
+        <v>520</v>
+      </c>
+      <c r="B160" s="22">
+        <v>48000</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>317</v>
-      </c>
-      <c r="B161" s="31">
-        <v>4800</v>
+        <v>314</v>
+      </c>
+      <c r="B161" s="22">
+        <v>28800</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>524</v>
-      </c>
-      <c r="B162" s="31">
-        <v>128000</v>
+        <v>315</v>
+      </c>
+      <c r="B162" s="22">
+        <v>3840</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>318</v>
-      </c>
-      <c r="B163" s="31">
-        <v>176000</v>
+        <v>316</v>
+      </c>
+      <c r="B163" s="22">
+        <v>4800</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>319</v>
-      </c>
-      <c r="B164" s="31">
-        <v>1920</v>
+        <v>523</v>
+      </c>
+      <c r="B164" s="22">
+        <v>128000</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>320</v>
-      </c>
-      <c r="B165" s="31">
-        <v>3200</v>
+        <v>317</v>
+      </c>
+      <c r="B165" s="22">
+        <v>176000</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>462</v>
-      </c>
-      <c r="B166" s="31">
-        <v>6400</v>
+        <v>318</v>
+      </c>
+      <c r="B166" s="22">
+        <v>1920</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>321</v>
-      </c>
-      <c r="B167" s="31">
-        <v>4800</v>
+        <v>319</v>
+      </c>
+      <c r="B167" s="22">
+        <v>3200</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>463</v>
-      </c>
-      <c r="B168" s="31">
-        <v>1600</v>
+        <v>461</v>
+      </c>
+      <c r="B168" s="22">
+        <v>6400</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>322</v>
-      </c>
-      <c r="B169" s="31">
+        <v>320</v>
+      </c>
+      <c r="B169" s="22">
         <v>4800</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>323</v>
-      </c>
-      <c r="B170" s="31">
-        <v>22400</v>
+        <v>462</v>
+      </c>
+      <c r="B170" s="22">
+        <v>1600</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>324</v>
-      </c>
-      <c r="B171" s="31">
-        <v>3200</v>
+        <v>321</v>
+      </c>
+      <c r="B171" s="22">
+        <v>4800</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>325</v>
-      </c>
-      <c r="B172" s="31">
-        <v>3200</v>
+        <v>322</v>
+      </c>
+      <c r="B172" s="22">
+        <v>22400</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>326</v>
-      </c>
-      <c r="B173" s="31">
-        <v>6400</v>
+        <v>323</v>
+      </c>
+      <c r="B173" s="22">
+        <v>3200</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>327</v>
-      </c>
-      <c r="B174" s="31">
+        <v>324</v>
+      </c>
+      <c r="B174" s="22">
         <v>3200</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>328</v>
-      </c>
-      <c r="B175" s="31">
-        <v>3200</v>
+        <v>325</v>
+      </c>
+      <c r="B175" s="22">
+        <v>6400</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>329</v>
-      </c>
-      <c r="B176" s="31">
+        <v>326</v>
+      </c>
+      <c r="B176" s="22">
         <v>3200</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>330</v>
-      </c>
-      <c r="B177" s="31">
-        <v>16000</v>
+        <v>327</v>
+      </c>
+      <c r="B177" s="22">
+        <v>3200</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>527</v>
-      </c>
-      <c r="B178" s="31">
-        <v>1600</v>
+        <v>328</v>
+      </c>
+      <c r="B178" s="22">
+        <v>3200</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>522</v>
-      </c>
-      <c r="B179" s="31">
-        <v>1600</v>
+        <v>329</v>
+      </c>
+      <c r="B179" s="22">
+        <v>16000</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>331</v>
-      </c>
-      <c r="B180" s="31">
-        <v>9600</v>
+        <v>526</v>
+      </c>
+      <c r="B180" s="22">
+        <v>1600</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>332</v>
-      </c>
-      <c r="B181" s="31">
-        <v>2240</v>
+        <v>521</v>
+      </c>
+      <c r="B181" s="22">
+        <v>1600</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>333</v>
-      </c>
-      <c r="B182" s="31">
-        <v>89600</v>
+        <v>330</v>
+      </c>
+      <c r="B182" s="22">
+        <v>9600</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>334</v>
-      </c>
-      <c r="B183" s="31">
-        <v>48000</v>
+        <v>331</v>
+      </c>
+      <c r="B183" s="22">
+        <v>2240</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>464</v>
-      </c>
-      <c r="B184" s="31">
-        <v>25600</v>
+        <v>332</v>
+      </c>
+      <c r="B184" s="22">
+        <v>89600</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>335</v>
-      </c>
-      <c r="B185" s="31">
-        <v>9600</v>
+        <v>333</v>
+      </c>
+      <c r="B185" s="22">
+        <v>48000</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>336</v>
-      </c>
-      <c r="B186" s="31">
-        <v>48000</v>
+        <v>463</v>
+      </c>
+      <c r="B186" s="22">
+        <v>25600</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>337</v>
-      </c>
-      <c r="B187" s="31">
-        <v>3200</v>
+        <v>334</v>
+      </c>
+      <c r="B187" s="22">
+        <v>9600</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>338</v>
-      </c>
-      <c r="B188" s="31">
-        <v>3200</v>
+        <v>335</v>
+      </c>
+      <c r="B188" s="22">
+        <v>48000</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>339</v>
-      </c>
-      <c r="B189" s="31">
-        <v>6400</v>
+        <v>336</v>
+      </c>
+      <c r="B189" s="22">
+        <v>3200</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>340</v>
-      </c>
-      <c r="B190" s="31">
-        <v>32000</v>
+        <v>337</v>
+      </c>
+      <c r="B190" s="22">
+        <v>3200</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>341</v>
-      </c>
-      <c r="B191" s="31">
-        <v>38400</v>
+        <v>338</v>
+      </c>
+      <c r="B191" s="22">
+        <v>6400</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>342</v>
-      </c>
-      <c r="B192" s="31">
-        <v>96000</v>
+        <v>339</v>
+      </c>
+      <c r="B192" s="22">
+        <v>32000</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>343</v>
-      </c>
-      <c r="B193" s="31">
-        <v>51200</v>
+        <v>340</v>
+      </c>
+      <c r="B193" s="22">
+        <v>38400</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>344</v>
-      </c>
-      <c r="B194" s="31">
-        <v>35200</v>
+        <v>341</v>
+      </c>
+      <c r="B194" s="22">
+        <v>96000</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>345</v>
-      </c>
-      <c r="B195" s="31">
+        <v>342</v>
+      </c>
+      <c r="B195" s="22">
         <v>51200</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>346</v>
-      </c>
-      <c r="B196" s="31">
-        <v>9600</v>
+        <v>343</v>
+      </c>
+      <c r="B196" s="22">
+        <v>35200</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>347</v>
-      </c>
-      <c r="B197" s="31">
-        <v>54400</v>
+        <v>344</v>
+      </c>
+      <c r="B197" s="22">
+        <v>51200</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>348</v>
-      </c>
-      <c r="B198" s="31">
-        <v>25600</v>
+        <v>345</v>
+      </c>
+      <c r="B198" s="22">
+        <v>9600</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>349</v>
-      </c>
-      <c r="B199" s="31">
-        <v>70400</v>
+        <v>346</v>
+      </c>
+      <c r="B199" s="22">
+        <v>54400</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>350</v>
-      </c>
-      <c r="B200" s="31">
-        <v>28800</v>
+        <v>347</v>
+      </c>
+      <c r="B200" s="22">
+        <v>25600</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>351</v>
-      </c>
-      <c r="B201" s="31">
-        <v>8000</v>
+        <v>348</v>
+      </c>
+      <c r="B201" s="22">
+        <v>70400</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>352</v>
-      </c>
-      <c r="B202" s="31">
-        <v>22400</v>
+        <v>349</v>
+      </c>
+      <c r="B202" s="22">
+        <v>28800</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>353</v>
-      </c>
-      <c r="B203" s="31">
+        <v>350</v>
+      </c>
+      <c r="B203" s="22">
         <v>8000</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>354</v>
-      </c>
-      <c r="B204" s="31">
-        <v>3200</v>
+        <v>351</v>
+      </c>
+      <c r="B204" s="22">
+        <v>22400</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>525</v>
-      </c>
-      <c r="B205" s="31">
-        <v>6400</v>
+        <v>352</v>
+      </c>
+      <c r="B205" s="22">
+        <v>8000</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>526</v>
-      </c>
-      <c r="B206" s="31">
-        <v>6400</v>
+        <v>353</v>
+      </c>
+      <c r="B206" s="22">
+        <v>3200</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>355</v>
-      </c>
-      <c r="B207" s="31">
-        <v>9600</v>
+        <v>524</v>
+      </c>
+      <c r="B207" s="22">
+        <v>6400</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>356</v>
-      </c>
-      <c r="B208" s="31">
-        <v>9600</v>
+        <v>525</v>
+      </c>
+      <c r="B208" s="22">
+        <v>6400</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>357</v>
-      </c>
-      <c r="B209" s="31">
-        <v>19200</v>
+        <v>354</v>
+      </c>
+      <c r="B209" s="22">
+        <v>9600</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>466</v>
-      </c>
-      <c r="B210" s="31">
-        <v>12800</v>
+        <v>355</v>
+      </c>
+      <c r="B210" s="22">
+        <v>9600</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>358</v>
-      </c>
-      <c r="B211" s="31">
-        <v>9600</v>
+        <v>356</v>
+      </c>
+      <c r="B211" s="22">
+        <v>19200</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>359</v>
-      </c>
-      <c r="B212" s="31">
-        <v>6400</v>
+        <v>465</v>
+      </c>
+      <c r="B212" s="22">
+        <v>12800</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>360</v>
-      </c>
-      <c r="B213" s="31">
-        <v>6400</v>
+        <v>357</v>
+      </c>
+      <c r="B213" s="22">
+        <v>9600</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>361</v>
-      </c>
-      <c r="B214" s="31">
-        <v>48000</v>
+        <v>358</v>
+      </c>
+      <c r="B214" s="22">
+        <v>6400</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>362</v>
-      </c>
-      <c r="B215" s="31">
-        <v>112000</v>
+        <v>359</v>
+      </c>
+      <c r="B215" s="22">
+        <v>6400</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>363</v>
-      </c>
-      <c r="B216" s="31">
-        <v>6400</v>
+        <v>360</v>
+      </c>
+      <c r="B216" s="22">
+        <v>48000</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>364</v>
-      </c>
-      <c r="B217" s="31">
-        <v>6400</v>
+        <v>361</v>
+      </c>
+      <c r="B217" s="22">
+        <v>112000</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>365</v>
-      </c>
-      <c r="B218" s="31">
-        <v>4800</v>
+        <v>362</v>
+      </c>
+      <c r="B218" s="22">
+        <v>6400</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>366</v>
-      </c>
-      <c r="B219" s="31">
-        <v>9600</v>
+        <v>363</v>
+      </c>
+      <c r="B219" s="22">
+        <v>6400</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>367</v>
-      </c>
-      <c r="B220" s="31">
+        <v>364</v>
+      </c>
+      <c r="B220" s="22">
         <v>4800</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>368</v>
-      </c>
-      <c r="B221" s="31">
-        <v>22400</v>
+        <v>365</v>
+      </c>
+      <c r="B221" s="22">
+        <v>9600</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>369</v>
-      </c>
-      <c r="B222" s="31">
-        <v>12800</v>
+        <v>366</v>
+      </c>
+      <c r="B222" s="22">
+        <v>4800</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>370</v>
-      </c>
-      <c r="B223" s="31">
-        <v>32000</v>
+        <v>367</v>
+      </c>
+      <c r="B223" s="22">
+        <v>22400</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>371</v>
-      </c>
-      <c r="B224" s="31">
-        <v>22400</v>
+        <v>368</v>
+      </c>
+      <c r="B224" s="22">
+        <v>12800</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>372</v>
-      </c>
-      <c r="B225" s="31">
-        <v>4800</v>
+        <v>369</v>
+      </c>
+      <c r="B225" s="22">
+        <v>32000</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>373</v>
-      </c>
-      <c r="B226" s="31">
-        <v>41600</v>
+        <v>370</v>
+      </c>
+      <c r="B226" s="22">
+        <v>22400</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>374</v>
-      </c>
-      <c r="B227" s="31">
-        <v>64000</v>
+        <v>371</v>
+      </c>
+      <c r="B227" s="22">
+        <v>4800</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>375</v>
-      </c>
-      <c r="B228" s="31">
-        <v>9600</v>
+        <v>372</v>
+      </c>
+      <c r="B228" s="22">
+        <v>41600</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>376</v>
-      </c>
-      <c r="B229" s="31">
-        <v>4800</v>
+        <v>373</v>
+      </c>
+      <c r="B229" s="22">
+        <v>64000</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>377</v>
-      </c>
-      <c r="B230" s="31">
-        <v>20800</v>
+        <v>374</v>
+      </c>
+      <c r="B230" s="22">
+        <v>9600</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>378</v>
-      </c>
-      <c r="B231" s="31">
-        <v>30400</v>
+        <v>375</v>
+      </c>
+      <c r="B231" s="22">
+        <v>4800</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>379</v>
-      </c>
-      <c r="B232" s="31">
-        <v>3200</v>
+        <v>376</v>
+      </c>
+      <c r="B232" s="22">
+        <v>20800</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>380</v>
-      </c>
-      <c r="B233" s="31">
-        <v>6400</v>
+        <v>377</v>
+      </c>
+      <c r="B233" s="22">
+        <v>30400</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>381</v>
-      </c>
-      <c r="B234" s="31">
+        <v>378</v>
+      </c>
+      <c r="B234" s="22">
         <v>3200</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>382</v>
-      </c>
-      <c r="B235" s="31">
-        <v>3200</v>
+        <v>379</v>
+      </c>
+      <c r="B235" s="22">
+        <v>6400</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>383</v>
-      </c>
-      <c r="B236" s="31">
+        <v>380</v>
+      </c>
+      <c r="B236" s="22">
         <v>3200</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>384</v>
-      </c>
-      <c r="B237" s="31">
+        <v>381</v>
+      </c>
+      <c r="B237" s="22">
         <v>3200</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>385</v>
-      </c>
-      <c r="B238" s="31">
-        <v>4800</v>
+        <v>382</v>
+      </c>
+      <c r="B238" s="22">
+        <v>3200</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>386</v>
-      </c>
-      <c r="B239" s="31">
-        <v>4800</v>
+        <v>383</v>
+      </c>
+      <c r="B239" s="22">
+        <v>3200</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>387</v>
-      </c>
-      <c r="B240" s="31">
+        <v>384</v>
+      </c>
+      <c r="B240" s="22">
         <v>4800</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>467</v>
-      </c>
-      <c r="B241" s="31">
+        <v>385</v>
+      </c>
+      <c r="B241" s="22">
         <v>4800</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>468</v>
-      </c>
-      <c r="B242" s="31">
-        <v>1920</v>
+        <v>386</v>
+      </c>
+      <c r="B242" s="22">
+        <v>4800</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>388</v>
-      </c>
-      <c r="B243" s="31">
-        <v>3200</v>
+        <v>466</v>
+      </c>
+      <c r="B243" s="22">
+        <v>4800</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>389</v>
-      </c>
-      <c r="B244" s="31">
-        <v>48000</v>
+        <v>467</v>
+      </c>
+      <c r="B244" s="22">
+        <v>1920</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>390</v>
-      </c>
-      <c r="B245" s="31">
-        <v>57600</v>
+        <v>387</v>
+      </c>
+      <c r="B245" s="22">
+        <v>3200</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>391</v>
-      </c>
-      <c r="B246" s="31">
-        <v>28800</v>
+        <v>388</v>
+      </c>
+      <c r="B246" s="22">
+        <v>48000</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>392</v>
-      </c>
-      <c r="B247" s="31">
-        <v>9600</v>
+        <v>389</v>
+      </c>
+      <c r="B247" s="22">
+        <v>57600</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>393</v>
-      </c>
-      <c r="B248" s="31">
-        <v>8000</v>
+        <v>390</v>
+      </c>
+      <c r="B248" s="22">
+        <v>28800</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>394</v>
-      </c>
-      <c r="B249" s="31">
-        <v>1280</v>
+        <v>391</v>
+      </c>
+      <c r="B249" s="22">
+        <v>9600</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>395</v>
-      </c>
-      <c r="B250" s="31">
-        <v>24000</v>
+        <v>392</v>
+      </c>
+      <c r="B250" s="22">
+        <v>8000</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>396</v>
-      </c>
-      <c r="B251" s="31">
-        <v>8000</v>
+        <v>393</v>
+      </c>
+      <c r="B251" s="22">
+        <v>1280</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>397</v>
-      </c>
-      <c r="B252" s="31">
-        <v>22400</v>
+        <v>394</v>
+      </c>
+      <c r="B252" s="22">
+        <v>24000</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>398</v>
-      </c>
-      <c r="B253" s="31">
-        <v>4800</v>
+        <v>395</v>
+      </c>
+      <c r="B253" s="22">
+        <v>8000</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>399</v>
-      </c>
-      <c r="B254" s="31">
-        <v>80000</v>
+        <v>396</v>
+      </c>
+      <c r="B254" s="22">
+        <v>22400</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>458</v>
-      </c>
-      <c r="B255" s="31">
-        <v>176000</v>
+        <v>397</v>
+      </c>
+      <c r="B255" s="22">
+        <v>4800</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>400</v>
-      </c>
-      <c r="B256" s="31">
-        <v>8000</v>
+        <v>398</v>
+      </c>
+      <c r="B256" s="22">
+        <v>80000</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>401</v>
-      </c>
-      <c r="B257" s="31">
-        <v>3200</v>
+        <v>457</v>
+      </c>
+      <c r="B257" s="22">
+        <v>176000</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>402</v>
-      </c>
-      <c r="B258" s="31">
-        <v>3200</v>
+        <v>399</v>
+      </c>
+      <c r="B258" s="22">
+        <v>8000</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>403</v>
-      </c>
-      <c r="B259" s="31">
-        <v>4800</v>
+        <v>400</v>
+      </c>
+      <c r="B259" s="22">
+        <v>3200</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>404</v>
-      </c>
-      <c r="B260" s="31">
-        <v>2240</v>
+        <v>401</v>
+      </c>
+      <c r="B260" s="22">
+        <v>3200</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>405</v>
-      </c>
-      <c r="B261" s="31">
-        <v>16000</v>
+        <v>402</v>
+      </c>
+      <c r="B261" s="22">
+        <v>4800</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>406</v>
-      </c>
-      <c r="B262" s="31">
-        <v>1600</v>
+        <v>403</v>
+      </c>
+      <c r="B262" s="22">
+        <v>2240</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>407</v>
-      </c>
-      <c r="B263" s="31">
-        <v>1600</v>
+        <v>404</v>
+      </c>
+      <c r="B263" s="22">
+        <v>16000</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>408</v>
-      </c>
-      <c r="B264" s="31">
+        <v>405</v>
+      </c>
+      <c r="B264" s="22">
         <v>1600</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>409</v>
-      </c>
-      <c r="B265" s="31">
-        <v>2240</v>
+        <v>406</v>
+      </c>
+      <c r="B265" s="22">
+        <v>1600</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>410</v>
-      </c>
-      <c r="B266" s="31">
-        <v>6400</v>
+        <v>407</v>
+      </c>
+      <c r="B266" s="22">
+        <v>1600</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>452</v>
-      </c>
-      <c r="B267" s="31">
-        <v>3200</v>
+        <v>408</v>
+      </c>
+      <c r="B267" s="22">
+        <v>2240</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>411</v>
-      </c>
-      <c r="B268" s="31">
-        <v>4800</v>
+        <v>409</v>
+      </c>
+      <c r="B268" s="22">
+        <v>6400</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>412</v>
-      </c>
-      <c r="B269" s="31">
-        <v>1600</v>
+        <v>451</v>
+      </c>
+      <c r="B269" s="22">
+        <v>3200</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>413</v>
-      </c>
-      <c r="B270" s="31">
-        <v>2240</v>
+        <v>410</v>
+      </c>
+      <c r="B270" s="22">
+        <v>4800</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>414</v>
-      </c>
-      <c r="B271" s="31">
-        <v>3200</v>
+        <v>411</v>
+      </c>
+      <c r="B271" s="22">
+        <v>1600</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>415</v>
-      </c>
-      <c r="B272" s="31">
-        <v>640</v>
+        <v>412</v>
+      </c>
+      <c r="B272" s="22">
+        <v>2240</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>416</v>
-      </c>
-      <c r="B273" s="31">
-        <v>1600</v>
+        <v>413</v>
+      </c>
+      <c r="B273" s="22">
+        <v>3200</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" t="s">
-        <v>417</v>
-      </c>
-      <c r="B274" s="31">
-        <v>960</v>
+        <v>414</v>
+      </c>
+      <c r="B274" s="22">
+        <v>640</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
-        <v>418</v>
-      </c>
-      <c r="B275" s="31">
-        <v>1280</v>
+        <v>415</v>
+      </c>
+      <c r="B275" s="22">
+        <v>1600</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>465</v>
-      </c>
-      <c r="B276" s="31">
+        <v>416</v>
+      </c>
+      <c r="B276" s="22">
         <v>960</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" t="s">
-        <v>523</v>
-      </c>
-      <c r="B277" s="31">
-        <v>2240</v>
+        <v>417</v>
+      </c>
+      <c r="B277" s="22">
+        <v>1280</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>419</v>
-      </c>
-      <c r="B278" s="31">
-        <v>640</v>
+        <v>464</v>
+      </c>
+      <c r="B278" s="22">
+        <v>960</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" t="s">
-        <v>528</v>
-      </c>
-      <c r="B279" s="31">
-        <v>3200</v>
+        <v>522</v>
+      </c>
+      <c r="B279" s="22">
+        <v>2240</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>420</v>
-      </c>
-      <c r="B280" s="31">
-        <v>6400</v>
+        <v>418</v>
+      </c>
+      <c r="B280" s="22">
+        <v>640</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" t="s">
-        <v>421</v>
-      </c>
-      <c r="B281" s="31">
-        <v>8000</v>
+        <v>544</v>
+      </c>
+      <c r="B281" s="22">
+        <v>57600</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" t="s">
-        <v>422</v>
-      </c>
-      <c r="B282" s="31">
-        <v>14400</v>
+        <v>527</v>
+      </c>
+      <c r="B282" s="22">
+        <v>3200</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>423</v>
-      </c>
-      <c r="B283" s="31">
-        <v>4800</v>
+        <v>419</v>
+      </c>
+      <c r="B283" s="22">
+        <v>6400</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>424</v>
-      </c>
-      <c r="B284" s="31">
-        <v>19200</v>
+        <v>420</v>
+      </c>
+      <c r="B284" s="22">
+        <v>8000</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" t="s">
-        <v>425</v>
-      </c>
-      <c r="B285" s="31">
-        <v>32000</v>
+        <v>421</v>
+      </c>
+      <c r="B285" s="22">
+        <v>14400</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" t="s">
-        <v>529</v>
-      </c>
-      <c r="B286" s="31">
+        <v>422</v>
+      </c>
+      <c r="B286" s="22">
         <v>4800</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
-        <v>530</v>
-      </c>
-      <c r="B287" s="31">
-        <v>4800</v>
+        <v>423</v>
+      </c>
+      <c r="B287" s="22">
+        <v>19200</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" t="s">
-        <v>426</v>
-      </c>
-      <c r="B288" s="31">
-        <v>11200</v>
+        <v>424</v>
+      </c>
+      <c r="B288" s="22">
+        <v>32000</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" t="s">
-        <v>427</v>
-      </c>
-      <c r="B289" s="31">
-        <v>3200</v>
+        <v>528</v>
+      </c>
+      <c r="B289" s="22">
+        <v>4800</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" t="s">
-        <v>511</v>
-      </c>
-      <c r="B290" s="31">
-        <v>1600</v>
+        <v>529</v>
+      </c>
+      <c r="B290" s="22">
+        <v>4800</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" t="s">
-        <v>428</v>
-      </c>
-      <c r="B291" s="31">
+        <v>425</v>
+      </c>
+      <c r="B291" s="22">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" t="s">
+        <v>426</v>
+      </c>
+      <c r="B292" s="22">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" t="s">
+        <v>510</v>
+      </c>
+      <c r="B293" s="22">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" t="s">
+        <v>427</v>
+      </c>
+      <c r="B294" s="22">
         <v>4800</v>
       </c>
     </row>
@@ -5019,599 +5311,839 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B73"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="64.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>542</v>
+      <c r="B1" s="24" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="B2" s="22">
+        <v>44800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="22">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="22">
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="22">
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="22">
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="22">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="B8" s="22">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B9" s="22">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="22">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="25" t="s">
+        <v>482</v>
+      </c>
+      <c r="B11" s="22">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" s="22">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="22">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="22">
+        <v>17600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>536</v>
+      </c>
+      <c r="B15" s="22">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="22">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="25" t="s">
+        <v>547</v>
+      </c>
+      <c r="B17" s="22">
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="25" t="s">
+        <v>548</v>
+      </c>
+      <c r="B18" s="22">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="B19" s="22">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="B20" s="22">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>450</v>
+      </c>
+      <c r="B21" s="22">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="25" t="s">
+        <v>492</v>
+      </c>
+      <c r="B22" s="22">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="25" t="s">
+        <v>549</v>
+      </c>
+      <c r="B23" s="22">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="25" t="s">
+        <v>550</v>
+      </c>
+      <c r="B24" s="22">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="22">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="22">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="22">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="25" t="s">
+        <v>486</v>
+      </c>
+      <c r="B28" s="22">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="22">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="B30" s="22">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="20" t="s">
+        <v>537</v>
+      </c>
+      <c r="B31" s="22">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="25" t="s">
+        <v>491</v>
+      </c>
+      <c r="B32" s="22">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="25" t="s">
+        <v>493</v>
+      </c>
+      <c r="B33" s="22">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="25" t="s">
+        <v>552</v>
+      </c>
+      <c r="B34" s="22">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="B35" s="22">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="25" t="s">
+        <v>554</v>
+      </c>
+      <c r="B36" s="22">
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="22">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="22">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="22">
+        <v>44800</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="25" t="s">
+        <v>555</v>
+      </c>
+      <c r="B40" s="22">
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="25" t="s">
+        <v>488</v>
+      </c>
+      <c r="B41" s="22">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" s="22">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="25" t="s">
+        <v>556</v>
+      </c>
+      <c r="B43" s="22">
         <v>64000</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="31">
-        <v>57600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B4" s="31">
+    <row r="44" spans="1:2">
+      <c r="A44" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="22">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>479</v>
+      </c>
+      <c r="B45" s="22">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="22">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" s="22">
         <v>38400</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B5" s="31">
-        <v>38400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="31">
-        <v>12800</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B7" s="31">
-        <v>12800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="31">
-        <v>6400</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="B9" s="31">
-        <v>25600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B10" s="31">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="31">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B12" s="31">
-        <v>17600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>537</v>
-      </c>
-      <c r="B13" s="31">
+    <row r="48" spans="1:2">
+      <c r="A48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="22">
         <v>19200</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="31">
-        <v>25600</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="B15" s="31">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="B16" s="31">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>451</v>
-      </c>
-      <c r="B17" s="31">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="B18" s="31">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="31">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="31">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="31">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="B22" s="31">
-        <v>2240</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="31">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="29" t="s">
-        <v>538</v>
-      </c>
-      <c r="B24" s="31">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="B25" s="31">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="B26" s="31">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="31">
-        <v>11200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="31">
-        <v>11200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="31">
-        <v>44800</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="B30" s="31">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B31" s="31">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="31">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>480</v>
-      </c>
-      <c r="B33" s="31">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="31">
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B35" s="31">
-        <v>38400</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="31">
-        <v>19200</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B37" s="31">
+    <row r="49" spans="1:2">
+      <c r="A49" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" s="22">
         <v>22400</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="31">
-        <v>41600</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>479</v>
-      </c>
-      <c r="B39" s="31">
-        <v>12800</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B40" s="31">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="31">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B42" s="31">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B43" s="31">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="B44" s="31">
-        <v>25600</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="31">
-        <v>38400</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B46" s="31">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="B47" s="31">
-        <v>6400</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48" s="31">
-        <v>19200</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B49" s="31">
-        <v>8000</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B50" s="31">
-        <v>4800</v>
+        <v>15</v>
+      </c>
+      <c r="B50" s="22">
+        <v>41600</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B51" s="31">
-        <v>3200</v>
+      <c r="A51" t="s">
+        <v>478</v>
+      </c>
+      <c r="B51" s="22">
+        <v>12800</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B52" s="31">
-        <v>44800</v>
+      <c r="A52" s="25" t="s">
+        <v>557</v>
+      </c>
+      <c r="B52" s="22">
+        <v>19200</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B53" s="31">
-        <v>57600</v>
+      <c r="A53" s="25" t="s">
+        <v>558</v>
+      </c>
+      <c r="B53" s="22">
+        <v>17600</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B54" s="31">
-        <v>57600</v>
+      <c r="A54" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B54" s="22">
+        <v>3200</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B55" s="31">
-        <v>19200</v>
+      <c r="A55" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" s="22">
+        <v>3200</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="B56" s="31">
-        <v>12800</v>
+        <v>17</v>
+      </c>
+      <c r="B56" s="22">
+        <v>9600</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B57" s="31">
+      <c r="A57" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B57" s="22">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B58" s="22">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="25" t="s">
+        <v>543</v>
+      </c>
+      <c r="B59" s="22">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="22">
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" s="22">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B62" s="22">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="25" t="s">
+        <v>559</v>
+      </c>
+      <c r="B63" s="22">
         <v>22400</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B58" s="31">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>540</v>
-      </c>
-      <c r="B59" s="31">
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B60" s="31">
-        <v>41600</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B61" s="31">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B62" s="31">
-        <v>2240</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="B63" s="31">
-        <v>1600</v>
-      </c>
-    </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="B64" s="31">
-        <v>11200</v>
+      <c r="A64" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="22">
+        <v>19200</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="B65" s="31">
-        <v>12800</v>
+        <v>19</v>
+      </c>
+      <c r="B65" s="22">
+        <v>8000</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" s="22">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="25" t="s">
+        <v>560</v>
+      </c>
+      <c r="B67" s="22">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="25" t="s">
+        <v>561</v>
+      </c>
+      <c r="B68" s="22">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B69" s="22">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="25" t="s">
+        <v>562</v>
+      </c>
+      <c r="B70" s="22">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="B71" s="22">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72" s="22">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="B73" s="22">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="25" t="s">
+        <v>565</v>
+      </c>
+      <c r="B74" s="22">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B75" s="22">
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76" s="22">
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B77" s="22">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="B78" s="22">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="25" t="s">
+        <v>566</v>
+      </c>
+      <c r="B79" s="22">
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B80" s="22">
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="25" t="s">
+        <v>567</v>
+      </c>
+      <c r="B81" s="22">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="B82" s="22">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="B83" s="22">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B84" s="22">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>539</v>
+      </c>
+      <c r="B85" s="22">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B86" s="22">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" s="22">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" s="22">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B89" s="22">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B90" s="22">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="B91" s="22">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="25" t="s">
+        <v>570</v>
+      </c>
+      <c r="B92" s="22">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="25" t="s">
+        <v>571</v>
+      </c>
+      <c r="B93" s="22">
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="25" t="s">
+        <v>489</v>
+      </c>
+      <c r="B94" s="22">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="B95" s="22">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" s="22">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="25" t="s">
+        <v>573</v>
+      </c>
+      <c r="B97" s="22">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="25" t="s">
         <v>490</v>
       </c>
-      <c r="B66" s="31">
-        <v>6400</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B67" s="31">
+      <c r="B98" s="22">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="B99" s="22">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>451</v>
+      </c>
+      <c r="B100" s="22">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="25" t="s">
+        <v>494</v>
+      </c>
+      <c r="B101" s="22">
         <v>4800</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="B68" s="31">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B69" s="31">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>452</v>
-      </c>
-      <c r="B70" s="31">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="B71" s="31">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="B72" s="31">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="5" t="s">
+    <row r="102" spans="1:2">
+      <c r="A102" s="25" t="s">
+        <v>487</v>
+      </c>
+      <c r="B102" s="22">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="31">
+      <c r="B103" s="22">
         <v>11200</v>
       </c>
     </row>
@@ -5625,1367 +6157,1511 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B169"/>
+  <dimension ref="A1:B187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B169"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="84" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>542</v>
+      <c r="B1" s="23" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="22">
         <v>44800</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="22">
+        <v>44800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="22">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="22">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="22">
+        <v>51200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="22">
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="22">
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" s="22">
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B10" s="22">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="22">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="22">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="31">
-        <v>44800</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="31">
-        <v>64000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="31">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="31">
-        <v>51200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="19" t="s">
+      <c r="B13" s="22">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B14" s="22">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="22">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="22">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="22">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="22">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="22">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" s="22">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="22">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>535</v>
+      </c>
+      <c r="B22" s="22">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="22">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>180</v>
       </c>
-      <c r="B7" s="31">
-        <v>57600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="31">
-        <v>57600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="B9" s="31">
-        <v>38400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B10" s="31">
-        <v>11200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B11" s="31">
-        <v>11200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="31">
+      <c r="B24" s="22">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="22">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B26" s="22">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B27" s="22">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>450</v>
+      </c>
+      <c r="B28" s="22">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B29" s="22">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="22">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="22">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="22">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B33" s="22">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B34" s="22">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="22">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B36" s="22">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B37" s="22">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="B38" s="22">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B39" s="22">
         <v>12800</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="13" t="s">
-        <v>483</v>
-      </c>
-      <c r="B13" s="31">
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B40" s="22">
         <v>25600</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="B14" s="31">
+    <row r="41" spans="1:2">
+      <c r="A41" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B41" s="22">
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="B42" s="22">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="22">
         <v>32000</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="31">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="31">
+    <row r="44" spans="1:2">
+      <c r="A44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="22">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B45" s="22">
         <v>12800</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="31">
-        <v>12800</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="B18" s="31">
-        <v>17600</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B19" s="31">
-        <v>19200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="31">
-        <v>25600</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>536</v>
-      </c>
-      <c r="B21" s="31">
-        <v>19200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="31">
-        <v>19200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>181</v>
-      </c>
-      <c r="B23" s="31">
-        <v>25600</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="31">
-        <v>14400</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="13" t="s">
-        <v>456</v>
-      </c>
-      <c r="B25" s="31">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="13" t="s">
-        <v>457</v>
-      </c>
-      <c r="B26" s="31">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>451</v>
-      </c>
-      <c r="B27" s="31">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" s="31">
-        <v>25600</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" s="31">
-        <v>25600</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" s="31">
-        <v>25600</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B31" s="31">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B32" s="31">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B33" s="31">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="13" t="s">
-        <v>498</v>
-      </c>
-      <c r="B34" s="31">
-        <v>2240</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B35" s="31">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="13" t="s">
-        <v>505</v>
-      </c>
-      <c r="B36" s="31">
-        <v>25600</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="13" t="s">
-        <v>506</v>
-      </c>
-      <c r="B37" s="31">
-        <v>28800</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="B38" s="31">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="31">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="31">
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B41" s="31">
-        <v>12800</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="B42" s="31">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B43" s="31">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B44" s="31">
-        <v>19200</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="B45" s="31">
-        <v>11200</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B46" s="22">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="22">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="22">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" s="22">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="22">
+        <v>51200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="22">
+        <v>51200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="22">
+        <v>51200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="31">
+      <c r="B53" s="22">
         <v>51200</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="31">
+    <row r="54" spans="1:2">
+      <c r="A54" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B54" s="22">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" s="22">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" s="22">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" s="22">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" s="22">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" s="22">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B60" s="22">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" s="22">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" s="22">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63" s="22">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64" s="22">
         <v>51200</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="31">
+    <row r="65" spans="1:2">
+      <c r="A65" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B65" s="22">
         <v>51200</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="31">
+    <row r="66" spans="1:2">
+      <c r="A66" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" s="22">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B67" s="22">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68" s="22">
+        <v>73600</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" s="22">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B70" s="22">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>532</v>
+      </c>
+      <c r="B71" s="22">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B72" s="22">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B73" s="22">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B74" s="22">
+        <v>70400</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B75" s="22">
+        <v>70400</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B76" s="22">
+        <v>70400</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>533</v>
+      </c>
+      <c r="B77" s="22">
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B78" s="22">
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="B79" s="22">
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B80" s="22">
+        <v>44800</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B81" s="22">
+        <v>44800</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B82" s="22">
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B83" s="22">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B84" s="22">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B85" s="22">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B86" s="22">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B87" s="22">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B88" s="22">
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B89" s="22">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="B90" s="22">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B91" s="22">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B92" s="22">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B93" s="22">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B94" s="22">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B95" s="22">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B96" s="22">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B97" s="22">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B98" s="22">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B99" s="22">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B100" s="22">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B101" s="22">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B102" s="22">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B103" s="22">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="B104" s="22">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>511</v>
+      </c>
+      <c r="B105" s="22">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B106" s="22">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B107" s="22">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B108" s="22">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B109" s="22">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B110" s="22">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B111" s="22">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B112" s="22">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B113" s="22">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B114" s="22">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B115" s="22">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B116" s="22">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B117" s="22">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B118" s="22">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B119" s="22">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B120" s="22">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B121" s="22">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B122" s="22">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>530</v>
+      </c>
+      <c r="B123" s="22">
+        <v>44800</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B124" s="22">
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B125" s="22">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B126" s="22">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B127" s="22">
+        <v>73600</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B128" s="22">
+        <v>112000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B129" s="22">
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B130" s="22">
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B131" s="22">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B132" s="22">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B133" s="22">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B134" s="22">
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="B135" s="22">
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B136" s="22">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B137" s="22">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B138" s="22">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B139" s="22">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B140" s="22">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B141" s="22">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>540</v>
+      </c>
+      <c r="B142" s="22">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B143" s="22">
         <v>51200</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="B50" s="31">
+    <row r="144" spans="1:2">
+      <c r="A144" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B144" s="22">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B145" s="22">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B146" s="22">
+        <v>44800</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B147" s="22">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B148" s="22">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B149" s="22">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B150" s="22">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B151" s="22">
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B152" s="22">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B153" s="22">
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>531</v>
+      </c>
+      <c r="B154" s="22">
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B155" s="22">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B156" s="22">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B157" s="22">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B158" s="22">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B159" s="22">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B160" s="22">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B161" s="22">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B162" s="22">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B163" s="22">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B164" s="22">
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B165" s="22">
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B166" s="22">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B167" s="22">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B168" s="22">
         <v>9600</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="31">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="31">
+    <row r="169" spans="1:2">
+      <c r="A169" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B169" s="22">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B170" s="22">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B171" s="22">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B172" s="22">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B173" s="22">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B174" s="22">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B175" s="22">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B176" s="22">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B177" s="22">
         <v>6400</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="31">
-        <v>12800</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="31">
-        <v>12800</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" s="31">
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" s="31">
-        <v>64000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B57" s="31">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B58" s="31">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B59" s="31">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B60" s="31">
-        <v>51200</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="B61" s="31">
-        <v>51200</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B62" s="31">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B63" s="31">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B64" s="31">
-        <v>73600</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B65" s="31">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B66" s="31">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>533</v>
-      </c>
-      <c r="B67" s="31">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B68" s="31">
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B69" s="31">
-        <v>64000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B70" s="31">
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B71" s="31">
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B72" s="31">
-        <v>70400</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>534</v>
-      </c>
-      <c r="B73" s="31">
+    <row r="178" spans="1:2">
+      <c r="A178" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B178" s="22">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B179" s="22">
         <v>22400</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="B74" s="31">
-        <v>22400</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B75" s="31">
-        <v>44800</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B76" s="31">
-        <v>44800</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B77" s="31">
-        <v>57600</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="23" t="s">
-        <v>481</v>
-      </c>
-      <c r="B78" s="31">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B79" s="31">
+    <row r="180" spans="1:2">
+      <c r="A180" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B180" s="22">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B181" s="22">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>451</v>
+      </c>
+      <c r="B182" s="22">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B183" s="22">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B184" s="22">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B185" s="22">
         <v>19200</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B80" s="31">
-        <v>19200</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B81" s="31">
-        <v>38400</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B82" s="31">
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="B83" s="31">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="B84" s="31">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="13" t="s">
-        <v>507</v>
-      </c>
-      <c r="B85" s="31">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B86" s="31">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B87" s="31">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B88" s="31">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="B89" s="31">
-        <v>25600</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="13" t="s">
-        <v>477</v>
-      </c>
-      <c r="B90" s="31">
-        <v>25600</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B91" s="31">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B92" s="31">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="B93" s="31">
-        <v>6400</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B94" s="31">
-        <v>6400</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B95" s="31">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="25" t="s">
-        <v>539</v>
-      </c>
-      <c r="B96" s="31">
-        <v>19200</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>512</v>
-      </c>
-      <c r="B97" s="31">
-        <v>19200</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="13" t="s">
-        <v>503</v>
-      </c>
-      <c r="B98" s="31">
-        <v>6400</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="13" t="s">
-        <v>502</v>
-      </c>
-      <c r="B99" s="31">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="13" t="s">
-        <v>504</v>
-      </c>
-      <c r="B100" s="31">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="13" t="s">
-        <v>501</v>
-      </c>
-      <c r="B101" s="31">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="B102" s="31">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="13" t="s">
-        <v>500</v>
-      </c>
-      <c r="B103" s="31">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="B104" s="31">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B105" s="31">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B106" s="31">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B107" s="31">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="B108" s="31">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B109" s="31">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="B110" s="31">
-        <v>44800</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B111" s="31">
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B112" s="31">
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
-        <v>531</v>
-      </c>
-      <c r="B113" s="31">
-        <v>44800</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B114" s="31">
-        <v>38400</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B115" s="31">
-        <v>64000</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B116" s="31">
-        <v>73600</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B117" s="31">
-        <v>112000</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B118" s="31">
-        <v>57600</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="13" t="s">
-        <v>496</v>
-      </c>
-      <c r="B119" s="31">
-        <v>57600</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="B120" s="31">
+    <row r="186" spans="1:2">
+      <c r="A186" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B186" s="22">
         <v>11200</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="B121" s="31">
-        <v>11200</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B122" s="31">
-        <v>12800</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="B123" s="31">
-        <v>22400</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="B124" s="31">
-        <v>19200</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="B125" s="31">
-        <v>14400</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B126" s="31">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="B127" s="31">
-        <v>14400</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
-        <v>541</v>
-      </c>
-      <c r="B128" s="31">
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B129" s="31">
-        <v>51200</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="B130" s="31">
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B131" s="31">
-        <v>64000</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="B132" s="31">
-        <v>44800</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B133" s="31">
-        <v>41600</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B134" s="31">
-        <v>25600</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B135" s="31">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B136" s="31">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B137" s="31">
-        <v>38400</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B138" s="31">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B139" s="31">
-        <v>38400</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" t="s">
-        <v>532</v>
-      </c>
-      <c r="B140" s="31">
-        <v>57600</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="B141" s="31">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="B142" s="31">
-        <v>2240</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B143" s="31">
-        <v>2560</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="B144" s="31">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B145" s="31">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="B146" s="31">
-        <v>64000</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B147" s="31">
-        <v>64000</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B148" s="31">
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B149" s="31">
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="B150" s="31">
-        <v>57600</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="B151" s="31">
-        <v>57600</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="B152" s="31">
-        <v>11200</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="B153" s="31">
-        <v>11200</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B154" s="31">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B155" s="31">
-        <v>12800</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B156" s="31">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="13" t="s">
-        <v>497</v>
-      </c>
-      <c r="B157" s="31">
-        <v>12800</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B158" s="31">
-        <v>12800</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B159" s="31">
-        <v>12800</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B160" s="31">
-        <v>12800</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B161" s="31">
-        <v>6400</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B162" s="31">
-        <v>6400</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="13" t="s">
-        <v>508</v>
-      </c>
-      <c r="B163" s="31">
-        <v>22400</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="B164" s="31">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" t="s">
-        <v>452</v>
-      </c>
-      <c r="B165" s="31">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="13" t="s">
-        <v>499</v>
-      </c>
-      <c r="B166" s="31">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="B167" s="31">
-        <v>19200</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="13" t="s">
+    <row r="187" spans="1:2">
+      <c r="A187" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B168" s="31">
-        <v>11200</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="B169" s="31">
+      <c r="B187" s="22">
         <v>12800</v>
       </c>
     </row>
@@ -6998,304 +7674,554 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88CECE0-1186-4AAD-A2A6-138A567807C7}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="52.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="32" t="s">
+        <v>592</v>
+      </c>
+      <c r="B2" s="22">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="32" t="s">
+        <v>593</v>
+      </c>
+      <c r="B3" s="22">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="32" t="s">
+        <v>594</v>
+      </c>
+      <c r="B4" s="22">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="32" t="s">
+        <v>595</v>
+      </c>
+      <c r="B5" s="22">
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="32" t="s">
+        <v>596</v>
+      </c>
+      <c r="B6" s="22">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="32" t="s">
+        <v>597</v>
+      </c>
+      <c r="B7" s="22">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="B8" s="22">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="32" t="s">
+        <v>599</v>
+      </c>
+      <c r="B9" s="22">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="32" t="s">
+        <v>600</v>
+      </c>
+      <c r="B10" s="22">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="32" t="s">
+        <v>601</v>
+      </c>
+      <c r="B11" s="22">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="32" t="s">
+        <v>543</v>
+      </c>
+      <c r="B12" s="22">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="32" t="s">
+        <v>602</v>
+      </c>
+      <c r="B13" s="22">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="32" t="s">
+        <v>603</v>
+      </c>
+      <c r="B14" s="22">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="32" t="s">
+        <v>604</v>
+      </c>
+      <c r="B15" s="22">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="32" t="s">
+        <v>605</v>
+      </c>
+      <c r="B16" s="22">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="B17" s="22">
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="32" t="s">
+        <v>607</v>
+      </c>
+      <c r="B18" s="22">
+        <v>35200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="32" t="s">
+        <v>608</v>
+      </c>
+      <c r="B19" s="22">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="32" t="s">
+        <v>609</v>
+      </c>
+      <c r="B20" s="22">
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="32" t="s">
+        <v>610</v>
+      </c>
+      <c r="B21" s="22">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="32" t="s">
+        <v>611</v>
+      </c>
+      <c r="B22" s="22">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="32" t="s">
+        <v>612</v>
+      </c>
+      <c r="B23" s="22">
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="32" t="s">
+        <v>613</v>
+      </c>
+      <c r="B24" s="22">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="32" t="s">
+        <v>614</v>
+      </c>
+      <c r="B25" s="22">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="32" t="s">
+        <v>615</v>
+      </c>
+      <c r="B26" s="22">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="32" t="s">
+        <v>616</v>
+      </c>
+      <c r="B27" s="22">
+        <v>9600</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="58.08984375" customWidth="1"/>
-    <col min="2" max="2" width="11" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>542</v>
+      <c r="B1" s="21" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>432</v>
-      </c>
-      <c r="B2" s="31">
+        <v>431</v>
+      </c>
+      <c r="B2" s="22">
         <v>3840</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>433</v>
-      </c>
-      <c r="B3" s="31">
+        <v>432</v>
+      </c>
+      <c r="B3" s="22">
         <v>16000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>434</v>
-      </c>
-      <c r="B4" s="31">
+        <v>433</v>
+      </c>
+      <c r="B4" s="22">
         <v>3840</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>435</v>
-      </c>
-      <c r="B5" s="31">
+        <v>434</v>
+      </c>
+      <c r="B5" s="22">
         <v>16000</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>436</v>
-      </c>
-      <c r="B6" s="31">
+        <v>435</v>
+      </c>
+      <c r="B6" s="22">
         <v>16000</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>510</v>
-      </c>
-      <c r="B7" s="31">
+        <v>509</v>
+      </c>
+      <c r="B7" s="22">
         <v>22400</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>509</v>
-      </c>
-      <c r="B8" s="31">
+        <v>508</v>
+      </c>
+      <c r="B8" s="22">
         <v>16000</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>437</v>
-      </c>
-      <c r="B9" s="31">
+        <v>436</v>
+      </c>
+      <c r="B9" s="22">
         <v>4800</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>455</v>
-      </c>
-      <c r="B10" s="31">
+        <v>454</v>
+      </c>
+      <c r="B10" s="22">
         <v>3840</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>438</v>
-      </c>
-      <c r="B11" s="31">
+        <v>437</v>
+      </c>
+      <c r="B11" s="22">
         <v>3840</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>483</v>
-      </c>
-      <c r="B12" s="31">
+        <v>482</v>
+      </c>
+      <c r="B12" s="22">
         <v>25600</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>186</v>
-      </c>
-      <c r="B13" s="31">
+        <v>185</v>
+      </c>
+      <c r="B13" s="22">
         <v>32000</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>456</v>
-      </c>
-      <c r="B14" s="31">
+        <v>455</v>
+      </c>
+      <c r="B14" s="22">
         <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>457</v>
-      </c>
-      <c r="B15" s="31">
+        <v>456</v>
+      </c>
+      <c r="B15" s="22">
         <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>451</v>
-      </c>
-      <c r="B16" s="31">
+        <v>450</v>
+      </c>
+      <c r="B16" s="22">
         <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>482</v>
-      </c>
-      <c r="B17" s="31">
+        <v>481</v>
+      </c>
+      <c r="B17" s="22">
         <v>3200</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>439</v>
-      </c>
-      <c r="B18" s="31">
+        <v>438</v>
+      </c>
+      <c r="B18" s="22">
         <v>3200</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>453</v>
-      </c>
-      <c r="B19" s="31">
+        <v>452</v>
+      </c>
+      <c r="B19" s="22">
         <v>3200</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>292</v>
-      </c>
-      <c r="B20" s="31">
+        <v>291</v>
+      </c>
+      <c r="B20" s="22">
         <v>9600</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>478</v>
-      </c>
-      <c r="B21" s="31">
+        <v>477</v>
+      </c>
+      <c r="B21" s="22">
         <v>1600</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>454</v>
-      </c>
-      <c r="B22" s="31">
+        <v>453</v>
+      </c>
+      <c r="B22" s="22">
         <v>22400</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>187</v>
-      </c>
-      <c r="B23" s="31">
+        <v>186</v>
+      </c>
+      <c r="B23" s="22">
         <v>25600</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>477</v>
-      </c>
-      <c r="B24" s="31">
+        <v>476</v>
+      </c>
+      <c r="B24" s="22">
         <v>25600</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>440</v>
-      </c>
-      <c r="B25" s="31">
-        <v>3840</v>
+        <v>543</v>
+      </c>
+      <c r="B25" s="22">
+        <v>3200</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>441</v>
-      </c>
-      <c r="B26" s="31">
-        <v>3200</v>
+        <v>439</v>
+      </c>
+      <c r="B26" s="22">
+        <v>3840</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>442</v>
-      </c>
-      <c r="B27" s="31">
-        <v>4800</v>
+        <v>440</v>
+      </c>
+      <c r="B27" s="22">
+        <v>3200</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>443</v>
-      </c>
-      <c r="B28" s="31">
-        <v>3840</v>
+        <v>441</v>
+      </c>
+      <c r="B28" s="22">
+        <v>4800</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>444</v>
-      </c>
-      <c r="B29" s="31">
+        <v>442</v>
+      </c>
+      <c r="B29" s="22">
         <v>3840</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>445</v>
-      </c>
-      <c r="B30" s="31">
+        <v>443</v>
+      </c>
+      <c r="B30" s="22">
         <v>3840</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>446</v>
-      </c>
-      <c r="B31" s="31">
-        <v>6400</v>
+        <v>444</v>
+      </c>
+      <c r="B31" s="22">
+        <v>3840</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>447</v>
-      </c>
-      <c r="B32" s="31">
-        <v>3840</v>
+        <v>617</v>
+      </c>
+      <c r="B32" s="22">
+        <v>5760</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>448</v>
-      </c>
-      <c r="B33" s="31">
-        <v>2240</v>
+        <v>445</v>
+      </c>
+      <c r="B33" s="22">
+        <v>6400</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>449</v>
-      </c>
-      <c r="B34" s="31">
+        <v>446</v>
+      </c>
+      <c r="B34" s="22">
         <v>3840</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>450</v>
-      </c>
-      <c r="B35" s="31">
-        <v>3840</v>
+        <v>447</v>
+      </c>
+      <c r="B35" s="22">
+        <v>2240</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>452</v>
-      </c>
-      <c r="B36" s="31">
+        <v>448</v>
+      </c>
+      <c r="B36" s="22">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>449</v>
+      </c>
+      <c r="B37" s="22">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>451</v>
+      </c>
+      <c r="B38" s="22">
         <v>3200</v>
       </c>
     </row>

--- a/clientes/files/TODITICO_CATÁLOGO.xlsx
+++ b/clientes/files/TODITICO_CATÁLOGO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabajo\Catálogos Proformas\Este\320 Actual\Clientes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C116CE9-A640-493F-B5C9-18681AB1DB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D83EDA7-5D81-4BCA-AE55-F1E1F983981C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DAEWOO TICO" sheetId="1" r:id="rId1"/>
@@ -1768,12 +1768,6 @@
     <t>MANILLAS EXTERIORES DELANTERAS Y TRASERAS ATOS C/U</t>
   </si>
   <si>
-    <t>METALES APOYO STD, 0:50, 0.25 ATOS, PICANTO 1RA, I10</t>
-  </si>
-  <si>
-    <t>METALES VIELA STD, 0.50, 0.25 ATOS, PICANTO 1RA, I10</t>
-  </si>
-  <si>
     <t>MOTOR DE TANQUE DE AGUA DE LIMPIAPARABRISAS ATOS</t>
   </si>
   <si>
@@ -1829,9 +1823,6 @@
   </si>
   <si>
     <t>METALES APOYO STD, 0.50, 0.25 PICANTO 1RA, ATOS, I10</t>
-  </si>
-  <si>
-    <t>METALES VIELA STD, 0.50, 0.25 PICANTO 1RA, ATOS, I10</t>
   </si>
   <si>
     <t>OBTURADORES JUEGO PICANTO 1RA, ATOS, I10</t>
@@ -1955,6 +1946,15 @@
   </si>
   <si>
     <t>REFRIGERANTE AL 30% 5LT</t>
+  </si>
+  <si>
+    <t>METALES APOYO STD, 0.50, 0.25 ATOS, PICANTO 1RA, I10</t>
+  </si>
+  <si>
+    <t>METALES BIELA STD, 0.50, 0.25 ATOS, PICANTO 1RA, I10</t>
+  </si>
+  <si>
+    <t>METALES BIELA STD, 0.50, 0.25 PICANTO 1RA, ATOS, I10</t>
   </si>
 </sst>
 </file>
@@ -2939,7 +2939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B294"/>
   <sheetViews>
-    <sheetView topLeftCell="A283" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -5313,8 +5313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
@@ -5877,7 +5877,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="25" t="s">
-        <v>562</v>
+        <v>615</v>
       </c>
       <c r="B70" s="22">
         <v>14400</v>
@@ -5885,7 +5885,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="25" t="s">
-        <v>563</v>
+        <v>616</v>
       </c>
       <c r="B71" s="22">
         <v>11200</v>
@@ -5901,7 +5901,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B73" s="22">
         <v>4800</v>
@@ -5909,7 +5909,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="25" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B74" s="22">
         <v>3840</v>
@@ -5949,7 +5949,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="25" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B79" s="22">
         <v>38400</v>
@@ -5965,7 +5965,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="25" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B81" s="22">
         <v>6400</v>
@@ -5973,7 +5973,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="25" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B82" s="22">
         <v>4800</v>
@@ -5981,7 +5981,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="25" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B83" s="22">
         <v>24000</v>
@@ -6053,7 +6053,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="25" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B92" s="22">
         <v>12800</v>
@@ -6061,7 +6061,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="25" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B93" s="22">
         <v>22400</v>
@@ -6077,7 +6077,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="25" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B95" s="22">
         <v>12800</v>
@@ -6093,7 +6093,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="25" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B97" s="22">
         <v>3200</v>
@@ -6109,7 +6109,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="11" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B99" s="22">
         <v>9600</v>
@@ -6159,8 +6159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B187"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
@@ -6243,7 +6243,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B10" s="22">
         <v>25600</v>
@@ -6395,7 +6395,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B29" s="22">
         <v>3200</v>
@@ -6459,7 +6459,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B37" s="22">
         <v>2240</v>
@@ -6475,7 +6475,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B39" s="22">
         <v>12800</v>
@@ -6787,7 +6787,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B78" s="22">
         <v>22400</v>
@@ -6827,7 +6827,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B83" s="22">
         <v>8000</v>
@@ -6843,7 +6843,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B85" s="22">
         <v>8000</v>
@@ -7099,7 +7099,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B117" s="22">
         <v>14400</v>
@@ -7107,7 +7107,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2" t="s">
-        <v>583</v>
+        <v>617</v>
       </c>
       <c r="B118" s="22">
         <v>11200</v>
@@ -7163,7 +7163,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B125" s="22">
         <v>3840</v>
@@ -7235,7 +7235,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B134" s="22">
         <v>38400</v>
@@ -7251,7 +7251,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B136" s="22">
         <v>6400</v>
@@ -7283,7 +7283,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B140" s="22">
         <v>24000</v>
@@ -7547,7 +7547,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B173" s="22">
         <v>12800</v>
@@ -7571,7 +7571,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B176" s="22">
         <v>11200</v>
@@ -7603,7 +7603,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B180" s="22">
         <v>3200</v>
@@ -7627,7 +7627,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B183" s="22">
         <v>6400</v>
@@ -7696,7 +7696,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="32" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B2" s="22">
         <v>8000</v>
@@ -7704,7 +7704,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="32" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B3" s="22">
         <v>11200</v>
@@ -7712,7 +7712,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="32" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B4" s="22">
         <v>32000</v>
@@ -7720,7 +7720,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="32" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B5" s="22">
         <v>28800</v>
@@ -7728,7 +7728,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="32" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B6" s="22">
         <v>12800</v>
@@ -7736,7 +7736,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="32" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B7" s="22">
         <v>11200</v>
@@ -7744,7 +7744,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="32" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B8" s="22">
         <v>16000</v>
@@ -7752,7 +7752,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="32" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B9" s="22">
         <v>8000</v>
@@ -7760,7 +7760,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="32" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B10" s="22">
         <v>3200</v>
@@ -7768,7 +7768,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="32" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B11" s="22">
         <v>3200</v>
@@ -7784,7 +7784,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="32" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B13" s="22">
         <v>4800</v>
@@ -7792,7 +7792,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="32" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B14" s="22">
         <v>8000</v>
@@ -7800,7 +7800,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="32" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B15" s="22">
         <v>6400</v>
@@ -7808,7 +7808,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="32" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B16" s="22">
         <v>3200</v>
@@ -7816,7 +7816,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="32" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B17" s="22">
         <v>38400</v>
@@ -7824,7 +7824,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="32" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B18" s="22">
         <v>35200</v>
@@ -7832,7 +7832,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="32" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B19" s="22">
         <v>9600</v>
@@ -7840,7 +7840,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="32" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B20" s="22">
         <v>28800</v>
@@ -7848,7 +7848,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="32" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B21" s="22">
         <v>16000</v>
@@ -7856,7 +7856,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="32" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B22" s="22">
         <v>14400</v>
@@ -7864,7 +7864,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="32" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B23" s="22">
         <v>22400</v>
@@ -7872,7 +7872,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="32" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B24" s="22">
         <v>9600</v>
@@ -7880,7 +7880,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="32" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B25" s="22">
         <v>3200</v>
@@ -7888,7 +7888,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="32" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B26" s="22">
         <v>3200</v>
@@ -7896,7 +7896,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="32" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B27" s="22">
         <v>9600</v>
@@ -8171,7 +8171,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B32" s="22">
         <v>5760</v>

--- a/clientes/files/TODITICO_CATÁLOGO.xlsx
+++ b/clientes/files/TODITICO_CATÁLOGO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabajo\Catálogos Proformas\Este\320 Actual\Clientes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D83EDA7-5D81-4BCA-AE55-F1E1F983981C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2809F4D3-1C41-4374-8297-B78B3555D3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DAEWOO TICO" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="620">
   <si>
     <t>DESCRIPCION</t>
   </si>
@@ -224,10 +224,6 @@
   </si>
   <si>
     <t>DEFENSA TRASERA PICANTO 3RA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELECTROVENTILADOR PICANTO [04-07] 1RA
-</t>
   </si>
   <si>
     <t xml:space="preserve">ELECTROVENTILADOR PICANTO  2DA
@@ -588,9 +584,6 @@
   </si>
   <si>
     <t>RADIADOR AUTOMATICO PICANTO 2DA</t>
-  </si>
-  <si>
-    <t>RADIADOR MECANICO PICANTO 1RA</t>
   </si>
   <si>
     <t>RODAMIENTOS DELANTEROS C/U PICANTO 1RA Y 3RA</t>
@@ -1955,6 +1948,18 @@
   </si>
   <si>
     <t>METALES BIELA STD, 0.50, 0.25 PICANTO 1RA, ATOS, I10</t>
+  </si>
+  <si>
+    <t>ELECTROVENTILADOR PICANTO 1RA</t>
+  </si>
+  <si>
+    <t>RADIADOR MECANICO PICANTO 1RA [2004-2007]</t>
+  </si>
+  <si>
+    <t>TERMINALES DE BORNES DE BATERÍA DE CONEXIÓN RÁPIDA</t>
+  </si>
+  <si>
+    <t>RADIADOR MECANICO PICANTO 1RA [2008-2011]</t>
   </si>
 </sst>
 </file>
@@ -2529,7 +2534,7 @@
     <xf numFmtId="43" fontId="2" fillId="3" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2617,6 +2622,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="45"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="20% - Énfasis1" xfId="9" builtinId="30" customBuiltin="1"/>
@@ -2939,7 +2947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
+    <sheetView topLeftCell="A273" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -2954,12 +2962,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B2" s="22">
         <v>3200</v>
@@ -2967,7 +2975,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B3" s="22">
         <v>3840</v>
@@ -2975,7 +2983,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B4" s="22">
         <v>4800</v>
@@ -2983,7 +2991,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B5" s="22">
         <v>6400</v>
@@ -2991,7 +2999,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B6" s="22">
         <v>2240</v>
@@ -2999,7 +3007,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B7" s="22">
         <v>3200</v>
@@ -3007,7 +3015,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B8" s="22">
         <v>25600</v>
@@ -3015,7 +3023,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B9" s="22">
         <v>32000</v>
@@ -3023,7 +3031,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B10" s="22">
         <v>38400</v>
@@ -3031,7 +3039,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B11" s="22">
         <v>32000</v>
@@ -3039,7 +3047,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B12" s="22">
         <v>51200</v>
@@ -3047,7 +3055,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B13" s="22">
         <v>11200</v>
@@ -3055,7 +3063,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B14" s="22">
         <v>48000</v>
@@ -3063,7 +3071,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B15" s="22">
         <v>35200</v>
@@ -3071,7 +3079,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B16" s="22">
         <v>4800</v>
@@ -3079,7 +3087,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B17" s="22">
         <v>12800</v>
@@ -3087,7 +3095,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B18" s="22">
         <v>9600</v>
@@ -3095,7 +3103,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B19" s="22">
         <v>1600</v>
@@ -3103,7 +3111,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B20" s="22">
         <v>960</v>
@@ -3111,7 +3119,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B21" s="22">
         <v>4800</v>
@@ -3119,7 +3127,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B22" s="22">
         <v>38400</v>
@@ -3127,7 +3135,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B23" s="22">
         <v>16000</v>
@@ -3135,7 +3143,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B24" s="22">
         <v>3200</v>
@@ -3143,7 +3151,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B25" s="22">
         <v>28800</v>
@@ -3151,7 +3159,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B26" s="22">
         <v>11200</v>
@@ -3159,7 +3167,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B27" s="22">
         <v>3200</v>
@@ -3167,7 +3175,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B28" s="22">
         <v>48000</v>
@@ -3175,7 +3183,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B29" s="22">
         <v>38400</v>
@@ -3183,7 +3191,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B30" s="22">
         <v>54400</v>
@@ -3191,7 +3199,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B31" s="22">
         <v>9600</v>
@@ -3199,7 +3207,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B32" s="22">
         <v>19200</v>
@@ -3207,7 +3215,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B33" s="22">
         <v>9600</v>
@@ -3215,7 +3223,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B34" s="22">
         <v>25600</v>
@@ -3223,7 +3231,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B35" s="22">
         <v>32000</v>
@@ -3231,7 +3239,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B36" s="22">
         <v>8000</v>
@@ -3239,7 +3247,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B37" s="22">
         <v>16000</v>
@@ -3247,7 +3255,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B38" s="22">
         <v>3840</v>
@@ -3255,7 +3263,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B39" s="22">
         <v>12800</v>
@@ -3263,7 +3271,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B40" s="22">
         <v>25600</v>
@@ -3271,7 +3279,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B41" s="22">
         <v>14400</v>
@@ -3279,7 +3287,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B42" s="22">
         <v>19200</v>
@@ -3287,7 +3295,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B43" s="22">
         <v>14400</v>
@@ -3295,7 +3303,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B44" s="22">
         <v>6400</v>
@@ -3303,7 +3311,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B45" s="22">
         <v>320</v>
@@ -3311,7 +3319,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B46" s="22">
         <v>320</v>
@@ -3319,7 +3327,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B47" s="22">
         <v>320</v>
@@ -3327,7 +3335,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B48" s="22">
         <v>3200</v>
@@ -3335,7 +3343,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B49" s="22">
         <v>32000</v>
@@ -3343,7 +3351,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B50" s="22">
         <v>4800</v>
@@ -3351,7 +3359,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B51" s="22">
         <v>3200</v>
@@ -3359,7 +3367,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B52" s="22">
         <v>3200</v>
@@ -3367,7 +3375,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B53" s="22">
         <v>3200</v>
@@ -3375,7 +3383,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B54" s="22">
         <v>19200</v>
@@ -3383,7 +3391,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B55" s="22">
         <v>12800</v>
@@ -3391,7 +3399,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B56" s="22">
         <v>6400</v>
@@ -3399,7 +3407,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B57" s="22">
         <v>4800</v>
@@ -3407,7 +3415,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B58" s="22">
         <v>6400</v>
@@ -3415,7 +3423,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B59" s="22">
         <v>4800</v>
@@ -3423,7 +3431,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B60" s="22">
         <v>3200</v>
@@ -3431,7 +3439,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B61" s="22">
         <v>1600</v>
@@ -3439,7 +3447,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B62" s="22">
         <v>4800</v>
@@ -3447,7 +3455,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B63" s="22">
         <v>3200</v>
@@ -3455,7 +3463,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B64" s="22">
         <v>640</v>
@@ -3463,7 +3471,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B65" s="22">
         <v>4800</v>
@@ -3471,7 +3479,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B66" s="22">
         <v>4800</v>
@@ -3479,7 +3487,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B67" s="22">
         <v>3200</v>
@@ -3487,7 +3495,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B68" s="22">
         <v>3200</v>
@@ -3495,7 +3503,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B69" s="22">
         <v>2240</v>
@@ -3503,7 +3511,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B70" s="22">
         <v>3200</v>
@@ -3511,7 +3519,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B71" s="22">
         <v>4800</v>
@@ -3519,7 +3527,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B72" s="22">
         <v>6400</v>
@@ -3527,7 +3535,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B73" s="22">
         <v>8000</v>
@@ -3535,7 +3543,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B74" s="22">
         <v>6400</v>
@@ -3543,7 +3551,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B75" s="22">
         <v>14400</v>
@@ -3551,7 +3559,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B76" s="22">
         <v>8000</v>
@@ -3559,7 +3567,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B77" s="22">
         <v>8000</v>
@@ -3567,7 +3575,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B78" s="22">
         <v>3200</v>
@@ -3575,7 +3583,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B79" s="22">
         <v>4800</v>
@@ -3583,7 +3591,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B80" s="22">
         <v>9600</v>
@@ -3591,7 +3599,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B81" s="22">
         <v>16000</v>
@@ -3599,7 +3607,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B82" s="22">
         <v>22400</v>
@@ -3607,7 +3615,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B83" s="22">
         <v>32000</v>
@@ -3615,7 +3623,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B84" s="22">
         <v>112000</v>
@@ -3623,7 +3631,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B85" s="22">
         <v>3200</v>
@@ -3631,7 +3639,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B86" s="22">
         <v>96000</v>
@@ -3639,7 +3647,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B87" s="22">
         <v>16000</v>
@@ -3647,7 +3655,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B88" s="22">
         <v>22400</v>
@@ -3655,7 +3663,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B89" s="22">
         <v>16000</v>
@@ -3663,7 +3671,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B90" s="22">
         <v>25600</v>
@@ -3671,7 +3679,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B91" s="22">
         <v>8000</v>
@@ -3679,7 +3687,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B92" s="22">
         <v>8000</v>
@@ -3687,7 +3695,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B93" s="22">
         <v>8000</v>
@@ -3695,7 +3703,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B94" s="22">
         <v>80000</v>
@@ -3703,7 +3711,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B95" s="22">
         <v>11200</v>
@@ -3711,7 +3719,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B96" s="22">
         <v>22400</v>
@@ -3719,7 +3727,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B97" s="22">
         <v>16000</v>
@@ -3727,7 +3735,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B98" s="22">
         <v>38400</v>
@@ -3735,7 +3743,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B99" s="22">
         <v>9600</v>
@@ -3743,7 +3751,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B100" s="22">
         <v>19200</v>
@@ -3751,7 +3759,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B101" s="22">
         <v>3200</v>
@@ -3759,7 +3767,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B102" s="22">
         <v>6400</v>
@@ -3767,7 +3775,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B103" s="22">
         <v>4800</v>
@@ -3775,7 +3783,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B104" s="22">
         <v>6400</v>
@@ -3783,7 +3791,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B105" s="22">
         <v>19200</v>
@@ -3791,7 +3799,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B106" s="22">
         <v>48000</v>
@@ -3799,7 +3807,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B107" s="22">
         <v>12800</v>
@@ -3807,7 +3815,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B108" s="22">
         <v>32000</v>
@@ -3815,7 +3823,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B109" s="22">
         <v>8000</v>
@@ -3823,7 +3831,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B110" s="22">
         <v>144000</v>
@@ -3831,7 +3839,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B111" s="22">
         <v>57600</v>
@@ -3839,7 +3847,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B112" s="22">
         <v>3200</v>
@@ -3847,7 +3855,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B113" s="22">
         <v>9600</v>
@@ -3855,7 +3863,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B114" s="22">
         <v>9600</v>
@@ -3863,7 +3871,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B115" s="22">
         <v>19200</v>
@@ -3871,7 +3879,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B116" s="22">
         <v>38400</v>
@@ -3879,7 +3887,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B117" s="22">
         <v>8000</v>
@@ -3887,7 +3895,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B118" s="22">
         <v>25600</v>
@@ -3895,7 +3903,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B119" s="22">
         <v>80000</v>
@@ -3911,7 +3919,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B121" s="22">
         <v>6400</v>
@@ -3919,7 +3927,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B122" s="22">
         <v>4800</v>
@@ -3927,7 +3935,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B123" s="22">
         <v>16000</v>
@@ -3935,7 +3943,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B124" s="22">
         <v>19200</v>
@@ -3943,7 +3951,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B125" s="22">
         <v>32000</v>
@@ -3951,7 +3959,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B126" s="22">
         <v>4800</v>
@@ -3959,7 +3967,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B127" s="22">
         <v>16000</v>
@@ -3967,7 +3975,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B128" s="22">
         <v>22400</v>
@@ -3975,7 +3983,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B129" s="22">
         <v>3200</v>
@@ -3983,7 +3991,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B130" s="22">
         <v>3200</v>
@@ -3991,7 +3999,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B131" s="22">
         <v>3200</v>
@@ -3999,7 +4007,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B132" s="22">
         <v>9600</v>
@@ -4007,7 +4015,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B133" s="22">
         <v>28800</v>
@@ -4015,7 +4023,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B134" s="22">
         <v>16000</v>
@@ -4023,7 +4031,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B135" s="22">
         <v>3200</v>
@@ -4031,7 +4039,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B136" s="22">
         <v>9600</v>
@@ -4039,7 +4047,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B137" s="22">
         <v>6400</v>
@@ -4047,7 +4055,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B138" s="22">
         <v>38400</v>
@@ -4055,7 +4063,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B139" s="22">
         <v>4800</v>
@@ -4063,7 +4071,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B140" s="22">
         <v>22400</v>
@@ -4071,7 +4079,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B141" s="22">
         <v>6400</v>
@@ -4079,7 +4087,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B142" s="22">
         <v>3200</v>
@@ -4087,7 +4095,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B143" s="22">
         <v>1600</v>
@@ -4095,7 +4103,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B144" s="22">
         <v>32000</v>
@@ -4103,7 +4111,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B145" s="22">
         <v>19200</v>
@@ -4111,7 +4119,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B146" s="22">
         <v>9600</v>
@@ -4119,7 +4127,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B147" s="22">
         <v>32000</v>
@@ -4127,7 +4135,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B148" s="22">
         <v>9600</v>
@@ -4135,7 +4143,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B149" s="22">
         <v>3200</v>
@@ -4143,7 +4151,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B150" s="22">
         <v>4800</v>
@@ -4151,7 +4159,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B151" s="22">
         <v>9600</v>
@@ -4159,7 +4167,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B152" s="22">
         <v>3200</v>
@@ -4167,7 +4175,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B153" s="22">
         <v>3200</v>
@@ -4175,7 +4183,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B154" s="22">
         <v>3200</v>
@@ -4183,7 +4191,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B155" s="22">
         <v>6400</v>
@@ -4191,7 +4199,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B156" s="22">
         <v>640</v>
@@ -4199,7 +4207,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B157" s="22">
         <v>6400</v>
@@ -4207,7 +4215,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B158" s="22">
         <v>16000</v>
@@ -4215,7 +4223,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B159" s="22">
         <v>12800</v>
@@ -4223,7 +4231,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B160" s="22">
         <v>48000</v>
@@ -4231,7 +4239,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B161" s="22">
         <v>28800</v>
@@ -4239,7 +4247,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B162" s="22">
         <v>3840</v>
@@ -4247,7 +4255,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B163" s="22">
         <v>4800</v>
@@ -4255,7 +4263,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B164" s="22">
         <v>128000</v>
@@ -4263,7 +4271,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B165" s="22">
         <v>176000</v>
@@ -4271,7 +4279,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B166" s="22">
         <v>1920</v>
@@ -4279,7 +4287,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B167" s="22">
         <v>3200</v>
@@ -4287,7 +4295,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B168" s="22">
         <v>6400</v>
@@ -4295,7 +4303,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B169" s="22">
         <v>4800</v>
@@ -4303,7 +4311,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B170" s="22">
         <v>1600</v>
@@ -4311,7 +4319,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B171" s="22">
         <v>4800</v>
@@ -4319,7 +4327,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B172" s="22">
         <v>22400</v>
@@ -4327,7 +4335,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B173" s="22">
         <v>3200</v>
@@ -4335,7 +4343,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B174" s="22">
         <v>3200</v>
@@ -4343,7 +4351,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B175" s="22">
         <v>6400</v>
@@ -4351,7 +4359,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B176" s="22">
         <v>3200</v>
@@ -4359,7 +4367,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B177" s="22">
         <v>3200</v>
@@ -4367,7 +4375,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B178" s="22">
         <v>3200</v>
@@ -4375,7 +4383,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B179" s="22">
         <v>16000</v>
@@ -4383,7 +4391,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B180" s="22">
         <v>1600</v>
@@ -4391,7 +4399,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B181" s="22">
         <v>1600</v>
@@ -4399,7 +4407,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B182" s="22">
         <v>9600</v>
@@ -4407,7 +4415,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B183" s="22">
         <v>2240</v>
@@ -4415,7 +4423,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B184" s="22">
         <v>89600</v>
@@ -4423,7 +4431,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B185" s="22">
         <v>48000</v>
@@ -4431,7 +4439,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B186" s="22">
         <v>25600</v>
@@ -4439,7 +4447,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B187" s="22">
         <v>9600</v>
@@ -4447,7 +4455,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B188" s="22">
         <v>48000</v>
@@ -4455,7 +4463,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B189" s="22">
         <v>3200</v>
@@ -4463,7 +4471,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B190" s="22">
         <v>3200</v>
@@ -4471,7 +4479,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B191" s="22">
         <v>6400</v>
@@ -4479,7 +4487,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B192" s="22">
         <v>32000</v>
@@ -4487,7 +4495,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B193" s="22">
         <v>38400</v>
@@ -4495,7 +4503,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B194" s="22">
         <v>96000</v>
@@ -4503,7 +4511,7 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B195" s="22">
         <v>51200</v>
@@ -4511,7 +4519,7 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B196" s="22">
         <v>35200</v>
@@ -4519,7 +4527,7 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B197" s="22">
         <v>51200</v>
@@ -4527,7 +4535,7 @@
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B198" s="22">
         <v>9600</v>
@@ -4535,7 +4543,7 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B199" s="22">
         <v>54400</v>
@@ -4543,7 +4551,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B200" s="22">
         <v>25600</v>
@@ -4551,7 +4559,7 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B201" s="22">
         <v>70400</v>
@@ -4559,7 +4567,7 @@
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B202" s="22">
         <v>28800</v>
@@ -4567,7 +4575,7 @@
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B203" s="22">
         <v>8000</v>
@@ -4575,7 +4583,7 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B204" s="22">
         <v>22400</v>
@@ -4583,7 +4591,7 @@
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B205" s="22">
         <v>8000</v>
@@ -4591,7 +4599,7 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B206" s="22">
         <v>3200</v>
@@ -4599,7 +4607,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B207" s="22">
         <v>6400</v>
@@ -4607,7 +4615,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B208" s="22">
         <v>6400</v>
@@ -4615,7 +4623,7 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B209" s="22">
         <v>9600</v>
@@ -4623,7 +4631,7 @@
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B210" s="22">
         <v>9600</v>
@@ -4631,7 +4639,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B211" s="22">
         <v>19200</v>
@@ -4639,7 +4647,7 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B212" s="22">
         <v>12800</v>
@@ -4647,7 +4655,7 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B213" s="22">
         <v>9600</v>
@@ -4655,7 +4663,7 @@
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B214" s="22">
         <v>6400</v>
@@ -4663,7 +4671,7 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B215" s="22">
         <v>6400</v>
@@ -4671,7 +4679,7 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B216" s="22">
         <v>48000</v>
@@ -4679,7 +4687,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B217" s="22">
         <v>112000</v>
@@ -4687,7 +4695,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B218" s="22">
         <v>6400</v>
@@ -4695,7 +4703,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B219" s="22">
         <v>6400</v>
@@ -4703,7 +4711,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B220" s="22">
         <v>4800</v>
@@ -4711,7 +4719,7 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B221" s="22">
         <v>9600</v>
@@ -4719,7 +4727,7 @@
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B222" s="22">
         <v>4800</v>
@@ -4727,7 +4735,7 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B223" s="22">
         <v>22400</v>
@@ -4735,7 +4743,7 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B224" s="22">
         <v>12800</v>
@@ -4743,7 +4751,7 @@
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B225" s="22">
         <v>32000</v>
@@ -4751,7 +4759,7 @@
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B226" s="22">
         <v>22400</v>
@@ -4759,7 +4767,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B227" s="22">
         <v>4800</v>
@@ -4767,7 +4775,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B228" s="22">
         <v>41600</v>
@@ -4775,7 +4783,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B229" s="22">
         <v>64000</v>
@@ -4783,7 +4791,7 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B230" s="22">
         <v>9600</v>
@@ -4791,7 +4799,7 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B231" s="22">
         <v>4800</v>
@@ -4799,7 +4807,7 @@
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B232" s="22">
         <v>20800</v>
@@ -4807,7 +4815,7 @@
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B233" s="22">
         <v>30400</v>
@@ -4815,7 +4823,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B234" s="22">
         <v>3200</v>
@@ -4823,7 +4831,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B235" s="22">
         <v>6400</v>
@@ -4831,7 +4839,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B236" s="22">
         <v>3200</v>
@@ -4839,7 +4847,7 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B237" s="22">
         <v>3200</v>
@@ -4847,7 +4855,7 @@
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B238" s="22">
         <v>3200</v>
@@ -4855,7 +4863,7 @@
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B239" s="22">
         <v>3200</v>
@@ -4863,7 +4871,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B240" s="22">
         <v>4800</v>
@@ -4871,7 +4879,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B241" s="22">
         <v>4800</v>
@@ -4879,7 +4887,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B242" s="22">
         <v>4800</v>
@@ -4887,7 +4895,7 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B243" s="22">
         <v>4800</v>
@@ -4895,7 +4903,7 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B244" s="22">
         <v>1920</v>
@@ -4903,7 +4911,7 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B245" s="22">
         <v>3200</v>
@@ -4911,7 +4919,7 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B246" s="22">
         <v>48000</v>
@@ -4919,7 +4927,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B247" s="22">
         <v>57600</v>
@@ -4927,7 +4935,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B248" s="22">
         <v>28800</v>
@@ -4935,7 +4943,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B249" s="22">
         <v>9600</v>
@@ -4943,7 +4951,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B250" s="22">
         <v>8000</v>
@@ -4951,7 +4959,7 @@
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B251" s="22">
         <v>1280</v>
@@ -4959,7 +4967,7 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B252" s="22">
         <v>24000</v>
@@ -4967,7 +4975,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B253" s="22">
         <v>8000</v>
@@ -4975,7 +4983,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B254" s="22">
         <v>22400</v>
@@ -4983,7 +4991,7 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B255" s="22">
         <v>4800</v>
@@ -4991,7 +4999,7 @@
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B256" s="22">
         <v>80000</v>
@@ -4999,7 +5007,7 @@
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B257" s="22">
         <v>176000</v>
@@ -5007,7 +5015,7 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B258" s="22">
         <v>8000</v>
@@ -5015,7 +5023,7 @@
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B259" s="22">
         <v>3200</v>
@@ -5023,7 +5031,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B260" s="22">
         <v>3200</v>
@@ -5031,7 +5039,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B261" s="22">
         <v>4800</v>
@@ -5039,7 +5047,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B262" s="22">
         <v>2240</v>
@@ -5047,7 +5055,7 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B263" s="22">
         <v>16000</v>
@@ -5055,7 +5063,7 @@
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B264" s="22">
         <v>1600</v>
@@ -5063,7 +5071,7 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B265" s="22">
         <v>1600</v>
@@ -5071,7 +5079,7 @@
     </row>
     <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B266" s="22">
         <v>1600</v>
@@ -5079,7 +5087,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B267" s="22">
         <v>2240</v>
@@ -5087,7 +5095,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B268" s="22">
         <v>6400</v>
@@ -5095,7 +5103,7 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B269" s="22">
         <v>3200</v>
@@ -5103,7 +5111,7 @@
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B270" s="22">
         <v>4800</v>
@@ -5111,7 +5119,7 @@
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B271" s="22">
         <v>1600</v>
@@ -5119,7 +5127,7 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B272" s="22">
         <v>2240</v>
@@ -5127,7 +5135,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B273" s="22">
         <v>3200</v>
@@ -5135,7 +5143,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B274" s="22">
         <v>640</v>
@@ -5143,7 +5151,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B275" s="22">
         <v>1600</v>
@@ -5151,7 +5159,7 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B276" s="22">
         <v>960</v>
@@ -5159,7 +5167,7 @@
     </row>
     <row r="277" spans="1:2">
       <c r="A277" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B277" s="22">
         <v>1280</v>
@@ -5167,7 +5175,7 @@
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B278" s="22">
         <v>960</v>
@@ -5175,7 +5183,7 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B279" s="22">
         <v>2240</v>
@@ -5183,7 +5191,7 @@
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B280" s="22">
         <v>640</v>
@@ -5191,7 +5199,7 @@
     </row>
     <row r="281" spans="1:2">
       <c r="A281" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B281" s="22">
         <v>57600</v>
@@ -5199,7 +5207,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B282" s="22">
         <v>3200</v>
@@ -5207,7 +5215,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B283" s="22">
         <v>6400</v>
@@ -5215,7 +5223,7 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B284" s="22">
         <v>8000</v>
@@ -5223,7 +5231,7 @@
     </row>
     <row r="285" spans="1:2">
       <c r="A285" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B285" s="22">
         <v>14400</v>
@@ -5231,7 +5239,7 @@
     </row>
     <row r="286" spans="1:2">
       <c r="A286" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B286" s="22">
         <v>4800</v>
@@ -5239,7 +5247,7 @@
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B287" s="22">
         <v>19200</v>
@@ -5247,7 +5255,7 @@
     </row>
     <row r="288" spans="1:2">
       <c r="A288" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B288" s="22">
         <v>32000</v>
@@ -5255,7 +5263,7 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B289" s="22">
         <v>4800</v>
@@ -5263,7 +5271,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B290" s="22">
         <v>4800</v>
@@ -5271,7 +5279,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B291" s="22">
         <v>11200</v>
@@ -5279,7 +5287,7 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B292" s="22">
         <v>3200</v>
@@ -5287,7 +5295,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B293" s="22">
         <v>1600</v>
@@ -5295,7 +5303,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B294" s="22">
         <v>4800</v>
@@ -5328,12 +5336,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="25" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B2" s="22">
         <v>44800</v>
@@ -5341,7 +5349,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="22">
         <v>64000</v>
@@ -5349,7 +5357,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4" s="22">
         <v>57600</v>
@@ -5357,7 +5365,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B5" s="22">
         <v>38400</v>
@@ -5365,7 +5373,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6" s="22">
         <v>38400</v>
@@ -5381,7 +5389,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="25" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B8" s="22">
         <v>25600</v>
@@ -5389,7 +5397,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B9" s="22">
         <v>12800</v>
@@ -5405,7 +5413,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="25" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B11" s="22">
         <v>25600</v>
@@ -5413,7 +5421,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B12" s="22">
         <v>32000</v>
@@ -5429,7 +5437,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B14" s="22">
         <v>17600</v>
@@ -5437,7 +5445,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B15" s="22">
         <v>19200</v>
@@ -5453,7 +5461,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="25" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B17" s="22">
         <v>22400</v>
@@ -5461,7 +5469,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="25" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B18" s="22">
         <v>25600</v>
@@ -5469,7 +5477,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="25" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B19" s="22">
         <v>320</v>
@@ -5477,7 +5485,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B20" s="22">
         <v>320</v>
@@ -5485,7 +5493,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B21" s="22">
         <v>320</v>
@@ -5493,7 +5501,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="25" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B22" s="22">
         <v>4800</v>
@@ -5501,7 +5509,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="25" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B23" s="22">
         <v>12800</v>
@@ -5509,7 +5517,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="25" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B24" s="22">
         <v>12800</v>
@@ -5541,7 +5549,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="25" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B28" s="22">
         <v>2240</v>
@@ -5557,7 +5565,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="25" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B30" s="22">
         <v>4800</v>
@@ -5565,7 +5573,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="20" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B31" s="22">
         <v>8000</v>
@@ -5573,7 +5581,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="25" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B32" s="22">
         <v>8000</v>
@@ -5581,7 +5589,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="25" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B33" s="22">
         <v>16000</v>
@@ -5589,7 +5597,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="25" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B34" s="22">
         <v>19200</v>
@@ -5597,7 +5605,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="25" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B35" s="22">
         <v>16000</v>
@@ -5605,7 +5613,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="25" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B36" s="22">
         <v>22400</v>
@@ -5637,7 +5645,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="25" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B40" s="22">
         <v>22400</v>
@@ -5645,7 +5653,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="25" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B41" s="22">
         <v>4800</v>
@@ -5653,7 +5661,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B42" s="22">
         <v>9600</v>
@@ -5661,7 +5669,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="25" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B43" s="22">
         <v>64000</v>
@@ -5677,7 +5685,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B45" s="22">
         <v>32000</v>
@@ -5693,7 +5701,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B47" s="22">
         <v>38400</v>
@@ -5709,7 +5717,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B49" s="22">
         <v>22400</v>
@@ -5725,7 +5733,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B51" s="22">
         <v>12800</v>
@@ -5733,7 +5741,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="25" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B52" s="22">
         <v>19200</v>
@@ -5741,7 +5749,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="25" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B53" s="22">
         <v>17600</v>
@@ -5749,7 +5757,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B54" s="22">
         <v>3200</v>
@@ -5773,7 +5781,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B57" s="22">
         <v>4800</v>
@@ -5781,7 +5789,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B58" s="22">
         <v>25600</v>
@@ -5789,7 +5797,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="25" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B59" s="22">
         <v>3200</v>
@@ -5813,7 +5821,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B62" s="22">
         <v>6400</v>
@@ -5821,7 +5829,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="25" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B63" s="22">
         <v>22400</v>
@@ -5853,7 +5861,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="25" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B67" s="22">
         <v>3200</v>
@@ -5861,7 +5869,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="25" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B68" s="22">
         <v>4800</v>
@@ -5877,7 +5885,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="25" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B70" s="22">
         <v>14400</v>
@@ -5885,7 +5893,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="25" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B71" s="22">
         <v>11200</v>
@@ -5893,7 +5901,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B72" s="22">
         <v>64000</v>
@@ -5901,7 +5909,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="25" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B73" s="22">
         <v>4800</v>
@@ -5909,7 +5917,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="25" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B74" s="22">
         <v>3840</v>
@@ -5917,7 +5925,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B75" s="22">
         <v>57600</v>
@@ -5941,7 +5949,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="25" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B78" s="22">
         <v>12800</v>
@@ -5949,7 +5957,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B79" s="22">
         <v>38400</v>
@@ -5957,7 +5965,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B80" s="22">
         <v>22400</v>
@@ -5965,7 +5973,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="25" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B81" s="22">
         <v>6400</v>
@@ -5973,7 +5981,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="25" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B82" s="22">
         <v>4800</v>
@@ -5981,7 +5989,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="25" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B83" s="22">
         <v>24000</v>
@@ -5997,7 +6005,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B85" s="22">
         <v>48000</v>
@@ -6005,7 +6013,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B86" s="22">
         <v>41600</v>
@@ -6013,7 +6021,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87" s="22">
         <v>1600</v>
@@ -6021,7 +6029,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88" s="22">
         <v>2240</v>
@@ -6029,7 +6037,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B89" s="22">
         <v>1600</v>
@@ -6037,7 +6045,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B90" s="22">
         <v>11200</v>
@@ -6045,7 +6053,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="25" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B91" s="22">
         <v>12800</v>
@@ -6053,7 +6061,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="25" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B92" s="22">
         <v>12800</v>
@@ -6061,7 +6069,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="25" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B93" s="22">
         <v>22400</v>
@@ -6069,7 +6077,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="25" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B94" s="22">
         <v>6400</v>
@@ -6077,7 +6085,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="25" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B95" s="22">
         <v>12800</v>
@@ -6093,7 +6101,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="25" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B97" s="22">
         <v>3200</v>
@@ -6101,7 +6109,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="25" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B98" s="22">
         <v>1600</v>
@@ -6109,7 +6117,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="11" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B99" s="22">
         <v>9600</v>
@@ -6117,7 +6125,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B100" s="22">
         <v>3200</v>
@@ -6125,7 +6133,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="25" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B101" s="22">
         <v>4800</v>
@@ -6133,7 +6141,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="25" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B102" s="22">
         <v>3200</v>
@@ -6157,10 +6165,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B187"/>
+  <dimension ref="A1:B188"/>
   <sheetViews>
-    <sheetView topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
+    <sheetView topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
@@ -6174,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6195,7 +6203,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B4" s="22">
         <v>64000</v>
@@ -6203,7 +6211,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B5" s="22">
         <v>80000</v>
@@ -6219,7 +6227,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B7" s="22">
         <v>57600</v>
@@ -6227,7 +6235,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" s="22">
         <v>57600</v>
@@ -6235,7 +6243,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B9" s="22">
         <v>38400</v>
@@ -6243,7 +6251,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B10" s="22">
         <v>25600</v>
@@ -6251,7 +6259,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B11" s="22">
         <v>11200</v>
@@ -6259,7 +6267,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B12" s="22">
         <v>11200</v>
@@ -6275,7 +6283,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B14" s="22">
         <v>25600</v>
@@ -6283,7 +6291,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B15" s="22">
         <v>32000</v>
@@ -6291,7 +6299,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="22">
         <v>8000</v>
@@ -6315,7 +6323,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B19" s="22">
         <v>19200</v>
@@ -6323,7 +6331,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B20" s="22">
         <v>19200</v>
@@ -6339,7 +6347,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B22" s="22">
         <v>19200</v>
@@ -6355,7 +6363,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B24" s="22">
         <v>32000</v>
@@ -6371,7 +6379,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B26" s="22">
         <v>320</v>
@@ -6379,7 +6387,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B27" s="22">
         <v>320</v>
@@ -6387,7 +6395,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B28" s="22">
         <v>320</v>
@@ -6395,7 +6403,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B29" s="22">
         <v>3200</v>
@@ -6403,7 +6411,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B30" s="22">
         <v>25600</v>
@@ -6411,7 +6419,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B31" s="22">
         <v>25600</v>
@@ -6419,7 +6427,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B32" s="22">
         <v>25600</v>
@@ -6427,7 +6435,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B33" s="22">
         <v>3200</v>
@@ -6435,7 +6443,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B34" s="22">
         <v>3200</v>
@@ -6443,7 +6451,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B35" s="22">
         <v>1600</v>
@@ -6451,7 +6459,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B36" s="22">
         <v>2240</v>
@@ -6459,7 +6467,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B37" s="22">
         <v>2240</v>
@@ -6467,7 +6475,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B38" s="22">
         <v>9600</v>
@@ -6475,7 +6483,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B39" s="22">
         <v>12800</v>
@@ -6483,7 +6491,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B40" s="22">
         <v>25600</v>
@@ -6491,7 +6499,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B41" s="22">
         <v>28800</v>
@@ -6499,7 +6507,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B42" s="22">
         <v>8000</v>
@@ -6523,7 +6531,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B45" s="22">
         <v>12800</v>
@@ -6531,7 +6539,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B46" s="22">
         <v>8000</v>
@@ -6539,7 +6547,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B47" s="22">
         <v>9600</v>
@@ -6547,7 +6555,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B48" s="22">
         <v>19200</v>
@@ -6555,7 +6563,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B49" s="22">
         <v>11200</v>
@@ -6595,7 +6603,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B54" s="22">
         <v>9600</v>
@@ -6651,7 +6659,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B61" s="22">
         <v>16000</v>
@@ -6683,7 +6691,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B65" s="22">
         <v>51200</v>
@@ -6731,7 +6739,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B71" s="22">
         <v>80000</v>
@@ -6779,7 +6787,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B77" s="22">
         <v>22400</v>
@@ -6787,7 +6795,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B78" s="22">
         <v>22400</v>
@@ -6795,7 +6803,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B79" s="22">
         <v>22400</v>
@@ -6803,15 +6811,15 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B80" s="22">
         <v>44800</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="2" t="s">
-        <v>64</v>
+      <c r="A81" s="33" t="s">
+        <v>616</v>
       </c>
       <c r="B81" s="22">
         <v>44800</v>
@@ -6819,7 +6827,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B82" s="22">
         <v>57600</v>
@@ -6827,7 +6835,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B83" s="22">
         <v>8000</v>
@@ -6835,7 +6843,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B84" s="22">
         <v>16000</v>
@@ -6843,7 +6851,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B85" s="22">
         <v>8000</v>
@@ -6851,7 +6859,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B86" s="22">
         <v>19200</v>
@@ -6859,7 +6867,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B87" s="22">
         <v>19200</v>
@@ -6867,7 +6875,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B88" s="22">
         <v>38400</v>
@@ -6875,7 +6883,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B89" s="22">
         <v>48000</v>
@@ -6883,7 +6891,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B90" s="22">
         <v>3200</v>
@@ -6891,7 +6899,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B91" s="22">
         <v>3200</v>
@@ -6899,7 +6907,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B92" s="22">
         <v>4800</v>
@@ -6907,7 +6915,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B93" s="22">
         <v>3200</v>
@@ -6915,7 +6923,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B94" s="22">
         <v>3200</v>
@@ -6923,7 +6931,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B95" s="22">
         <v>4800</v>
@@ -6931,7 +6939,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B96" s="22">
         <v>25600</v>
@@ -6939,7 +6947,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B97" s="22">
         <v>25600</v>
@@ -6947,7 +6955,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B98" s="22">
         <v>3200</v>
@@ -6955,7 +6963,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B99" s="22">
         <v>8000</v>
@@ -6963,7 +6971,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B100" s="22">
         <v>8000</v>
@@ -6971,7 +6979,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B101" s="22">
         <v>6400</v>
@@ -6979,7 +6987,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B102" s="22">
         <v>6400</v>
@@ -6987,7 +6995,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B103" s="22">
         <v>3200</v>
@@ -6995,7 +7003,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="16" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B104" s="22">
         <v>19200</v>
@@ -7003,7 +7011,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B105" s="22">
         <v>19200</v>
@@ -7011,7 +7019,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B106" s="22">
         <v>6400</v>
@@ -7019,7 +7027,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B107" s="22">
         <v>4800</v>
@@ -7027,7 +7035,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B108" s="22">
         <v>4800</v>
@@ -7035,7 +7043,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B109" s="22">
         <v>8000</v>
@@ -7043,7 +7051,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B110" s="22">
         <v>3200</v>
@@ -7051,7 +7059,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B111" s="22">
         <v>4800</v>
@@ -7059,7 +7067,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B112" s="22">
         <v>4800</v>
@@ -7067,7 +7075,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B113" s="22">
         <v>3200</v>
@@ -7075,7 +7083,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B114" s="22">
         <v>4800</v>
@@ -7083,7 +7091,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B115" s="22">
         <v>4800</v>
@@ -7091,7 +7099,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B116" s="22">
         <v>4800</v>
@@ -7099,7 +7107,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B117" s="22">
         <v>14400</v>
@@ -7107,7 +7115,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B118" s="22">
         <v>11200</v>
@@ -7115,7 +7123,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B119" s="22">
         <v>80000</v>
@@ -7123,7 +7131,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B120" s="22">
         <v>64000</v>
@@ -7131,7 +7139,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B121" s="22">
         <v>48000</v>
@@ -7139,7 +7147,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B122" s="22">
         <v>48000</v>
@@ -7147,7 +7155,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B123" s="22">
         <v>44800</v>
@@ -7155,7 +7163,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B124" s="22">
         <v>38400</v>
@@ -7163,7 +7171,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B125" s="22">
         <v>3840</v>
@@ -7171,7 +7179,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B126" s="22">
         <v>64000</v>
@@ -7179,7 +7187,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B127" s="22">
         <v>73600</v>
@@ -7187,7 +7195,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B128" s="22">
         <v>112000</v>
@@ -7203,7 +7211,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B130" s="22">
         <v>57600</v>
@@ -7211,7 +7219,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B131" s="22">
         <v>11200</v>
@@ -7219,7 +7227,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B132" s="22">
         <v>11200</v>
@@ -7227,7 +7235,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B133" s="22">
         <v>12800</v>
@@ -7235,7 +7243,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B134" s="22">
         <v>38400</v>
@@ -7243,7 +7251,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B135" s="22">
         <v>22400</v>
@@ -7251,7 +7259,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B136" s="22">
         <v>6400</v>
@@ -7259,7 +7267,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B137" s="22">
         <v>19200</v>
@@ -7267,7 +7275,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B138" s="22">
         <v>14400</v>
@@ -7275,7 +7283,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B139" s="22">
         <v>8000</v>
@@ -7283,7 +7291,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B140" s="22">
         <v>24000</v>
@@ -7291,7 +7299,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B141" s="22">
         <v>14400</v>
@@ -7299,7 +7307,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B142" s="22">
         <v>48000</v>
@@ -7307,7 +7315,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B143" s="22">
         <v>51200</v>
@@ -7315,7 +7323,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B144" s="22">
         <v>48000</v>
@@ -7323,7 +7331,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B145" s="22">
         <v>64000</v>
@@ -7331,7 +7339,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2" t="s">
-        <v>173</v>
+        <v>617</v>
       </c>
       <c r="B146" s="22">
         <v>44800</v>
@@ -7339,31 +7347,31 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2" t="s">
-        <v>80</v>
+        <v>619</v>
       </c>
       <c r="B147" s="22">
-        <v>41600</v>
+        <v>57600</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B148" s="22">
-        <v>25600</v>
+        <v>41600</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B149" s="22">
-        <v>32000</v>
+        <v>25600</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B150" s="22">
         <v>32000</v>
@@ -7371,87 +7379,87 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B151" s="22">
-        <v>38400</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B152" s="22">
-        <v>32000</v>
+        <v>38400</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B153" s="22">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B154" s="22">
         <v>38400</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
-      <c r="A154" t="s">
-        <v>531</v>
-      </c>
-      <c r="B154" s="22">
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>529</v>
+      </c>
+      <c r="B155" s="22">
         <v>57600</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B155" s="22">
-        <v>1600</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B156" s="22">
-        <v>2240</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2" t="s">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c r="B157" s="22">
-        <v>2560</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2" t="s">
-        <v>181</v>
+        <v>88</v>
       </c>
       <c r="B158" s="22">
-        <v>1600</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="B159" s="22">
-        <v>80000</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B160" s="22">
-        <v>64000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B161" s="22">
         <v>64000</v>
@@ -7459,15 +7467,15 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B162" s="22">
-        <v>48000</v>
+        <v>64000</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B163" s="22">
         <v>48000</v>
@@ -7475,31 +7483,31 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B164" s="22">
-        <v>57600</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B165" s="22">
         <v>57600</v>
       </c>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" s="15" t="s">
-        <v>174</v>
+      <c r="A166" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="B166" s="22">
-        <v>11200</v>
+        <v>57600</v>
       </c>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167" s="2" t="s">
-        <v>175</v>
+      <c r="A167" s="15" t="s">
+        <v>172</v>
       </c>
       <c r="B167" s="22">
         <v>11200</v>
@@ -7507,39 +7515,39 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2" t="s">
-        <v>90</v>
+        <v>173</v>
       </c>
       <c r="B168" s="22">
-        <v>9600</v>
+        <v>11200</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B169" s="22">
-        <v>12800</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B170" s="22">
-        <v>9600</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2" t="s">
-        <v>496</v>
+        <v>91</v>
       </c>
       <c r="B171" s="22">
-        <v>12800</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2" t="s">
-        <v>93</v>
+        <v>494</v>
       </c>
       <c r="B172" s="22">
         <v>12800</v>
@@ -7547,7 +7555,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2" t="s">
-        <v>585</v>
+        <v>92</v>
       </c>
       <c r="B173" s="22">
         <v>12800</v>
@@ -7555,7 +7563,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2" t="s">
-        <v>94</v>
+        <v>583</v>
       </c>
       <c r="B174" s="22">
         <v>12800</v>
@@ -7563,7 +7571,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B175" s="22">
         <v>12800</v>
@@ -7571,23 +7579,23 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2" t="s">
-        <v>586</v>
+        <v>94</v>
       </c>
       <c r="B176" s="22">
-        <v>11200</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2" t="s">
-        <v>127</v>
+        <v>584</v>
       </c>
       <c r="B177" s="22">
-        <v>6400</v>
+        <v>11200</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B178" s="22">
         <v>6400</v>
@@ -7595,79 +7603,87 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2" t="s">
-        <v>507</v>
+        <v>127</v>
       </c>
       <c r="B179" s="22">
-        <v>22400</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2" t="s">
-        <v>587</v>
+        <v>505</v>
       </c>
       <c r="B180" s="22">
-        <v>3200</v>
+        <v>22400</v>
       </c>
     </row>
     <row r="181" spans="1:2">
-      <c r="A181" s="19" t="s">
-        <v>131</v>
+      <c r="A181" s="2" t="s">
+        <v>585</v>
       </c>
       <c r="B181" s="22">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B182" s="22">
         <v>9600</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
-      <c r="A182" t="s">
-        <v>451</v>
-      </c>
-      <c r="B182" s="22">
-        <v>3200</v>
-      </c>
-    </row>
     <row r="183" spans="1:2">
-      <c r="A183" s="2" t="s">
-        <v>588</v>
+      <c r="A183" t="s">
+        <v>449</v>
       </c>
       <c r="B183" s="22">
-        <v>6400</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2" t="s">
-        <v>498</v>
+        <v>586</v>
       </c>
       <c r="B184" s="22">
-        <v>3200</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2" t="s">
-        <v>126</v>
+        <v>496</v>
       </c>
       <c r="B185" s="22">
-        <v>19200</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="B186" s="22">
-        <v>11200</v>
+        <v>19200</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B187" s="22">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B188" s="22">
         <v>12800</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B169">
-    <sortCondition ref="A2:A169"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B188">
+    <sortCondition ref="A2:A188"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7691,12 +7707,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="32" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B2" s="22">
         <v>8000</v>
@@ -7704,7 +7720,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="32" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B3" s="22">
         <v>11200</v>
@@ -7712,7 +7728,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="32" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B4" s="22">
         <v>32000</v>
@@ -7720,7 +7736,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="32" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B5" s="22">
         <v>28800</v>
@@ -7728,7 +7744,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="32" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B6" s="22">
         <v>12800</v>
@@ -7736,7 +7752,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="32" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B7" s="22">
         <v>11200</v>
@@ -7744,7 +7760,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="32" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B8" s="22">
         <v>16000</v>
@@ -7752,7 +7768,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="32" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B9" s="22">
         <v>8000</v>
@@ -7760,7 +7776,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="32" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B10" s="22">
         <v>3200</v>
@@ -7768,7 +7784,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="32" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B11" s="22">
         <v>3200</v>
@@ -7776,7 +7792,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="32" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B12" s="22">
         <v>3200</v>
@@ -7784,7 +7800,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="32" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B13" s="22">
         <v>4800</v>
@@ -7792,7 +7808,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="32" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B14" s="22">
         <v>8000</v>
@@ -7800,7 +7816,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="32" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B15" s="22">
         <v>6400</v>
@@ -7808,7 +7824,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="32" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B16" s="22">
         <v>3200</v>
@@ -7816,7 +7832,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="32" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B17" s="22">
         <v>38400</v>
@@ -7824,7 +7840,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="32" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B18" s="22">
         <v>35200</v>
@@ -7832,7 +7848,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="32" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B19" s="22">
         <v>9600</v>
@@ -7840,7 +7856,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="32" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B20" s="22">
         <v>28800</v>
@@ -7848,7 +7864,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="32" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B21" s="22">
         <v>16000</v>
@@ -7856,7 +7872,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="32" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B22" s="22">
         <v>14400</v>
@@ -7864,7 +7880,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="32" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B23" s="22">
         <v>22400</v>
@@ -7872,7 +7888,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="32" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B24" s="22">
         <v>9600</v>
@@ -7880,7 +7896,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="32" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B25" s="22">
         <v>3200</v>
@@ -7888,7 +7904,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="32" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B26" s="22">
         <v>3200</v>
@@ -7896,7 +7912,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="32" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B27" s="22">
         <v>9600</v>
@@ -7909,10 +7925,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B38"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
@@ -7926,12 +7942,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B2" s="22">
         <v>3840</v>
@@ -7939,7 +7955,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B3" s="22">
         <v>16000</v>
@@ -7947,7 +7963,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B4" s="22">
         <v>3840</v>
@@ -7955,7 +7971,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B5" s="22">
         <v>16000</v>
@@ -7963,7 +7979,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B6" s="22">
         <v>16000</v>
@@ -7971,7 +7987,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B7" s="22">
         <v>22400</v>
@@ -7979,7 +7995,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B8" s="22">
         <v>16000</v>
@@ -7987,7 +8003,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B9" s="22">
         <v>4800</v>
@@ -7995,7 +8011,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B10" s="22">
         <v>3840</v>
@@ -8003,7 +8019,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B11" s="22">
         <v>3840</v>
@@ -8011,7 +8027,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B12" s="22">
         <v>25600</v>
@@ -8019,7 +8035,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B13" s="22">
         <v>32000</v>
@@ -8027,7 +8043,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B14" s="22">
         <v>320</v>
@@ -8035,7 +8051,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B15" s="22">
         <v>320</v>
@@ -8043,7 +8059,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B16" s="22">
         <v>320</v>
@@ -8051,7 +8067,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B17" s="22">
         <v>3200</v>
@@ -8059,7 +8075,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B18" s="22">
         <v>3200</v>
@@ -8067,7 +8083,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B19" s="22">
         <v>3200</v>
@@ -8075,7 +8091,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B20" s="22">
         <v>9600</v>
@@ -8083,7 +8099,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B21" s="22">
         <v>1600</v>
@@ -8091,7 +8107,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B22" s="22">
         <v>22400</v>
@@ -8099,7 +8115,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B23" s="22">
         <v>25600</v>
@@ -8107,7 +8123,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B24" s="22">
         <v>25600</v>
@@ -8115,7 +8131,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B25" s="22">
         <v>3200</v>
@@ -8123,7 +8139,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B26" s="22">
         <v>3840</v>
@@ -8131,7 +8147,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B27" s="22">
         <v>3200</v>
@@ -8139,7 +8155,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B28" s="22">
         <v>4800</v>
@@ -8147,7 +8163,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B29" s="22">
         <v>3840</v>
@@ -8155,7 +8171,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B30" s="22">
         <v>3840</v>
@@ -8163,7 +8179,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B31" s="22">
         <v>3840</v>
@@ -8171,7 +8187,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B32" s="22">
         <v>5760</v>
@@ -8179,7 +8195,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B33" s="22">
         <v>6400</v>
@@ -8187,7 +8203,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B34" s="22">
         <v>3840</v>
@@ -8195,7 +8211,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B35" s="22">
         <v>2240</v>
@@ -8203,7 +8219,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B36" s="22">
         <v>3840</v>
@@ -8211,7 +8227,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B37" s="22">
         <v>3840</v>
@@ -8219,10 +8235,18 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B38" s="22">
         <v>3200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>618</v>
+      </c>
+      <c r="B39" s="22">
+        <v>4800</v>
       </c>
     </row>
   </sheetData>

--- a/clientes/files/TODITICO_CATÁLOGO.xlsx
+++ b/clientes/files/TODITICO_CATÁLOGO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabajo\Catálogos Proformas\Este\320 Actual\Clientes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2809F4D3-1C41-4374-8297-B78B3555D3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B632FB7E-D1BA-46EB-882D-DD7AB8ACBED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="620">
   <si>
     <t>DESCRIPCION</t>
   </si>
@@ -2945,10 +2945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B294"/>
+  <dimension ref="A1:B295"/>
   <sheetViews>
-    <sheetView topLeftCell="A273" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
@@ -5111,7 +5111,7 @@
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>408</v>
+        <v>618</v>
       </c>
       <c r="B270" s="22">
         <v>4800</v>
@@ -5119,159 +5119,159 @@
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B271" s="22">
-        <v>1600</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B272" s="22">
-        <v>2240</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B273" s="22">
-        <v>3200</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B274" s="22">
-        <v>640</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B275" s="22">
-        <v>1600</v>
+        <v>640</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B276" s="22">
-        <v>960</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B277" s="22">
-        <v>1280</v>
+        <v>960</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>462</v>
+        <v>415</v>
       </c>
       <c r="B278" s="22">
-        <v>960</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" t="s">
-        <v>520</v>
+        <v>462</v>
       </c>
       <c r="B279" s="22">
-        <v>2240</v>
+        <v>960</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>416</v>
+        <v>520</v>
       </c>
       <c r="B280" s="22">
-        <v>640</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" t="s">
-        <v>542</v>
+        <v>416</v>
       </c>
       <c r="B281" s="22">
-        <v>57600</v>
+        <v>640</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="B282" s="22">
-        <v>3200</v>
+        <v>57600</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>417</v>
+        <v>525</v>
       </c>
       <c r="B283" s="22">
-        <v>6400</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B284" s="22">
-        <v>8000</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B285" s="22">
-        <v>14400</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B286" s="22">
-        <v>4800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B287" s="22">
-        <v>19200</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B288" s="22">
-        <v>32000</v>
+        <v>19200</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" t="s">
-        <v>526</v>
+        <v>422</v>
       </c>
       <c r="B289" s="22">
-        <v>4800</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B290" s="22">
         <v>4800</v>
@@ -5279,39 +5279,47 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" t="s">
-        <v>423</v>
+        <v>527</v>
       </c>
       <c r="B291" s="22">
-        <v>11200</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B292" s="22">
-        <v>3200</v>
+        <v>11200</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" t="s">
-        <v>508</v>
+        <v>424</v>
       </c>
       <c r="B293" s="22">
-        <v>1600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" t="s">
+        <v>508</v>
+      </c>
+      <c r="B294" s="22">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" t="s">
         <v>425</v>
       </c>
-      <c r="B294" s="22">
+      <c r="B295" s="22">
         <v>4800</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B291">
-    <sortCondition ref="A2:A291"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B295">
+    <sortCondition ref="A3:A295"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5319,10 +5327,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B104"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
@@ -6132,8 +6140,8 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="25" t="s">
-        <v>492</v>
+      <c r="A101" t="s">
+        <v>618</v>
       </c>
       <c r="B101" s="22">
         <v>4800</v>
@@ -6141,23 +6149,31 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="25" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="B102" s="22">
-        <v>3200</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="B103" s="22">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B103" s="22">
+      <c r="B104" s="22">
         <v>11200</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B73">
-    <sortCondition ref="A2:A73"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B104">
+    <sortCondition ref="A3:A104"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6165,10 +6181,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B188"/>
+  <dimension ref="A1:B189"/>
   <sheetViews>
-    <sheetView topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
@@ -7642,48 +7658,56 @@
       </c>
     </row>
     <row r="184" spans="1:2">
-      <c r="A184" s="2" t="s">
-        <v>586</v>
+      <c r="A184" t="s">
+        <v>618</v>
       </c>
       <c r="B184" s="22">
-        <v>6400</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2" t="s">
-        <v>496</v>
+        <v>586</v>
       </c>
       <c r="B185" s="22">
-        <v>3200</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2" t="s">
-        <v>125</v>
+        <v>496</v>
       </c>
       <c r="B186" s="22">
-        <v>19200</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="B187" s="22">
-        <v>11200</v>
+        <v>19200</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B188" s="22">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B188" s="22">
+      <c r="B189" s="22">
         <v>12800</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B188">
-    <sortCondition ref="A2:A188"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B189">
+    <sortCondition ref="A2:A189"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7927,8 +7951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
@@ -8250,8 +8274,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B36">
-    <sortCondition ref="A2:A36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B39">
+    <sortCondition ref="A2:A39"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/clientes/files/TODITICO_CATÁLOGO.xlsx
+++ b/clientes/files/TODITICO_CATÁLOGO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabajo\Catálogos Proformas\Este\320 Actual\Clientes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabajo\Catálogos Proformas\Este\330 Actual\Clientes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA3971F-334E-48B2-8946-AF3CB37F549E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA941F34-1C99-4F83-A53E-2983E8987453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DAEWOO TICO" sheetId="1" r:id="rId1"/>
@@ -2428,8 +2428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B295"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
@@ -2451,7 +2451,7 @@
         <v>187</v>
       </c>
       <c r="B2" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2459,7 +2459,7 @@
         <v>469</v>
       </c>
       <c r="B3" s="1">
-        <v>3840</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2467,7 +2467,7 @@
         <v>188</v>
       </c>
       <c r="B4" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2475,7 +2475,7 @@
         <v>512</v>
       </c>
       <c r="B5" s="1">
-        <v>6400</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2483,7 +2483,7 @@
         <v>513</v>
       </c>
       <c r="B6" s="1">
-        <v>2240</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2491,7 +2491,7 @@
         <v>189</v>
       </c>
       <c r="B7" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2499,7 +2499,7 @@
         <v>190</v>
       </c>
       <c r="B8" s="1">
-        <v>25600</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2507,7 +2507,7 @@
         <v>514</v>
       </c>
       <c r="B9" s="1">
-        <v>32000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2515,7 +2515,7 @@
         <v>191</v>
       </c>
       <c r="B10" s="1">
-        <v>38400</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2523,7 +2523,7 @@
         <v>192</v>
       </c>
       <c r="B11" s="1">
-        <v>32000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2531,7 +2531,7 @@
         <v>193</v>
       </c>
       <c r="B12" s="1">
-        <v>51200</v>
+        <v>52800</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2539,7 +2539,7 @@
         <v>196</v>
       </c>
       <c r="B13" s="1">
-        <v>11200</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2547,7 +2547,7 @@
         <v>194</v>
       </c>
       <c r="B14" s="1">
-        <v>48000</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2555,7 +2555,7 @@
         <v>195</v>
       </c>
       <c r="B15" s="1">
-        <v>35200</v>
+        <v>36300</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2563,7 +2563,7 @@
         <v>197</v>
       </c>
       <c r="B16" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2571,7 +2571,7 @@
         <v>198</v>
       </c>
       <c r="B17" s="1">
-        <v>12800</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2579,7 +2579,7 @@
         <v>199</v>
       </c>
       <c r="B18" s="1">
-        <v>9600</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2587,7 +2587,7 @@
         <v>515</v>
       </c>
       <c r="B19" s="1">
-        <v>1600</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2595,7 +2595,7 @@
         <v>200</v>
       </c>
       <c r="B20" s="1">
-        <v>960</v>
+        <v>990</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2603,7 +2603,7 @@
         <v>201</v>
       </c>
       <c r="B21" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2611,7 +2611,7 @@
         <v>202</v>
       </c>
       <c r="B22" s="1">
-        <v>38400</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2619,7 +2619,7 @@
         <v>619</v>
       </c>
       <c r="B23" s="1">
-        <v>16000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2627,7 +2627,7 @@
         <v>203</v>
       </c>
       <c r="B24" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2635,7 +2635,7 @@
         <v>204</v>
       </c>
       <c r="B25" s="1">
-        <v>28800</v>
+        <v>29700</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2643,7 +2643,7 @@
         <v>205</v>
       </c>
       <c r="B26" s="1">
-        <v>11200</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2651,7 +2651,7 @@
         <v>206</v>
       </c>
       <c r="B27" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2659,7 +2659,7 @@
         <v>207</v>
       </c>
       <c r="B28" s="1">
-        <v>48000</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2667,7 +2667,7 @@
         <v>208</v>
       </c>
       <c r="B29" s="1">
-        <v>38400</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2675,7 +2675,7 @@
         <v>209</v>
       </c>
       <c r="B30" s="1">
-        <v>54400</v>
+        <v>56100</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2683,7 +2683,7 @@
         <v>210</v>
       </c>
       <c r="B31" s="1">
-        <v>9600</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2691,7 +2691,7 @@
         <v>211</v>
       </c>
       <c r="B32" s="1">
-        <v>19200</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2699,7 +2699,7 @@
         <v>212</v>
       </c>
       <c r="B33" s="1">
-        <v>9600</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2707,7 +2707,7 @@
         <v>479</v>
       </c>
       <c r="B34" s="1">
-        <v>25600</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2715,7 +2715,7 @@
         <v>183</v>
       </c>
       <c r="B35" s="1">
-        <v>32000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2723,7 +2723,7 @@
         <v>213</v>
       </c>
       <c r="B36" s="1">
-        <v>8000</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2731,7 +2731,7 @@
         <v>467</v>
       </c>
       <c r="B37" s="1">
-        <v>16000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2739,7 +2739,7 @@
         <v>455</v>
       </c>
       <c r="B38" s="1">
-        <v>3840</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2747,7 +2747,7 @@
         <v>214</v>
       </c>
       <c r="B39" s="1">
-        <v>12800</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2755,7 +2755,7 @@
         <v>215</v>
       </c>
       <c r="B40" s="1">
-        <v>25600</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2763,7 +2763,7 @@
         <v>216</v>
       </c>
       <c r="B41" s="1">
-        <v>14400</v>
+        <v>14850</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2771,7 +2771,7 @@
         <v>217</v>
       </c>
       <c r="B42" s="1">
-        <v>19200</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2779,7 +2779,7 @@
         <v>218</v>
       </c>
       <c r="B43" s="1">
-        <v>14400</v>
+        <v>14850</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2787,7 +2787,7 @@
         <v>219</v>
       </c>
       <c r="B44" s="1">
-        <v>6400</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2795,7 +2795,7 @@
         <v>452</v>
       </c>
       <c r="B45" s="1">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2803,7 +2803,7 @@
         <v>453</v>
       </c>
       <c r="B46" s="1">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2811,7 +2811,7 @@
         <v>447</v>
       </c>
       <c r="B47" s="1">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2819,7 +2819,7 @@
         <v>478</v>
       </c>
       <c r="B48" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2827,7 +2827,7 @@
         <v>220</v>
       </c>
       <c r="B49" s="1">
-        <v>32000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2835,7 +2835,7 @@
         <v>221</v>
       </c>
       <c r="B50" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2843,7 +2843,7 @@
         <v>222</v>
       </c>
       <c r="B51" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2851,7 +2851,7 @@
         <v>425</v>
       </c>
       <c r="B52" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2859,7 +2859,7 @@
         <v>426</v>
       </c>
       <c r="B53" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2867,7 +2867,7 @@
         <v>223</v>
       </c>
       <c r="B54" s="1">
-        <v>19200</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2875,7 +2875,7 @@
         <v>224</v>
       </c>
       <c r="B55" s="1">
-        <v>12800</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2883,7 +2883,7 @@
         <v>225</v>
       </c>
       <c r="B56" s="1">
-        <v>6400</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2891,7 +2891,7 @@
         <v>226</v>
       </c>
       <c r="B57" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2899,7 +2899,7 @@
         <v>227</v>
       </c>
       <c r="B58" s="1">
-        <v>6400</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2907,7 +2907,7 @@
         <v>228</v>
       </c>
       <c r="B59" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2915,7 +2915,7 @@
         <v>229</v>
       </c>
       <c r="B60" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2923,7 +2923,7 @@
         <v>230</v>
       </c>
       <c r="B61" s="1">
-        <v>1600</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2931,7 +2931,7 @@
         <v>231</v>
       </c>
       <c r="B62" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2939,7 +2939,7 @@
         <v>233</v>
       </c>
       <c r="B63" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2947,7 +2947,7 @@
         <v>237</v>
       </c>
       <c r="B64" s="1">
-        <v>640</v>
+        <v>660</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2955,7 +2955,7 @@
         <v>234</v>
       </c>
       <c r="B65" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2963,7 +2963,7 @@
         <v>235</v>
       </c>
       <c r="B66" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2971,7 +2971,7 @@
         <v>236</v>
       </c>
       <c r="B67" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2979,7 +2979,7 @@
         <v>531</v>
       </c>
       <c r="B68" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2987,7 +2987,7 @@
         <v>232</v>
       </c>
       <c r="B69" s="1">
-        <v>2240</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2995,7 +2995,7 @@
         <v>238</v>
       </c>
       <c r="B70" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -3003,7 +3003,7 @@
         <v>239</v>
       </c>
       <c r="B71" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -3011,7 +3011,7 @@
         <v>240</v>
       </c>
       <c r="B72" s="1">
-        <v>6400</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -3019,7 +3019,7 @@
         <v>241</v>
       </c>
       <c r="B73" s="1">
-        <v>8000</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -3027,7 +3027,7 @@
         <v>242</v>
       </c>
       <c r="B74" s="1">
-        <v>6400</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -3035,7 +3035,7 @@
         <v>243</v>
       </c>
       <c r="B75" s="1">
-        <v>14400</v>
+        <v>14850</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -3043,7 +3043,7 @@
         <v>244</v>
       </c>
       <c r="B76" s="1">
-        <v>8000</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -3051,7 +3051,7 @@
         <v>245</v>
       </c>
       <c r="B77" s="1">
-        <v>8000</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -3059,7 +3059,7 @@
         <v>246</v>
       </c>
       <c r="B78" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -3067,7 +3067,7 @@
         <v>465</v>
       </c>
       <c r="B79" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -3075,7 +3075,7 @@
         <v>466</v>
       </c>
       <c r="B80" s="1">
-        <v>9600</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -3083,7 +3083,7 @@
         <v>247</v>
       </c>
       <c r="B81" s="1">
-        <v>16000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -3091,7 +3091,7 @@
         <v>248</v>
       </c>
       <c r="B82" s="1">
-        <v>22400</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -3099,7 +3099,7 @@
         <v>249</v>
       </c>
       <c r="B83" s="1">
-        <v>32000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -3107,7 +3107,7 @@
         <v>250</v>
       </c>
       <c r="B84" s="1">
-        <v>112000</v>
+        <v>115500</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -3115,7 +3115,7 @@
         <v>251</v>
       </c>
       <c r="B85" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -3123,7 +3123,7 @@
         <v>252</v>
       </c>
       <c r="B86" s="1">
-        <v>96000</v>
+        <v>99000</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -3131,7 +3131,7 @@
         <v>253</v>
       </c>
       <c r="B87" s="1">
-        <v>16000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -3139,7 +3139,7 @@
         <v>456</v>
       </c>
       <c r="B88" s="1">
-        <v>22400</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -3147,7 +3147,7 @@
         <v>254</v>
       </c>
       <c r="B89" s="1">
-        <v>16000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -3155,7 +3155,7 @@
         <v>255</v>
       </c>
       <c r="B90" s="1">
-        <v>25600</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -3163,7 +3163,7 @@
         <v>256</v>
       </c>
       <c r="B91" s="1">
-        <v>8000</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -3171,7 +3171,7 @@
         <v>472</v>
       </c>
       <c r="B92" s="1">
-        <v>8000</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -3179,7 +3179,7 @@
         <v>257</v>
       </c>
       <c r="B93" s="1">
-        <v>8000</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -3187,7 +3187,7 @@
         <v>539</v>
       </c>
       <c r="B94" s="1">
-        <v>80000</v>
+        <v>82500</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -3195,7 +3195,7 @@
         <v>258</v>
       </c>
       <c r="B95" s="1">
-        <v>11200</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -3203,7 +3203,7 @@
         <v>259</v>
       </c>
       <c r="B96" s="1">
-        <v>22400</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -3211,7 +3211,7 @@
         <v>260</v>
       </c>
       <c r="B97" s="1">
-        <v>16000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -3219,7 +3219,7 @@
         <v>261</v>
       </c>
       <c r="B98" s="1">
-        <v>38400</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -3227,7 +3227,7 @@
         <v>262</v>
       </c>
       <c r="B99" s="1">
-        <v>9600</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -3235,7 +3235,7 @@
         <v>263</v>
       </c>
       <c r="B100" s="1">
-        <v>19200</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -3243,7 +3243,7 @@
         <v>457</v>
       </c>
       <c r="B101" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -3251,7 +3251,7 @@
         <v>264</v>
       </c>
       <c r="B102" s="1">
-        <v>6400</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -3259,7 +3259,7 @@
         <v>265</v>
       </c>
       <c r="B103" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -3267,7 +3267,7 @@
         <v>266</v>
       </c>
       <c r="B104" s="1">
-        <v>6400</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -3275,7 +3275,7 @@
         <v>267</v>
       </c>
       <c r="B105" s="1">
-        <v>19200</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -3283,7 +3283,7 @@
         <v>268</v>
       </c>
       <c r="B106" s="1">
-        <v>48000</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -3291,7 +3291,7 @@
         <v>269</v>
       </c>
       <c r="B107" s="1">
-        <v>12800</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -3299,7 +3299,7 @@
         <v>480</v>
       </c>
       <c r="B108" s="1">
-        <v>32000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -3307,7 +3307,7 @@
         <v>270</v>
       </c>
       <c r="B109" s="1">
-        <v>8000</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -3315,7 +3315,7 @@
         <v>271</v>
       </c>
       <c r="B110" s="1">
-        <v>144000</v>
+        <v>148500</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -3323,7 +3323,7 @@
         <v>272</v>
       </c>
       <c r="B111" s="1">
-        <v>57600</v>
+        <v>59400</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -3331,7 +3331,7 @@
         <v>509</v>
       </c>
       <c r="B112" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -3339,7 +3339,7 @@
         <v>510</v>
       </c>
       <c r="B113" s="1">
-        <v>9600</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -3347,7 +3347,7 @@
         <v>511</v>
       </c>
       <c r="B114" s="1">
-        <v>9600</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -3355,7 +3355,7 @@
         <v>273</v>
       </c>
       <c r="B115" s="1">
-        <v>19200</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -3363,7 +3363,7 @@
         <v>274</v>
       </c>
       <c r="B116" s="1">
-        <v>38400</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -3371,7 +3371,7 @@
         <v>275</v>
       </c>
       <c r="B117" s="1">
-        <v>8000</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -3379,7 +3379,7 @@
         <v>277</v>
       </c>
       <c r="B118" s="1">
-        <v>25600</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -3387,7 +3387,7 @@
         <v>468</v>
       </c>
       <c r="B119" s="1">
-        <v>80000</v>
+        <v>82500</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -3395,7 +3395,7 @@
         <v>15</v>
       </c>
       <c r="B120" s="1">
-        <v>38400</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -3403,7 +3403,7 @@
         <v>278</v>
       </c>
       <c r="B121" s="1">
-        <v>6400</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -3411,7 +3411,7 @@
         <v>276</v>
       </c>
       <c r="B122" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -3419,7 +3419,7 @@
         <v>279</v>
       </c>
       <c r="B123" s="1">
-        <v>16000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -3427,7 +3427,7 @@
         <v>280</v>
       </c>
       <c r="B124" s="1">
-        <v>19200</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -3435,7 +3435,7 @@
         <v>281</v>
       </c>
       <c r="B125" s="1">
-        <v>32000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -3443,7 +3443,7 @@
         <v>427</v>
       </c>
       <c r="B126" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -3451,7 +3451,7 @@
         <v>282</v>
       </c>
       <c r="B127" s="1">
-        <v>16000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -3459,7 +3459,7 @@
         <v>283</v>
       </c>
       <c r="B128" s="1">
-        <v>22400</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -3467,7 +3467,7 @@
         <v>284</v>
       </c>
       <c r="B129" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -3475,7 +3475,7 @@
         <v>285</v>
       </c>
       <c r="B130" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -3483,7 +3483,7 @@
         <v>286</v>
       </c>
       <c r="B131" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -3491,7 +3491,7 @@
         <v>290</v>
       </c>
       <c r="B132" s="1">
-        <v>9600</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -3499,7 +3499,7 @@
         <v>291</v>
       </c>
       <c r="B133" s="1">
-        <v>28800</v>
+        <v>29700</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -3507,7 +3507,7 @@
         <v>292</v>
       </c>
       <c r="B134" s="1">
-        <v>16000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -3515,7 +3515,7 @@
         <v>287</v>
       </c>
       <c r="B135" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -3523,7 +3523,7 @@
         <v>288</v>
       </c>
       <c r="B136" s="1">
-        <v>9600</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -3531,7 +3531,7 @@
         <v>516</v>
       </c>
       <c r="B137" s="1">
-        <v>6400</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -3539,7 +3539,7 @@
         <v>289</v>
       </c>
       <c r="B138" s="1">
-        <v>38400</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -3547,7 +3547,7 @@
         <v>293</v>
       </c>
       <c r="B139" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -3555,7 +3555,7 @@
         <v>294</v>
       </c>
       <c r="B140" s="1">
-        <v>22400</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -3563,7 +3563,7 @@
         <v>295</v>
       </c>
       <c r="B141" s="1">
-        <v>6400</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -3571,7 +3571,7 @@
         <v>540</v>
       </c>
       <c r="B142" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -3579,7 +3579,7 @@
         <v>296</v>
       </c>
       <c r="B143" s="1">
-        <v>1600</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -3587,7 +3587,7 @@
         <v>297</v>
       </c>
       <c r="B144" s="1">
-        <v>32000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -3595,7 +3595,7 @@
         <v>298</v>
       </c>
       <c r="B145" s="1">
-        <v>19200</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -3603,7 +3603,7 @@
         <v>299</v>
       </c>
       <c r="B146" s="1">
-        <v>9600</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -3611,7 +3611,7 @@
         <v>300</v>
       </c>
       <c r="B147" s="1">
-        <v>32000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -3619,7 +3619,7 @@
         <v>301</v>
       </c>
       <c r="B148" s="1">
-        <v>9600</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -3627,7 +3627,7 @@
         <v>302</v>
       </c>
       <c r="B149" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -3635,7 +3635,7 @@
         <v>303</v>
       </c>
       <c r="B150" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -3643,7 +3643,7 @@
         <v>304</v>
       </c>
       <c r="B151" s="1">
-        <v>9600</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -3651,7 +3651,7 @@
         <v>305</v>
       </c>
       <c r="B152" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -3659,7 +3659,7 @@
         <v>470</v>
       </c>
       <c r="B153" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -3667,7 +3667,7 @@
         <v>471</v>
       </c>
       <c r="B154" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -3675,7 +3675,7 @@
         <v>306</v>
       </c>
       <c r="B155" s="1">
-        <v>6400</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -3683,7 +3683,7 @@
         <v>308</v>
       </c>
       <c r="B156" s="1">
-        <v>640</v>
+        <v>660</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -3691,7 +3691,7 @@
         <v>307</v>
       </c>
       <c r="B157" s="1">
-        <v>6400</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -3699,7 +3699,7 @@
         <v>309</v>
       </c>
       <c r="B158" s="1">
-        <v>16000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -3707,7 +3707,7 @@
         <v>310</v>
       </c>
       <c r="B159" s="1">
-        <v>12800</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -3715,7 +3715,7 @@
         <v>517</v>
       </c>
       <c r="B160" s="1">
-        <v>48000</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -3723,7 +3723,7 @@
         <v>311</v>
       </c>
       <c r="B161" s="1">
-        <v>28800</v>
+        <v>29700</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -3731,7 +3731,7 @@
         <v>312</v>
       </c>
       <c r="B162" s="1">
-        <v>3840</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -3739,7 +3739,7 @@
         <v>313</v>
       </c>
       <c r="B163" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -3747,7 +3747,7 @@
         <v>520</v>
       </c>
       <c r="B164" s="1">
-        <v>128000</v>
+        <v>132000</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -3755,7 +3755,7 @@
         <v>314</v>
       </c>
       <c r="B165" s="1">
-        <v>176000</v>
+        <v>181500</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -3763,7 +3763,7 @@
         <v>315</v>
       </c>
       <c r="B166" s="1">
-        <v>1920</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -3771,7 +3771,7 @@
         <v>316</v>
       </c>
       <c r="B167" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -3779,7 +3779,7 @@
         <v>458</v>
       </c>
       <c r="B168" s="1">
-        <v>6400</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -3787,7 +3787,7 @@
         <v>317</v>
       </c>
       <c r="B169" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -3795,7 +3795,7 @@
         <v>459</v>
       </c>
       <c r="B170" s="1">
-        <v>1600</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3803,7 +3803,7 @@
         <v>318</v>
       </c>
       <c r="B171" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3811,7 +3811,7 @@
         <v>319</v>
       </c>
       <c r="B172" s="1">
-        <v>22400</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3819,7 +3819,7 @@
         <v>320</v>
       </c>
       <c r="B173" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3827,7 +3827,7 @@
         <v>321</v>
       </c>
       <c r="B174" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3835,7 +3835,7 @@
         <v>322</v>
       </c>
       <c r="B175" s="1">
-        <v>6400</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3843,7 +3843,7 @@
         <v>323</v>
       </c>
       <c r="B176" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3851,7 +3851,7 @@
         <v>324</v>
       </c>
       <c r="B177" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3859,7 +3859,7 @@
         <v>325</v>
       </c>
       <c r="B178" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3867,7 +3867,7 @@
         <v>326</v>
       </c>
       <c r="B179" s="1">
-        <v>16000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3875,7 +3875,7 @@
         <v>523</v>
       </c>
       <c r="B180" s="1">
-        <v>1600</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3883,7 +3883,7 @@
         <v>518</v>
       </c>
       <c r="B181" s="1">
-        <v>1600</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3891,7 +3891,7 @@
         <v>327</v>
       </c>
       <c r="B182" s="1">
-        <v>9600</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3899,7 +3899,7 @@
         <v>328</v>
       </c>
       <c r="B183" s="1">
-        <v>2240</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3907,7 +3907,7 @@
         <v>329</v>
       </c>
       <c r="B184" s="1">
-        <v>89600</v>
+        <v>92400</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3915,7 +3915,7 @@
         <v>330</v>
       </c>
       <c r="B185" s="1">
-        <v>48000</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3923,7 +3923,7 @@
         <v>460</v>
       </c>
       <c r="B186" s="1">
-        <v>25600</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3931,7 +3931,7 @@
         <v>331</v>
       </c>
       <c r="B187" s="1">
-        <v>9600</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3939,7 +3939,7 @@
         <v>332</v>
       </c>
       <c r="B188" s="1">
-        <v>48000</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3947,7 +3947,7 @@
         <v>333</v>
       </c>
       <c r="B189" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3955,7 +3955,7 @@
         <v>334</v>
       </c>
       <c r="B190" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3963,7 +3963,7 @@
         <v>335</v>
       </c>
       <c r="B191" s="1">
-        <v>6400</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3971,7 +3971,7 @@
         <v>336</v>
       </c>
       <c r="B192" s="1">
-        <v>32000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3979,7 +3979,7 @@
         <v>337</v>
       </c>
       <c r="B193" s="1">
-        <v>38400</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3987,7 +3987,7 @@
         <v>338</v>
       </c>
       <c r="B194" s="1">
-        <v>96000</v>
+        <v>99000</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3995,7 +3995,7 @@
         <v>339</v>
       </c>
       <c r="B195" s="1">
-        <v>51200</v>
+        <v>52800</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -4003,7 +4003,7 @@
         <v>340</v>
       </c>
       <c r="B196" s="1">
-        <v>35200</v>
+        <v>36300</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -4011,7 +4011,7 @@
         <v>341</v>
       </c>
       <c r="B197" s="1">
-        <v>51200</v>
+        <v>52800</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -4019,7 +4019,7 @@
         <v>342</v>
       </c>
       <c r="B198" s="1">
-        <v>9600</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -4027,7 +4027,7 @@
         <v>343</v>
       </c>
       <c r="B199" s="1">
-        <v>54400</v>
+        <v>56100</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -4035,7 +4035,7 @@
         <v>344</v>
       </c>
       <c r="B200" s="1">
-        <v>25600</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -4043,7 +4043,7 @@
         <v>345</v>
       </c>
       <c r="B201" s="1">
-        <v>70400</v>
+        <v>72600</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -4051,7 +4051,7 @@
         <v>346</v>
       </c>
       <c r="B202" s="1">
-        <v>28800</v>
+        <v>29700</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -4059,7 +4059,7 @@
         <v>347</v>
       </c>
       <c r="B203" s="1">
-        <v>8000</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -4067,7 +4067,7 @@
         <v>348</v>
       </c>
       <c r="B204" s="1">
-        <v>22400</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -4075,7 +4075,7 @@
         <v>349</v>
       </c>
       <c r="B205" s="1">
-        <v>8000</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -4083,7 +4083,7 @@
         <v>350</v>
       </c>
       <c r="B206" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -4091,7 +4091,7 @@
         <v>521</v>
       </c>
       <c r="B207" s="1">
-        <v>6400</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -4099,7 +4099,7 @@
         <v>522</v>
       </c>
       <c r="B208" s="1">
-        <v>6400</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -4107,7 +4107,7 @@
         <v>351</v>
       </c>
       <c r="B209" s="1">
-        <v>9600</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -4115,7 +4115,7 @@
         <v>352</v>
       </c>
       <c r="B210" s="1">
-        <v>9600</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -4123,7 +4123,7 @@
         <v>353</v>
       </c>
       <c r="B211" s="1">
-        <v>19200</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -4131,7 +4131,7 @@
         <v>462</v>
       </c>
       <c r="B212" s="1">
-        <v>12800</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -4139,7 +4139,7 @@
         <v>354</v>
       </c>
       <c r="B213" s="1">
-        <v>9600</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -4147,7 +4147,7 @@
         <v>355</v>
       </c>
       <c r="B214" s="1">
-        <v>6400</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -4155,7 +4155,7 @@
         <v>356</v>
       </c>
       <c r="B215" s="1">
-        <v>6400</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -4163,7 +4163,7 @@
         <v>357</v>
       </c>
       <c r="B216" s="1">
-        <v>48000</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -4171,7 +4171,7 @@
         <v>358</v>
       </c>
       <c r="B217" s="1">
-        <v>112000</v>
+        <v>115500</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -4179,7 +4179,7 @@
         <v>359</v>
       </c>
       <c r="B218" s="1">
-        <v>6400</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -4187,7 +4187,7 @@
         <v>360</v>
       </c>
       <c r="B219" s="1">
-        <v>6400</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -4195,7 +4195,7 @@
         <v>361</v>
       </c>
       <c r="B220" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -4203,7 +4203,7 @@
         <v>362</v>
       </c>
       <c r="B221" s="1">
-        <v>9600</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -4211,7 +4211,7 @@
         <v>363</v>
       </c>
       <c r="B222" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -4219,7 +4219,7 @@
         <v>364</v>
       </c>
       <c r="B223" s="1">
-        <v>22400</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -4227,7 +4227,7 @@
         <v>365</v>
       </c>
       <c r="B224" s="1">
-        <v>12800</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -4235,7 +4235,7 @@
         <v>366</v>
       </c>
       <c r="B225" s="1">
-        <v>32000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -4243,7 +4243,7 @@
         <v>367</v>
       </c>
       <c r="B226" s="1">
-        <v>22400</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -4251,7 +4251,7 @@
         <v>368</v>
       </c>
       <c r="B227" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -4259,7 +4259,7 @@
         <v>369</v>
       </c>
       <c r="B228" s="1">
-        <v>41600</v>
+        <v>42900</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -4267,7 +4267,7 @@
         <v>370</v>
       </c>
       <c r="B229" s="1">
-        <v>64000</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -4275,7 +4275,7 @@
         <v>371</v>
       </c>
       <c r="B230" s="1">
-        <v>9600</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -4283,7 +4283,7 @@
         <v>372</v>
       </c>
       <c r="B231" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -4291,7 +4291,7 @@
         <v>373</v>
       </c>
       <c r="B232" s="1">
-        <v>20800</v>
+        <v>21450</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -4299,7 +4299,7 @@
         <v>374</v>
       </c>
       <c r="B233" s="1">
-        <v>30400</v>
+        <v>31350</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -4307,7 +4307,7 @@
         <v>375</v>
       </c>
       <c r="B234" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -4315,7 +4315,7 @@
         <v>376</v>
       </c>
       <c r="B235" s="1">
-        <v>6400</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -4323,7 +4323,7 @@
         <v>377</v>
       </c>
       <c r="B236" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -4331,7 +4331,7 @@
         <v>378</v>
       </c>
       <c r="B237" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -4339,7 +4339,7 @@
         <v>379</v>
       </c>
       <c r="B238" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -4347,7 +4347,7 @@
         <v>380</v>
       </c>
       <c r="B239" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -4355,7 +4355,7 @@
         <v>381</v>
       </c>
       <c r="B240" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -4363,7 +4363,7 @@
         <v>382</v>
       </c>
       <c r="B241" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -4371,7 +4371,7 @@
         <v>383</v>
       </c>
       <c r="B242" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -4379,7 +4379,7 @@
         <v>463</v>
       </c>
       <c r="B243" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -4387,7 +4387,7 @@
         <v>464</v>
       </c>
       <c r="B244" s="1">
-        <v>1920</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -4395,7 +4395,7 @@
         <v>384</v>
       </c>
       <c r="B245" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -4403,7 +4403,7 @@
         <v>385</v>
       </c>
       <c r="B246" s="1">
-        <v>48000</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -4411,7 +4411,7 @@
         <v>386</v>
       </c>
       <c r="B247" s="1">
-        <v>57600</v>
+        <v>59400</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -4419,7 +4419,7 @@
         <v>387</v>
       </c>
       <c r="B248" s="1">
-        <v>28800</v>
+        <v>29700</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -4427,7 +4427,7 @@
         <v>388</v>
       </c>
       <c r="B249" s="1">
-        <v>9600</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -4435,7 +4435,7 @@
         <v>389</v>
       </c>
       <c r="B250" s="1">
-        <v>8000</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -4443,7 +4443,7 @@
         <v>390</v>
       </c>
       <c r="B251" s="1">
-        <v>1280</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -4451,7 +4451,7 @@
         <v>391</v>
       </c>
       <c r="B252" s="1">
-        <v>24000</v>
+        <v>24750</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -4459,7 +4459,7 @@
         <v>392</v>
       </c>
       <c r="B253" s="1">
-        <v>8000</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -4467,7 +4467,7 @@
         <v>393</v>
       </c>
       <c r="B254" s="1">
-        <v>22400</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -4475,7 +4475,7 @@
         <v>394</v>
       </c>
       <c r="B255" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -4483,7 +4483,7 @@
         <v>395</v>
       </c>
       <c r="B256" s="1">
-        <v>80000</v>
+        <v>82500</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -4491,7 +4491,7 @@
         <v>454</v>
       </c>
       <c r="B257" s="1">
-        <v>176000</v>
+        <v>181500</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -4499,7 +4499,7 @@
         <v>396</v>
       </c>
       <c r="B258" s="1">
-        <v>8000</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -4507,7 +4507,7 @@
         <v>397</v>
       </c>
       <c r="B259" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -4515,7 +4515,7 @@
         <v>398</v>
       </c>
       <c r="B260" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -4523,7 +4523,7 @@
         <v>399</v>
       </c>
       <c r="B261" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -4531,7 +4531,7 @@
         <v>400</v>
       </c>
       <c r="B262" s="1">
-        <v>2240</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -4539,7 +4539,7 @@
         <v>401</v>
       </c>
       <c r="B263" s="1">
-        <v>16000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -4547,7 +4547,7 @@
         <v>402</v>
       </c>
       <c r="B264" s="1">
-        <v>1600</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -4555,7 +4555,7 @@
         <v>403</v>
       </c>
       <c r="B265" s="1">
-        <v>1600</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -4563,7 +4563,7 @@
         <v>404</v>
       </c>
       <c r="B266" s="1">
-        <v>1600</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -4571,7 +4571,7 @@
         <v>405</v>
       </c>
       <c r="B267" s="1">
-        <v>2240</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -4579,7 +4579,7 @@
         <v>406</v>
       </c>
       <c r="B268" s="1">
-        <v>6400</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -4587,7 +4587,7 @@
         <v>448</v>
       </c>
       <c r="B269" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -4595,7 +4595,7 @@
         <v>615</v>
       </c>
       <c r="B270" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -4603,7 +4603,7 @@
         <v>407</v>
       </c>
       <c r="B271" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -4611,7 +4611,7 @@
         <v>408</v>
       </c>
       <c r="B272" s="1">
-        <v>1600</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -4619,7 +4619,7 @@
         <v>409</v>
       </c>
       <c r="B273" s="1">
-        <v>2240</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -4627,7 +4627,7 @@
         <v>410</v>
       </c>
       <c r="B274" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -4635,7 +4635,7 @@
         <v>411</v>
       </c>
       <c r="B275" s="1">
-        <v>640</v>
+        <v>660</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -4643,7 +4643,7 @@
         <v>412</v>
       </c>
       <c r="B276" s="1">
-        <v>1600</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -4651,7 +4651,7 @@
         <v>413</v>
       </c>
       <c r="B277" s="1">
-        <v>960</v>
+        <v>990</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -4659,7 +4659,7 @@
         <v>414</v>
       </c>
       <c r="B278" s="1">
-        <v>1280</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -4667,7 +4667,7 @@
         <v>461</v>
       </c>
       <c r="B279" s="1">
-        <v>960</v>
+        <v>990</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -4675,7 +4675,7 @@
         <v>519</v>
       </c>
       <c r="B280" s="1">
-        <v>2240</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -4683,7 +4683,7 @@
         <v>415</v>
       </c>
       <c r="B281" s="1">
-        <v>640</v>
+        <v>660</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -4691,7 +4691,7 @@
         <v>541</v>
       </c>
       <c r="B282" s="1">
-        <v>57600</v>
+        <v>59400</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -4699,7 +4699,7 @@
         <v>524</v>
       </c>
       <c r="B283" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -4707,7 +4707,7 @@
         <v>416</v>
       </c>
       <c r="B284" s="1">
-        <v>6400</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -4715,7 +4715,7 @@
         <v>417</v>
       </c>
       <c r="B285" s="1">
-        <v>8000</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -4723,7 +4723,7 @@
         <v>418</v>
       </c>
       <c r="B286" s="1">
-        <v>14400</v>
+        <v>14850</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -4731,7 +4731,7 @@
         <v>419</v>
       </c>
       <c r="B287" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -4739,7 +4739,7 @@
         <v>420</v>
       </c>
       <c r="B288" s="1">
-        <v>19200</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -4747,7 +4747,7 @@
         <v>421</v>
       </c>
       <c r="B289" s="1">
-        <v>32000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -4755,7 +4755,7 @@
         <v>525</v>
       </c>
       <c r="B290" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -4763,7 +4763,7 @@
         <v>526</v>
       </c>
       <c r="B291" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -4771,7 +4771,7 @@
         <v>422</v>
       </c>
       <c r="B292" s="1">
-        <v>11200</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -4779,7 +4779,7 @@
         <v>423</v>
       </c>
       <c r="B293" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -4787,7 +4787,7 @@
         <v>507</v>
       </c>
       <c r="B294" s="1">
-        <v>1600</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -4795,7 +4795,7 @@
         <v>424</v>
       </c>
       <c r="B295" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
   </sheetData>
@@ -4808,7 +4808,7 @@
   <dimension ref="A1:B104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+      <selection activeCell="B2" sqref="B2:B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
@@ -4830,7 +4830,7 @@
         <v>542</v>
       </c>
       <c r="B2" s="1">
-        <v>44800</v>
+        <v>46200</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4838,7 +4838,7 @@
         <v>137</v>
       </c>
       <c r="B3" s="1">
-        <v>64000</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4846,7 +4846,7 @@
         <v>146</v>
       </c>
       <c r="B4" s="1">
-        <v>57600</v>
+        <v>59400</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4854,7 +4854,7 @@
         <v>185</v>
       </c>
       <c r="B5" s="1">
-        <v>38400</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4862,7 +4862,7 @@
         <v>147</v>
       </c>
       <c r="B6" s="1">
-        <v>38400</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4870,7 +4870,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>12800</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4878,7 +4878,7 @@
         <v>543</v>
       </c>
       <c r="B8" s="1">
-        <v>25600</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4886,7 +4886,7 @@
         <v>138</v>
       </c>
       <c r="B9" s="1">
-        <v>12800</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4894,7 +4894,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="1">
-        <v>6400</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4902,7 +4902,7 @@
         <v>479</v>
       </c>
       <c r="B11" s="1">
-        <v>25600</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4910,7 +4910,7 @@
         <v>183</v>
       </c>
       <c r="B12" s="1">
-        <v>32000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4918,7 +4918,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="1">
-        <v>8000</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4926,7 +4926,7 @@
         <v>139</v>
       </c>
       <c r="B14" s="1">
-        <v>17600</v>
+        <v>18150</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4934,7 +4934,7 @@
         <v>533</v>
       </c>
       <c r="B15" s="1">
-        <v>19200</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4942,7 +4942,7 @@
         <v>38</v>
       </c>
       <c r="B16" s="1">
-        <v>32000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4950,7 +4950,7 @@
         <v>544</v>
       </c>
       <c r="B17" s="1">
-        <v>22400</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4958,7 +4958,7 @@
         <v>545</v>
       </c>
       <c r="B18" s="1">
-        <v>25600</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4966,7 +4966,7 @@
         <v>452</v>
       </c>
       <c r="B19" s="1">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4974,7 +4974,7 @@
         <v>453</v>
       </c>
       <c r="B20" s="1">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4982,7 +4982,7 @@
         <v>447</v>
       </c>
       <c r="B21" s="1">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4990,7 +4990,7 @@
         <v>489</v>
       </c>
       <c r="B22" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4998,7 +4998,7 @@
         <v>546</v>
       </c>
       <c r="B23" s="1">
-        <v>12800</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5006,7 +5006,7 @@
         <v>547</v>
       </c>
       <c r="B24" s="1">
-        <v>12800</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5014,7 +5014,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5022,7 +5022,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="1">
-        <v>800</v>
+        <v>825</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5030,7 +5030,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5038,7 +5038,7 @@
         <v>483</v>
       </c>
       <c r="B28" s="1">
-        <v>2240</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5046,7 +5046,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="1">
-        <v>8000</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5054,7 +5054,7 @@
         <v>548</v>
       </c>
       <c r="B30" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -5062,7 +5062,7 @@
         <v>534</v>
       </c>
       <c r="B31" s="1">
-        <v>8000</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -5070,7 +5070,7 @@
         <v>488</v>
       </c>
       <c r="B32" s="1">
-        <v>8000</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -5078,7 +5078,7 @@
         <v>490</v>
       </c>
       <c r="B33" s="1">
-        <v>16000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -5086,7 +5086,7 @@
         <v>549</v>
       </c>
       <c r="B34" s="1">
-        <v>19200</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -5094,7 +5094,7 @@
         <v>550</v>
       </c>
       <c r="B35" s="1">
-        <v>16000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -5102,7 +5102,7 @@
         <v>551</v>
       </c>
       <c r="B36" s="1">
-        <v>22400</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -5110,7 +5110,7 @@
         <v>13</v>
       </c>
       <c r="B37" s="1">
-        <v>12800</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -5118,7 +5118,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="1">
-        <v>11200</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -5126,7 +5126,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="1">
-        <v>44800</v>
+        <v>46200</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -5134,7 +5134,7 @@
         <v>552</v>
       </c>
       <c r="B40" s="1">
-        <v>22400</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -5142,7 +5142,7 @@
         <v>485</v>
       </c>
       <c r="B41" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -5150,7 +5150,7 @@
         <v>140</v>
       </c>
       <c r="B42" s="1">
-        <v>9600</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -5158,7 +5158,7 @@
         <v>553</v>
       </c>
       <c r="B43" s="1">
-        <v>64000</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -5166,7 +5166,7 @@
         <v>31</v>
       </c>
       <c r="B44" s="1">
-        <v>32000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -5174,7 +5174,7 @@
         <v>476</v>
       </c>
       <c r="B45" s="1">
-        <v>32000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -5182,7 +5182,7 @@
         <v>8</v>
       </c>
       <c r="B46" s="1">
-        <v>48000</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -5190,7 +5190,7 @@
         <v>141</v>
       </c>
       <c r="B47" s="1">
-        <v>38400</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -5198,7 +5198,7 @@
         <v>14</v>
       </c>
       <c r="B48" s="1">
-        <v>19200</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -5206,7 +5206,7 @@
         <v>129</v>
       </c>
       <c r="B49" s="1">
-        <v>22400</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -5214,7 +5214,7 @@
         <v>15</v>
       </c>
       <c r="B50" s="1">
-        <v>41600</v>
+        <v>42900</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -5222,7 +5222,7 @@
         <v>475</v>
       </c>
       <c r="B51" s="1">
-        <v>12800</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -5230,7 +5230,7 @@
         <v>554</v>
       </c>
       <c r="B52" s="1">
-        <v>19200</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -5238,7 +5238,7 @@
         <v>555</v>
       </c>
       <c r="B53" s="1">
-        <v>17600</v>
+        <v>18150</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -5246,7 +5246,7 @@
         <v>142</v>
       </c>
       <c r="B54" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -5254,7 +5254,7 @@
         <v>16</v>
       </c>
       <c r="B55" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -5262,7 +5262,7 @@
         <v>17</v>
       </c>
       <c r="B56" s="1">
-        <v>9600</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -5270,7 +5270,7 @@
         <v>148</v>
       </c>
       <c r="B57" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -5278,7 +5278,7 @@
         <v>184</v>
       </c>
       <c r="B58" s="1">
-        <v>25600</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -5286,7 +5286,7 @@
         <v>540</v>
       </c>
       <c r="B59" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -5294,7 +5294,7 @@
         <v>3</v>
       </c>
       <c r="B60" s="1">
-        <v>38400</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -5302,7 +5302,7 @@
         <v>18</v>
       </c>
       <c r="B61" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -5310,7 +5310,7 @@
         <v>143</v>
       </c>
       <c r="B62" s="1">
-        <v>6400</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -5318,7 +5318,7 @@
         <v>556</v>
       </c>
       <c r="B63" s="1">
-        <v>22400</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -5326,7 +5326,7 @@
         <v>9</v>
       </c>
       <c r="B64" s="1">
-        <v>19200</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -5334,7 +5334,7 @@
         <v>19</v>
       </c>
       <c r="B65" s="1">
-        <v>8000</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -5342,7 +5342,7 @@
         <v>20</v>
       </c>
       <c r="B66" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -5350,7 +5350,7 @@
         <v>557</v>
       </c>
       <c r="B67" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -5358,7 +5358,7 @@
         <v>558</v>
       </c>
       <c r="B68" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -5366,7 +5366,7 @@
         <v>26</v>
       </c>
       <c r="B69" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -5374,7 +5374,7 @@
         <v>610</v>
       </c>
       <c r="B70" s="1">
-        <v>14400</v>
+        <v>14850</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -5382,7 +5382,7 @@
         <v>611</v>
       </c>
       <c r="B71" s="1">
-        <v>11200</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -5390,7 +5390,7 @@
         <v>144</v>
       </c>
       <c r="B72" s="1">
-        <v>64000</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -5398,7 +5398,7 @@
         <v>559</v>
       </c>
       <c r="B73" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -5406,7 +5406,7 @@
         <v>560</v>
       </c>
       <c r="B74" s="1">
-        <v>3840</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -5414,7 +5414,7 @@
         <v>113</v>
       </c>
       <c r="B75" s="1">
-        <v>57600</v>
+        <v>59400</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -5422,7 +5422,7 @@
         <v>25</v>
       </c>
       <c r="B76" s="1">
-        <v>57600</v>
+        <v>59400</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -5430,7 +5430,7 @@
         <v>21</v>
       </c>
       <c r="B77" s="1">
-        <v>19200</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -5438,7 +5438,7 @@
         <v>482</v>
       </c>
       <c r="B78" s="1">
-        <v>12800</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -5446,7 +5446,7 @@
         <v>561</v>
       </c>
       <c r="B79" s="1">
-        <v>38400</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -5454,7 +5454,7 @@
         <v>128</v>
       </c>
       <c r="B80" s="1">
-        <v>22400</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -5462,7 +5462,7 @@
         <v>562</v>
       </c>
       <c r="B81" s="1">
-        <v>6400</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -5470,7 +5470,7 @@
         <v>563</v>
       </c>
       <c r="B82" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -5478,7 +5478,7 @@
         <v>564</v>
       </c>
       <c r="B83" s="1">
-        <v>24000</v>
+        <v>24750</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -5486,7 +5486,7 @@
         <v>22</v>
       </c>
       <c r="B84" s="1">
-        <v>16000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -5494,7 +5494,7 @@
         <v>536</v>
       </c>
       <c r="B85" s="1">
-        <v>48000</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -5502,7 +5502,7 @@
         <v>76</v>
       </c>
       <c r="B86" s="1">
-        <v>41600</v>
+        <v>42900</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -5510,7 +5510,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1">
-        <v>1600</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -5518,7 +5518,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1">
-        <v>2240</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -5526,7 +5526,7 @@
         <v>182</v>
       </c>
       <c r="B89" s="1">
-        <v>1600</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -5534,7 +5534,7 @@
         <v>145</v>
       </c>
       <c r="B90" s="1">
-        <v>11200</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -5542,7 +5542,7 @@
         <v>481</v>
       </c>
       <c r="B91" s="1">
-        <v>12800</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -5550,7 +5550,7 @@
         <v>565</v>
       </c>
       <c r="B92" s="1">
-        <v>12800</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -5558,7 +5558,7 @@
         <v>566</v>
       </c>
       <c r="B93" s="1">
-        <v>22400</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -5566,7 +5566,7 @@
         <v>486</v>
       </c>
       <c r="B94" s="1">
-        <v>6400</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -5574,7 +5574,7 @@
         <v>567</v>
       </c>
       <c r="B95" s="1">
-        <v>12800</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -5582,7 +5582,7 @@
         <v>4</v>
       </c>
       <c r="B96" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -5590,7 +5590,7 @@
         <v>568</v>
       </c>
       <c r="B97" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -5598,7 +5598,7 @@
         <v>487</v>
       </c>
       <c r="B98" s="1">
-        <v>1600</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -5606,7 +5606,7 @@
         <v>569</v>
       </c>
       <c r="B99" s="1">
-        <v>9600</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -5614,7 +5614,7 @@
         <v>448</v>
       </c>
       <c r="B100" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -5622,7 +5622,7 @@
         <v>615</v>
       </c>
       <c r="B101" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -5630,7 +5630,7 @@
         <v>491</v>
       </c>
       <c r="B102" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -5638,7 +5638,7 @@
         <v>484</v>
       </c>
       <c r="B103" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -5646,7 +5646,7 @@
         <v>10</v>
       </c>
       <c r="B104" s="1">
-        <v>11200</v>
+        <v>11550</v>
       </c>
     </row>
   </sheetData>
@@ -5659,7 +5659,7 @@
   <dimension ref="A1:B189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B189"/>
+      <selection activeCell="B2" sqref="B2:B189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
@@ -5681,7 +5681,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="1">
-        <v>44800</v>
+        <v>46200</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5689,7 +5689,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="1">
-        <v>44800</v>
+        <v>46200</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5697,7 +5697,7 @@
         <v>136</v>
       </c>
       <c r="B4" s="1">
-        <v>64000</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5705,7 +5705,7 @@
         <v>149</v>
       </c>
       <c r="B5" s="1">
-        <v>80000</v>
+        <v>82500</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5713,7 +5713,7 @@
         <v>27</v>
       </c>
       <c r="B6" s="1">
-        <v>51200</v>
+        <v>52800</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5721,7 +5721,7 @@
         <v>177</v>
       </c>
       <c r="B7" s="1">
-        <v>57600</v>
+        <v>59400</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5729,7 +5729,7 @@
         <v>95</v>
       </c>
       <c r="B8" s="1">
-        <v>57600</v>
+        <v>59400</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5737,7 +5737,7 @@
         <v>186</v>
       </c>
       <c r="B9" s="1">
-        <v>38400</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5745,7 +5745,7 @@
         <v>570</v>
       </c>
       <c r="B10" s="1">
-        <v>25600</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5753,7 +5753,7 @@
         <v>150</v>
       </c>
       <c r="B11" s="1">
-        <v>11200</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5761,7 +5761,7 @@
         <v>151</v>
       </c>
       <c r="B12" s="1">
-        <v>11200</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5769,7 +5769,7 @@
         <v>37</v>
       </c>
       <c r="B13" s="1">
-        <v>12800</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5777,7 +5777,7 @@
         <v>479</v>
       </c>
       <c r="B14" s="1">
-        <v>25600</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5785,7 +5785,7 @@
         <v>183</v>
       </c>
       <c r="B15" s="1">
-        <v>32000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5793,7 +5793,7 @@
         <v>96</v>
       </c>
       <c r="B16" s="1">
-        <v>8000</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5801,7 +5801,7 @@
         <v>32</v>
       </c>
       <c r="B17" s="1">
-        <v>12800</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5809,7 +5809,7 @@
         <v>23</v>
       </c>
       <c r="B18" s="1">
-        <v>12800</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5817,7 +5817,7 @@
         <v>135</v>
       </c>
       <c r="B19" s="1">
-        <v>19200</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5825,7 +5825,7 @@
         <v>152</v>
       </c>
       <c r="B20" s="1">
-        <v>19200</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5833,7 +5833,7 @@
         <v>39</v>
       </c>
       <c r="B21" s="1">
-        <v>25600</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5841,7 +5841,7 @@
         <v>532</v>
       </c>
       <c r="B22" s="1">
-        <v>19200</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5849,7 +5849,7 @@
         <v>40</v>
       </c>
       <c r="B23" s="1">
-        <v>19200</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5857,7 +5857,7 @@
         <v>178</v>
       </c>
       <c r="B24" s="1">
-        <v>32000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5865,7 +5865,7 @@
         <v>35</v>
       </c>
       <c r="B25" s="1">
-        <v>14400</v>
+        <v>14850</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5873,7 +5873,7 @@
         <v>452</v>
       </c>
       <c r="B26" s="1">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5881,7 +5881,7 @@
         <v>453</v>
       </c>
       <c r="B27" s="1">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5889,7 +5889,7 @@
         <v>447</v>
       </c>
       <c r="B28" s="1">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5897,7 +5897,7 @@
         <v>571</v>
       </c>
       <c r="B29" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5905,7 +5905,7 @@
         <v>98</v>
       </c>
       <c r="B30" s="1">
-        <v>25600</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -5913,7 +5913,7 @@
         <v>97</v>
       </c>
       <c r="B31" s="1">
-        <v>25600</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -5921,7 +5921,7 @@
         <v>99</v>
       </c>
       <c r="B32" s="1">
-        <v>25600</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -5929,7 +5929,7 @@
         <v>153</v>
       </c>
       <c r="B33" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -5937,7 +5937,7 @@
         <v>154</v>
       </c>
       <c r="B34" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -5945,7 +5945,7 @@
         <v>100</v>
       </c>
       <c r="B35" s="1">
-        <v>1600</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -5953,7 +5953,7 @@
         <v>494</v>
       </c>
       <c r="B36" s="1">
-        <v>2240</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -5961,7 +5961,7 @@
         <v>572</v>
       </c>
       <c r="B37" s="1">
-        <v>2240</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -5969,7 +5969,7 @@
         <v>155</v>
       </c>
       <c r="B38" s="1">
-        <v>9600</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -5977,7 +5977,7 @@
         <v>573</v>
       </c>
       <c r="B39" s="1">
-        <v>12800</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -5985,7 +5985,7 @@
         <v>501</v>
       </c>
       <c r="B40" s="1">
-        <v>25600</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -5993,7 +5993,7 @@
         <v>502</v>
       </c>
       <c r="B41" s="1">
-        <v>28800</v>
+        <v>29700</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -6001,7 +6001,7 @@
         <v>156</v>
       </c>
       <c r="B42" s="1">
-        <v>8000</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -6009,7 +6009,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>32000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -6017,7 +6017,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1">
-        <v>24000</v>
+        <v>24750</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -6025,7 +6025,7 @@
         <v>157</v>
       </c>
       <c r="B45" s="1">
-        <v>12800</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -6033,7 +6033,7 @@
         <v>158</v>
       </c>
       <c r="B46" s="1">
-        <v>8000</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -6041,7 +6041,7 @@
         <v>102</v>
       </c>
       <c r="B47" s="1">
-        <v>9600</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -6049,7 +6049,7 @@
         <v>101</v>
       </c>
       <c r="B48" s="1">
-        <v>19200</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -6057,7 +6057,7 @@
         <v>131</v>
       </c>
       <c r="B49" s="1">
-        <v>11200</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -6065,7 +6065,7 @@
         <v>46</v>
       </c>
       <c r="B50" s="1">
-        <v>51200</v>
+        <v>52800</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -6073,7 +6073,7 @@
         <v>44</v>
       </c>
       <c r="B51" s="1">
-        <v>51200</v>
+        <v>52800</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -6081,7 +6081,7 @@
         <v>45</v>
       </c>
       <c r="B52" s="1">
-        <v>51200</v>
+        <v>52800</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -6089,7 +6089,7 @@
         <v>47</v>
       </c>
       <c r="B53" s="1">
-        <v>51200</v>
+        <v>52800</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -6097,7 +6097,7 @@
         <v>134</v>
       </c>
       <c r="B54" s="1">
-        <v>9600</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -6105,7 +6105,7 @@
         <v>48</v>
       </c>
       <c r="B55" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -6113,7 +6113,7 @@
         <v>49</v>
       </c>
       <c r="B56" s="1">
-        <v>6400</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -6121,7 +6121,7 @@
         <v>50</v>
       </c>
       <c r="B57" s="1">
-        <v>12800</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -6129,7 +6129,7 @@
         <v>51</v>
       </c>
       <c r="B58" s="1">
-        <v>12800</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -6137,7 +6137,7 @@
         <v>52</v>
       </c>
       <c r="B59" s="1">
-        <v>48000</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -6145,7 +6145,7 @@
         <v>53</v>
       </c>
       <c r="B60" s="1">
-        <v>64000</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -6153,7 +6153,7 @@
         <v>103</v>
       </c>
       <c r="B61" s="1">
-        <v>16000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -6161,7 +6161,7 @@
         <v>33</v>
       </c>
       <c r="B62" s="1">
-        <v>32000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -6169,7 +6169,7 @@
         <v>28</v>
       </c>
       <c r="B63" s="1">
-        <v>32000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -6177,7 +6177,7 @@
         <v>34</v>
       </c>
       <c r="B64" s="1">
-        <v>51200</v>
+        <v>52800</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -6185,7 +6185,7 @@
         <v>159</v>
       </c>
       <c r="B65" s="1">
-        <v>51200</v>
+        <v>52800</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -6193,7 +6193,7 @@
         <v>56</v>
       </c>
       <c r="B66" s="1">
-        <v>80000</v>
+        <v>82500</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -6201,7 +6201,7 @@
         <v>55</v>
       </c>
       <c r="B67" s="1">
-        <v>80000</v>
+        <v>82500</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -6209,7 +6209,7 @@
         <v>54</v>
       </c>
       <c r="B68" s="1">
-        <v>73600</v>
+        <v>75900</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -6217,7 +6217,7 @@
         <v>57</v>
       </c>
       <c r="B69" s="1">
-        <v>80000</v>
+        <v>82500</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -6225,7 +6225,7 @@
         <v>58</v>
       </c>
       <c r="B70" s="1">
-        <v>80000</v>
+        <v>82500</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -6233,7 +6233,7 @@
         <v>529</v>
       </c>
       <c r="B71" s="1">
-        <v>80000</v>
+        <v>82500</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -6241,7 +6241,7 @@
         <v>62</v>
       </c>
       <c r="B72" s="1">
-        <v>48000</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -6249,7 +6249,7 @@
         <v>59</v>
       </c>
       <c r="B73" s="1">
-        <v>64000</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -6257,7 +6257,7 @@
         <v>60</v>
       </c>
       <c r="B74" s="1">
-        <v>70400</v>
+        <v>72600</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -6265,7 +6265,7 @@
         <v>61</v>
       </c>
       <c r="B75" s="1">
-        <v>70400</v>
+        <v>72600</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -6273,7 +6273,7 @@
         <v>63</v>
       </c>
       <c r="B76" s="1">
-        <v>70400</v>
+        <v>72600</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -6281,7 +6281,7 @@
         <v>530</v>
       </c>
       <c r="B77" s="1">
-        <v>22400</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -6289,7 +6289,7 @@
         <v>574</v>
       </c>
       <c r="B78" s="1">
-        <v>22400</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -6297,7 +6297,7 @@
         <v>160</v>
       </c>
       <c r="B79" s="1">
-        <v>22400</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -6305,7 +6305,7 @@
         <v>64</v>
       </c>
       <c r="B80" s="1">
-        <v>44800</v>
+        <v>46200</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -6313,7 +6313,7 @@
         <v>613</v>
       </c>
       <c r="B81" s="1">
-        <v>44800</v>
+        <v>46200</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -6321,7 +6321,7 @@
         <v>65</v>
       </c>
       <c r="B82" s="1">
-        <v>57600</v>
+        <v>59400</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -6329,7 +6329,7 @@
         <v>575</v>
       </c>
       <c r="B83" s="1">
-        <v>8000</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -6337,7 +6337,7 @@
         <v>477</v>
       </c>
       <c r="B84" s="1">
-        <v>16000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -6345,7 +6345,7 @@
         <v>576</v>
       </c>
       <c r="B85" s="1">
-        <v>8000</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -6353,7 +6353,7 @@
         <v>106</v>
       </c>
       <c r="B86" s="1">
-        <v>19200</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -6361,7 +6361,7 @@
         <v>105</v>
       </c>
       <c r="B87" s="1">
-        <v>19200</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -6369,7 +6369,7 @@
         <v>104</v>
       </c>
       <c r="B88" s="1">
-        <v>38400</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -6377,7 +6377,7 @@
         <v>107</v>
       </c>
       <c r="B89" s="1">
-        <v>48000</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -6385,7 +6385,7 @@
         <v>133</v>
       </c>
       <c r="B90" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -6393,7 +6393,7 @@
         <v>161</v>
       </c>
       <c r="B91" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -6401,7 +6401,7 @@
         <v>503</v>
       </c>
       <c r="B92" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -6409,7 +6409,7 @@
         <v>66</v>
       </c>
       <c r="B93" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -6417,7 +6417,7 @@
         <v>67</v>
       </c>
       <c r="B94" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -6425,7 +6425,7 @@
         <v>68</v>
       </c>
       <c r="B95" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -6433,7 +6433,7 @@
         <v>184</v>
       </c>
       <c r="B96" s="1">
-        <v>25600</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -6441,7 +6441,7 @@
         <v>473</v>
       </c>
       <c r="B97" s="1">
-        <v>25600</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -6449,7 +6449,7 @@
         <v>540</v>
       </c>
       <c r="B98" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -6457,7 +6457,7 @@
         <v>69</v>
       </c>
       <c r="B99" s="1">
-        <v>8000</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -6465,7 +6465,7 @@
         <v>70</v>
       </c>
       <c r="B100" s="1">
-        <v>8000</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -6473,7 +6473,7 @@
         <v>176</v>
       </c>
       <c r="B101" s="1">
-        <v>6400</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -6481,7 +6481,7 @@
         <v>71</v>
       </c>
       <c r="B102" s="1">
-        <v>6400</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -6489,7 +6489,7 @@
         <v>72</v>
       </c>
       <c r="B103" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -6497,7 +6497,7 @@
         <v>535</v>
       </c>
       <c r="B104" s="1">
-        <v>19200</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -6505,7 +6505,7 @@
         <v>508</v>
       </c>
       <c r="B105" s="1">
-        <v>19200</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -6513,7 +6513,7 @@
         <v>499</v>
       </c>
       <c r="B106" s="1">
-        <v>6400</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -6521,7 +6521,7 @@
         <v>498</v>
       </c>
       <c r="B107" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -6529,7 +6529,7 @@
         <v>500</v>
       </c>
       <c r="B108" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -6537,7 +6537,7 @@
         <v>497</v>
       </c>
       <c r="B109" s="1">
-        <v>8000</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -6545,7 +6545,7 @@
         <v>162</v>
       </c>
       <c r="B110" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -6553,7 +6553,7 @@
         <v>496</v>
       </c>
       <c r="B111" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -6561,7 +6561,7 @@
         <v>163</v>
       </c>
       <c r="B112" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -6569,7 +6569,7 @@
         <v>73</v>
       </c>
       <c r="B113" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -6577,7 +6577,7 @@
         <v>109</v>
       </c>
       <c r="B114" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -6585,7 +6585,7 @@
         <v>108</v>
       </c>
       <c r="B115" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -6593,7 +6593,7 @@
         <v>110</v>
       </c>
       <c r="B116" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -6601,7 +6601,7 @@
         <v>577</v>
       </c>
       <c r="B117" s="1">
-        <v>14400</v>
+        <v>14850</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -6609,7 +6609,7 @@
         <v>612</v>
       </c>
       <c r="B118" s="1">
-        <v>11200</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -6617,7 +6617,7 @@
         <v>164</v>
       </c>
       <c r="B119" s="1">
-        <v>80000</v>
+        <v>82500</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -6625,7 +6625,7 @@
         <v>132</v>
       </c>
       <c r="B120" s="1">
-        <v>64000</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -6633,7 +6633,7 @@
         <v>111</v>
       </c>
       <c r="B121" s="1">
-        <v>48000</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -6641,7 +6641,7 @@
         <v>74</v>
       </c>
       <c r="B122" s="1">
-        <v>48000</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -6649,7 +6649,7 @@
         <v>527</v>
       </c>
       <c r="B123" s="1">
-        <v>44800</v>
+        <v>46200</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -6657,7 +6657,7 @@
         <v>112</v>
       </c>
       <c r="B124" s="1">
-        <v>38400</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -6665,7 +6665,7 @@
         <v>578</v>
       </c>
       <c r="B125" s="1">
-        <v>3840</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -6673,7 +6673,7 @@
         <v>114</v>
       </c>
       <c r="B126" s="1">
-        <v>64000</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -6681,7 +6681,7 @@
         <v>115</v>
       </c>
       <c r="B127" s="1">
-        <v>73600</v>
+        <v>75900</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -6689,7 +6689,7 @@
         <v>116</v>
       </c>
       <c r="B128" s="1">
-        <v>112000</v>
+        <v>115500</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -6697,7 +6697,7 @@
         <v>24</v>
       </c>
       <c r="B129" s="1">
-        <v>57600</v>
+        <v>59400</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -6705,7 +6705,7 @@
         <v>492</v>
       </c>
       <c r="B130" s="1">
-        <v>57600</v>
+        <v>59400</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -6713,7 +6713,7 @@
         <v>165</v>
       </c>
       <c r="B131" s="1">
-        <v>11200</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -6721,7 +6721,7 @@
         <v>166</v>
       </c>
       <c r="B132" s="1">
-        <v>11200</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -6729,7 +6729,7 @@
         <v>75</v>
       </c>
       <c r="B133" s="1">
-        <v>12800</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -6737,7 +6737,7 @@
         <v>579</v>
       </c>
       <c r="B134" s="1">
-        <v>38400</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -6745,7 +6745,7 @@
         <v>167</v>
       </c>
       <c r="B135" s="1">
-        <v>22400</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -6753,7 +6753,7 @@
         <v>580</v>
       </c>
       <c r="B136" s="1">
-        <v>6400</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -6761,7 +6761,7 @@
         <v>168</v>
       </c>
       <c r="B137" s="1">
-        <v>19200</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -6769,7 +6769,7 @@
         <v>169</v>
       </c>
       <c r="B138" s="1">
-        <v>14400</v>
+        <v>14850</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -6777,7 +6777,7 @@
         <v>117</v>
       </c>
       <c r="B139" s="1">
-        <v>8000</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -6785,7 +6785,7 @@
         <v>581</v>
       </c>
       <c r="B140" s="1">
-        <v>24000</v>
+        <v>24750</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -6793,7 +6793,7 @@
         <v>170</v>
       </c>
       <c r="B141" s="1">
-        <v>14400</v>
+        <v>14850</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -6801,7 +6801,7 @@
         <v>537</v>
       </c>
       <c r="B142" s="1">
-        <v>48000</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -6809,7 +6809,7 @@
         <v>77</v>
       </c>
       <c r="B143" s="1">
-        <v>51200</v>
+        <v>52800</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -6817,7 +6817,7 @@
         <v>171</v>
       </c>
       <c r="B144" s="1">
-        <v>48000</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -6825,7 +6825,7 @@
         <v>78</v>
       </c>
       <c r="B145" s="1">
-        <v>64000</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -6833,7 +6833,7 @@
         <v>614</v>
       </c>
       <c r="B146" s="1">
-        <v>44800</v>
+        <v>46200</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -6841,7 +6841,7 @@
         <v>616</v>
       </c>
       <c r="B147" s="1">
-        <v>57600</v>
+        <v>59400</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -6849,7 +6849,7 @@
         <v>79</v>
       </c>
       <c r="B148" s="1">
-        <v>41600</v>
+        <v>42900</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -6857,7 +6857,7 @@
         <v>80</v>
       </c>
       <c r="B149" s="1">
-        <v>25600</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -6865,7 +6865,7 @@
         <v>81</v>
       </c>
       <c r="B150" s="1">
-        <v>32000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -6873,7 +6873,7 @@
         <v>82</v>
       </c>
       <c r="B151" s="1">
-        <v>32000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -6881,7 +6881,7 @@
         <v>83</v>
       </c>
       <c r="B152" s="1">
-        <v>38400</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -6889,7 +6889,7 @@
         <v>84</v>
       </c>
       <c r="B153" s="1">
-        <v>32000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -6897,7 +6897,7 @@
         <v>85</v>
       </c>
       <c r="B154" s="1">
-        <v>38400</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -6905,7 +6905,7 @@
         <v>528</v>
       </c>
       <c r="B155" s="1">
-        <v>57600</v>
+        <v>59400</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -6913,7 +6913,7 @@
         <v>180</v>
       </c>
       <c r="B156" s="1">
-        <v>1600</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -6921,7 +6921,7 @@
         <v>181</v>
       </c>
       <c r="B157" s="1">
-        <v>2240</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -6929,7 +6929,7 @@
         <v>88</v>
       </c>
       <c r="B158" s="1">
-        <v>2560</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -6937,7 +6937,7 @@
         <v>179</v>
       </c>
       <c r="B159" s="1">
-        <v>1600</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -6945,7 +6945,7 @@
         <v>120</v>
       </c>
       <c r="B160" s="1">
-        <v>80000</v>
+        <v>82500</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -6953,7 +6953,7 @@
         <v>121</v>
       </c>
       <c r="B161" s="1">
-        <v>64000</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -6961,7 +6961,7 @@
         <v>123</v>
       </c>
       <c r="B162" s="1">
-        <v>64000</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -6969,7 +6969,7 @@
         <v>118</v>
       </c>
       <c r="B163" s="1">
-        <v>48000</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -6977,7 +6977,7 @@
         <v>119</v>
       </c>
       <c r="B164" s="1">
-        <v>48000</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -6985,7 +6985,7 @@
         <v>122</v>
       </c>
       <c r="B165" s="1">
-        <v>57600</v>
+        <v>59400</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -6993,7 +6993,7 @@
         <v>124</v>
       </c>
       <c r="B166" s="1">
-        <v>57600</v>
+        <v>59400</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -7001,7 +7001,7 @@
         <v>172</v>
       </c>
       <c r="B167" s="1">
-        <v>11200</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -7009,7 +7009,7 @@
         <v>173</v>
       </c>
       <c r="B168" s="1">
-        <v>11200</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -7017,7 +7017,7 @@
         <v>89</v>
       </c>
       <c r="B169" s="1">
-        <v>9600</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -7025,7 +7025,7 @@
         <v>90</v>
       </c>
       <c r="B170" s="1">
-        <v>12800</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -7033,7 +7033,7 @@
         <v>91</v>
       </c>
       <c r="B171" s="1">
-        <v>9600</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -7041,7 +7041,7 @@
         <v>493</v>
       </c>
       <c r="B172" s="1">
-        <v>12800</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -7049,7 +7049,7 @@
         <v>92</v>
       </c>
       <c r="B173" s="1">
-        <v>12800</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -7057,7 +7057,7 @@
         <v>582</v>
       </c>
       <c r="B174" s="1">
-        <v>12800</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -7065,7 +7065,7 @@
         <v>93</v>
       </c>
       <c r="B175" s="1">
-        <v>12800</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -7073,7 +7073,7 @@
         <v>94</v>
       </c>
       <c r="B176" s="1">
-        <v>12800</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -7081,7 +7081,7 @@
         <v>583</v>
       </c>
       <c r="B177" s="1">
-        <v>11200</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -7089,7 +7089,7 @@
         <v>126</v>
       </c>
       <c r="B178" s="1">
-        <v>6400</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -7097,7 +7097,7 @@
         <v>127</v>
       </c>
       <c r="B179" s="1">
-        <v>6400</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -7105,7 +7105,7 @@
         <v>504</v>
       </c>
       <c r="B180" s="1">
-        <v>22400</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -7113,7 +7113,7 @@
         <v>584</v>
       </c>
       <c r="B181" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -7121,7 +7121,7 @@
         <v>130</v>
       </c>
       <c r="B182" s="1">
-        <v>9600</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -7129,7 +7129,7 @@
         <v>448</v>
       </c>
       <c r="B183" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -7137,7 +7137,7 @@
         <v>615</v>
       </c>
       <c r="B184" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -7145,7 +7145,7 @@
         <v>585</v>
       </c>
       <c r="B185" s="1">
-        <v>6400</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -7153,7 +7153,7 @@
         <v>495</v>
       </c>
       <c r="B186" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -7161,7 +7161,7 @@
         <v>125</v>
       </c>
       <c r="B187" s="1">
-        <v>19200</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -7169,7 +7169,7 @@
         <v>174</v>
       </c>
       <c r="B188" s="1">
-        <v>11200</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -7177,7 +7177,7 @@
         <v>175</v>
       </c>
       <c r="B189" s="1">
-        <v>12800</v>
+        <v>13200</v>
       </c>
     </row>
   </sheetData>
@@ -7189,8 +7189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="91" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
@@ -7211,7 +7211,7 @@
         <v>586</v>
       </c>
       <c r="B2" s="1">
-        <v>8000</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7219,7 +7219,7 @@
         <v>587</v>
       </c>
       <c r="B3" s="1">
-        <v>11200</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -7227,7 +7227,7 @@
         <v>588</v>
       </c>
       <c r="B4" s="1">
-        <v>32000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7235,7 +7235,7 @@
         <v>589</v>
       </c>
       <c r="B5" s="1">
-        <v>28800</v>
+        <v>29700</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -7243,7 +7243,7 @@
         <v>590</v>
       </c>
       <c r="B6" s="1">
-        <v>12800</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -7251,7 +7251,7 @@
         <v>591</v>
       </c>
       <c r="B7" s="1">
-        <v>11200</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -7259,7 +7259,7 @@
         <v>592</v>
       </c>
       <c r="B8" s="1">
-        <v>16000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -7267,7 +7267,7 @@
         <v>593</v>
       </c>
       <c r="B9" s="1">
-        <v>8000</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -7275,7 +7275,7 @@
         <v>594</v>
       </c>
       <c r="B10" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -7283,7 +7283,7 @@
         <v>595</v>
       </c>
       <c r="B11" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -7291,7 +7291,7 @@
         <v>540</v>
       </c>
       <c r="B12" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -7299,7 +7299,7 @@
         <v>596</v>
       </c>
       <c r="B13" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -7307,7 +7307,7 @@
         <v>597</v>
       </c>
       <c r="B14" s="1">
-        <v>8000</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -7315,7 +7315,7 @@
         <v>598</v>
       </c>
       <c r="B15" s="1">
-        <v>6400</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -7323,7 +7323,7 @@
         <v>599</v>
       </c>
       <c r="B16" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -7331,7 +7331,7 @@
         <v>600</v>
       </c>
       <c r="B17" s="1">
-        <v>38400</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -7339,7 +7339,7 @@
         <v>601</v>
       </c>
       <c r="B18" s="1">
-        <v>35200</v>
+        <v>36300</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -7347,7 +7347,7 @@
         <v>602</v>
       </c>
       <c r="B19" s="1">
-        <v>9600</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -7355,7 +7355,7 @@
         <v>603</v>
       </c>
       <c r="B20" s="1">
-        <v>28800</v>
+        <v>29700</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -7363,7 +7363,7 @@
         <v>604</v>
       </c>
       <c r="B21" s="1">
-        <v>16000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -7371,7 +7371,7 @@
         <v>605</v>
       </c>
       <c r="B22" s="1">
-        <v>14400</v>
+        <v>14850</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -7379,7 +7379,7 @@
         <v>617</v>
       </c>
       <c r="B23" s="1">
-        <v>22400</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -7387,7 +7387,7 @@
         <v>618</v>
       </c>
       <c r="B24" s="1">
-        <v>9600</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -7395,7 +7395,7 @@
         <v>606</v>
       </c>
       <c r="B25" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -7403,7 +7403,7 @@
         <v>607</v>
       </c>
       <c r="B26" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -7411,7 +7411,7 @@
         <v>608</v>
       </c>
       <c r="B27" s="1">
-        <v>9600</v>
+        <v>9900</v>
       </c>
     </row>
   </sheetData>
@@ -7423,8 +7423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
@@ -7446,7 +7446,7 @@
         <v>428</v>
       </c>
       <c r="B2" s="1">
-        <v>3840</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7454,7 +7454,7 @@
         <v>429</v>
       </c>
       <c r="B3" s="1">
-        <v>16000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -7462,7 +7462,7 @@
         <v>430</v>
       </c>
       <c r="B4" s="1">
-        <v>3840</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7470,7 +7470,7 @@
         <v>431</v>
       </c>
       <c r="B5" s="1">
-        <v>16000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -7478,7 +7478,7 @@
         <v>432</v>
       </c>
       <c r="B6" s="1">
-        <v>16000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -7486,7 +7486,7 @@
         <v>506</v>
       </c>
       <c r="B7" s="1">
-        <v>22400</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -7494,7 +7494,7 @@
         <v>505</v>
       </c>
       <c r="B8" s="1">
-        <v>16000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -7502,7 +7502,7 @@
         <v>433</v>
       </c>
       <c r="B9" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -7510,7 +7510,7 @@
         <v>451</v>
       </c>
       <c r="B10" s="1">
-        <v>3840</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -7518,7 +7518,7 @@
         <v>434</v>
       </c>
       <c r="B11" s="1">
-        <v>3840</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -7526,7 +7526,7 @@
         <v>479</v>
       </c>
       <c r="B12" s="1">
-        <v>25600</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -7534,7 +7534,7 @@
         <v>183</v>
       </c>
       <c r="B13" s="1">
-        <v>32000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -7542,7 +7542,7 @@
         <v>452</v>
       </c>
       <c r="B14" s="1">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -7550,7 +7550,7 @@
         <v>453</v>
       </c>
       <c r="B15" s="1">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -7558,7 +7558,7 @@
         <v>447</v>
       </c>
       <c r="B16" s="1">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -7566,7 +7566,7 @@
         <v>478</v>
       </c>
       <c r="B17" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -7574,7 +7574,7 @@
         <v>435</v>
       </c>
       <c r="B18" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -7582,7 +7582,7 @@
         <v>449</v>
       </c>
       <c r="B19" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -7590,7 +7590,7 @@
         <v>288</v>
       </c>
       <c r="B20" s="1">
-        <v>9600</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -7598,7 +7598,7 @@
         <v>474</v>
       </c>
       <c r="B21" s="1">
-        <v>1600</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -7606,7 +7606,7 @@
         <v>450</v>
       </c>
       <c r="B22" s="1">
-        <v>22400</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -7614,7 +7614,7 @@
         <v>184</v>
       </c>
       <c r="B23" s="1">
-        <v>25600</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -7622,7 +7622,7 @@
         <v>473</v>
       </c>
       <c r="B24" s="1">
-        <v>25600</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -7630,7 +7630,7 @@
         <v>540</v>
       </c>
       <c r="B25" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -7638,7 +7638,7 @@
         <v>436</v>
       </c>
       <c r="B26" s="1">
-        <v>3840</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -7646,7 +7646,7 @@
         <v>437</v>
       </c>
       <c r="B27" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -7654,7 +7654,7 @@
         <v>438</v>
       </c>
       <c r="B28" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -7662,7 +7662,7 @@
         <v>439</v>
       </c>
       <c r="B29" s="1">
-        <v>3840</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -7670,7 +7670,7 @@
         <v>440</v>
       </c>
       <c r="B30" s="1">
-        <v>3840</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -7678,7 +7678,7 @@
         <v>441</v>
       </c>
       <c r="B31" s="1">
-        <v>3840</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -7686,7 +7686,7 @@
         <v>609</v>
       </c>
       <c r="B32" s="1">
-        <v>5760</v>
+        <v>5940</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -7694,7 +7694,7 @@
         <v>442</v>
       </c>
       <c r="B33" s="1">
-        <v>6400</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -7702,7 +7702,7 @@
         <v>443</v>
       </c>
       <c r="B34" s="1">
-        <v>3840</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -7710,7 +7710,7 @@
         <v>444</v>
       </c>
       <c r="B35" s="1">
-        <v>2240</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -7718,7 +7718,7 @@
         <v>445</v>
       </c>
       <c r="B36" s="1">
-        <v>3840</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -7726,7 +7726,7 @@
         <v>446</v>
       </c>
       <c r="B37" s="1">
-        <v>3840</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -7734,7 +7734,7 @@
         <v>448</v>
       </c>
       <c r="B38" s="1">
-        <v>3200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -7742,7 +7742,7 @@
         <v>615</v>
       </c>
       <c r="B39" s="1">
-        <v>4800</v>
+        <v>4950</v>
       </c>
     </row>
   </sheetData>

--- a/clientes/files/TODITICO_CATÁLOGO.xlsx
+++ b/clientes/files/TODITICO_CATÁLOGO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabajo\Catálogos Proformas\Este\330 Actual\Clientes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA941F34-1C99-4F83-A53E-2983E8987453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34995BAB-2601-4FE7-9E7B-587090CB6FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="621">
   <si>
     <t>DESCRIPCION</t>
   </si>
@@ -1953,6 +1953,9 @@
   </si>
   <si>
     <t>ARTICULACION DE LIMPIAPARABRISAS DE BOLA CHICA</t>
+  </si>
+  <si>
+    <t>SILICONA PARA PARABRISAS</t>
   </si>
 </sst>
 </file>
@@ -7421,10 +7424,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B39"/>
+      <selection activeCell="B37" sqref="B37:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
@@ -7723,25 +7726,33 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>446</v>
+        <v>620</v>
       </c>
       <c r="B37" s="1">
-        <v>3960</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B38" s="1">
-        <v>3300</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
+        <v>448</v>
+      </c>
+      <c r="B39" s="1">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
         <v>615</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B40" s="1">
         <v>4950</v>
       </c>
     </row>

--- a/clientes/files/TODITICO_CATÁLOGO.xlsx
+++ b/clientes/files/TODITICO_CATÁLOGO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabajo\Catálogos Proformas\Este\330 Actual - Cosas Nuevas\Clientes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6459787A-51C7-4328-B371-FF61479E9EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932D88D2-D6B8-422D-9E29-965EDBEBF3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DAEWOO TICO" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="652">
   <si>
     <t>DESCRIPCION</t>
   </si>
@@ -1988,13 +1988,16 @@
   </si>
   <si>
     <t>GOMAS 195/65 R15</t>
+  </si>
+  <si>
+    <t>SILICONA PARA PARABRISAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -2462,13 +2465,13 @@
       <selection activeCell="A2" sqref="A2:B311"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="84" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2476,7 +2479,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>183</v>
       </c>
@@ -2484,7 +2487,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>465</v>
       </c>
@@ -2492,7 +2495,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>184</v>
       </c>
@@ -2500,7 +2503,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>508</v>
       </c>
@@ -2508,7 +2511,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>509</v>
       </c>
@@ -2516,7 +2519,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>185</v>
       </c>
@@ -2524,7 +2527,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>186</v>
       </c>
@@ -2532,7 +2535,7 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>510</v>
       </c>
@@ -2540,7 +2543,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>187</v>
       </c>
@@ -2548,7 +2551,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>188</v>
       </c>
@@ -2556,7 +2559,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>189</v>
       </c>
@@ -2564,7 +2567,7 @@
         <v>52800</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>192</v>
       </c>
@@ -2572,7 +2575,7 @@
         <v>11550</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>190</v>
       </c>
@@ -2580,7 +2583,7 @@
         <v>49500</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>191</v>
       </c>
@@ -2588,7 +2591,7 @@
         <v>36300</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>193</v>
       </c>
@@ -2596,7 +2599,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>194</v>
       </c>
@@ -2604,7 +2607,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>195</v>
       </c>
@@ -2612,7 +2615,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>615</v>
       </c>
@@ -2620,7 +2623,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>511</v>
       </c>
@@ -2628,7 +2631,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>196</v>
       </c>
@@ -2636,7 +2639,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>197</v>
       </c>
@@ -2644,7 +2647,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>198</v>
       </c>
@@ -2652,7 +2655,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>614</v>
       </c>
@@ -2660,7 +2663,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>199</v>
       </c>
@@ -2668,7 +2671,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>200</v>
       </c>
@@ -2676,7 +2679,7 @@
         <v>29700</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>201</v>
       </c>
@@ -2684,7 +2687,7 @@
         <v>11550</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>202</v>
       </c>
@@ -2692,7 +2695,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>203</v>
       </c>
@@ -2700,7 +2703,7 @@
         <v>49500</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>204</v>
       </c>
@@ -2708,7 +2711,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>205</v>
       </c>
@@ -2716,7 +2719,7 @@
         <v>56100</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>206</v>
       </c>
@@ -2724,7 +2727,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2">
       <c r="A33" s="4" t="s">
         <v>207</v>
       </c>
@@ -2732,7 +2735,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>636</v>
       </c>
@@ -2740,7 +2743,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>208</v>
       </c>
@@ -2748,7 +2751,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>475</v>
       </c>
@@ -2756,7 +2759,7 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>179</v>
       </c>
@@ -2764,7 +2767,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>209</v>
       </c>
@@ -2772,7 +2775,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>463</v>
       </c>
@@ -2780,7 +2783,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>451</v>
       </c>
@@ -2788,7 +2791,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>210</v>
       </c>
@@ -2796,7 +2799,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>211</v>
       </c>
@@ -2804,7 +2807,7 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>212</v>
       </c>
@@ -2812,7 +2815,7 @@
         <v>14850</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>213</v>
       </c>
@@ -2820,7 +2823,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>214</v>
       </c>
@@ -2828,7 +2831,7 @@
         <v>14850</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>215</v>
       </c>
@@ -2836,7 +2839,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>448</v>
       </c>
@@ -2844,7 +2847,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>449</v>
       </c>
@@ -2852,7 +2855,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>443</v>
       </c>
@@ -2860,7 +2863,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>474</v>
       </c>
@@ -2868,7 +2871,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>216</v>
       </c>
@@ -2876,7 +2879,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2">
       <c r="A52" s="4" t="s">
         <v>217</v>
       </c>
@@ -2884,7 +2887,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2">
       <c r="A53" s="4" t="s">
         <v>218</v>
       </c>
@@ -2892,7 +2895,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>421</v>
       </c>
@@ -2900,7 +2903,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>422</v>
       </c>
@@ -2908,7 +2911,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>219</v>
       </c>
@@ -2916,7 +2919,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>220</v>
       </c>
@@ -2924,7 +2927,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>221</v>
       </c>
@@ -2932,7 +2935,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>222</v>
       </c>
@@ -2940,7 +2943,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>223</v>
       </c>
@@ -2948,7 +2951,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>224</v>
       </c>
@@ -2956,7 +2959,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>225</v>
       </c>
@@ -2964,7 +2967,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>226</v>
       </c>
@@ -2972,7 +2975,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>227</v>
       </c>
@@ -2980,7 +2983,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>229</v>
       </c>
@@ -2988,7 +2991,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>233</v>
       </c>
@@ -2996,7 +2999,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>230</v>
       </c>
@@ -3004,7 +3007,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>231</v>
       </c>
@@ -3012,7 +3015,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>232</v>
       </c>
@@ -3020,7 +3023,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>527</v>
       </c>
@@ -3028,7 +3031,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>228</v>
       </c>
@@ -3036,7 +3039,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>234</v>
       </c>
@@ -3044,7 +3047,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>235</v>
       </c>
@@ -3052,7 +3055,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>236</v>
       </c>
@@ -3060,7 +3063,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>237</v>
       </c>
@@ -3068,7 +3071,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>238</v>
       </c>
@@ -3076,7 +3079,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>239</v>
       </c>
@@ -3084,7 +3087,7 @@
         <v>14850</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>240</v>
       </c>
@@ -3092,7 +3095,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>241</v>
       </c>
@@ -3100,7 +3103,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>242</v>
       </c>
@@ -3108,7 +3111,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>461</v>
       </c>
@@ -3116,7 +3119,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>462</v>
       </c>
@@ -3124,7 +3127,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>243</v>
       </c>
@@ -3132,7 +3135,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>244</v>
       </c>
@@ -3140,7 +3143,7 @@
         <v>23100</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>245</v>
       </c>
@@ -3148,7 +3151,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>246</v>
       </c>
@@ -3156,7 +3159,7 @@
         <v>115500</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>247</v>
       </c>
@@ -3164,7 +3167,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>248</v>
       </c>
@@ -3172,7 +3175,7 @@
         <v>99000</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>249</v>
       </c>
@@ -3180,7 +3183,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>616</v>
       </c>
@@ -3188,7 +3191,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>452</v>
       </c>
@@ -3196,7 +3199,7 @@
         <v>23100</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>250</v>
       </c>
@@ -3204,7 +3207,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>251</v>
       </c>
@@ -3212,7 +3215,7 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>252</v>
       </c>
@@ -3220,7 +3223,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>468</v>
       </c>
@@ -3228,7 +3231,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>253</v>
       </c>
@@ -3236,7 +3239,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>637</v>
       </c>
@@ -3244,7 +3247,7 @@
         <v>14850</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>535</v>
       </c>
@@ -3252,7 +3255,7 @@
         <v>82500</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>254</v>
       </c>
@@ -3260,7 +3263,7 @@
         <v>11550</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>255</v>
       </c>
@@ -3268,7 +3271,7 @@
         <v>23100</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>256</v>
       </c>
@@ -3276,7 +3279,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>638</v>
       </c>
@@ -3284,7 +3287,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>257</v>
       </c>
@@ -3292,7 +3295,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>258</v>
       </c>
@@ -3300,7 +3303,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>259</v>
       </c>
@@ -3308,7 +3311,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>453</v>
       </c>
@@ -3316,7 +3319,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
         <v>260</v>
       </c>
@@ -3324,7 +3327,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
         <v>261</v>
       </c>
@@ -3332,7 +3335,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>262</v>
       </c>
@@ -3340,7 +3343,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>263</v>
       </c>
@@ -3348,7 +3351,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>264</v>
       </c>
@@ -3356,7 +3359,7 @@
         <v>49500</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>265</v>
       </c>
@@ -3364,7 +3367,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>476</v>
       </c>
@@ -3372,7 +3375,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>266</v>
       </c>
@@ -3380,7 +3383,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>267</v>
       </c>
@@ -3388,7 +3391,7 @@
         <v>148500</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
         <v>268</v>
       </c>
@@ -3396,7 +3399,7 @@
         <v>59400</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
         <v>505</v>
       </c>
@@ -3404,7 +3407,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>506</v>
       </c>
@@ -3412,7 +3415,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>507</v>
       </c>
@@ -3420,7 +3423,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>269</v>
       </c>
@@ -3428,7 +3431,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>270</v>
       </c>
@@ -3436,7 +3439,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>271</v>
       </c>
@@ -3444,7 +3447,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>273</v>
       </c>
@@ -3452,7 +3455,7 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>464</v>
       </c>
@@ -3460,7 +3463,7 @@
         <v>82500</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>15</v>
       </c>
@@ -3468,7 +3471,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2">
       <c r="A126" s="4" t="s">
         <v>274</v>
       </c>
@@ -3476,7 +3479,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>272</v>
       </c>
@@ -3484,7 +3487,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>617</v>
       </c>
@@ -3492,7 +3495,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>275</v>
       </c>
@@ -3500,7 +3503,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>276</v>
       </c>
@@ -3508,7 +3511,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>277</v>
       </c>
@@ -3516,7 +3519,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>423</v>
       </c>
@@ -3524,7 +3527,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>278</v>
       </c>
@@ -3532,7 +3535,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>279</v>
       </c>
@@ -3540,7 +3543,7 @@
         <v>23100</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>280</v>
       </c>
@@ -3548,7 +3551,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>281</v>
       </c>
@@ -3556,7 +3559,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>282</v>
       </c>
@@ -3564,7 +3567,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>286</v>
       </c>
@@ -3572,7 +3575,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>287</v>
       </c>
@@ -3580,7 +3583,7 @@
         <v>29700</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>288</v>
       </c>
@@ -3588,7 +3591,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>283</v>
       </c>
@@ -3596,7 +3599,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
         <v>284</v>
       </c>
@@ -3604,7 +3607,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
         <v>512</v>
       </c>
@@ -3612,7 +3615,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
         <v>285</v>
       </c>
@@ -3620,7 +3623,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
         <v>289</v>
       </c>
@@ -3628,7 +3631,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
         <v>290</v>
       </c>
@@ -3636,7 +3639,7 @@
         <v>23100</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
         <v>291</v>
       </c>
@@ -3644,7 +3647,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
         <v>536</v>
       </c>
@@ -3652,7 +3655,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
         <v>292</v>
       </c>
@@ -3660,7 +3663,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
         <v>293</v>
       </c>
@@ -3668,7 +3671,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
         <v>294</v>
       </c>
@@ -3676,7 +3679,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
         <v>295</v>
       </c>
@@ -3684,7 +3687,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
         <v>296</v>
       </c>
@@ -3692,7 +3695,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
         <v>297</v>
       </c>
@@ -3700,7 +3703,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
         <v>298</v>
       </c>
@@ -3708,7 +3711,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
         <v>299</v>
       </c>
@@ -3716,7 +3719,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
         <v>300</v>
       </c>
@@ -3724,7 +3727,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
         <v>301</v>
       </c>
@@ -3732,7 +3735,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
         <v>466</v>
       </c>
@@ -3740,7 +3743,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
         <v>467</v>
       </c>
@@ -3748,7 +3751,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
         <v>302</v>
       </c>
@@ -3756,7 +3759,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
         <v>304</v>
       </c>
@@ -3764,7 +3767,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
         <v>303</v>
       </c>
@@ -3772,7 +3775,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2">
       <c r="A164" t="s">
         <v>305</v>
       </c>
@@ -3780,7 +3783,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2">
       <c r="A165" t="s">
         <v>306</v>
       </c>
@@ -3788,7 +3791,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2">
       <c r="A166" t="s">
         <v>513</v>
       </c>
@@ -3796,7 +3799,7 @@
         <v>49500</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2">
       <c r="A167" t="s">
         <v>307</v>
       </c>
@@ -3804,7 +3807,7 @@
         <v>29700</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2">
       <c r="A168" t="s">
         <v>308</v>
       </c>
@@ -3812,7 +3815,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2">
       <c r="A169" t="s">
         <v>309</v>
       </c>
@@ -3820,7 +3823,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2">
       <c r="A170" t="s">
         <v>516</v>
       </c>
@@ -3828,7 +3831,7 @@
         <v>132000</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2">
       <c r="A171" t="s">
         <v>310</v>
       </c>
@@ -3836,7 +3839,7 @@
         <v>181500</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2">
       <c r="A172" t="s">
         <v>311</v>
       </c>
@@ -3844,7 +3847,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2">
       <c r="A173" t="s">
         <v>312</v>
       </c>
@@ -3852,7 +3855,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2">
       <c r="A174" t="s">
         <v>454</v>
       </c>
@@ -3860,7 +3863,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2">
       <c r="A175" t="s">
         <v>313</v>
       </c>
@@ -3868,7 +3871,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2">
       <c r="A176" t="s">
         <v>455</v>
       </c>
@@ -3876,7 +3879,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2">
       <c r="A177" t="s">
         <v>314</v>
       </c>
@@ -3884,7 +3887,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2">
       <c r="A178" t="s">
         <v>315</v>
       </c>
@@ -3892,7 +3895,7 @@
         <v>23100</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2">
       <c r="A179" t="s">
         <v>316</v>
       </c>
@@ -3900,7 +3903,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2">
       <c r="A180" t="s">
         <v>317</v>
       </c>
@@ -3908,7 +3911,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2">
       <c r="A181" t="s">
         <v>318</v>
       </c>
@@ -3916,7 +3919,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
         <v>319</v>
       </c>
@@ -3924,7 +3927,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
         <v>320</v>
       </c>
@@ -3932,7 +3935,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
         <v>321</v>
       </c>
@@ -3940,7 +3943,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2">
       <c r="A185" t="s">
         <v>618</v>
       </c>
@@ -3948,7 +3951,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2">
       <c r="A186" t="s">
         <v>322</v>
       </c>
@@ -3956,7 +3959,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2">
       <c r="A187" t="s">
         <v>519</v>
       </c>
@@ -3964,7 +3967,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2">
       <c r="A188" t="s">
         <v>514</v>
       </c>
@@ -3972,7 +3975,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2">
       <c r="A189" t="s">
         <v>323</v>
       </c>
@@ -3980,7 +3983,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2">
       <c r="A190" t="s">
         <v>324</v>
       </c>
@@ -3988,7 +3991,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2">
       <c r="A191" t="s">
         <v>325</v>
       </c>
@@ -3996,7 +3999,7 @@
         <v>92400</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2">
       <c r="A192" t="s">
         <v>326</v>
       </c>
@@ -4004,7 +4007,7 @@
         <v>49500</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2">
       <c r="A193" t="s">
         <v>639</v>
       </c>
@@ -4012,7 +4015,7 @@
         <v>21450</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2">
       <c r="A194" t="s">
         <v>456</v>
       </c>
@@ -4020,7 +4023,7 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2">
       <c r="A195" t="s">
         <v>327</v>
       </c>
@@ -4028,7 +4031,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2">
       <c r="A196" t="s">
         <v>328</v>
       </c>
@@ -4036,7 +4039,7 @@
         <v>49500</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2">
       <c r="A197" t="s">
         <v>329</v>
       </c>
@@ -4044,7 +4047,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2">
       <c r="A198" t="s">
         <v>640</v>
       </c>
@@ -4052,7 +4055,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2">
       <c r="A199" t="s">
         <v>330</v>
       </c>
@@ -4060,7 +4063,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2">
       <c r="A200" t="s">
         <v>331</v>
       </c>
@@ -4068,7 +4071,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2">
       <c r="A201" t="s">
         <v>332</v>
       </c>
@@ -4076,7 +4079,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2">
       <c r="A202" t="s">
         <v>333</v>
       </c>
@@ -4084,7 +4087,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2">
       <c r="A203" t="s">
         <v>334</v>
       </c>
@@ -4092,7 +4095,7 @@
         <v>99000</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2">
       <c r="A204" t="s">
         <v>335</v>
       </c>
@@ -4100,7 +4103,7 @@
         <v>52800</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2">
       <c r="A205" t="s">
         <v>336</v>
       </c>
@@ -4108,7 +4111,7 @@
         <v>36300</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2">
       <c r="A206" t="s">
         <v>337</v>
       </c>
@@ -4116,7 +4119,7 @@
         <v>52800</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2">
       <c r="A207" t="s">
         <v>338</v>
       </c>
@@ -4124,7 +4127,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2">
       <c r="A208" t="s">
         <v>339</v>
       </c>
@@ -4132,7 +4135,7 @@
         <v>56100</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2">
       <c r="A209" t="s">
         <v>340</v>
       </c>
@@ -4140,7 +4143,7 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2">
       <c r="A210" t="s">
         <v>341</v>
       </c>
@@ -4148,7 +4151,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2">
       <c r="A211" t="s">
         <v>342</v>
       </c>
@@ -4156,7 +4159,7 @@
         <v>29700</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2">
       <c r="A212" t="s">
         <v>343</v>
       </c>
@@ -4164,7 +4167,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2">
       <c r="A213" t="s">
         <v>344</v>
       </c>
@@ -4172,7 +4175,7 @@
         <v>23100</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2">
       <c r="A214" t="s">
         <v>345</v>
       </c>
@@ -4180,7 +4183,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2">
       <c r="A215" t="s">
         <v>346</v>
       </c>
@@ -4188,7 +4191,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2">
       <c r="A216" t="s">
         <v>517</v>
       </c>
@@ -4196,7 +4199,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2">
       <c r="A217" t="s">
         <v>518</v>
       </c>
@@ -4204,7 +4207,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2">
       <c r="A218" t="s">
         <v>347</v>
       </c>
@@ -4212,7 +4215,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2">
       <c r="A219" t="s">
         <v>348</v>
       </c>
@@ -4220,7 +4223,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2">
       <c r="A220" t="s">
         <v>349</v>
       </c>
@@ -4228,7 +4231,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2">
       <c r="A221" t="s">
         <v>458</v>
       </c>
@@ -4236,7 +4239,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2">
       <c r="A222" t="s">
         <v>350</v>
       </c>
@@ -4244,7 +4247,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2">
       <c r="A223" t="s">
         <v>351</v>
       </c>
@@ -4252,7 +4255,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2">
       <c r="A224" t="s">
         <v>352</v>
       </c>
@@ -4260,7 +4263,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2">
       <c r="A225" t="s">
         <v>353</v>
       </c>
@@ -4268,7 +4271,7 @@
         <v>49500</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2">
       <c r="A226" t="s">
         <v>354</v>
       </c>
@@ -4276,7 +4279,7 @@
         <v>115500</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2">
       <c r="A227" t="s">
         <v>355</v>
       </c>
@@ -4284,7 +4287,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2">
       <c r="A228" t="s">
         <v>356</v>
       </c>
@@ -4292,7 +4295,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2">
       <c r="A229" t="s">
         <v>357</v>
       </c>
@@ -4300,7 +4303,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2">
       <c r="A230" t="s">
         <v>358</v>
       </c>
@@ -4308,7 +4311,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2">
       <c r="A231" t="s">
         <v>359</v>
       </c>
@@ -4316,7 +4319,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2">
       <c r="A232" t="s">
         <v>360</v>
       </c>
@@ -4324,7 +4327,7 @@
         <v>23100</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2">
       <c r="A233" t="s">
         <v>361</v>
       </c>
@@ -4332,7 +4335,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2">
       <c r="A234" t="s">
         <v>362</v>
       </c>
@@ -4340,7 +4343,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2">
       <c r="A235" t="s">
         <v>363</v>
       </c>
@@ -4348,7 +4351,7 @@
         <v>23100</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2">
       <c r="A236" t="s">
         <v>364</v>
       </c>
@@ -4356,7 +4359,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2">
       <c r="A237" t="s">
         <v>365</v>
       </c>
@@ -4364,7 +4367,7 @@
         <v>42900</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2">
       <c r="A238" t="s">
         <v>366</v>
       </c>
@@ -4372,7 +4375,7 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2">
       <c r="A239" t="s">
         <v>367</v>
       </c>
@@ -4380,7 +4383,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2">
       <c r="A240" t="s">
         <v>368</v>
       </c>
@@ -4388,7 +4391,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2">
       <c r="A241" t="s">
         <v>641</v>
       </c>
@@ -4396,7 +4399,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:2">
       <c r="A242" t="s">
         <v>369</v>
       </c>
@@ -4404,7 +4407,7 @@
         <v>21450</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2">
       <c r="A243" t="s">
         <v>370</v>
       </c>
@@ -4412,7 +4415,7 @@
         <v>31350</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2">
       <c r="A244" t="s">
         <v>371</v>
       </c>
@@ -4420,7 +4423,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2">
       <c r="A245" t="s">
         <v>372</v>
       </c>
@@ -4428,7 +4431,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2">
       <c r="A246" t="s">
         <v>373</v>
       </c>
@@ -4436,7 +4439,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2">
       <c r="A247" t="s">
         <v>374</v>
       </c>
@@ -4444,7 +4447,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:2">
       <c r="A248" t="s">
         <v>375</v>
       </c>
@@ -4452,7 +4455,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2">
       <c r="A249" t="s">
         <v>376</v>
       </c>
@@ -4460,7 +4463,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:2">
       <c r="A250" t="s">
         <v>377</v>
       </c>
@@ -4468,7 +4471,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2">
       <c r="A251" t="s">
         <v>378</v>
       </c>
@@ -4476,7 +4479,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2">
       <c r="A252" t="s">
         <v>379</v>
       </c>
@@ -4484,7 +4487,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:2">
       <c r="A253" t="s">
         <v>459</v>
       </c>
@@ -4492,7 +4495,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:2">
       <c r="A254" t="s">
         <v>460</v>
       </c>
@@ -4500,7 +4503,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:2">
       <c r="A255" t="s">
         <v>380</v>
       </c>
@@ -4508,7 +4511,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:2">
       <c r="A256" t="s">
         <v>381</v>
       </c>
@@ -4516,7 +4519,7 @@
         <v>49500</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:2">
       <c r="A257" t="s">
         <v>382</v>
       </c>
@@ -4524,7 +4527,7 @@
         <v>59400</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:2">
       <c r="A258" t="s">
         <v>383</v>
       </c>
@@ -4532,7 +4535,7 @@
         <v>29700</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:2">
       <c r="A259" t="s">
         <v>384</v>
       </c>
@@ -4540,7 +4543,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:2">
       <c r="A260" t="s">
         <v>385</v>
       </c>
@@ -4548,7 +4551,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:2">
       <c r="A261" t="s">
         <v>386</v>
       </c>
@@ -4556,7 +4559,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:2">
       <c r="A262" t="s">
         <v>387</v>
       </c>
@@ -4564,7 +4567,7 @@
         <v>24750</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:2">
       <c r="A263" t="s">
         <v>388</v>
       </c>
@@ -4572,7 +4575,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:2">
       <c r="A264" t="s">
         <v>389</v>
       </c>
@@ -4580,7 +4583,7 @@
         <v>23100</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:2">
       <c r="A265" t="s">
         <v>642</v>
       </c>
@@ -4588,7 +4591,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:2">
       <c r="A266" t="s">
         <v>390</v>
       </c>
@@ -4596,7 +4599,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:2">
       <c r="A267" t="s">
         <v>391</v>
       </c>
@@ -4604,7 +4607,7 @@
         <v>82500</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:2">
       <c r="A268" t="s">
         <v>450</v>
       </c>
@@ -4612,7 +4615,7 @@
         <v>181500</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:2">
       <c r="A269" t="s">
         <v>392</v>
       </c>
@@ -4620,7 +4623,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:2">
       <c r="A270" t="s">
         <v>393</v>
       </c>
@@ -4628,7 +4631,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:2">
       <c r="A271" t="s">
         <v>643</v>
       </c>
@@ -4636,7 +4639,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:2">
       <c r="A272" t="s">
         <v>394</v>
       </c>
@@ -4644,7 +4647,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:2">
       <c r="A273" t="s">
         <v>395</v>
       </c>
@@ -4652,7 +4655,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:2">
       <c r="A274" t="s">
         <v>644</v>
       </c>
@@ -4660,7 +4663,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:2">
       <c r="A275" t="s">
         <v>396</v>
       </c>
@@ -4668,7 +4671,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:2">
       <c r="A276" t="s">
         <v>397</v>
       </c>
@@ -4676,7 +4679,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:2">
       <c r="A277" t="s">
         <v>398</v>
       </c>
@@ -4684,7 +4687,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:2">
       <c r="A278" t="s">
         <v>399</v>
       </c>
@@ -4692,7 +4695,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:2">
       <c r="A279" t="s">
         <v>400</v>
       </c>
@@ -4700,7 +4703,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:2">
       <c r="A280" t="s">
         <v>401</v>
       </c>
@@ -4708,7 +4711,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:2">
       <c r="A281" t="s">
         <v>402</v>
       </c>
@@ -4716,7 +4719,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:2">
       <c r="A282" t="s">
         <v>444</v>
       </c>
@@ -4724,7 +4727,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:2">
       <c r="A283" t="s">
         <v>610</v>
       </c>
@@ -4732,7 +4735,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:2">
       <c r="A284" t="s">
         <v>403</v>
       </c>
@@ -4740,7 +4743,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:2">
       <c r="A285" t="s">
         <v>621</v>
       </c>
@@ -4748,7 +4751,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:2">
       <c r="A286" t="s">
         <v>622</v>
       </c>
@@ -4756,7 +4759,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:2">
       <c r="A287" t="s">
         <v>404</v>
       </c>
@@ -4764,7 +4767,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:2">
       <c r="A288" t="s">
         <v>405</v>
       </c>
@@ -4772,7 +4775,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:2">
       <c r="A289" t="s">
         <v>406</v>
       </c>
@@ -4780,7 +4783,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:2">
       <c r="A290" t="s">
         <v>407</v>
       </c>
@@ -4788,7 +4791,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:2">
       <c r="A291" t="s">
         <v>408</v>
       </c>
@@ -4796,7 +4799,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:2">
       <c r="A292" t="s">
         <v>409</v>
       </c>
@@ -4804,7 +4807,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:2">
       <c r="A293" t="s">
         <v>410</v>
       </c>
@@ -4812,7 +4815,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:2">
       <c r="A294" t="s">
         <v>457</v>
       </c>
@@ -4820,7 +4823,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:2">
       <c r="A295" t="s">
         <v>515</v>
       </c>
@@ -4828,7 +4831,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:2">
       <c r="A296" t="s">
         <v>411</v>
       </c>
@@ -4836,7 +4839,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:2">
       <c r="A297" t="s">
         <v>537</v>
       </c>
@@ -4844,7 +4847,7 @@
         <v>59400</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:2">
       <c r="A298" t="s">
         <v>520</v>
       </c>
@@ -4852,7 +4855,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:2">
       <c r="A299" t="s">
         <v>412</v>
       </c>
@@ -4860,7 +4863,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:2">
       <c r="A300" t="s">
         <v>413</v>
       </c>
@@ -4868,7 +4871,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:2">
       <c r="A301" t="s">
         <v>414</v>
       </c>
@@ -4876,7 +4879,7 @@
         <v>14850</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:2">
       <c r="A302" t="s">
         <v>415</v>
       </c>
@@ -4884,7 +4887,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:2">
       <c r="A303" t="s">
         <v>624</v>
       </c>
@@ -4892,7 +4895,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:2">
       <c r="A304" t="s">
         <v>416</v>
       </c>
@@ -4900,7 +4903,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:2">
       <c r="A305" t="s">
         <v>417</v>
       </c>
@@ -4908,7 +4911,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:2">
       <c r="A306" t="s">
         <v>521</v>
       </c>
@@ -4916,7 +4919,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:2">
       <c r="A307" t="s">
         <v>522</v>
       </c>
@@ -4924,7 +4927,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:2">
       <c r="A308" t="s">
         <v>418</v>
       </c>
@@ -4932,7 +4935,7 @@
         <v>11550</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:2">
       <c r="A309" t="s">
         <v>419</v>
       </c>
@@ -4940,7 +4943,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:2">
       <c r="A310" t="s">
         <v>503</v>
       </c>
@@ -4948,7 +4951,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:2">
       <c r="A311" t="s">
         <v>420</v>
       </c>
@@ -4969,13 +4972,13 @@
       <selection activeCell="A2" sqref="A2:B112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="64.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4983,7 +4986,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
         <v>538</v>
       </c>
@@ -4991,7 +4994,7 @@
         <v>46200</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
         <v>137</v>
       </c>
@@ -4999,7 +5002,7 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
         <v>645</v>
       </c>
@@ -5007,7 +5010,7 @@
         <v>59400</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
         <v>181</v>
       </c>
@@ -5015,7 +5018,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
         <v>646</v>
       </c>
@@ -5023,7 +5026,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
         <v>615</v>
       </c>
@@ -5031,7 +5034,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -5039,7 +5042,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2">
       <c r="A9" s="8" t="s">
         <v>539</v>
       </c>
@@ -5047,7 +5050,7 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2">
       <c r="A10" s="9" t="s">
         <v>138</v>
       </c>
@@ -5055,7 +5058,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
@@ -5063,7 +5066,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2">
       <c r="A12" s="9" t="s">
         <v>475</v>
       </c>
@@ -5071,7 +5074,7 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2">
       <c r="A13" s="9" t="s">
         <v>179</v>
       </c>
@@ -5079,7 +5082,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2">
       <c r="A14" s="8" t="s">
         <v>6</v>
       </c>
@@ -5087,7 +5090,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>139</v>
       </c>
@@ -5095,7 +5098,7 @@
         <v>18150</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2">
       <c r="A16" s="10" t="s">
         <v>529</v>
       </c>
@@ -5103,7 +5106,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
         <v>38</v>
       </c>
@@ -5111,7 +5114,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
         <v>540</v>
       </c>
@@ -5119,7 +5122,7 @@
         <v>23100</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
         <v>541</v>
       </c>
@@ -5127,7 +5130,7 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
         <v>448</v>
       </c>
@@ -5135,7 +5138,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>449</v>
       </c>
@@ -5143,7 +5146,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
         <v>443</v>
       </c>
@@ -5151,7 +5154,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
         <v>485</v>
       </c>
@@ -5159,7 +5162,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
         <v>542</v>
       </c>
@@ -5167,7 +5170,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
         <v>543</v>
       </c>
@@ -5175,7 +5178,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
         <v>12</v>
       </c>
@@ -5183,7 +5186,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
         <v>1</v>
       </c>
@@ -5191,7 +5194,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2">
       <c r="A28" s="5" t="s">
         <v>7</v>
       </c>
@@ -5199,7 +5202,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2">
       <c r="A29" s="5" t="s">
         <v>479</v>
       </c>
@@ -5207,7 +5210,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
         <v>2</v>
       </c>
@@ -5215,7 +5218,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2">
       <c r="A31" s="11" t="s">
         <v>544</v>
       </c>
@@ -5223,7 +5226,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2">
       <c r="A32" s="5" t="s">
         <v>530</v>
       </c>
@@ -5231,7 +5234,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2">
       <c r="A33" s="5" t="s">
         <v>484</v>
       </c>
@@ -5239,7 +5242,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2">
       <c r="A34" s="5" t="s">
         <v>486</v>
       </c>
@@ -5247,7 +5250,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2">
       <c r="A35" s="5" t="s">
         <v>545</v>
       </c>
@@ -5255,7 +5258,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2">
       <c r="A36" s="5" t="s">
         <v>546</v>
       </c>
@@ -5263,7 +5266,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2">
       <c r="A37" s="7" t="s">
         <v>547</v>
       </c>
@@ -5271,7 +5274,7 @@
         <v>23100</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2">
       <c r="A38" s="12" t="s">
         <v>616</v>
       </c>
@@ -5279,7 +5282,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2">
       <c r="A39" s="10" t="s">
         <v>13</v>
       </c>
@@ -5287,7 +5290,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2">
       <c r="A40" s="5" t="s">
         <v>30</v>
       </c>
@@ -5295,7 +5298,7 @@
         <v>11550</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2">
       <c r="A41" s="5" t="s">
         <v>43</v>
       </c>
@@ -5303,7 +5306,7 @@
         <v>46200</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2">
       <c r="A42" s="8" t="s">
         <v>548</v>
       </c>
@@ -5311,7 +5314,7 @@
         <v>23100</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2">
       <c r="A43" s="5" t="s">
         <v>481</v>
       </c>
@@ -5319,7 +5322,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2">
       <c r="A44" s="7" t="s">
         <v>140</v>
       </c>
@@ -5327,7 +5330,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>549</v>
       </c>
@@ -5335,7 +5338,7 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2">
       <c r="A46" s="7" t="s">
         <v>31</v>
       </c>
@@ -5343,7 +5346,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2">
       <c r="A47" s="13" t="s">
         <v>472</v>
       </c>
@@ -5351,7 +5354,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2">
       <c r="A48" s="7" t="s">
         <v>8</v>
       </c>
@@ -5359,7 +5362,7 @@
         <v>49500</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2">
       <c r="A49" s="12" t="s">
         <v>141</v>
       </c>
@@ -5367,7 +5370,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2">
       <c r="A50" s="14" t="s">
         <v>14</v>
       </c>
@@ -5375,7 +5378,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>129</v>
       </c>
@@ -5383,7 +5386,7 @@
         <v>23100</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2">
       <c r="A52" s="5" t="s">
         <v>15</v>
       </c>
@@ -5391,7 +5394,7 @@
         <v>42900</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2">
       <c r="A53" s="5" t="s">
         <v>471</v>
       </c>
@@ -5399,7 +5402,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2">
       <c r="A54" s="6" t="s">
         <v>617</v>
       </c>
@@ -5407,7 +5410,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2">
       <c r="A55" s="15" t="s">
         <v>550</v>
       </c>
@@ -5415,7 +5418,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2">
       <c r="A56" s="9" t="s">
         <v>551</v>
       </c>
@@ -5423,7 +5426,7 @@
         <v>18150</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2">
       <c r="A57" s="15" t="s">
         <v>142</v>
       </c>
@@ -5431,7 +5434,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2">
       <c r="A58" s="4" t="s">
         <v>16</v>
       </c>
@@ -5439,7 +5442,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2">
       <c r="A59" s="5" t="s">
         <v>17</v>
       </c>
@@ -5447,7 +5450,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2">
       <c r="A60" s="5" t="s">
         <v>647</v>
       </c>
@@ -5455,7 +5458,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2">
       <c r="A61" s="9" t="s">
         <v>180</v>
       </c>
@@ -5463,7 +5466,7 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2">
       <c r="A62" s="9" t="s">
         <v>536</v>
       </c>
@@ -5471,7 +5474,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2">
       <c r="A63" s="5" t="s">
         <v>3</v>
       </c>
@@ -5479,7 +5482,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2">
       <c r="A64" s="5" t="s">
         <v>18</v>
       </c>
@@ -5487,7 +5490,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2">
       <c r="A65" s="9" t="s">
         <v>143</v>
       </c>
@@ -5495,7 +5498,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2">
       <c r="A66" s="9" t="s">
         <v>552</v>
       </c>
@@ -5503,7 +5506,7 @@
         <v>23100</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2">
       <c r="A67" s="5" t="s">
         <v>9</v>
       </c>
@@ -5511,7 +5514,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2">
       <c r="A68" s="5" t="s">
         <v>19</v>
       </c>
@@ -5519,7 +5522,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2">
       <c r="A69" s="16" t="s">
         <v>20</v>
       </c>
@@ -5527,7 +5530,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2">
       <c r="A70" s="5" t="s">
         <v>553</v>
       </c>
@@ -5535,7 +5538,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2">
       <c r="A71" s="5" t="s">
         <v>554</v>
       </c>
@@ -5543,7 +5546,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2">
       <c r="A72" s="8" t="s">
         <v>26</v>
       </c>
@@ -5551,7 +5554,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2">
       <c r="A73" s="5" t="s">
         <v>618</v>
       </c>
@@ -5559,7 +5562,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2">
       <c r="A74" s="5" t="s">
         <v>605</v>
       </c>
@@ -5567,7 +5570,7 @@
         <v>14850</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2">
       <c r="A75" s="10" t="s">
         <v>606</v>
       </c>
@@ -5575,7 +5578,7 @@
         <v>11550</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2">
       <c r="A76" s="17" t="s">
         <v>144</v>
       </c>
@@ -5583,7 +5586,7 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2">
       <c r="A77" s="9" t="s">
         <v>555</v>
       </c>
@@ -5591,7 +5594,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2">
       <c r="A78" s="5" t="s">
         <v>556</v>
       </c>
@@ -5599,7 +5602,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2">
       <c r="A79" s="5" t="s">
         <v>113</v>
       </c>
@@ -5607,7 +5610,7 @@
         <v>59400</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2">
       <c r="A80" s="12" t="s">
         <v>25</v>
       </c>
@@ -5615,7 +5618,7 @@
         <v>59400</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2">
       <c r="A81" s="5" t="s">
         <v>21</v>
       </c>
@@ -5623,7 +5626,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2">
       <c r="A82" s="5" t="s">
         <v>478</v>
       </c>
@@ -5631,7 +5634,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2">
       <c r="A83" s="5" t="s">
         <v>557</v>
       </c>
@@ -5639,7 +5642,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2">
       <c r="A84" s="9" t="s">
         <v>128</v>
       </c>
@@ -5647,7 +5650,7 @@
         <v>23100</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>558</v>
       </c>
@@ -5655,7 +5658,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2">
       <c r="A86" s="10" t="s">
         <v>559</v>
       </c>
@@ -5663,7 +5666,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2">
       <c r="A87" s="4" t="s">
         <v>560</v>
       </c>
@@ -5671,7 +5674,7 @@
         <v>24750</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2">
       <c r="A88" s="4" t="s">
         <v>22</v>
       </c>
@@ -5679,7 +5682,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2">
       <c r="A89" s="4" t="s">
         <v>532</v>
       </c>
@@ -5687,7 +5690,7 @@
         <v>49500</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" ht="29">
       <c r="A90" s="18" t="s">
         <v>76</v>
       </c>
@@ -5695,7 +5698,7 @@
         <v>42900</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2">
       <c r="A91" s="5" t="s">
         <v>86</v>
       </c>
@@ -5703,7 +5706,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2">
       <c r="A92" s="5" t="s">
         <v>87</v>
       </c>
@@ -5711,7 +5714,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2">
       <c r="A93" s="5" t="s">
         <v>178</v>
       </c>
@@ -5719,7 +5722,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2">
       <c r="A94" s="5" t="s">
         <v>145</v>
       </c>
@@ -5727,7 +5730,7 @@
         <v>11550</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2">
       <c r="A95" s="5" t="s">
         <v>477</v>
       </c>
@@ -5735,7 +5738,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2">
       <c r="A96" s="9" t="s">
         <v>561</v>
       </c>
@@ -5743,7 +5746,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2">
       <c r="A97" s="5" t="s">
         <v>562</v>
       </c>
@@ -5751,7 +5754,7 @@
         <v>23100</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2">
       <c r="A98" s="5" t="s">
         <v>482</v>
       </c>
@@ -5759,7 +5762,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2">
       <c r="A99" s="19" t="s">
         <v>563</v>
       </c>
@@ -5767,7 +5770,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -5775,7 +5778,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>564</v>
       </c>
@@ -5783,7 +5786,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2">
       <c r="A102" s="5" t="s">
         <v>483</v>
       </c>
@@ -5791,7 +5794,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2">
       <c r="A103" s="5" t="s">
         <v>619</v>
       </c>
@@ -5799,7 +5802,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2">
       <c r="A104" s="5" t="s">
         <v>565</v>
       </c>
@@ -5807,7 +5810,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>444</v>
       </c>
@@ -5815,7 +5818,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>610</v>
       </c>
@@ -5823,7 +5826,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
         <v>487</v>
       </c>
@@ -5831,7 +5834,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
         <v>621</v>
       </c>
@@ -5839,7 +5842,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>622</v>
       </c>
@@ -5847,7 +5850,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>480</v>
       </c>
@@ -5855,7 +5858,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>624</v>
       </c>
@@ -5863,7 +5866,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>10</v>
       </c>
@@ -5884,13 +5887,13 @@
       <selection activeCell="A2" sqref="A2:B207"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="84" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -5898,7 +5901,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" s="22" t="s">
         <v>29</v>
       </c>
@@ -5906,7 +5909,7 @@
         <v>46200</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
@@ -5914,7 +5917,7 @@
         <v>46200</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4" s="23" t="s">
         <v>136</v>
       </c>
@@ -5922,7 +5925,7 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>146</v>
       </c>
@@ -5930,7 +5933,7 @@
         <v>82500</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2">
       <c r="A6" s="22" t="s">
         <v>27</v>
       </c>
@@ -5938,7 +5941,7 @@
         <v>52800</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2">
       <c r="A7" s="22" t="s">
         <v>634</v>
       </c>
@@ -5946,7 +5949,7 @@
         <v>59400</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
         <v>95</v>
       </c>
@@ -5954,7 +5957,7 @@
         <v>59400</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2">
       <c r="A9" s="24" t="s">
         <v>182</v>
       </c>
@@ -5962,7 +5965,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>615</v>
       </c>
@@ -5970,7 +5973,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>566</v>
       </c>
@@ -5978,7 +5981,7 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
         <v>147</v>
       </c>
@@ -5986,7 +5989,7 @@
         <v>11550</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>148</v>
       </c>
@@ -5994,7 +5997,7 @@
         <v>11550</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
@@ -6002,7 +6005,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>475</v>
       </c>
@@ -6010,7 +6013,7 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
         <v>179</v>
       </c>
@@ -6018,7 +6021,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
         <v>96</v>
       </c>
@@ -6026,7 +6029,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
         <v>32</v>
       </c>
@@ -6034,7 +6037,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2">
       <c r="A19" s="24" t="s">
         <v>23</v>
       </c>
@@ -6042,7 +6045,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
         <v>135</v>
       </c>
@@ -6050,7 +6053,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
         <v>149</v>
       </c>
@@ -6058,7 +6061,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -6066,7 +6069,7 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
         <v>528</v>
       </c>
@@ -6074,7 +6077,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -6082,7 +6085,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2">
       <c r="A25" s="23" t="s">
         <v>174</v>
       </c>
@@ -6090,7 +6093,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2">
       <c r="A26" s="4" t="s">
         <v>35</v>
       </c>
@@ -6098,7 +6101,7 @@
         <v>14850</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2">
       <c r="A27" s="4" t="s">
         <v>448</v>
       </c>
@@ -6106,7 +6109,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>449</v>
       </c>
@@ -6114,7 +6117,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2">
       <c r="A29" s="4" t="s">
         <v>443</v>
       </c>
@@ -6122,7 +6125,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
         <v>567</v>
       </c>
@@ -6130,7 +6133,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2">
       <c r="A31" s="4" t="s">
         <v>98</v>
       </c>
@@ -6138,7 +6141,7 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2">
       <c r="A32" s="4" t="s">
         <v>97</v>
       </c>
@@ -6146,7 +6149,7 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2">
       <c r="A33" s="4" t="s">
         <v>99</v>
       </c>
@@ -6154,7 +6157,7 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2">
       <c r="A34" s="4" t="s">
         <v>150</v>
       </c>
@@ -6162,7 +6165,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2">
       <c r="A35" s="4" t="s">
         <v>151</v>
       </c>
@@ -6170,7 +6173,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2">
       <c r="A36" s="4" t="s">
         <v>100</v>
       </c>
@@ -6178,7 +6181,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2">
       <c r="A37" s="4" t="s">
         <v>490</v>
       </c>
@@ -6186,7 +6189,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2">
       <c r="A38" s="25" t="s">
         <v>568</v>
       </c>
@@ -6194,7 +6197,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2">
       <c r="A39" s="4" t="s">
         <v>152</v>
       </c>
@@ -6202,7 +6205,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2">
       <c r="A40" s="4" t="s">
         <v>569</v>
       </c>
@@ -6210,7 +6213,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2">
       <c r="A41" s="4" t="s">
         <v>497</v>
       </c>
@@ -6218,7 +6221,7 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2">
       <c r="A42" s="23" t="s">
         <v>498</v>
       </c>
@@ -6226,7 +6229,7 @@
         <v>29700</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2">
       <c r="A43" s="4" t="s">
         <v>153</v>
       </c>
@@ -6234,7 +6237,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2">
       <c r="A44" s="4" t="s">
         <v>41</v>
       </c>
@@ -6242,7 +6245,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2">
       <c r="A45" s="4" t="s">
         <v>42</v>
       </c>
@@ -6250,7 +6253,7 @@
         <v>24750</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2">
       <c r="A46" s="22" t="s">
         <v>154</v>
       </c>
@@ -6258,7 +6261,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2">
       <c r="A47" s="4" t="s">
         <v>616</v>
       </c>
@@ -6266,7 +6269,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2">
       <c r="A48" s="4" t="s">
         <v>155</v>
       </c>
@@ -6274,7 +6277,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2">
       <c r="A49" s="25" t="s">
         <v>102</v>
       </c>
@@ -6282,7 +6285,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2">
       <c r="A50" s="4" t="s">
         <v>101</v>
       </c>
@@ -6290,7 +6293,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2">
       <c r="A51" s="4" t="s">
         <v>625</v>
       </c>
@@ -6298,7 +6301,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2">
       <c r="A52" s="4" t="s">
         <v>131</v>
       </c>
@@ -6306,7 +6309,7 @@
         <v>11550</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2">
       <c r="A53" s="4" t="s">
         <v>46</v>
       </c>
@@ -6314,7 +6317,7 @@
         <v>52800</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2">
       <c r="A54" s="24" t="s">
         <v>44</v>
       </c>
@@ -6322,7 +6325,7 @@
         <v>52800</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2">
       <c r="A55" s="4" t="s">
         <v>45</v>
       </c>
@@ -6330,7 +6333,7 @@
         <v>52800</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2">
       <c r="A56" s="4" t="s">
         <v>47</v>
       </c>
@@ -6338,7 +6341,7 @@
         <v>52800</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2">
       <c r="A57" s="4" t="s">
         <v>134</v>
       </c>
@@ -6346,7 +6349,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2">
       <c r="A58" s="4" t="s">
         <v>48</v>
       </c>
@@ -6354,7 +6357,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2">
       <c r="A59" s="4" t="s">
         <v>49</v>
       </c>
@@ -6362,7 +6365,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2">
       <c r="A60" s="4" t="s">
         <v>50</v>
       </c>
@@ -6370,7 +6373,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2">
       <c r="A61" s="4" t="s">
         <v>51</v>
       </c>
@@ -6378,7 +6381,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2">
       <c r="A62" s="4" t="s">
         <v>52</v>
       </c>
@@ -6386,7 +6389,7 @@
         <v>49500</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2">
       <c r="A63" s="4" t="s">
         <v>53</v>
       </c>
@@ -6394,7 +6397,7 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2">
       <c r="A64" s="4" t="s">
         <v>103</v>
       </c>
@@ -6402,7 +6405,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2">
       <c r="A65" s="4" t="s">
         <v>33</v>
       </c>
@@ -6410,7 +6413,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2">
       <c r="A66" s="4" t="s">
         <v>28</v>
       </c>
@@ -6418,7 +6421,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2">
       <c r="A67" s="4" t="s">
         <v>34</v>
       </c>
@@ -6426,7 +6429,7 @@
         <v>52800</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2">
       <c r="A68" s="4" t="s">
         <v>156</v>
       </c>
@@ -6434,7 +6437,7 @@
         <v>52800</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2">
       <c r="A69" s="4" t="s">
         <v>56</v>
       </c>
@@ -6442,7 +6445,7 @@
         <v>82500</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2">
       <c r="A70" s="4" t="s">
         <v>55</v>
       </c>
@@ -6450,7 +6453,7 @@
         <v>82500</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>54</v>
       </c>
@@ -6458,7 +6461,7 @@
         <v>75900</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2">
       <c r="A72" s="4" t="s">
         <v>57</v>
       </c>
@@ -6466,7 +6469,7 @@
         <v>82500</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2">
       <c r="A73" s="4" t="s">
         <v>58</v>
       </c>
@@ -6474,7 +6477,7 @@
         <v>82500</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2">
       <c r="A74" s="4" t="s">
         <v>525</v>
       </c>
@@ -6482,7 +6485,7 @@
         <v>82500</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2">
       <c r="A75" s="4" t="s">
         <v>62</v>
       </c>
@@ -6490,7 +6493,7 @@
         <v>49500</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2">
       <c r="A76" s="4" t="s">
         <v>59</v>
       </c>
@@ -6498,7 +6501,7 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>60</v>
       </c>
@@ -6506,7 +6509,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2">
       <c r="A78" s="4" t="s">
         <v>61</v>
       </c>
@@ -6514,7 +6517,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2">
       <c r="A79" s="25" t="s">
         <v>63</v>
       </c>
@@ -6522,7 +6525,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
         <v>526</v>
       </c>
@@ -6530,7 +6533,7 @@
         <v>23100</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2">
       <c r="A81" s="26" t="s">
         <v>570</v>
       </c>
@@ -6538,7 +6541,7 @@
         <v>23100</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2">
       <c r="A82" s="4" t="s">
         <v>157</v>
       </c>
@@ -6546,7 +6549,7 @@
         <v>23100</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2">
       <c r="A83" s="4" t="s">
         <v>64</v>
       </c>
@@ -6554,7 +6557,7 @@
         <v>46200</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2">
       <c r="A84" s="4" t="s">
         <v>608</v>
       </c>
@@ -6562,7 +6565,7 @@
         <v>46200</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2">
       <c r="A85" s="4" t="s">
         <v>65</v>
       </c>
@@ -6570,7 +6573,7 @@
         <v>59400</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
         <v>571</v>
       </c>
@@ -6578,7 +6581,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2">
       <c r="A87" s="4" t="s">
         <v>473</v>
       </c>
@@ -6586,7 +6589,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2">
       <c r="A88" s="4" t="s">
         <v>572</v>
       </c>
@@ -6594,7 +6597,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2">
       <c r="A89" s="4" t="s">
         <v>617</v>
       </c>
@@ -6602,7 +6605,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2">
       <c r="A90" s="23" t="s">
         <v>106</v>
       </c>
@@ -6610,7 +6613,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2">
       <c r="A91" s="4" t="s">
         <v>105</v>
       </c>
@@ -6618,7 +6621,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2">
       <c r="A92" s="4" t="s">
         <v>104</v>
       </c>
@@ -6626,7 +6629,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2">
       <c r="A93" s="4" t="s">
         <v>107</v>
       </c>
@@ -6634,7 +6637,7 @@
         <v>49500</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2">
       <c r="A94" s="4" t="s">
         <v>133</v>
       </c>
@@ -6642,7 +6645,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2">
       <c r="A95" s="4" t="s">
         <v>158</v>
       </c>
@@ -6650,7 +6653,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2">
       <c r="A96" s="4" t="s">
         <v>499</v>
       </c>
@@ -6658,7 +6661,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2">
       <c r="A97" s="4" t="s">
         <v>626</v>
       </c>
@@ -6666,7 +6669,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2">
       <c r="A98" s="4" t="s">
         <v>627</v>
       </c>
@@ -6674,7 +6677,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2">
       <c r="A99" s="4" t="s">
         <v>66</v>
       </c>
@@ -6682,7 +6685,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2">
       <c r="A100" s="4" t="s">
         <v>67</v>
       </c>
@@ -6690,7 +6693,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2">
       <c r="A101" s="27" t="s">
         <v>68</v>
       </c>
@@ -6698,7 +6701,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2">
       <c r="A102" s="4" t="s">
         <v>628</v>
       </c>
@@ -6706,7 +6709,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2">
       <c r="A103" s="4" t="s">
         <v>629</v>
       </c>
@@ -6714,7 +6717,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2">
       <c r="A104" s="28" t="s">
         <v>180</v>
       </c>
@@ -6722,7 +6725,7 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>469</v>
       </c>
@@ -6730,7 +6733,7 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2">
       <c r="A106" s="4" t="s">
         <v>536</v>
       </c>
@@ -6738,7 +6741,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2">
       <c r="A107" s="4" t="s">
         <v>69</v>
       </c>
@@ -6746,7 +6749,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2">
       <c r="A108" s="4" t="s">
         <v>70</v>
       </c>
@@ -6754,7 +6757,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2">
       <c r="A109" s="4" t="s">
         <v>173</v>
       </c>
@@ -6762,7 +6765,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2">
       <c r="A110" s="4" t="s">
         <v>71</v>
       </c>
@@ -6770,7 +6773,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2">
       <c r="A111" s="4" t="s">
         <v>72</v>
       </c>
@@ -6778,7 +6781,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2">
       <c r="A112" s="4" t="s">
         <v>630</v>
       </c>
@@ -6786,7 +6789,7 @@
         <v>46200</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2">
       <c r="A113" s="4" t="s">
         <v>531</v>
       </c>
@@ -6794,7 +6797,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2">
       <c r="A114" s="4" t="s">
         <v>504</v>
       </c>
@@ -6802,7 +6805,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2">
       <c r="A115" s="4" t="s">
         <v>495</v>
       </c>
@@ -6810,7 +6813,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2">
       <c r="A116" s="4" t="s">
         <v>494</v>
       </c>
@@ -6818,7 +6821,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2">
       <c r="A117" s="4" t="s">
         <v>496</v>
       </c>
@@ -6826,7 +6829,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2">
       <c r="A118" s="4" t="s">
         <v>493</v>
       </c>
@@ -6834,7 +6837,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2">
       <c r="A119" s="4" t="s">
         <v>159</v>
       </c>
@@ -6842,7 +6845,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2">
       <c r="A120" s="24" t="s">
         <v>492</v>
       </c>
@@ -6850,7 +6853,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2">
       <c r="A121" s="4" t="s">
         <v>160</v>
       </c>
@@ -6858,7 +6861,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2">
       <c r="A122" s="4" t="s">
         <v>73</v>
       </c>
@@ -6866,7 +6869,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>109</v>
       </c>
@@ -6874,7 +6877,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2">
       <c r="A124" s="4" t="s">
         <v>108</v>
       </c>
@@ -6882,7 +6885,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2">
       <c r="A125" s="4" t="s">
         <v>110</v>
       </c>
@@ -6890,7 +6893,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2">
       <c r="A126" s="4" t="s">
         <v>618</v>
       </c>
@@ -6898,7 +6901,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2">
       <c r="A127" s="4" t="s">
         <v>573</v>
       </c>
@@ -6906,7 +6909,7 @@
         <v>14850</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2">
       <c r="A128" s="4" t="s">
         <v>607</v>
       </c>
@@ -6914,7 +6917,7 @@
         <v>11550</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2">
       <c r="A129" s="29" t="s">
         <v>161</v>
       </c>
@@ -6922,7 +6925,7 @@
         <v>82500</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2">
       <c r="A130" s="4" t="s">
         <v>132</v>
       </c>
@@ -6930,7 +6933,7 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2">
       <c r="A131" s="4" t="s">
         <v>111</v>
       </c>
@@ -6938,7 +6941,7 @@
         <v>49500</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2">
       <c r="A132" s="4" t="s">
         <v>74</v>
       </c>
@@ -6946,7 +6949,7 @@
         <v>49500</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2">
       <c r="A133" s="4" t="s">
         <v>523</v>
       </c>
@@ -6954,7 +6957,7 @@
         <v>46200</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2">
       <c r="A134" s="4" t="s">
         <v>112</v>
       </c>
@@ -6962,7 +6965,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2">
       <c r="A135" s="25" t="s">
         <v>574</v>
       </c>
@@ -6970,7 +6973,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2">
       <c r="A136" s="4" t="s">
         <v>114</v>
       </c>
@@ -6978,7 +6981,7 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2">
       <c r="A137" s="30" t="s">
         <v>115</v>
       </c>
@@ -6986,7 +6989,7 @@
         <v>75900</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2">
       <c r="A138" s="4" t="s">
         <v>116</v>
       </c>
@@ -6994,7 +6997,7 @@
         <v>115500</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2">
       <c r="A139" s="4" t="s">
         <v>24</v>
       </c>
@@ -7002,7 +7005,7 @@
         <v>59400</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2">
       <c r="A140" s="4" t="s">
         <v>488</v>
       </c>
@@ -7010,7 +7013,7 @@
         <v>59400</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2">
       <c r="A141" s="4" t="s">
         <v>631</v>
       </c>
@@ -7018,7 +7021,7 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
         <v>162</v>
       </c>
@@ -7026,7 +7029,7 @@
         <v>11550</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2">
       <c r="A143" s="4" t="s">
         <v>163</v>
       </c>
@@ -7034,7 +7037,7 @@
         <v>11550</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2">
       <c r="A144" s="4" t="s">
         <v>75</v>
       </c>
@@ -7042,7 +7045,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2">
       <c r="A145" s="4" t="s">
         <v>575</v>
       </c>
@@ -7050,7 +7053,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2">
       <c r="A146" s="4" t="s">
         <v>164</v>
       </c>
@@ -7058,7 +7061,7 @@
         <v>23100</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2">
       <c r="A147" s="4" t="s">
         <v>576</v>
       </c>
@@ -7066,7 +7069,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2">
       <c r="A148" s="4" t="s">
         <v>165</v>
       </c>
@@ -7074,7 +7077,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2">
       <c r="A149" s="4" t="s">
         <v>632</v>
       </c>
@@ -7082,7 +7085,7 @@
         <v>11550</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2">
       <c r="A150" s="4" t="s">
         <v>166</v>
       </c>
@@ -7090,7 +7093,7 @@
         <v>14850</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2">
       <c r="A151" s="4" t="s">
         <v>117</v>
       </c>
@@ -7098,7 +7101,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2">
       <c r="A152" s="4" t="s">
         <v>577</v>
       </c>
@@ -7106,7 +7109,7 @@
         <v>24750</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2">
       <c r="A153" s="4" t="s">
         <v>167</v>
       </c>
@@ -7114,7 +7117,7 @@
         <v>14850</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2">
       <c r="A154" s="4" t="s">
         <v>533</v>
       </c>
@@ -7122,7 +7125,7 @@
         <v>49500</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
         <v>77</v>
       </c>
@@ -7130,7 +7133,7 @@
         <v>52800</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2">
       <c r="A156" s="4" t="s">
         <v>168</v>
       </c>
@@ -7138,7 +7141,7 @@
         <v>49500</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2">
       <c r="A157" s="4" t="s">
         <v>78</v>
       </c>
@@ -7146,7 +7149,7 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2">
       <c r="A158" s="4" t="s">
         <v>609</v>
       </c>
@@ -7154,7 +7157,7 @@
         <v>46200</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2">
       <c r="A159" s="4" t="s">
         <v>611</v>
       </c>
@@ -7162,7 +7165,7 @@
         <v>59400</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2">
       <c r="A160" s="4" t="s">
         <v>79</v>
       </c>
@@ -7170,7 +7173,7 @@
         <v>42900</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2">
       <c r="A161" s="4" t="s">
         <v>80</v>
       </c>
@@ -7178,7 +7181,7 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2">
       <c r="A162" s="4" t="s">
         <v>81</v>
       </c>
@@ -7186,7 +7189,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2">
       <c r="A163" s="4" t="s">
         <v>82</v>
       </c>
@@ -7194,7 +7197,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2">
       <c r="A164" s="4" t="s">
         <v>83</v>
       </c>
@@ -7202,7 +7205,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2">
       <c r="A165" s="4" t="s">
         <v>84</v>
       </c>
@@ -7210,7 +7213,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2">
       <c r="A166" s="4" t="s">
         <v>85</v>
       </c>
@@ -7218,7 +7221,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2">
       <c r="A167" s="27" t="s">
         <v>524</v>
       </c>
@@ -7226,7 +7229,7 @@
         <v>59400</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2">
       <c r="A168" s="4" t="s">
         <v>176</v>
       </c>
@@ -7234,7 +7237,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2">
       <c r="A169" s="4" t="s">
         <v>177</v>
       </c>
@@ -7242,7 +7245,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2">
       <c r="A170" s="4" t="s">
         <v>88</v>
       </c>
@@ -7250,7 +7253,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2">
       <c r="A171" s="4" t="s">
         <v>175</v>
       </c>
@@ -7258,7 +7261,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2">
       <c r="A172" s="4" t="s">
         <v>120</v>
       </c>
@@ -7266,7 +7269,7 @@
         <v>82500</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2">
       <c r="A173" s="4" t="s">
         <v>121</v>
       </c>
@@ -7274,7 +7277,7 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2">
       <c r="A174" s="4" t="s">
         <v>123</v>
       </c>
@@ -7282,7 +7285,7 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2">
       <c r="A175" s="4" t="s">
         <v>118</v>
       </c>
@@ -7290,7 +7293,7 @@
         <v>49500</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2">
       <c r="A176" s="4" t="s">
         <v>119</v>
       </c>
@@ -7298,7 +7301,7 @@
         <v>49500</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2">
       <c r="A177" s="4" t="s">
         <v>122</v>
       </c>
@@ -7306,7 +7309,7 @@
         <v>59400</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2">
       <c r="A178" s="4" t="s">
         <v>124</v>
       </c>
@@ -7314,7 +7317,7 @@
         <v>59400</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2">
       <c r="A179" s="4" t="s">
         <v>169</v>
       </c>
@@ -7322,7 +7325,7 @@
         <v>11550</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2">
       <c r="A180" s="4" t="s">
         <v>170</v>
       </c>
@@ -7330,7 +7333,7 @@
         <v>11550</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2">
       <c r="A181" s="4" t="s">
         <v>89</v>
       </c>
@@ -7338,7 +7341,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2">
       <c r="A182" s="31" t="s">
         <v>90</v>
       </c>
@@ -7346,7 +7349,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
         <v>91</v>
       </c>
@@ -7354,7 +7357,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
         <v>489</v>
       </c>
@@ -7362,7 +7365,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2">
       <c r="A185" s="4" t="s">
         <v>92</v>
       </c>
@@ -7370,7 +7373,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2">
       <c r="A186" s="4" t="s">
         <v>578</v>
       </c>
@@ -7378,7 +7381,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2">
       <c r="A187" s="4" t="s">
         <v>93</v>
       </c>
@@ -7386,7 +7389,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2">
       <c r="A188" s="4" t="s">
         <v>94</v>
       </c>
@@ -7394,7 +7397,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2">
       <c r="A189" s="4" t="s">
         <v>579</v>
       </c>
@@ -7402,7 +7405,7 @@
         <v>11550</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2">
       <c r="A190" t="s">
         <v>126</v>
       </c>
@@ -7410,7 +7413,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2">
       <c r="A191" t="s">
         <v>127</v>
       </c>
@@ -7418,7 +7421,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2">
       <c r="A192" t="s">
         <v>500</v>
       </c>
@@ -7426,7 +7429,7 @@
         <v>23100</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2">
       <c r="A193" t="s">
         <v>580</v>
       </c>
@@ -7434,7 +7437,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2">
       <c r="A194" t="s">
         <v>620</v>
       </c>
@@ -7442,7 +7445,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2">
       <c r="A195" t="s">
         <v>130</v>
       </c>
@@ -7450,7 +7453,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2">
       <c r="A196" t="s">
         <v>444</v>
       </c>
@@ -7458,7 +7461,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2">
       <c r="A197" t="s">
         <v>610</v>
       </c>
@@ -7466,7 +7469,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2">
       <c r="A198" t="s">
         <v>635</v>
       </c>
@@ -7474,7 +7477,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2">
       <c r="A199" t="s">
         <v>633</v>
       </c>
@@ -7482,7 +7485,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2">
       <c r="A200" t="s">
         <v>621</v>
       </c>
@@ -7490,7 +7493,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2">
       <c r="A201" t="s">
         <v>622</v>
       </c>
@@ -7498,7 +7501,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2">
       <c r="A202" t="s">
         <v>623</v>
       </c>
@@ -7506,7 +7509,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2">
       <c r="A203" t="s">
         <v>491</v>
       </c>
@@ -7514,7 +7517,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2">
       <c r="A204" t="s">
         <v>624</v>
       </c>
@@ -7522,7 +7525,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2">
       <c r="A205" t="s">
         <v>125</v>
       </c>
@@ -7530,7 +7533,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2">
       <c r="A206" t="s">
         <v>171</v>
       </c>
@@ -7538,7 +7541,7 @@
         <v>11550</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2">
       <c r="A207" t="s">
         <v>172</v>
       </c>
@@ -7555,16 +7558,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+    <sheetView zoomScale="91" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="52.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -7572,7 +7575,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" s="32" t="s">
         <v>615</v>
       </c>
@@ -7580,7 +7583,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" s="32" t="s">
         <v>648</v>
       </c>
@@ -7588,7 +7591,7 @@
         <v>36300</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4" s="32" t="s">
         <v>581</v>
       </c>
@@ -7596,7 +7599,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="A5" s="32" t="s">
         <v>582</v>
       </c>
@@ -7604,7 +7607,7 @@
         <v>11550</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2">
       <c r="A6" s="32" t="s">
         <v>583</v>
       </c>
@@ -7612,7 +7615,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2">
       <c r="A7" s="32" t="s">
         <v>584</v>
       </c>
@@ -7620,7 +7623,7 @@
         <v>29700</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2">
       <c r="A8" s="32" t="s">
         <v>616</v>
       </c>
@@ -7628,7 +7631,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2">
       <c r="A9" s="32" t="s">
         <v>585</v>
       </c>
@@ -7636,7 +7639,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2">
       <c r="A10" s="32" t="s">
         <v>586</v>
       </c>
@@ -7644,7 +7647,7 @@
         <v>11550</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2">
       <c r="A11" s="32" t="s">
         <v>587</v>
       </c>
@@ -7652,7 +7655,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2">
       <c r="A12" s="32" t="s">
         <v>588</v>
       </c>
@@ -7660,7 +7663,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2">
       <c r="A13" s="32" t="s">
         <v>617</v>
       </c>
@@ -7668,7 +7671,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2">
       <c r="A14" s="32" t="s">
         <v>589</v>
       </c>
@@ -7676,7 +7679,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2">
       <c r="A15" s="32" t="s">
         <v>590</v>
       </c>
@@ -7684,7 +7687,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2">
       <c r="A16" s="32" t="s">
         <v>649</v>
       </c>
@@ -7692,7 +7695,7 @@
         <v>29700</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2">
       <c r="A17" s="32" t="s">
         <v>650</v>
       </c>
@@ -7700,7 +7703,7 @@
         <v>29700</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2">
       <c r="A18" s="32" t="s">
         <v>536</v>
       </c>
@@ -7708,7 +7711,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2">
       <c r="A19" s="32" t="s">
         <v>591</v>
       </c>
@@ -7716,7 +7719,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2">
       <c r="A20" s="32" t="s">
         <v>592</v>
       </c>
@@ -7724,7 +7727,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2">
       <c r="A21" s="32" t="s">
         <v>593</v>
       </c>
@@ -7732,7 +7735,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2">
       <c r="A22" s="32" t="s">
         <v>594</v>
       </c>
@@ -7740,7 +7743,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2">
       <c r="A23" s="32" t="s">
         <v>595</v>
       </c>
@@ -7748,7 +7751,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2">
       <c r="A24" s="32" t="s">
         <v>596</v>
       </c>
@@ -7756,7 +7759,7 @@
         <v>36300</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2">
       <c r="A25" s="32" t="s">
         <v>618</v>
       </c>
@@ -7764,7 +7767,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2">
       <c r="A26" s="32" t="s">
         <v>597</v>
       </c>
@@ -7772,7 +7775,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2">
       <c r="A27" s="32" t="s">
         <v>598</v>
       </c>
@@ -7780,7 +7783,7 @@
         <v>29700</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>599</v>
       </c>
@@ -7788,7 +7791,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>600</v>
       </c>
@@ -7796,7 +7799,7 @@
         <v>14850</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>612</v>
       </c>
@@ -7804,7 +7807,7 @@
         <v>23100</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>613</v>
       </c>
@@ -7812,7 +7815,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>444</v>
       </c>
@@ -7820,7 +7823,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>610</v>
       </c>
@@ -7828,7 +7831,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>621</v>
       </c>
@@ -7836,7 +7839,7 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>622</v>
       </c>
@@ -7844,7 +7847,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>601</v>
       </c>
@@ -7852,7 +7855,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>602</v>
       </c>
@@ -7860,7 +7863,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>624</v>
       </c>
@@ -7868,7 +7871,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>603</v>
       </c>
@@ -7883,19 +7886,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B52"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="58.08984375" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7903,7 +7906,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>424</v>
       </c>
@@ -7911,7 +7914,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>425</v>
       </c>
@@ -7919,7 +7922,7 @@
         <v>14850</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>426</v>
       </c>
@@ -7927,7 +7930,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>427</v>
       </c>
@@ -7935,7 +7938,7 @@
         <v>14850</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>428</v>
       </c>
@@ -7943,7 +7946,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>502</v>
       </c>
@@ -7951,7 +7954,7 @@
         <v>23100</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>501</v>
       </c>
@@ -7959,7 +7962,7 @@
         <v>14850</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>429</v>
       </c>
@@ -7967,7 +7970,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>447</v>
       </c>
@@ -7975,7 +7978,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>430</v>
       </c>
@@ -7983,7 +7986,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>615</v>
       </c>
@@ -7991,7 +7994,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>475</v>
       </c>
@@ -7999,7 +8002,7 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>179</v>
       </c>
@@ -8007,7 +8010,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>648</v>
       </c>
@@ -8015,7 +8018,7 @@
         <v>36300</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>448</v>
       </c>
@@ -8023,7 +8026,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>449</v>
       </c>
@@ -8031,7 +8034,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>443</v>
       </c>
@@ -8039,7 +8042,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>474</v>
       </c>
@@ -8047,7 +8050,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>616</v>
       </c>
@@ -8055,7 +8058,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>431</v>
       </c>
@@ -8063,7 +8066,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>617</v>
       </c>
@@ -8071,7 +8074,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>445</v>
       </c>
@@ -8079,7 +8082,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>284</v>
       </c>
@@ -8087,7 +8090,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>470</v>
       </c>
@@ -8095,7 +8098,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>446</v>
       </c>
@@ -8103,7 +8106,7 @@
         <v>23100</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>180</v>
       </c>
@@ -8111,7 +8114,7 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>469</v>
       </c>
@@ -8119,7 +8122,7 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>649</v>
       </c>
@@ -8127,7 +8130,7 @@
         <v>29700</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>650</v>
       </c>
@@ -8135,7 +8138,7 @@
         <v>29700</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>536</v>
       </c>
@@ -8143,7 +8146,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>432</v>
       </c>
@@ -8151,7 +8154,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>433</v>
       </c>
@@ -8159,7 +8162,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>434</v>
       </c>
@@ -8167,7 +8170,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>435</v>
       </c>
@@ -8175,7 +8178,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>436</v>
       </c>
@@ -8183,7 +8186,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>437</v>
       </c>
@@ -8191,7 +8194,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>618</v>
       </c>
@@ -8199,7 +8202,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>604</v>
       </c>
@@ -8207,7 +8210,7 @@
         <v>5940</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>438</v>
       </c>
@@ -8215,7 +8218,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>439</v>
       </c>
@@ -8223,7 +8226,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>440</v>
       </c>
@@ -8231,7 +8234,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>441</v>
       </c>
@@ -8239,79 +8242,90 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
+        <v>651</v>
+      </c>
+      <c r="B44" s="1">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
         <v>442</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B45" s="1">
         <v>3960</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
         <v>619</v>
       </c>
-      <c r="B45" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="B46" s="1">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
         <v>620</v>
       </c>
-      <c r="B46" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="B47" s="1">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
         <v>444</v>
       </c>
-      <c r="B47" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="B48" s="1">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
         <v>610</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B49" s="1">
         <v>4950</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
         <v>621</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B50" s="1">
         <v>8250</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
         <v>622</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B51" s="1">
         <v>4950</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
         <v>623</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B52" s="1">
         <v>1650</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
         <v>624</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B53" s="1">
         <v>3300</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B53">
+    <sortCondition ref="A3:A53"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/clientes/files/TODITICO_CATÁLOGO.xlsx
+++ b/clientes/files/TODITICO_CATÁLOGO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabajo\Catálogos Proformas\Este\330 Actual - Cosas Nuevas\Clientes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932D88D2-D6B8-422D-9E29-965EDBEBF3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B950B1-E164-4274-AFB0-70EEA4940C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DAEWOO TICO" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="652">
   <si>
     <t>DESCRIPCION</t>
   </si>
@@ -152,12 +152,6 @@
   </si>
   <si>
     <t>BOMBA AGUA PICANTO 2DA Y 3RA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALZO DE MOTOR DERECHO PICANTO 2DA  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALZO DE MOTOR IZQUIERDO PICANTO 2DA               </t>
   </si>
   <si>
     <t xml:space="preserve">CONDENSADOR  ATOS
@@ -436,9 +430,6 @@
     <t>MOTOR DE ARRANQUE PICANTO 1RA, ATOS, I10</t>
   </si>
   <si>
-    <t>FILTRO ACEITE PICANTO 1RA, I10, ATOS</t>
-  </si>
-  <si>
     <t xml:space="preserve">CORREA DE DISTRIBUCIÓN PICANTO 1ra, ATOS, GETZ, I10 (101 DIENTES)        </t>
   </si>
   <si>
@@ -463,9 +454,6 @@
     <t>DELCO ATOS 1.0</t>
   </si>
   <si>
-    <t>FILTRO ACEITE ATOS, PICANTO 1RA, I10</t>
-  </si>
-  <si>
     <t>JUNTA BLOCK 1.1 ATOS, PICANTO 1RA</t>
   </si>
   <si>
@@ -511,9 +499,6 @@
     <t>DISCO EMBRAGUE PICANTO 1RA, ATOS, I10</t>
   </si>
   <si>
-    <t>FILTRO ACEITE PICANTO 2DA</t>
-  </si>
-  <si>
     <t xml:space="preserve">MANGUERA DE RADIADOR INFERIOR PICANTO 2DA              </t>
   </si>
   <si>
@@ -1991,6 +1976,21 @@
   </si>
   <si>
     <t>SILICONA PARA PARABRISAS</t>
+  </si>
+  <si>
+    <t>CALZO DE MOTOR DERECHO PICANTO 2DA  Y 3RA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALZO DE MOTOR IZQUIERDO PICANTO 2DA Y 3RA               </t>
+  </si>
+  <si>
+    <t>FILTRO ACEITE PICANTO 1RA, 2DA, 3RA, I10, ATOS</t>
+  </si>
+  <si>
+    <t>FILTRO ACEITE ATOS, PICANTO 1RA, 2DA, 3RA, I10</t>
+  </si>
+  <si>
+    <t>CILINDRO DE PUERTAS Y MALETERO JGO</t>
   </si>
 </sst>
 </file>
@@ -2005,55 +2005,66 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF161616"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF131113"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF030303"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF232123"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0C0A0A"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2459,10 +2470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B311"/>
+  <dimension ref="A1:B312"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B311"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
@@ -2476,12 +2487,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B2" s="1">
         <v>3300</v>
@@ -2489,7 +2500,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B3" s="1">
         <v>3960</v>
@@ -2497,7 +2508,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B4" s="1">
         <v>4950</v>
@@ -2505,7 +2516,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B5" s="1">
         <v>6600</v>
@@ -2513,7 +2524,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B6" s="1">
         <v>2310</v>
@@ -2521,7 +2532,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B7" s="1">
         <v>3300</v>
@@ -2529,7 +2540,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B8" s="1">
         <v>26400</v>
@@ -2537,7 +2548,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B9" s="1">
         <v>33000</v>
@@ -2545,7 +2556,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B10" s="1">
         <v>39600</v>
@@ -2553,7 +2564,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B11" s="1">
         <v>33000</v>
@@ -2561,7 +2572,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B12" s="1">
         <v>52800</v>
@@ -2569,7 +2580,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B13" s="1">
         <v>11550</v>
@@ -2577,7 +2588,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B14" s="1">
         <v>49500</v>
@@ -2585,7 +2596,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B15" s="1">
         <v>36300</v>
@@ -2593,7 +2604,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B16" s="1">
         <v>4950</v>
@@ -2601,7 +2612,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B17" s="1">
         <v>13200</v>
@@ -2609,7 +2620,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B18" s="1">
         <v>9900</v>
@@ -2617,7 +2628,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B19" s="1">
         <v>3300</v>
@@ -2625,7 +2636,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B20" s="1">
         <v>1650</v>
@@ -2633,7 +2644,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B21" s="1">
         <v>990</v>
@@ -2641,7 +2652,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B22" s="1">
         <v>4950</v>
@@ -2649,7 +2660,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B23" s="1">
         <v>39600</v>
@@ -2657,7 +2668,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="B24" s="1">
         <v>16500</v>
@@ -2665,7 +2676,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B25" s="1">
         <v>3300</v>
@@ -2673,7 +2684,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B26" s="1">
         <v>29700</v>
@@ -2681,7 +2692,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B27" s="1">
         <v>11550</v>
@@ -2689,7 +2700,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B28" s="1">
         <v>3300</v>
@@ -2697,7 +2708,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B29" s="1">
         <v>49500</v>
@@ -2705,7 +2716,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B30" s="1">
         <v>39600</v>
@@ -2713,7 +2724,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B31" s="1">
         <v>56100</v>
@@ -2721,7 +2732,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B32" s="1">
         <v>9900</v>
@@ -2729,7 +2740,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B33" s="1">
         <v>19800</v>
@@ -2737,7 +2748,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B34" s="1">
         <v>4950</v>
@@ -2745,7 +2756,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B35" s="1">
         <v>9900</v>
@@ -2753,7 +2764,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B36" s="1">
         <v>26400</v>
@@ -2761,7 +2772,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B37" s="1">
         <v>33000</v>
@@ -2769,7 +2780,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B38" s="1">
         <v>8250</v>
@@ -2777,7 +2788,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B39" s="1">
         <v>16500</v>
@@ -2785,7 +2796,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B40" s="1">
         <v>3960</v>
@@ -2793,7 +2804,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B41" s="1">
         <v>13200</v>
@@ -2801,7 +2812,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B42" s="1">
         <v>26400</v>
@@ -2809,7 +2820,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B43" s="1">
         <v>14850</v>
@@ -2817,7 +2828,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B44" s="1">
         <v>19800</v>
@@ -2825,7 +2836,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B45" s="1">
         <v>14850</v>
@@ -2833,7 +2844,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B46" s="1">
         <v>6600</v>
@@ -2841,7 +2852,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B47" s="1">
         <v>330</v>
@@ -2849,7 +2860,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B48" s="1">
         <v>330</v>
@@ -2857,7 +2868,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B49" s="1">
         <v>330</v>
@@ -2865,7 +2876,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B50" s="1">
         <v>3300</v>
@@ -2873,7 +2884,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B51" s="1">
         <v>33000</v>
@@ -2881,7 +2892,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B52" s="1">
         <v>4950</v>
@@ -2889,7 +2900,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B53" s="1">
         <v>3300</v>
@@ -2897,7 +2908,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B54" s="1">
         <v>3300</v>
@@ -2905,7 +2916,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B55" s="1">
         <v>3300</v>
@@ -2913,7 +2924,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B56" s="1">
         <v>19800</v>
@@ -2921,7 +2932,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B57" s="1">
         <v>13200</v>
@@ -2929,7 +2940,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B58" s="1">
         <v>6600</v>
@@ -2937,7 +2948,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B59" s="1">
         <v>4950</v>
@@ -2945,7 +2956,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B60" s="1">
         <v>6600</v>
@@ -2953,7 +2964,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B61" s="1">
         <v>4950</v>
@@ -2961,7 +2972,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B62" s="1">
         <v>3300</v>
@@ -2969,7 +2980,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B63" s="1">
         <v>1650</v>
@@ -2977,7 +2988,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B64" s="1">
         <v>4950</v>
@@ -2985,7 +2996,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B65" s="1">
         <v>3300</v>
@@ -2993,7 +3004,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B66" s="1">
         <v>660</v>
@@ -3001,7 +3012,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B67" s="1">
         <v>4950</v>
@@ -3009,7 +3020,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B68" s="1">
         <v>4950</v>
@@ -3017,7 +3028,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B69" s="1">
         <v>3300</v>
@@ -3025,7 +3036,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B70" s="1">
         <v>3300</v>
@@ -3033,7 +3044,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B71" s="1">
         <v>2310</v>
@@ -3041,7 +3052,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B72" s="1">
         <v>3300</v>
@@ -3049,7 +3060,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B73" s="1">
         <v>4950</v>
@@ -3057,7 +3068,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B74" s="1">
         <v>6600</v>
@@ -3065,7 +3076,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B75" s="1">
         <v>8250</v>
@@ -3073,7 +3084,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B76" s="1">
         <v>6600</v>
@@ -3081,7 +3092,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B77" s="1">
         <v>14850</v>
@@ -3089,7 +3100,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B78" s="1">
         <v>8250</v>
@@ -3097,7 +3108,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B79" s="1">
         <v>8250</v>
@@ -3105,7 +3116,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B80" s="1">
         <v>3300</v>
@@ -3113,7 +3124,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B81" s="1">
         <v>4950</v>
@@ -3121,7 +3132,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B82" s="1">
         <v>9900</v>
@@ -3129,7 +3140,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B83" s="1">
         <v>16500</v>
@@ -3137,7 +3148,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B84" s="1">
         <v>23100</v>
@@ -3145,7 +3156,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B85" s="1">
         <v>33000</v>
@@ -3153,7 +3164,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B86" s="1">
         <v>115500</v>
@@ -3161,7 +3172,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B87" s="1">
         <v>3300</v>
@@ -3169,7 +3180,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B88" s="1">
         <v>99000</v>
@@ -3177,7 +3188,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B89" s="1">
         <v>16500</v>
@@ -3185,7 +3196,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B90" s="1">
         <v>4950</v>
@@ -3193,7 +3204,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B91" s="1">
         <v>23100</v>
@@ -3201,7 +3212,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B92" s="1">
         <v>16500</v>
@@ -3209,7 +3220,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B93" s="1">
         <v>26400</v>
@@ -3217,7 +3228,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B94" s="1">
         <v>8250</v>
@@ -3225,7 +3236,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B95" s="1">
         <v>8250</v>
@@ -3233,7 +3244,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B96" s="1">
         <v>8250</v>
@@ -3241,7 +3252,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="B97" s="1">
         <v>14850</v>
@@ -3249,7 +3260,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B98" s="1">
         <v>82500</v>
@@ -3257,167 +3268,167 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>254</v>
+        <v>651</v>
       </c>
       <c r="B99" s="1">
-        <v>11550</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B100" s="1">
-        <v>23100</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B101" s="1">
-        <v>16500</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>638</v>
+        <v>251</v>
       </c>
       <c r="B102" s="1">
-        <v>9900</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>257</v>
+        <v>633</v>
       </c>
       <c r="B103" s="1">
-        <v>39600</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B104" s="1">
-        <v>9900</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B105" s="1">
-        <v>19800</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>453</v>
+        <v>254</v>
       </c>
       <c r="B106" s="1">
-        <v>3300</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>260</v>
+        <v>448</v>
       </c>
       <c r="B107" s="1">
-        <v>6600</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B108" s="1">
-        <v>4950</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B109" s="1">
-        <v>6600</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B110" s="1">
-        <v>19800</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B111" s="1">
-        <v>49500</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B112" s="1">
-        <v>13200</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>476</v>
+        <v>260</v>
       </c>
       <c r="B113" s="1">
-        <v>33000</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>266</v>
+        <v>471</v>
       </c>
       <c r="B114" s="1">
-        <v>8250</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B115" s="1">
-        <v>148500</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B116" s="1">
-        <v>59400</v>
+        <v>148500</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>505</v>
+        <v>263</v>
       </c>
       <c r="B117" s="1">
-        <v>3300</v>
+        <v>59400</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B118" s="1">
-        <v>9900</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B119" s="1">
         <v>9900</v>
@@ -3425,135 +3436,135 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>269</v>
+        <v>502</v>
       </c>
       <c r="B120" s="1">
-        <v>19800</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B121" s="1">
-        <v>39600</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B122" s="1">
-        <v>8250</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B123" s="1">
-        <v>26400</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>464</v>
+        <v>268</v>
       </c>
       <c r="B124" s="1">
-        <v>82500</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>15</v>
+        <v>459</v>
       </c>
       <c r="B125" s="1">
-        <v>39600</v>
+        <v>82500</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="4" t="s">
-        <v>274</v>
+        <v>15</v>
       </c>
       <c r="B126" s="1">
-        <v>6600</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B127" s="1">
-        <v>4950</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>617</v>
+        <v>267</v>
       </c>
       <c r="B128" s="1">
-        <v>3300</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>275</v>
+        <v>612</v>
       </c>
       <c r="B129" s="1">
-        <v>16500</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B130" s="1">
-        <v>19800</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B131" s="1">
-        <v>33000</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>423</v>
+        <v>272</v>
       </c>
       <c r="B132" s="1">
-        <v>4950</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>278</v>
+        <v>418</v>
       </c>
       <c r="B133" s="1">
-        <v>16500</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B134" s="1">
-        <v>23100</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B135" s="1">
-        <v>3300</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B136" s="1">
         <v>3300</v>
@@ -3561,7 +3572,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B137" s="1">
         <v>3300</v>
@@ -3569,26 +3580,26 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B138" s="1">
-        <v>9900</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B139" s="1">
-        <v>29700</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B140" s="1">
-        <v>16500</v>
+        <v>29700</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -3596,148 +3607,148 @@
         <v>283</v>
       </c>
       <c r="B141" s="1">
-        <v>3300</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B142" s="1">
-        <v>9900</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>512</v>
+        <v>279</v>
       </c>
       <c r="B143" s="1">
-        <v>6600</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>285</v>
+        <v>507</v>
       </c>
       <c r="B144" s="1">
-        <v>39600</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B145" s="1">
-        <v>4950</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B146" s="1">
-        <v>23100</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B147" s="1">
-        <v>6600</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>536</v>
+        <v>286</v>
       </c>
       <c r="B148" s="1">
-        <v>3300</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>292</v>
+        <v>531</v>
       </c>
       <c r="B149" s="1">
-        <v>1650</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B150" s="1">
-        <v>33000</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B151" s="1">
-        <v>19800</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B152" s="1">
-        <v>9900</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B153" s="1">
-        <v>33000</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B154" s="1">
-        <v>9900</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B155" s="1">
-        <v>3300</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B156" s="1">
-        <v>4950</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B157" s="1">
-        <v>9900</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B158" s="1">
-        <v>3300</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>466</v>
+        <v>296</v>
       </c>
       <c r="B159" s="1">
         <v>3300</v>
@@ -3745,7 +3756,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B160" s="1">
         <v>3300</v>
@@ -3753,159 +3764,159 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>302</v>
+        <v>462</v>
       </c>
       <c r="B161" s="1">
-        <v>6600</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B162" s="1">
-        <v>660</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B163" s="1">
-        <v>6600</v>
+        <v>660</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B164" s="1">
-        <v>16500</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B165" s="1">
-        <v>13200</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>513</v>
+        <v>301</v>
       </c>
       <c r="B166" s="1">
-        <v>49500</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>307</v>
+        <v>508</v>
       </c>
       <c r="B167" s="1">
-        <v>29700</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B168" s="1">
-        <v>3960</v>
+        <v>29700</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B169" s="1">
-        <v>4950</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>516</v>
+        <v>304</v>
       </c>
       <c r="B170" s="1">
-        <v>132000</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>310</v>
+        <v>511</v>
       </c>
       <c r="B171" s="1">
-        <v>181500</v>
+        <v>132000</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B172" s="1">
-        <v>1980</v>
+        <v>181500</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B173" s="1">
-        <v>3300</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>454</v>
+        <v>307</v>
       </c>
       <c r="B174" s="1">
-        <v>6600</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>313</v>
+        <v>449</v>
       </c>
       <c r="B175" s="1">
-        <v>4950</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>455</v>
+        <v>308</v>
       </c>
       <c r="B176" s="1">
-        <v>1650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>314</v>
+        <v>450</v>
       </c>
       <c r="B177" s="1">
-        <v>4950</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B178" s="1">
-        <v>23100</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B179" s="1">
-        <v>3300</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B180" s="1">
         <v>3300</v>
@@ -3913,23 +3924,23 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B181" s="1">
-        <v>6600</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B182" s="1">
-        <v>3300</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B183" s="1">
         <v>3300</v>
@@ -3937,7 +3948,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B184" s="1">
         <v>3300</v>
@@ -3945,26 +3956,26 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>618</v>
+        <v>316</v>
       </c>
       <c r="B185" s="1">
-        <v>3960</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>322</v>
+        <v>613</v>
       </c>
       <c r="B186" s="1">
-        <v>16500</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>519</v>
+        <v>317</v>
       </c>
       <c r="B187" s="1">
-        <v>1650</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3977,231 +3988,231 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>323</v>
+        <v>509</v>
       </c>
       <c r="B189" s="1">
-        <v>9900</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B190" s="1">
-        <v>2310</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B191" s="1">
-        <v>92400</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B192" s="1">
-        <v>49500</v>
+        <v>92400</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>639</v>
+        <v>321</v>
       </c>
       <c r="B193" s="1">
-        <v>21450</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>456</v>
+        <v>634</v>
       </c>
       <c r="B194" s="1">
-        <v>26400</v>
+        <v>21450</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>327</v>
+        <v>451</v>
       </c>
       <c r="B195" s="1">
-        <v>9900</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B196" s="1">
-        <v>49500</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B197" s="1">
-        <v>3300</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>640</v>
+        <v>324</v>
       </c>
       <c r="B198" s="1">
-        <v>19800</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>330</v>
+        <v>635</v>
       </c>
       <c r="B199" s="1">
-        <v>3300</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B200" s="1">
-        <v>6600</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B201" s="1">
-        <v>33000</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B202" s="1">
-        <v>39600</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B203" s="1">
-        <v>99000</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B204" s="1">
-        <v>52800</v>
+        <v>99000</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B205" s="1">
-        <v>36300</v>
+        <v>52800</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B206" s="1">
-        <v>52800</v>
+        <v>36300</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B207" s="1">
-        <v>9900</v>
+        <v>52800</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B208" s="1">
-        <v>56100</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B209" s="1">
-        <v>26400</v>
+        <v>56100</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B210" s="1">
-        <v>72600</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B211" s="1">
-        <v>29700</v>
+        <v>72600</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B212" s="1">
-        <v>8250</v>
+        <v>29700</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B213" s="1">
-        <v>23100</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B214" s="1">
-        <v>8250</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B215" s="1">
-        <v>3300</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="B216" s="1">
-        <v>6600</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B217" s="1">
         <v>6600</v>
@@ -4209,15 +4220,15 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>347</v>
+        <v>513</v>
       </c>
       <c r="B218" s="1">
-        <v>9900</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B219" s="1">
         <v>9900</v>
@@ -4225,39 +4236,39 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B220" s="1">
-        <v>19800</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>458</v>
+        <v>344</v>
       </c>
       <c r="B221" s="1">
-        <v>13200</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>350</v>
+        <v>453</v>
       </c>
       <c r="B222" s="1">
-        <v>9900</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B223" s="1">
-        <v>6600</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B224" s="1">
         <v>6600</v>
@@ -4265,31 +4276,31 @@
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B225" s="1">
-        <v>49500</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B226" s="1">
-        <v>115500</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B227" s="1">
-        <v>6600</v>
+        <v>115500</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B228" s="1">
         <v>6600</v>
@@ -4297,151 +4308,151 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B229" s="1">
-        <v>4950</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B230" s="1">
-        <v>9900</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B231" s="1">
-        <v>4950</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B232" s="1">
-        <v>23100</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B233" s="1">
-        <v>13200</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B234" s="1">
-        <v>33000</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B235" s="1">
-        <v>23100</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B236" s="1">
-        <v>4950</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B237" s="1">
-        <v>42900</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B238" s="1">
-        <v>66000</v>
+        <v>42900</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B239" s="1">
-        <v>9900</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B240" s="1">
-        <v>4950</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>641</v>
+        <v>363</v>
       </c>
       <c r="B241" s="1">
-        <v>33000</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>369</v>
+        <v>636</v>
       </c>
       <c r="B242" s="1">
-        <v>21450</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B243" s="1">
-        <v>31350</v>
+        <v>21450</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B244" s="1">
-        <v>3300</v>
+        <v>31350</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B245" s="1">
-        <v>6600</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B246" s="1">
-        <v>3300</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B247" s="1">
         <v>3300</v>
@@ -4449,7 +4460,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B248" s="1">
         <v>3300</v>
@@ -4457,7 +4468,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B249" s="1">
         <v>3300</v>
@@ -4465,15 +4476,15 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B250" s="1">
-        <v>4950</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B251" s="1">
         <v>4950</v>
@@ -4481,7 +4492,7 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B252" s="1">
         <v>4950</v>
@@ -4489,7 +4500,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>459</v>
+        <v>374</v>
       </c>
       <c r="B253" s="1">
         <v>4950</v>
@@ -4497,167 +4508,167 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B254" s="1">
-        <v>1980</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>380</v>
+        <v>455</v>
       </c>
       <c r="B255" s="1">
-        <v>3300</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B256" s="1">
-        <v>49500</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B257" s="1">
-        <v>59400</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B258" s="1">
-        <v>29700</v>
+        <v>59400</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B259" s="1">
-        <v>9900</v>
+        <v>29700</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B260" s="1">
-        <v>8250</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B261" s="1">
-        <v>1320</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B262" s="1">
-        <v>24750</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B263" s="1">
-        <v>8250</v>
+        <v>24750</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B264" s="1">
-        <v>23100</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>642</v>
+        <v>384</v>
       </c>
       <c r="B265" s="1">
-        <v>3960</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>390</v>
+        <v>637</v>
       </c>
       <c r="B266" s="1">
-        <v>4950</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B267" s="1">
-        <v>82500</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>450</v>
+        <v>386</v>
       </c>
       <c r="B268" s="1">
-        <v>181500</v>
+        <v>82500</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>392</v>
+        <v>445</v>
       </c>
       <c r="B269" s="1">
-        <v>8250</v>
+        <v>181500</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B270" s="1">
-        <v>3300</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>643</v>
+        <v>388</v>
       </c>
       <c r="B271" s="1">
-        <v>6600</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>394</v>
+        <v>638</v>
       </c>
       <c r="B272" s="1">
-        <v>3300</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B273" s="1">
-        <v>4950</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" t="s">
-        <v>644</v>
+        <v>390</v>
       </c>
       <c r="B274" s="1">
         <v>4950</v>
@@ -4665,31 +4676,31 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
-        <v>396</v>
+        <v>639</v>
       </c>
       <c r="B275" s="1">
-        <v>2310</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B276" s="1">
-        <v>16500</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B277" s="1">
-        <v>1650</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B278" s="1">
         <v>1650</v>
@@ -4697,7 +4708,7 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B279" s="1">
         <v>1650</v>
@@ -4705,39 +4716,39 @@
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B280" s="1">
-        <v>2310</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B281" s="1">
-        <v>6600</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" t="s">
-        <v>444</v>
+        <v>397</v>
       </c>
       <c r="B282" s="1">
-        <v>3300</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>610</v>
+        <v>439</v>
       </c>
       <c r="B283" s="1">
-        <v>4950</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>403</v>
+        <v>605</v>
       </c>
       <c r="B284" s="1">
         <v>4950</v>
@@ -4745,183 +4756,183 @@
     </row>
     <row r="285" spans="1:2">
       <c r="A285" t="s">
-        <v>621</v>
+        <v>398</v>
       </c>
       <c r="B285" s="1">
-        <v>8250</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="B286" s="1">
-        <v>4950</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
-        <v>404</v>
+        <v>617</v>
       </c>
       <c r="B287" s="1">
-        <v>1650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B288" s="1">
-        <v>2310</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B289" s="1">
-        <v>3300</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B290" s="1">
-        <v>660</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B291" s="1">
-        <v>1650</v>
+        <v>660</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B292" s="1">
-        <v>990</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B293" s="1">
-        <v>1320</v>
+        <v>990</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" t="s">
-        <v>457</v>
+        <v>405</v>
       </c>
       <c r="B294" s="1">
-        <v>990</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" t="s">
-        <v>515</v>
+        <v>452</v>
       </c>
       <c r="B295" s="1">
-        <v>2310</v>
+        <v>990</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" t="s">
-        <v>411</v>
+        <v>510</v>
       </c>
       <c r="B296" s="1">
-        <v>660</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" t="s">
-        <v>537</v>
+        <v>406</v>
       </c>
       <c r="B297" s="1">
-        <v>59400</v>
+        <v>660</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="B298" s="1">
-        <v>3300</v>
+        <v>59400</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" t="s">
-        <v>412</v>
+        <v>515</v>
       </c>
       <c r="B299" s="1">
-        <v>6600</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B300" s="1">
-        <v>8250</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B301" s="1">
-        <v>14850</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B302" s="1">
-        <v>4950</v>
+        <v>14850</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" t="s">
-        <v>624</v>
+        <v>410</v>
       </c>
       <c r="B303" s="1">
-        <v>3300</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" t="s">
-        <v>416</v>
+        <v>619</v>
       </c>
       <c r="B304" s="1">
-        <v>19800</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B305" s="1">
-        <v>33000</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" t="s">
-        <v>521</v>
+        <v>412</v>
       </c>
       <c r="B306" s="1">
-        <v>4950</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B307" s="1">
         <v>4950</v>
@@ -4929,33 +4940,41 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" t="s">
-        <v>418</v>
+        <v>517</v>
       </c>
       <c r="B308" s="1">
-        <v>11550</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B309" s="1">
-        <v>3300</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" t="s">
-        <v>503</v>
+        <v>414</v>
       </c>
       <c r="B310" s="1">
-        <v>1650</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" t="s">
-        <v>420</v>
+        <v>498</v>
       </c>
       <c r="B311" s="1">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" t="s">
+        <v>415</v>
+      </c>
+      <c r="B312" s="1">
         <v>4950</v>
       </c>
     </row>
@@ -4983,12 +5002,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B2" s="1">
         <v>46200</v>
@@ -4996,7 +5015,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B3" s="1">
         <v>66000</v>
@@ -5004,7 +5023,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="B4" s="1">
         <v>59400</v>
@@ -5012,7 +5031,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B5" s="1">
         <v>39600</v>
@@ -5020,7 +5039,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B6" s="1">
         <v>39600</v>
@@ -5028,7 +5047,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B7" s="1">
         <v>3300</v>
@@ -5044,7 +5063,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="8" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B9" s="1">
         <v>26400</v>
@@ -5052,7 +5071,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B10" s="1">
         <v>13200</v>
@@ -5068,7 +5087,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="9" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B12" s="1">
         <v>26400</v>
@@ -5076,7 +5095,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B13" s="1">
         <v>33000</v>
@@ -5092,7 +5111,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B15" s="1">
         <v>18150</v>
@@ -5100,7 +5119,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="10" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B16" s="1">
         <v>19800</v>
@@ -5116,7 +5135,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B18" s="1">
         <v>23100</v>
@@ -5124,7 +5143,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B19" s="1">
         <v>26400</v>
@@ -5132,7 +5151,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B20" s="1">
         <v>330</v>
@@ -5140,7 +5159,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B21" s="1">
         <v>330</v>
@@ -5148,7 +5167,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B22" s="1">
         <v>330</v>
@@ -5156,7 +5175,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B23" s="1">
         <v>4950</v>
@@ -5164,7 +5183,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B24" s="1">
         <v>13200</v>
@@ -5172,7 +5191,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B25" s="1">
         <v>13200</v>
@@ -5204,7 +5223,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="5" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B29" s="1">
         <v>2310</v>
@@ -5220,7 +5239,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="11" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B31" s="1">
         <v>4950</v>
@@ -5228,7 +5247,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="5" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B32" s="1">
         <v>8250</v>
@@ -5236,7 +5255,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="5" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B33" s="1">
         <v>8250</v>
@@ -5244,7 +5263,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="5" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B34" s="1">
         <v>16500</v>
@@ -5252,7 +5271,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="5" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B35" s="1">
         <v>19800</v>
@@ -5260,7 +5279,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="5" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B36" s="1">
         <v>16500</v>
@@ -5268,7 +5287,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="7" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B37" s="1">
         <v>23100</v>
@@ -5276,7 +5295,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="12" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B38" s="1">
         <v>4950</v>
@@ -5300,7 +5319,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B41" s="1">
         <v>46200</v>
@@ -5308,7 +5327,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="8" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B42" s="1">
         <v>23100</v>
@@ -5316,7 +5335,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="5" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B43" s="1">
         <v>4950</v>
@@ -5324,7 +5343,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B44" s="1">
         <v>9900</v>
@@ -5332,7 +5351,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B45" s="1">
         <v>66000</v>
@@ -5348,7 +5367,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="13" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B47" s="1">
         <v>33000</v>
@@ -5364,7 +5383,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B49" s="1">
         <v>39600</v>
@@ -5380,7 +5399,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B51" s="1">
         <v>23100</v>
@@ -5396,7 +5415,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="5" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B53" s="1">
         <v>13200</v>
@@ -5404,7 +5423,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="6" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B54" s="1">
         <v>3300</v>
@@ -5412,7 +5431,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="15" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B55" s="1">
         <v>19800</v>
@@ -5420,7 +5439,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="9" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B56" s="1">
         <v>18150</v>
@@ -5428,7 +5447,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="15" t="s">
-        <v>142</v>
+        <v>650</v>
       </c>
       <c r="B57" s="1">
         <v>3300</v>
@@ -5452,7 +5471,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="5" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="B60" s="1">
         <v>4950</v>
@@ -5460,7 +5479,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B61" s="1">
         <v>26400</v>
@@ -5468,7 +5487,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="9" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B62" s="1">
         <v>3300</v>
@@ -5492,7 +5511,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B65" s="1">
         <v>6600</v>
@@ -5500,7 +5519,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="9" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B66" s="1">
         <v>23100</v>
@@ -5532,7 +5551,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="5" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B70" s="1">
         <v>3300</v>
@@ -5540,7 +5559,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="5" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B71" s="1">
         <v>4950</v>
@@ -5556,7 +5575,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="5" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B73" s="1">
         <v>3960</v>
@@ -5564,7 +5583,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="5" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B74" s="1">
         <v>14850</v>
@@ -5572,7 +5591,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="10" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B75" s="1">
         <v>11550</v>
@@ -5580,7 +5599,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="17" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B76" s="1">
         <v>66000</v>
@@ -5588,7 +5607,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="9" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B77" s="1">
         <v>4950</v>
@@ -5596,7 +5615,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="5" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B78" s="1">
         <v>3960</v>
@@ -5604,7 +5623,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B79" s="1">
         <v>59400</v>
@@ -5628,7 +5647,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="5" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B82" s="1">
         <v>13200</v>
@@ -5636,7 +5655,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="5" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B83" s="1">
         <v>39600</v>
@@ -5644,7 +5663,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B84" s="1">
         <v>23100</v>
@@ -5652,7 +5671,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B85" s="1">
         <v>6600</v>
@@ -5660,7 +5679,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="10" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B86" s="1">
         <v>4950</v>
@@ -5668,7 +5687,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="4" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B87" s="1">
         <v>24750</v>
@@ -5684,7 +5703,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="4" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B89" s="1">
         <v>49500</v>
@@ -5692,7 +5711,7 @@
     </row>
     <row r="90" spans="1:2" ht="29">
       <c r="A90" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B90" s="1">
         <v>42900</v>
@@ -5700,7 +5719,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B91" s="1">
         <v>1650</v>
@@ -5708,7 +5727,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B92" s="1">
         <v>2310</v>
@@ -5716,7 +5735,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B93" s="1">
         <v>1650</v>
@@ -5724,7 +5743,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B94" s="1">
         <v>11550</v>
@@ -5732,7 +5751,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="5" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B95" s="1">
         <v>13200</v>
@@ -5740,7 +5759,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="9" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B96" s="1">
         <v>13200</v>
@@ -5748,7 +5767,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="5" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B97" s="1">
         <v>23100</v>
@@ -5756,7 +5775,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="5" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B98" s="1">
         <v>6600</v>
@@ -5764,7 +5783,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="19" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B99" s="1">
         <v>13200</v>
@@ -5780,7 +5799,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B101" s="1">
         <v>3300</v>
@@ -5788,7 +5807,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="5" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B102" s="1">
         <v>1650</v>
@@ -5796,7 +5815,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="5" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B103" s="1">
         <v>3300</v>
@@ -5804,7 +5823,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B104" s="1">
         <v>9900</v>
@@ -5812,7 +5831,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B105" s="1">
         <v>3300</v>
@@ -5820,7 +5839,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="B106" s="1">
         <v>4950</v>
@@ -5828,7 +5847,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B107" s="1">
         <v>4950</v>
@@ -5836,7 +5855,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="B108" s="1">
         <v>8250</v>
@@ -5844,7 +5863,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="B109" s="1">
         <v>4950</v>
@@ -5852,7 +5871,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B110" s="1">
         <v>3300</v>
@@ -5860,7 +5879,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="B111" s="1">
         <v>3300</v>
@@ -5884,7 +5903,7 @@
   <dimension ref="A1:B207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B207"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
@@ -5898,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5919,7 +5938,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B4" s="1">
         <v>66000</v>
@@ -5927,7 +5946,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B5" s="1">
         <v>82500</v>
@@ -5943,7 +5962,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="22" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B7" s="1">
         <v>59400</v>
@@ -5951,7 +5970,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B8" s="1">
         <v>59400</v>
@@ -5959,7 +5978,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="24" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B9" s="1">
         <v>39600</v>
@@ -5967,7 +5986,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B10" s="1">
         <v>3300</v>
@@ -5975,7 +5994,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B11" s="1">
         <v>26400</v>
@@ -5983,7 +6002,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B12" s="1">
         <v>11550</v>
@@ -5991,7 +6010,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B13" s="1">
         <v>11550</v>
@@ -6007,7 +6026,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B15" s="1">
         <v>26400</v>
@@ -6015,7 +6034,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B16" s="1">
         <v>33000</v>
@@ -6023,7 +6042,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B17" s="1">
         <v>8250</v>
@@ -6047,7 +6066,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B20" s="1">
         <v>19800</v>
@@ -6055,7 +6074,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B21" s="1">
         <v>19800</v>
@@ -6071,7 +6090,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B23" s="1">
         <v>19800</v>
@@ -6087,7 +6106,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="23" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B25" s="1">
         <v>33000</v>
@@ -6103,7 +6122,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="4" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B27" s="1">
         <v>330</v>
@@ -6111,7 +6130,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B28" s="1">
         <v>330</v>
@@ -6119,7 +6138,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="4" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B29" s="1">
         <v>330</v>
@@ -6127,7 +6146,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B30" s="1">
         <v>3300</v>
@@ -6135,7 +6154,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B31" s="1">
         <v>26400</v>
@@ -6143,7 +6162,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B32" s="1">
         <v>26400</v>
@@ -6151,7 +6170,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B33" s="1">
         <v>26400</v>
@@ -6159,7 +6178,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B34" s="1">
         <v>3300</v>
@@ -6167,7 +6186,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B35" s="1">
         <v>3300</v>
@@ -6175,7 +6194,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B36" s="1">
         <v>1650</v>
@@ -6183,7 +6202,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="4" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B37" s="1">
         <v>2310</v>
@@ -6191,7 +6210,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="25" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B38" s="1">
         <v>2310</v>
@@ -6199,7 +6218,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B39" s="1">
         <v>9900</v>
@@ -6207,7 +6226,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="4" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B40" s="1">
         <v>13200</v>
@@ -6215,7 +6234,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="4" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B41" s="1">
         <v>26400</v>
@@ -6223,7 +6242,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="23" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B42" s="1">
         <v>29700</v>
@@ -6231,7 +6250,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B43" s="1">
         <v>8250</v>
@@ -6239,7 +6258,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="4" t="s">
-        <v>41</v>
+        <v>647</v>
       </c>
       <c r="B44" s="1">
         <v>33000</v>
@@ -6247,7 +6266,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="4" t="s">
-        <v>42</v>
+        <v>648</v>
       </c>
       <c r="B45" s="1">
         <v>24750</v>
@@ -6255,7 +6274,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="22" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B46" s="1">
         <v>13200</v>
@@ -6263,7 +6282,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="4" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B47" s="1">
         <v>4950</v>
@@ -6271,7 +6290,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B48" s="1">
         <v>8250</v>
@@ -6279,7 +6298,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B49" s="1">
         <v>9900</v>
@@ -6287,7 +6306,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B50" s="1">
         <v>19800</v>
@@ -6295,7 +6314,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="4" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="B51" s="1">
         <v>9900</v>
@@ -6303,7 +6322,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B52" s="1">
         <v>11550</v>
@@ -6311,7 +6330,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B53" s="1">
         <v>52800</v>
@@ -6319,7 +6338,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B54" s="1">
         <v>52800</v>
@@ -6327,7 +6346,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B55" s="1">
         <v>52800</v>
@@ -6335,7 +6354,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B56" s="1">
         <v>52800</v>
@@ -6343,7 +6362,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B57" s="1">
         <v>9900</v>
@@ -6351,7 +6370,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B58" s="1">
         <v>4950</v>
@@ -6359,7 +6378,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B59" s="1">
         <v>6600</v>
@@ -6367,7 +6386,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B60" s="1">
         <v>13200</v>
@@ -6375,7 +6394,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B61" s="1">
         <v>13200</v>
@@ -6383,7 +6402,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B62" s="1">
         <v>49500</v>
@@ -6391,7 +6410,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B63" s="1">
         <v>66000</v>
@@ -6399,7 +6418,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B64" s="1">
         <v>16500</v>
@@ -6431,7 +6450,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B68" s="1">
         <v>52800</v>
@@ -6439,7 +6458,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B69" s="1">
         <v>82500</v>
@@ -6447,7 +6466,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B70" s="1">
         <v>82500</v>
@@ -6455,7 +6474,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B71" s="1">
         <v>75900</v>
@@ -6463,7 +6482,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B72" s="1">
         <v>82500</v>
@@ -6471,7 +6490,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B73" s="1">
         <v>82500</v>
@@ -6479,7 +6498,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="4" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B74" s="1">
         <v>82500</v>
@@ -6487,7 +6506,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B75" s="1">
         <v>49500</v>
@@ -6495,7 +6514,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B76" s="1">
         <v>66000</v>
@@ -6503,7 +6522,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B77" s="1">
         <v>72600</v>
@@ -6511,7 +6530,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B78" s="1">
         <v>72600</v>
@@ -6519,7 +6538,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B79" s="1">
         <v>72600</v>
@@ -6527,7 +6546,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B80" s="1">
         <v>23100</v>
@@ -6535,7 +6554,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="26" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B81" s="1">
         <v>23100</v>
@@ -6543,7 +6562,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B82" s="1">
         <v>23100</v>
@@ -6551,7 +6570,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B83" s="1">
         <v>46200</v>
@@ -6559,7 +6578,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="4" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B84" s="1">
         <v>46200</v>
@@ -6567,7 +6586,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B85" s="1">
         <v>59400</v>
@@ -6575,7 +6594,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B86" s="1">
         <v>8250</v>
@@ -6583,7 +6602,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="4" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B87" s="1">
         <v>16500</v>
@@ -6591,7 +6610,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="4" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B88" s="1">
         <v>8250</v>
@@ -6599,7 +6618,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="4" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B89" s="1">
         <v>3300</v>
@@ -6607,7 +6626,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B90" s="1">
         <v>19800</v>
@@ -6615,7 +6634,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B91" s="1">
         <v>19800</v>
@@ -6623,7 +6642,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B92" s="1">
         <v>39600</v>
@@ -6631,7 +6650,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B93" s="1">
         <v>49500</v>
@@ -6639,7 +6658,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="4" t="s">
-        <v>133</v>
+        <v>649</v>
       </c>
       <c r="B94" s="1">
         <v>3300</v>
@@ -6647,39 +6666,39 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="4" t="s">
-        <v>158</v>
+        <v>494</v>
       </c>
       <c r="B95" s="1">
-        <v>3300</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="4" t="s">
-        <v>499</v>
+        <v>621</v>
       </c>
       <c r="B96" s="1">
-        <v>4950</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="4" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B97" s="1">
-        <v>6600</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="4" t="s">
-        <v>627</v>
+        <v>64</v>
       </c>
       <c r="B98" s="1">
-        <v>9900</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B99" s="1">
         <v>3300</v>
@@ -6687,15 +6706,15 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B100" s="1">
-        <v>3300</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="27" t="s">
-        <v>68</v>
+        <v>623</v>
       </c>
       <c r="B101" s="1">
         <v>4950</v>
@@ -6703,23 +6722,23 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="4" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B102" s="1">
-        <v>4950</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="4" t="s">
-        <v>629</v>
+        <v>175</v>
       </c>
       <c r="B103" s="1">
-        <v>6600</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="28" t="s">
-        <v>180</v>
+        <v>464</v>
       </c>
       <c r="B104" s="1">
         <v>26400</v>
@@ -6727,23 +6746,23 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>469</v>
+        <v>531</v>
       </c>
       <c r="B105" s="1">
-        <v>26400</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="4" t="s">
-        <v>536</v>
+        <v>67</v>
       </c>
       <c r="B106" s="1">
-        <v>3300</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B107" s="1">
         <v>8250</v>
@@ -6751,15 +6770,15 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="4" t="s">
-        <v>70</v>
+        <v>168</v>
       </c>
       <c r="B108" s="1">
-        <v>8250</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="4" t="s">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="B109" s="1">
         <v>6600</v>
@@ -6767,31 +6786,31 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B110" s="1">
-        <v>6600</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="4" t="s">
-        <v>72</v>
+        <v>625</v>
       </c>
       <c r="B111" s="1">
-        <v>3300</v>
+        <v>46200</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="4" t="s">
-        <v>630</v>
+        <v>526</v>
       </c>
       <c r="B112" s="1">
-        <v>46200</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="4" t="s">
-        <v>531</v>
+        <v>499</v>
       </c>
       <c r="B113" s="1">
         <v>19800</v>
@@ -6799,23 +6818,23 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="4" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="B114" s="1">
-        <v>19800</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="4" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B115" s="1">
-        <v>6600</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="4" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B116" s="1">
         <v>4950</v>
@@ -6823,31 +6842,31 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="4" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="B117" s="1">
-        <v>4950</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="4" t="s">
-        <v>493</v>
+        <v>154</v>
       </c>
       <c r="B118" s="1">
-        <v>8250</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="4" t="s">
-        <v>159</v>
+        <v>487</v>
       </c>
       <c r="B119" s="1">
-        <v>3300</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="24" t="s">
-        <v>492</v>
+        <v>155</v>
       </c>
       <c r="B120" s="1">
         <v>4950</v>
@@ -6855,23 +6874,23 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="4" t="s">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="B121" s="1">
-        <v>4950</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="4" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="B122" s="1">
-        <v>3300</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B123" s="1">
         <v>4950</v>
@@ -6887,55 +6906,55 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="4" t="s">
-        <v>110</v>
+        <v>613</v>
       </c>
       <c r="B125" s="1">
-        <v>4950</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="4" t="s">
-        <v>618</v>
+        <v>568</v>
       </c>
       <c r="B126" s="1">
-        <v>3960</v>
+        <v>14850</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="4" t="s">
-        <v>573</v>
+        <v>602</v>
       </c>
       <c r="B127" s="1">
-        <v>14850</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="4" t="s">
-        <v>607</v>
+        <v>156</v>
       </c>
       <c r="B128" s="1">
-        <v>11550</v>
+        <v>82500</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="29" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="B129" s="1">
-        <v>82500</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="4" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="B130" s="1">
-        <v>66000</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="4" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="B131" s="1">
         <v>49500</v>
@@ -6943,63 +6962,63 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="4" t="s">
-        <v>74</v>
+        <v>518</v>
       </c>
       <c r="B132" s="1">
-        <v>49500</v>
+        <v>46200</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="4" t="s">
-        <v>523</v>
+        <v>110</v>
       </c>
       <c r="B133" s="1">
-        <v>46200</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="4" t="s">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="B134" s="1">
-        <v>39600</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="25" t="s">
-        <v>574</v>
+        <v>112</v>
       </c>
       <c r="B135" s="1">
-        <v>3960</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B136" s="1">
-        <v>66000</v>
+        <v>75900</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B137" s="1">
-        <v>75900</v>
+        <v>115500</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="4" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="B138" s="1">
-        <v>115500</v>
+        <v>59400</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="4" t="s">
-        <v>24</v>
+        <v>483</v>
       </c>
       <c r="B139" s="1">
         <v>59400</v>
@@ -7007,23 +7026,23 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="4" t="s">
-        <v>488</v>
+        <v>626</v>
       </c>
       <c r="B140" s="1">
-        <v>59400</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="4" t="s">
-        <v>631</v>
+        <v>157</v>
       </c>
       <c r="B141" s="1">
-        <v>66000</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B142" s="1">
         <v>11550</v>
@@ -7031,159 +7050,159 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="4" t="s">
-        <v>163</v>
+        <v>73</v>
       </c>
       <c r="B143" s="1">
-        <v>11550</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="4" t="s">
-        <v>75</v>
+        <v>570</v>
       </c>
       <c r="B144" s="1">
-        <v>13200</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="4" t="s">
-        <v>575</v>
+        <v>159</v>
       </c>
       <c r="B145" s="1">
-        <v>39600</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="4" t="s">
-        <v>164</v>
+        <v>571</v>
       </c>
       <c r="B146" s="1">
-        <v>23100</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="4" t="s">
-        <v>576</v>
+        <v>160</v>
       </c>
       <c r="B147" s="1">
-        <v>6600</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="4" t="s">
-        <v>165</v>
+        <v>627</v>
       </c>
       <c r="B148" s="1">
-        <v>19800</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="4" t="s">
-        <v>632</v>
+        <v>161</v>
       </c>
       <c r="B149" s="1">
-        <v>11550</v>
+        <v>14850</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="4" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="B150" s="1">
-        <v>14850</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="4" t="s">
-        <v>117</v>
+        <v>572</v>
       </c>
       <c r="B151" s="1">
-        <v>8250</v>
+        <v>24750</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="4" t="s">
-        <v>577</v>
+        <v>162</v>
       </c>
       <c r="B152" s="1">
-        <v>24750</v>
+        <v>14850</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="4" t="s">
-        <v>167</v>
+        <v>528</v>
       </c>
       <c r="B153" s="1">
-        <v>14850</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="4" t="s">
-        <v>533</v>
+        <v>75</v>
       </c>
       <c r="B154" s="1">
-        <v>49500</v>
+        <v>52800</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="B155" s="1">
-        <v>52800</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="4" t="s">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="B156" s="1">
-        <v>49500</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="4" t="s">
-        <v>78</v>
+        <v>604</v>
       </c>
       <c r="B157" s="1">
-        <v>66000</v>
+        <v>46200</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B158" s="1">
-        <v>46200</v>
+        <v>59400</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="4" t="s">
-        <v>611</v>
+        <v>77</v>
       </c>
       <c r="B159" s="1">
-        <v>59400</v>
+        <v>42900</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B160" s="1">
-        <v>42900</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B161" s="1">
-        <v>26400</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B162" s="1">
         <v>33000</v>
@@ -7191,82 +7210,82 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B163" s="1">
-        <v>33000</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B164" s="1">
-        <v>39600</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B165" s="1">
-        <v>33000</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="4" t="s">
-        <v>85</v>
+        <v>519</v>
       </c>
       <c r="B166" s="1">
-        <v>39600</v>
+        <v>59400</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="27" t="s">
-        <v>524</v>
+        <v>171</v>
       </c>
       <c r="B167" s="1">
-        <v>59400</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B168" s="1">
-        <v>1650</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="4" t="s">
-        <v>177</v>
+        <v>86</v>
       </c>
       <c r="B169" s="1">
-        <v>2310</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="4" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="B170" s="1">
-        <v>2640</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="4" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="B171" s="1">
-        <v>1650</v>
+        <v>82500</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B172" s="1">
-        <v>82500</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -7279,15 +7298,15 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B174" s="1">
-        <v>66000</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B175" s="1">
         <v>49500</v>
@@ -7295,10 +7314,10 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B176" s="1">
-        <v>49500</v>
+        <v>59400</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -7311,15 +7330,15 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="4" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="B178" s="1">
-        <v>59400</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B179" s="1">
         <v>11550</v>
@@ -7327,39 +7346,39 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="4" t="s">
-        <v>170</v>
+        <v>87</v>
       </c>
       <c r="B180" s="1">
-        <v>11550</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B181" s="1">
-        <v>9900</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B182" s="1">
-        <v>13200</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>91</v>
+        <v>484</v>
       </c>
       <c r="B183" s="1">
-        <v>9900</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>489</v>
+        <v>90</v>
       </c>
       <c r="B184" s="1">
         <v>13200</v>
@@ -7367,7 +7386,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="4" t="s">
-        <v>92</v>
+        <v>573</v>
       </c>
       <c r="B185" s="1">
         <v>13200</v>
@@ -7375,7 +7394,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="4" t="s">
-        <v>578</v>
+        <v>91</v>
       </c>
       <c r="B186" s="1">
         <v>13200</v>
@@ -7383,7 +7402,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B187" s="1">
         <v>13200</v>
@@ -7391,23 +7410,23 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="4" t="s">
-        <v>94</v>
+        <v>574</v>
       </c>
       <c r="B188" s="1">
-        <v>13200</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="4" t="s">
-        <v>579</v>
+        <v>124</v>
       </c>
       <c r="B189" s="1">
-        <v>11550</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B190" s="1">
         <v>6600</v>
@@ -7415,23 +7434,23 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>127</v>
+        <v>495</v>
       </c>
       <c r="B191" s="1">
-        <v>6600</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>500</v>
+        <v>575</v>
       </c>
       <c r="B192" s="1">
-        <v>23100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>580</v>
+        <v>615</v>
       </c>
       <c r="B193" s="1">
         <v>3300</v>
@@ -7439,79 +7458,79 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>620</v>
+        <v>128</v>
       </c>
       <c r="B194" s="1">
-        <v>3300</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>130</v>
+        <v>439</v>
       </c>
       <c r="B195" s="1">
-        <v>9900</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>444</v>
+        <v>605</v>
       </c>
       <c r="B196" s="1">
-        <v>3300</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="B197" s="1">
-        <v>4950</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="B198" s="1">
-        <v>6600</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>633</v>
+        <v>616</v>
       </c>
       <c r="B199" s="1">
-        <v>9900</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B200" s="1">
-        <v>8250</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B201" s="1">
-        <v>4950</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>623</v>
+        <v>486</v>
       </c>
       <c r="B202" s="1">
-        <v>1650</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>491</v>
+        <v>619</v>
       </c>
       <c r="B203" s="1">
         <v>3300</v>
@@ -7519,31 +7538,31 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>624</v>
+        <v>123</v>
       </c>
       <c r="B204" s="1">
-        <v>3300</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="B205" s="1">
-        <v>19800</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B206" s="1">
-        <v>11550</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B207" s="1">
         <v>13200</v>
@@ -7572,12 +7591,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="32" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B2" s="1">
         <v>3300</v>
@@ -7585,7 +7604,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="32" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="B3" s="1">
         <v>36300</v>
@@ -7593,7 +7612,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="32" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B4" s="1">
         <v>8250</v>
@@ -7601,7 +7620,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="32" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B5" s="1">
         <v>11550</v>
@@ -7609,7 +7628,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="32" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B6" s="1">
         <v>33000</v>
@@ -7617,7 +7636,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="32" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B7" s="1">
         <v>29700</v>
@@ -7625,7 +7644,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="32" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B8" s="1">
         <v>4950</v>
@@ -7633,7 +7652,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="32" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="B9" s="1">
         <v>13200</v>
@@ -7641,7 +7660,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="32" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="B10" s="1">
         <v>11550</v>
@@ -7649,7 +7668,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="32" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B11" s="1">
         <v>16500</v>
@@ -7657,7 +7676,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="32" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B12" s="1">
         <v>8250</v>
@@ -7665,7 +7684,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="32" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B13" s="1">
         <v>3300</v>
@@ -7673,7 +7692,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="32" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B14" s="1">
         <v>3300</v>
@@ -7681,7 +7700,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="32" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B15" s="1">
         <v>3300</v>
@@ -7689,7 +7708,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="32" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="B16" s="1">
         <v>29700</v>
@@ -7697,7 +7716,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="32" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="B17" s="1">
         <v>29700</v>
@@ -7705,7 +7724,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="32" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B18" s="1">
         <v>3300</v>
@@ -7713,7 +7732,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="32" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B19" s="1">
         <v>4950</v>
@@ -7721,7 +7740,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="32" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B20" s="1">
         <v>8250</v>
@@ -7729,7 +7748,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="32" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B21" s="1">
         <v>6600</v>
@@ -7737,7 +7756,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="32" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="B22" s="1">
         <v>3300</v>
@@ -7745,7 +7764,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="32" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="B23" s="1">
         <v>39600</v>
@@ -7753,7 +7772,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="32" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="B24" s="1">
         <v>36300</v>
@@ -7761,7 +7780,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="32" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B25" s="1">
         <v>3960</v>
@@ -7769,7 +7788,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="32" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="B26" s="1">
         <v>9900</v>
@@ -7777,7 +7796,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="32" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="B27" s="1">
         <v>29700</v>
@@ -7785,7 +7804,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="B28">
         <v>16500</v>
@@ -7793,7 +7812,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B29">
         <v>14850</v>
@@ -7801,7 +7820,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="B30">
         <v>23100</v>
@@ -7809,7 +7828,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="B31">
         <v>9900</v>
@@ -7817,7 +7836,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B32">
         <v>3300</v>
@@ -7825,7 +7844,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="B33">
         <v>4950</v>
@@ -7833,7 +7852,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="B34">
         <v>8250</v>
@@ -7841,7 +7860,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="B35">
         <v>4950</v>
@@ -7849,7 +7868,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B36">
         <v>3300</v>
@@ -7857,7 +7876,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="B37">
         <v>3300</v>
@@ -7865,7 +7884,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="B38">
         <v>3300</v>
@@ -7873,7 +7892,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B39">
         <v>9900</v>
@@ -7888,7 +7907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B53"/>
     </sheetView>
   </sheetViews>
@@ -7903,12 +7922,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B2" s="1">
         <v>3300</v>
@@ -7916,7 +7935,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B3" s="1">
         <v>14850</v>
@@ -7924,7 +7943,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B4" s="1">
         <v>3300</v>
@@ -7932,7 +7951,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B5" s="1">
         <v>14850</v>
@@ -7940,7 +7959,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B6" s="1">
         <v>16500</v>
@@ -7948,7 +7967,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B7" s="1">
         <v>23100</v>
@@ -7956,7 +7975,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B8" s="1">
         <v>14850</v>
@@ -7964,7 +7983,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B9" s="1">
         <v>4950</v>
@@ -7972,7 +7991,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B10" s="1">
         <v>3960</v>
@@ -7980,7 +7999,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B11" s="1">
         <v>3960</v>
@@ -7988,7 +8007,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B12" s="1">
         <v>3300</v>
@@ -7996,7 +8015,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B13" s="1">
         <v>26400</v>
@@ -8004,7 +8023,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B14" s="1">
         <v>33000</v>
@@ -8012,7 +8031,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="B15" s="1">
         <v>36300</v>
@@ -8020,7 +8039,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B16" s="1">
         <v>330</v>
@@ -8028,7 +8047,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B17" s="1">
         <v>330</v>
@@ -8036,7 +8055,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B18" s="1">
         <v>330</v>
@@ -8044,7 +8063,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B19" s="1">
         <v>3300</v>
@@ -8052,7 +8071,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B20" s="1">
         <v>4950</v>
@@ -8060,7 +8079,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B21" s="1">
         <v>3300</v>
@@ -8068,7 +8087,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B22" s="1">
         <v>3300</v>
@@ -8076,7 +8095,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B23" s="1">
         <v>3300</v>
@@ -8084,7 +8103,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B24" s="1">
         <v>9900</v>
@@ -8092,7 +8111,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B25" s="1">
         <v>1650</v>
@@ -8100,7 +8119,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B26" s="1">
         <v>23100</v>
@@ -8108,7 +8127,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B27" s="1">
         <v>26400</v>
@@ -8116,7 +8135,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B28" s="1">
         <v>26400</v>
@@ -8124,7 +8143,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="B29" s="1">
         <v>29700</v>
@@ -8132,7 +8151,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="B30" s="1">
         <v>29700</v>
@@ -8140,7 +8159,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B31" s="1">
         <v>3300</v>
@@ -8148,7 +8167,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B32" s="1">
         <v>3960</v>
@@ -8156,7 +8175,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B33" s="1">
         <v>3300</v>
@@ -8164,7 +8183,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B34" s="1">
         <v>4950</v>
@@ -8172,7 +8191,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B35" s="1">
         <v>3960</v>
@@ -8180,7 +8199,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B36" s="1">
         <v>3960</v>
@@ -8188,7 +8207,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B37" s="1">
         <v>3300</v>
@@ -8196,7 +8215,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B38" s="1">
         <v>3960</v>
@@ -8204,7 +8223,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="B39" s="1">
         <v>5940</v>
@@ -8212,7 +8231,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B40" s="1">
         <v>6600</v>
@@ -8220,7 +8239,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B41" s="1">
         <v>3960</v>
@@ -8228,7 +8247,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B42" s="1">
         <v>2310</v>
@@ -8236,7 +8255,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B43" s="1">
         <v>3960</v>
@@ -8244,7 +8263,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B44" s="1">
         <v>4950</v>
@@ -8252,7 +8271,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B45" s="1">
         <v>3960</v>
@@ -8260,7 +8279,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B46" s="1">
         <v>3300</v>
@@ -8268,7 +8287,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="B47" s="1">
         <v>3300</v>
@@ -8276,7 +8295,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B48" s="1">
         <v>3300</v>
@@ -8284,7 +8303,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="B49" s="1">
         <v>4950</v>
@@ -8292,7 +8311,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="B50" s="1">
         <v>8250</v>
@@ -8300,7 +8319,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="B51" s="1">
         <v>4950</v>
@@ -8308,7 +8327,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B52" s="1">
         <v>1650</v>
@@ -8316,7 +8335,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="B53" s="1">
         <v>3300</v>

--- a/clientes/files/TODITICO_CATÁLOGO.xlsx
+++ b/clientes/files/TODITICO_CATÁLOGO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabajo\Catálogos Proformas\Este\330 Actual - Cosas Nuevas\Clientes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B950B1-E164-4274-AFB0-70EEA4940C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E39BC5A-E948-4D72-B08B-4A59B90862CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="671" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DAEWOO TICO" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="653">
   <si>
     <t>DESCRIPCION</t>
   </si>
@@ -1867,9 +1867,6 @@
     <t>ARTICULACION DE LIMPIAPARABRISAS DE BOLA CHICA</t>
   </si>
   <si>
-    <t>ANTENA CON LUZ</t>
-  </si>
-  <si>
     <t xml:space="preserve">CARGADOR PARA MOVILES </t>
   </si>
   <si>
@@ -1894,9 +1891,6 @@
     <t>TOPE DE PUERTA KIA C/U</t>
   </si>
   <si>
-    <t>VALVULAS DE LLANTAS JGO</t>
-  </si>
-  <si>
     <t>CINTA DEL TIMON PICANTO 2DA</t>
   </si>
   <si>
@@ -1991,6 +1985,15 @@
   </si>
   <si>
     <t>CILINDRO DE PUERTAS Y MALETERO JGO</t>
+  </si>
+  <si>
+    <t>TAPAS CÓNICAS DE VALVULAS DE LLANTAS JGO</t>
+  </si>
+  <si>
+    <t>ANTENA O ALETA DE TIBURÓN CON LUZ</t>
+  </si>
+  <si>
+    <t>CLIPS DE ACABADOS PLÁSTICOS DE PUERTA TIPO TRIÁNGULO C/U</t>
   </si>
 </sst>
 </file>
@@ -2103,7 +2106,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2194,6 +2197,11 @@
     <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2470,10 +2478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B312"/>
+  <dimension ref="A1:B313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B312"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
@@ -2627,8 +2635,8 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>610</v>
+      <c r="A19" s="34" t="s">
+        <v>651</v>
       </c>
       <c r="B19" s="1">
         <v>3300</v>
@@ -2748,7 +2756,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B34" s="1">
         <v>4950</v>
@@ -3196,7 +3204,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B90" s="1">
         <v>4950</v>
@@ -3252,7 +3260,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B97" s="1">
         <v>14850</v>
@@ -3268,7 +3276,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B99" s="1">
         <v>8250</v>
@@ -3300,7 +3308,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B103" s="1">
         <v>9900</v>
@@ -3308,135 +3316,135 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>252</v>
+        <v>652</v>
       </c>
       <c r="B104" s="1">
-        <v>39600</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B105" s="1">
-        <v>9900</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B106" s="1">
-        <v>19800</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>448</v>
+        <v>254</v>
       </c>
       <c r="B107" s="1">
-        <v>3300</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>255</v>
+        <v>448</v>
       </c>
       <c r="B108" s="1">
-        <v>6600</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B109" s="1">
-        <v>4950</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B110" s="1">
-        <v>6600</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B111" s="1">
-        <v>19800</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B112" s="1">
-        <v>49500</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B113" s="1">
-        <v>13200</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>471</v>
+        <v>260</v>
       </c>
       <c r="B114" s="1">
-        <v>33000</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>261</v>
+        <v>471</v>
       </c>
       <c r="B115" s="1">
-        <v>8250</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B116" s="1">
-        <v>148500</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B117" s="1">
-        <v>59400</v>
+        <v>148500</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>500</v>
+        <v>263</v>
       </c>
       <c r="B118" s="1">
-        <v>3300</v>
+        <v>59400</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B119" s="1">
-        <v>9900</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B120" s="1">
         <v>9900</v>
@@ -3444,135 +3452,135 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>264</v>
+        <v>502</v>
       </c>
       <c r="B121" s="1">
-        <v>19800</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B122" s="1">
-        <v>39600</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B123" s="1">
-        <v>8250</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B124" s="1">
-        <v>26400</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>459</v>
+        <v>268</v>
       </c>
       <c r="B125" s="1">
-        <v>82500</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="4" t="s">
-        <v>15</v>
+        <v>459</v>
       </c>
       <c r="B126" s="1">
-        <v>39600</v>
+        <v>82500</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>269</v>
+        <v>15</v>
       </c>
       <c r="B127" s="1">
-        <v>6600</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B128" s="1">
-        <v>4950</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>612</v>
+        <v>267</v>
       </c>
       <c r="B129" s="1">
-        <v>3300</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>270</v>
+        <v>611</v>
       </c>
       <c r="B130" s="1">
-        <v>16500</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B131" s="1">
-        <v>19800</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B132" s="1">
-        <v>33000</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>418</v>
+        <v>272</v>
       </c>
       <c r="B133" s="1">
-        <v>4950</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>273</v>
+        <v>418</v>
       </c>
       <c r="B134" s="1">
-        <v>16500</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B135" s="1">
-        <v>23100</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B136" s="1">
-        <v>3300</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B137" s="1">
         <v>3300</v>
@@ -3580,7 +3588,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B138" s="1">
         <v>3300</v>
@@ -3588,175 +3596,175 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B139" s="1">
-        <v>9900</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B140" s="1">
-        <v>29700</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B141" s="1">
-        <v>16500</v>
+        <v>29700</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B142" s="1">
-        <v>3300</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B143" s="1">
-        <v>9900</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>507</v>
+        <v>279</v>
       </c>
       <c r="B144" s="1">
-        <v>6600</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>280</v>
+        <v>507</v>
       </c>
       <c r="B145" s="1">
-        <v>39600</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B146" s="1">
-        <v>4950</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B147" s="1">
-        <v>23100</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B148" s="1">
-        <v>6600</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>531</v>
+        <v>286</v>
       </c>
       <c r="B149" s="1">
-        <v>3300</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>287</v>
+        <v>531</v>
       </c>
       <c r="B150" s="1">
-        <v>1650</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B151" s="1">
-        <v>33000</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B152" s="1">
-        <v>19800</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B153" s="1">
-        <v>9900</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B154" s="1">
-        <v>33000</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B155" s="1">
-        <v>9900</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B156" s="1">
-        <v>3300</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B157" s="1">
-        <v>4950</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B158" s="1">
-        <v>9900</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B159" s="1">
-        <v>3300</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>461</v>
+        <v>296</v>
       </c>
       <c r="B160" s="1">
         <v>3300</v>
@@ -3764,7 +3772,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B161" s="1">
         <v>3300</v>
@@ -3772,159 +3780,159 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>297</v>
+        <v>462</v>
       </c>
       <c r="B162" s="1">
-        <v>6600</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B163" s="1">
-        <v>660</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B164" s="1">
-        <v>6600</v>
+        <v>660</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B165" s="1">
-        <v>16500</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B166" s="1">
-        <v>13200</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>508</v>
+        <v>301</v>
       </c>
       <c r="B167" s="1">
-        <v>49500</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>302</v>
+        <v>508</v>
       </c>
       <c r="B168" s="1">
-        <v>29700</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B169" s="1">
-        <v>3960</v>
+        <v>29700</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B170" s="1">
-        <v>4950</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>511</v>
+        <v>304</v>
       </c>
       <c r="B171" s="1">
-        <v>132000</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>305</v>
+        <v>511</v>
       </c>
       <c r="B172" s="1">
-        <v>181500</v>
+        <v>132000</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B173" s="1">
-        <v>1980</v>
+        <v>181500</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B174" s="1">
-        <v>3300</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>449</v>
+        <v>307</v>
       </c>
       <c r="B175" s="1">
-        <v>6600</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>308</v>
+        <v>449</v>
       </c>
       <c r="B176" s="1">
-        <v>4950</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>450</v>
+        <v>308</v>
       </c>
       <c r="B177" s="1">
-        <v>1650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>309</v>
+        <v>450</v>
       </c>
       <c r="B178" s="1">
-        <v>4950</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B179" s="1">
-        <v>23100</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B180" s="1">
-        <v>3300</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B181" s="1">
         <v>3300</v>
@@ -3932,23 +3940,23 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B182" s="1">
-        <v>6600</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B183" s="1">
-        <v>3300</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B184" s="1">
         <v>3300</v>
@@ -3956,7 +3964,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B185" s="1">
         <v>3300</v>
@@ -3964,31 +3972,31 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>613</v>
+        <v>316</v>
       </c>
       <c r="B186" s="1">
-        <v>3960</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>317</v>
+        <v>612</v>
       </c>
       <c r="B187" s="1">
-        <v>16500</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>514</v>
+        <v>317</v>
       </c>
       <c r="B188" s="1">
-        <v>1650</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="B189" s="1">
         <v>1650</v>
@@ -3996,231 +4004,231 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>318</v>
+        <v>509</v>
       </c>
       <c r="B190" s="1">
-        <v>9900</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B191" s="1">
-        <v>2310</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B192" s="1">
-        <v>92400</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B193" s="1">
-        <v>49500</v>
+        <v>92400</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>634</v>
+        <v>321</v>
       </c>
       <c r="B194" s="1">
-        <v>21450</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>451</v>
+        <v>632</v>
       </c>
       <c r="B195" s="1">
-        <v>26400</v>
+        <v>21450</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>322</v>
+        <v>451</v>
       </c>
       <c r="B196" s="1">
-        <v>9900</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B197" s="1">
-        <v>49500</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B198" s="1">
-        <v>3300</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>635</v>
+        <v>324</v>
       </c>
       <c r="B199" s="1">
-        <v>19800</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>325</v>
+        <v>633</v>
       </c>
       <c r="B200" s="1">
-        <v>3300</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B201" s="1">
-        <v>6600</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B202" s="1">
-        <v>33000</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B203" s="1">
-        <v>39600</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B204" s="1">
-        <v>99000</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B205" s="1">
-        <v>52800</v>
+        <v>99000</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B206" s="1">
-        <v>36300</v>
+        <v>52800</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B207" s="1">
-        <v>52800</v>
+        <v>36300</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B208" s="1">
-        <v>9900</v>
+        <v>52800</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B209" s="1">
-        <v>56100</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B210" s="1">
-        <v>26400</v>
+        <v>56100</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B211" s="1">
-        <v>72600</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B212" s="1">
-        <v>29700</v>
+        <v>72600</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B213" s="1">
-        <v>8250</v>
+        <v>29700</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B214" s="1">
-        <v>23100</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B215" s="1">
-        <v>8250</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B216" s="1">
-        <v>3300</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>512</v>
+        <v>341</v>
       </c>
       <c r="B217" s="1">
-        <v>6600</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B218" s="1">
         <v>6600</v>
@@ -4228,15 +4236,15 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>342</v>
+        <v>513</v>
       </c>
       <c r="B219" s="1">
-        <v>9900</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B220" s="1">
         <v>9900</v>
@@ -4244,39 +4252,39 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B221" s="1">
-        <v>19800</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>453</v>
+        <v>344</v>
       </c>
       <c r="B222" s="1">
-        <v>13200</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>345</v>
+        <v>453</v>
       </c>
       <c r="B223" s="1">
-        <v>9900</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B224" s="1">
-        <v>6600</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B225" s="1">
         <v>6600</v>
@@ -4284,31 +4292,31 @@
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B226" s="1">
-        <v>49500</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B227" s="1">
-        <v>115500</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B228" s="1">
-        <v>6600</v>
+        <v>115500</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B229" s="1">
         <v>6600</v>
@@ -4316,151 +4324,151 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B230" s="1">
-        <v>4950</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B231" s="1">
-        <v>9900</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B232" s="1">
-        <v>4950</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B233" s="1">
-        <v>23100</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B234" s="1">
-        <v>13200</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B235" s="1">
-        <v>33000</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B236" s="1">
-        <v>23100</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B237" s="1">
-        <v>4950</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B238" s="1">
-        <v>42900</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B239" s="1">
-        <v>66000</v>
+        <v>42900</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B240" s="1">
-        <v>9900</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B241" s="1">
-        <v>4950</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>636</v>
+        <v>363</v>
       </c>
       <c r="B242" s="1">
-        <v>33000</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>364</v>
+        <v>634</v>
       </c>
       <c r="B243" s="1">
-        <v>21450</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B244" s="1">
-        <v>31350</v>
+        <v>21450</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B245" s="1">
-        <v>3300</v>
+        <v>31350</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B246" s="1">
-        <v>6600</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B247" s="1">
-        <v>3300</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B248" s="1">
         <v>3300</v>
@@ -4468,7 +4476,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B249" s="1">
         <v>3300</v>
@@ -4476,7 +4484,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B250" s="1">
         <v>3300</v>
@@ -4484,15 +4492,15 @@
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B251" s="1">
-        <v>4950</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B252" s="1">
         <v>4950</v>
@@ -4500,7 +4508,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B253" s="1">
         <v>4950</v>
@@ -4508,7 +4516,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>454</v>
+        <v>374</v>
       </c>
       <c r="B254" s="1">
         <v>4950</v>
@@ -4516,167 +4524,167 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B255" s="1">
-        <v>1980</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>375</v>
+        <v>455</v>
       </c>
       <c r="B256" s="1">
-        <v>3300</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B257" s="1">
-        <v>49500</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B258" s="1">
-        <v>59400</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B259" s="1">
-        <v>29700</v>
+        <v>59400</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B260" s="1">
-        <v>9900</v>
+        <v>29700</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B261" s="1">
-        <v>8250</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B262" s="1">
-        <v>1320</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B263" s="1">
-        <v>24750</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B264" s="1">
-        <v>8250</v>
+        <v>24750</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B265" s="1">
-        <v>23100</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>637</v>
+        <v>384</v>
       </c>
       <c r="B266" s="1">
-        <v>3960</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>385</v>
+        <v>635</v>
       </c>
       <c r="B267" s="1">
-        <v>4950</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B268" s="1">
-        <v>82500</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>445</v>
+        <v>386</v>
       </c>
       <c r="B269" s="1">
-        <v>181500</v>
+        <v>82500</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>387</v>
+        <v>445</v>
       </c>
       <c r="B270" s="1">
-        <v>8250</v>
+        <v>181500</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B271" s="1">
-        <v>3300</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>638</v>
+        <v>388</v>
       </c>
       <c r="B272" s="1">
-        <v>6600</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>389</v>
+        <v>636</v>
       </c>
       <c r="B273" s="1">
-        <v>3300</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B274" s="1">
-        <v>4950</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
-        <v>639</v>
+        <v>390</v>
       </c>
       <c r="B275" s="1">
         <v>4950</v>
@@ -4684,39 +4692,39 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>391</v>
+        <v>637</v>
       </c>
       <c r="B276" s="1">
-        <v>2310</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" t="s">
-        <v>392</v>
+        <v>650</v>
       </c>
       <c r="B277" s="1">
-        <v>16500</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B278" s="1">
-        <v>1650</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B279" s="1">
-        <v>1650</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B280" s="1">
         <v>1650</v>
@@ -4724,55 +4732,55 @@
     </row>
     <row r="281" spans="1:2">
       <c r="A281" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B281" s="1">
-        <v>2310</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B282" s="1">
-        <v>6600</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>439</v>
+        <v>396</v>
       </c>
       <c r="B283" s="1">
-        <v>3300</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>605</v>
+        <v>397</v>
       </c>
       <c r="B284" s="1">
-        <v>4950</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" t="s">
-        <v>398</v>
+        <v>439</v>
       </c>
       <c r="B285" s="1">
-        <v>4950</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="B286" s="1">
-        <v>8250</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
-        <v>617</v>
+        <v>398</v>
       </c>
       <c r="B287" s="1">
         <v>4950</v>
@@ -4780,63 +4788,63 @@
     </row>
     <row r="288" spans="1:2">
       <c r="A288" t="s">
-        <v>399</v>
+        <v>615</v>
       </c>
       <c r="B288" s="1">
-        <v>1650</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" t="s">
-        <v>400</v>
+        <v>616</v>
       </c>
       <c r="B289" s="1">
-        <v>2310</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B290" s="1">
-        <v>3300</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B291" s="1">
-        <v>660</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B292" s="1">
-        <v>1650</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B293" s="1">
-        <v>990</v>
+        <v>660</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B294" s="1">
-        <v>1320</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" t="s">
-        <v>452</v>
+        <v>404</v>
       </c>
       <c r="B295" s="1">
         <v>990</v>
@@ -4844,103 +4852,103 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" t="s">
-        <v>510</v>
+        <v>405</v>
       </c>
       <c r="B296" s="1">
-        <v>2310</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" t="s">
-        <v>406</v>
+        <v>452</v>
       </c>
       <c r="B297" s="1">
-        <v>660</v>
+        <v>990</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" t="s">
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="B298" s="1">
-        <v>59400</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" t="s">
-        <v>515</v>
+        <v>406</v>
       </c>
       <c r="B299" s="1">
-        <v>3300</v>
+        <v>660</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" t="s">
-        <v>407</v>
+        <v>532</v>
       </c>
       <c r="B300" s="1">
-        <v>6600</v>
+        <v>59400</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" t="s">
-        <v>408</v>
+        <v>515</v>
       </c>
       <c r="B301" s="1">
-        <v>8250</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B302" s="1">
-        <v>14850</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" t="s">
+        <v>408</v>
+      </c>
+      <c r="B303" s="1">
+        <v>8250</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="34" t="s">
+        <v>409</v>
+      </c>
+      <c r="B304" s="1">
+        <v>14850</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="34" t="s">
         <v>410</v>
       </c>
-      <c r="B303" s="1">
+      <c r="B305" s="1">
         <v>4950</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2">
-      <c r="A304" t="s">
-        <v>619</v>
-      </c>
-      <c r="B304" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2">
-      <c r="A305" t="s">
-        <v>411</v>
-      </c>
-      <c r="B305" s="1">
-        <v>19800</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B306" s="1">
-        <v>33000</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" t="s">
-        <v>516</v>
+        <v>412</v>
       </c>
       <c r="B307" s="1">
-        <v>4950</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B308" s="1">
         <v>4950</v>
@@ -4948,33 +4956,41 @@
     </row>
     <row r="309" spans="1:2">
       <c r="A309" t="s">
-        <v>413</v>
+        <v>517</v>
       </c>
       <c r="B309" s="1">
-        <v>11550</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B310" s="1">
-        <v>3300</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" t="s">
-        <v>498</v>
+        <v>414</v>
       </c>
       <c r="B311" s="1">
-        <v>1650</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" t="s">
+        <v>498</v>
+      </c>
+      <c r="B312" s="1">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" t="s">
         <v>415</v>
       </c>
-      <c r="B312" s="1">
+      <c r="B313" s="1">
         <v>4950</v>
       </c>
     </row>
@@ -5023,7 +5039,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B4" s="1">
         <v>59400</v>
@@ -5039,15 +5055,15 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B6" s="1">
         <v>39600</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="5" t="s">
-        <v>610</v>
+      <c r="A7" s="36" t="s">
+        <v>651</v>
       </c>
       <c r="B7" s="1">
         <v>3300</v>
@@ -5295,7 +5311,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="12" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B38" s="1">
         <v>4950</v>
@@ -5423,7 +5439,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B54" s="1">
         <v>3300</v>
@@ -5447,7 +5463,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="15" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B57" s="1">
         <v>3300</v>
@@ -5471,7 +5487,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B60" s="1">
         <v>4950</v>
@@ -5575,7 +5591,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B73" s="1">
         <v>3960</v>
@@ -5815,7 +5831,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="5" t="s">
-        <v>614</v>
+        <v>650</v>
       </c>
       <c r="B103" s="1">
         <v>3300</v>
@@ -5823,31 +5839,31 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="5" t="s">
-        <v>560</v>
+        <v>613</v>
       </c>
       <c r="B104" s="1">
-        <v>9900</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>439</v>
+        <v>560</v>
       </c>
       <c r="B105" s="1">
-        <v>3300</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>605</v>
+        <v>439</v>
       </c>
       <c r="B106" s="1">
-        <v>4950</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>482</v>
+        <v>605</v>
       </c>
       <c r="B107" s="1">
         <v>4950</v>
@@ -5855,31 +5871,31 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>616</v>
+        <v>482</v>
       </c>
       <c r="B108" s="1">
-        <v>8250</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B109" s="1">
-        <v>4950</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
+        <v>616</v>
+      </c>
+      <c r="B110" s="1">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="34" t="s">
         <v>475</v>
-      </c>
-      <c r="B110" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
-        <v>619</v>
       </c>
       <c r="B111" s="1">
         <v>3300</v>
@@ -5900,10 +5916,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B207"/>
+  <dimension ref="A1:B206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A2" sqref="A2:B206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
@@ -5962,7 +5978,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="22" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B7" s="1">
         <v>59400</v>
@@ -5985,8 +6001,8 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="4" t="s">
-        <v>610</v>
+      <c r="A10" s="34" t="s">
+        <v>651</v>
       </c>
       <c r="B10" s="1">
         <v>3300</v>
@@ -6258,7 +6274,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="4" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B44" s="1">
         <v>33000</v>
@@ -6266,7 +6282,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="4" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B45" s="1">
         <v>24750</v>
@@ -6282,7 +6298,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B47" s="1">
         <v>4950</v>
@@ -6314,7 +6330,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="4" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B51" s="1">
         <v>9900</v>
@@ -6618,7 +6634,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B89" s="1">
         <v>3300</v>
@@ -6658,7 +6674,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="4" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B94" s="1">
         <v>3300</v>
@@ -6674,7 +6690,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="4" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B96" s="1">
         <v>6600</v>
@@ -6682,7 +6698,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="4" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B97" s="1">
         <v>9900</v>
@@ -6714,7 +6730,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="27" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B101" s="1">
         <v>4950</v>
@@ -6722,7 +6738,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="4" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B102" s="1">
         <v>6600</v>
@@ -6794,7 +6810,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="4" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B111" s="1">
         <v>46200</v>
@@ -6906,7 +6922,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B125" s="1">
         <v>3960</v>
@@ -7026,7 +7042,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="4" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B140" s="1">
         <v>66000</v>
@@ -7090,7 +7106,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="4" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B148" s="1">
         <v>11550</v>
@@ -7450,7 +7466,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>615</v>
+        <v>650</v>
       </c>
       <c r="B193" s="1">
         <v>3300</v>
@@ -7458,34 +7474,34 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>128</v>
+        <v>614</v>
       </c>
       <c r="B194" s="1">
-        <v>9900</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>439</v>
+        <v>128</v>
       </c>
       <c r="B195" s="1">
-        <v>3300</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>605</v>
+        <v>439</v>
       </c>
       <c r="B196" s="1">
-        <v>4950</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>630</v>
+        <v>605</v>
       </c>
       <c r="B197" s="1">
-        <v>6600</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -7493,44 +7509,44 @@
         <v>628</v>
       </c>
       <c r="B198" s="1">
-        <v>9900</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="B199" s="1">
-        <v>8250</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B200" s="1">
-        <v>4950</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B201" s="1">
-        <v>1650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
+        <v>617</v>
+      </c>
+      <c r="B202" s="1">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="34" t="s">
         <v>486</v>
-      </c>
-      <c r="B202" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" t="s">
-        <v>619</v>
       </c>
       <c r="B203" s="1">
         <v>3300</v>
@@ -7557,14 +7573,6 @@
         <v>167</v>
       </c>
       <c r="B206" s="1">
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" t="s">
-        <v>167</v>
-      </c>
-      <c r="B207" s="1">
         <v>13200</v>
       </c>
     </row>
@@ -7595,8 +7603,8 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="32" t="s">
-        <v>610</v>
+      <c r="A2" s="35" t="s">
+        <v>651</v>
       </c>
       <c r="B2" s="1">
         <v>3300</v>
@@ -7604,7 +7612,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="32" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B3" s="1">
         <v>36300</v>
@@ -7644,7 +7652,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="32" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B8" s="1">
         <v>4950</v>
@@ -7684,7 +7692,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="32" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B13" s="1">
         <v>3300</v>
@@ -7708,7 +7716,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="32" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B16" s="1">
         <v>29700</v>
@@ -7716,7 +7724,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="32" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B17" s="1">
         <v>29700</v>
@@ -7780,7 +7788,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="32" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B25" s="1">
         <v>3960</v>
@@ -7820,71 +7828,71 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>607</v>
+        <v>650</v>
       </c>
       <c r="B30">
-        <v>23100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B31">
-        <v>9900</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>439</v>
+        <v>608</v>
       </c>
       <c r="B32">
-        <v>3300</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>605</v>
+        <v>439</v>
       </c>
       <c r="B33">
-        <v>4950</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="B34">
-        <v>8250</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B35">
-        <v>4950</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>596</v>
+        <v>616</v>
       </c>
       <c r="B36">
-        <v>3300</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
+        <v>596</v>
+      </c>
+      <c r="B37">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="34" t="s">
         <v>597</v>
-      </c>
-      <c r="B37">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>619</v>
       </c>
       <c r="B38">
         <v>3300</v>
@@ -7907,8 +7915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
@@ -8006,8 +8014,8 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>610</v>
+      <c r="A12" s="34" t="s">
+        <v>651</v>
       </c>
       <c r="B12" s="1">
         <v>3300</v>
@@ -8031,7 +8039,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B15" s="1">
         <v>36300</v>
@@ -8071,7 +8079,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B20" s="1">
         <v>4950</v>
@@ -8087,7 +8095,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B22" s="1">
         <v>3300</v>
@@ -8143,7 +8151,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B29" s="1">
         <v>29700</v>
@@ -8151,7 +8159,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B30" s="1">
         <v>29700</v>
@@ -8215,7 +8223,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B38" s="1">
         <v>3960</v>
@@ -8263,7 +8271,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B44" s="1">
         <v>4950</v>
@@ -8279,7 +8287,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>614</v>
+        <v>650</v>
       </c>
       <c r="B46" s="1">
         <v>3300</v>
@@ -8287,7 +8295,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B47" s="1">
         <v>3300</v>
@@ -8295,7 +8303,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>439</v>
+        <v>614</v>
       </c>
       <c r="B48" s="1">
         <v>3300</v>
@@ -8303,42 +8311,42 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>605</v>
+        <v>439</v>
       </c>
       <c r="B49" s="1">
-        <v>4950</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="B50" s="1">
-        <v>8250</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B51" s="1">
-        <v>4950</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B52" s="1">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="34" t="s">
+        <v>617</v>
+      </c>
+      <c r="B53" s="1">
         <v>1650</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>619</v>
-      </c>
-      <c r="B53" s="1">
-        <v>3300</v>
       </c>
     </row>
   </sheetData>

--- a/clientes/files/TODITICO_CATÁLOGO.xlsx
+++ b/clientes/files/TODITICO_CATÁLOGO.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabajo\Catálogos Proformas\Este\330 Actual - Cosas Nuevas\Clientes\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E39BC5A-E948-4D72-B08B-4A59B90862CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="671" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" tabRatio="671"/>
   </bookViews>
   <sheets>
     <sheet name="DAEWOO TICO" sheetId="1" r:id="rId1"/>
@@ -29,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="654" count="654">
   <si>
     <t>DESCRIPCION</t>
   </si>
@@ -1994,80 +1988,77 @@
   </si>
   <si>
     <t>CLIPS DE ACABADOS PLÁSTICOS DE PUERTA TIPO TRIÁNGULO C/U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANGUERA RADIADOR SUPERIOR PICANTO 1RA (04-07)       </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="2" formatCode="0.00"/>
+    <numFmt numFmtId="49" formatCode="@"/>
+  </numFmts>
   <fonts count="12">
     <font>
+      <name val="Calibri"/>
       <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <sz val="11"/>
       <color rgb="FF161616"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <sz val="11"/>
       <color rgb="FF131113"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <sz val="11"/>
       <color rgb="FF030303"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <sz val="11"/>
       <color rgb="FF232123"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <sz val="11"/>
       <color rgb="FF0C0A0A"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2103,7 +2094,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0">
-      <protection locked="0"/>
+      <alignment vertical="bottom"/>
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="37">
@@ -2113,17 +2105,29 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2153,7 +2157,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2161,13 +2165,17 @@
     <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2182,7 +2190,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2193,30 +2201,22 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16" count="0"/>
 </styleSheet>
 </file>
 
@@ -2477,20 +2477,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B313"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+    <sheetView workbookViewId="0" topLeftCell="A86">
       <selection activeCell="A2" sqref="A2:B313"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" defaultColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="84" customWidth="1"/>
-    <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="1" width="84.0" style="0"/>
+    <col min="2" max="2" customWidth="1" bestFit="1" width="11.0" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="8:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2498,823 +2498,823 @@
         <v>529</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="8:8">
       <c r="A2" t="s">
         <v>178</v>
       </c>
       <c r="B2" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="3" spans="8:8">
       <c r="A3" t="s">
         <v>460</v>
       </c>
       <c r="B3" s="1">
-        <v>3960</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>3960.0</v>
+      </c>
+    </row>
+    <row r="4" spans="8:8">
       <c r="A4" t="s">
         <v>179</v>
       </c>
       <c r="B4" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="5" spans="8:8">
       <c r="A5" t="s">
         <v>503</v>
       </c>
       <c r="B5" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>6600.0</v>
+      </c>
+    </row>
+    <row r="6" spans="8:8">
       <c r="A6" t="s">
         <v>504</v>
       </c>
       <c r="B6" s="1">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>2310.0</v>
+      </c>
+    </row>
+    <row r="7" spans="8:8">
       <c r="A7" t="s">
         <v>180</v>
       </c>
       <c r="B7" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="8" spans="8:8">
       <c r="A8" t="s">
         <v>181</v>
       </c>
       <c r="B8" s="1">
-        <v>26400</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>26400.0</v>
+      </c>
+    </row>
+    <row r="9" spans="8:8">
       <c r="A9" t="s">
         <v>505</v>
       </c>
       <c r="B9" s="1">
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>33000.0</v>
+      </c>
+    </row>
+    <row r="10" spans="8:8">
       <c r="A10" t="s">
         <v>182</v>
       </c>
       <c r="B10" s="1">
-        <v>39600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>39600.0</v>
+      </c>
+    </row>
+    <row r="11" spans="8:8">
       <c r="A11" t="s">
         <v>183</v>
       </c>
       <c r="B11" s="1">
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>33000.0</v>
+      </c>
+    </row>
+    <row r="12" spans="8:8">
       <c r="A12" t="s">
         <v>184</v>
       </c>
       <c r="B12" s="1">
-        <v>52800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>52800.0</v>
+      </c>
+    </row>
+    <row r="13" spans="8:8">
       <c r="A13" t="s">
         <v>187</v>
       </c>
       <c r="B13" s="1">
-        <v>11550</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>11550.0</v>
+      </c>
+    </row>
+    <row r="14" spans="8:8">
       <c r="A14" t="s">
         <v>185</v>
       </c>
       <c r="B14" s="1">
-        <v>49500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>49500.0</v>
+      </c>
+    </row>
+    <row r="15" spans="8:8">
       <c r="A15" t="s">
         <v>186</v>
       </c>
       <c r="B15" s="1">
-        <v>36300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>36300.0</v>
+      </c>
+    </row>
+    <row r="16" spans="8:8">
       <c r="A16" t="s">
         <v>188</v>
       </c>
       <c r="B16" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8">
       <c r="A17" t="s">
         <v>189</v>
       </c>
       <c r="B17" s="1">
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>13200.0</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8">
       <c r="A18" t="s">
         <v>190</v>
       </c>
       <c r="B18" s="1">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="34" t="s">
+        <v>9900.0</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8">
+      <c r="A19" s="4" t="s">
         <v>651</v>
       </c>
       <c r="B19" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8">
       <c r="A20" t="s">
         <v>506</v>
       </c>
       <c r="B20" s="1">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>1650.0</v>
+      </c>
+    </row>
+    <row r="21" spans="8:8">
       <c r="A21" t="s">
         <v>191</v>
       </c>
       <c r="B21" s="1">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>990.0</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8">
       <c r="A22" t="s">
         <v>192</v>
       </c>
       <c r="B22" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="23" spans="8:8">
       <c r="A23" t="s">
         <v>193</v>
       </c>
       <c r="B23" s="1">
-        <v>39600</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>39600.0</v>
+      </c>
+    </row>
+    <row r="24" spans="8:8">
       <c r="A24" t="s">
         <v>609</v>
       </c>
       <c r="B24" s="1">
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>16500.0</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8">
       <c r="A25" t="s">
         <v>194</v>
       </c>
       <c r="B25" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="26" spans="8:8">
       <c r="A26" t="s">
         <v>195</v>
       </c>
       <c r="B26" s="1">
-        <v>29700</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>29700.0</v>
+      </c>
+    </row>
+    <row r="27" spans="8:8">
       <c r="A27" t="s">
         <v>196</v>
       </c>
       <c r="B27" s="1">
-        <v>11550</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>11550.0</v>
+      </c>
+    </row>
+    <row r="28" spans="8:8">
       <c r="A28" t="s">
         <v>197</v>
       </c>
       <c r="B28" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="29" spans="8:8">
       <c r="A29" t="s">
         <v>198</v>
       </c>
       <c r="B29" s="1">
-        <v>49500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>49500.0</v>
+      </c>
+    </row>
+    <row r="30" spans="8:8">
       <c r="A30" t="s">
         <v>199</v>
       </c>
       <c r="B30" s="1">
-        <v>39600</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>39600.0</v>
+      </c>
+    </row>
+    <row r="31" spans="8:8">
       <c r="A31" t="s">
         <v>200</v>
       </c>
       <c r="B31" s="1">
-        <v>56100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>56100.0</v>
+      </c>
+    </row>
+    <row r="32" spans="8:8">
       <c r="A32" t="s">
         <v>201</v>
       </c>
       <c r="B32" s="1">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="4" t="s">
+        <v>9900.0</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8">
+      <c r="A33" s="5" t="s">
         <v>202</v>
       </c>
       <c r="B33" s="1">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>19800.0</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8">
       <c r="A34" t="s">
         <v>629</v>
       </c>
       <c r="B34" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="35" spans="8:8">
       <c r="A35" t="s">
         <v>203</v>
       </c>
       <c r="B35" s="1">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>9900.0</v>
+      </c>
+    </row>
+    <row r="36" spans="8:8">
       <c r="A36" t="s">
         <v>470</v>
       </c>
       <c r="B36" s="1">
-        <v>26400</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>26400.0</v>
+      </c>
+    </row>
+    <row r="37" spans="8:8">
       <c r="A37" t="s">
         <v>174</v>
       </c>
       <c r="B37" s="1">
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>33000.0</v>
+      </c>
+    </row>
+    <row r="38" spans="8:8">
       <c r="A38" t="s">
         <v>204</v>
       </c>
       <c r="B38" s="1">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>8250.0</v>
+      </c>
+    </row>
+    <row r="39" spans="8:8">
       <c r="A39" t="s">
         <v>458</v>
       </c>
       <c r="B39" s="1">
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>16500.0</v>
+      </c>
+    </row>
+    <row r="40" spans="8:8">
       <c r="A40" t="s">
         <v>446</v>
       </c>
       <c r="B40" s="1">
-        <v>3960</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>3960.0</v>
+      </c>
+    </row>
+    <row r="41" spans="8:8">
       <c r="A41" t="s">
         <v>205</v>
       </c>
       <c r="B41" s="1">
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>13200.0</v>
+      </c>
+    </row>
+    <row r="42" spans="8:8">
       <c r="A42" t="s">
         <v>206</v>
       </c>
       <c r="B42" s="1">
-        <v>26400</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>26400.0</v>
+      </c>
+    </row>
+    <row r="43" spans="8:8">
       <c r="A43" t="s">
         <v>207</v>
       </c>
       <c r="B43" s="1">
-        <v>14850</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>14850.0</v>
+      </c>
+    </row>
+    <row r="44" spans="8:8">
       <c r="A44" t="s">
         <v>208</v>
       </c>
       <c r="B44" s="1">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>19800.0</v>
+      </c>
+    </row>
+    <row r="45" spans="8:8">
       <c r="A45" t="s">
         <v>209</v>
       </c>
       <c r="B45" s="1">
-        <v>14850</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>14850.0</v>
+      </c>
+    </row>
+    <row r="46" spans="8:8">
       <c r="A46" t="s">
         <v>210</v>
       </c>
       <c r="B46" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>6600.0</v>
+      </c>
+    </row>
+    <row r="47" spans="8:8">
       <c r="A47" t="s">
         <v>443</v>
       </c>
       <c r="B47" s="1">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>330.0</v>
+      </c>
+    </row>
+    <row r="48" spans="8:8">
       <c r="A48" t="s">
         <v>444</v>
       </c>
       <c r="B48" s="1">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>330.0</v>
+      </c>
+    </row>
+    <row r="49" spans="8:8">
       <c r="A49" t="s">
         <v>438</v>
       </c>
       <c r="B49" s="1">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>330.0</v>
+      </c>
+    </row>
+    <row r="50" spans="8:8">
       <c r="A50" t="s">
         <v>469</v>
       </c>
       <c r="B50" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="51" spans="8:8">
       <c r="A51" t="s">
         <v>211</v>
       </c>
       <c r="B51" s="1">
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="4" t="s">
+        <v>33000.0</v>
+      </c>
+    </row>
+    <row r="52" spans="8:8">
+      <c r="A52" s="5" t="s">
         <v>212</v>
       </c>
       <c r="B52" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="4" t="s">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="53" spans="8:8">
+      <c r="A53" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B53" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="54" spans="8:8">
       <c r="A54" t="s">
         <v>416</v>
       </c>
       <c r="B54" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="55" spans="8:8">
       <c r="A55" t="s">
         <v>417</v>
       </c>
       <c r="B55" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="56" spans="8:8">
       <c r="A56" t="s">
         <v>214</v>
       </c>
       <c r="B56" s="1">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>19800.0</v>
+      </c>
+    </row>
+    <row r="57" spans="8:8">
       <c r="A57" t="s">
         <v>215</v>
       </c>
       <c r="B57" s="1">
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>13200.0</v>
+      </c>
+    </row>
+    <row r="58" spans="8:8">
       <c r="A58" t="s">
         <v>216</v>
       </c>
       <c r="B58" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>6600.0</v>
+      </c>
+    </row>
+    <row r="59" spans="8:8">
       <c r="A59" t="s">
         <v>217</v>
       </c>
       <c r="B59" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="60" spans="8:8">
       <c r="A60" t="s">
         <v>218</v>
       </c>
       <c r="B60" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>6600.0</v>
+      </c>
+    </row>
+    <row r="61" spans="8:8">
       <c r="A61" t="s">
         <v>219</v>
       </c>
       <c r="B61" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="62" spans="8:8">
       <c r="A62" t="s">
         <v>220</v>
       </c>
       <c r="B62" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="63" spans="8:8">
       <c r="A63" t="s">
         <v>221</v>
       </c>
       <c r="B63" s="1">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>1650.0</v>
+      </c>
+    </row>
+    <row r="64" spans="8:8">
       <c r="A64" t="s">
         <v>222</v>
       </c>
       <c r="B64" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="65" spans="8:8">
       <c r="A65" t="s">
         <v>224</v>
       </c>
       <c r="B65" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="66" spans="8:8">
       <c r="A66" t="s">
         <v>228</v>
       </c>
       <c r="B66" s="1">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>660.0</v>
+      </c>
+    </row>
+    <row r="67" spans="8:8">
       <c r="A67" t="s">
         <v>225</v>
       </c>
       <c r="B67" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="68" spans="8:8">
       <c r="A68" t="s">
         <v>226</v>
       </c>
       <c r="B68" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="69" spans="8:8">
       <c r="A69" t="s">
         <v>227</v>
       </c>
       <c r="B69" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="70" spans="8:8">
       <c r="A70" t="s">
         <v>522</v>
       </c>
       <c r="B70" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="71" spans="8:8">
       <c r="A71" t="s">
         <v>223</v>
       </c>
       <c r="B71" s="1">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>2310.0</v>
+      </c>
+    </row>
+    <row r="72" spans="8:8">
       <c r="A72" t="s">
         <v>229</v>
       </c>
       <c r="B72" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="73" spans="8:8">
       <c r="A73" t="s">
         <v>230</v>
       </c>
       <c r="B73" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="74" spans="8:8">
       <c r="A74" t="s">
         <v>231</v>
       </c>
       <c r="B74" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>6600.0</v>
+      </c>
+    </row>
+    <row r="75" spans="8:8">
       <c r="A75" t="s">
         <v>232</v>
       </c>
       <c r="B75" s="1">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>8250.0</v>
+      </c>
+    </row>
+    <row r="76" spans="8:8">
       <c r="A76" t="s">
         <v>233</v>
       </c>
       <c r="B76" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>6600.0</v>
+      </c>
+    </row>
+    <row r="77" spans="8:8">
       <c r="A77" t="s">
         <v>234</v>
       </c>
       <c r="B77" s="1">
-        <v>14850</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>14850.0</v>
+      </c>
+    </row>
+    <row r="78" spans="8:8">
       <c r="A78" t="s">
         <v>235</v>
       </c>
       <c r="B78" s="1">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>8250.0</v>
+      </c>
+    </row>
+    <row r="79" spans="8:8">
       <c r="A79" t="s">
         <v>236</v>
       </c>
       <c r="B79" s="1">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>8250.0</v>
+      </c>
+    </row>
+    <row r="80" spans="8:8">
       <c r="A80" t="s">
         <v>237</v>
       </c>
       <c r="B80" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="81" spans="8:8">
       <c r="A81" t="s">
         <v>456</v>
       </c>
       <c r="B81" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="82" spans="8:8">
       <c r="A82" t="s">
         <v>457</v>
       </c>
       <c r="B82" s="1">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>9900.0</v>
+      </c>
+    </row>
+    <row r="83" spans="8:8">
       <c r="A83" t="s">
         <v>238</v>
       </c>
       <c r="B83" s="1">
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>16500.0</v>
+      </c>
+    </row>
+    <row r="84" spans="8:8">
       <c r="A84" t="s">
         <v>239</v>
       </c>
       <c r="B84" s="1">
-        <v>23100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>23100.0</v>
+      </c>
+    </row>
+    <row r="85" spans="8:8">
       <c r="A85" t="s">
         <v>240</v>
       </c>
       <c r="B85" s="1">
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>33000.0</v>
+      </c>
+    </row>
+    <row r="86" spans="8:8">
       <c r="A86" t="s">
         <v>241</v>
       </c>
       <c r="B86" s="1">
-        <v>115500</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>115500.0</v>
+      </c>
+    </row>
+    <row r="87" spans="8:8">
       <c r="A87" t="s">
         <v>242</v>
       </c>
       <c r="B87" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="88" spans="8:8">
       <c r="A88" t="s">
         <v>243</v>
       </c>
       <c r="B88" s="1">
-        <v>99000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>99000.0</v>
+      </c>
+    </row>
+    <row r="89" spans="8:8">
       <c r="A89" t="s">
         <v>244</v>
       </c>
       <c r="B89" s="1">
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>16500.0</v>
+      </c>
+    </row>
+    <row r="90" spans="8:8">
       <c r="A90" t="s">
         <v>610</v>
       </c>
       <c r="B90" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="91" spans="8:8">
       <c r="A91" t="s">
         <v>447</v>
       </c>
       <c r="B91" s="1">
-        <v>23100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>23100.0</v>
+      </c>
+    </row>
+    <row r="92" spans="8:8">
       <c r="A92" t="s">
         <v>245</v>
       </c>
       <c r="B92" s="1">
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>16500.0</v>
+      </c>
+    </row>
+    <row r="93" spans="8:8">
       <c r="A93" t="s">
         <v>246</v>
       </c>
       <c r="B93" s="1">
-        <v>26400</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>26400.0</v>
+      </c>
+    </row>
+    <row r="94" spans="8:8">
       <c r="A94" t="s">
         <v>247</v>
       </c>
       <c r="B94" s="1">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>8250.0</v>
+      </c>
+    </row>
+    <row r="95" spans="8:8">
       <c r="A95" t="s">
         <v>463</v>
       </c>
       <c r="B95" s="1">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>8250.0</v>
+      </c>
+    </row>
+    <row r="96" spans="8:8">
       <c r="A96" t="s">
         <v>248</v>
       </c>
       <c r="B96" s="1">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>8250.0</v>
+      </c>
+    </row>
+    <row r="97" spans="8:8">
       <c r="A97" t="s">
         <v>630</v>
       </c>
       <c r="B97" s="1">
-        <v>14850</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>14850.0</v>
+      </c>
+    </row>
+    <row r="98" spans="8:8">
       <c r="A98" t="s">
         <v>530</v>
       </c>
       <c r="B98" s="1">
-        <v>82500</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>82500.0</v>
+      </c>
+    </row>
+    <row r="99" spans="8:8">
       <c r="A99" t="s">
         <v>649</v>
       </c>
       <c r="B99" s="1">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>8250.0</v>
+      </c>
+    </row>
+    <row r="100" spans="8:8">
       <c r="A100" t="s">
         <v>249</v>
       </c>
       <c r="B100" s="1">
-        <v>11550</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>11550.0</v>
+      </c>
+    </row>
+    <row r="101" spans="8:8">
       <c r="A101" t="s">
         <v>250</v>
       </c>
       <c r="B101" s="1">
-        <v>23100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>23100.0</v>
+      </c>
+    </row>
+    <row r="102" spans="8:8">
       <c r="A102" t="s">
         <v>251</v>
       </c>
       <c r="B102" s="1">
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>16500.0</v>
+      </c>
+    </row>
+    <row r="103" spans="8:8">
       <c r="A103" t="s">
         <v>631</v>
       </c>
       <c r="B103" s="1">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+        <v>9900.0</v>
+      </c>
+    </row>
+    <row r="104" spans="8:8">
       <c r="A104" t="s">
         <v>652</v>
       </c>
@@ -3322,1676 +3322,1676 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="8:8">
       <c r="A105" t="s">
         <v>252</v>
       </c>
       <c r="B105" s="1">
-        <v>39600</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>39600.0</v>
+      </c>
+    </row>
+    <row r="106" spans="8:8">
       <c r="A106" t="s">
         <v>253</v>
       </c>
       <c r="B106" s="1">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <v>9900.0</v>
+      </c>
+    </row>
+    <row r="107" spans="8:8">
       <c r="A107" t="s">
         <v>254</v>
       </c>
       <c r="B107" s="1">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>19800.0</v>
+      </c>
+    </row>
+    <row r="108" spans="8:8">
       <c r="A108" t="s">
         <v>448</v>
       </c>
       <c r="B108" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="109" spans="8:8">
       <c r="A109" t="s">
         <v>255</v>
       </c>
       <c r="B109" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>6600.0</v>
+      </c>
+    </row>
+    <row r="110" spans="8:8">
       <c r="A110" t="s">
         <v>256</v>
       </c>
       <c r="B110" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="111" spans="8:8">
       <c r="A111" t="s">
         <v>257</v>
       </c>
       <c r="B111" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <v>6600.0</v>
+      </c>
+    </row>
+    <row r="112" spans="8:8">
       <c r="A112" t="s">
         <v>258</v>
       </c>
       <c r="B112" s="1">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+        <v>19800.0</v>
+      </c>
+    </row>
+    <row r="113" spans="8:8">
       <c r="A113" t="s">
         <v>259</v>
       </c>
       <c r="B113" s="1">
-        <v>49500</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <v>49500.0</v>
+      </c>
+    </row>
+    <row r="114" spans="8:8">
       <c r="A114" t="s">
         <v>260</v>
       </c>
       <c r="B114" s="1">
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+        <v>13200.0</v>
+      </c>
+    </row>
+    <row r="115" spans="8:8">
       <c r="A115" t="s">
         <v>471</v>
       </c>
       <c r="B115" s="1">
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <v>33000.0</v>
+      </c>
+    </row>
+    <row r="116" spans="8:8">
       <c r="A116" t="s">
         <v>261</v>
       </c>
       <c r="B116" s="1">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+        <v>8250.0</v>
+      </c>
+    </row>
+    <row r="117" spans="8:8">
       <c r="A117" t="s">
         <v>262</v>
       </c>
       <c r="B117" s="1">
-        <v>148500</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <v>148500.0</v>
+      </c>
+    </row>
+    <row r="118" spans="8:8">
       <c r="A118" t="s">
         <v>263</v>
       </c>
       <c r="B118" s="1">
-        <v>59400</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+        <v>59400.0</v>
+      </c>
+    </row>
+    <row r="119" spans="8:8">
       <c r="A119" t="s">
         <v>500</v>
       </c>
       <c r="B119" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="120" spans="8:8">
       <c r="A120" t="s">
         <v>501</v>
       </c>
       <c r="B120" s="1">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>9900.0</v>
+      </c>
+    </row>
+    <row r="121" spans="8:8">
       <c r="A121" t="s">
         <v>502</v>
       </c>
       <c r="B121" s="1">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+        <v>9900.0</v>
+      </c>
+    </row>
+    <row r="122" spans="8:8">
       <c r="A122" t="s">
         <v>264</v>
       </c>
       <c r="B122" s="1">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>19800.0</v>
+      </c>
+    </row>
+    <row r="123" spans="8:8">
       <c r="A123" t="s">
         <v>265</v>
       </c>
       <c r="B123" s="1">
-        <v>39600</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
+        <v>39600.0</v>
+      </c>
+    </row>
+    <row r="124" spans="8:8">
       <c r="A124" t="s">
         <v>266</v>
       </c>
       <c r="B124" s="1">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <v>8250.0</v>
+      </c>
+    </row>
+    <row r="125" spans="8:8">
       <c r="A125" t="s">
         <v>268</v>
       </c>
       <c r="B125" s="1">
-        <v>26400</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="4" t="s">
+        <v>26400.0</v>
+      </c>
+    </row>
+    <row r="126" spans="8:8">
+      <c r="A126" s="5" t="s">
         <v>459</v>
       </c>
       <c r="B126" s="1">
-        <v>82500</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
+        <v>82500.0</v>
+      </c>
+    </row>
+    <row r="127" spans="8:8">
       <c r="A127" t="s">
         <v>15</v>
       </c>
       <c r="B127" s="1">
-        <v>39600</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
+        <v>39600.0</v>
+      </c>
+    </row>
+    <row r="128" spans="8:8">
       <c r="A128" t="s">
         <v>269</v>
       </c>
       <c r="B128" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+        <v>6600.0</v>
+      </c>
+    </row>
+    <row r="129" spans="8:8">
       <c r="A129" t="s">
         <v>267</v>
       </c>
       <c r="B129" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="130" spans="8:8">
       <c r="A130" t="s">
         <v>611</v>
       </c>
       <c r="B130" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="131" spans="8:8">
       <c r="A131" t="s">
         <v>270</v>
       </c>
       <c r="B131" s="1">
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
+        <v>16500.0</v>
+      </c>
+    </row>
+    <row r="132" spans="8:8">
       <c r="A132" t="s">
         <v>271</v>
       </c>
       <c r="B132" s="1">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
+        <v>19800.0</v>
+      </c>
+    </row>
+    <row r="133" spans="8:8">
       <c r="A133" t="s">
         <v>272</v>
       </c>
       <c r="B133" s="1">
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
+        <v>33000.0</v>
+      </c>
+    </row>
+    <row r="134" spans="8:8">
       <c r="A134" t="s">
         <v>418</v>
       </c>
       <c r="B134" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="135" spans="8:8">
       <c r="A135" t="s">
         <v>273</v>
       </c>
       <c r="B135" s="1">
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+        <v>16500.0</v>
+      </c>
+    </row>
+    <row r="136" spans="8:8">
       <c r="A136" t="s">
         <v>274</v>
       </c>
       <c r="B136" s="1">
-        <v>23100</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
+        <v>23100.0</v>
+      </c>
+    </row>
+    <row r="137" spans="8:8">
       <c r="A137" t="s">
         <v>275</v>
       </c>
       <c r="B137" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="138" spans="8:8">
       <c r="A138" t="s">
         <v>276</v>
       </c>
       <c r="B138" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="139" spans="8:8">
       <c r="A139" t="s">
         <v>277</v>
       </c>
       <c r="B139" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="140" spans="8:8">
       <c r="A140" t="s">
         <v>281</v>
       </c>
       <c r="B140" s="1">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
+        <v>9900.0</v>
+      </c>
+    </row>
+    <row r="141" spans="8:8">
       <c r="A141" t="s">
         <v>282</v>
       </c>
       <c r="B141" s="1">
-        <v>29700</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
+        <v>29700.0</v>
+      </c>
+    </row>
+    <row r="142" spans="8:8">
       <c r="A142" t="s">
         <v>283</v>
       </c>
       <c r="B142" s="1">
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
+        <v>16500.0</v>
+      </c>
+    </row>
+    <row r="143" spans="8:8">
       <c r="A143" t="s">
         <v>278</v>
       </c>
       <c r="B143" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="144" spans="8:8">
       <c r="A144" t="s">
         <v>279</v>
       </c>
       <c r="B144" s="1">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
+        <v>9900.0</v>
+      </c>
+    </row>
+    <row r="145" spans="8:8">
       <c r="A145" t="s">
         <v>507</v>
       </c>
       <c r="B145" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
+        <v>6600.0</v>
+      </c>
+    </row>
+    <row r="146" spans="8:8">
       <c r="A146" t="s">
         <v>280</v>
       </c>
       <c r="B146" s="1">
-        <v>39600</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
+        <v>39600.0</v>
+      </c>
+    </row>
+    <row r="147" spans="8:8">
       <c r="A147" t="s">
         <v>284</v>
       </c>
       <c r="B147" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="148" spans="8:8">
       <c r="A148" t="s">
         <v>285</v>
       </c>
       <c r="B148" s="1">
-        <v>23100</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
+        <v>23100.0</v>
+      </c>
+    </row>
+    <row r="149" spans="8:8">
       <c r="A149" t="s">
         <v>286</v>
       </c>
       <c r="B149" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
+        <v>6600.0</v>
+      </c>
+    </row>
+    <row r="150" spans="8:8">
       <c r="A150" t="s">
         <v>531</v>
       </c>
       <c r="B150" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="151" spans="8:8">
       <c r="A151" t="s">
         <v>287</v>
       </c>
       <c r="B151" s="1">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
+        <v>1650.0</v>
+      </c>
+    </row>
+    <row r="152" spans="8:8">
       <c r="A152" t="s">
         <v>288</v>
       </c>
       <c r="B152" s="1">
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
+        <v>33000.0</v>
+      </c>
+    </row>
+    <row r="153" spans="8:8">
       <c r="A153" t="s">
         <v>289</v>
       </c>
       <c r="B153" s="1">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
+        <v>19800.0</v>
+      </c>
+    </row>
+    <row r="154" spans="8:8">
       <c r="A154" t="s">
         <v>290</v>
       </c>
       <c r="B154" s="1">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
+        <v>9900.0</v>
+      </c>
+    </row>
+    <row r="155" spans="8:8">
       <c r="A155" t="s">
         <v>291</v>
       </c>
       <c r="B155" s="1">
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
+        <v>33000.0</v>
+      </c>
+    </row>
+    <row r="156" spans="8:8">
       <c r="A156" t="s">
         <v>292</v>
       </c>
       <c r="B156" s="1">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
+        <v>9900.0</v>
+      </c>
+    </row>
+    <row r="157" spans="8:8">
       <c r="A157" t="s">
         <v>293</v>
       </c>
       <c r="B157" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="158" spans="8:8">
       <c r="A158" t="s">
         <v>294</v>
       </c>
       <c r="B158" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="159" spans="8:8">
       <c r="A159" t="s">
         <v>295</v>
       </c>
       <c r="B159" s="1">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
+        <v>9900.0</v>
+      </c>
+    </row>
+    <row r="160" spans="8:8">
       <c r="A160" t="s">
         <v>296</v>
       </c>
       <c r="B160" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="161" spans="8:8">
       <c r="A161" t="s">
         <v>461</v>
       </c>
       <c r="B161" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="162" spans="8:8">
       <c r="A162" t="s">
         <v>462</v>
       </c>
       <c r="B162" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="163" spans="8:8">
       <c r="A163" t="s">
         <v>297</v>
       </c>
       <c r="B163" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
+        <v>6600.0</v>
+      </c>
+    </row>
+    <row r="164" spans="8:8">
       <c r="A164" t="s">
         <v>299</v>
       </c>
       <c r="B164" s="1">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
+        <v>660.0</v>
+      </c>
+    </row>
+    <row r="165" spans="8:8">
       <c r="A165" t="s">
         <v>298</v>
       </c>
       <c r="B165" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
+        <v>6600.0</v>
+      </c>
+    </row>
+    <row r="166" spans="8:8">
       <c r="A166" t="s">
         <v>300</v>
       </c>
       <c r="B166" s="1">
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
+        <v>16500.0</v>
+      </c>
+    </row>
+    <row r="167" spans="8:8">
       <c r="A167" t="s">
         <v>301</v>
       </c>
       <c r="B167" s="1">
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
+        <v>13200.0</v>
+      </c>
+    </row>
+    <row r="168" spans="8:8">
       <c r="A168" t="s">
         <v>508</v>
       </c>
       <c r="B168" s="1">
-        <v>49500</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
+        <v>49500.0</v>
+      </c>
+    </row>
+    <row r="169" spans="8:8">
       <c r="A169" t="s">
         <v>302</v>
       </c>
       <c r="B169" s="1">
-        <v>29700</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
+        <v>29700.0</v>
+      </c>
+    </row>
+    <row r="170" spans="8:8">
       <c r="A170" t="s">
         <v>303</v>
       </c>
       <c r="B170" s="1">
-        <v>3960</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
+        <v>3960.0</v>
+      </c>
+    </row>
+    <row r="171" spans="8:8">
       <c r="A171" t="s">
         <v>304</v>
       </c>
       <c r="B171" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="172" spans="8:8">
       <c r="A172" t="s">
         <v>511</v>
       </c>
       <c r="B172" s="1">
-        <v>132000</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
+        <v>132000.0</v>
+      </c>
+    </row>
+    <row r="173" spans="8:8">
       <c r="A173" t="s">
         <v>305</v>
       </c>
       <c r="B173" s="1">
-        <v>181500</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
+        <v>181500.0</v>
+      </c>
+    </row>
+    <row r="174" spans="8:8">
       <c r="A174" t="s">
         <v>306</v>
       </c>
       <c r="B174" s="1">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
+        <v>1980.0</v>
+      </c>
+    </row>
+    <row r="175" spans="8:8">
       <c r="A175" t="s">
         <v>307</v>
       </c>
       <c r="B175" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="176" spans="8:8">
       <c r="A176" t="s">
         <v>449</v>
       </c>
       <c r="B176" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
+        <v>6600.0</v>
+      </c>
+    </row>
+    <row r="177" spans="8:8">
       <c r="A177" t="s">
         <v>308</v>
       </c>
       <c r="B177" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="178" spans="8:8">
       <c r="A178" t="s">
         <v>450</v>
       </c>
       <c r="B178" s="1">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
+        <v>1650.0</v>
+      </c>
+    </row>
+    <row r="179" spans="8:8">
       <c r="A179" t="s">
         <v>309</v>
       </c>
       <c r="B179" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="180" spans="8:8">
       <c r="A180" t="s">
         <v>310</v>
       </c>
       <c r="B180" s="1">
-        <v>23100</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
+        <v>23100.0</v>
+      </c>
+    </row>
+    <row r="181" spans="8:8">
       <c r="A181" t="s">
         <v>311</v>
       </c>
       <c r="B181" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="182" spans="8:8">
       <c r="A182" t="s">
         <v>312</v>
       </c>
       <c r="B182" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="183" spans="8:8">
       <c r="A183" t="s">
         <v>313</v>
       </c>
       <c r="B183" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
+        <v>6600.0</v>
+      </c>
+    </row>
+    <row r="184" spans="8:8">
       <c r="A184" t="s">
         <v>314</v>
       </c>
       <c r="B184" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="185" spans="8:8">
       <c r="A185" t="s">
         <v>315</v>
       </c>
       <c r="B185" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="186" spans="8:8">
       <c r="A186" t="s">
         <v>316</v>
       </c>
       <c r="B186" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="187" spans="8:8">
       <c r="A187" t="s">
         <v>612</v>
       </c>
       <c r="B187" s="1">
-        <v>3960</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
+        <v>3960.0</v>
+      </c>
+    </row>
+    <row r="188" spans="8:8">
       <c r="A188" t="s">
         <v>317</v>
       </c>
       <c r="B188" s="1">
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
+        <v>16500.0</v>
+      </c>
+    </row>
+    <row r="189" spans="8:8">
       <c r="A189" t="s">
         <v>514</v>
       </c>
       <c r="B189" s="1">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
+        <v>1650.0</v>
+      </c>
+    </row>
+    <row r="190" spans="8:8">
       <c r="A190" t="s">
         <v>509</v>
       </c>
       <c r="B190" s="1">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
+        <v>1650.0</v>
+      </c>
+    </row>
+    <row r="191" spans="8:8">
       <c r="A191" t="s">
         <v>318</v>
       </c>
       <c r="B191" s="1">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
+        <v>9900.0</v>
+      </c>
+    </row>
+    <row r="192" spans="8:8">
       <c r="A192" t="s">
         <v>319</v>
       </c>
       <c r="B192" s="1">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
+        <v>2310.0</v>
+      </c>
+    </row>
+    <row r="193" spans="8:8">
       <c r="A193" t="s">
         <v>320</v>
       </c>
       <c r="B193" s="1">
-        <v>92400</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
+        <v>92400.0</v>
+      </c>
+    </row>
+    <row r="194" spans="8:8">
       <c r="A194" t="s">
         <v>321</v>
       </c>
       <c r="B194" s="1">
-        <v>49500</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
+        <v>49500.0</v>
+      </c>
+    </row>
+    <row r="195" spans="8:8">
       <c r="A195" t="s">
         <v>632</v>
       </c>
       <c r="B195" s="1">
-        <v>21450</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
+        <v>21450.0</v>
+      </c>
+    </row>
+    <row r="196" spans="8:8">
       <c r="A196" t="s">
         <v>451</v>
       </c>
       <c r="B196" s="1">
-        <v>26400</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
+        <v>26400.0</v>
+      </c>
+    </row>
+    <row r="197" spans="8:8">
       <c r="A197" t="s">
         <v>322</v>
       </c>
       <c r="B197" s="1">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
+        <v>9900.0</v>
+      </c>
+    </row>
+    <row r="198" spans="8:8">
       <c r="A198" t="s">
         <v>323</v>
       </c>
       <c r="B198" s="1">
-        <v>49500</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
+        <v>49500.0</v>
+      </c>
+    </row>
+    <row r="199" spans="8:8">
       <c r="A199" t="s">
         <v>324</v>
       </c>
       <c r="B199" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="200" spans="8:8">
       <c r="A200" t="s">
         <v>633</v>
       </c>
       <c r="B200" s="1">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
+        <v>19800.0</v>
+      </c>
+    </row>
+    <row r="201" spans="8:8">
       <c r="A201" t="s">
         <v>325</v>
       </c>
       <c r="B201" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="202" spans="8:8">
       <c r="A202" t="s">
         <v>326</v>
       </c>
       <c r="B202" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
+        <v>6600.0</v>
+      </c>
+    </row>
+    <row r="203" spans="8:8">
       <c r="A203" t="s">
         <v>327</v>
       </c>
       <c r="B203" s="1">
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
+        <v>33000.0</v>
+      </c>
+    </row>
+    <row r="204" spans="8:8">
       <c r="A204" t="s">
         <v>328</v>
       </c>
       <c r="B204" s="1">
-        <v>39600</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
+        <v>39600.0</v>
+      </c>
+    </row>
+    <row r="205" spans="8:8">
       <c r="A205" t="s">
         <v>329</v>
       </c>
       <c r="B205" s="1">
-        <v>99000</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
+        <v>99000.0</v>
+      </c>
+    </row>
+    <row r="206" spans="8:8">
       <c r="A206" t="s">
         <v>330</v>
       </c>
       <c r="B206" s="1">
-        <v>52800</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
+        <v>52800.0</v>
+      </c>
+    </row>
+    <row r="207" spans="8:8">
       <c r="A207" t="s">
         <v>331</v>
       </c>
       <c r="B207" s="1">
-        <v>36300</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
+        <v>36300.0</v>
+      </c>
+    </row>
+    <row r="208" spans="8:8">
       <c r="A208" t="s">
         <v>332</v>
       </c>
       <c r="B208" s="1">
-        <v>52800</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
+        <v>52800.0</v>
+      </c>
+    </row>
+    <row r="209" spans="8:8">
       <c r="A209" t="s">
         <v>333</v>
       </c>
       <c r="B209" s="1">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
+        <v>9900.0</v>
+      </c>
+    </row>
+    <row r="210" spans="8:8">
       <c r="A210" t="s">
         <v>334</v>
       </c>
       <c r="B210" s="1">
-        <v>56100</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
+        <v>56100.0</v>
+      </c>
+    </row>
+    <row r="211" spans="8:8">
       <c r="A211" t="s">
         <v>335</v>
       </c>
       <c r="B211" s="1">
-        <v>26400</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
+        <v>26400.0</v>
+      </c>
+    </row>
+    <row r="212" spans="8:8">
       <c r="A212" t="s">
         <v>336</v>
       </c>
       <c r="B212" s="1">
-        <v>72600</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
+        <v>72600.0</v>
+      </c>
+    </row>
+    <row r="213" spans="8:8">
       <c r="A213" t="s">
         <v>337</v>
       </c>
       <c r="B213" s="1">
-        <v>29700</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
+        <v>29700.0</v>
+      </c>
+    </row>
+    <row r="214" spans="8:8">
       <c r="A214" t="s">
         <v>338</v>
       </c>
       <c r="B214" s="1">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
+        <v>8250.0</v>
+      </c>
+    </row>
+    <row r="215" spans="8:8">
       <c r="A215" t="s">
         <v>339</v>
       </c>
       <c r="B215" s="1">
-        <v>23100</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
+        <v>23100.0</v>
+      </c>
+    </row>
+    <row r="216" spans="8:8">
       <c r="A216" t="s">
         <v>340</v>
       </c>
       <c r="B216" s="1">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
+        <v>8250.0</v>
+      </c>
+    </row>
+    <row r="217" spans="8:8">
       <c r="A217" t="s">
         <v>341</v>
       </c>
       <c r="B217" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="218" spans="8:8">
       <c r="A218" t="s">
         <v>512</v>
       </c>
       <c r="B218" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
+        <v>6600.0</v>
+      </c>
+    </row>
+    <row r="219" spans="8:8">
       <c r="A219" t="s">
         <v>513</v>
       </c>
       <c r="B219" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
+        <v>6600.0</v>
+      </c>
+    </row>
+    <row r="220" spans="8:8">
       <c r="A220" t="s">
         <v>342</v>
       </c>
       <c r="B220" s="1">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
+        <v>9900.0</v>
+      </c>
+    </row>
+    <row r="221" spans="8:8">
       <c r="A221" t="s">
         <v>343</v>
       </c>
       <c r="B221" s="1">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
+        <v>9900.0</v>
+      </c>
+    </row>
+    <row r="222" spans="8:8">
       <c r="A222" t="s">
         <v>344</v>
       </c>
       <c r="B222" s="1">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
+        <v>19800.0</v>
+      </c>
+    </row>
+    <row r="223" spans="8:8">
       <c r="A223" t="s">
         <v>453</v>
       </c>
       <c r="B223" s="1">
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
+        <v>13200.0</v>
+      </c>
+    </row>
+    <row r="224" spans="8:8">
       <c r="A224" t="s">
         <v>345</v>
       </c>
       <c r="B224" s="1">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
+        <v>9900.0</v>
+      </c>
+    </row>
+    <row r="225" spans="8:8">
       <c r="A225" t="s">
         <v>346</v>
       </c>
       <c r="B225" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
+        <v>6600.0</v>
+      </c>
+    </row>
+    <row r="226" spans="8:8">
       <c r="A226" t="s">
         <v>347</v>
       </c>
       <c r="B226" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
+        <v>6600.0</v>
+      </c>
+    </row>
+    <row r="227" spans="8:8">
       <c r="A227" t="s">
         <v>348</v>
       </c>
       <c r="B227" s="1">
-        <v>49500</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
+        <v>49500.0</v>
+      </c>
+    </row>
+    <row r="228" spans="8:8">
       <c r="A228" t="s">
         <v>349</v>
       </c>
       <c r="B228" s="1">
-        <v>115500</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
+        <v>115500.0</v>
+      </c>
+    </row>
+    <row r="229" spans="8:8">
       <c r="A229" t="s">
         <v>350</v>
       </c>
       <c r="B229" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
+        <v>6600.0</v>
+      </c>
+    </row>
+    <row r="230" spans="8:8">
       <c r="A230" t="s">
         <v>351</v>
       </c>
       <c r="B230" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
+        <v>6600.0</v>
+      </c>
+    </row>
+    <row r="231" spans="8:8">
       <c r="A231" t="s">
         <v>352</v>
       </c>
       <c r="B231" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="232" spans="8:8">
       <c r="A232" t="s">
         <v>353</v>
       </c>
       <c r="B232" s="1">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
+        <v>9900.0</v>
+      </c>
+    </row>
+    <row r="233" spans="8:8">
       <c r="A233" t="s">
         <v>354</v>
       </c>
       <c r="B233" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="234" spans="8:8">
       <c r="A234" t="s">
         <v>355</v>
       </c>
       <c r="B234" s="1">
-        <v>23100</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
+        <v>23100.0</v>
+      </c>
+    </row>
+    <row r="235" spans="8:8">
       <c r="A235" t="s">
         <v>356</v>
       </c>
       <c r="B235" s="1">
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2">
+        <v>13200.0</v>
+      </c>
+    </row>
+    <row r="236" spans="8:8">
       <c r="A236" t="s">
         <v>357</v>
       </c>
       <c r="B236" s="1">
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
+        <v>33000.0</v>
+      </c>
+    </row>
+    <row r="237" spans="8:8">
       <c r="A237" t="s">
         <v>358</v>
       </c>
       <c r="B237" s="1">
-        <v>23100</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
+        <v>23100.0</v>
+      </c>
+    </row>
+    <row r="238" spans="8:8">
       <c r="A238" t="s">
         <v>359</v>
       </c>
       <c r="B238" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="239" spans="8:8">
       <c r="A239" t="s">
         <v>360</v>
       </c>
       <c r="B239" s="1">
-        <v>42900</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
+        <v>42900.0</v>
+      </c>
+    </row>
+    <row r="240" spans="8:8">
       <c r="A240" t="s">
         <v>361</v>
       </c>
       <c r="B240" s="1">
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
+        <v>66000.0</v>
+      </c>
+    </row>
+    <row r="241" spans="8:8">
       <c r="A241" t="s">
         <v>362</v>
       </c>
       <c r="B241" s="1">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2">
+        <v>9900.0</v>
+      </c>
+    </row>
+    <row r="242" spans="8:8">
       <c r="A242" t="s">
         <v>363</v>
       </c>
       <c r="B242" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="243" spans="8:8">
       <c r="A243" t="s">
         <v>634</v>
       </c>
       <c r="B243" s="1">
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
+        <v>33000.0</v>
+      </c>
+    </row>
+    <row r="244" spans="8:8">
       <c r="A244" t="s">
         <v>364</v>
       </c>
       <c r="B244" s="1">
-        <v>21450</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
+        <v>21450.0</v>
+      </c>
+    </row>
+    <row r="245" spans="8:8">
       <c r="A245" t="s">
         <v>365</v>
       </c>
       <c r="B245" s="1">
-        <v>31350</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
+        <v>31350.0</v>
+      </c>
+    </row>
+    <row r="246" spans="8:8">
       <c r="A246" t="s">
         <v>366</v>
       </c>
       <c r="B246" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="247" spans="8:8">
       <c r="A247" t="s">
         <v>367</v>
       </c>
       <c r="B247" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2">
+        <v>6600.0</v>
+      </c>
+    </row>
+    <row r="248" spans="8:8">
       <c r="A248" t="s">
         <v>368</v>
       </c>
       <c r="B248" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="249" spans="8:8">
       <c r="A249" t="s">
         <v>369</v>
       </c>
       <c r="B249" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="250" spans="8:8">
       <c r="A250" t="s">
         <v>370</v>
       </c>
       <c r="B250" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="251" spans="8:8">
       <c r="A251" t="s">
         <v>371</v>
       </c>
       <c r="B251" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="252" spans="8:8">
       <c r="A252" t="s">
         <v>372</v>
       </c>
       <c r="B252" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="253" spans="8:8">
       <c r="A253" t="s">
         <v>373</v>
       </c>
       <c r="B253" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="254" spans="8:8">
       <c r="A254" t="s">
         <v>374</v>
       </c>
       <c r="B254" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="255" spans="8:8">
       <c r="A255" t="s">
         <v>454</v>
       </c>
       <c r="B255" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="256" spans="8:8">
       <c r="A256" t="s">
         <v>455</v>
       </c>
       <c r="B256" s="1">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
+        <v>1980.0</v>
+      </c>
+    </row>
+    <row r="257" spans="8:8">
       <c r="A257" t="s">
         <v>375</v>
       </c>
       <c r="B257" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="258" spans="8:8">
       <c r="A258" t="s">
         <v>376</v>
       </c>
       <c r="B258" s="1">
-        <v>49500</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
+        <v>49500.0</v>
+      </c>
+    </row>
+    <row r="259" spans="8:8">
       <c r="A259" t="s">
         <v>377</v>
       </c>
       <c r="B259" s="1">
-        <v>59400</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2">
+        <v>59400.0</v>
+      </c>
+    </row>
+    <row r="260" spans="8:8">
       <c r="A260" t="s">
         <v>378</v>
       </c>
       <c r="B260" s="1">
-        <v>29700</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2">
+        <v>29700.0</v>
+      </c>
+    </row>
+    <row r="261" spans="8:8">
       <c r="A261" t="s">
         <v>379</v>
       </c>
       <c r="B261" s="1">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
+        <v>9900.0</v>
+      </c>
+    </row>
+    <row r="262" spans="8:8">
       <c r="A262" t="s">
         <v>380</v>
       </c>
       <c r="B262" s="1">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
+        <v>8250.0</v>
+      </c>
+    </row>
+    <row r="263" spans="8:8">
       <c r="A263" t="s">
         <v>381</v>
       </c>
       <c r="B263" s="1">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2">
+        <v>1320.0</v>
+      </c>
+    </row>
+    <row r="264" spans="8:8">
       <c r="A264" t="s">
         <v>382</v>
       </c>
       <c r="B264" s="1">
-        <v>24750</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2">
+        <v>24750.0</v>
+      </c>
+    </row>
+    <row r="265" spans="8:8">
       <c r="A265" t="s">
         <v>383</v>
       </c>
       <c r="B265" s="1">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2">
+        <v>8250.0</v>
+      </c>
+    </row>
+    <row r="266" spans="8:8">
       <c r="A266" t="s">
         <v>384</v>
       </c>
       <c r="B266" s="1">
-        <v>23100</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2">
+        <v>23100.0</v>
+      </c>
+    </row>
+    <row r="267" spans="8:8">
       <c r="A267" t="s">
         <v>635</v>
       </c>
       <c r="B267" s="1">
-        <v>3960</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2">
+        <v>3960.0</v>
+      </c>
+    </row>
+    <row r="268" spans="8:8">
       <c r="A268" t="s">
         <v>385</v>
       </c>
       <c r="B268" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="269" spans="8:8">
       <c r="A269" t="s">
         <v>386</v>
       </c>
       <c r="B269" s="1">
-        <v>82500</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2">
+        <v>82500.0</v>
+      </c>
+    </row>
+    <row r="270" spans="8:8">
       <c r="A270" t="s">
         <v>445</v>
       </c>
       <c r="B270" s="1">
-        <v>181500</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2">
+        <v>181500.0</v>
+      </c>
+    </row>
+    <row r="271" spans="8:8">
       <c r="A271" t="s">
         <v>387</v>
       </c>
       <c r="B271" s="1">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2">
+        <v>8250.0</v>
+      </c>
+    </row>
+    <row r="272" spans="8:8">
       <c r="A272" t="s">
         <v>388</v>
       </c>
       <c r="B272" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="273" spans="8:8">
       <c r="A273" t="s">
         <v>636</v>
       </c>
       <c r="B273" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
+        <v>6600.0</v>
+      </c>
+    </row>
+    <row r="274" spans="8:8">
       <c r="A274" t="s">
         <v>389</v>
       </c>
       <c r="B274" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="275" spans="8:8">
       <c r="A275" t="s">
         <v>390</v>
       </c>
       <c r="B275" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="276" spans="8:8">
       <c r="A276" t="s">
         <v>637</v>
       </c>
       <c r="B276" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="277" spans="8:8">
       <c r="A277" t="s">
         <v>650</v>
       </c>
       <c r="B277" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="278" spans="8:8">
       <c r="A278" t="s">
         <v>391</v>
       </c>
       <c r="B278" s="1">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
+        <v>2310.0</v>
+      </c>
+    </row>
+    <row r="279" spans="8:8">
       <c r="A279" t="s">
         <v>392</v>
       </c>
       <c r="B279" s="1">
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
+        <v>16500.0</v>
+      </c>
+    </row>
+    <row r="280" spans="8:8">
       <c r="A280" t="s">
         <v>393</v>
       </c>
       <c r="B280" s="1">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
+        <v>1650.0</v>
+      </c>
+    </row>
+    <row r="281" spans="8:8">
       <c r="A281" t="s">
         <v>394</v>
       </c>
       <c r="B281" s="1">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2">
+        <v>1650.0</v>
+      </c>
+    </row>
+    <row r="282" spans="8:8">
       <c r="A282" t="s">
         <v>395</v>
       </c>
       <c r="B282" s="1">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2">
+        <v>1650.0</v>
+      </c>
+    </row>
+    <row r="283" spans="8:8">
       <c r="A283" t="s">
         <v>396</v>
       </c>
       <c r="B283" s="1">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2">
+        <v>2310.0</v>
+      </c>
+    </row>
+    <row r="284" spans="8:8">
       <c r="A284" t="s">
         <v>397</v>
       </c>
       <c r="B284" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2">
+        <v>6600.0</v>
+      </c>
+    </row>
+    <row r="285" spans="8:8">
       <c r="A285" t="s">
         <v>439</v>
       </c>
       <c r="B285" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="286" spans="8:8">
       <c r="A286" t="s">
         <v>605</v>
       </c>
       <c r="B286" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="287" spans="8:8">
       <c r="A287" t="s">
         <v>398</v>
       </c>
       <c r="B287" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="288" spans="8:8">
       <c r="A288" t="s">
         <v>615</v>
       </c>
       <c r="B288" s="1">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
+        <v>8250.0</v>
+      </c>
+    </row>
+    <row r="289" spans="8:8">
       <c r="A289" t="s">
         <v>616</v>
       </c>
       <c r="B289" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="290" spans="8:8">
       <c r="A290" t="s">
         <v>399</v>
       </c>
       <c r="B290" s="1">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2">
+        <v>1650.0</v>
+      </c>
+    </row>
+    <row r="291" spans="8:8">
       <c r="A291" t="s">
         <v>400</v>
       </c>
       <c r="B291" s="1">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2">
+        <v>2310.0</v>
+      </c>
+    </row>
+    <row r="292" spans="8:8">
       <c r="A292" t="s">
         <v>401</v>
       </c>
       <c r="B292" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="293" spans="8:8">
       <c r="A293" t="s">
         <v>402</v>
       </c>
       <c r="B293" s="1">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2">
+        <v>660.0</v>
+      </c>
+    </row>
+    <row r="294" spans="8:8">
       <c r="A294" t="s">
         <v>403</v>
       </c>
       <c r="B294" s="1">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2">
+        <v>1650.0</v>
+      </c>
+    </row>
+    <row r="295" spans="8:8">
       <c r="A295" t="s">
         <v>404</v>
       </c>
       <c r="B295" s="1">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2">
+        <v>990.0</v>
+      </c>
+    </row>
+    <row r="296" spans="8:8">
       <c r="A296" t="s">
         <v>405</v>
       </c>
       <c r="B296" s="1">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2">
+        <v>1320.0</v>
+      </c>
+    </row>
+    <row r="297" spans="8:8">
       <c r="A297" t="s">
         <v>452</v>
       </c>
       <c r="B297" s="1">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2">
+        <v>990.0</v>
+      </c>
+    </row>
+    <row r="298" spans="8:8">
       <c r="A298" t="s">
         <v>510</v>
       </c>
       <c r="B298" s="1">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2">
+        <v>2310.0</v>
+      </c>
+    </row>
+    <row r="299" spans="8:8">
       <c r="A299" t="s">
         <v>406</v>
       </c>
       <c r="B299" s="1">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2">
+        <v>660.0</v>
+      </c>
+    </row>
+    <row r="300" spans="8:8">
       <c r="A300" t="s">
         <v>532</v>
       </c>
       <c r="B300" s="1">
-        <v>59400</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2">
+        <v>59400.0</v>
+      </c>
+    </row>
+    <row r="301" spans="8:8">
       <c r="A301" t="s">
         <v>515</v>
       </c>
       <c r="B301" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="302" spans="8:8">
       <c r="A302" t="s">
         <v>407</v>
       </c>
       <c r="B302" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2">
+        <v>6600.0</v>
+      </c>
+    </row>
+    <row r="303" spans="8:8">
       <c r="A303" t="s">
         <v>408</v>
       </c>
       <c r="B303" s="1">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2">
-      <c r="A304" s="34" t="s">
+        <v>8250.0</v>
+      </c>
+    </row>
+    <row r="304" spans="8:8">
+      <c r="A304" s="4" t="s">
         <v>409</v>
       </c>
       <c r="B304" s="1">
-        <v>14850</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2">
-      <c r="A305" s="34" t="s">
+        <v>14850.0</v>
+      </c>
+    </row>
+    <row r="305" spans="8:8">
+      <c r="A305" s="4" t="s">
         <v>410</v>
       </c>
       <c r="B305" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="306" spans="8:8">
       <c r="A306" t="s">
         <v>411</v>
       </c>
       <c r="B306" s="1">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2">
+        <v>19800.0</v>
+      </c>
+    </row>
+    <row r="307" spans="8:8">
       <c r="A307" t="s">
         <v>412</v>
       </c>
       <c r="B307" s="1">
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2">
+        <v>33000.0</v>
+      </c>
+    </row>
+    <row r="308" spans="8:8">
       <c r="A308" t="s">
         <v>516</v>
       </c>
       <c r="B308" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="309" spans="8:8">
       <c r="A309" t="s">
         <v>517</v>
       </c>
       <c r="B309" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="310" spans="8:8">
       <c r="A310" t="s">
         <v>413</v>
       </c>
       <c r="B310" s="1">
-        <v>11550</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2">
+        <v>11550.0</v>
+      </c>
+    </row>
+    <row r="311" spans="8:8">
       <c r="A311" t="s">
         <v>414</v>
       </c>
       <c r="B311" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="312" spans="8:8">
       <c r="A312" t="s">
         <v>498</v>
       </c>
       <c r="B312" s="1">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2">
+        <v>1650.0</v>
+      </c>
+    </row>
+    <row r="313" spans="8:8">
       <c r="A313" t="s">
         <v>415</v>
       </c>
       <c r="B313" s="1">
-        <v>4950</v>
+        <v>4950.0</v>
       </c>
     </row>
   </sheetData>
@@ -5000,20 +5000,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B112"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" defaultColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="64.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="1" bestFit="1" width="64.63281" style="0"/>
+    <col min="2" max="2" customWidth="1" bestFit="1" width="11.0" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="8:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5021,892 +5021,892 @@
         <v>529</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="8:8">
+      <c r="A2" s="6" t="s">
         <v>533</v>
       </c>
       <c r="B2" s="1">
-        <v>46200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
+        <v>46200.0</v>
+      </c>
+    </row>
+    <row r="3" spans="8:8">
+      <c r="A3" s="7" t="s">
         <v>134</v>
       </c>
       <c r="B3" s="1">
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="7" t="s">
+        <v>66000.0</v>
+      </c>
+    </row>
+    <row r="4" spans="8:8">
+      <c r="A4" s="8" t="s">
         <v>638</v>
       </c>
       <c r="B4" s="1">
-        <v>59400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="7" t="s">
+        <v>59400.0</v>
+      </c>
+    </row>
+    <row r="5" spans="8:8">
+      <c r="A5" s="8" t="s">
         <v>176</v>
       </c>
       <c r="B5" s="1">
-        <v>39600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="7" t="s">
+        <v>39600.0</v>
+      </c>
+    </row>
+    <row r="6" spans="8:8">
+      <c r="A6" s="8" t="s">
         <v>639</v>
       </c>
       <c r="B6" s="1">
-        <v>39600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="36" t="s">
+        <v>39600.0</v>
+      </c>
+    </row>
+    <row r="7" spans="8:8">
+      <c r="A7" s="9" t="s">
         <v>651</v>
       </c>
       <c r="B7" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="5" t="s">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="8" spans="8:8">
+      <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="8" t="s">
+        <v>13200.0</v>
+      </c>
+    </row>
+    <row r="9" spans="8:8">
+      <c r="A9" s="10" t="s">
         <v>534</v>
       </c>
       <c r="B9" s="1">
-        <v>26400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="9" t="s">
+        <v>26400.0</v>
+      </c>
+    </row>
+    <row r="10" spans="8:8">
+      <c r="A10" s="11" t="s">
         <v>135</v>
       </c>
       <c r="B10" s="1">
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="5" t="s">
+        <v>13200.0</v>
+      </c>
+    </row>
+    <row r="11" spans="8:8">
+      <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="9" t="s">
+        <v>6600.0</v>
+      </c>
+    </row>
+    <row r="12" spans="8:8">
+      <c r="A12" s="11" t="s">
         <v>470</v>
       </c>
       <c r="B12" s="1">
-        <v>26400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="9" t="s">
+        <v>26400.0</v>
+      </c>
+    </row>
+    <row r="13" spans="8:8">
+      <c r="A13" s="11" t="s">
         <v>174</v>
       </c>
       <c r="B13" s="1">
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="8" t="s">
+        <v>33000.0</v>
+      </c>
+    </row>
+    <row r="14" spans="8:8">
+      <c r="A14" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="1">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>8250.0</v>
+      </c>
+    </row>
+    <row r="15" spans="8:8">
       <c r="A15" t="s">
         <v>136</v>
       </c>
       <c r="B15" s="1">
-        <v>18150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="10" t="s">
+        <v>18150.0</v>
+      </c>
+    </row>
+    <row r="16" spans="8:8">
+      <c r="A16" s="12" t="s">
         <v>524</v>
       </c>
       <c r="B16" s="1">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="5" t="s">
+        <v>19800.0</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8">
+      <c r="A17" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="1">
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="5" t="s">
+        <v>33000.0</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8">
+      <c r="A18" s="6" t="s">
         <v>535</v>
       </c>
       <c r="B18" s="1">
-        <v>23100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="5" t="s">
+        <v>23100.0</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8">
+      <c r="A19" s="6" t="s">
         <v>536</v>
       </c>
       <c r="B19" s="1">
-        <v>26400</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="5" t="s">
+        <v>26400.0</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8">
+      <c r="A20" s="6" t="s">
         <v>443</v>
       </c>
       <c r="B20" s="1">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>330.0</v>
+      </c>
+    </row>
+    <row r="21" spans="8:8">
       <c r="A21" t="s">
         <v>444</v>
       </c>
       <c r="B21" s="1">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="5" t="s">
+        <v>330.0</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8">
+      <c r="A22" s="6" t="s">
         <v>438</v>
       </c>
       <c r="B22" s="1">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="5" t="s">
+        <v>330.0</v>
+      </c>
+    </row>
+    <row r="23" spans="8:8">
+      <c r="A23" s="6" t="s">
         <v>480</v>
       </c>
       <c r="B23" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="5" t="s">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="24" spans="8:8">
+      <c r="A24" s="6" t="s">
         <v>537</v>
       </c>
       <c r="B24" s="1">
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="5" t="s">
+        <v>13200.0</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8">
+      <c r="A25" s="6" t="s">
         <v>538</v>
       </c>
       <c r="B25" s="1">
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="5" t="s">
+        <v>13200.0</v>
+      </c>
+    </row>
+    <row r="26" spans="8:8">
+      <c r="A26" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="5" t="s">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="27" spans="8:8">
+      <c r="A27" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B27" s="1">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="5" t="s">
+        <v>825.0</v>
+      </c>
+    </row>
+    <row r="28" spans="8:8">
+      <c r="A28" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B28" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="5" t="s">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="29" spans="8:8">
+      <c r="A29" s="6" t="s">
         <v>474</v>
       </c>
       <c r="B29" s="1">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="5" t="s">
+        <v>2310.0</v>
+      </c>
+    </row>
+    <row r="30" spans="8:8">
+      <c r="A30" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="1">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="11" t="s">
+        <v>8250.0</v>
+      </c>
+    </row>
+    <row r="31" spans="8:8">
+      <c r="A31" s="13" t="s">
         <v>539</v>
       </c>
       <c r="B31" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="5" t="s">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="32" spans="8:8">
+      <c r="A32" s="6" t="s">
         <v>525</v>
       </c>
       <c r="B32" s="1">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="5" t="s">
+        <v>8250.0</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8">
+      <c r="A33" s="6" t="s">
         <v>479</v>
       </c>
       <c r="B33" s="1">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="5" t="s">
+        <v>8250.0</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8">
+      <c r="A34" s="6" t="s">
         <v>481</v>
       </c>
       <c r="B34" s="1">
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="5" t="s">
+        <v>16500.0</v>
+      </c>
+    </row>
+    <row r="35" spans="8:8">
+      <c r="A35" s="6" t="s">
         <v>540</v>
       </c>
       <c r="B35" s="1">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="5" t="s">
+        <v>19800.0</v>
+      </c>
+    </row>
+    <row r="36" spans="8:8">
+      <c r="A36" s="6" t="s">
         <v>541</v>
       </c>
       <c r="B36" s="1">
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="7" t="s">
+        <v>16500.0</v>
+      </c>
+    </row>
+    <row r="37" spans="8:8">
+      <c r="A37" s="8" t="s">
         <v>542</v>
       </c>
       <c r="B37" s="1">
-        <v>23100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="12" t="s">
+        <v>23100.0</v>
+      </c>
+    </row>
+    <row r="38" spans="8:8">
+      <c r="A38" s="14" t="s">
         <v>610</v>
       </c>
       <c r="B38" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="10" t="s">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="39" spans="8:8">
+      <c r="A39" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B39" s="1">
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="5" t="s">
+        <v>13200.0</v>
+      </c>
+    </row>
+    <row r="40" spans="8:8">
+      <c r="A40" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B40" s="1">
-        <v>11550</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="5" t="s">
+        <v>11550.0</v>
+      </c>
+    </row>
+    <row r="41" spans="8:8">
+      <c r="A41" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="1">
-        <v>46200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="8" t="s">
+        <v>46200.0</v>
+      </c>
+    </row>
+    <row r="42" spans="8:8">
+      <c r="A42" s="10" t="s">
         <v>543</v>
       </c>
       <c r="B42" s="1">
-        <v>23100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="5" t="s">
+        <v>23100.0</v>
+      </c>
+    </row>
+    <row r="43" spans="8:8">
+      <c r="A43" s="6" t="s">
         <v>476</v>
       </c>
       <c r="B43" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="7" t="s">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="44" spans="8:8">
+      <c r="A44" s="8" t="s">
         <v>137</v>
       </c>
       <c r="B44" s="1">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>9900.0</v>
+      </c>
+    </row>
+    <row r="45" spans="8:8">
       <c r="A45" t="s">
         <v>544</v>
       </c>
       <c r="B45" s="1">
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="7" t="s">
+        <v>66000.0</v>
+      </c>
+    </row>
+    <row r="46" spans="8:8">
+      <c r="A46" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B46" s="1">
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="13" t="s">
+        <v>33000.0</v>
+      </c>
+    </row>
+    <row r="47" spans="8:8">
+      <c r="A47" s="15" t="s">
         <v>467</v>
       </c>
       <c r="B47" s="1">
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="7" t="s">
+        <v>33000.0</v>
+      </c>
+    </row>
+    <row r="48" spans="8:8">
+      <c r="A48" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B48" s="1">
-        <v>49500</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="12" t="s">
+        <v>49500.0</v>
+      </c>
+    </row>
+    <row r="49" spans="8:8">
+      <c r="A49" s="14" t="s">
         <v>138</v>
       </c>
       <c r="B49" s="1">
-        <v>39600</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="14" t="s">
+        <v>39600.0</v>
+      </c>
+    </row>
+    <row r="50" spans="8:8">
+      <c r="A50" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B50" s="1">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>19800.0</v>
+      </c>
+    </row>
+    <row r="51" spans="8:8">
       <c r="A51" t="s">
         <v>127</v>
       </c>
       <c r="B51" s="1">
-        <v>23100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="5" t="s">
+        <v>23100.0</v>
+      </c>
+    </row>
+    <row r="52" spans="8:8">
+      <c r="A52" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B52" s="1">
-        <v>42900</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="5" t="s">
+        <v>42900.0</v>
+      </c>
+    </row>
+    <row r="53" spans="8:8">
+      <c r="A53" s="6" t="s">
         <v>466</v>
       </c>
       <c r="B53" s="1">
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="6" t="s">
+        <v>13200.0</v>
+      </c>
+    </row>
+    <row r="54" spans="8:8">
+      <c r="A54" s="7" t="s">
         <v>611</v>
       </c>
       <c r="B54" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="15" t="s">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="55" spans="8:8">
+      <c r="A55" s="17" t="s">
         <v>545</v>
       </c>
       <c r="B55" s="1">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="9" t="s">
+        <v>19800.0</v>
+      </c>
+    </row>
+    <row r="56" spans="8:8">
+      <c r="A56" s="11" t="s">
         <v>546</v>
       </c>
       <c r="B56" s="1">
-        <v>18150</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="15" t="s">
+        <v>18150.0</v>
+      </c>
+    </row>
+    <row r="57" spans="8:8">
+      <c r="A57" s="17" t="s">
         <v>648</v>
       </c>
       <c r="B57" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="4" t="s">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="58" spans="8:8">
+      <c r="A58" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B58" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="5" t="s">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="59" spans="8:8">
+      <c r="A59" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B59" s="1">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="5" t="s">
+        <v>9900.0</v>
+      </c>
+    </row>
+    <row r="60" spans="8:8">
+      <c r="A60" s="6" t="s">
         <v>640</v>
       </c>
       <c r="B60" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="9" t="s">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="61" spans="8:8">
+      <c r="A61" s="11" t="s">
         <v>175</v>
       </c>
       <c r="B61" s="1">
-        <v>26400</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="9" t="s">
+        <v>26400.0</v>
+      </c>
+    </row>
+    <row r="62" spans="8:8">
+      <c r="A62" s="11" t="s">
         <v>531</v>
       </c>
       <c r="B62" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="5" t="s">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="63" spans="8:8">
+      <c r="A63" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B63" s="1">
-        <v>39600</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="5" t="s">
+        <v>39600.0</v>
+      </c>
+    </row>
+    <row r="64" spans="8:8">
+      <c r="A64" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B64" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="9" t="s">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="65" spans="8:8">
+      <c r="A65" s="11" t="s">
         <v>139</v>
       </c>
       <c r="B65" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="9" t="s">
+        <v>6600.0</v>
+      </c>
+    </row>
+    <row r="66" spans="8:8">
+      <c r="A66" s="11" t="s">
         <v>547</v>
       </c>
       <c r="B66" s="1">
-        <v>23100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="5" t="s">
+        <v>23100.0</v>
+      </c>
+    </row>
+    <row r="67" spans="8:8">
+      <c r="A67" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B67" s="1">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="5" t="s">
+        <v>19800.0</v>
+      </c>
+    </row>
+    <row r="68" spans="8:8">
+      <c r="A68" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B68" s="1">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="16" t="s">
+        <v>8250.0</v>
+      </c>
+    </row>
+    <row r="69" spans="8:8">
+      <c r="A69" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B69" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="5" t="s">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="70" spans="8:8">
+      <c r="A70" s="6" t="s">
         <v>548</v>
       </c>
       <c r="B70" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="5" t="s">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="71" spans="8:8">
+      <c r="A71" s="6" t="s">
         <v>549</v>
       </c>
       <c r="B71" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="8" t="s">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="72" spans="8:8">
+      <c r="A72" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B72" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="5" t="s">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="73" spans="8:8">
+      <c r="A73" s="6" t="s">
         <v>612</v>
       </c>
       <c r="B73" s="1">
-        <v>3960</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="5" t="s">
+        <v>3960.0</v>
+      </c>
+    </row>
+    <row r="74" spans="8:8">
+      <c r="A74" s="6" t="s">
         <v>600</v>
       </c>
       <c r="B74" s="1">
-        <v>14850</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="10" t="s">
+        <v>14850.0</v>
+      </c>
+    </row>
+    <row r="75" spans="8:8">
+      <c r="A75" s="12" t="s">
         <v>601</v>
       </c>
       <c r="B75" s="1">
-        <v>11550</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="17" t="s">
+        <v>11550.0</v>
+      </c>
+    </row>
+    <row r="76" spans="8:8">
+      <c r="A76" s="19" t="s">
         <v>140</v>
       </c>
       <c r="B76" s="1">
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="9" t="s">
+        <v>66000.0</v>
+      </c>
+    </row>
+    <row r="77" spans="8:8">
+      <c r="A77" s="11" t="s">
         <v>550</v>
       </c>
       <c r="B77" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="5" t="s">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="78" spans="8:8">
+      <c r="A78" s="6" t="s">
         <v>551</v>
       </c>
       <c r="B78" s="1">
-        <v>3960</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="5" t="s">
+        <v>3960.0</v>
+      </c>
+    </row>
+    <row r="79" spans="8:8">
+      <c r="A79" s="6" t="s">
         <v>111</v>
       </c>
       <c r="B79" s="1">
-        <v>59400</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="12" t="s">
+        <v>59400.0</v>
+      </c>
+    </row>
+    <row r="80" spans="8:8">
+      <c r="A80" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B80" s="1">
-        <v>59400</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="5" t="s">
+        <v>59400.0</v>
+      </c>
+    </row>
+    <row r="81" spans="8:8">
+      <c r="A81" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B81" s="1">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="5" t="s">
+        <v>19800.0</v>
+      </c>
+    </row>
+    <row r="82" spans="8:8">
+      <c r="A82" s="6" t="s">
         <v>473</v>
       </c>
       <c r="B82" s="1">
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="5" t="s">
+        <v>13200.0</v>
+      </c>
+    </row>
+    <row r="83" spans="8:8">
+      <c r="A83" s="6" t="s">
         <v>552</v>
       </c>
       <c r="B83" s="1">
-        <v>39600</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="9" t="s">
+        <v>39600.0</v>
+      </c>
+    </row>
+    <row r="84" spans="8:8">
+      <c r="A84" s="11" t="s">
         <v>126</v>
       </c>
       <c r="B84" s="1">
-        <v>23100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>23100.0</v>
+      </c>
+    </row>
+    <row r="85" spans="8:8">
       <c r="A85" t="s">
         <v>553</v>
       </c>
       <c r="B85" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="10" t="s">
+        <v>6600.0</v>
+      </c>
+    </row>
+    <row r="86" spans="8:8">
+      <c r="A86" s="12" t="s">
         <v>554</v>
       </c>
       <c r="B86" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="4" t="s">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="87" spans="8:8">
+      <c r="A87" s="5" t="s">
         <v>555</v>
       </c>
       <c r="B87" s="1">
-        <v>24750</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="4" t="s">
+        <v>24750.0</v>
+      </c>
+    </row>
+    <row r="88" spans="8:8">
+      <c r="A88" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B88" s="1">
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="4" t="s">
+        <v>16500.0</v>
+      </c>
+    </row>
+    <row r="89" spans="8:8">
+      <c r="A89" s="5" t="s">
         <v>527</v>
       </c>
       <c r="B89" s="1">
-        <v>49500</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="29">
-      <c r="A90" s="18" t="s">
+        <v>49500.0</v>
+      </c>
+    </row>
+    <row r="90" spans="8:8" ht="29.0">
+      <c r="A90" s="20" t="s">
         <v>74</v>
       </c>
       <c r="B90" s="1">
-        <v>42900</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="5" t="s">
+        <v>42900.0</v>
+      </c>
+    </row>
+    <row r="91" spans="8:8">
+      <c r="A91" s="6" t="s">
         <v>84</v>
       </c>
       <c r="B91" s="1">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="5" t="s">
+        <v>1650.0</v>
+      </c>
+    </row>
+    <row r="92" spans="8:8">
+      <c r="A92" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B92" s="1">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="5" t="s">
+        <v>2310.0</v>
+      </c>
+    </row>
+    <row r="93" spans="8:8">
+      <c r="A93" s="6" t="s">
         <v>173</v>
       </c>
       <c r="B93" s="1">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="5" t="s">
+        <v>1650.0</v>
+      </c>
+    </row>
+    <row r="94" spans="8:8">
+      <c r="A94" s="6" t="s">
         <v>141</v>
       </c>
       <c r="B94" s="1">
-        <v>11550</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="5" t="s">
+        <v>11550.0</v>
+      </c>
+    </row>
+    <row r="95" spans="8:8">
+      <c r="A95" s="6" t="s">
         <v>472</v>
       </c>
       <c r="B95" s="1">
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="9" t="s">
+        <v>13200.0</v>
+      </c>
+    </row>
+    <row r="96" spans="8:8">
+      <c r="A96" s="11" t="s">
         <v>556</v>
       </c>
       <c r="B96" s="1">
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="5" t="s">
+        <v>13200.0</v>
+      </c>
+    </row>
+    <row r="97" spans="8:8">
+      <c r="A97" s="6" t="s">
         <v>557</v>
       </c>
       <c r="B97" s="1">
-        <v>23100</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="5" t="s">
+        <v>23100.0</v>
+      </c>
+    </row>
+    <row r="98" spans="8:8">
+      <c r="A98" s="6" t="s">
         <v>477</v>
       </c>
       <c r="B98" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="19" t="s">
+        <v>6600.0</v>
+      </c>
+    </row>
+    <row r="99" spans="8:8">
+      <c r="A99" s="21" t="s">
         <v>558</v>
       </c>
       <c r="B99" s="1">
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>13200.0</v>
+      </c>
+    </row>
+    <row r="100" spans="8:8">
       <c r="A100" t="s">
         <v>4</v>
       </c>
       <c r="B100" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="101" spans="8:8">
       <c r="A101" t="s">
         <v>559</v>
       </c>
       <c r="B101" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="5" t="s">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="102" spans="8:8">
+      <c r="A102" s="6" t="s">
         <v>478</v>
       </c>
       <c r="B102" s="1">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="5" t="s">
+        <v>1650.0</v>
+      </c>
+    </row>
+    <row r="103" spans="8:8">
+      <c r="A103" s="6" t="s">
         <v>650</v>
       </c>
       <c r="B103" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="5" t="s">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="104" spans="8:8">
+      <c r="A104" s="6" t="s">
         <v>613</v>
       </c>
       <c r="B104" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="105" spans="8:8">
       <c r="A105" t="s">
         <v>560</v>
       </c>
       <c r="B105" s="1">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>9900.0</v>
+      </c>
+    </row>
+    <row r="106" spans="8:8">
       <c r="A106" t="s">
         <v>439</v>
       </c>
       <c r="B106" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="107" spans="8:8">
       <c r="A107" t="s">
         <v>605</v>
       </c>
       <c r="B107" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="108" spans="8:8">
       <c r="A108" t="s">
         <v>482</v>
       </c>
       <c r="B108" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="109" spans="8:8">
       <c r="A109" t="s">
         <v>615</v>
       </c>
       <c r="B109" s="1">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>8250.0</v>
+      </c>
+    </row>
+    <row r="110" spans="8:8">
       <c r="A110" t="s">
         <v>616</v>
       </c>
       <c r="B110" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="34" t="s">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="111" spans="8:8">
+      <c r="A111" s="4" t="s">
         <v>475</v>
       </c>
       <c r="B111" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="112" spans="8:8">
       <c r="A112" t="s">
         <v>10</v>
       </c>
       <c r="B112" s="1">
-        <v>11550</v>
+        <v>11550.0</v>
       </c>
     </row>
   </sheetData>
@@ -5915,1665 +5915,1665 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B206"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C206"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B206"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A109">
+      <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" defaultColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="84" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="1" bestFit="1" width="84.0" style="0"/>
+    <col min="2" max="2" customWidth="1" bestFit="1" width="11.0" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="8:8">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="23" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="8:8">
+      <c r="A2" s="24" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="1">
-        <v>46200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
+        <v>46200.0</v>
+      </c>
+    </row>
+    <row r="3" spans="8:8">
+      <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="1">
-        <v>46200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="23" t="s">
+        <v>46200.0</v>
+      </c>
+    </row>
+    <row r="4" spans="8:8">
+      <c r="A4" s="25" t="s">
         <v>133</v>
       </c>
       <c r="B4" s="1">
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
+        <v>66000.0</v>
+      </c>
+    </row>
+    <row r="5" spans="8:8">
+      <c r="A5" s="5" t="s">
         <v>142</v>
       </c>
       <c r="B5" s="1">
-        <v>82500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="22" t="s">
+        <v>82500.0</v>
+      </c>
+    </row>
+    <row r="6" spans="8:8">
+      <c r="A6" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="1">
-        <v>52800</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="22" t="s">
+        <v>52800.0</v>
+      </c>
+    </row>
+    <row r="7" spans="8:8">
+      <c r="A7" s="24" t="s">
         <v>627</v>
       </c>
       <c r="B7" s="1">
-        <v>59400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="4" t="s">
+        <v>59400.0</v>
+      </c>
+    </row>
+    <row r="8" spans="8:8">
+      <c r="A8" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B8" s="1">
-        <v>59400</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="24" t="s">
+        <v>59400.0</v>
+      </c>
+    </row>
+    <row r="9" spans="8:8">
+      <c r="A9" s="26" t="s">
         <v>177</v>
       </c>
       <c r="B9" s="1">
-        <v>39600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="34" t="s">
+        <v>39600.0</v>
+      </c>
+    </row>
+    <row r="10" spans="8:8">
+      <c r="A10" s="4" t="s">
         <v>651</v>
       </c>
       <c r="B10" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="4" t="s">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="11" spans="8:8">
+      <c r="A11" s="5" t="s">
         <v>561</v>
       </c>
       <c r="B11" s="1">
-        <v>26400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="4" t="s">
+        <v>26400.0</v>
+      </c>
+    </row>
+    <row r="12" spans="8:8">
+      <c r="A12" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B12" s="1">
-        <v>11550</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="4" t="s">
+        <v>11550.0</v>
+      </c>
+    </row>
+    <row r="13" spans="8:8">
+      <c r="A13" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B13" s="1">
-        <v>11550</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="4" t="s">
+        <v>11550.0</v>
+      </c>
+    </row>
+    <row r="14" spans="8:8">
+      <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="1">
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="4" t="s">
+        <v>13200.0</v>
+      </c>
+    </row>
+    <row r="15" spans="8:8">
+      <c r="A15" s="5" t="s">
         <v>470</v>
       </c>
       <c r="B15" s="1">
-        <v>26400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="4" t="s">
+        <v>26400.0</v>
+      </c>
+    </row>
+    <row r="16" spans="8:8">
+      <c r="A16" s="5" t="s">
         <v>174</v>
       </c>
       <c r="B16" s="1">
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="4" t="s">
+        <v>33000.0</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8">
+      <c r="A17" s="5" t="s">
         <v>94</v>
       </c>
       <c r="B17" s="1">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="4" t="s">
+        <v>8250.0</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8">
+      <c r="A18" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="1">
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="24" t="s">
+        <v>13200.0</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8">
+      <c r="A19" s="26" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="1">
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="4" t="s">
+        <v>13200.0</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8">
+      <c r="A20" s="5" t="s">
         <v>132</v>
       </c>
       <c r="B20" s="1">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="4" t="s">
+        <v>19800.0</v>
+      </c>
+    </row>
+    <row r="21" spans="8:8">
+      <c r="A21" s="5" t="s">
         <v>145</v>
       </c>
       <c r="B21" s="1">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>19800.0</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8">
       <c r="A22" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="1">
-        <v>26400</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="4" t="s">
+        <v>26400.0</v>
+      </c>
+    </row>
+    <row r="23" spans="8:8">
+      <c r="A23" s="5" t="s">
         <v>523</v>
       </c>
       <c r="B23" s="1">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>19800.0</v>
+      </c>
+    </row>
+    <row r="24" spans="8:8">
       <c r="A24" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="1">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="23" t="s">
+        <v>19800.0</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8">
+      <c r="A25" s="25" t="s">
         <v>169</v>
       </c>
       <c r="B25" s="1">
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="4" t="s">
+        <v>33000.0</v>
+      </c>
+    </row>
+    <row r="26" spans="8:8">
+      <c r="A26" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="1">
-        <v>14850</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="4" t="s">
+        <v>14850.0</v>
+      </c>
+    </row>
+    <row r="27" spans="8:8">
+      <c r="A27" s="5" t="s">
         <v>443</v>
       </c>
       <c r="B27" s="1">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>330.0</v>
+      </c>
+    </row>
+    <row r="28" spans="8:8">
       <c r="A28" t="s">
         <v>444</v>
       </c>
       <c r="B28" s="1">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="4" t="s">
+        <v>330.0</v>
+      </c>
+    </row>
+    <row r="29" spans="8:8">
+      <c r="A29" s="5" t="s">
         <v>438</v>
       </c>
       <c r="B29" s="1">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="4" t="s">
+        <v>330.0</v>
+      </c>
+    </row>
+    <row r="30" spans="8:8">
+      <c r="A30" s="5" t="s">
         <v>562</v>
       </c>
       <c r="B30" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="4" t="s">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="31" spans="8:8">
+      <c r="A31" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B31" s="1">
-        <v>26400</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="4" t="s">
+        <v>26400.0</v>
+      </c>
+    </row>
+    <row r="32" spans="8:8">
+      <c r="A32" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B32" s="1">
-        <v>26400</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="4" t="s">
+        <v>26400.0</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8">
+      <c r="A33" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B33" s="1">
-        <v>26400</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="4" t="s">
+        <v>26400.0</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8">
+      <c r="A34" s="5" t="s">
         <v>146</v>
       </c>
       <c r="B34" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="4" t="s">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="35" spans="8:8">
+      <c r="A35" s="5" t="s">
         <v>147</v>
       </c>
       <c r="B35" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="4" t="s">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="36" spans="8:8">
+      <c r="A36" s="5" t="s">
         <v>98</v>
       </c>
       <c r="B36" s="1">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="4" t="s">
+        <v>1650.0</v>
+      </c>
+    </row>
+    <row r="37" spans="8:8">
+      <c r="A37" s="5" t="s">
         <v>485</v>
       </c>
       <c r="B37" s="1">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="25" t="s">
+        <v>2310.0</v>
+      </c>
+    </row>
+    <row r="38" spans="8:8">
+      <c r="A38" s="27" t="s">
         <v>563</v>
       </c>
       <c r="B38" s="1">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="4" t="s">
+        <v>2310.0</v>
+      </c>
+    </row>
+    <row r="39" spans="8:8">
+      <c r="A39" s="5" t="s">
         <v>148</v>
       </c>
       <c r="B39" s="1">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="4" t="s">
+        <v>9900.0</v>
+      </c>
+    </row>
+    <row r="40" spans="8:8">
+      <c r="A40" s="5" t="s">
         <v>564</v>
       </c>
       <c r="B40" s="1">
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="4" t="s">
+        <v>13200.0</v>
+      </c>
+    </row>
+    <row r="41" spans="8:8">
+      <c r="A41" s="5" t="s">
         <v>492</v>
       </c>
       <c r="B41" s="1">
-        <v>26400</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="23" t="s">
+        <v>26400.0</v>
+      </c>
+    </row>
+    <row r="42" spans="8:8">
+      <c r="A42" s="25" t="s">
         <v>493</v>
       </c>
       <c r="B42" s="1">
-        <v>29700</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="4" t="s">
+        <v>29700.0</v>
+      </c>
+    </row>
+    <row r="43" spans="8:8">
+      <c r="A43" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B43" s="1">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="4" t="s">
+        <v>8250.0</v>
+      </c>
+    </row>
+    <row r="44" spans="8:8">
+      <c r="A44" s="5" t="s">
         <v>645</v>
       </c>
       <c r="B44" s="1">
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="4" t="s">
+        <v>33000.0</v>
+      </c>
+    </row>
+    <row r="45" spans="8:8">
+      <c r="A45" s="5" t="s">
         <v>646</v>
       </c>
       <c r="B45" s="1">
-        <v>24750</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="22" t="s">
+        <v>24750.0</v>
+      </c>
+    </row>
+    <row r="46" spans="8:8">
+      <c r="A46" s="24" t="s">
         <v>150</v>
       </c>
       <c r="B46" s="1">
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="4" t="s">
+        <v>13200.0</v>
+      </c>
+    </row>
+    <row r="47" spans="8:8">
+      <c r="A47" s="5" t="s">
         <v>610</v>
       </c>
       <c r="B47" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="4" t="s">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="48" spans="8:8">
+      <c r="A48" s="5" t="s">
         <v>151</v>
       </c>
       <c r="B48" s="1">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="25" t="s">
+        <v>8250.0</v>
+      </c>
+    </row>
+    <row r="49" spans="8:8">
+      <c r="A49" s="27" t="s">
         <v>100</v>
       </c>
       <c r="B49" s="1">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="4" t="s">
+        <v>9900.0</v>
+      </c>
+    </row>
+    <row r="50" spans="8:8">
+      <c r="A50" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B50" s="1">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="4" t="s">
+        <v>19800.0</v>
+      </c>
+    </row>
+    <row r="51" spans="8:8">
+      <c r="A51" s="5" t="s">
         <v>618</v>
       </c>
       <c r="B51" s="1">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="4" t="s">
+        <v>9900.0</v>
+      </c>
+    </row>
+    <row r="52" spans="8:8">
+      <c r="A52" s="5" t="s">
         <v>129</v>
       </c>
       <c r="B52" s="1">
-        <v>11550</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="4" t="s">
+        <v>11550.0</v>
+      </c>
+    </row>
+    <row r="53" spans="8:8">
+      <c r="A53" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B53" s="1">
-        <v>52800</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="24" t="s">
+        <v>52800.0</v>
+      </c>
+    </row>
+    <row r="54" spans="8:8">
+      <c r="A54" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B54" s="1">
-        <v>52800</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="4" t="s">
+        <v>52800.0</v>
+      </c>
+    </row>
+    <row r="55" spans="8:8">
+      <c r="A55" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B55" s="1">
-        <v>52800</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="4" t="s">
+        <v>52800.0</v>
+      </c>
+    </row>
+    <row r="56" spans="8:8">
+      <c r="A56" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B56" s="1">
-        <v>52800</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="4" t="s">
+        <v>52800.0</v>
+      </c>
+    </row>
+    <row r="57" spans="8:8">
+      <c r="A57" s="5" t="s">
         <v>131</v>
       </c>
       <c r="B57" s="1">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="4" t="s">
+        <v>9900.0</v>
+      </c>
+    </row>
+    <row r="58" spans="8:8">
+      <c r="A58" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B58" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="4" t="s">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="59" spans="8:8">
+      <c r="A59" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B59" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="4" t="s">
+        <v>6600.0</v>
+      </c>
+    </row>
+    <row r="60" spans="8:8">
+      <c r="A60" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B60" s="1">
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="4" t="s">
+        <v>13200.0</v>
+      </c>
+    </row>
+    <row r="61" spans="8:8">
+      <c r="A61" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B61" s="1">
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="4" t="s">
+        <v>13200.0</v>
+      </c>
+    </row>
+    <row r="62" spans="8:8">
+      <c r="A62" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B62" s="1">
-        <v>49500</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="4" t="s">
+        <v>49500.0</v>
+      </c>
+    </row>
+    <row r="63" spans="8:8">
+      <c r="A63" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B63" s="1">
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="4" t="s">
+        <v>66000.0</v>
+      </c>
+    </row>
+    <row r="64" spans="8:8">
+      <c r="A64" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B64" s="1">
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="4" t="s">
+        <v>16500.0</v>
+      </c>
+    </row>
+    <row r="65" spans="8:8">
+      <c r="A65" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B65" s="1">
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="4" t="s">
+        <v>33000.0</v>
+      </c>
+    </row>
+    <row r="66" spans="8:8">
+      <c r="A66" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B66" s="1">
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="4" t="s">
+        <v>33000.0</v>
+      </c>
+    </row>
+    <row r="67" spans="8:8">
+      <c r="A67" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B67" s="1">
-        <v>52800</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="4" t="s">
+        <v>52800.0</v>
+      </c>
+    </row>
+    <row r="68" spans="8:8">
+      <c r="A68" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B68" s="1">
-        <v>52800</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="4" t="s">
+        <v>52800.0</v>
+      </c>
+    </row>
+    <row r="69" spans="8:8">
+      <c r="A69" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B69" s="1">
-        <v>82500</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="4" t="s">
+        <v>82500.0</v>
+      </c>
+    </row>
+    <row r="70" spans="8:8">
+      <c r="A70" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B70" s="1">
-        <v>82500</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>82500.0</v>
+      </c>
+    </row>
+    <row r="71" spans="8:8">
       <c r="A71" t="s">
         <v>52</v>
       </c>
       <c r="B71" s="1">
-        <v>75900</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="4" t="s">
+        <v>75900.0</v>
+      </c>
+    </row>
+    <row r="72" spans="8:8">
+      <c r="A72" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B72" s="1">
-        <v>82500</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="4" t="s">
+        <v>82500.0</v>
+      </c>
+    </row>
+    <row r="73" spans="8:8">
+      <c r="A73" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B73" s="1">
-        <v>82500</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="4" t="s">
+        <v>82500.0</v>
+      </c>
+    </row>
+    <row r="74" spans="8:8">
+      <c r="A74" s="5" t="s">
         <v>520</v>
       </c>
       <c r="B74" s="1">
-        <v>82500</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="4" t="s">
+        <v>82500.0</v>
+      </c>
+    </row>
+    <row r="75" spans="8:8">
+      <c r="A75" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B75" s="1">
-        <v>49500</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="4" t="s">
+        <v>49500.0</v>
+      </c>
+    </row>
+    <row r="76" spans="8:8">
+      <c r="A76" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B76" s="1">
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>66000.0</v>
+      </c>
+    </row>
+    <row r="77" spans="8:8">
       <c r="A77" t="s">
         <v>58</v>
       </c>
       <c r="B77" s="1">
-        <v>72600</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="4" t="s">
+        <v>72600.0</v>
+      </c>
+    </row>
+    <row r="78" spans="8:8">
+      <c r="A78" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B78" s="1">
-        <v>72600</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="25" t="s">
+        <v>72600.0</v>
+      </c>
+    </row>
+    <row r="79" spans="8:8">
+      <c r="A79" s="27" t="s">
         <v>61</v>
       </c>
       <c r="B79" s="1">
-        <v>72600</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="4" t="s">
+        <v>72600.0</v>
+      </c>
+    </row>
+    <row r="80" spans="8:8">
+      <c r="A80" s="5" t="s">
         <v>521</v>
       </c>
       <c r="B80" s="1">
-        <v>23100</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="26" t="s">
+        <v>23100.0</v>
+      </c>
+    </row>
+    <row r="81" spans="8:8">
+      <c r="A81" s="28" t="s">
         <v>565</v>
       </c>
       <c r="B81" s="1">
-        <v>23100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="4" t="s">
+        <v>23100.0</v>
+      </c>
+    </row>
+    <row r="82" spans="8:8">
+      <c r="A82" s="5" t="s">
         <v>153</v>
       </c>
       <c r="B82" s="1">
-        <v>23100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="4" t="s">
+        <v>23100.0</v>
+      </c>
+    </row>
+    <row r="83" spans="8:8">
+      <c r="A83" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B83" s="1">
-        <v>46200</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="4" t="s">
+        <v>46200.0</v>
+      </c>
+    </row>
+    <row r="84" spans="8:8">
+      <c r="A84" s="5" t="s">
         <v>603</v>
       </c>
       <c r="B84" s="1">
-        <v>46200</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="4" t="s">
+        <v>46200.0</v>
+      </c>
+    </row>
+    <row r="85" spans="8:8">
+      <c r="A85" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B85" s="1">
-        <v>59400</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="4" t="s">
+        <v>59400.0</v>
+      </c>
+    </row>
+    <row r="86" spans="8:8">
+      <c r="A86" s="5" t="s">
         <v>566</v>
       </c>
       <c r="B86" s="1">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="4" t="s">
+        <v>8250.0</v>
+      </c>
+    </row>
+    <row r="87" spans="8:8">
+      <c r="A87" s="5" t="s">
         <v>468</v>
       </c>
       <c r="B87" s="1">
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="4" t="s">
+        <v>16500.0</v>
+      </c>
+    </row>
+    <row r="88" spans="8:8">
+      <c r="A88" s="5" t="s">
         <v>567</v>
       </c>
       <c r="B88" s="1">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="4" t="s">
+        <v>8250.0</v>
+      </c>
+    </row>
+    <row r="89" spans="8:8">
+      <c r="A89" s="5" t="s">
         <v>611</v>
       </c>
       <c r="B89" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="23" t="s">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="90" spans="8:8">
+      <c r="A90" s="25" t="s">
         <v>104</v>
       </c>
       <c r="B90" s="1">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="4" t="s">
+        <v>19800.0</v>
+      </c>
+    </row>
+    <row r="91" spans="8:8">
+      <c r="A91" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B91" s="1">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="4" t="s">
+        <v>19800.0</v>
+      </c>
+    </row>
+    <row r="92" spans="8:8">
+      <c r="A92" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B92" s="1">
-        <v>39600</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="4" t="s">
+        <v>39600.0</v>
+      </c>
+    </row>
+    <row r="93" spans="8:8">
+      <c r="A93" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B93" s="1">
-        <v>49500</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="4" t="s">
+        <v>49500.0</v>
+      </c>
+    </row>
+    <row r="94" spans="8:8">
+      <c r="A94" s="5" t="s">
         <v>647</v>
       </c>
       <c r="B94" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="4" t="s">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="95" spans="8:8">
+      <c r="A95" s="5" t="s">
         <v>494</v>
       </c>
       <c r="B95" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="4" t="s">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="96" spans="8:8">
+      <c r="A96" s="5" t="s">
         <v>619</v>
       </c>
       <c r="B96" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="4" t="s">
+        <v>6600.0</v>
+      </c>
+    </row>
+    <row r="97" spans="8:8">
+      <c r="A97" s="5" t="s">
         <v>620</v>
       </c>
       <c r="B97" s="1">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="4" t="s">
+        <v>9900.0</v>
+      </c>
+    </row>
+    <row r="98" spans="8:8">
+      <c r="A98" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B98" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="4" t="s">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="99" spans="8:8">
+      <c r="A99" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B99" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="4" t="s">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="100" spans="8:8">
+      <c r="A100" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B100" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="27" t="s">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="101" spans="8:8">
+      <c r="A101" s="29" t="s">
         <v>621</v>
       </c>
       <c r="B101" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="4" t="s">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="102" spans="8:8">
+      <c r="A102" s="5" t="s">
         <v>622</v>
       </c>
       <c r="B102" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="4" t="s">
+        <v>6600.0</v>
+      </c>
+    </row>
+    <row r="103" spans="8:8">
+      <c r="A103" s="5" t="s">
         <v>175</v>
       </c>
       <c r="B103" s="1">
-        <v>26400</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="28" t="s">
+        <v>26400.0</v>
+      </c>
+    </row>
+    <row r="104" spans="8:8">
+      <c r="A104" s="30" t="s">
         <v>464</v>
       </c>
       <c r="B104" s="1">
-        <v>26400</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>26400.0</v>
+      </c>
+    </row>
+    <row r="105" spans="8:8">
       <c r="A105" t="s">
         <v>531</v>
       </c>
       <c r="B105" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="4" t="s">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="106" spans="8:8">
+      <c r="A106" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B106" s="1">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="4" t="s">
+        <v>8250.0</v>
+      </c>
+    </row>
+    <row r="107" spans="8:8">
+      <c r="A107" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B107" s="1">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="4" t="s">
+        <v>8250.0</v>
+      </c>
+    </row>
+    <row r="108" spans="8:8">
+      <c r="A108" s="5" t="s">
         <v>168</v>
       </c>
       <c r="B108" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="4" t="s">
+        <v>6600.0</v>
+      </c>
+    </row>
+    <row r="109" spans="8:8">
+      <c r="A109" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B109" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="4" t="s">
+        <v>6600.0</v>
+      </c>
+    </row>
+    <row r="110" spans="8:8">
+      <c r="A110" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B110" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="4" t="s">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="111" spans="8:8">
+      <c r="A111" s="5" t="s">
         <v>623</v>
       </c>
       <c r="B111" s="1">
-        <v>46200</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="4" t="s">
+        <v>46200.0</v>
+      </c>
+    </row>
+    <row r="112" spans="8:8">
+      <c r="A112" s="5" t="s">
         <v>526</v>
       </c>
       <c r="B112" s="1">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="4" t="s">
+        <v>19800.0</v>
+      </c>
+    </row>
+    <row r="113" spans="8:8">
+      <c r="A113" s="5" t="s">
         <v>499</v>
       </c>
       <c r="B113" s="1">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="4" t="s">
+        <v>19800.0</v>
+      </c>
+    </row>
+    <row r="114" spans="8:8">
+      <c r="A114" s="5" t="s">
         <v>490</v>
       </c>
       <c r="B114" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="4" t="s">
+        <v>6600.0</v>
+      </c>
+    </row>
+    <row r="115" spans="8:8">
+      <c r="A115" s="5" t="s">
         <v>489</v>
       </c>
       <c r="B115" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="4" t="s">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="116" spans="8:8">
+      <c r="A116" s="5" t="s">
         <v>491</v>
       </c>
       <c r="B116" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="4" t="s">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="117" spans="8:8">
+      <c r="A117" s="5" t="s">
         <v>488</v>
       </c>
       <c r="B117" s="1">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="4" t="s">
+        <v>8250.0</v>
+      </c>
+    </row>
+    <row r="118" spans="8:8">
+      <c r="A118" s="5" t="s">
         <v>154</v>
       </c>
       <c r="B118" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="4" t="s">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="119" spans="8:8">
+      <c r="A119" s="5" t="s">
         <v>487</v>
       </c>
       <c r="B119" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="24" t="s">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="120" spans="8:8">
+      <c r="A120" s="26" t="s">
         <v>155</v>
       </c>
       <c r="B120" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="4" t="s">
-        <v>71</v>
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="121" spans="8:8" ht="15.2">
+      <c r="A121" s="5" t="s">
+        <v>653</v>
       </c>
       <c r="B121" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="4" t="s">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="122" spans="8:8">
+      <c r="A122" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B122" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="123" spans="8:8">
       <c r="A123" t="s">
         <v>106</v>
       </c>
       <c r="B123" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="4" t="s">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="124" spans="8:8">
+      <c r="A124" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B124" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="4" t="s">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="125" spans="8:8">
+      <c r="A125" s="5" t="s">
         <v>612</v>
       </c>
       <c r="B125" s="1">
-        <v>3960</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="4" t="s">
+        <v>3960.0</v>
+      </c>
+    </row>
+    <row r="126" spans="8:8">
+      <c r="A126" s="5" t="s">
         <v>568</v>
       </c>
       <c r="B126" s="1">
-        <v>14850</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="4" t="s">
+        <v>14850.0</v>
+      </c>
+    </row>
+    <row r="127" spans="8:8">
+      <c r="A127" s="5" t="s">
         <v>602</v>
       </c>
       <c r="B127" s="1">
-        <v>11550</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="4" t="s">
+        <v>11550.0</v>
+      </c>
+    </row>
+    <row r="128" spans="8:8">
+      <c r="A128" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B128" s="1">
-        <v>82500</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="29" t="s">
+        <v>82500.0</v>
+      </c>
+    </row>
+    <row r="129" spans="8:8">
+      <c r="A129" s="31" t="s">
         <v>130</v>
       </c>
       <c r="B129" s="1">
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="4" t="s">
+        <v>66000.0</v>
+      </c>
+    </row>
+    <row r="130" spans="8:8">
+      <c r="A130" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B130" s="1">
-        <v>49500</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="4" t="s">
+        <v>49500.0</v>
+      </c>
+    </row>
+    <row r="131" spans="8:8">
+      <c r="A131" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B131" s="1">
-        <v>49500</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="4" t="s">
+        <v>49500.0</v>
+      </c>
+    </row>
+    <row r="132" spans="8:8">
+      <c r="A132" s="5" t="s">
         <v>518</v>
       </c>
       <c r="B132" s="1">
-        <v>46200</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="4" t="s">
+        <v>46200.0</v>
+      </c>
+    </row>
+    <row r="133" spans="8:8">
+      <c r="A133" s="5" t="s">
         <v>110</v>
       </c>
       <c r="B133" s="1">
-        <v>39600</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="4" t="s">
+        <v>39600.0</v>
+      </c>
+    </row>
+    <row r="134" spans="8:8">
+      <c r="A134" s="5" t="s">
         <v>569</v>
       </c>
       <c r="B134" s="1">
-        <v>3960</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="25" t="s">
+        <v>3960.0</v>
+      </c>
+    </row>
+    <row r="135" spans="8:8">
+      <c r="A135" s="27" t="s">
         <v>112</v>
       </c>
       <c r="B135" s="1">
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="4" t="s">
+        <v>66000.0</v>
+      </c>
+    </row>
+    <row r="136" spans="8:8">
+      <c r="A136" s="5" t="s">
         <v>113</v>
       </c>
       <c r="B136" s="1">
-        <v>75900</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="30" t="s">
+        <v>75900.0</v>
+      </c>
+    </row>
+    <row r="137" spans="8:8">
+      <c r="A137" s="32" t="s">
         <v>114</v>
       </c>
       <c r="B137" s="1">
-        <v>115500</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="4" t="s">
+        <v>115500.0</v>
+      </c>
+    </row>
+    <row r="138" spans="8:8">
+      <c r="A138" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B138" s="1">
-        <v>59400</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="4" t="s">
+        <v>59400.0</v>
+      </c>
+    </row>
+    <row r="139" spans="8:8">
+      <c r="A139" s="5" t="s">
         <v>483</v>
       </c>
       <c r="B139" s="1">
-        <v>59400</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="4" t="s">
+        <v>59400.0</v>
+      </c>
+    </row>
+    <row r="140" spans="8:8">
+      <c r="A140" s="5" t="s">
         <v>624</v>
       </c>
       <c r="B140" s="1">
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="4" t="s">
+        <v>66000.0</v>
+      </c>
+    </row>
+    <row r="141" spans="8:8">
+      <c r="A141" s="5" t="s">
         <v>157</v>
       </c>
       <c r="B141" s="1">
-        <v>11550</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
+        <v>11550.0</v>
+      </c>
+    </row>
+    <row r="142" spans="8:8">
       <c r="A142" t="s">
         <v>158</v>
       </c>
       <c r="B142" s="1">
-        <v>11550</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="4" t="s">
+        <v>11550.0</v>
+      </c>
+    </row>
+    <row r="143" spans="8:8">
+      <c r="A143" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B143" s="1">
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="4" t="s">
+        <v>13200.0</v>
+      </c>
+    </row>
+    <row r="144" spans="8:8">
+      <c r="A144" s="5" t="s">
         <v>570</v>
       </c>
       <c r="B144" s="1">
-        <v>39600</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="4" t="s">
+        <v>39600.0</v>
+      </c>
+    </row>
+    <row r="145" spans="8:8">
+      <c r="A145" s="5" t="s">
         <v>159</v>
       </c>
       <c r="B145" s="1">
-        <v>23100</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="4" t="s">
+        <v>23100.0</v>
+      </c>
+    </row>
+    <row r="146" spans="8:8">
+      <c r="A146" s="5" t="s">
         <v>571</v>
       </c>
       <c r="B146" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="4" t="s">
+        <v>6600.0</v>
+      </c>
+    </row>
+    <row r="147" spans="8:8">
+      <c r="A147" s="5" t="s">
         <v>160</v>
       </c>
       <c r="B147" s="1">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="4" t="s">
+        <v>19800.0</v>
+      </c>
+    </row>
+    <row r="148" spans="8:8">
+      <c r="A148" s="5" t="s">
         <v>625</v>
       </c>
       <c r="B148" s="1">
-        <v>11550</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="4" t="s">
+        <v>11550.0</v>
+      </c>
+    </row>
+    <row r="149" spans="8:8">
+      <c r="A149" s="5" t="s">
         <v>161</v>
       </c>
       <c r="B149" s="1">
-        <v>14850</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="4" t="s">
+        <v>14850.0</v>
+      </c>
+    </row>
+    <row r="150" spans="8:8">
+      <c r="A150" s="5" t="s">
         <v>115</v>
       </c>
       <c r="B150" s="1">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="4" t="s">
+        <v>8250.0</v>
+      </c>
+    </row>
+    <row r="151" spans="8:8">
+      <c r="A151" s="5" t="s">
         <v>572</v>
       </c>
       <c r="B151" s="1">
-        <v>24750</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="4" t="s">
+        <v>24750.0</v>
+      </c>
+    </row>
+    <row r="152" spans="8:8">
+      <c r="A152" s="5" t="s">
         <v>162</v>
       </c>
       <c r="B152" s="1">
-        <v>14850</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="4" t="s">
+        <v>14850.0</v>
+      </c>
+    </row>
+    <row r="153" spans="8:8">
+      <c r="A153" s="5" t="s">
         <v>528</v>
       </c>
       <c r="B153" s="1">
-        <v>49500</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="4" t="s">
+        <v>49500.0</v>
+      </c>
+    </row>
+    <row r="154" spans="8:8">
+      <c r="A154" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B154" s="1">
-        <v>52800</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
+        <v>52800.0</v>
+      </c>
+    </row>
+    <row r="155" spans="8:8">
       <c r="A155" t="s">
         <v>163</v>
       </c>
       <c r="B155" s="1">
-        <v>49500</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="4" t="s">
+        <v>49500.0</v>
+      </c>
+    </row>
+    <row r="156" spans="8:8">
+      <c r="A156" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B156" s="1">
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="4" t="s">
+        <v>66000.0</v>
+      </c>
+    </row>
+    <row r="157" spans="8:8">
+      <c r="A157" s="5" t="s">
         <v>604</v>
       </c>
       <c r="B157" s="1">
-        <v>46200</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="4" t="s">
+        <v>46200.0</v>
+      </c>
+    </row>
+    <row r="158" spans="8:8">
+      <c r="A158" s="5" t="s">
         <v>606</v>
       </c>
       <c r="B158" s="1">
-        <v>59400</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="4" t="s">
+        <v>59400.0</v>
+      </c>
+    </row>
+    <row r="159" spans="8:8">
+      <c r="A159" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B159" s="1">
-        <v>42900</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="4" t="s">
+        <v>42900.0</v>
+      </c>
+    </row>
+    <row r="160" spans="8:8">
+      <c r="A160" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B160" s="1">
-        <v>26400</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="4" t="s">
+        <v>26400.0</v>
+      </c>
+    </row>
+    <row r="161" spans="8:8">
+      <c r="A161" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B161" s="1">
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="4" t="s">
+        <v>33000.0</v>
+      </c>
+    </row>
+    <row r="162" spans="8:8">
+      <c r="A162" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B162" s="1">
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="4" t="s">
+        <v>33000.0</v>
+      </c>
+    </row>
+    <row r="163" spans="8:8">
+      <c r="A163" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B163" s="1">
-        <v>39600</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="4" t="s">
+        <v>39600.0</v>
+      </c>
+    </row>
+    <row r="164" spans="8:8">
+      <c r="A164" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B164" s="1">
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="4" t="s">
+        <v>33000.0</v>
+      </c>
+    </row>
+    <row r="165" spans="8:8">
+      <c r="A165" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B165" s="1">
-        <v>39600</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="4" t="s">
+        <v>39600.0</v>
+      </c>
+    </row>
+    <row r="166" spans="8:8">
+      <c r="A166" s="5" t="s">
         <v>519</v>
       </c>
       <c r="B166" s="1">
-        <v>59400</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="27" t="s">
+        <v>59400.0</v>
+      </c>
+    </row>
+    <row r="167" spans="8:8">
+      <c r="A167" s="29" t="s">
         <v>171</v>
       </c>
       <c r="B167" s="1">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="4" t="s">
+        <v>1650.0</v>
+      </c>
+    </row>
+    <row r="168" spans="8:8">
+      <c r="A168" s="5" t="s">
         <v>172</v>
       </c>
       <c r="B168" s="1">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="4" t="s">
+        <v>2310.0</v>
+      </c>
+    </row>
+    <row r="169" spans="8:8">
+      <c r="A169" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B169" s="1">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="4" t="s">
+        <v>2640.0</v>
+      </c>
+    </row>
+    <row r="170" spans="8:8">
+      <c r="A170" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B170" s="1">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="4" t="s">
+        <v>1650.0</v>
+      </c>
+    </row>
+    <row r="171" spans="8:8">
+      <c r="A171" s="5" t="s">
         <v>118</v>
       </c>
       <c r="B171" s="1">
-        <v>82500</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="4" t="s">
+        <v>82500.0</v>
+      </c>
+    </row>
+    <row r="172" spans="8:8">
+      <c r="A172" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B172" s="1">
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" s="4" t="s">
+        <v>66000.0</v>
+      </c>
+    </row>
+    <row r="173" spans="8:8">
+      <c r="A173" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B173" s="1">
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" s="4" t="s">
+        <v>66000.0</v>
+      </c>
+    </row>
+    <row r="174" spans="8:8">
+      <c r="A174" s="5" t="s">
         <v>116</v>
       </c>
       <c r="B174" s="1">
-        <v>49500</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="4" t="s">
+        <v>49500.0</v>
+      </c>
+    </row>
+    <row r="175" spans="8:8">
+      <c r="A175" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B175" s="1">
-        <v>49500</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" s="4" t="s">
+        <v>49500.0</v>
+      </c>
+    </row>
+    <row r="176" spans="8:8">
+      <c r="A176" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B176" s="1">
-        <v>59400</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" s="4" t="s">
+        <v>59400.0</v>
+      </c>
+    </row>
+    <row r="177" spans="8:8">
+      <c r="A177" s="5" t="s">
         <v>122</v>
       </c>
       <c r="B177" s="1">
-        <v>59400</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" s="4" t="s">
+        <v>59400.0</v>
+      </c>
+    </row>
+    <row r="178" spans="8:8">
+      <c r="A178" s="5" t="s">
         <v>164</v>
       </c>
       <c r="B178" s="1">
-        <v>11550</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" s="4" t="s">
+        <v>11550.0</v>
+      </c>
+    </row>
+    <row r="179" spans="8:8">
+      <c r="A179" s="5" t="s">
         <v>165</v>
       </c>
       <c r="B179" s="1">
-        <v>11550</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" s="4" t="s">
+        <v>11550.0</v>
+      </c>
+    </row>
+    <row r="180" spans="8:8">
+      <c r="A180" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B180" s="1">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" s="4" t="s">
+        <v>9900.0</v>
+      </c>
+    </row>
+    <row r="181" spans="8:8">
+      <c r="A181" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B181" s="1">
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" s="31" t="s">
+        <v>13200.0</v>
+      </c>
+    </row>
+    <row r="182" spans="8:8">
+      <c r="A182" s="33" t="s">
         <v>89</v>
       </c>
       <c r="B182" s="1">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
+        <v>9900.0</v>
+      </c>
+    </row>
+    <row r="183" spans="8:8">
       <c r="A183" t="s">
         <v>484</v>
       </c>
       <c r="B183" s="1">
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
+        <v>13200.0</v>
+      </c>
+    </row>
+    <row r="184" spans="8:8">
       <c r="A184" t="s">
         <v>90</v>
       </c>
       <c r="B184" s="1">
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" s="4" t="s">
+        <v>13200.0</v>
+      </c>
+    </row>
+    <row r="185" spans="8:8">
+      <c r="A185" s="5" t="s">
         <v>573</v>
       </c>
       <c r="B185" s="1">
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" s="4" t="s">
+        <v>13200.0</v>
+      </c>
+    </row>
+    <row r="186" spans="8:8">
+      <c r="A186" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B186" s="1">
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" s="4" t="s">
+        <v>13200.0</v>
+      </c>
+    </row>
+    <row r="187" spans="8:8">
+      <c r="A187" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B187" s="1">
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188" s="4" t="s">
+        <v>13200.0</v>
+      </c>
+    </row>
+    <row r="188" spans="8:8">
+      <c r="A188" s="5" t="s">
         <v>574</v>
       </c>
       <c r="B188" s="1">
-        <v>11550</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" s="4" t="s">
+        <v>11550.0</v>
+      </c>
+    </row>
+    <row r="189" spans="8:8">
+      <c r="A189" s="5" t="s">
         <v>124</v>
       </c>
       <c r="B189" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
+        <v>6600.0</v>
+      </c>
+    </row>
+    <row r="190" spans="8:8">
       <c r="A190" t="s">
         <v>125</v>
       </c>
       <c r="B190" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
+        <v>6600.0</v>
+      </c>
+    </row>
+    <row r="191" spans="8:8">
       <c r="A191" t="s">
         <v>495</v>
       </c>
       <c r="B191" s="1">
-        <v>23100</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
+        <v>23100.0</v>
+      </c>
+    </row>
+    <row r="192" spans="8:8">
       <c r="A192" t="s">
         <v>575</v>
       </c>
       <c r="B192" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="193" spans="8:8">
       <c r="A193" t="s">
         <v>650</v>
       </c>
       <c r="B193" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="194" spans="8:8">
       <c r="A194" t="s">
         <v>614</v>
       </c>
       <c r="B194" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="195" spans="8:8">
       <c r="A195" t="s">
         <v>128</v>
       </c>
       <c r="B195" s="1">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
+        <v>9900.0</v>
+      </c>
+    </row>
+    <row r="196" spans="8:8">
       <c r="A196" t="s">
         <v>439</v>
       </c>
       <c r="B196" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="197" spans="8:8">
       <c r="A197" t="s">
         <v>605</v>
       </c>
       <c r="B197" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="198" spans="8:8">
       <c r="A198" t="s">
         <v>628</v>
       </c>
       <c r="B198" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
+        <v>6600.0</v>
+      </c>
+    </row>
+    <row r="199" spans="8:8">
       <c r="A199" t="s">
         <v>626</v>
       </c>
       <c r="B199" s="1">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
+        <v>9900.0</v>
+      </c>
+    </row>
+    <row r="200" spans="8:8">
       <c r="A200" t="s">
         <v>615</v>
       </c>
       <c r="B200" s="1">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
+        <v>8250.0</v>
+      </c>
+    </row>
+    <row r="201" spans="8:8">
       <c r="A201" t="s">
         <v>616</v>
       </c>
       <c r="B201" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="202" spans="8:8">
       <c r="A202" t="s">
         <v>617</v>
       </c>
       <c r="B202" s="1">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" s="34" t="s">
+        <v>1650.0</v>
+      </c>
+    </row>
+    <row r="203" spans="8:8">
+      <c r="A203" s="4" t="s">
         <v>486</v>
       </c>
       <c r="B203" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="204" spans="8:8">
       <c r="A204" t="s">
         <v>123</v>
       </c>
       <c r="B204" s="1">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
+        <v>19800.0</v>
+      </c>
+    </row>
+    <row r="205" spans="8:8">
       <c r="A205" t="s">
         <v>166</v>
       </c>
       <c r="B205" s="1">
-        <v>11550</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
+        <v>11550.0</v>
+      </c>
+    </row>
+    <row r="206" spans="8:8">
       <c r="A206" t="s">
         <v>167</v>
       </c>
       <c r="B206" s="1">
-        <v>13200</v>
+        <v>13200.0</v>
       </c>
     </row>
   </sheetData>
@@ -7582,328 +7582,328 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B39"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView zoomScale="91" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="91">
       <selection activeCell="A2" sqref="A2:B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" defaultColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="52.08984375" customWidth="1"/>
+    <col min="1" max="1" customWidth="1" width="52.089844" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="8:8">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="23" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="8:8">
+      <c r="A2" s="34" t="s">
         <v>651</v>
       </c>
       <c r="B2" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="32" t="s">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="3" spans="8:8">
+      <c r="A3" s="35" t="s">
         <v>641</v>
       </c>
       <c r="B3" s="1">
-        <v>36300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="32" t="s">
+        <v>36300.0</v>
+      </c>
+    </row>
+    <row r="4" spans="8:8">
+      <c r="A4" s="35" t="s">
         <v>576</v>
       </c>
       <c r="B4" s="1">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="32" t="s">
+        <v>8250.0</v>
+      </c>
+    </row>
+    <row r="5" spans="8:8">
+      <c r="A5" s="35" t="s">
         <v>577</v>
       </c>
       <c r="B5" s="1">
-        <v>11550</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="32" t="s">
+        <v>11550.0</v>
+      </c>
+    </row>
+    <row r="6" spans="8:8">
+      <c r="A6" s="35" t="s">
         <v>578</v>
       </c>
       <c r="B6" s="1">
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="32" t="s">
+        <v>33000.0</v>
+      </c>
+    </row>
+    <row r="7" spans="8:8">
+      <c r="A7" s="35" t="s">
         <v>579</v>
       </c>
       <c r="B7" s="1">
-        <v>29700</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="32" t="s">
+        <v>29700.0</v>
+      </c>
+    </row>
+    <row r="8" spans="8:8">
+      <c r="A8" s="35" t="s">
         <v>610</v>
       </c>
       <c r="B8" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="32" t="s">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="9" spans="8:8">
+      <c r="A9" s="35" t="s">
         <v>580</v>
       </c>
       <c r="B9" s="1">
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="32" t="s">
+        <v>13200.0</v>
+      </c>
+    </row>
+    <row r="10" spans="8:8">
+      <c r="A10" s="35" t="s">
         <v>581</v>
       </c>
       <c r="B10" s="1">
-        <v>11550</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="32" t="s">
+        <v>11550.0</v>
+      </c>
+    </row>
+    <row r="11" spans="8:8">
+      <c r="A11" s="35" t="s">
         <v>582</v>
       </c>
       <c r="B11" s="1">
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="32" t="s">
+        <v>16500.0</v>
+      </c>
+    </row>
+    <row r="12" spans="8:8">
+      <c r="A12" s="35" t="s">
         <v>583</v>
       </c>
       <c r="B12" s="1">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="32" t="s">
+        <v>8250.0</v>
+      </c>
+    </row>
+    <row r="13" spans="8:8">
+      <c r="A13" s="35" t="s">
         <v>611</v>
       </c>
       <c r="B13" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="32" t="s">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="14" spans="8:8">
+      <c r="A14" s="35" t="s">
         <v>584</v>
       </c>
       <c r="B14" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="32" t="s">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="15" spans="8:8">
+      <c r="A15" s="35" t="s">
         <v>585</v>
       </c>
       <c r="B15" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="32" t="s">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="16" spans="8:8">
+      <c r="A16" s="35" t="s">
         <v>642</v>
       </c>
       <c r="B16" s="1">
-        <v>29700</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="32" t="s">
+        <v>29700.0</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8">
+      <c r="A17" s="35" t="s">
         <v>643</v>
       </c>
       <c r="B17" s="1">
-        <v>29700</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="32" t="s">
+        <v>29700.0</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8">
+      <c r="A18" s="35" t="s">
         <v>531</v>
       </c>
       <c r="B18" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="32" t="s">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8">
+      <c r="A19" s="35" t="s">
         <v>586</v>
       </c>
       <c r="B19" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="32" t="s">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8">
+      <c r="A20" s="35" t="s">
         <v>587</v>
       </c>
       <c r="B20" s="1">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="32" t="s">
+        <v>8250.0</v>
+      </c>
+    </row>
+    <row r="21" spans="8:8">
+      <c r="A21" s="35" t="s">
         <v>588</v>
       </c>
       <c r="B21" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="32" t="s">
+        <v>6600.0</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8">
+      <c r="A22" s="35" t="s">
         <v>589</v>
       </c>
       <c r="B22" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="32" t="s">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="23" spans="8:8">
+      <c r="A23" s="35" t="s">
         <v>590</v>
       </c>
       <c r="B23" s="1">
-        <v>39600</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="32" t="s">
+        <v>39600.0</v>
+      </c>
+    </row>
+    <row r="24" spans="8:8">
+      <c r="A24" s="35" t="s">
         <v>591</v>
       </c>
       <c r="B24" s="1">
-        <v>36300</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="32" t="s">
+        <v>36300.0</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8">
+      <c r="A25" s="35" t="s">
         <v>612</v>
       </c>
       <c r="B25" s="1">
-        <v>3960</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="32" t="s">
+        <v>3960.0</v>
+      </c>
+    </row>
+    <row r="26" spans="8:8">
+      <c r="A26" s="35" t="s">
         <v>592</v>
       </c>
       <c r="B26" s="1">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="32" t="s">
+        <v>9900.0</v>
+      </c>
+    </row>
+    <row r="27" spans="8:8">
+      <c r="A27" s="35" t="s">
         <v>593</v>
       </c>
       <c r="B27" s="1">
-        <v>29700</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>29700.0</v>
+      </c>
+    </row>
+    <row r="28" spans="8:8">
       <c r="A28" t="s">
         <v>594</v>
       </c>
       <c r="B28">
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>16500.0</v>
+      </c>
+    </row>
+    <row r="29" spans="8:8">
       <c r="A29" t="s">
         <v>595</v>
       </c>
       <c r="B29">
-        <v>14850</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>14850.0</v>
+      </c>
+    </row>
+    <row r="30" spans="8:8">
       <c r="A30" t="s">
         <v>650</v>
       </c>
       <c r="B30">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="31" spans="8:8">
       <c r="A31" t="s">
         <v>607</v>
       </c>
       <c r="B31">
-        <v>23100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>23100.0</v>
+      </c>
+    </row>
+    <row r="32" spans="8:8">
       <c r="A32" t="s">
         <v>608</v>
       </c>
       <c r="B32">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>9900.0</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8">
       <c r="A33" t="s">
         <v>439</v>
       </c>
       <c r="B33">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8">
       <c r="A34" t="s">
         <v>605</v>
       </c>
       <c r="B34">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="35" spans="8:8">
       <c r="A35" t="s">
         <v>615</v>
       </c>
       <c r="B35">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>8250.0</v>
+      </c>
+    </row>
+    <row r="36" spans="8:8">
       <c r="A36" t="s">
         <v>616</v>
       </c>
       <c r="B36">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="37" spans="8:8">
       <c r="A37" t="s">
         <v>596</v>
       </c>
       <c r="B37">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="34" t="s">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="38" spans="8:8">
+      <c r="A38" s="4" t="s">
         <v>597</v>
       </c>
       <c r="B38">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="39" spans="8:8">
       <c r="A39" t="s">
         <v>598</v>
       </c>
       <c r="B39">
-        <v>9900</v>
+        <v>9900.0</v>
       </c>
     </row>
   </sheetData>
@@ -7912,447 +7912,444 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B53"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" defaultColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="58.08984375" customWidth="1"/>
-    <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="1" width="58.089844" style="0"/>
+    <col min="2" max="2" customWidth="1" bestFit="1" width="11.0" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="8:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="36" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="8:8">
       <c r="A2" t="s">
         <v>419</v>
       </c>
       <c r="B2" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="3" spans="8:8">
       <c r="A3" t="s">
         <v>420</v>
       </c>
       <c r="B3" s="1">
-        <v>14850</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>14850.0</v>
+      </c>
+    </row>
+    <row r="4" spans="8:8">
       <c r="A4" t="s">
         <v>421</v>
       </c>
       <c r="B4" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="5" spans="8:8">
       <c r="A5" t="s">
         <v>422</v>
       </c>
       <c r="B5" s="1">
-        <v>14850</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>14850.0</v>
+      </c>
+    </row>
+    <row r="6" spans="8:8">
       <c r="A6" t="s">
         <v>423</v>
       </c>
       <c r="B6" s="1">
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>16500.0</v>
+      </c>
+    </row>
+    <row r="7" spans="8:8">
       <c r="A7" t="s">
         <v>497</v>
       </c>
       <c r="B7" s="1">
-        <v>23100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>23100.0</v>
+      </c>
+    </row>
+    <row r="8" spans="8:8">
       <c r="A8" t="s">
         <v>496</v>
       </c>
       <c r="B8" s="1">
-        <v>14850</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>14850.0</v>
+      </c>
+    </row>
+    <row r="9" spans="8:8">
       <c r="A9" t="s">
         <v>424</v>
       </c>
       <c r="B9" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="10" spans="8:8">
       <c r="A10" t="s">
         <v>442</v>
       </c>
       <c r="B10" s="1">
-        <v>3960</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>3960.0</v>
+      </c>
+    </row>
+    <row r="11" spans="8:8">
       <c r="A11" t="s">
         <v>425</v>
       </c>
       <c r="B11" s="1">
-        <v>3960</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="34" t="s">
+        <v>3960.0</v>
+      </c>
+    </row>
+    <row r="12" spans="8:8">
+      <c r="A12" s="4" t="s">
         <v>651</v>
       </c>
       <c r="B12" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="13" spans="8:8">
       <c r="A13" t="s">
         <v>470</v>
       </c>
       <c r="B13" s="1">
-        <v>26400</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>26400.0</v>
+      </c>
+    </row>
+    <row r="14" spans="8:8">
       <c r="A14" t="s">
         <v>174</v>
       </c>
       <c r="B14" s="1">
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>33000.0</v>
+      </c>
+    </row>
+    <row r="15" spans="8:8">
       <c r="A15" t="s">
         <v>641</v>
       </c>
       <c r="B15" s="1">
-        <v>36300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>36300.0</v>
+      </c>
+    </row>
+    <row r="16" spans="8:8">
       <c r="A16" t="s">
         <v>443</v>
       </c>
       <c r="B16" s="1">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>330.0</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8">
       <c r="A17" t="s">
         <v>444</v>
       </c>
       <c r="B17" s="1">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>330.0</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8">
       <c r="A18" t="s">
         <v>438</v>
       </c>
       <c r="B18" s="1">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>330.0</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8">
       <c r="A19" t="s">
         <v>469</v>
       </c>
       <c r="B19" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8">
       <c r="A20" t="s">
         <v>610</v>
       </c>
       <c r="B20" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="21" spans="8:8">
       <c r="A21" t="s">
         <v>426</v>
       </c>
       <c r="B21" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8">
       <c r="A22" t="s">
         <v>611</v>
       </c>
       <c r="B22" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="23" spans="8:8">
       <c r="A23" t="s">
         <v>440</v>
       </c>
       <c r="B23" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="24" spans="8:8">
       <c r="A24" t="s">
         <v>279</v>
       </c>
       <c r="B24" s="1">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>9900.0</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8">
       <c r="A25" t="s">
         <v>465</v>
       </c>
       <c r="B25" s="1">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>1650.0</v>
+      </c>
+    </row>
+    <row r="26" spans="8:8">
       <c r="A26" t="s">
         <v>441</v>
       </c>
       <c r="B26" s="1">
-        <v>23100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>23100.0</v>
+      </c>
+    </row>
+    <row r="27" spans="8:8">
       <c r="A27" t="s">
         <v>175</v>
       </c>
       <c r="B27" s="1">
-        <v>26400</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>26400.0</v>
+      </c>
+    </row>
+    <row r="28" spans="8:8">
       <c r="A28" t="s">
         <v>464</v>
       </c>
       <c r="B28" s="1">
-        <v>26400</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>26400.0</v>
+      </c>
+    </row>
+    <row r="29" spans="8:8">
       <c r="A29" t="s">
         <v>642</v>
       </c>
       <c r="B29" s="1">
-        <v>29700</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>29700.0</v>
+      </c>
+    </row>
+    <row r="30" spans="8:8">
       <c r="A30" t="s">
         <v>643</v>
       </c>
       <c r="B30" s="1">
-        <v>29700</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>29700.0</v>
+      </c>
+    </row>
+    <row r="31" spans="8:8">
       <c r="A31" t="s">
         <v>531</v>
       </c>
       <c r="B31" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="32" spans="8:8">
       <c r="A32" t="s">
         <v>427</v>
       </c>
       <c r="B32" s="1">
-        <v>3960</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>3960.0</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8">
       <c r="A33" t="s">
         <v>428</v>
       </c>
       <c r="B33" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8">
       <c r="A34" t="s">
         <v>429</v>
       </c>
       <c r="B34" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="35" spans="8:8">
       <c r="A35" t="s">
         <v>430</v>
       </c>
       <c r="B35" s="1">
-        <v>3960</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>3960.0</v>
+      </c>
+    </row>
+    <row r="36" spans="8:8">
       <c r="A36" t="s">
         <v>431</v>
       </c>
       <c r="B36" s="1">
-        <v>3960</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>3960.0</v>
+      </c>
+    </row>
+    <row r="37" spans="8:8">
       <c r="A37" t="s">
         <v>432</v>
       </c>
       <c r="B37" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="38" spans="8:8">
       <c r="A38" t="s">
         <v>612</v>
       </c>
       <c r="B38" s="1">
-        <v>3960</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>3960.0</v>
+      </c>
+    </row>
+    <row r="39" spans="8:8">
       <c r="A39" t="s">
         <v>599</v>
       </c>
       <c r="B39" s="1">
-        <v>5940</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>5940.0</v>
+      </c>
+    </row>
+    <row r="40" spans="8:8">
       <c r="A40" t="s">
         <v>433</v>
       </c>
       <c r="B40" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>6600.0</v>
+      </c>
+    </row>
+    <row r="41" spans="8:8">
       <c r="A41" t="s">
         <v>434</v>
       </c>
       <c r="B41" s="1">
-        <v>3960</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>3960.0</v>
+      </c>
+    </row>
+    <row r="42" spans="8:8">
       <c r="A42" t="s">
         <v>435</v>
       </c>
       <c r="B42" s="1">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>2310.0</v>
+      </c>
+    </row>
+    <row r="43" spans="8:8">
       <c r="A43" t="s">
         <v>436</v>
       </c>
       <c r="B43" s="1">
-        <v>3960</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>3960.0</v>
+      </c>
+    </row>
+    <row r="44" spans="8:8">
       <c r="A44" t="s">
         <v>644</v>
       </c>
       <c r="B44" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="45" spans="8:8">
       <c r="A45" t="s">
         <v>437</v>
       </c>
       <c r="B45" s="1">
-        <v>3960</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>3960.0</v>
+      </c>
+    </row>
+    <row r="46" spans="8:8">
       <c r="A46" t="s">
         <v>650</v>
       </c>
       <c r="B46" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="47" spans="8:8">
       <c r="A47" t="s">
         <v>613</v>
       </c>
       <c r="B47" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="48" spans="8:8">
       <c r="A48" t="s">
         <v>614</v>
       </c>
       <c r="B48" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="49" spans="8:8">
       <c r="A49" t="s">
         <v>439</v>
       </c>
       <c r="B49" s="1">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="50" spans="8:8">
       <c r="A50" t="s">
         <v>605</v>
       </c>
       <c r="B50" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="51" spans="8:8">
       <c r="A51" t="s">
         <v>615</v>
       </c>
       <c r="B51" s="1">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>8250.0</v>
+      </c>
+    </row>
+    <row r="52" spans="8:8">
       <c r="A52" t="s">
         <v>616</v>
       </c>
       <c r="B52" s="1">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="34" t="s">
+        <v>4950.0</v>
+      </c>
+    </row>
+    <row r="53" spans="8:8">
+      <c r="A53" s="4" t="s">
         <v>617</v>
       </c>
       <c r="B53" s="1">
-        <v>1650</v>
+        <v>1650.0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B53">
-    <sortCondition ref="A3:A53"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/clientes/files/TODITICO_CATÁLOGO.xlsx
+++ b/clientes/files/TODITICO_CATÁLOGO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabajo\Catálogos Proformas\Este\330 Actual\Clientes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AA8BB0-2D32-4044-AC7C-3A6F9290BBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD1B58B-C184-4C4C-930F-11086F2C3536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="671" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2492,7 +2492,7 @@
         <v>177</v>
       </c>
       <c r="B2" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2500,7 +2500,7 @@
         <v>459</v>
       </c>
       <c r="B3" s="1">
-        <v>3840</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2508,7 +2508,7 @@
         <v>178</v>
       </c>
       <c r="B4" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2516,7 +2516,7 @@
         <v>502</v>
       </c>
       <c r="B5" s="1">
-        <v>6400</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2524,7 +2524,7 @@
         <v>503</v>
       </c>
       <c r="B6" s="1">
-        <v>2240</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2532,7 +2532,7 @@
         <v>179</v>
       </c>
       <c r="B7" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2540,7 +2540,7 @@
         <v>180</v>
       </c>
       <c r="B8" s="1">
-        <v>25600</v>
+        <v>24800</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2548,7 +2548,7 @@
         <v>504</v>
       </c>
       <c r="B9" s="1">
-        <v>32000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2556,7 +2556,7 @@
         <v>181</v>
       </c>
       <c r="B10" s="1">
-        <v>38400</v>
+        <v>37200</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2564,7 +2564,7 @@
         <v>182</v>
       </c>
       <c r="B11" s="1">
-        <v>32000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2572,7 +2572,7 @@
         <v>183</v>
       </c>
       <c r="B12" s="1">
-        <v>51200</v>
+        <v>49600</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2580,7 +2580,7 @@
         <v>186</v>
       </c>
       <c r="B13" s="1">
-        <v>11200</v>
+        <v>10850</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2588,7 +2588,7 @@
         <v>184</v>
       </c>
       <c r="B14" s="1">
-        <v>48000</v>
+        <v>46500</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2596,7 +2596,7 @@
         <v>185</v>
       </c>
       <c r="B15" s="1">
-        <v>35200</v>
+        <v>34100</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2604,7 +2604,7 @@
         <v>187</v>
       </c>
       <c r="B16" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2612,7 +2612,7 @@
         <v>188</v>
       </c>
       <c r="B17" s="1">
-        <v>12800</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2620,7 +2620,7 @@
         <v>189</v>
       </c>
       <c r="B18" s="1">
-        <v>9600</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2628,7 +2628,7 @@
         <v>650</v>
       </c>
       <c r="B19" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2636,7 +2636,7 @@
         <v>505</v>
       </c>
       <c r="B20" s="1">
-        <v>1600</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2644,7 +2644,7 @@
         <v>190</v>
       </c>
       <c r="B21" s="1">
-        <v>960</v>
+        <v>930</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2652,7 +2652,7 @@
         <v>191</v>
       </c>
       <c r="B22" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2660,7 +2660,7 @@
         <v>192</v>
       </c>
       <c r="B23" s="1">
-        <v>38400</v>
+        <v>37200</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2668,7 +2668,7 @@
         <v>608</v>
       </c>
       <c r="B24" s="1">
-        <v>16000</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2676,7 +2676,7 @@
         <v>193</v>
       </c>
       <c r="B25" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2684,7 +2684,7 @@
         <v>194</v>
       </c>
       <c r="B26" s="1">
-        <v>28800</v>
+        <v>27900</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2692,7 +2692,7 @@
         <v>195</v>
       </c>
       <c r="B27" s="1">
-        <v>11200</v>
+        <v>10850</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2700,7 +2700,7 @@
         <v>196</v>
       </c>
       <c r="B28" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2708,7 +2708,7 @@
         <v>197</v>
       </c>
       <c r="B29" s="1">
-        <v>48000</v>
+        <v>46500</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2716,7 +2716,7 @@
         <v>198</v>
       </c>
       <c r="B30" s="1">
-        <v>38400</v>
+        <v>37200</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2724,7 +2724,7 @@
         <v>199</v>
       </c>
       <c r="B31" s="1">
-        <v>54400</v>
+        <v>52700</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2732,7 +2732,7 @@
         <v>200</v>
       </c>
       <c r="B32" s="1">
-        <v>9600</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2740,7 +2740,7 @@
         <v>201</v>
       </c>
       <c r="B33" s="1">
-        <v>19200</v>
+        <v>18600</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2748,7 +2748,7 @@
         <v>628</v>
       </c>
       <c r="B34" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2756,7 +2756,7 @@
         <v>202</v>
       </c>
       <c r="B35" s="1">
-        <v>9600</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2764,7 +2764,7 @@
         <v>469</v>
       </c>
       <c r="B36" s="1">
-        <v>25600</v>
+        <v>24800</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2772,7 +2772,7 @@
         <v>173</v>
       </c>
       <c r="B37" s="1">
-        <v>32000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2780,7 +2780,7 @@
         <v>203</v>
       </c>
       <c r="B38" s="1">
-        <v>8000</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2788,7 +2788,7 @@
         <v>457</v>
       </c>
       <c r="B39" s="1">
-        <v>16000</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2796,7 +2796,7 @@
         <v>445</v>
       </c>
       <c r="B40" s="1">
-        <v>3840</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2804,7 +2804,7 @@
         <v>204</v>
       </c>
       <c r="B41" s="1">
-        <v>12800</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2812,7 +2812,7 @@
         <v>205</v>
       </c>
       <c r="B42" s="1">
-        <v>25600</v>
+        <v>24800</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2820,7 +2820,7 @@
         <v>206</v>
       </c>
       <c r="B43" s="1">
-        <v>14400</v>
+        <v>13950</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2828,7 +2828,7 @@
         <v>207</v>
       </c>
       <c r="B44" s="1">
-        <v>19200</v>
+        <v>18600</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2836,7 +2836,7 @@
         <v>208</v>
       </c>
       <c r="B45" s="1">
-        <v>14400</v>
+        <v>13950</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2844,7 +2844,7 @@
         <v>209</v>
       </c>
       <c r="B46" s="1">
-        <v>6400</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2852,7 +2852,7 @@
         <v>442</v>
       </c>
       <c r="B47" s="1">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2860,7 +2860,7 @@
         <v>443</v>
       </c>
       <c r="B48" s="1">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2868,7 +2868,7 @@
         <v>437</v>
       </c>
       <c r="B49" s="1">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2876,7 +2876,7 @@
         <v>468</v>
       </c>
       <c r="B50" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2884,7 +2884,7 @@
         <v>210</v>
       </c>
       <c r="B51" s="1">
-        <v>32000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2892,7 +2892,7 @@
         <v>211</v>
       </c>
       <c r="B52" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2900,7 +2900,7 @@
         <v>212</v>
       </c>
       <c r="B53" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2908,7 +2908,7 @@
         <v>415</v>
       </c>
       <c r="B54" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2916,7 +2916,7 @@
         <v>416</v>
       </c>
       <c r="B55" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2924,7 +2924,7 @@
         <v>213</v>
       </c>
       <c r="B56" s="1">
-        <v>19200</v>
+        <v>18600</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2932,7 +2932,7 @@
         <v>214</v>
       </c>
       <c r="B57" s="1">
-        <v>12800</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2940,7 +2940,7 @@
         <v>215</v>
       </c>
       <c r="B58" s="1">
-        <v>6400</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2948,7 +2948,7 @@
         <v>216</v>
       </c>
       <c r="B59" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2956,7 +2956,7 @@
         <v>217</v>
       </c>
       <c r="B60" s="1">
-        <v>6400</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2964,7 +2964,7 @@
         <v>218</v>
       </c>
       <c r="B61" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2972,7 +2972,7 @@
         <v>219</v>
       </c>
       <c r="B62" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2980,7 +2980,7 @@
         <v>220</v>
       </c>
       <c r="B63" s="1">
-        <v>1600</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2988,7 +2988,7 @@
         <v>221</v>
       </c>
       <c r="B64" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2996,7 +2996,7 @@
         <v>223</v>
       </c>
       <c r="B65" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -3004,7 +3004,7 @@
         <v>227</v>
       </c>
       <c r="B66" s="1">
-        <v>640</v>
+        <v>620</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -3012,7 +3012,7 @@
         <v>224</v>
       </c>
       <c r="B67" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -3020,7 +3020,7 @@
         <v>225</v>
       </c>
       <c r="B68" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -3028,7 +3028,7 @@
         <v>226</v>
       </c>
       <c r="B69" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -3036,7 +3036,7 @@
         <v>521</v>
       </c>
       <c r="B70" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -3044,7 +3044,7 @@
         <v>222</v>
       </c>
       <c r="B71" s="1">
-        <v>2240</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -3052,7 +3052,7 @@
         <v>228</v>
       </c>
       <c r="B72" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -3060,7 +3060,7 @@
         <v>229</v>
       </c>
       <c r="B73" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -3068,7 +3068,7 @@
         <v>230</v>
       </c>
       <c r="B74" s="1">
-        <v>6400</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -3076,7 +3076,7 @@
         <v>231</v>
       </c>
       <c r="B75" s="1">
-        <v>8000</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -3084,7 +3084,7 @@
         <v>232</v>
       </c>
       <c r="B76" s="1">
-        <v>6400</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -3092,7 +3092,7 @@
         <v>233</v>
       </c>
       <c r="B77" s="1">
-        <v>14400</v>
+        <v>13950</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -3100,7 +3100,7 @@
         <v>234</v>
       </c>
       <c r="B78" s="1">
-        <v>8000</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -3108,7 +3108,7 @@
         <v>235</v>
       </c>
       <c r="B79" s="1">
-        <v>8000</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -3116,7 +3116,7 @@
         <v>236</v>
       </c>
       <c r="B80" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -3124,7 +3124,7 @@
         <v>455</v>
       </c>
       <c r="B81" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -3132,7 +3132,7 @@
         <v>456</v>
       </c>
       <c r="B82" s="1">
-        <v>9600</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -3140,7 +3140,7 @@
         <v>237</v>
       </c>
       <c r="B83" s="1">
-        <v>16000</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -3148,7 +3148,7 @@
         <v>238</v>
       </c>
       <c r="B84" s="1">
-        <v>22400</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -3156,7 +3156,7 @@
         <v>239</v>
       </c>
       <c r="B85" s="1">
-        <v>32000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -3164,7 +3164,7 @@
         <v>240</v>
       </c>
       <c r="B86" s="1">
-        <v>112000</v>
+        <v>108500</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -3172,7 +3172,7 @@
         <v>241</v>
       </c>
       <c r="B87" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -3180,7 +3180,7 @@
         <v>242</v>
       </c>
       <c r="B88" s="1">
-        <v>96000</v>
+        <v>93000</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -3188,7 +3188,7 @@
         <v>243</v>
       </c>
       <c r="B89" s="1">
-        <v>16000</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -3196,7 +3196,7 @@
         <v>609</v>
       </c>
       <c r="B90" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -3204,7 +3204,7 @@
         <v>446</v>
       </c>
       <c r="B91" s="1">
-        <v>22400</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -3212,7 +3212,7 @@
         <v>244</v>
       </c>
       <c r="B92" s="1">
-        <v>16000</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -3220,7 +3220,7 @@
         <v>245</v>
       </c>
       <c r="B93" s="1">
-        <v>25600</v>
+        <v>24800</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -3228,7 +3228,7 @@
         <v>246</v>
       </c>
       <c r="B94" s="1">
-        <v>8000</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -3236,7 +3236,7 @@
         <v>462</v>
       </c>
       <c r="B95" s="1">
-        <v>8000</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -3244,7 +3244,7 @@
         <v>247</v>
       </c>
       <c r="B96" s="1">
-        <v>8000</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -3252,7 +3252,7 @@
         <v>629</v>
       </c>
       <c r="B97" s="1">
-        <v>14400</v>
+        <v>13950</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -3260,7 +3260,7 @@
         <v>529</v>
       </c>
       <c r="B98" s="1">
-        <v>80000</v>
+        <v>77500</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -3268,7 +3268,7 @@
         <v>648</v>
       </c>
       <c r="B99" s="1">
-        <v>8000</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -3276,7 +3276,7 @@
         <v>248</v>
       </c>
       <c r="B100" s="1">
-        <v>11200</v>
+        <v>10850</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -3284,7 +3284,7 @@
         <v>249</v>
       </c>
       <c r="B101" s="1">
-        <v>22400</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -3292,7 +3292,7 @@
         <v>250</v>
       </c>
       <c r="B102" s="1">
-        <v>16000</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -3300,7 +3300,7 @@
         <v>630</v>
       </c>
       <c r="B103" s="1">
-        <v>9600</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -3308,7 +3308,7 @@
         <v>651</v>
       </c>
       <c r="B104" s="1">
-        <v>80</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -3316,7 +3316,7 @@
         <v>251</v>
       </c>
       <c r="B105" s="1">
-        <v>38400</v>
+        <v>37200</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -3324,7 +3324,7 @@
         <v>252</v>
       </c>
       <c r="B106" s="1">
-        <v>9600</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -3332,7 +3332,7 @@
         <v>253</v>
       </c>
       <c r="B107" s="1">
-        <v>19200</v>
+        <v>18600</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -3340,7 +3340,7 @@
         <v>447</v>
       </c>
       <c r="B108" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -3348,7 +3348,7 @@
         <v>254</v>
       </c>
       <c r="B109" s="1">
-        <v>6400</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -3356,7 +3356,7 @@
         <v>255</v>
       </c>
       <c r="B110" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -3364,7 +3364,7 @@
         <v>256</v>
       </c>
       <c r="B111" s="1">
-        <v>6400</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -3372,7 +3372,7 @@
         <v>257</v>
       </c>
       <c r="B112" s="1">
-        <v>19200</v>
+        <v>18600</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -3380,7 +3380,7 @@
         <v>258</v>
       </c>
       <c r="B113" s="1">
-        <v>48000</v>
+        <v>46500</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -3388,7 +3388,7 @@
         <v>259</v>
       </c>
       <c r="B114" s="1">
-        <v>12800</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -3396,7 +3396,7 @@
         <v>470</v>
       </c>
       <c r="B115" s="1">
-        <v>32000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -3404,7 +3404,7 @@
         <v>260</v>
       </c>
       <c r="B116" s="1">
-        <v>8000</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -3412,7 +3412,7 @@
         <v>261</v>
       </c>
       <c r="B117" s="1">
-        <v>144000</v>
+        <v>139500</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -3420,7 +3420,7 @@
         <v>262</v>
       </c>
       <c r="B118" s="1">
-        <v>57600</v>
+        <v>55800</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -3428,7 +3428,7 @@
         <v>499</v>
       </c>
       <c r="B119" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -3436,7 +3436,7 @@
         <v>500</v>
       </c>
       <c r="B120" s="1">
-        <v>9600</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -3444,7 +3444,7 @@
         <v>501</v>
       </c>
       <c r="B121" s="1">
-        <v>9600</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -3452,7 +3452,7 @@
         <v>263</v>
       </c>
       <c r="B122" s="1">
-        <v>19200</v>
+        <v>18600</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -3460,7 +3460,7 @@
         <v>264</v>
       </c>
       <c r="B123" s="1">
-        <v>38400</v>
+        <v>37200</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -3468,7 +3468,7 @@
         <v>265</v>
       </c>
       <c r="B124" s="1">
-        <v>8000</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -3476,7 +3476,7 @@
         <v>267</v>
       </c>
       <c r="B125" s="1">
-        <v>25600</v>
+        <v>24800</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -3484,7 +3484,7 @@
         <v>458</v>
       </c>
       <c r="B126" s="1">
-        <v>80000</v>
+        <v>77500</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -3492,7 +3492,7 @@
         <v>15</v>
       </c>
       <c r="B127" s="1">
-        <v>38400</v>
+        <v>37200</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -3500,7 +3500,7 @@
         <v>268</v>
       </c>
       <c r="B128" s="1">
-        <v>6400</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -3508,7 +3508,7 @@
         <v>266</v>
       </c>
       <c r="B129" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -3516,7 +3516,7 @@
         <v>610</v>
       </c>
       <c r="B130" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -3524,7 +3524,7 @@
         <v>269</v>
       </c>
       <c r="B131" s="1">
-        <v>16000</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -3532,7 +3532,7 @@
         <v>270</v>
       </c>
       <c r="B132" s="1">
-        <v>19200</v>
+        <v>18600</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -3540,7 +3540,7 @@
         <v>271</v>
       </c>
       <c r="B133" s="1">
-        <v>32000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -3548,7 +3548,7 @@
         <v>417</v>
       </c>
       <c r="B134" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -3556,7 +3556,7 @@
         <v>272</v>
       </c>
       <c r="B135" s="1">
-        <v>16000</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -3564,7 +3564,7 @@
         <v>273</v>
       </c>
       <c r="B136" s="1">
-        <v>22400</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -3572,7 +3572,7 @@
         <v>274</v>
       </c>
       <c r="B137" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -3580,7 +3580,7 @@
         <v>275</v>
       </c>
       <c r="B138" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -3588,7 +3588,7 @@
         <v>276</v>
       </c>
       <c r="B139" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -3596,7 +3596,7 @@
         <v>280</v>
       </c>
       <c r="B140" s="1">
-        <v>9600</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -3604,7 +3604,7 @@
         <v>281</v>
       </c>
       <c r="B141" s="1">
-        <v>28800</v>
+        <v>27900</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -3612,7 +3612,7 @@
         <v>282</v>
       </c>
       <c r="B142" s="1">
-        <v>16000</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -3620,7 +3620,7 @@
         <v>277</v>
       </c>
       <c r="B143" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -3628,7 +3628,7 @@
         <v>278</v>
       </c>
       <c r="B144" s="1">
-        <v>9600</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -3636,7 +3636,7 @@
         <v>506</v>
       </c>
       <c r="B145" s="1">
-        <v>6400</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -3644,7 +3644,7 @@
         <v>279</v>
       </c>
       <c r="B146" s="1">
-        <v>38400</v>
+        <v>37200</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -3652,7 +3652,7 @@
         <v>283</v>
       </c>
       <c r="B147" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -3660,7 +3660,7 @@
         <v>284</v>
       </c>
       <c r="B148" s="1">
-        <v>22400</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -3668,7 +3668,7 @@
         <v>285</v>
       </c>
       <c r="B149" s="1">
-        <v>6400</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -3676,7 +3676,7 @@
         <v>530</v>
       </c>
       <c r="B150" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -3684,7 +3684,7 @@
         <v>286</v>
       </c>
       <c r="B151" s="1">
-        <v>1600</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -3692,7 +3692,7 @@
         <v>287</v>
       </c>
       <c r="B152" s="1">
-        <v>32000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -3700,7 +3700,7 @@
         <v>288</v>
       </c>
       <c r="B153" s="1">
-        <v>19200</v>
+        <v>18600</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -3708,7 +3708,7 @@
         <v>289</v>
       </c>
       <c r="B154" s="1">
-        <v>9600</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -3716,7 +3716,7 @@
         <v>290</v>
       </c>
       <c r="B155" s="1">
-        <v>32000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -3724,7 +3724,7 @@
         <v>291</v>
       </c>
       <c r="B156" s="1">
-        <v>9600</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -3732,7 +3732,7 @@
         <v>292</v>
       </c>
       <c r="B157" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -3740,7 +3740,7 @@
         <v>293</v>
       </c>
       <c r="B158" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -3748,7 +3748,7 @@
         <v>294</v>
       </c>
       <c r="B159" s="1">
-        <v>9600</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -3756,7 +3756,7 @@
         <v>295</v>
       </c>
       <c r="B160" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -3764,7 +3764,7 @@
         <v>460</v>
       </c>
       <c r="B161" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -3772,7 +3772,7 @@
         <v>461</v>
       </c>
       <c r="B162" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -3780,7 +3780,7 @@
         <v>296</v>
       </c>
       <c r="B163" s="1">
-        <v>6400</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -3788,7 +3788,7 @@
         <v>298</v>
       </c>
       <c r="B164" s="1">
-        <v>640</v>
+        <v>620</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -3796,7 +3796,7 @@
         <v>297</v>
       </c>
       <c r="B165" s="1">
-        <v>6400</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -3804,7 +3804,7 @@
         <v>299</v>
       </c>
       <c r="B166" s="1">
-        <v>16000</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -3812,7 +3812,7 @@
         <v>300</v>
       </c>
       <c r="B167" s="1">
-        <v>12800</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -3820,7 +3820,7 @@
         <v>507</v>
       </c>
       <c r="B168" s="1">
-        <v>48000</v>
+        <v>46500</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -3828,7 +3828,7 @@
         <v>301</v>
       </c>
       <c r="B169" s="1">
-        <v>28800</v>
+        <v>27900</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -3836,7 +3836,7 @@
         <v>302</v>
       </c>
       <c r="B170" s="1">
-        <v>3840</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3844,7 +3844,7 @@
         <v>303</v>
       </c>
       <c r="B171" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3852,7 +3852,7 @@
         <v>510</v>
       </c>
       <c r="B172" s="1">
-        <v>128000</v>
+        <v>124000</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3860,7 +3860,7 @@
         <v>304</v>
       </c>
       <c r="B173" s="1">
-        <v>176000</v>
+        <v>170500</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3868,7 +3868,7 @@
         <v>305</v>
       </c>
       <c r="B174" s="1">
-        <v>1920</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3876,7 +3876,7 @@
         <v>306</v>
       </c>
       <c r="B175" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3884,7 +3884,7 @@
         <v>448</v>
       </c>
       <c r="B176" s="1">
-        <v>6400</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3892,7 +3892,7 @@
         <v>307</v>
       </c>
       <c r="B177" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3900,7 +3900,7 @@
         <v>449</v>
       </c>
       <c r="B178" s="1">
-        <v>1600</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3908,7 +3908,7 @@
         <v>308</v>
       </c>
       <c r="B179" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3916,7 +3916,7 @@
         <v>309</v>
       </c>
       <c r="B180" s="1">
-        <v>22400</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3924,7 +3924,7 @@
         <v>310</v>
       </c>
       <c r="B181" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3932,7 +3932,7 @@
         <v>311</v>
       </c>
       <c r="B182" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3940,7 +3940,7 @@
         <v>312</v>
       </c>
       <c r="B183" s="1">
-        <v>6400</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3948,7 +3948,7 @@
         <v>313</v>
       </c>
       <c r="B184" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3956,7 +3956,7 @@
         <v>314</v>
       </c>
       <c r="B185" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3964,7 +3964,7 @@
         <v>315</v>
       </c>
       <c r="B186" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3972,7 +3972,7 @@
         <v>611</v>
       </c>
       <c r="B187" s="1">
-        <v>3840</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3980,7 +3980,7 @@
         <v>316</v>
       </c>
       <c r="B188" s="1">
-        <v>16000</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3988,7 +3988,7 @@
         <v>513</v>
       </c>
       <c r="B189" s="1">
-        <v>1600</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3996,7 +3996,7 @@
         <v>508</v>
       </c>
       <c r="B190" s="1">
-        <v>1600</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -4004,7 +4004,7 @@
         <v>317</v>
       </c>
       <c r="B191" s="1">
-        <v>9600</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -4012,7 +4012,7 @@
         <v>318</v>
       </c>
       <c r="B192" s="1">
-        <v>2240</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -4020,7 +4020,7 @@
         <v>319</v>
       </c>
       <c r="B193" s="1">
-        <v>89600</v>
+        <v>86800</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -4028,7 +4028,7 @@
         <v>320</v>
       </c>
       <c r="B194" s="1">
-        <v>48000</v>
+        <v>46500</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -4036,7 +4036,7 @@
         <v>631</v>
       </c>
       <c r="B195" s="1">
-        <v>20800</v>
+        <v>20150</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -4044,7 +4044,7 @@
         <v>450</v>
       </c>
       <c r="B196" s="1">
-        <v>25600</v>
+        <v>24800</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -4052,7 +4052,7 @@
         <v>321</v>
       </c>
       <c r="B197" s="1">
-        <v>9600</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -4060,7 +4060,7 @@
         <v>322</v>
       </c>
       <c r="B198" s="1">
-        <v>48000</v>
+        <v>46500</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -4068,7 +4068,7 @@
         <v>323</v>
       </c>
       <c r="B199" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -4076,7 +4076,7 @@
         <v>632</v>
       </c>
       <c r="B200" s="1">
-        <v>19200</v>
+        <v>18600</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -4084,7 +4084,7 @@
         <v>324</v>
       </c>
       <c r="B201" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -4092,7 +4092,7 @@
         <v>325</v>
       </c>
       <c r="B202" s="1">
-        <v>6400</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -4100,7 +4100,7 @@
         <v>326</v>
       </c>
       <c r="B203" s="1">
-        <v>32000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -4108,7 +4108,7 @@
         <v>327</v>
       </c>
       <c r="B204" s="1">
-        <v>38400</v>
+        <v>37200</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -4116,7 +4116,7 @@
         <v>328</v>
       </c>
       <c r="B205" s="1">
-        <v>96000</v>
+        <v>93000</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -4124,7 +4124,7 @@
         <v>329</v>
       </c>
       <c r="B206" s="1">
-        <v>51200</v>
+        <v>49600</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -4132,7 +4132,7 @@
         <v>330</v>
       </c>
       <c r="B207" s="1">
-        <v>35200</v>
+        <v>34100</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -4140,7 +4140,7 @@
         <v>331</v>
       </c>
       <c r="B208" s="1">
-        <v>51200</v>
+        <v>49600</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -4148,7 +4148,7 @@
         <v>332</v>
       </c>
       <c r="B209" s="1">
-        <v>9600</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -4156,7 +4156,7 @@
         <v>333</v>
       </c>
       <c r="B210" s="1">
-        <v>54400</v>
+        <v>52700</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -4164,7 +4164,7 @@
         <v>334</v>
       </c>
       <c r="B211" s="1">
-        <v>25600</v>
+        <v>24800</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -4172,7 +4172,7 @@
         <v>335</v>
       </c>
       <c r="B212" s="1">
-        <v>70400</v>
+        <v>68200</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -4180,7 +4180,7 @@
         <v>336</v>
       </c>
       <c r="B213" s="1">
-        <v>28800</v>
+        <v>27900</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -4188,7 +4188,7 @@
         <v>337</v>
       </c>
       <c r="B214" s="1">
-        <v>8000</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -4196,7 +4196,7 @@
         <v>338</v>
       </c>
       <c r="B215" s="1">
-        <v>22400</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -4204,7 +4204,7 @@
         <v>339</v>
       </c>
       <c r="B216" s="1">
-        <v>8000</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -4212,7 +4212,7 @@
         <v>340</v>
       </c>
       <c r="B217" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -4220,7 +4220,7 @@
         <v>511</v>
       </c>
       <c r="B218" s="1">
-        <v>6400</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -4228,7 +4228,7 @@
         <v>512</v>
       </c>
       <c r="B219" s="1">
-        <v>6400</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -4236,7 +4236,7 @@
         <v>341</v>
       </c>
       <c r="B220" s="1">
-        <v>9600</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -4244,7 +4244,7 @@
         <v>342</v>
       </c>
       <c r="B221" s="1">
-        <v>9600</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -4252,7 +4252,7 @@
         <v>343</v>
       </c>
       <c r="B222" s="1">
-        <v>19200</v>
+        <v>18600</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -4260,7 +4260,7 @@
         <v>452</v>
       </c>
       <c r="B223" s="1">
-        <v>12800</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -4268,7 +4268,7 @@
         <v>344</v>
       </c>
       <c r="B224" s="1">
-        <v>9600</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -4276,7 +4276,7 @@
         <v>345</v>
       </c>
       <c r="B225" s="1">
-        <v>6400</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -4284,7 +4284,7 @@
         <v>346</v>
       </c>
       <c r="B226" s="1">
-        <v>6400</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -4292,7 +4292,7 @@
         <v>347</v>
       </c>
       <c r="B227" s="1">
-        <v>48000</v>
+        <v>46500</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -4300,7 +4300,7 @@
         <v>348</v>
       </c>
       <c r="B228" s="1">
-        <v>112000</v>
+        <v>108500</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -4308,7 +4308,7 @@
         <v>349</v>
       </c>
       <c r="B229" s="1">
-        <v>6400</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -4316,7 +4316,7 @@
         <v>350</v>
       </c>
       <c r="B230" s="1">
-        <v>6400</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -4324,7 +4324,7 @@
         <v>351</v>
       </c>
       <c r="B231" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -4332,7 +4332,7 @@
         <v>352</v>
       </c>
       <c r="B232" s="1">
-        <v>9600</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -4340,7 +4340,7 @@
         <v>353</v>
       </c>
       <c r="B233" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -4348,7 +4348,7 @@
         <v>354</v>
       </c>
       <c r="B234" s="1">
-        <v>22400</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -4356,7 +4356,7 @@
         <v>355</v>
       </c>
       <c r="B235" s="1">
-        <v>12800</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -4364,7 +4364,7 @@
         <v>356</v>
       </c>
       <c r="B236" s="1">
-        <v>32000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -4372,7 +4372,7 @@
         <v>357</v>
       </c>
       <c r="B237" s="1">
-        <v>22400</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -4380,7 +4380,7 @@
         <v>358</v>
       </c>
       <c r="B238" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -4388,7 +4388,7 @@
         <v>359</v>
       </c>
       <c r="B239" s="1">
-        <v>41600</v>
+        <v>40300</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -4396,7 +4396,7 @@
         <v>360</v>
       </c>
       <c r="B240" s="1">
-        <v>64000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -4404,7 +4404,7 @@
         <v>361</v>
       </c>
       <c r="B241" s="1">
-        <v>9600</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -4412,7 +4412,7 @@
         <v>362</v>
       </c>
       <c r="B242" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -4420,7 +4420,7 @@
         <v>633</v>
       </c>
       <c r="B243" s="1">
-        <v>32000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -4428,7 +4428,7 @@
         <v>363</v>
       </c>
       <c r="B244" s="1">
-        <v>20800</v>
+        <v>20150</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -4436,7 +4436,7 @@
         <v>364</v>
       </c>
       <c r="B245" s="1">
-        <v>30400</v>
+        <v>29450</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -4444,7 +4444,7 @@
         <v>365</v>
       </c>
       <c r="B246" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -4452,7 +4452,7 @@
         <v>366</v>
       </c>
       <c r="B247" s="1">
-        <v>6400</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -4460,7 +4460,7 @@
         <v>367</v>
       </c>
       <c r="B248" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -4468,7 +4468,7 @@
         <v>368</v>
       </c>
       <c r="B249" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -4476,7 +4476,7 @@
         <v>369</v>
       </c>
       <c r="B250" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -4484,7 +4484,7 @@
         <v>370</v>
       </c>
       <c r="B251" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -4492,7 +4492,7 @@
         <v>371</v>
       </c>
       <c r="B252" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -4500,7 +4500,7 @@
         <v>372</v>
       </c>
       <c r="B253" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -4508,7 +4508,7 @@
         <v>373</v>
       </c>
       <c r="B254" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -4516,7 +4516,7 @@
         <v>453</v>
       </c>
       <c r="B255" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -4524,7 +4524,7 @@
         <v>454</v>
       </c>
       <c r="B256" s="1">
-        <v>1920</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -4532,7 +4532,7 @@
         <v>374</v>
       </c>
       <c r="B257" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -4540,7 +4540,7 @@
         <v>375</v>
       </c>
       <c r="B258" s="1">
-        <v>48000</v>
+        <v>46500</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -4548,7 +4548,7 @@
         <v>376</v>
       </c>
       <c r="B259" s="1">
-        <v>57600</v>
+        <v>55800</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -4556,7 +4556,7 @@
         <v>377</v>
       </c>
       <c r="B260" s="1">
-        <v>28800</v>
+        <v>27900</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -4564,7 +4564,7 @@
         <v>378</v>
       </c>
       <c r="B261" s="1">
-        <v>9600</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -4572,7 +4572,7 @@
         <v>379</v>
       </c>
       <c r="B262" s="1">
-        <v>8000</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -4580,7 +4580,7 @@
         <v>380</v>
       </c>
       <c r="B263" s="1">
-        <v>1280</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -4588,7 +4588,7 @@
         <v>381</v>
       </c>
       <c r="B264" s="1">
-        <v>24000</v>
+        <v>23250</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -4596,7 +4596,7 @@
         <v>382</v>
       </c>
       <c r="B265" s="1">
-        <v>8000</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -4604,7 +4604,7 @@
         <v>383</v>
       </c>
       <c r="B266" s="1">
-        <v>22400</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -4612,7 +4612,7 @@
         <v>634</v>
       </c>
       <c r="B267" s="1">
-        <v>3840</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -4620,7 +4620,7 @@
         <v>384</v>
       </c>
       <c r="B268" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -4628,7 +4628,7 @@
         <v>385</v>
       </c>
       <c r="B269" s="1">
-        <v>80000</v>
+        <v>77500</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -4636,7 +4636,7 @@
         <v>444</v>
       </c>
       <c r="B270" s="1">
-        <v>176000</v>
+        <v>170500</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -4644,7 +4644,7 @@
         <v>386</v>
       </c>
       <c r="B271" s="1">
-        <v>8000</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -4652,7 +4652,7 @@
         <v>387</v>
       </c>
       <c r="B272" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -4660,7 +4660,7 @@
         <v>635</v>
       </c>
       <c r="B273" s="1">
-        <v>6400</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -4668,7 +4668,7 @@
         <v>388</v>
       </c>
       <c r="B274" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -4676,7 +4676,7 @@
         <v>389</v>
       </c>
       <c r="B275" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -4684,7 +4684,7 @@
         <v>636</v>
       </c>
       <c r="B276" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -4692,7 +4692,7 @@
         <v>649</v>
       </c>
       <c r="B277" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -4700,7 +4700,7 @@
         <v>390</v>
       </c>
       <c r="B278" s="1">
-        <v>2240</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -4708,7 +4708,7 @@
         <v>391</v>
       </c>
       <c r="B279" s="1">
-        <v>16000</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -4716,7 +4716,7 @@
         <v>392</v>
       </c>
       <c r="B280" s="1">
-        <v>1600</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -4724,7 +4724,7 @@
         <v>393</v>
       </c>
       <c r="B281" s="1">
-        <v>1600</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -4732,7 +4732,7 @@
         <v>394</v>
       </c>
       <c r="B282" s="1">
-        <v>1600</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -4740,7 +4740,7 @@
         <v>395</v>
       </c>
       <c r="B283" s="1">
-        <v>2240</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -4748,7 +4748,7 @@
         <v>396</v>
       </c>
       <c r="B284" s="1">
-        <v>6400</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -4756,7 +4756,7 @@
         <v>438</v>
       </c>
       <c r="B285" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -4764,7 +4764,7 @@
         <v>604</v>
       </c>
       <c r="B286" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -4772,7 +4772,7 @@
         <v>397</v>
       </c>
       <c r="B287" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -4780,7 +4780,7 @@
         <v>614</v>
       </c>
       <c r="B288" s="1">
-        <v>8000</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -4788,7 +4788,7 @@
         <v>615</v>
       </c>
       <c r="B289" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -4796,7 +4796,7 @@
         <v>398</v>
       </c>
       <c r="B290" s="1">
-        <v>1600</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -4804,7 +4804,7 @@
         <v>399</v>
       </c>
       <c r="B291" s="1">
-        <v>2240</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -4812,7 +4812,7 @@
         <v>400</v>
       </c>
       <c r="B292" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -4820,7 +4820,7 @@
         <v>401</v>
       </c>
       <c r="B293" s="1">
-        <v>640</v>
+        <v>620</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -4828,7 +4828,7 @@
         <v>402</v>
       </c>
       <c r="B294" s="1">
-        <v>1600</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -4836,7 +4836,7 @@
         <v>403</v>
       </c>
       <c r="B295" s="1">
-        <v>960</v>
+        <v>930</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -4844,7 +4844,7 @@
         <v>404</v>
       </c>
       <c r="B296" s="1">
-        <v>1280</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -4852,7 +4852,7 @@
         <v>451</v>
       </c>
       <c r="B297" s="1">
-        <v>960</v>
+        <v>930</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -4860,7 +4860,7 @@
         <v>509</v>
       </c>
       <c r="B298" s="1">
-        <v>2240</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -4868,7 +4868,7 @@
         <v>405</v>
       </c>
       <c r="B299" s="1">
-        <v>640</v>
+        <v>620</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -4876,7 +4876,7 @@
         <v>531</v>
       </c>
       <c r="B300" s="1">
-        <v>57600</v>
+        <v>55800</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -4884,7 +4884,7 @@
         <v>514</v>
       </c>
       <c r="B301" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4892,7 +4892,7 @@
         <v>406</v>
       </c>
       <c r="B302" s="1">
-        <v>6400</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4900,7 +4900,7 @@
         <v>407</v>
       </c>
       <c r="B303" s="1">
-        <v>8000</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4908,7 +4908,7 @@
         <v>408</v>
       </c>
       <c r="B304" s="1">
-        <v>14400</v>
+        <v>13950</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4916,7 +4916,7 @@
         <v>409</v>
       </c>
       <c r="B305" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -4924,7 +4924,7 @@
         <v>410</v>
       </c>
       <c r="B306" s="1">
-        <v>19200</v>
+        <v>18600</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4932,7 +4932,7 @@
         <v>411</v>
       </c>
       <c r="B307" s="1">
-        <v>32000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -4940,7 +4940,7 @@
         <v>515</v>
       </c>
       <c r="B308" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -4948,7 +4948,7 @@
         <v>516</v>
       </c>
       <c r="B309" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -4956,7 +4956,7 @@
         <v>412</v>
       </c>
       <c r="B310" s="1">
-        <v>11200</v>
+        <v>10850</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -4964,7 +4964,7 @@
         <v>413</v>
       </c>
       <c r="B311" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4972,7 +4972,7 @@
         <v>497</v>
       </c>
       <c r="B312" s="1">
-        <v>1600</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4980,7 +4980,7 @@
         <v>414</v>
       </c>
       <c r="B313" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
   </sheetData>
@@ -4993,7 +4993,7 @@
   <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B112"/>
+      <selection activeCell="B2" sqref="B2:B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
@@ -5015,7 +5015,7 @@
         <v>532</v>
       </c>
       <c r="B2" s="1">
-        <v>44800</v>
+        <v>43400</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5023,7 +5023,7 @@
         <v>133</v>
       </c>
       <c r="B3" s="1">
-        <v>64000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5031,7 +5031,7 @@
         <v>637</v>
       </c>
       <c r="B4" s="1">
-        <v>57600</v>
+        <v>55800</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5039,7 +5039,7 @@
         <v>175</v>
       </c>
       <c r="B5" s="1">
-        <v>38400</v>
+        <v>37200</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5047,7 +5047,7 @@
         <v>638</v>
       </c>
       <c r="B6" s="1">
-        <v>38400</v>
+        <v>37200</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5055,7 +5055,7 @@
         <v>650</v>
       </c>
       <c r="B7" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5063,7 +5063,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>12800</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5071,7 +5071,7 @@
         <v>533</v>
       </c>
       <c r="B9" s="1">
-        <v>25600</v>
+        <v>24800</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5079,7 +5079,7 @@
         <v>134</v>
       </c>
       <c r="B10" s="1">
-        <v>12800</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5087,7 +5087,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>6400</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5095,7 +5095,7 @@
         <v>469</v>
       </c>
       <c r="B12" s="1">
-        <v>25600</v>
+        <v>24800</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5103,7 +5103,7 @@
         <v>173</v>
       </c>
       <c r="B13" s="1">
-        <v>32000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5111,7 +5111,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="1">
-        <v>8000</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5119,7 +5119,7 @@
         <v>135</v>
       </c>
       <c r="B15" s="1">
-        <v>17600</v>
+        <v>17050</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5127,7 +5127,7 @@
         <v>523</v>
       </c>
       <c r="B16" s="1">
-        <v>19200</v>
+        <v>18600</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5135,7 +5135,7 @@
         <v>38</v>
       </c>
       <c r="B17" s="1">
-        <v>32000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5143,7 +5143,7 @@
         <v>534</v>
       </c>
       <c r="B18" s="1">
-        <v>22400</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5151,7 +5151,7 @@
         <v>535</v>
       </c>
       <c r="B19" s="1">
-        <v>25600</v>
+        <v>24800</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5159,7 +5159,7 @@
         <v>442</v>
       </c>
       <c r="B20" s="1">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5167,7 +5167,7 @@
         <v>443</v>
       </c>
       <c r="B21" s="1">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5175,7 +5175,7 @@
         <v>437</v>
       </c>
       <c r="B22" s="1">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5183,7 +5183,7 @@
         <v>479</v>
       </c>
       <c r="B23" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5191,7 +5191,7 @@
         <v>536</v>
       </c>
       <c r="B24" s="1">
-        <v>12800</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5199,7 +5199,7 @@
         <v>537</v>
       </c>
       <c r="B25" s="1">
-        <v>12800</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5207,7 +5207,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5215,7 +5215,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="1">
-        <v>800</v>
+        <v>775</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5223,7 +5223,7 @@
         <v>7</v>
       </c>
       <c r="B28" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5231,7 +5231,7 @@
         <v>473</v>
       </c>
       <c r="B29" s="1">
-        <v>2240</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5239,7 +5239,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="1">
-        <v>8000</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -5247,7 +5247,7 @@
         <v>538</v>
       </c>
       <c r="B31" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -5255,7 +5255,7 @@
         <v>524</v>
       </c>
       <c r="B32" s="1">
-        <v>8000</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -5263,7 +5263,7 @@
         <v>478</v>
       </c>
       <c r="B33" s="1">
-        <v>8000</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -5271,7 +5271,7 @@
         <v>480</v>
       </c>
       <c r="B34" s="1">
-        <v>16000</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -5279,7 +5279,7 @@
         <v>539</v>
       </c>
       <c r="B35" s="1">
-        <v>19200</v>
+        <v>18600</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -5287,7 +5287,7 @@
         <v>540</v>
       </c>
       <c r="B36" s="1">
-        <v>16000</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -5295,7 +5295,7 @@
         <v>541</v>
       </c>
       <c r="B37" s="1">
-        <v>22400</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -5303,7 +5303,7 @@
         <v>609</v>
       </c>
       <c r="B38" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -5311,7 +5311,7 @@
         <v>13</v>
       </c>
       <c r="B39" s="1">
-        <v>12800</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -5319,7 +5319,7 @@
         <v>30</v>
       </c>
       <c r="B40" s="1">
-        <v>11200</v>
+        <v>10850</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -5327,7 +5327,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="1">
-        <v>44800</v>
+        <v>43400</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -5335,7 +5335,7 @@
         <v>542</v>
       </c>
       <c r="B42" s="1">
-        <v>22400</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -5343,7 +5343,7 @@
         <v>475</v>
       </c>
       <c r="B43" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -5351,7 +5351,7 @@
         <v>136</v>
       </c>
       <c r="B44" s="1">
-        <v>9600</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -5359,7 +5359,7 @@
         <v>543</v>
       </c>
       <c r="B45" s="1">
-        <v>64000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -5367,7 +5367,7 @@
         <v>31</v>
       </c>
       <c r="B46" s="1">
-        <v>32000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -5375,7 +5375,7 @@
         <v>466</v>
       </c>
       <c r="B47" s="1">
-        <v>32000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -5383,7 +5383,7 @@
         <v>8</v>
       </c>
       <c r="B48" s="1">
-        <v>48000</v>
+        <v>46500</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -5391,7 +5391,7 @@
         <v>137</v>
       </c>
       <c r="B49" s="1">
-        <v>38400</v>
+        <v>37200</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -5399,7 +5399,7 @@
         <v>14</v>
       </c>
       <c r="B50" s="1">
-        <v>19200</v>
+        <v>18600</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -5407,7 +5407,7 @@
         <v>126</v>
       </c>
       <c r="B51" s="1">
-        <v>22400</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -5415,7 +5415,7 @@
         <v>15</v>
       </c>
       <c r="B52" s="1">
-        <v>41600</v>
+        <v>40300</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -5423,7 +5423,7 @@
         <v>465</v>
       </c>
       <c r="B53" s="1">
-        <v>12800</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -5431,7 +5431,7 @@
         <v>610</v>
       </c>
       <c r="B54" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -5439,7 +5439,7 @@
         <v>544</v>
       </c>
       <c r="B55" s="1">
-        <v>19200</v>
+        <v>18600</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -5447,7 +5447,7 @@
         <v>545</v>
       </c>
       <c r="B56" s="1">
-        <v>17600</v>
+        <v>17050</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -5455,7 +5455,7 @@
         <v>647</v>
       </c>
       <c r="B57" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -5463,7 +5463,7 @@
         <v>16</v>
       </c>
       <c r="B58" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -5471,7 +5471,7 @@
         <v>17</v>
       </c>
       <c r="B59" s="1">
-        <v>9600</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -5479,7 +5479,7 @@
         <v>639</v>
       </c>
       <c r="B60" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -5487,7 +5487,7 @@
         <v>174</v>
       </c>
       <c r="B61" s="1">
-        <v>25600</v>
+        <v>24800</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -5495,7 +5495,7 @@
         <v>530</v>
       </c>
       <c r="B62" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -5503,7 +5503,7 @@
         <v>3</v>
       </c>
       <c r="B63" s="1">
-        <v>38400</v>
+        <v>37200</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -5511,7 +5511,7 @@
         <v>18</v>
       </c>
       <c r="B64" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -5519,7 +5519,7 @@
         <v>138</v>
       </c>
       <c r="B65" s="1">
-        <v>6400</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -5527,7 +5527,7 @@
         <v>546</v>
       </c>
       <c r="B66" s="1">
-        <v>22400</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -5535,7 +5535,7 @@
         <v>9</v>
       </c>
       <c r="B67" s="1">
-        <v>19200</v>
+        <v>18600</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -5543,7 +5543,7 @@
         <v>19</v>
       </c>
       <c r="B68" s="1">
-        <v>8000</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -5551,7 +5551,7 @@
         <v>20</v>
       </c>
       <c r="B69" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -5559,7 +5559,7 @@
         <v>547</v>
       </c>
       <c r="B70" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -5567,7 +5567,7 @@
         <v>548</v>
       </c>
       <c r="B71" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -5575,7 +5575,7 @@
         <v>26</v>
       </c>
       <c r="B72" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -5583,7 +5583,7 @@
         <v>611</v>
       </c>
       <c r="B73" s="1">
-        <v>3840</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -5591,7 +5591,7 @@
         <v>599</v>
       </c>
       <c r="B74" s="1">
-        <v>14400</v>
+        <v>13950</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -5599,7 +5599,7 @@
         <v>600</v>
       </c>
       <c r="B75" s="1">
-        <v>11200</v>
+        <v>10850</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -5607,7 +5607,7 @@
         <v>139</v>
       </c>
       <c r="B76" s="1">
-        <v>64000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -5615,7 +5615,7 @@
         <v>549</v>
       </c>
       <c r="B77" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -5623,7 +5623,7 @@
         <v>550</v>
       </c>
       <c r="B78" s="1">
-        <v>3840</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -5631,7 +5631,7 @@
         <v>110</v>
       </c>
       <c r="B79" s="1">
-        <v>57600</v>
+        <v>55800</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -5639,7 +5639,7 @@
         <v>25</v>
       </c>
       <c r="B80" s="1">
-        <v>57600</v>
+        <v>55800</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -5647,7 +5647,7 @@
         <v>21</v>
       </c>
       <c r="B81" s="1">
-        <v>19200</v>
+        <v>18600</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -5655,7 +5655,7 @@
         <v>472</v>
       </c>
       <c r="B82" s="1">
-        <v>12800</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -5663,7 +5663,7 @@
         <v>551</v>
       </c>
       <c r="B83" s="1">
-        <v>38400</v>
+        <v>37200</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -5671,7 +5671,7 @@
         <v>125</v>
       </c>
       <c r="B84" s="1">
-        <v>22400</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -5679,7 +5679,7 @@
         <v>552</v>
       </c>
       <c r="B85" s="1">
-        <v>6400</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -5687,7 +5687,7 @@
         <v>553</v>
       </c>
       <c r="B86" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -5695,7 +5695,7 @@
         <v>554</v>
       </c>
       <c r="B87" s="1">
-        <v>24000</v>
+        <v>23250</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -5703,7 +5703,7 @@
         <v>22</v>
       </c>
       <c r="B88" s="1">
-        <v>16000</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -5711,7 +5711,7 @@
         <v>526</v>
       </c>
       <c r="B89" s="1">
-        <v>48000</v>
+        <v>46500</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="29">
@@ -5719,7 +5719,7 @@
         <v>73</v>
       </c>
       <c r="B90" s="1">
-        <v>41600</v>
+        <v>40300</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -5727,7 +5727,7 @@
         <v>83</v>
       </c>
       <c r="B91" s="1">
-        <v>1600</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -5735,7 +5735,7 @@
         <v>84</v>
       </c>
       <c r="B92" s="1">
-        <v>2240</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -5743,7 +5743,7 @@
         <v>172</v>
       </c>
       <c r="B93" s="1">
-        <v>1600</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -5751,7 +5751,7 @@
         <v>140</v>
       </c>
       <c r="B94" s="1">
-        <v>11200</v>
+        <v>10850</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -5759,7 +5759,7 @@
         <v>471</v>
       </c>
       <c r="B95" s="1">
-        <v>12800</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -5767,7 +5767,7 @@
         <v>555</v>
       </c>
       <c r="B96" s="1">
-        <v>12800</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -5775,7 +5775,7 @@
         <v>556</v>
       </c>
       <c r="B97" s="1">
-        <v>22400</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -5783,7 +5783,7 @@
         <v>476</v>
       </c>
       <c r="B98" s="1">
-        <v>6400</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -5791,7 +5791,7 @@
         <v>557</v>
       </c>
       <c r="B99" s="1">
-        <v>12800</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -5799,7 +5799,7 @@
         <v>4</v>
       </c>
       <c r="B100" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -5807,7 +5807,7 @@
         <v>558</v>
       </c>
       <c r="B101" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -5815,7 +5815,7 @@
         <v>477</v>
       </c>
       <c r="B102" s="1">
-        <v>1600</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -5823,7 +5823,7 @@
         <v>649</v>
       </c>
       <c r="B103" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -5831,7 +5831,7 @@
         <v>612</v>
       </c>
       <c r="B104" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -5839,7 +5839,7 @@
         <v>559</v>
       </c>
       <c r="B105" s="1">
-        <v>9600</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -5847,7 +5847,7 @@
         <v>438</v>
       </c>
       <c r="B106" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -5855,7 +5855,7 @@
         <v>604</v>
       </c>
       <c r="B107" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -5863,7 +5863,7 @@
         <v>481</v>
       </c>
       <c r="B108" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -5871,7 +5871,7 @@
         <v>614</v>
       </c>
       <c r="B109" s="1">
-        <v>8000</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -5879,7 +5879,7 @@
         <v>615</v>
       </c>
       <c r="B110" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -5887,7 +5887,7 @@
         <v>474</v>
       </c>
       <c r="B111" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -5895,7 +5895,7 @@
         <v>10</v>
       </c>
       <c r="B112" s="1">
-        <v>11200</v>
+        <v>10850</v>
       </c>
     </row>
   </sheetData>
@@ -5908,7 +5908,7 @@
   <dimension ref="A1:B206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B206"/>
+      <selection activeCell="B2" sqref="B2:B206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
@@ -5930,7 +5930,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="1">
-        <v>44800</v>
+        <v>43400</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5938,7 +5938,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="1">
-        <v>44800</v>
+        <v>43400</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5946,7 +5946,7 @@
         <v>132</v>
       </c>
       <c r="B4" s="1">
-        <v>64000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5954,7 +5954,7 @@
         <v>141</v>
       </c>
       <c r="B5" s="1">
-        <v>80000</v>
+        <v>77500</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5962,7 +5962,7 @@
         <v>27</v>
       </c>
       <c r="B6" s="1">
-        <v>51200</v>
+        <v>49600</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5970,7 +5970,7 @@
         <v>626</v>
       </c>
       <c r="B7" s="1">
-        <v>57600</v>
+        <v>55800</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5978,7 +5978,7 @@
         <v>92</v>
       </c>
       <c r="B8" s="1">
-        <v>57600</v>
+        <v>55800</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5986,7 +5986,7 @@
         <v>176</v>
       </c>
       <c r="B9" s="1">
-        <v>38400</v>
+        <v>37200</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5994,7 +5994,7 @@
         <v>650</v>
       </c>
       <c r="B10" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6002,7 +6002,7 @@
         <v>560</v>
       </c>
       <c r="B11" s="1">
-        <v>25600</v>
+        <v>24800</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6010,7 +6010,7 @@
         <v>142</v>
       </c>
       <c r="B12" s="1">
-        <v>11200</v>
+        <v>10850</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6018,7 +6018,7 @@
         <v>143</v>
       </c>
       <c r="B13" s="1">
-        <v>11200</v>
+        <v>10850</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6026,7 +6026,7 @@
         <v>37</v>
       </c>
       <c r="B14" s="1">
-        <v>12800</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -6034,7 +6034,7 @@
         <v>469</v>
       </c>
       <c r="B15" s="1">
-        <v>25600</v>
+        <v>24800</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -6042,7 +6042,7 @@
         <v>173</v>
       </c>
       <c r="B16" s="1">
-        <v>32000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -6050,7 +6050,7 @@
         <v>93</v>
       </c>
       <c r="B17" s="1">
-        <v>8000</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -6058,7 +6058,7 @@
         <v>32</v>
       </c>
       <c r="B18" s="1">
-        <v>12800</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -6066,7 +6066,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="1">
-        <v>12800</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -6074,7 +6074,7 @@
         <v>131</v>
       </c>
       <c r="B20" s="1">
-        <v>19200</v>
+        <v>18600</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -6082,7 +6082,7 @@
         <v>144</v>
       </c>
       <c r="B21" s="1">
-        <v>19200</v>
+        <v>18600</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -6090,7 +6090,7 @@
         <v>39</v>
       </c>
       <c r="B22" s="1">
-        <v>25600</v>
+        <v>24800</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6098,7 +6098,7 @@
         <v>522</v>
       </c>
       <c r="B23" s="1">
-        <v>19200</v>
+        <v>18600</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -6106,7 +6106,7 @@
         <v>40</v>
       </c>
       <c r="B24" s="1">
-        <v>19200</v>
+        <v>18600</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -6114,7 +6114,7 @@
         <v>168</v>
       </c>
       <c r="B25" s="1">
-        <v>32000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -6122,7 +6122,7 @@
         <v>35</v>
       </c>
       <c r="B26" s="1">
-        <v>14400</v>
+        <v>13950</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -6130,7 +6130,7 @@
         <v>442</v>
       </c>
       <c r="B27" s="1">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -6138,7 +6138,7 @@
         <v>443</v>
       </c>
       <c r="B28" s="1">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -6146,7 +6146,7 @@
         <v>437</v>
       </c>
       <c r="B29" s="1">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6154,7 +6154,7 @@
         <v>561</v>
       </c>
       <c r="B30" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -6162,7 +6162,7 @@
         <v>95</v>
       </c>
       <c r="B31" s="1">
-        <v>25600</v>
+        <v>24800</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -6170,7 +6170,7 @@
         <v>94</v>
       </c>
       <c r="B32" s="1">
-        <v>25600</v>
+        <v>24800</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -6178,7 +6178,7 @@
         <v>96</v>
       </c>
       <c r="B33" s="1">
-        <v>25600</v>
+        <v>24800</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -6186,7 +6186,7 @@
         <v>145</v>
       </c>
       <c r="B34" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -6194,7 +6194,7 @@
         <v>146</v>
       </c>
       <c r="B35" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -6202,7 +6202,7 @@
         <v>97</v>
       </c>
       <c r="B36" s="1">
-        <v>1600</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -6210,7 +6210,7 @@
         <v>484</v>
       </c>
       <c r="B37" s="1">
-        <v>2240</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -6218,7 +6218,7 @@
         <v>562</v>
       </c>
       <c r="B38" s="1">
-        <v>2240</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -6226,7 +6226,7 @@
         <v>147</v>
       </c>
       <c r="B39" s="1">
-        <v>9600</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -6234,7 +6234,7 @@
         <v>563</v>
       </c>
       <c r="B40" s="1">
-        <v>12800</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -6242,7 +6242,7 @@
         <v>491</v>
       </c>
       <c r="B41" s="1">
-        <v>25600</v>
+        <v>24800</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -6250,7 +6250,7 @@
         <v>492</v>
       </c>
       <c r="B42" s="1">
-        <v>28800</v>
+        <v>27900</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -6258,7 +6258,7 @@
         <v>148</v>
       </c>
       <c r="B43" s="1">
-        <v>8000</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -6266,7 +6266,7 @@
         <v>644</v>
       </c>
       <c r="B44" s="1">
-        <v>32000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -6274,7 +6274,7 @@
         <v>645</v>
       </c>
       <c r="B45" s="1">
-        <v>24000</v>
+        <v>23250</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -6282,7 +6282,7 @@
         <v>149</v>
       </c>
       <c r="B46" s="1">
-        <v>12800</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -6290,7 +6290,7 @@
         <v>609</v>
       </c>
       <c r="B47" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -6298,7 +6298,7 @@
         <v>150</v>
       </c>
       <c r="B48" s="1">
-        <v>8000</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -6306,7 +6306,7 @@
         <v>99</v>
       </c>
       <c r="B49" s="1">
-        <v>9600</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -6314,7 +6314,7 @@
         <v>98</v>
       </c>
       <c r="B50" s="1">
-        <v>19200</v>
+        <v>18600</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -6322,7 +6322,7 @@
         <v>617</v>
       </c>
       <c r="B51" s="1">
-        <v>9600</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -6330,7 +6330,7 @@
         <v>128</v>
       </c>
       <c r="B52" s="1">
-        <v>11200</v>
+        <v>10850</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -6338,7 +6338,7 @@
         <v>44</v>
       </c>
       <c r="B53" s="1">
-        <v>51200</v>
+        <v>49600</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -6346,7 +6346,7 @@
         <v>42</v>
       </c>
       <c r="B54" s="1">
-        <v>51200</v>
+        <v>49600</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -6354,7 +6354,7 @@
         <v>43</v>
       </c>
       <c r="B55" s="1">
-        <v>51200</v>
+        <v>49600</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -6362,7 +6362,7 @@
         <v>45</v>
       </c>
       <c r="B56" s="1">
-        <v>51200</v>
+        <v>49600</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -6370,7 +6370,7 @@
         <v>130</v>
       </c>
       <c r="B57" s="1">
-        <v>9600</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -6378,7 +6378,7 @@
         <v>46</v>
       </c>
       <c r="B58" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -6386,7 +6386,7 @@
         <v>47</v>
       </c>
       <c r="B59" s="1">
-        <v>6400</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -6394,7 +6394,7 @@
         <v>48</v>
       </c>
       <c r="B60" s="1">
-        <v>12800</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -6402,7 +6402,7 @@
         <v>49</v>
       </c>
       <c r="B61" s="1">
-        <v>12800</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -6410,7 +6410,7 @@
         <v>50</v>
       </c>
       <c r="B62" s="1">
-        <v>48000</v>
+        <v>46500</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -6418,7 +6418,7 @@
         <v>51</v>
       </c>
       <c r="B63" s="1">
-        <v>64000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -6426,7 +6426,7 @@
         <v>100</v>
       </c>
       <c r="B64" s="1">
-        <v>16000</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -6434,7 +6434,7 @@
         <v>33</v>
       </c>
       <c r="B65" s="1">
-        <v>32000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -6442,7 +6442,7 @@
         <v>28</v>
       </c>
       <c r="B66" s="1">
-        <v>32000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -6450,7 +6450,7 @@
         <v>34</v>
       </c>
       <c r="B67" s="1">
-        <v>51200</v>
+        <v>49600</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -6458,7 +6458,7 @@
         <v>151</v>
       </c>
       <c r="B68" s="1">
-        <v>51200</v>
+        <v>49600</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -6466,7 +6466,7 @@
         <v>54</v>
       </c>
       <c r="B69" s="1">
-        <v>80000</v>
+        <v>77500</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -6474,7 +6474,7 @@
         <v>53</v>
       </c>
       <c r="B70" s="1">
-        <v>80000</v>
+        <v>77500</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -6482,7 +6482,7 @@
         <v>52</v>
       </c>
       <c r="B71" s="1">
-        <v>73600</v>
+        <v>71300</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -6490,7 +6490,7 @@
         <v>55</v>
       </c>
       <c r="B72" s="1">
-        <v>80000</v>
+        <v>77500</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -6498,7 +6498,7 @@
         <v>56</v>
       </c>
       <c r="B73" s="1">
-        <v>80000</v>
+        <v>77500</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -6506,7 +6506,7 @@
         <v>519</v>
       </c>
       <c r="B74" s="1">
-        <v>80000</v>
+        <v>77500</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -6514,7 +6514,7 @@
         <v>60</v>
       </c>
       <c r="B75" s="1">
-        <v>48000</v>
+        <v>46500</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -6522,7 +6522,7 @@
         <v>57</v>
       </c>
       <c r="B76" s="1">
-        <v>64000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -6530,7 +6530,7 @@
         <v>58</v>
       </c>
       <c r="B77" s="1">
-        <v>70400</v>
+        <v>68200</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -6538,7 +6538,7 @@
         <v>59</v>
       </c>
       <c r="B78" s="1">
-        <v>70400</v>
+        <v>68200</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -6546,7 +6546,7 @@
         <v>61</v>
       </c>
       <c r="B79" s="1">
-        <v>70400</v>
+        <v>68200</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -6554,7 +6554,7 @@
         <v>520</v>
       </c>
       <c r="B80" s="1">
-        <v>22400</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -6562,7 +6562,7 @@
         <v>564</v>
       </c>
       <c r="B81" s="1">
-        <v>22400</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -6570,7 +6570,7 @@
         <v>152</v>
       </c>
       <c r="B82" s="1">
-        <v>22400</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -6578,7 +6578,7 @@
         <v>62</v>
       </c>
       <c r="B83" s="1">
-        <v>44800</v>
+        <v>43400</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -6586,7 +6586,7 @@
         <v>602</v>
       </c>
       <c r="B84" s="1">
-        <v>44800</v>
+        <v>43400</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -6594,7 +6594,7 @@
         <v>63</v>
       </c>
       <c r="B85" s="1">
-        <v>57600</v>
+        <v>55800</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -6602,7 +6602,7 @@
         <v>565</v>
       </c>
       <c r="B86" s="1">
-        <v>8000</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -6610,7 +6610,7 @@
         <v>467</v>
       </c>
       <c r="B87" s="1">
-        <v>16000</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -6618,7 +6618,7 @@
         <v>566</v>
       </c>
       <c r="B88" s="1">
-        <v>8000</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -6626,7 +6626,7 @@
         <v>610</v>
       </c>
       <c r="B89" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -6634,7 +6634,7 @@
         <v>103</v>
       </c>
       <c r="B90" s="1">
-        <v>19200</v>
+        <v>18600</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -6642,7 +6642,7 @@
         <v>102</v>
       </c>
       <c r="B91" s="1">
-        <v>19200</v>
+        <v>18600</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -6650,7 +6650,7 @@
         <v>101</v>
       </c>
       <c r="B92" s="1">
-        <v>38400</v>
+        <v>37200</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -6658,7 +6658,7 @@
         <v>104</v>
       </c>
       <c r="B93" s="1">
-        <v>48000</v>
+        <v>46500</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -6666,7 +6666,7 @@
         <v>646</v>
       </c>
       <c r="B94" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -6674,7 +6674,7 @@
         <v>493</v>
       </c>
       <c r="B95" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -6682,7 +6682,7 @@
         <v>618</v>
       </c>
       <c r="B96" s="1">
-        <v>6400</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -6690,7 +6690,7 @@
         <v>619</v>
       </c>
       <c r="B97" s="1">
-        <v>9600</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -6698,7 +6698,7 @@
         <v>64</v>
       </c>
       <c r="B98" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -6706,7 +6706,7 @@
         <v>65</v>
       </c>
       <c r="B99" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -6714,7 +6714,7 @@
         <v>66</v>
       </c>
       <c r="B100" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -6722,7 +6722,7 @@
         <v>620</v>
       </c>
       <c r="B101" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -6730,7 +6730,7 @@
         <v>621</v>
       </c>
       <c r="B102" s="1">
-        <v>6400</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -6738,7 +6738,7 @@
         <v>174</v>
       </c>
       <c r="B103" s="1">
-        <v>25600</v>
+        <v>24800</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -6746,7 +6746,7 @@
         <v>463</v>
       </c>
       <c r="B104" s="1">
-        <v>25600</v>
+        <v>24800</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -6754,7 +6754,7 @@
         <v>530</v>
       </c>
       <c r="B105" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -6762,7 +6762,7 @@
         <v>67</v>
       </c>
       <c r="B106" s="1">
-        <v>8000</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -6770,7 +6770,7 @@
         <v>68</v>
       </c>
       <c r="B107" s="1">
-        <v>8000</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -6778,7 +6778,7 @@
         <v>167</v>
       </c>
       <c r="B108" s="1">
-        <v>6400</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -6786,7 +6786,7 @@
         <v>69</v>
       </c>
       <c r="B109" s="1">
-        <v>6400</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -6794,7 +6794,7 @@
         <v>70</v>
       </c>
       <c r="B110" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -6802,7 +6802,7 @@
         <v>622</v>
       </c>
       <c r="B111" s="1">
-        <v>44800</v>
+        <v>43400</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -6810,7 +6810,7 @@
         <v>525</v>
       </c>
       <c r="B112" s="1">
-        <v>19200</v>
+        <v>18600</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -6818,7 +6818,7 @@
         <v>498</v>
       </c>
       <c r="B113" s="1">
-        <v>19200</v>
+        <v>18600</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -6826,7 +6826,7 @@
         <v>489</v>
       </c>
       <c r="B114" s="1">
-        <v>6400</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -6834,7 +6834,7 @@
         <v>488</v>
       </c>
       <c r="B115" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -6842,7 +6842,7 @@
         <v>490</v>
       </c>
       <c r="B116" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -6850,7 +6850,7 @@
         <v>487</v>
       </c>
       <c r="B117" s="1">
-        <v>8000</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -6858,7 +6858,7 @@
         <v>153</v>
       </c>
       <c r="B118" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -6866,7 +6866,7 @@
         <v>486</v>
       </c>
       <c r="B119" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -6874,7 +6874,7 @@
         <v>154</v>
       </c>
       <c r="B120" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -6882,7 +6882,7 @@
         <v>652</v>
       </c>
       <c r="B121" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -6890,7 +6890,7 @@
         <v>106</v>
       </c>
       <c r="B122" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -6898,7 +6898,7 @@
         <v>105</v>
       </c>
       <c r="B123" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -6906,7 +6906,7 @@
         <v>107</v>
       </c>
       <c r="B124" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -6914,7 +6914,7 @@
         <v>611</v>
       </c>
       <c r="B125" s="1">
-        <v>3840</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -6922,7 +6922,7 @@
         <v>567</v>
       </c>
       <c r="B126" s="1">
-        <v>14400</v>
+        <v>13950</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -6930,7 +6930,7 @@
         <v>601</v>
       </c>
       <c r="B127" s="1">
-        <v>11200</v>
+        <v>10850</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -6938,7 +6938,7 @@
         <v>155</v>
       </c>
       <c r="B128" s="1">
-        <v>80000</v>
+        <v>77500</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -6946,7 +6946,7 @@
         <v>129</v>
       </c>
       <c r="B129" s="1">
-        <v>64000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -6954,7 +6954,7 @@
         <v>108</v>
       </c>
       <c r="B130" s="1">
-        <v>48000</v>
+        <v>46500</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -6962,7 +6962,7 @@
         <v>71</v>
       </c>
       <c r="B131" s="1">
-        <v>48000</v>
+        <v>46500</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -6970,7 +6970,7 @@
         <v>517</v>
       </c>
       <c r="B132" s="1">
-        <v>44800</v>
+        <v>43400</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -6978,7 +6978,7 @@
         <v>109</v>
       </c>
       <c r="B133" s="1">
-        <v>38400</v>
+        <v>37200</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -6986,7 +6986,7 @@
         <v>568</v>
       </c>
       <c r="B134" s="1">
-        <v>3840</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -6994,7 +6994,7 @@
         <v>111</v>
       </c>
       <c r="B135" s="1">
-        <v>64000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -7002,7 +7002,7 @@
         <v>112</v>
       </c>
       <c r="B136" s="1">
-        <v>73600</v>
+        <v>71300</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -7010,7 +7010,7 @@
         <v>113</v>
       </c>
       <c r="B137" s="1">
-        <v>112000</v>
+        <v>108500</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -7018,7 +7018,7 @@
         <v>24</v>
       </c>
       <c r="B138" s="1">
-        <v>57600</v>
+        <v>55800</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -7026,7 +7026,7 @@
         <v>482</v>
       </c>
       <c r="B139" s="1">
-        <v>57600</v>
+        <v>55800</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -7034,7 +7034,7 @@
         <v>623</v>
       </c>
       <c r="B140" s="1">
-        <v>64000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -7042,7 +7042,7 @@
         <v>156</v>
       </c>
       <c r="B141" s="1">
-        <v>11200</v>
+        <v>10850</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -7050,7 +7050,7 @@
         <v>157</v>
       </c>
       <c r="B142" s="1">
-        <v>11200</v>
+        <v>10850</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -7058,7 +7058,7 @@
         <v>72</v>
       </c>
       <c r="B143" s="1">
-        <v>12800</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -7066,7 +7066,7 @@
         <v>569</v>
       </c>
       <c r="B144" s="1">
-        <v>38400</v>
+        <v>37200</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -7074,7 +7074,7 @@
         <v>158</v>
       </c>
       <c r="B145" s="1">
-        <v>22400</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -7082,7 +7082,7 @@
         <v>570</v>
       </c>
       <c r="B146" s="1">
-        <v>6400</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -7090,7 +7090,7 @@
         <v>159</v>
       </c>
       <c r="B147" s="1">
-        <v>19200</v>
+        <v>18600</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -7098,7 +7098,7 @@
         <v>624</v>
       </c>
       <c r="B148" s="1">
-        <v>11200</v>
+        <v>10850</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -7106,7 +7106,7 @@
         <v>160</v>
       </c>
       <c r="B149" s="1">
-        <v>14400</v>
+        <v>13950</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -7114,7 +7114,7 @@
         <v>114</v>
       </c>
       <c r="B150" s="1">
-        <v>8000</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -7122,7 +7122,7 @@
         <v>571</v>
       </c>
       <c r="B151" s="1">
-        <v>24000</v>
+        <v>23250</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -7130,7 +7130,7 @@
         <v>161</v>
       </c>
       <c r="B152" s="1">
-        <v>14400</v>
+        <v>13950</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -7138,7 +7138,7 @@
         <v>527</v>
       </c>
       <c r="B153" s="1">
-        <v>48000</v>
+        <v>46500</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -7146,7 +7146,7 @@
         <v>74</v>
       </c>
       <c r="B154" s="1">
-        <v>51200</v>
+        <v>49600</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -7154,7 +7154,7 @@
         <v>162</v>
       </c>
       <c r="B155" s="1">
-        <v>48000</v>
+        <v>46500</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -7162,7 +7162,7 @@
         <v>75</v>
       </c>
       <c r="B156" s="1">
-        <v>64000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -7170,7 +7170,7 @@
         <v>603</v>
       </c>
       <c r="B157" s="1">
-        <v>44800</v>
+        <v>43400</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -7178,7 +7178,7 @@
         <v>605</v>
       </c>
       <c r="B158" s="1">
-        <v>57600</v>
+        <v>55800</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -7186,7 +7186,7 @@
         <v>76</v>
       </c>
       <c r="B159" s="1">
-        <v>41600</v>
+        <v>40300</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -7194,7 +7194,7 @@
         <v>77</v>
       </c>
       <c r="B160" s="1">
-        <v>25600</v>
+        <v>24800</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -7202,7 +7202,7 @@
         <v>78</v>
       </c>
       <c r="B161" s="1">
-        <v>32000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -7210,7 +7210,7 @@
         <v>79</v>
       </c>
       <c r="B162" s="1">
-        <v>32000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -7218,7 +7218,7 @@
         <v>80</v>
       </c>
       <c r="B163" s="1">
-        <v>38400</v>
+        <v>37200</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -7226,7 +7226,7 @@
         <v>81</v>
       </c>
       <c r="B164" s="1">
-        <v>32000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -7234,7 +7234,7 @@
         <v>82</v>
       </c>
       <c r="B165" s="1">
-        <v>38400</v>
+        <v>37200</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -7242,7 +7242,7 @@
         <v>518</v>
       </c>
       <c r="B166" s="1">
-        <v>57600</v>
+        <v>55800</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -7250,7 +7250,7 @@
         <v>170</v>
       </c>
       <c r="B167" s="1">
-        <v>1600</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -7258,7 +7258,7 @@
         <v>171</v>
       </c>
       <c r="B168" s="1">
-        <v>2240</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -7266,7 +7266,7 @@
         <v>85</v>
       </c>
       <c r="B169" s="1">
-        <v>2560</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -7274,7 +7274,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1">
-        <v>1600</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -7282,7 +7282,7 @@
         <v>117</v>
       </c>
       <c r="B171" s="1">
-        <v>80000</v>
+        <v>77500</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -7290,7 +7290,7 @@
         <v>118</v>
       </c>
       <c r="B172" s="1">
-        <v>64000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -7298,7 +7298,7 @@
         <v>120</v>
       </c>
       <c r="B173" s="1">
-        <v>64000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -7306,7 +7306,7 @@
         <v>115</v>
       </c>
       <c r="B174" s="1">
-        <v>48000</v>
+        <v>46500</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -7314,7 +7314,7 @@
         <v>116</v>
       </c>
       <c r="B175" s="1">
-        <v>48000</v>
+        <v>46500</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -7322,7 +7322,7 @@
         <v>119</v>
       </c>
       <c r="B176" s="1">
-        <v>57600</v>
+        <v>55800</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -7330,7 +7330,7 @@
         <v>121</v>
       </c>
       <c r="B177" s="1">
-        <v>57600</v>
+        <v>55800</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -7338,7 +7338,7 @@
         <v>163</v>
       </c>
       <c r="B178" s="1">
-        <v>11200</v>
+        <v>10850</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -7346,7 +7346,7 @@
         <v>164</v>
       </c>
       <c r="B179" s="1">
-        <v>11200</v>
+        <v>10850</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -7354,7 +7354,7 @@
         <v>86</v>
       </c>
       <c r="B180" s="1">
-        <v>9600</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -7362,7 +7362,7 @@
         <v>87</v>
       </c>
       <c r="B181" s="1">
-        <v>12800</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -7370,7 +7370,7 @@
         <v>88</v>
       </c>
       <c r="B182" s="1">
-        <v>9600</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -7378,7 +7378,7 @@
         <v>483</v>
       </c>
       <c r="B183" s="1">
-        <v>12800</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -7386,7 +7386,7 @@
         <v>89</v>
       </c>
       <c r="B184" s="1">
-        <v>12800</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -7394,7 +7394,7 @@
         <v>572</v>
       </c>
       <c r="B185" s="1">
-        <v>12800</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -7402,7 +7402,7 @@
         <v>90</v>
       </c>
       <c r="B186" s="1">
-        <v>12800</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -7410,7 +7410,7 @@
         <v>91</v>
       </c>
       <c r="B187" s="1">
-        <v>12800</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -7418,7 +7418,7 @@
         <v>573</v>
       </c>
       <c r="B188" s="1">
-        <v>11200</v>
+        <v>10850</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -7426,7 +7426,7 @@
         <v>123</v>
       </c>
       <c r="B189" s="1">
-        <v>6400</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -7434,7 +7434,7 @@
         <v>124</v>
       </c>
       <c r="B190" s="1">
-        <v>6400</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -7442,7 +7442,7 @@
         <v>494</v>
       </c>
       <c r="B191" s="1">
-        <v>22400</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -7450,7 +7450,7 @@
         <v>574</v>
       </c>
       <c r="B192" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -7458,7 +7458,7 @@
         <v>649</v>
       </c>
       <c r="B193" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -7466,7 +7466,7 @@
         <v>613</v>
       </c>
       <c r="B194" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -7474,7 +7474,7 @@
         <v>127</v>
       </c>
       <c r="B195" s="1">
-        <v>9600</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -7482,7 +7482,7 @@
         <v>438</v>
       </c>
       <c r="B196" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -7490,7 +7490,7 @@
         <v>604</v>
       </c>
       <c r="B197" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -7498,7 +7498,7 @@
         <v>627</v>
       </c>
       <c r="B198" s="1">
-        <v>6400</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -7506,7 +7506,7 @@
         <v>625</v>
       </c>
       <c r="B199" s="1">
-        <v>9600</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -7514,7 +7514,7 @@
         <v>614</v>
       </c>
       <c r="B200" s="1">
-        <v>8000</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -7522,7 +7522,7 @@
         <v>615</v>
       </c>
       <c r="B201" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -7530,7 +7530,7 @@
         <v>616</v>
       </c>
       <c r="B202" s="1">
-        <v>1600</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -7538,7 +7538,7 @@
         <v>485</v>
       </c>
       <c r="B203" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -7546,7 +7546,7 @@
         <v>122</v>
       </c>
       <c r="B204" s="1">
-        <v>19200</v>
+        <v>18600</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -7554,7 +7554,7 @@
         <v>165</v>
       </c>
       <c r="B205" s="1">
-        <v>11200</v>
+        <v>10850</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -7562,7 +7562,7 @@
         <v>166</v>
       </c>
       <c r="B206" s="1">
-        <v>12800</v>
+        <v>12400</v>
       </c>
     </row>
   </sheetData>
@@ -7575,7 +7575,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView zoomScale="91" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B39"/>
+      <selection activeCell="B2" sqref="B2:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
@@ -7596,7 +7596,7 @@
         <v>650</v>
       </c>
       <c r="B2" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7604,7 +7604,7 @@
         <v>640</v>
       </c>
       <c r="B3" s="1">
-        <v>35200</v>
+        <v>34100</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -7612,7 +7612,7 @@
         <v>575</v>
       </c>
       <c r="B4" s="1">
-        <v>8000</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7620,7 +7620,7 @@
         <v>576</v>
       </c>
       <c r="B5" s="1">
-        <v>11200</v>
+        <v>10850</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -7628,7 +7628,7 @@
         <v>577</v>
       </c>
       <c r="B6" s="1">
-        <v>32000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -7636,7 +7636,7 @@
         <v>578</v>
       </c>
       <c r="B7" s="1">
-        <v>28800</v>
+        <v>27900</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -7644,7 +7644,7 @@
         <v>609</v>
       </c>
       <c r="B8" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -7652,7 +7652,7 @@
         <v>579</v>
       </c>
       <c r="B9" s="1">
-        <v>12800</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -7660,7 +7660,7 @@
         <v>580</v>
       </c>
       <c r="B10" s="1">
-        <v>11200</v>
+        <v>10850</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -7668,7 +7668,7 @@
         <v>581</v>
       </c>
       <c r="B11" s="1">
-        <v>16000</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -7676,7 +7676,7 @@
         <v>582</v>
       </c>
       <c r="B12" s="1">
-        <v>8000</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -7684,7 +7684,7 @@
         <v>610</v>
       </c>
       <c r="B13" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -7692,7 +7692,7 @@
         <v>583</v>
       </c>
       <c r="B14" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -7700,7 +7700,7 @@
         <v>584</v>
       </c>
       <c r="B15" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -7708,7 +7708,7 @@
         <v>641</v>
       </c>
       <c r="B16" s="1">
-        <v>28800</v>
+        <v>27900</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -7716,7 +7716,7 @@
         <v>642</v>
       </c>
       <c r="B17" s="1">
-        <v>28800</v>
+        <v>27900</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -7724,7 +7724,7 @@
         <v>530</v>
       </c>
       <c r="B18" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -7732,7 +7732,7 @@
         <v>585</v>
       </c>
       <c r="B19" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -7740,7 +7740,7 @@
         <v>586</v>
       </c>
       <c r="B20" s="1">
-        <v>8000</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -7748,7 +7748,7 @@
         <v>587</v>
       </c>
       <c r="B21" s="1">
-        <v>6400</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -7756,7 +7756,7 @@
         <v>588</v>
       </c>
       <c r="B22" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -7764,7 +7764,7 @@
         <v>589</v>
       </c>
       <c r="B23" s="1">
-        <v>38400</v>
+        <v>37200</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -7772,7 +7772,7 @@
         <v>590</v>
       </c>
       <c r="B24" s="1">
-        <v>35200</v>
+        <v>34100</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -7780,7 +7780,7 @@
         <v>611</v>
       </c>
       <c r="B25" s="1">
-        <v>3840</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -7788,7 +7788,7 @@
         <v>591</v>
       </c>
       <c r="B26" s="1">
-        <v>9600</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -7796,7 +7796,7 @@
         <v>592</v>
       </c>
       <c r="B27" s="1">
-        <v>28800</v>
+        <v>27900</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -7804,7 +7804,7 @@
         <v>593</v>
       </c>
       <c r="B28">
-        <v>16000</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -7812,7 +7812,7 @@
         <v>594</v>
       </c>
       <c r="B29">
-        <v>14400</v>
+        <v>13950</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -7820,7 +7820,7 @@
         <v>649</v>
       </c>
       <c r="B30">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -7828,7 +7828,7 @@
         <v>606</v>
       </c>
       <c r="B31">
-        <v>22400</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -7836,7 +7836,7 @@
         <v>607</v>
       </c>
       <c r="B32">
-        <v>9600</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -7844,7 +7844,7 @@
         <v>438</v>
       </c>
       <c r="B33">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -7852,7 +7852,7 @@
         <v>604</v>
       </c>
       <c r="B34">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -7860,7 +7860,7 @@
         <v>614</v>
       </c>
       <c r="B35">
-        <v>8000</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -7868,7 +7868,7 @@
         <v>615</v>
       </c>
       <c r="B36">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -7876,7 +7876,7 @@
         <v>595</v>
       </c>
       <c r="B37">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -7884,7 +7884,7 @@
         <v>596</v>
       </c>
       <c r="B38">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -7892,7 +7892,7 @@
         <v>597</v>
       </c>
       <c r="B39">
-        <v>9600</v>
+        <v>9300</v>
       </c>
     </row>
   </sheetData>
@@ -7905,7 +7905,7 @@
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B53"/>
+      <selection activeCell="B2" sqref="B2:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
@@ -7927,7 +7927,7 @@
         <v>418</v>
       </c>
       <c r="B2" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7935,7 +7935,7 @@
         <v>419</v>
       </c>
       <c r="B3" s="1">
-        <v>14400</v>
+        <v>13950</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -7943,7 +7943,7 @@
         <v>420</v>
       </c>
       <c r="B4" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7951,7 +7951,7 @@
         <v>421</v>
       </c>
       <c r="B5" s="1">
-        <v>14400</v>
+        <v>13950</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -7959,7 +7959,7 @@
         <v>422</v>
       </c>
       <c r="B6" s="1">
-        <v>16000</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -7967,7 +7967,7 @@
         <v>496</v>
       </c>
       <c r="B7" s="1">
-        <v>22400</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -7975,7 +7975,7 @@
         <v>495</v>
       </c>
       <c r="B8" s="1">
-        <v>14400</v>
+        <v>13950</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -7983,7 +7983,7 @@
         <v>423</v>
       </c>
       <c r="B9" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -7991,7 +7991,7 @@
         <v>441</v>
       </c>
       <c r="B10" s="1">
-        <v>3840</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -7999,7 +7999,7 @@
         <v>424</v>
       </c>
       <c r="B11" s="1">
-        <v>3840</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -8007,7 +8007,7 @@
         <v>650</v>
       </c>
       <c r="B12" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -8015,7 +8015,7 @@
         <v>469</v>
       </c>
       <c r="B13" s="1">
-        <v>25600</v>
+        <v>24800</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -8023,7 +8023,7 @@
         <v>173</v>
       </c>
       <c r="B14" s="1">
-        <v>32000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -8031,7 +8031,7 @@
         <v>640</v>
       </c>
       <c r="B15" s="1">
-        <v>35200</v>
+        <v>34100</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -8039,7 +8039,7 @@
         <v>442</v>
       </c>
       <c r="B16" s="1">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -8047,7 +8047,7 @@
         <v>443</v>
       </c>
       <c r="B17" s="1">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -8055,7 +8055,7 @@
         <v>437</v>
       </c>
       <c r="B18" s="1">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -8063,7 +8063,7 @@
         <v>468</v>
       </c>
       <c r="B19" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -8071,7 +8071,7 @@
         <v>609</v>
       </c>
       <c r="B20" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -8079,7 +8079,7 @@
         <v>425</v>
       </c>
       <c r="B21" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -8087,7 +8087,7 @@
         <v>610</v>
       </c>
       <c r="B22" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -8095,7 +8095,7 @@
         <v>439</v>
       </c>
       <c r="B23" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -8103,7 +8103,7 @@
         <v>278</v>
       </c>
       <c r="B24" s="1">
-        <v>9600</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -8111,7 +8111,7 @@
         <v>464</v>
       </c>
       <c r="B25" s="1">
-        <v>1600</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -8119,7 +8119,7 @@
         <v>440</v>
       </c>
       <c r="B26" s="1">
-        <v>22400</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -8127,7 +8127,7 @@
         <v>174</v>
       </c>
       <c r="B27" s="1">
-        <v>25600</v>
+        <v>24800</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -8135,7 +8135,7 @@
         <v>463</v>
       </c>
       <c r="B28" s="1">
-        <v>25600</v>
+        <v>24800</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -8143,7 +8143,7 @@
         <v>641</v>
       </c>
       <c r="B29" s="1">
-        <v>28800</v>
+        <v>27900</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -8151,7 +8151,7 @@
         <v>642</v>
       </c>
       <c r="B30" s="1">
-        <v>28800</v>
+        <v>27900</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -8159,7 +8159,7 @@
         <v>530</v>
       </c>
       <c r="B31" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -8167,7 +8167,7 @@
         <v>426</v>
       </c>
       <c r="B32" s="1">
-        <v>3840</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -8175,7 +8175,7 @@
         <v>427</v>
       </c>
       <c r="B33" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -8183,7 +8183,7 @@
         <v>428</v>
       </c>
       <c r="B34" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -8191,7 +8191,7 @@
         <v>429</v>
       </c>
       <c r="B35" s="1">
-        <v>3840</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -8199,7 +8199,7 @@
         <v>430</v>
       </c>
       <c r="B36" s="1">
-        <v>3840</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -8207,7 +8207,7 @@
         <v>431</v>
       </c>
       <c r="B37" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -8215,7 +8215,7 @@
         <v>611</v>
       </c>
       <c r="B38" s="1">
-        <v>3840</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -8223,7 +8223,7 @@
         <v>598</v>
       </c>
       <c r="B39" s="1">
-        <v>5760</v>
+        <v>5580</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -8231,7 +8231,7 @@
         <v>432</v>
       </c>
       <c r="B40" s="1">
-        <v>6400</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -8239,7 +8239,7 @@
         <v>433</v>
       </c>
       <c r="B41" s="1">
-        <v>3840</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -8247,7 +8247,7 @@
         <v>434</v>
       </c>
       <c r="B42" s="1">
-        <v>2240</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -8255,7 +8255,7 @@
         <v>435</v>
       </c>
       <c r="B43" s="1">
-        <v>3840</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -8263,7 +8263,7 @@
         <v>643</v>
       </c>
       <c r="B44" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -8271,7 +8271,7 @@
         <v>436</v>
       </c>
       <c r="B45" s="1">
-        <v>3840</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -8279,7 +8279,7 @@
         <v>649</v>
       </c>
       <c r="B46" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -8287,7 +8287,7 @@
         <v>612</v>
       </c>
       <c r="B47" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -8295,7 +8295,7 @@
         <v>613</v>
       </c>
       <c r="B48" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -8303,7 +8303,7 @@
         <v>438</v>
       </c>
       <c r="B49" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -8311,7 +8311,7 @@
         <v>604</v>
       </c>
       <c r="B50" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -8319,7 +8319,7 @@
         <v>614</v>
       </c>
       <c r="B51" s="1">
-        <v>8000</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -8327,7 +8327,7 @@
         <v>615</v>
       </c>
       <c r="B52" s="1">
-        <v>4800</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -8335,7 +8335,7 @@
         <v>616</v>
       </c>
       <c r="B53" s="1">
-        <v>1600</v>
+        <v>1550</v>
       </c>
     </row>
   </sheetData>

--- a/clientes/files/TODITICO_CATÁLOGO.xlsx
+++ b/clientes/files/TODITICO_CATÁLOGO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabajo\Catálogos Proformas\Este\330 Actual\Clientes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabajo\Catálogos Proformas\Este\310 Actual\Clientes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD1B58B-C184-4C4C-930F-11086F2C3536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A657C555-63CD-481C-84F2-60E9515115CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="671" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="671" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DAEWOO TICO" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="654">
   <si>
     <t>DESCRIPCION</t>
   </si>
@@ -574,9 +574,6 @@
     <t>ACCESORIOS DE BANDAS DE FRENO (QUITA RUIDOS)</t>
   </si>
   <si>
-    <t>AGARRADERA DE TECHO C/U ($25 JGO DE 3)</t>
-  </si>
-  <si>
     <t>ALERON COLA DE PATO</t>
   </si>
   <si>
@@ -598,9 +595,6 @@
     <t>AMORTIGUADOR DE MALETERO</t>
   </si>
   <si>
-    <t>ANILLA DE AMIANTO Y DE BRONCE DE TUBO DE ESCAPE (10 Y 5 RESPECTIVAMENTE)</t>
-  </si>
-  <si>
     <t>ANILLOS O AROS DE ESTAS MEDIDAS (25 50 75 100 STD)</t>
   </si>
   <si>
@@ -643,9 +637,6 @@
     <t xml:space="preserve">BASE DE PANTALLA DELANTERA </t>
   </si>
   <si>
-    <t>BASES DE AMORTIGUADORES DE METAL (BASE 15, COPA 10 Y CORONA 10) JGO POR AMORTIGUADOR</t>
-  </si>
-  <si>
     <t>BENDIX MOTOR DE ARRANQUE</t>
   </si>
   <si>
@@ -820,9 +811,6 @@
     <t>CULEBRA CUENTAMILLAS</t>
   </si>
   <si>
-    <t>DEFENSAS DELANTERAS Y TRASERAS JGO (DEL 250 Y TRAS 200)</t>
-  </si>
-  <si>
     <t>DELCO</t>
   </si>
   <si>
@@ -934,9 +922,6 @@
     <t xml:space="preserve">JUNTA DE TAPA DE TANQUE AUXILIAR DE RADIADOR </t>
   </si>
   <si>
-    <t>JUNTAS DEL MOTOR JGO (BLOCK 20, ADMISION 10, ESCAPE 10, AGREGADOS 10, CARTER 10, OBSTURADORES 7, CABALLITOS 7, RETENES DISTRIBUCIÓN 7, RETEN DE CIGUEÑAL 5)</t>
-  </si>
-  <si>
     <t>JUNTAS PUERTAS Y MALETERO C/U</t>
   </si>
   <si>
@@ -1126,12 +1111,6 @@
     <t>RELAY DEL ELECTROVENTILADOR</t>
   </si>
   <si>
-    <t>REPARACION DE CARBURADOR (AGUJA 15, FLOTANTE 15, CHICLER (ALTA Y BAJA) 5, JUNTAS 10, KIT DE ANILLOS DE GOMA 10 Y MANGUERAS 10)</t>
-  </si>
-  <si>
-    <t>REPARACION DEL DELCO (PASTILLA 35, CAPTOR 35, ROTOR 10  Y TAPA 15)</t>
-  </si>
-  <si>
     <t>RETENES DE CUBO DE RUEDAS JGO</t>
   </si>
   <si>
@@ -1159,9 +1138,6 @@
     <t>SAPO DE PUERTA</t>
   </si>
   <si>
-    <t>SEPARADOR Y ANILLA DE CUBO DE RUEDA JGO POR GOMA (15   AMBAS GOMAS)</t>
-  </si>
-  <si>
     <t>SILENCIADOR DE TUBO DE ESCAPE CHIQUITO</t>
   </si>
   <si>
@@ -1282,15 +1258,6 @@
     <t>ZAPATILLAS DE REPARACIÓN DE PINZAS DE FRENO JGO</t>
   </si>
   <si>
-    <t>BOTAS DE CREMALLERA (LA PAREJA O $6   C/U)</t>
-  </si>
-  <si>
-    <t>BOTAS DE HOMOCINETICAS (EXTERIORES E INTERIORES) (LA PAREJA O $6 C/U)</t>
-  </si>
-  <si>
-    <t>FAROS DE DEFENSAS DELANTERAS C/U (O $25 LA PAREJA)</t>
-  </si>
-  <si>
     <t>ACEITE 15W40 1LT</t>
   </si>
   <si>
@@ -1994,6 +1961,42 @@
   </si>
   <si>
     <t xml:space="preserve">MANGUERA RADIADOR SUPERIOR PICANTO 1RA (04-07)       </t>
+  </si>
+  <si>
+    <t>AFORADOR SANDERO</t>
+  </si>
+  <si>
+    <t>AGARRADERA DE TECHO C/U</t>
+  </si>
+  <si>
+    <t>ANILLA DE AMIANTO Y DE BRONCE DE TUBO DE ESCAPE</t>
+  </si>
+  <si>
+    <t>BASES DE AMORTIGUADORES DE METAL (BASE, COPA Y CORONA) JGO POR AMORTIGUADOR</t>
+  </si>
+  <si>
+    <t>BOTAS DE CREMALLERA (LA PAREJA)</t>
+  </si>
+  <si>
+    <t>BOTAS DE HOMOCINETICAS (EXTERIORES E INTERIORES) (LA PAREJA)</t>
+  </si>
+  <si>
+    <t>DEFENSAS DELANTERAS Y TRASERAS JGO</t>
+  </si>
+  <si>
+    <t>FAROS DE DEFENSAS DELANTERAS C/U</t>
+  </si>
+  <si>
+    <t>JUNTAS DEL MOTOR JGO (BLOCK, ADMISION, ESCAPE, AGREGADOS, CARTER, OBSTURADORES, CABALLITOS, RETENES DISTRIBUCIÓN, RETEN DE CIGUEÑAL)</t>
+  </si>
+  <si>
+    <t>REPARACION DE CARBURADOR (AGUJA, FLOTANTE, CHICLER (ALTA Y BAJA), JUNTAS, KIT DE ANILLOS DE GOMA Y MANGUERAS)</t>
+  </si>
+  <si>
+    <t>REPARACION DEL DELCO (PASTILLA, CAPTOR, ROTOR  Y TAPA)</t>
+  </si>
+  <si>
+    <t>SEPARADOR Y ANILLA DE CUBO DE RUEDA JGO POR GOMA</t>
   </si>
 </sst>
 </file>
@@ -2469,8 +2472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B313"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B313"/>
+    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
@@ -2484,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2497,7 +2500,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="B3" s="1">
         <v>3720</v>
@@ -2513,7 +2516,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="B5" s="1">
         <v>6200</v>
@@ -2521,7 +2524,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="B6" s="1">
         <v>2170</v>
@@ -2529,7 +2532,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>643</v>
       </c>
       <c r="B7" s="1">
         <v>3100</v>
@@ -2537,7 +2540,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B8" s="1">
         <v>24800</v>
@@ -2545,7 +2548,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="B9" s="1">
         <v>31000</v>
@@ -2553,7 +2556,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B10" s="1">
         <v>37200</v>
@@ -2561,7 +2564,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B11" s="1">
         <v>31000</v>
@@ -2569,7 +2572,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B12" s="1">
         <v>49600</v>
@@ -2577,7 +2580,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B13" s="1">
         <v>10850</v>
@@ -2585,7 +2588,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B14" s="1">
         <v>46500</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B15" s="1">
         <v>34100</v>
@@ -2601,7 +2604,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>187</v>
+        <v>644</v>
       </c>
       <c r="B16" s="1">
         <v>4650</v>
@@ -2609,7 +2612,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B17" s="1">
         <v>12400</v>
@@ -2617,7 +2620,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B18" s="1">
         <v>9300</v>
@@ -2625,7 +2628,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="B19" s="1">
         <v>3100</v>
@@ -2633,7 +2636,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="B20" s="1">
         <v>1550</v>
@@ -2641,7 +2644,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B21" s="1">
         <v>930</v>
@@ -2649,7 +2652,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B22" s="1">
         <v>4650</v>
@@ -2657,7 +2660,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B23" s="1">
         <v>37200</v>
@@ -2665,7 +2668,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="B24" s="1">
         <v>15500</v>
@@ -2673,7 +2676,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B25" s="1">
         <v>3100</v>
@@ -2681,7 +2684,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B26" s="1">
         <v>27900</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B27" s="1">
         <v>10850</v>
@@ -2697,7 +2700,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B28" s="1">
         <v>3100</v>
@@ -2705,7 +2708,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B29" s="1">
         <v>46500</v>
@@ -2713,7 +2716,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B30" s="1">
         <v>37200</v>
@@ -2721,7 +2724,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B31" s="1">
         <v>52700</v>
@@ -2729,7 +2732,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B32" s="1">
         <v>9300</v>
@@ -2737,7 +2740,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B33" s="1">
         <v>18600</v>
@@ -2745,7 +2748,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="B34" s="1">
         <v>4650</v>
@@ -2753,7 +2756,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="4" t="s">
-        <v>202</v>
+        <v>645</v>
       </c>
       <c r="B35" s="1">
         <v>9300</v>
@@ -2761,7 +2764,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="B36" s="1">
         <v>24800</v>
@@ -2777,7 +2780,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B38" s="1">
         <v>7750</v>
@@ -2785,7 +2788,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B39" s="1">
         <v>15500</v>
@@ -2793,7 +2796,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B40" s="1">
         <v>3720</v>
@@ -2801,7 +2804,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B41" s="1">
         <v>12400</v>
@@ -2809,7 +2812,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B42" s="1">
         <v>24800</v>
@@ -2817,7 +2820,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B43" s="1">
         <v>13950</v>
@@ -2825,7 +2828,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B44" s="1">
         <v>18600</v>
@@ -2833,7 +2836,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B45" s="1">
         <v>13950</v>
@@ -2841,7 +2844,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B46" s="1">
         <v>6200</v>
@@ -2849,7 +2852,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="B47" s="1">
         <v>310</v>
@@ -2857,7 +2860,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="B48" s="1">
         <v>310</v>
@@ -2865,7 +2868,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="B49" s="1">
         <v>310</v>
@@ -2873,7 +2876,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="B50" s="1">
         <v>3100</v>
@@ -2881,7 +2884,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B51" s="1">
         <v>31000</v>
@@ -2889,7 +2892,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B52" s="1">
         <v>4650</v>
@@ -2897,7 +2900,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B53" s="1">
         <v>3100</v>
@@ -2905,7 +2908,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="4" t="s">
-        <v>415</v>
+        <v>646</v>
       </c>
       <c r="B54" s="1">
         <v>3100</v>
@@ -2913,7 +2916,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="4" t="s">
-        <v>416</v>
+        <v>647</v>
       </c>
       <c r="B55" s="1">
         <v>3100</v>
@@ -2921,7 +2924,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B56" s="1">
         <v>18600</v>
@@ -2929,7 +2932,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B57" s="1">
         <v>12400</v>
@@ -2937,7 +2940,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B58" s="1">
         <v>6200</v>
@@ -2945,7 +2948,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B59" s="1">
         <v>4650</v>
@@ -2953,7 +2956,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B60" s="1">
         <v>6200</v>
@@ -2961,7 +2964,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B61" s="1">
         <v>4650</v>
@@ -2969,7 +2972,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B62" s="1">
         <v>3100</v>
@@ -2977,7 +2980,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B63" s="1">
         <v>1550</v>
@@ -2985,7 +2988,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B64" s="1">
         <v>4650</v>
@@ -2993,7 +2996,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B65" s="1">
         <v>3100</v>
@@ -3001,7 +3004,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B66" s="1">
         <v>620</v>
@@ -3009,7 +3012,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B67" s="1">
         <v>4650</v>
@@ -3017,7 +3020,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B68" s="1">
         <v>4650</v>
@@ -3025,7 +3028,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B69" s="1">
         <v>3100</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="B70" s="1">
         <v>3100</v>
@@ -3041,7 +3044,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B71" s="1">
         <v>2170</v>
@@ -3049,7 +3052,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B72" s="1">
         <v>3100</v>
@@ -3057,7 +3060,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B73" s="1">
         <v>4650</v>
@@ -3065,7 +3068,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B74" s="1">
         <v>6200</v>
@@ -3073,7 +3076,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B75" s="1">
         <v>7750</v>
@@ -3081,7 +3084,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B76" s="1">
         <v>6200</v>
@@ -3089,7 +3092,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B77" s="1">
         <v>13950</v>
@@ -3097,7 +3100,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B78" s="1">
         <v>7750</v>
@@ -3105,7 +3108,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B79" s="1">
         <v>7750</v>
@@ -3113,7 +3116,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B80" s="1">
         <v>3100</v>
@@ -3121,7 +3124,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="B81" s="1">
         <v>4650</v>
@@ -3129,7 +3132,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="B82" s="1">
         <v>9300</v>
@@ -3137,7 +3140,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B83" s="1">
         <v>15500</v>
@@ -3145,7 +3148,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B84" s="1">
         <v>21700</v>
@@ -3153,7 +3156,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B85" s="1">
         <v>31000</v>
@@ -3161,7 +3164,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B86" s="1">
         <v>108500</v>
@@ -3169,7 +3172,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B87" s="1">
         <v>3100</v>
@@ -3177,7 +3180,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B88" s="1">
         <v>93000</v>
@@ -3185,7 +3188,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B89" s="1">
         <v>15500</v>
@@ -3193,7 +3196,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="B90" s="1">
         <v>4650</v>
@@ -3201,7 +3204,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="B91" s="1">
         <v>21700</v>
@@ -3209,7 +3212,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B92" s="1">
         <v>15500</v>
@@ -3217,7 +3220,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B93" s="1">
         <v>24800</v>
@@ -3225,7 +3228,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B94" s="1">
         <v>7750</v>
@@ -3233,7 +3236,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="B95" s="1">
         <v>7750</v>
@@ -3241,7 +3244,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B96" s="1">
         <v>7750</v>
@@ -3249,7 +3252,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="B97" s="1">
         <v>13950</v>
@@ -3257,7 +3260,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="B98" s="1">
         <v>77500</v>
@@ -3265,7 +3268,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="4" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="B99" s="1">
         <v>7750</v>
@@ -3273,7 +3276,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B100" s="1">
         <v>10850</v>
@@ -3281,7 +3284,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B101" s="1">
         <v>21700</v>
@@ -3289,7 +3292,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B102" s="1">
         <v>15500</v>
@@ -3297,7 +3300,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="B103" s="1">
         <v>9300</v>
@@ -3305,7 +3308,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="4" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="B104" s="1">
         <v>77.5</v>
@@ -3313,7 +3316,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B105" s="1">
         <v>37200</v>
@@ -3321,7 +3324,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B106" s="1">
         <v>9300</v>
@@ -3329,7 +3332,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B107" s="1">
         <v>18600</v>
@@ -3337,7 +3340,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="B108" s="1">
         <v>3100</v>
@@ -3345,7 +3348,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B109" s="1">
         <v>6200</v>
@@ -3353,7 +3356,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B110" s="1">
         <v>4650</v>
@@ -3361,7 +3364,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B111" s="1">
         <v>6200</v>
@@ -3369,7 +3372,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B112" s="1">
         <v>18600</v>
@@ -3377,7 +3380,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B113" s="1">
         <v>46500</v>
@@ -3385,7 +3388,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B114" s="1">
         <v>12400</v>
@@ -3393,7 +3396,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="B115" s="1">
         <v>31000</v>
@@ -3401,7 +3404,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B116" s="1">
         <v>7750</v>
@@ -3409,7 +3412,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>261</v>
+        <v>648</v>
       </c>
       <c r="B117" s="1">
         <v>139500</v>
@@ -3417,7 +3420,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B118" s="1">
         <v>55800</v>
@@ -3425,7 +3428,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="B119" s="1">
         <v>3100</v>
@@ -3433,7 +3436,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="B120" s="1">
         <v>9300</v>
@@ -3441,7 +3444,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="B121" s="1">
         <v>9300</v>
@@ -3449,7 +3452,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B122" s="1">
         <v>18600</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B123" s="1">
         <v>37200</v>
@@ -3465,7 +3468,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B124" s="1">
         <v>7750</v>
@@ -3473,7 +3476,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B125" s="1">
         <v>24800</v>
@@ -3481,7 +3484,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="B126" s="1">
         <v>77500</v>
@@ -3497,7 +3500,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B128" s="1">
         <v>6200</v>
@@ -3505,7 +3508,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B129" s="1">
         <v>4650</v>
@@ -3513,7 +3516,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="B130" s="1">
         <v>3100</v>
@@ -3521,7 +3524,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B131" s="1">
         <v>15500</v>
@@ -3529,7 +3532,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B132" s="1">
         <v>18600</v>
@@ -3537,7 +3540,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B133" s="1">
         <v>31000</v>
@@ -3545,7 +3548,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="4" t="s">
-        <v>417</v>
+        <v>649</v>
       </c>
       <c r="B134" s="1">
         <v>4650</v>
@@ -3553,7 +3556,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B135" s="1">
         <v>15500</v>
@@ -3561,7 +3564,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B136" s="1">
         <v>21700</v>
@@ -3569,7 +3572,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B137" s="1">
         <v>3100</v>
@@ -3577,7 +3580,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B138" s="1">
         <v>3100</v>
@@ -3585,7 +3588,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B139" s="1">
         <v>3100</v>
@@ -3593,7 +3596,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B140" s="1">
         <v>9300</v>
@@ -3601,7 +3604,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B141" s="1">
         <v>27900</v>
@@ -3609,7 +3612,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B142" s="1">
         <v>15500</v>
@@ -3617,7 +3620,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B143" s="1">
         <v>3100</v>
@@ -3625,7 +3628,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B144" s="1">
         <v>9300</v>
@@ -3633,7 +3636,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="B145" s="1">
         <v>6200</v>
@@ -3641,7 +3644,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B146" s="1">
         <v>37200</v>
@@ -3649,7 +3652,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B147" s="1">
         <v>4650</v>
@@ -3657,7 +3660,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B148" s="1">
         <v>21700</v>
@@ -3665,7 +3668,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B149" s="1">
         <v>6200</v>
@@ -3673,7 +3676,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="B150" s="1">
         <v>3100</v>
@@ -3681,7 +3684,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B151" s="1">
         <v>1550</v>
@@ -3689,7 +3692,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B152" s="1">
         <v>31000</v>
@@ -3697,7 +3700,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B153" s="1">
         <v>18600</v>
@@ -3705,7 +3708,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B154" s="1">
         <v>9300</v>
@@ -3713,7 +3716,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B155" s="1">
         <v>31000</v>
@@ -3721,7 +3724,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B156" s="1">
         <v>9300</v>
@@ -3729,7 +3732,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B157" s="1">
         <v>3100</v>
@@ -3737,7 +3740,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B158" s="1">
         <v>4650</v>
@@ -3745,7 +3748,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B159" s="1">
         <v>9300</v>
@@ -3753,7 +3756,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B160" s="1">
         <v>3100</v>
@@ -3761,7 +3764,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="B161" s="1">
         <v>3100</v>
@@ -3769,7 +3772,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="B162" s="1">
         <v>3100</v>
@@ -3777,7 +3780,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B163" s="1">
         <v>6200</v>
@@ -3785,7 +3788,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B164" s="1">
         <v>620</v>
@@ -3793,7 +3796,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B165" s="1">
         <v>6200</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>299</v>
+        <v>650</v>
       </c>
       <c r="B166" s="1">
         <v>15500</v>
@@ -3809,7 +3812,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B167" s="1">
         <v>12400</v>
@@ -3817,7 +3820,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="B168" s="1">
         <v>46500</v>
@@ -3825,7 +3828,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B169" s="1">
         <v>27900</v>
@@ -3833,7 +3836,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B170" s="1">
         <v>3720</v>
@@ -3841,7 +3844,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B171" s="1">
         <v>4650</v>
@@ -3849,7 +3852,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="B172" s="1">
         <v>124000</v>
@@ -3857,7 +3860,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B173" s="1">
         <v>170500</v>
@@ -3865,7 +3868,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B174" s="1">
         <v>1860</v>
@@ -3873,7 +3876,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B175" s="1">
         <v>3100</v>
@@ -3881,7 +3884,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="B176" s="1">
         <v>6200</v>
@@ -3889,7 +3892,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B177" s="1">
         <v>4650</v>
@@ -3897,7 +3900,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="B178" s="1">
         <v>1550</v>
@@ -3905,7 +3908,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B179" s="1">
         <v>4650</v>
@@ -3913,7 +3916,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B180" s="1">
         <v>21700</v>
@@ -3921,7 +3924,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B181" s="1">
         <v>3100</v>
@@ -3929,7 +3932,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B182" s="1">
         <v>3100</v>
@@ -3937,7 +3940,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B183" s="1">
         <v>6200</v>
@@ -3945,7 +3948,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B184" s="1">
         <v>3100</v>
@@ -3953,7 +3956,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B185" s="1">
         <v>3100</v>
@@ -3961,7 +3964,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B186" s="1">
         <v>3100</v>
@@ -3969,7 +3972,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="B187" s="1">
         <v>3720</v>
@@ -3977,7 +3980,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B188" s="1">
         <v>15500</v>
@@ -3985,7 +3988,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="B189" s="1">
         <v>1550</v>
@@ -3993,7 +3996,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="B190" s="1">
         <v>1550</v>
@@ -4001,7 +4004,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B191" s="1">
         <v>9300</v>
@@ -4009,7 +4012,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B192" s="1">
         <v>2170</v>
@@ -4017,7 +4020,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B193" s="1">
         <v>86800</v>
@@ -4025,7 +4028,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B194" s="1">
         <v>46500</v>
@@ -4033,7 +4036,7 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="B195" s="1">
         <v>20150</v>
@@ -4041,7 +4044,7 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="B196" s="1">
         <v>24800</v>
@@ -4049,7 +4052,7 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B197" s="1">
         <v>9300</v>
@@ -4057,7 +4060,7 @@
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B198" s="1">
         <v>46500</v>
@@ -4065,7 +4068,7 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B199" s="1">
         <v>3100</v>
@@ -4073,7 +4076,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="B200" s="1">
         <v>18600</v>
@@ -4081,7 +4084,7 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B201" s="1">
         <v>3100</v>
@@ -4089,7 +4092,7 @@
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B202" s="1">
         <v>6200</v>
@@ -4097,7 +4100,7 @@
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B203" s="1">
         <v>31000</v>
@@ -4105,7 +4108,7 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B204" s="1">
         <v>37200</v>
@@ -4113,7 +4116,7 @@
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B205" s="1">
         <v>93000</v>
@@ -4121,7 +4124,7 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B206" s="1">
         <v>49600</v>
@@ -4129,7 +4132,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B207" s="1">
         <v>34100</v>
@@ -4137,7 +4140,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B208" s="1">
         <v>49600</v>
@@ -4145,7 +4148,7 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B209" s="1">
         <v>9300</v>
@@ -4153,7 +4156,7 @@
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B210" s="1">
         <v>52700</v>
@@ -4161,7 +4164,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B211" s="1">
         <v>24800</v>
@@ -4169,7 +4172,7 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B212" s="1">
         <v>68200</v>
@@ -4177,7 +4180,7 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B213" s="1">
         <v>27900</v>
@@ -4185,7 +4188,7 @@
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B214" s="1">
         <v>7750</v>
@@ -4193,7 +4196,7 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B215" s="1">
         <v>21700</v>
@@ -4201,7 +4204,7 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B216" s="1">
         <v>7750</v>
@@ -4209,7 +4212,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B217" s="1">
         <v>3100</v>
@@ -4217,7 +4220,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="B218" s="1">
         <v>6200</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="B219" s="1">
         <v>6200</v>
@@ -4233,7 +4236,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B220" s="1">
         <v>9300</v>
@@ -4241,7 +4244,7 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B221" s="1">
         <v>9300</v>
@@ -4249,7 +4252,7 @@
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B222" s="1">
         <v>18600</v>
@@ -4257,7 +4260,7 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="B223" s="1">
         <v>12400</v>
@@ -4265,7 +4268,7 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B224" s="1">
         <v>9300</v>
@@ -4273,7 +4276,7 @@
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B225" s="1">
         <v>6200</v>
@@ -4281,7 +4284,7 @@
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B226" s="1">
         <v>6200</v>
@@ -4289,7 +4292,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B227" s="1">
         <v>46500</v>
@@ -4297,7 +4300,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B228" s="1">
         <v>108500</v>
@@ -4305,7 +4308,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B229" s="1">
         <v>6200</v>
@@ -4313,7 +4316,7 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B230" s="1">
         <v>6200</v>
@@ -4321,7 +4324,7 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B231" s="1">
         <v>4650</v>
@@ -4329,7 +4332,7 @@
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B232" s="1">
         <v>9300</v>
@@ -4337,7 +4340,7 @@
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B233" s="1">
         <v>4650</v>
@@ -4345,7 +4348,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B234" s="1">
         <v>21700</v>
@@ -4353,7 +4356,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B235" s="1">
         <v>12400</v>
@@ -4361,7 +4364,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B236" s="1">
         <v>31000</v>
@@ -4369,7 +4372,7 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B237" s="1">
         <v>21700</v>
@@ -4377,7 +4380,7 @@
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B238" s="1">
         <v>4650</v>
@@ -4385,7 +4388,7 @@
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B239" s="1">
         <v>40300</v>
@@ -4393,7 +4396,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B240" s="1">
         <v>62000</v>
@@ -4401,7 +4404,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B241" s="1">
         <v>9300</v>
@@ -4409,7 +4412,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B242" s="1">
         <v>4650</v>
@@ -4417,7 +4420,7 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="B243" s="1">
         <v>31000</v>
@@ -4425,7 +4428,7 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>363</v>
+        <v>651</v>
       </c>
       <c r="B244" s="1">
         <v>20150</v>
@@ -4433,7 +4436,7 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>364</v>
+        <v>652</v>
       </c>
       <c r="B245" s="1">
         <v>29450</v>
@@ -4441,7 +4444,7 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B246" s="1">
         <v>3100</v>
@@ -4449,7 +4452,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B247" s="1">
         <v>6200</v>
@@ -4457,7 +4460,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B248" s="1">
         <v>3100</v>
@@ -4465,7 +4468,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B249" s="1">
         <v>3100</v>
@@ -4473,7 +4476,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B250" s="1">
         <v>3100</v>
@@ -4481,7 +4484,7 @@
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B251" s="1">
         <v>3100</v>
@@ -4489,7 +4492,7 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B252" s="1">
         <v>4650</v>
@@ -4497,7 +4500,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B253" s="1">
         <v>4650</v>
@@ -4505,7 +4508,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B254" s="1">
         <v>4650</v>
@@ -4513,7 +4516,7 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="B255" s="1">
         <v>4650</v>
@@ -4521,7 +4524,7 @@
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="B256" s="1">
         <v>1860</v>
@@ -4529,7 +4532,7 @@
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>374</v>
+        <v>653</v>
       </c>
       <c r="B257" s="1">
         <v>3100</v>
@@ -4537,7 +4540,7 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B258" s="1">
         <v>46500</v>
@@ -4545,7 +4548,7 @@
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B259" s="1">
         <v>55800</v>
@@ -4553,7 +4556,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B260" s="1">
         <v>27900</v>
@@ -4561,7 +4564,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B261" s="1">
         <v>9300</v>
@@ -4569,7 +4572,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B262" s="1">
         <v>7750</v>
@@ -4577,7 +4580,7 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B263" s="1">
         <v>1240</v>
@@ -4585,7 +4588,7 @@
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B264" s="1">
         <v>23250</v>
@@ -4593,7 +4596,7 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B265" s="1">
         <v>7750</v>
@@ -4601,7 +4604,7 @@
     </row>
     <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B266" s="1">
         <v>21700</v>
@@ -4609,7 +4612,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="B267" s="1">
         <v>3720</v>
@@ -4617,7 +4620,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B268" s="1">
         <v>4650</v>
@@ -4625,7 +4628,7 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B269" s="1">
         <v>77500</v>
@@ -4633,7 +4636,7 @@
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="B270" s="1">
         <v>170500</v>
@@ -4641,7 +4644,7 @@
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B271" s="1">
         <v>7750</v>
@@ -4649,7 +4652,7 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B272" s="1">
         <v>3100</v>
@@ -4657,7 +4660,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="B273" s="1">
         <v>6200</v>
@@ -4665,7 +4668,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B274" s="1">
         <v>3100</v>
@@ -4673,7 +4676,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B275" s="1">
         <v>4650</v>
@@ -4681,7 +4684,7 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="B276" s="1">
         <v>4650</v>
@@ -4689,7 +4692,7 @@
     </row>
     <row r="277" spans="1:2">
       <c r="A277" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="B277" s="1">
         <v>3100</v>
@@ -4697,7 +4700,7 @@
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B278" s="1">
         <v>2170</v>
@@ -4705,7 +4708,7 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B279" s="1">
         <v>15500</v>
@@ -4713,7 +4716,7 @@
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B280" s="1">
         <v>1550</v>
@@ -4721,7 +4724,7 @@
     </row>
     <row r="281" spans="1:2">
       <c r="A281" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B281" s="1">
         <v>1550</v>
@@ -4729,7 +4732,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B282" s="1">
         <v>1550</v>
@@ -4737,7 +4740,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B283" s="1">
         <v>2170</v>
@@ -4745,7 +4748,7 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B284" s="1">
         <v>6200</v>
@@ -4753,7 +4756,7 @@
     </row>
     <row r="285" spans="1:2">
       <c r="A285" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="B285" s="1">
         <v>3100</v>
@@ -4761,7 +4764,7 @@
     </row>
     <row r="286" spans="1:2">
       <c r="A286" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="B286" s="1">
         <v>4650</v>
@@ -4769,7 +4772,7 @@
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B287" s="1">
         <v>4650</v>
@@ -4777,7 +4780,7 @@
     </row>
     <row r="288" spans="1:2">
       <c r="A288" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="B288" s="1">
         <v>7750</v>
@@ -4785,7 +4788,7 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="B289" s="1">
         <v>4650</v>
@@ -4793,7 +4796,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B290" s="1">
         <v>1550</v>
@@ -4801,7 +4804,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B291" s="1">
         <v>2170</v>
@@ -4809,7 +4812,7 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B292" s="1">
         <v>3100</v>
@@ -4817,7 +4820,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B293" s="1">
         <v>620</v>
@@ -4825,7 +4828,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="B294" s="1">
         <v>1550</v>
@@ -4833,7 +4836,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B295" s="1">
         <v>930</v>
@@ -4841,7 +4844,7 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B296" s="1">
         <v>1240</v>
@@ -4849,7 +4852,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="B297" s="1">
         <v>930</v>
@@ -4857,7 +4860,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="B298" s="1">
         <v>2170</v>
@@ -4865,7 +4868,7 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="B299" s="1">
         <v>620</v>
@@ -4873,7 +4876,7 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="B300" s="1">
         <v>55800</v>
@@ -4881,7 +4884,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="B301" s="1">
         <v>3100</v>
@@ -4889,7 +4892,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="B302" s="1">
         <v>6200</v>
@@ -4897,7 +4900,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B303" s="1">
         <v>7750</v>
@@ -4905,7 +4908,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B304" s="1">
         <v>13950</v>
@@ -4913,7 +4916,7 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B305" s="1">
         <v>4650</v>
@@ -4921,7 +4924,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B306" s="1">
         <v>18600</v>
@@ -4929,7 +4932,7 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B307" s="1">
         <v>31000</v>
@@ -4937,7 +4940,7 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="B308" s="1">
         <v>4650</v>
@@ -4945,7 +4948,7 @@
     </row>
     <row r="309" spans="1:2">
       <c r="A309" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="B309" s="1">
         <v>4650</v>
@@ -4953,7 +4956,7 @@
     </row>
     <row r="310" spans="1:2">
       <c r="A310" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B310" s="1">
         <v>10850</v>
@@ -4961,7 +4964,7 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B311" s="1">
         <v>3100</v>
@@ -4969,7 +4972,7 @@
     </row>
     <row r="312" spans="1:2">
       <c r="A312" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="B312" s="1">
         <v>1550</v>
@@ -4977,7 +4980,7 @@
     </row>
     <row r="313" spans="1:2">
       <c r="A313" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B313" s="1">
         <v>4650</v>
@@ -5007,12 +5010,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="B2" s="1">
         <v>43400</v>
@@ -5028,7 +5031,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="B4" s="1">
         <v>55800</v>
@@ -5044,7 +5047,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="B6" s="1">
         <v>37200</v>
@@ -5052,7 +5055,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="9" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="B7" s="1">
         <v>3100</v>
@@ -5068,7 +5071,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="10" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="B9" s="1">
         <v>24800</v>
@@ -5092,7 +5095,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="11" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="B12" s="1">
         <v>24800</v>
@@ -5124,7 +5127,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="12" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="B16" s="1">
         <v>18600</v>
@@ -5140,7 +5143,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="6" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="B18" s="1">
         <v>21700</v>
@@ -5148,7 +5151,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="6" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="B19" s="1">
         <v>24800</v>
@@ -5156,7 +5159,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="6" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="B20" s="1">
         <v>310</v>
@@ -5164,7 +5167,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="B21" s="1">
         <v>310</v>
@@ -5172,7 +5175,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="6" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="B22" s="1">
         <v>310</v>
@@ -5180,7 +5183,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="6" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="B23" s="1">
         <v>4650</v>
@@ -5188,7 +5191,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="6" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="B24" s="1">
         <v>12400</v>
@@ -5196,7 +5199,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="6" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="B25" s="1">
         <v>12400</v>
@@ -5228,7 +5231,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="6" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="B29" s="1">
         <v>2170</v>
@@ -5244,7 +5247,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="13" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="B31" s="1">
         <v>4650</v>
@@ -5252,7 +5255,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="6" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="B32" s="1">
         <v>7750</v>
@@ -5260,7 +5263,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="6" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="B33" s="1">
         <v>7750</v>
@@ -5268,7 +5271,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="6" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="B34" s="1">
         <v>15500</v>
@@ -5276,7 +5279,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="6" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="B35" s="1">
         <v>18600</v>
@@ -5284,7 +5287,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="6" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="B36" s="1">
         <v>15500</v>
@@ -5292,7 +5295,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="8" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="B37" s="1">
         <v>21700</v>
@@ -5300,7 +5303,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="14" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="B38" s="1">
         <v>4650</v>
@@ -5332,7 +5335,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="10" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="B42" s="1">
         <v>21700</v>
@@ -5340,7 +5343,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="6" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="B43" s="1">
         <v>4650</v>
@@ -5356,7 +5359,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="B45" s="1">
         <v>62000</v>
@@ -5372,7 +5375,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="15" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="B47" s="1">
         <v>31000</v>
@@ -5420,7 +5423,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="6" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="B53" s="1">
         <v>12400</v>
@@ -5428,7 +5431,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="7" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="B54" s="1">
         <v>3100</v>
@@ -5436,7 +5439,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="17" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="B55" s="1">
         <v>18600</v>
@@ -5444,7 +5447,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="11" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="B56" s="1">
         <v>17050</v>
@@ -5452,7 +5455,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="17" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="B57" s="1">
         <v>3100</v>
@@ -5476,7 +5479,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="6" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="B60" s="1">
         <v>4650</v>
@@ -5492,7 +5495,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="11" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="B62" s="1">
         <v>3100</v>
@@ -5524,7 +5527,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="11" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="B66" s="1">
         <v>21700</v>
@@ -5556,7 +5559,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="6" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="B70" s="1">
         <v>3100</v>
@@ -5564,7 +5567,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="6" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="B71" s="1">
         <v>4650</v>
@@ -5580,7 +5583,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="6" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="B73" s="1">
         <v>3720</v>
@@ -5588,7 +5591,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="6" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="B74" s="1">
         <v>13950</v>
@@ -5596,7 +5599,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="12" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="B75" s="1">
         <v>10850</v>
@@ -5612,7 +5615,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="11" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="B77" s="1">
         <v>4650</v>
@@ -5620,7 +5623,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="6" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="B78" s="1">
         <v>3720</v>
@@ -5652,7 +5655,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="6" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="B82" s="1">
         <v>12400</v>
@@ -5660,7 +5663,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="6" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="B83" s="1">
         <v>37200</v>
@@ -5676,7 +5679,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="B85" s="1">
         <v>6200</v>
@@ -5684,7 +5687,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="12" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="B86" s="1">
         <v>4650</v>
@@ -5692,7 +5695,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="5" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="B87" s="1">
         <v>23250</v>
@@ -5708,7 +5711,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="5" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="B89" s="1">
         <v>46500</v>
@@ -5756,7 +5759,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="6" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="B95" s="1">
         <v>12400</v>
@@ -5764,7 +5767,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="11" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="B96" s="1">
         <v>12400</v>
@@ -5772,7 +5775,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="6" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="B97" s="1">
         <v>21700</v>
@@ -5780,7 +5783,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="6" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="B98" s="1">
         <v>6200</v>
@@ -5788,7 +5791,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="21" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="B99" s="1">
         <v>12400</v>
@@ -5804,7 +5807,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="B101" s="1">
         <v>3100</v>
@@ -5812,7 +5815,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="6" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="B102" s="1">
         <v>1550</v>
@@ -5820,7 +5823,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="6" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="B103" s="1">
         <v>3100</v>
@@ -5828,7 +5831,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="6" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="B104" s="1">
         <v>3100</v>
@@ -5836,7 +5839,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B105" s="1">
         <v>9300</v>
@@ -5844,7 +5847,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="B106" s="1">
         <v>3100</v>
@@ -5852,7 +5855,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="B107" s="1">
         <v>4650</v>
@@ -5860,7 +5863,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="B108" s="1">
         <v>4650</v>
@@ -5868,7 +5871,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="B109" s="1">
         <v>7750</v>
@@ -5876,7 +5879,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="B110" s="1">
         <v>4650</v>
@@ -5884,7 +5887,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="4" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="B111" s="1">
         <v>3100</v>
@@ -5922,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5967,7 +5970,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="24" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="B7" s="1">
         <v>55800</v>
@@ -5991,7 +5994,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="B10" s="1">
         <v>3100</v>
@@ -5999,7 +6002,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="B11" s="1">
         <v>24800</v>
@@ -6031,7 +6034,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="B15" s="1">
         <v>24800</v>
@@ -6095,7 +6098,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="B23" s="1">
         <v>18600</v>
@@ -6127,7 +6130,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="B27" s="1">
         <v>310</v>
@@ -6135,7 +6138,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="B28" s="1">
         <v>310</v>
@@ -6143,7 +6146,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="5" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="B29" s="1">
         <v>310</v>
@@ -6151,7 +6154,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="B30" s="1">
         <v>3100</v>
@@ -6207,7 +6210,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="5" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="B37" s="1">
         <v>2170</v>
@@ -6215,7 +6218,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="27" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="B38" s="1">
         <v>2170</v>
@@ -6231,7 +6234,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="5" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="B40" s="1">
         <v>12400</v>
@@ -6239,7 +6242,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="5" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="B41" s="1">
         <v>24800</v>
@@ -6247,7 +6250,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="25" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="B42" s="1">
         <v>27900</v>
@@ -6263,7 +6266,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="5" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="B44" s="1">
         <v>31000</v>
@@ -6271,7 +6274,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="5" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="B45" s="1">
         <v>23250</v>
@@ -6287,7 +6290,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="5" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="B47" s="1">
         <v>4650</v>
@@ -6319,7 +6322,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="5" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="B51" s="1">
         <v>9300</v>
@@ -6503,7 +6506,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="5" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="B74" s="1">
         <v>77500</v>
@@ -6551,7 +6554,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="5" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="B80" s="1">
         <v>21700</v>
@@ -6559,7 +6562,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="28" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="B81" s="1">
         <v>21700</v>
@@ -6583,7 +6586,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="5" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="B84" s="1">
         <v>43400</v>
@@ -6599,7 +6602,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="5" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B86" s="1">
         <v>7750</v>
@@ -6607,7 +6610,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="5" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="B87" s="1">
         <v>15500</v>
@@ -6615,7 +6618,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="5" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="B88" s="1">
         <v>7750</v>
@@ -6623,7 +6626,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="5" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="B89" s="1">
         <v>3100</v>
@@ -6663,7 +6666,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="5" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="B94" s="1">
         <v>3100</v>
@@ -6671,7 +6674,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="5" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="B95" s="1">
         <v>4650</v>
@@ -6679,7 +6682,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="5" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="B96" s="1">
         <v>6200</v>
@@ -6687,7 +6690,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="5" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="B97" s="1">
         <v>9300</v>
@@ -6719,7 +6722,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="29" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="B101" s="1">
         <v>4650</v>
@@ -6727,7 +6730,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="5" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="B102" s="1">
         <v>6200</v>
@@ -6743,7 +6746,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="30" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="B104" s="1">
         <v>24800</v>
@@ -6751,7 +6754,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="B105" s="1">
         <v>3100</v>
@@ -6799,7 +6802,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="5" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="B111" s="1">
         <v>43400</v>
@@ -6807,7 +6810,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="5" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="B112" s="1">
         <v>18600</v>
@@ -6815,7 +6818,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="5" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="B113" s="1">
         <v>18600</v>
@@ -6823,7 +6826,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="5" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="B114" s="1">
         <v>6200</v>
@@ -6831,7 +6834,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="5" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="B115" s="1">
         <v>4650</v>
@@ -6839,7 +6842,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="5" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="B116" s="1">
         <v>4650</v>
@@ -6847,7 +6850,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="5" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="B117" s="1">
         <v>7750</v>
@@ -6863,7 +6866,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="5" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="B119" s="1">
         <v>4650</v>
@@ -6879,7 +6882,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="5" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="B121" s="1">
         <v>3100</v>
@@ -6911,7 +6914,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="5" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="B125" s="1">
         <v>3720</v>
@@ -6919,7 +6922,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="5" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="B126" s="1">
         <v>13950</v>
@@ -6927,7 +6930,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="5" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="B127" s="1">
         <v>10850</v>
@@ -6967,7 +6970,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="5" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="B132" s="1">
         <v>43400</v>
@@ -6983,7 +6986,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="5" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="B134" s="1">
         <v>3720</v>
@@ -7023,7 +7026,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="5" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="B139" s="1">
         <v>55800</v>
@@ -7031,7 +7034,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="5" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="B140" s="1">
         <v>62000</v>
@@ -7063,7 +7066,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="5" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="B144" s="1">
         <v>37200</v>
@@ -7079,7 +7082,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="5" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="B146" s="1">
         <v>6200</v>
@@ -7095,7 +7098,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="5" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="B148" s="1">
         <v>10850</v>
@@ -7119,7 +7122,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="5" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="B151" s="1">
         <v>23250</v>
@@ -7135,7 +7138,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="5" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="B153" s="1">
         <v>46500</v>
@@ -7167,7 +7170,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="5" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="B157" s="1">
         <v>43400</v>
@@ -7175,7 +7178,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="5" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="B158" s="1">
         <v>55800</v>
@@ -7239,7 +7242,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="5" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="B166" s="1">
         <v>55800</v>
@@ -7375,7 +7378,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="B183" s="1">
         <v>12400</v>
@@ -7391,7 +7394,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="5" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="B185" s="1">
         <v>12400</v>
@@ -7415,7 +7418,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="5" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="B188" s="1">
         <v>10850</v>
@@ -7439,7 +7442,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="B191" s="1">
         <v>21700</v>
@@ -7447,7 +7450,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="B192" s="1">
         <v>3100</v>
@@ -7455,7 +7458,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="B193" s="1">
         <v>3100</v>
@@ -7463,7 +7466,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="B194" s="1">
         <v>3100</v>
@@ -7479,7 +7482,7 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="B196" s="1">
         <v>3100</v>
@@ -7487,7 +7490,7 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="B197" s="1">
         <v>4650</v>
@@ -7495,7 +7498,7 @@
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="B198" s="1">
         <v>6200</v>
@@ -7503,7 +7506,7 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="B199" s="1">
         <v>9300</v>
@@ -7511,7 +7514,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="B200" s="1">
         <v>7750</v>
@@ -7519,7 +7522,7 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="B201" s="1">
         <v>4650</v>
@@ -7527,7 +7530,7 @@
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="B202" s="1">
         <v>1550</v>
@@ -7535,7 +7538,7 @@
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="4" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="B203" s="1">
         <v>3100</v>
@@ -7572,10 +7575,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView zoomScale="91" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B39"/>
+    <sheetView topLeftCell="A23" zoomScale="91" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
@@ -7588,108 +7591,108 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="34" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="B2" s="1">
-        <v>3100</v>
+        <v>55800</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="35" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B3" s="1">
-        <v>34100</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="35" t="s">
-        <v>575</v>
+        <v>629</v>
       </c>
       <c r="B4" s="1">
-        <v>7750</v>
+        <v>34100</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="35" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="B5" s="1">
-        <v>10850</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="35" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="B6" s="1">
-        <v>31000</v>
+        <v>10850</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="35" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="B7" s="1">
-        <v>27900</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="35" t="s">
-        <v>609</v>
+        <v>567</v>
       </c>
       <c r="B8" s="1">
-        <v>4650</v>
+        <v>27900</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="35" t="s">
-        <v>579</v>
+        <v>598</v>
       </c>
       <c r="B9" s="1">
-        <v>12400</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="35" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="B10" s="1">
-        <v>10850</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="35" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="B11" s="1">
-        <v>15500</v>
+        <v>10850</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="35" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="B12" s="1">
-        <v>7750</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="35" t="s">
-        <v>610</v>
+        <v>571</v>
       </c>
       <c r="B13" s="1">
-        <v>3100</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="35" t="s">
-        <v>583</v>
+        <v>599</v>
       </c>
       <c r="B14" s="1">
         <v>3100</v>
@@ -7697,7 +7700,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="35" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="B15" s="1">
         <v>3100</v>
@@ -7705,15 +7708,15 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="35" t="s">
-        <v>641</v>
+        <v>573</v>
       </c>
       <c r="B16" s="1">
-        <v>27900</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="35" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="B17" s="1">
         <v>27900</v>
@@ -7721,167 +7724,167 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="35" t="s">
-        <v>530</v>
+        <v>631</v>
       </c>
       <c r="B18" s="1">
-        <v>3100</v>
+        <v>27900</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="35" t="s">
-        <v>585</v>
+        <v>519</v>
       </c>
       <c r="B19" s="1">
-        <v>4650</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="35" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="B20" s="1">
-        <v>7750</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="35" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="B21" s="1">
-        <v>6200</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="35" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="B22" s="1">
-        <v>3100</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="35" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="B23" s="1">
-        <v>37200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="35" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="B24" s="1">
-        <v>34100</v>
+        <v>37200</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="35" t="s">
-        <v>611</v>
+        <v>579</v>
       </c>
       <c r="B25" s="1">
-        <v>3720</v>
+        <v>34100</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="35" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="B26" s="1">
-        <v>9300</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="35" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="B27" s="1">
-        <v>27900</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="B28">
-        <v>15500</v>
+        <v>27900</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="B29">
-        <v>13950</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>649</v>
+        <v>583</v>
       </c>
       <c r="B30">
-        <v>3100</v>
+        <v>13950</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>606</v>
+        <v>638</v>
       </c>
       <c r="B31">
-        <v>21700</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="B32">
-        <v>9300</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>438</v>
+        <v>596</v>
       </c>
       <c r="B33">
-        <v>3100</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>604</v>
+        <v>427</v>
       </c>
       <c r="B34">
-        <v>4650</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>614</v>
+        <v>593</v>
       </c>
       <c r="B35">
-        <v>7750</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="B36">
-        <v>4650</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="B37">
-        <v>3100</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="4" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="B38">
         <v>3100</v>
@@ -7889,9 +7892,17 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="B39">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>586</v>
+      </c>
+      <c r="B40">
         <v>9300</v>
       </c>
     </row>
@@ -7904,7 +7915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B53"/>
     </sheetView>
   </sheetViews>
@@ -7919,12 +7930,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="B2" s="1">
         <v>3100</v>
@@ -7932,7 +7943,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="B3" s="1">
         <v>13950</v>
@@ -7940,7 +7951,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="B4" s="1">
         <v>3100</v>
@@ -7948,7 +7959,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="B5" s="1">
         <v>13950</v>
@@ -7956,7 +7967,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="B6" s="1">
         <v>15500</v>
@@ -7964,7 +7975,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="B7" s="1">
         <v>21700</v>
@@ -7972,7 +7983,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="B8" s="1">
         <v>13950</v>
@@ -7980,7 +7991,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="B9" s="1">
         <v>4650</v>
@@ -7988,7 +7999,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="B10" s="1">
         <v>3720</v>
@@ -7996,7 +8007,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="B11" s="1">
         <v>3720</v>
@@ -8004,7 +8015,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="B12" s="1">
         <v>3100</v>
@@ -8012,7 +8023,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="B13" s="1">
         <v>24800</v>
@@ -8028,7 +8039,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="B15" s="1">
         <v>34100</v>
@@ -8036,7 +8047,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="B16" s="1">
         <v>310</v>
@@ -8044,7 +8055,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="B17" s="1">
         <v>310</v>
@@ -8052,7 +8063,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="B18" s="1">
         <v>310</v>
@@ -8060,7 +8071,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="B19" s="1">
         <v>3100</v>
@@ -8068,7 +8079,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="B20" s="1">
         <v>4650</v>
@@ -8076,7 +8087,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="B21" s="1">
         <v>3100</v>
@@ -8084,7 +8095,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="B22" s="1">
         <v>3100</v>
@@ -8092,7 +8103,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="B23" s="1">
         <v>3100</v>
@@ -8100,7 +8111,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B24" s="1">
         <v>9300</v>
@@ -8108,7 +8119,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="B25" s="1">
         <v>1550</v>
@@ -8116,7 +8127,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="B26" s="1">
         <v>21700</v>
@@ -8132,7 +8143,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="B28" s="1">
         <v>24800</v>
@@ -8140,7 +8151,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="B29" s="1">
         <v>27900</v>
@@ -8148,7 +8159,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="B30" s="1">
         <v>27900</v>
@@ -8156,7 +8167,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="B31" s="1">
         <v>3100</v>
@@ -8164,7 +8175,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="B32" s="1">
         <v>3720</v>
@@ -8172,7 +8183,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="B33" s="1">
         <v>3100</v>
@@ -8180,7 +8191,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="B34" s="1">
         <v>4650</v>
@@ -8188,7 +8199,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="B35" s="1">
         <v>3720</v>
@@ -8196,7 +8207,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="B36" s="1">
         <v>3720</v>
@@ -8204,7 +8215,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="B37" s="1">
         <v>3100</v>
@@ -8212,7 +8223,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="B38" s="1">
         <v>3720</v>
@@ -8220,7 +8231,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="B39" s="1">
         <v>5580</v>
@@ -8228,7 +8239,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="B40" s="1">
         <v>6200</v>
@@ -8236,7 +8247,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="B41" s="1">
         <v>3720</v>
@@ -8244,7 +8255,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="B42" s="1">
         <v>2170</v>
@@ -8252,7 +8263,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="B43" s="1">
         <v>3720</v>
@@ -8260,7 +8271,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="B44" s="1">
         <v>4650</v>
@@ -8268,7 +8279,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="B45" s="1">
         <v>3720</v>
@@ -8276,7 +8287,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="B46" s="1">
         <v>3100</v>
@@ -8284,7 +8295,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="B47" s="1">
         <v>3100</v>
@@ -8292,7 +8303,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="B48" s="1">
         <v>3100</v>
@@ -8300,7 +8311,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="B49" s="1">
         <v>3100</v>
@@ -8308,7 +8319,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="B50" s="1">
         <v>4650</v>
@@ -8316,7 +8327,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="B51" s="1">
         <v>7750</v>
@@ -8324,7 +8335,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="B52" s="1">
         <v>4650</v>
@@ -8332,7 +8343,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="4" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="B53" s="1">
         <v>1550</v>

--- a/clientes/files/TODITICO_CATÁLOGO.xlsx
+++ b/clientes/files/TODITICO_CATÁLOGO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabajo\Catálogos Proformas\Este\310 Actual\Clientes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A657C555-63CD-481C-84F2-60E9515115CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662BF758-4595-4841-945B-F3805098199D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="671" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="671" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DAEWOO TICO" sheetId="1" r:id="rId1"/>
@@ -2472,8 +2472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A313"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
@@ -2495,7 +2495,7 @@
         <v>177</v>
       </c>
       <c r="B2" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2503,7 +2503,7 @@
         <v>448</v>
       </c>
       <c r="B3" s="1">
-        <v>3720</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2511,7 +2511,7 @@
         <v>178</v>
       </c>
       <c r="B4" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2519,7 +2519,7 @@
         <v>491</v>
       </c>
       <c r="B5" s="1">
-        <v>6200</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2527,7 +2527,7 @@
         <v>492</v>
       </c>
       <c r="B6" s="1">
-        <v>2170</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2535,7 +2535,7 @@
         <v>643</v>
       </c>
       <c r="B7" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2543,7 +2543,7 @@
         <v>179</v>
       </c>
       <c r="B8" s="1">
-        <v>24800</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2551,7 +2551,7 @@
         <v>493</v>
       </c>
       <c r="B9" s="1">
-        <v>31000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2559,7 +2559,7 @@
         <v>180</v>
       </c>
       <c r="B10" s="1">
-        <v>37200</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2567,7 +2567,7 @@
         <v>181</v>
       </c>
       <c r="B11" s="1">
-        <v>31000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2575,7 +2575,7 @@
         <v>182</v>
       </c>
       <c r="B12" s="1">
-        <v>49600</v>
+        <v>52800</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2583,7 +2583,7 @@
         <v>185</v>
       </c>
       <c r="B13" s="1">
-        <v>10850</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2591,7 +2591,7 @@
         <v>183</v>
       </c>
       <c r="B14" s="1">
-        <v>46500</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2599,7 +2599,7 @@
         <v>184</v>
       </c>
       <c r="B15" s="1">
-        <v>34100</v>
+        <v>36300</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2607,7 +2607,7 @@
         <v>644</v>
       </c>
       <c r="B16" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2615,7 +2615,7 @@
         <v>186</v>
       </c>
       <c r="B17" s="1">
-        <v>12400</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2623,7 +2623,7 @@
         <v>187</v>
       </c>
       <c r="B18" s="1">
-        <v>9300</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2631,7 +2631,7 @@
         <v>639</v>
       </c>
       <c r="B19" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2639,7 +2639,7 @@
         <v>494</v>
       </c>
       <c r="B20" s="1">
-        <v>1550</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2647,7 +2647,7 @@
         <v>188</v>
       </c>
       <c r="B21" s="1">
-        <v>930</v>
+        <v>990</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2655,7 +2655,7 @@
         <v>189</v>
       </c>
       <c r="B22" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2663,7 +2663,7 @@
         <v>190</v>
       </c>
       <c r="B23" s="1">
-        <v>37200</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2671,7 +2671,7 @@
         <v>597</v>
       </c>
       <c r="B24" s="1">
-        <v>15500</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2679,7 +2679,7 @@
         <v>191</v>
       </c>
       <c r="B25" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2687,7 +2687,7 @@
         <v>192</v>
       </c>
       <c r="B26" s="1">
-        <v>27900</v>
+        <v>29700</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2695,7 +2695,7 @@
         <v>193</v>
       </c>
       <c r="B27" s="1">
-        <v>10850</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2703,7 +2703,7 @@
         <v>194</v>
       </c>
       <c r="B28" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2711,7 +2711,7 @@
         <v>195</v>
       </c>
       <c r="B29" s="1">
-        <v>46500</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2719,7 +2719,7 @@
         <v>196</v>
       </c>
       <c r="B30" s="1">
-        <v>37200</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2727,7 +2727,7 @@
         <v>197</v>
       </c>
       <c r="B31" s="1">
-        <v>52700</v>
+        <v>56100</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2735,7 +2735,7 @@
         <v>198</v>
       </c>
       <c r="B32" s="1">
-        <v>9300</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2743,7 +2743,7 @@
         <v>199</v>
       </c>
       <c r="B33" s="1">
-        <v>18600</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2751,7 +2751,7 @@
         <v>617</v>
       </c>
       <c r="B34" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2759,7 +2759,7 @@
         <v>645</v>
       </c>
       <c r="B35" s="1">
-        <v>9300</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2767,7 +2767,7 @@
         <v>458</v>
       </c>
       <c r="B36" s="1">
-        <v>24800</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2775,7 +2775,7 @@
         <v>173</v>
       </c>
       <c r="B37" s="1">
-        <v>31000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2783,7 +2783,7 @@
         <v>200</v>
       </c>
       <c r="B38" s="1">
-        <v>7750</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2791,7 +2791,7 @@
         <v>446</v>
       </c>
       <c r="B39" s="1">
-        <v>15500</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2799,7 +2799,7 @@
         <v>434</v>
       </c>
       <c r="B40" s="1">
-        <v>3720</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2807,7 +2807,7 @@
         <v>201</v>
       </c>
       <c r="B41" s="1">
-        <v>12400</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2815,7 +2815,7 @@
         <v>202</v>
       </c>
       <c r="B42" s="1">
-        <v>24800</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2823,7 +2823,7 @@
         <v>203</v>
       </c>
       <c r="B43" s="1">
-        <v>13950</v>
+        <v>14850</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2831,7 +2831,7 @@
         <v>204</v>
       </c>
       <c r="B44" s="1">
-        <v>18600</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2839,7 +2839,7 @@
         <v>205</v>
       </c>
       <c r="B45" s="1">
-        <v>13950</v>
+        <v>14850</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2847,7 +2847,7 @@
         <v>206</v>
       </c>
       <c r="B46" s="1">
-        <v>6200</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2855,7 +2855,7 @@
         <v>431</v>
       </c>
       <c r="B47" s="1">
-        <v>310</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2863,7 +2863,7 @@
         <v>432</v>
       </c>
       <c r="B48" s="1">
-        <v>310</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2871,7 +2871,7 @@
         <v>426</v>
       </c>
       <c r="B49" s="1">
-        <v>310</v>
+        <v>330</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2879,7 +2879,7 @@
         <v>457</v>
       </c>
       <c r="B50" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2887,7 +2887,7 @@
         <v>207</v>
       </c>
       <c r="B51" s="1">
-        <v>31000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2895,7 +2895,7 @@
         <v>208</v>
       </c>
       <c r="B52" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2903,7 +2903,7 @@
         <v>209</v>
       </c>
       <c r="B53" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2911,7 +2911,7 @@
         <v>646</v>
       </c>
       <c r="B54" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2919,7 +2919,7 @@
         <v>647</v>
       </c>
       <c r="B55" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2927,7 +2927,7 @@
         <v>210</v>
       </c>
       <c r="B56" s="1">
-        <v>18600</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2935,7 +2935,7 @@
         <v>211</v>
       </c>
       <c r="B57" s="1">
-        <v>12400</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2943,7 +2943,7 @@
         <v>212</v>
       </c>
       <c r="B58" s="1">
-        <v>6200</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2951,7 +2951,7 @@
         <v>213</v>
       </c>
       <c r="B59" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2959,7 +2959,7 @@
         <v>214</v>
       </c>
       <c r="B60" s="1">
-        <v>6200</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2967,7 +2967,7 @@
         <v>215</v>
       </c>
       <c r="B61" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2975,7 +2975,7 @@
         <v>216</v>
       </c>
       <c r="B62" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2983,7 +2983,7 @@
         <v>217</v>
       </c>
       <c r="B63" s="1">
-        <v>1550</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2991,7 +2991,7 @@
         <v>218</v>
       </c>
       <c r="B64" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2999,7 +2999,7 @@
         <v>220</v>
       </c>
       <c r="B65" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -3007,7 +3007,7 @@
         <v>224</v>
       </c>
       <c r="B66" s="1">
-        <v>620</v>
+        <v>660</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -3015,7 +3015,7 @@
         <v>221</v>
       </c>
       <c r="B67" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -3023,7 +3023,7 @@
         <v>222</v>
       </c>
       <c r="B68" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -3031,7 +3031,7 @@
         <v>223</v>
       </c>
       <c r="B69" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -3039,7 +3039,7 @@
         <v>510</v>
       </c>
       <c r="B70" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -3047,7 +3047,7 @@
         <v>219</v>
       </c>
       <c r="B71" s="1">
-        <v>2170</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -3055,7 +3055,7 @@
         <v>225</v>
       </c>
       <c r="B72" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -3063,7 +3063,7 @@
         <v>226</v>
       </c>
       <c r="B73" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -3071,7 +3071,7 @@
         <v>227</v>
       </c>
       <c r="B74" s="1">
-        <v>6200</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -3079,7 +3079,7 @@
         <v>228</v>
       </c>
       <c r="B75" s="1">
-        <v>7750</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -3087,7 +3087,7 @@
         <v>229</v>
       </c>
       <c r="B76" s="1">
-        <v>6200</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -3095,7 +3095,7 @@
         <v>230</v>
       </c>
       <c r="B77" s="1">
-        <v>13950</v>
+        <v>14850</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -3103,7 +3103,7 @@
         <v>231</v>
       </c>
       <c r="B78" s="1">
-        <v>7750</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -3111,7 +3111,7 @@
         <v>232</v>
       </c>
       <c r="B79" s="1">
-        <v>7750</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -3119,7 +3119,7 @@
         <v>233</v>
       </c>
       <c r="B80" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -3127,7 +3127,7 @@
         <v>444</v>
       </c>
       <c r="B81" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -3135,7 +3135,7 @@
         <v>445</v>
       </c>
       <c r="B82" s="1">
-        <v>9300</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -3143,7 +3143,7 @@
         <v>234</v>
       </c>
       <c r="B83" s="1">
-        <v>15500</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -3151,7 +3151,7 @@
         <v>235</v>
       </c>
       <c r="B84" s="1">
-        <v>21700</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -3159,7 +3159,7 @@
         <v>236</v>
       </c>
       <c r="B85" s="1">
-        <v>31000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -3167,7 +3167,7 @@
         <v>237</v>
       </c>
       <c r="B86" s="1">
-        <v>108500</v>
+        <v>115500</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -3175,7 +3175,7 @@
         <v>238</v>
       </c>
       <c r="B87" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -3183,7 +3183,7 @@
         <v>239</v>
       </c>
       <c r="B88" s="1">
-        <v>93000</v>
+        <v>99000</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -3191,7 +3191,7 @@
         <v>240</v>
       </c>
       <c r="B89" s="1">
-        <v>15500</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -3199,7 +3199,7 @@
         <v>598</v>
       </c>
       <c r="B90" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -3207,7 +3207,7 @@
         <v>435</v>
       </c>
       <c r="B91" s="1">
-        <v>21700</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -3215,7 +3215,7 @@
         <v>241</v>
       </c>
       <c r="B92" s="1">
-        <v>15500</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -3223,7 +3223,7 @@
         <v>242</v>
       </c>
       <c r="B93" s="1">
-        <v>24800</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -3231,7 +3231,7 @@
         <v>243</v>
       </c>
       <c r="B94" s="1">
-        <v>7750</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -3239,7 +3239,7 @@
         <v>451</v>
       </c>
       <c r="B95" s="1">
-        <v>7750</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -3247,7 +3247,7 @@
         <v>244</v>
       </c>
       <c r="B96" s="1">
-        <v>7750</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -3255,7 +3255,7 @@
         <v>618</v>
       </c>
       <c r="B97" s="1">
-        <v>13950</v>
+        <v>14850</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -3263,7 +3263,7 @@
         <v>518</v>
       </c>
       <c r="B98" s="1">
-        <v>77500</v>
+        <v>82500</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -3271,7 +3271,7 @@
         <v>637</v>
       </c>
       <c r="B99" s="1">
-        <v>7750</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -3279,7 +3279,7 @@
         <v>245</v>
       </c>
       <c r="B100" s="1">
-        <v>10850</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -3287,7 +3287,7 @@
         <v>246</v>
       </c>
       <c r="B101" s="1">
-        <v>21700</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -3295,7 +3295,7 @@
         <v>247</v>
       </c>
       <c r="B102" s="1">
-        <v>15500</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -3303,7 +3303,7 @@
         <v>619</v>
       </c>
       <c r="B103" s="1">
-        <v>9300</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -3311,7 +3311,7 @@
         <v>640</v>
       </c>
       <c r="B104" s="1">
-        <v>77.5</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -3319,7 +3319,7 @@
         <v>248</v>
       </c>
       <c r="B105" s="1">
-        <v>37200</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -3327,7 +3327,7 @@
         <v>249</v>
       </c>
       <c r="B106" s="1">
-        <v>9300</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -3335,7 +3335,7 @@
         <v>250</v>
       </c>
       <c r="B107" s="1">
-        <v>18600</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -3343,7 +3343,7 @@
         <v>436</v>
       </c>
       <c r="B108" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -3351,7 +3351,7 @@
         <v>251</v>
       </c>
       <c r="B109" s="1">
-        <v>6200</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -3359,7 +3359,7 @@
         <v>252</v>
       </c>
       <c r="B110" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -3367,7 +3367,7 @@
         <v>253</v>
       </c>
       <c r="B111" s="1">
-        <v>6200</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -3375,7 +3375,7 @@
         <v>254</v>
       </c>
       <c r="B112" s="1">
-        <v>18600</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -3383,7 +3383,7 @@
         <v>255</v>
       </c>
       <c r="B113" s="1">
-        <v>46500</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -3391,7 +3391,7 @@
         <v>256</v>
       </c>
       <c r="B114" s="1">
-        <v>12400</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -3399,7 +3399,7 @@
         <v>459</v>
       </c>
       <c r="B115" s="1">
-        <v>31000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -3407,7 +3407,7 @@
         <v>257</v>
       </c>
       <c r="B116" s="1">
-        <v>7750</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -3415,7 +3415,7 @@
         <v>648</v>
       </c>
       <c r="B117" s="1">
-        <v>139500</v>
+        <v>148500</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -3423,7 +3423,7 @@
         <v>258</v>
       </c>
       <c r="B118" s="1">
-        <v>55800</v>
+        <v>59400</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -3431,7 +3431,7 @@
         <v>488</v>
       </c>
       <c r="B119" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -3439,7 +3439,7 @@
         <v>489</v>
       </c>
       <c r="B120" s="1">
-        <v>9300</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -3447,7 +3447,7 @@
         <v>490</v>
       </c>
       <c r="B121" s="1">
-        <v>9300</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -3455,7 +3455,7 @@
         <v>259</v>
       </c>
       <c r="B122" s="1">
-        <v>18600</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -3463,7 +3463,7 @@
         <v>260</v>
       </c>
       <c r="B123" s="1">
-        <v>37200</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -3471,7 +3471,7 @@
         <v>261</v>
       </c>
       <c r="B124" s="1">
-        <v>7750</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -3479,7 +3479,7 @@
         <v>263</v>
       </c>
       <c r="B125" s="1">
-        <v>24800</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -3487,7 +3487,7 @@
         <v>447</v>
       </c>
       <c r="B126" s="1">
-        <v>77500</v>
+        <v>82500</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -3495,7 +3495,7 @@
         <v>15</v>
       </c>
       <c r="B127" s="1">
-        <v>37200</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -3503,7 +3503,7 @@
         <v>264</v>
       </c>
       <c r="B128" s="1">
-        <v>6200</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -3511,7 +3511,7 @@
         <v>262</v>
       </c>
       <c r="B129" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -3519,7 +3519,7 @@
         <v>599</v>
       </c>
       <c r="B130" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -3527,7 +3527,7 @@
         <v>265</v>
       </c>
       <c r="B131" s="1">
-        <v>15500</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -3535,7 +3535,7 @@
         <v>266</v>
       </c>
       <c r="B132" s="1">
-        <v>18600</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -3543,7 +3543,7 @@
         <v>267</v>
       </c>
       <c r="B133" s="1">
-        <v>31000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -3551,7 +3551,7 @@
         <v>649</v>
       </c>
       <c r="B134" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -3559,7 +3559,7 @@
         <v>268</v>
       </c>
       <c r="B135" s="1">
-        <v>15500</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -3567,7 +3567,7 @@
         <v>269</v>
       </c>
       <c r="B136" s="1">
-        <v>21700</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -3575,7 +3575,7 @@
         <v>270</v>
       </c>
       <c r="B137" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -3583,7 +3583,7 @@
         <v>271</v>
       </c>
       <c r="B138" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -3591,7 +3591,7 @@
         <v>272</v>
       </c>
       <c r="B139" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -3599,7 +3599,7 @@
         <v>276</v>
       </c>
       <c r="B140" s="1">
-        <v>9300</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -3607,7 +3607,7 @@
         <v>277</v>
       </c>
       <c r="B141" s="1">
-        <v>27900</v>
+        <v>29700</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -3615,7 +3615,7 @@
         <v>278</v>
       </c>
       <c r="B142" s="1">
-        <v>15500</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -3623,7 +3623,7 @@
         <v>273</v>
       </c>
       <c r="B143" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -3631,7 +3631,7 @@
         <v>274</v>
       </c>
       <c r="B144" s="1">
-        <v>9300</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -3639,7 +3639,7 @@
         <v>495</v>
       </c>
       <c r="B145" s="1">
-        <v>6200</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -3647,7 +3647,7 @@
         <v>275</v>
       </c>
       <c r="B146" s="1">
-        <v>37200</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -3655,7 +3655,7 @@
         <v>279</v>
       </c>
       <c r="B147" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -3663,7 +3663,7 @@
         <v>280</v>
       </c>
       <c r="B148" s="1">
-        <v>21700</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -3671,7 +3671,7 @@
         <v>281</v>
       </c>
       <c r="B149" s="1">
-        <v>6200</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -3679,7 +3679,7 @@
         <v>519</v>
       </c>
       <c r="B150" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -3687,7 +3687,7 @@
         <v>282</v>
       </c>
       <c r="B151" s="1">
-        <v>1550</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -3695,7 +3695,7 @@
         <v>283</v>
       </c>
       <c r="B152" s="1">
-        <v>31000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -3703,7 +3703,7 @@
         <v>284</v>
       </c>
       <c r="B153" s="1">
-        <v>18600</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -3711,7 +3711,7 @@
         <v>285</v>
       </c>
       <c r="B154" s="1">
-        <v>9300</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -3719,7 +3719,7 @@
         <v>286</v>
       </c>
       <c r="B155" s="1">
-        <v>31000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -3727,7 +3727,7 @@
         <v>287</v>
       </c>
       <c r="B156" s="1">
-        <v>9300</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -3735,7 +3735,7 @@
         <v>288</v>
       </c>
       <c r="B157" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -3743,7 +3743,7 @@
         <v>289</v>
       </c>
       <c r="B158" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -3751,7 +3751,7 @@
         <v>290</v>
       </c>
       <c r="B159" s="1">
-        <v>9300</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -3759,7 +3759,7 @@
         <v>291</v>
       </c>
       <c r="B160" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -3767,7 +3767,7 @@
         <v>449</v>
       </c>
       <c r="B161" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -3775,7 +3775,7 @@
         <v>450</v>
       </c>
       <c r="B162" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -3783,7 +3783,7 @@
         <v>292</v>
       </c>
       <c r="B163" s="1">
-        <v>6200</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -3791,7 +3791,7 @@
         <v>294</v>
       </c>
       <c r="B164" s="1">
-        <v>620</v>
+        <v>660</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -3799,7 +3799,7 @@
         <v>293</v>
       </c>
       <c r="B165" s="1">
-        <v>6200</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -3807,7 +3807,7 @@
         <v>650</v>
       </c>
       <c r="B166" s="1">
-        <v>15500</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -3815,7 +3815,7 @@
         <v>295</v>
       </c>
       <c r="B167" s="1">
-        <v>12400</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -3823,7 +3823,7 @@
         <v>496</v>
       </c>
       <c r="B168" s="1">
-        <v>46500</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -3831,7 +3831,7 @@
         <v>296</v>
       </c>
       <c r="B169" s="1">
-        <v>27900</v>
+        <v>29700</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -3839,7 +3839,7 @@
         <v>297</v>
       </c>
       <c r="B170" s="1">
-        <v>3720</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3847,7 +3847,7 @@
         <v>298</v>
       </c>
       <c r="B171" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3855,7 +3855,7 @@
         <v>499</v>
       </c>
       <c r="B172" s="1">
-        <v>124000</v>
+        <v>132000</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3863,7 +3863,7 @@
         <v>299</v>
       </c>
       <c r="B173" s="1">
-        <v>170500</v>
+        <v>181500</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3871,7 +3871,7 @@
         <v>300</v>
       </c>
       <c r="B174" s="1">
-        <v>1860</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3879,7 +3879,7 @@
         <v>301</v>
       </c>
       <c r="B175" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3887,7 +3887,7 @@
         <v>437</v>
       </c>
       <c r="B176" s="1">
-        <v>6200</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3895,7 +3895,7 @@
         <v>302</v>
       </c>
       <c r="B177" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3903,7 +3903,7 @@
         <v>438</v>
       </c>
       <c r="B178" s="1">
-        <v>1550</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3911,7 +3911,7 @@
         <v>303</v>
       </c>
       <c r="B179" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3919,7 +3919,7 @@
         <v>304</v>
       </c>
       <c r="B180" s="1">
-        <v>21700</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3927,7 +3927,7 @@
         <v>305</v>
       </c>
       <c r="B181" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3935,7 +3935,7 @@
         <v>306</v>
       </c>
       <c r="B182" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3943,7 +3943,7 @@
         <v>307</v>
       </c>
       <c r="B183" s="1">
-        <v>6200</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3951,7 +3951,7 @@
         <v>308</v>
       </c>
       <c r="B184" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3959,7 +3959,7 @@
         <v>309</v>
       </c>
       <c r="B185" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3967,7 +3967,7 @@
         <v>310</v>
       </c>
       <c r="B186" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3975,7 +3975,7 @@
         <v>600</v>
       </c>
       <c r="B187" s="1">
-        <v>3720</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3983,7 +3983,7 @@
         <v>311</v>
       </c>
       <c r="B188" s="1">
-        <v>15500</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3991,7 +3991,7 @@
         <v>502</v>
       </c>
       <c r="B189" s="1">
-        <v>1550</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3999,7 +3999,7 @@
         <v>497</v>
       </c>
       <c r="B190" s="1">
-        <v>1550</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -4007,7 +4007,7 @@
         <v>312</v>
       </c>
       <c r="B191" s="1">
-        <v>9300</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -4015,7 +4015,7 @@
         <v>313</v>
       </c>
       <c r="B192" s="1">
-        <v>2170</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -4023,7 +4023,7 @@
         <v>314</v>
       </c>
       <c r="B193" s="1">
-        <v>86800</v>
+        <v>92400</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -4031,7 +4031,7 @@
         <v>315</v>
       </c>
       <c r="B194" s="1">
-        <v>46500</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -4039,7 +4039,7 @@
         <v>620</v>
       </c>
       <c r="B195" s="1">
-        <v>20150</v>
+        <v>21450</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -4047,7 +4047,7 @@
         <v>439</v>
       </c>
       <c r="B196" s="1">
-        <v>24800</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -4055,7 +4055,7 @@
         <v>316</v>
       </c>
       <c r="B197" s="1">
-        <v>9300</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -4063,7 +4063,7 @@
         <v>317</v>
       </c>
       <c r="B198" s="1">
-        <v>46500</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -4071,7 +4071,7 @@
         <v>318</v>
       </c>
       <c r="B199" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -4079,7 +4079,7 @@
         <v>621</v>
       </c>
       <c r="B200" s="1">
-        <v>18600</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -4087,7 +4087,7 @@
         <v>319</v>
       </c>
       <c r="B201" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -4095,7 +4095,7 @@
         <v>320</v>
       </c>
       <c r="B202" s="1">
-        <v>6200</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -4103,7 +4103,7 @@
         <v>321</v>
       </c>
       <c r="B203" s="1">
-        <v>31000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -4111,7 +4111,7 @@
         <v>322</v>
       </c>
       <c r="B204" s="1">
-        <v>37200</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -4119,7 +4119,7 @@
         <v>323</v>
       </c>
       <c r="B205" s="1">
-        <v>93000</v>
+        <v>99000</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -4127,7 +4127,7 @@
         <v>324</v>
       </c>
       <c r="B206" s="1">
-        <v>49600</v>
+        <v>52800</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -4135,7 +4135,7 @@
         <v>325</v>
       </c>
       <c r="B207" s="1">
-        <v>34100</v>
+        <v>36300</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -4143,7 +4143,7 @@
         <v>326</v>
       </c>
       <c r="B208" s="1">
-        <v>49600</v>
+        <v>52800</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -4151,7 +4151,7 @@
         <v>327</v>
       </c>
       <c r="B209" s="1">
-        <v>9300</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -4159,7 +4159,7 @@
         <v>328</v>
       </c>
       <c r="B210" s="1">
-        <v>52700</v>
+        <v>56100</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -4167,7 +4167,7 @@
         <v>329</v>
       </c>
       <c r="B211" s="1">
-        <v>24800</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -4175,7 +4175,7 @@
         <v>330</v>
       </c>
       <c r="B212" s="1">
-        <v>68200</v>
+        <v>72600</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -4183,7 +4183,7 @@
         <v>331</v>
       </c>
       <c r="B213" s="1">
-        <v>27900</v>
+        <v>29700</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -4191,7 +4191,7 @@
         <v>332</v>
       </c>
       <c r="B214" s="1">
-        <v>7750</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -4199,7 +4199,7 @@
         <v>333</v>
       </c>
       <c r="B215" s="1">
-        <v>21700</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -4207,7 +4207,7 @@
         <v>334</v>
       </c>
       <c r="B216" s="1">
-        <v>7750</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -4215,7 +4215,7 @@
         <v>335</v>
       </c>
       <c r="B217" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -4223,7 +4223,7 @@
         <v>500</v>
       </c>
       <c r="B218" s="1">
-        <v>6200</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -4231,7 +4231,7 @@
         <v>501</v>
       </c>
       <c r="B219" s="1">
-        <v>6200</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -4239,7 +4239,7 @@
         <v>336</v>
       </c>
       <c r="B220" s="1">
-        <v>9300</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -4247,7 +4247,7 @@
         <v>337</v>
       </c>
       <c r="B221" s="1">
-        <v>9300</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -4255,7 +4255,7 @@
         <v>338</v>
       </c>
       <c r="B222" s="1">
-        <v>18600</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -4263,7 +4263,7 @@
         <v>441</v>
       </c>
       <c r="B223" s="1">
-        <v>12400</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -4271,7 +4271,7 @@
         <v>339</v>
       </c>
       <c r="B224" s="1">
-        <v>9300</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -4279,7 +4279,7 @@
         <v>340</v>
       </c>
       <c r="B225" s="1">
-        <v>6200</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -4287,7 +4287,7 @@
         <v>341</v>
       </c>
       <c r="B226" s="1">
-        <v>6200</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -4295,7 +4295,7 @@
         <v>342</v>
       </c>
       <c r="B227" s="1">
-        <v>46500</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -4303,7 +4303,7 @@
         <v>343</v>
       </c>
       <c r="B228" s="1">
-        <v>108500</v>
+        <v>115500</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -4311,7 +4311,7 @@
         <v>344</v>
       </c>
       <c r="B229" s="1">
-        <v>6200</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -4319,7 +4319,7 @@
         <v>345</v>
       </c>
       <c r="B230" s="1">
-        <v>6200</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -4327,7 +4327,7 @@
         <v>346</v>
       </c>
       <c r="B231" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -4335,7 +4335,7 @@
         <v>347</v>
       </c>
       <c r="B232" s="1">
-        <v>9300</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -4343,7 +4343,7 @@
         <v>348</v>
       </c>
       <c r="B233" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -4351,7 +4351,7 @@
         <v>349</v>
       </c>
       <c r="B234" s="1">
-        <v>21700</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -4359,7 +4359,7 @@
         <v>350</v>
       </c>
       <c r="B235" s="1">
-        <v>12400</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -4367,7 +4367,7 @@
         <v>351</v>
       </c>
       <c r="B236" s="1">
-        <v>31000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -4375,7 +4375,7 @@
         <v>352</v>
       </c>
       <c r="B237" s="1">
-        <v>21700</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -4383,7 +4383,7 @@
         <v>353</v>
       </c>
       <c r="B238" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -4391,7 +4391,7 @@
         <v>354</v>
       </c>
       <c r="B239" s="1">
-        <v>40300</v>
+        <v>42900</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -4399,7 +4399,7 @@
         <v>355</v>
       </c>
       <c r="B240" s="1">
-        <v>62000</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -4407,7 +4407,7 @@
         <v>356</v>
       </c>
       <c r="B241" s="1">
-        <v>9300</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -4415,7 +4415,7 @@
         <v>357</v>
       </c>
       <c r="B242" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -4423,7 +4423,7 @@
         <v>622</v>
       </c>
       <c r="B243" s="1">
-        <v>31000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -4431,7 +4431,7 @@
         <v>651</v>
       </c>
       <c r="B244" s="1">
-        <v>20150</v>
+        <v>21450</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -4439,7 +4439,7 @@
         <v>652</v>
       </c>
       <c r="B245" s="1">
-        <v>29450</v>
+        <v>31350</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -4447,7 +4447,7 @@
         <v>358</v>
       </c>
       <c r="B246" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -4455,7 +4455,7 @@
         <v>359</v>
       </c>
       <c r="B247" s="1">
-        <v>6200</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -4463,7 +4463,7 @@
         <v>360</v>
       </c>
       <c r="B248" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -4471,7 +4471,7 @@
         <v>361</v>
       </c>
       <c r="B249" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -4479,7 +4479,7 @@
         <v>362</v>
       </c>
       <c r="B250" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -4487,7 +4487,7 @@
         <v>363</v>
       </c>
       <c r="B251" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -4495,7 +4495,7 @@
         <v>364</v>
       </c>
       <c r="B252" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -4503,7 +4503,7 @@
         <v>365</v>
       </c>
       <c r="B253" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -4511,7 +4511,7 @@
         <v>366</v>
       </c>
       <c r="B254" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -4519,7 +4519,7 @@
         <v>442</v>
       </c>
       <c r="B255" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -4527,7 +4527,7 @@
         <v>443</v>
       </c>
       <c r="B256" s="1">
-        <v>1860</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -4535,7 +4535,7 @@
         <v>653</v>
       </c>
       <c r="B257" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -4543,7 +4543,7 @@
         <v>367</v>
       </c>
       <c r="B258" s="1">
-        <v>46500</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -4551,7 +4551,7 @@
         <v>368</v>
       </c>
       <c r="B259" s="1">
-        <v>55800</v>
+        <v>59400</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -4559,7 +4559,7 @@
         <v>369</v>
       </c>
       <c r="B260" s="1">
-        <v>27900</v>
+        <v>29700</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -4567,7 +4567,7 @@
         <v>370</v>
       </c>
       <c r="B261" s="1">
-        <v>9300</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -4575,7 +4575,7 @@
         <v>371</v>
       </c>
       <c r="B262" s="1">
-        <v>7750</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -4583,7 +4583,7 @@
         <v>372</v>
       </c>
       <c r="B263" s="1">
-        <v>1240</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -4591,7 +4591,7 @@
         <v>373</v>
       </c>
       <c r="B264" s="1">
-        <v>23250</v>
+        <v>24750</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -4599,7 +4599,7 @@
         <v>374</v>
       </c>
       <c r="B265" s="1">
-        <v>7750</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -4607,7 +4607,7 @@
         <v>375</v>
       </c>
       <c r="B266" s="1">
-        <v>21700</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -4615,7 +4615,7 @@
         <v>623</v>
       </c>
       <c r="B267" s="1">
-        <v>3720</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -4623,7 +4623,7 @@
         <v>376</v>
       </c>
       <c r="B268" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -4631,7 +4631,7 @@
         <v>377</v>
       </c>
       <c r="B269" s="1">
-        <v>77500</v>
+        <v>82500</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -4639,7 +4639,7 @@
         <v>433</v>
       </c>
       <c r="B270" s="1">
-        <v>170500</v>
+        <v>181500</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -4647,7 +4647,7 @@
         <v>378</v>
       </c>
       <c r="B271" s="1">
-        <v>7750</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -4655,7 +4655,7 @@
         <v>379</v>
       </c>
       <c r="B272" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -4663,7 +4663,7 @@
         <v>624</v>
       </c>
       <c r="B273" s="1">
-        <v>6200</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -4671,7 +4671,7 @@
         <v>380</v>
       </c>
       <c r="B274" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -4679,7 +4679,7 @@
         <v>381</v>
       </c>
       <c r="B275" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -4687,7 +4687,7 @@
         <v>625</v>
       </c>
       <c r="B276" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -4695,7 +4695,7 @@
         <v>638</v>
       </c>
       <c r="B277" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -4703,7 +4703,7 @@
         <v>382</v>
       </c>
       <c r="B278" s="1">
-        <v>2170</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -4711,7 +4711,7 @@
         <v>383</v>
       </c>
       <c r="B279" s="1">
-        <v>15500</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -4719,7 +4719,7 @@
         <v>384</v>
       </c>
       <c r="B280" s="1">
-        <v>1550</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -4727,7 +4727,7 @@
         <v>385</v>
       </c>
       <c r="B281" s="1">
-        <v>1550</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -4735,7 +4735,7 @@
         <v>386</v>
       </c>
       <c r="B282" s="1">
-        <v>1550</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -4743,7 +4743,7 @@
         <v>387</v>
       </c>
       <c r="B283" s="1">
-        <v>2170</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -4751,7 +4751,7 @@
         <v>388</v>
       </c>
       <c r="B284" s="1">
-        <v>6200</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -4759,7 +4759,7 @@
         <v>427</v>
       </c>
       <c r="B285" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -4767,7 +4767,7 @@
         <v>593</v>
       </c>
       <c r="B286" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -4775,7 +4775,7 @@
         <v>389</v>
       </c>
       <c r="B287" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -4783,7 +4783,7 @@
         <v>603</v>
       </c>
       <c r="B288" s="1">
-        <v>7750</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -4791,7 +4791,7 @@
         <v>604</v>
       </c>
       <c r="B289" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -4799,7 +4799,7 @@
         <v>390</v>
       </c>
       <c r="B290" s="1">
-        <v>1550</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -4807,7 +4807,7 @@
         <v>391</v>
       </c>
       <c r="B291" s="1">
-        <v>2170</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -4815,7 +4815,7 @@
         <v>392</v>
       </c>
       <c r="B292" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -4823,7 +4823,7 @@
         <v>393</v>
       </c>
       <c r="B293" s="1">
-        <v>620</v>
+        <v>660</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -4831,7 +4831,7 @@
         <v>394</v>
       </c>
       <c r="B294" s="1">
-        <v>1550</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -4839,7 +4839,7 @@
         <v>395</v>
       </c>
       <c r="B295" s="1">
-        <v>930</v>
+        <v>990</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -4847,7 +4847,7 @@
         <v>396</v>
       </c>
       <c r="B296" s="1">
-        <v>1240</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -4855,7 +4855,7 @@
         <v>440</v>
       </c>
       <c r="B297" s="1">
-        <v>930</v>
+        <v>990</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -4863,7 +4863,7 @@
         <v>498</v>
       </c>
       <c r="B298" s="1">
-        <v>2170</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -4871,7 +4871,7 @@
         <v>397</v>
       </c>
       <c r="B299" s="1">
-        <v>620</v>
+        <v>660</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -4879,7 +4879,7 @@
         <v>520</v>
       </c>
       <c r="B300" s="1">
-        <v>55800</v>
+        <v>59400</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -4887,7 +4887,7 @@
         <v>503</v>
       </c>
       <c r="B301" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4895,7 +4895,7 @@
         <v>398</v>
       </c>
       <c r="B302" s="1">
-        <v>6200</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4903,7 +4903,7 @@
         <v>399</v>
       </c>
       <c r="B303" s="1">
-        <v>7750</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4911,7 +4911,7 @@
         <v>400</v>
       </c>
       <c r="B304" s="1">
-        <v>13950</v>
+        <v>14850</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4919,7 +4919,7 @@
         <v>401</v>
       </c>
       <c r="B305" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -4927,7 +4927,7 @@
         <v>402</v>
       </c>
       <c r="B306" s="1">
-        <v>18600</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4935,7 +4935,7 @@
         <v>403</v>
       </c>
       <c r="B307" s="1">
-        <v>31000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -4943,7 +4943,7 @@
         <v>504</v>
       </c>
       <c r="B308" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -4951,7 +4951,7 @@
         <v>505</v>
       </c>
       <c r="B309" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -4959,7 +4959,7 @@
         <v>404</v>
       </c>
       <c r="B310" s="1">
-        <v>10850</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -4967,7 +4967,7 @@
         <v>405</v>
       </c>
       <c r="B311" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4975,7 +4975,7 @@
         <v>486</v>
       </c>
       <c r="B312" s="1">
-        <v>1550</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4983,7 +4983,7 @@
         <v>406</v>
       </c>
       <c r="B313" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
   </sheetData>
@@ -4996,7 +4996,7 @@
   <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B112"/>
+      <selection activeCell="B2" sqref="B2:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.5"/>
@@ -5018,7 +5018,7 @@
         <v>521</v>
       </c>
       <c r="B2" s="1">
-        <v>43400</v>
+        <v>46200</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5026,7 +5026,7 @@
         <v>133</v>
       </c>
       <c r="B3" s="1">
-        <v>62000</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5034,7 +5034,7 @@
         <v>626</v>
       </c>
       <c r="B4" s="1">
-        <v>55800</v>
+        <v>59400</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5042,7 +5042,7 @@
         <v>175</v>
       </c>
       <c r="B5" s="1">
-        <v>37200</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5050,7 +5050,7 @@
         <v>627</v>
       </c>
       <c r="B6" s="1">
-        <v>37200</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5058,7 +5058,7 @@
         <v>639</v>
       </c>
       <c r="B7" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5066,7 +5066,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>12400</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5074,7 +5074,7 @@
         <v>522</v>
       </c>
       <c r="B9" s="1">
-        <v>24800</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5082,7 +5082,7 @@
         <v>134</v>
       </c>
       <c r="B10" s="1">
-        <v>12400</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5090,7 +5090,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>6200</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5098,7 +5098,7 @@
         <v>458</v>
       </c>
       <c r="B12" s="1">
-        <v>24800</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5106,7 +5106,7 @@
         <v>173</v>
       </c>
       <c r="B13" s="1">
-        <v>31000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5114,7 +5114,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="1">
-        <v>7750</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5122,7 +5122,7 @@
         <v>135</v>
       </c>
       <c r="B15" s="1">
-        <v>17050</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5130,7 +5130,7 @@
         <v>512</v>
       </c>
       <c r="B16" s="1">
-        <v>18600</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5138,7 +5138,7 @@
         <v>38</v>
       </c>
       <c r="B17" s="1">
-        <v>31000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5146,7 +5146,7 @@
         <v>523</v>
       </c>
       <c r="B18" s="1">
-        <v>21700</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5154,7 +5154,7 @@
         <v>524</v>
       </c>
       <c r="B19" s="1">
-        <v>24800</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5162,7 +5162,7 @@
         <v>431</v>
       </c>
       <c r="B20" s="1">
-        <v>310</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5170,7 +5170,7 @@
         <v>432</v>
       </c>
       <c r="B21" s="1">
-        <v>310</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5178,7 +5178,7 @@
         <v>426</v>
       </c>
       <c r="B22" s="1">
-        <v>310</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5186,7 +5186,7 @@
         <v>468</v>
       </c>
       <c r="B23" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5194,7 +5194,7 @@
         <v>525</v>
       </c>
       <c r="B24" s="1">
-        <v>12400</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5202,7 +5202,7 @@
         <v>526</v>
       </c>
       <c r="B25" s="1">
-        <v>12400</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5210,7 +5210,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5218,7 +5218,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="1">
-        <v>775</v>
+        <v>825</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5226,7 +5226,7 @@
         <v>7</v>
       </c>
       <c r="B28" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5234,7 +5234,7 @@
         <v>462</v>
       </c>
       <c r="B29" s="1">
-        <v>2170</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5242,7 +5242,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="1">
-        <v>7750</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -5250,7 +5250,7 @@
         <v>527</v>
       </c>
       <c r="B31" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -5258,7 +5258,7 @@
         <v>513</v>
       </c>
       <c r="B32" s="1">
-        <v>7750</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -5266,7 +5266,7 @@
         <v>467</v>
       </c>
       <c r="B33" s="1">
-        <v>7750</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -5274,7 +5274,7 @@
         <v>469</v>
       </c>
       <c r="B34" s="1">
-        <v>15500</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -5282,7 +5282,7 @@
         <v>528</v>
       </c>
       <c r="B35" s="1">
-        <v>18600</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -5290,7 +5290,7 @@
         <v>529</v>
       </c>
       <c r="B36" s="1">
-        <v>15500</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -5298,7 +5298,7 @@
         <v>530</v>
       </c>
       <c r="B37" s="1">
-        <v>21700</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -5306,7 +5306,7 @@
         <v>598</v>
       </c>
       <c r="B38" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -5314,7 +5314,7 @@
         <v>13</v>
       </c>
       <c r="B39" s="1">
-        <v>12400</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -5322,7 +5322,7 @@
         <v>30</v>
       </c>
       <c r="B40" s="1">
-        <v>10850</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -5330,7 +5330,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="1">
-        <v>43400</v>
+        <v>46200</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -5338,7 +5338,7 @@
         <v>531</v>
       </c>
       <c r="B42" s="1">
-        <v>21700</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -5346,7 +5346,7 @@
         <v>464</v>
       </c>
       <c r="B43" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -5354,7 +5354,7 @@
         <v>136</v>
       </c>
       <c r="B44" s="1">
-        <v>9300</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -5362,7 +5362,7 @@
         <v>532</v>
       </c>
       <c r="B45" s="1">
-        <v>62000</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -5370,7 +5370,7 @@
         <v>31</v>
       </c>
       <c r="B46" s="1">
-        <v>31000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -5378,7 +5378,7 @@
         <v>455</v>
       </c>
       <c r="B47" s="1">
-        <v>31000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -5386,7 +5386,7 @@
         <v>8</v>
       </c>
       <c r="B48" s="1">
-        <v>46500</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -5394,7 +5394,7 @@
         <v>137</v>
       </c>
       <c r="B49" s="1">
-        <v>37200</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -5402,7 +5402,7 @@
         <v>14</v>
       </c>
       <c r="B50" s="1">
-        <v>18600</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -5410,7 +5410,7 @@
         <v>126</v>
       </c>
       <c r="B51" s="1">
-        <v>21700</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -5418,7 +5418,7 @@
         <v>15</v>
       </c>
       <c r="B52" s="1">
-        <v>40300</v>
+        <v>42900</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -5426,7 +5426,7 @@
         <v>454</v>
       </c>
       <c r="B53" s="1">
-        <v>12400</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -5434,7 +5434,7 @@
         <v>599</v>
       </c>
       <c r="B54" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -5442,7 +5442,7 @@
         <v>533</v>
       </c>
       <c r="B55" s="1">
-        <v>18600</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -5450,7 +5450,7 @@
         <v>534</v>
       </c>
       <c r="B56" s="1">
-        <v>17050</v>
+        <v>18150</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -5458,7 +5458,7 @@
         <v>636</v>
       </c>
       <c r="B57" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -5466,7 +5466,7 @@
         <v>16</v>
       </c>
       <c r="B58" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -5474,7 +5474,7 @@
         <v>17</v>
       </c>
       <c r="B59" s="1">
-        <v>9300</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -5482,7 +5482,7 @@
         <v>628</v>
       </c>
       <c r="B60" s="1">
-        <v>4650</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -5490,7 +5490,7 @@
         <v>174</v>
       </c>
       <c r="B61" s="1">
-        <v>24800</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -5498,7 +5498,7 @@
         <v>519</v>
       </c>
       <c r="B62" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -5506,7 +5506,7 @@
         <v>3</v>
       </c>
       <c r="B63" s="1">
-        <v>37200</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -5514,7 +5514,7 @@
         <v>18</v>
       </c>
       <c r="B64" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -5522,7 +5522,7 @@
         <v>138</v>
       </c>
       <c r="B65" s="1">
-        <v>6200</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -5530,7 +5530,7 @@
         <v>535</v>
       </c>
       <c r="B66" s="1">
-        <v>21700</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -5538,7 +5538,7 @@
         <v>9</v>
       </c>
       <c r="